--- a/maraSonSouce/marasong_memo.xlsx
+++ b/maraSonSouce/marasong_memo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hqu666/Documents/Develop/an/workSpace/maraSong/maraSonSouce/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C59D432A-7CF7-E744-BAC0-9E01D09D0CDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AD08098-A089-E04C-B439-0735580C814C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3300" yWindow="-19760" windowWidth="31200" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="148">
   <si>
     <t>MuList</t>
   </si>
@@ -838,6 +838,14 @@
     <t>アーティストリストを読み込む</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>onOptionsItemSelected</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>menu_item_plist_zenkyoku_kousin</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -855,7 +863,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Menlo"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="18"/>
@@ -1160,7 +1168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1266,6 +1274,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1458,13 +1469,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>132774</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>161635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>508001</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>207817</xdr:rowOff>
@@ -1525,13 +1536,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>219362</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>127001</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>46183</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>115454</xdr:rowOff>
@@ -1587,13 +1598,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>173181</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1653,13 +1664,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>219363</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1718,13 +1729,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>508001</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>109683</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>57727</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>207817</xdr:rowOff>
@@ -1783,13 +1794,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1939,13 +1950,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>127003</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>184726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>508001</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>207817</xdr:rowOff>
@@ -2162,16 +2173,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>103910</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>46185</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>161637</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>461820</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>207817</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>46184</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2188,7 +2199,7 @@
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
           <a:stCxn id="50" idx="4"/>
-          <a:endCxn id="52" idx="0"/>
+          <a:endCxn id="54" idx="0"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
               <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{6817124A-41B7-41FA-85DA-84D2132C9463}" end="{F7B0E7F0-E9B5-4CE9-8CE1-A5EFBB6EFE33}"/>
@@ -2197,9 +2208,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3336639" y="3971637"/>
-          <a:ext cx="461817" cy="738908"/>
+        <a:xfrm rot="5400000">
+          <a:off x="4185229" y="4416137"/>
+          <a:ext cx="715819" cy="103911"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2388,13 +2399,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>2455</xdr:rowOff>
+      <xdr:rowOff>2454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>57728</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>103911</xdr:rowOff>
+      <xdr:rowOff>98139</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2421,8 +2432,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="3902365" y="3951000"/>
-          <a:ext cx="808181" cy="932729"/>
+          <a:off x="3579092" y="3950999"/>
+          <a:ext cx="865909" cy="926958"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2452,13 +2463,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>46183</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>69273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>150091</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>184728</xdr:rowOff>
@@ -2574,13 +2585,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>196279</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>34639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>80824</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>138549</xdr:rowOff>
@@ -2635,13 +2646,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>80824</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>86594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>173182</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>173182</xdr:rowOff>
@@ -2701,13 +2712,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>34635</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>23090</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>219362</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>207817</xdr:rowOff>
@@ -2762,13 +2773,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>80818</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>69273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>184727</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>161636</xdr:rowOff>
@@ -2823,13 +2834,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>57726</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>46184</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>150089</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>173184</xdr:rowOff>
@@ -2884,13 +2895,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>57728</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>69272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>196275</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>184727</xdr:rowOff>
@@ -2945,13 +2956,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>57727</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>69273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>173181</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>184727</xdr:rowOff>
@@ -3133,15 +3144,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>57727</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>46184</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>150091</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>150094</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3156,8 +3167,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2990273" y="4572000"/>
-          <a:ext cx="161636" cy="207819"/>
+          <a:off x="4445000" y="4826002"/>
+          <a:ext cx="92364" cy="103910"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3194,9 +3205,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>69272</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>92364</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
@@ -3217,8 +3228,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2990273" y="4779818"/>
-          <a:ext cx="161636" cy="207819"/>
+          <a:off x="4456545" y="5080000"/>
+          <a:ext cx="92364" cy="115456"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3255,13 +3266,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>103909</xdr:rowOff>
+      <xdr:rowOff>150091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>69272</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>207818</xdr:rowOff>
     </xdr:to>
@@ -3290,8 +3301,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3902365" y="5091545"/>
-          <a:ext cx="808181" cy="103909"/>
+          <a:off x="3579091" y="5137727"/>
+          <a:ext cx="877454" cy="57727"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3449,13 +3460,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>46182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>80819</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>138545</xdr:rowOff>
@@ -3510,13 +3521,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>103910</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>138545</xdr:rowOff>
@@ -3571,13 +3582,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>80819</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>92363</xdr:rowOff>
@@ -3632,13 +3643,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>69272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>46181</xdr:rowOff>
@@ -3699,13 +3710,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>115451</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>80815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>196270</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>173178</xdr:rowOff>
@@ -3760,13 +3771,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>1708729</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>80815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>65811</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>182415</xdr:rowOff>
@@ -3804,13 +3815,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>77356</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>126997</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>115451</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>131615</xdr:rowOff>
@@ -3871,13 +3882,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>92348</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>46180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>173167</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>138543</xdr:rowOff>
@@ -3932,13 +3943,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>1697171</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>46180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>54253</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>147780</xdr:rowOff>
@@ -3976,13 +3987,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>65798</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>92362</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>92348</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>96980</xdr:rowOff>
@@ -4043,13 +4054,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>115446</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>92369</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>196265</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>184732</xdr:rowOff>
@@ -4104,13 +4115,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>1674088</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>138551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>31170</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>32333</xdr:rowOff>
@@ -4148,13 +4159,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>42715</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>138551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>115446</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>189351</xdr:rowOff>
@@ -4216,7 +4227,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>1928090</xdr:colOff>
+      <xdr:colOff>1881909</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>92363</xdr:rowOff>
     </xdr:from>
@@ -4224,7 +4235,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>1973810</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>138083</xdr:rowOff>
+      <xdr:rowOff>173181</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4239,8 +4250,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7123545" y="9859818"/>
-          <a:ext cx="45720" cy="45720"/>
+          <a:off x="6754091" y="9859818"/>
+          <a:ext cx="91901" cy="80818"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4276,16 +4287,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>57729</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>53284</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>80816</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>146629</xdr:colOff>
+      <xdr:rowOff>75736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>151074</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>182416</xdr:rowOff>
+      <xdr:rowOff>187496</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4308,8 +4319,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620002" y="9848271"/>
-          <a:ext cx="88900" cy="101600"/>
+          <a:off x="8077375" y="9843191"/>
+          <a:ext cx="97790" cy="111760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4321,15 +4332,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>1973810</xdr:colOff>
+      <xdr:colOff>1973811</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>115224</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>57729</xdr:colOff>
+      <xdr:rowOff>131616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>173186</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>131617</xdr:rowOff>
+      <xdr:rowOff>132772</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4345,7 +4356,7 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="109" idx="1"/>
+          <a:stCxn id="138" idx="1"/>
           <a:endCxn id="108" idx="6"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
@@ -4355,9 +4366,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="6845992" y="9882679"/>
-          <a:ext cx="774010" cy="16393"/>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="6845993" y="9899071"/>
+          <a:ext cx="658557" cy="1156"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -4365,7 +4376,7 @@
           </a:avLst>
         </a:prstGeom>
         <a:ln>
-          <a:tailEnd type="triangle"/>
+          <a:tailEnd type="stealth"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -4387,13 +4398,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>115449</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>23090</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>196268</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>115453</xdr:rowOff>
@@ -4448,13 +4459,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>1608282</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>57726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>1697182</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>159326</xdr:rowOff>
@@ -4492,13 +4503,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>1697182</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>69272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>115449</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>108526</xdr:rowOff>
@@ -4559,13 +4570,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>115449</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>196268</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>92363</xdr:rowOff>
@@ -5024,13 +5035,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>61</xdr:col>
+      <xdr:col>62</xdr:col>
       <xdr:colOff>57725</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>23091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
+      <xdr:col>62</xdr:col>
       <xdr:colOff>146625</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>124691</xdr:rowOff>
@@ -5196,13 +5207,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>62</xdr:col>
+      <xdr:col>63</xdr:col>
       <xdr:colOff>80819</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>57727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>62</xdr:col>
+      <xdr:col>63</xdr:col>
       <xdr:colOff>169719</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>159327</xdr:rowOff>
@@ -5540,13 +5551,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>49</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>161641</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>46180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>250541</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>147780</xdr:rowOff>
@@ -5710,13 +5721,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>49</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>46184</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>57726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>49</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>135084</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>159326</xdr:rowOff>
@@ -8762,13 +8773,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>1347358</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>32326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>79095</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>120073</xdr:rowOff>
@@ -8798,7 +8809,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6542813" y="3980871"/>
+          <a:off x="6219540" y="3980871"/>
           <a:ext cx="7148373" cy="7361384"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -8827,13 +8838,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>34645</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>138544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>123545</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>32326</xdr:rowOff>
@@ -9272,6 +9283,352 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>173185</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>80816</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>31176</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>182416</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="138" name="図 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36006C9C-96CE-184F-BA0D-50B34CABEA90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7273640" y="9848271"/>
+          <a:ext cx="88900" cy="101600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>31176</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>131616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>53284</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>144316</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="140" name="カギ線コネクタ 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FEBF9C7-902F-0446-B908-E1A79C842218}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5A4120D6-5383-46DE-8CA7-F58917F0615A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="109" idx="1"/>
+          <a:endCxn id="138" idx="3"/>
+          <a:extLst>
+            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{6817124A-41B7-41FA-85DA-84D2132C9463}" end="{00000000-0000-0000-0000-000000000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7593449" y="9899071"/>
+          <a:ext cx="483926" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1951182</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>182416</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>217635</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="143" name="カギ線コネクタ 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E1A50C-9911-D545-AE3E-0081405A31F8}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5A4120D6-5383-46DE-8CA7-F58917F0615A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="145" idx="6"/>
+          <a:endCxn id="138" idx="2"/>
+          <a:extLst>
+            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{6817124A-41B7-41FA-85DA-84D2132C9463}" end="{00000000-0000-0000-0000-000000000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6823364" y="9949871"/>
+          <a:ext cx="494726" cy="2449947"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1870363</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>92363</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1951182</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>184726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="円/楕円 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1648A56C-D615-CD48-B216-5B6954A01005}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6742545" y="12353636"/>
+          <a:ext cx="80819" cy="92363"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>46180</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>57725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>135080</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>159325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="170" name="図 169">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67A62C2E-4E56-B844-8447-F9C44544606C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7146635" y="8993907"/>
+          <a:ext cx="88900" cy="101600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>135080</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>108525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>217635</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>80816</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="171" name="カギ線コネクタ 170">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B9828D0-054A-5B45-AEBA-5DDFCB0A268C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5A4120D6-5383-46DE-8CA7-F58917F0615A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="138" idx="0"/>
+          <a:endCxn id="170" idx="3"/>
+          <a:extLst>
+            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
+              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{6817124A-41B7-41FA-85DA-84D2132C9463}" end="{00000000-0000-0000-0000-000000000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="6990485" y="9289757"/>
+          <a:ext cx="803564" cy="313464"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9574,10 +9931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:AR112"/>
+  <dimension ref="C2:AS112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AF50" sqref="AF50"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="W51" sqref="W51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -9587,70 +9944,72 @@
     <col min="6" max="7" width="2.1640625" customWidth="1"/>
     <col min="8" max="8" width="29.6640625" customWidth="1"/>
     <col min="9" max="18" width="2.1640625" customWidth="1"/>
-    <col min="19" max="19" width="26.1640625" customWidth="1"/>
-    <col min="20" max="25" width="3" customWidth="1"/>
-    <col min="26" max="26" width="22.5" customWidth="1"/>
-    <col min="27" max="31" width="2.83203125" customWidth="1"/>
-    <col min="32" max="32" width="22.6640625" customWidth="1"/>
-    <col min="33" max="35" width="2.1640625" customWidth="1"/>
-    <col min="36" max="39" width="2.33203125" customWidth="1"/>
-    <col min="40" max="40" width="1.83203125" customWidth="1"/>
-    <col min="41" max="41" width="2.5" customWidth="1"/>
-    <col min="42" max="42" width="29.1640625" customWidth="1"/>
-    <col min="43" max="46" width="2.5" customWidth="1"/>
+    <col min="19" max="19" width="29.1640625" customWidth="1"/>
+    <col min="20" max="26" width="3" customWidth="1"/>
+    <col min="27" max="27" width="22.5" customWidth="1"/>
+    <col min="28" max="32" width="2.83203125" customWidth="1"/>
+    <col min="33" max="33" width="22.6640625" customWidth="1"/>
+    <col min="34" max="36" width="2.1640625" customWidth="1"/>
+    <col min="37" max="40" width="2.33203125" customWidth="1"/>
+    <col min="41" max="41" width="1.83203125" customWidth="1"/>
+    <col min="42" max="42" width="2.5" customWidth="1"/>
+    <col min="43" max="43" width="29.1640625" customWidth="1"/>
+    <col min="44" max="47" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="15:44" ht="16" customHeight="1">
-      <c r="O2" s="70" t="s">
+    <row r="2" spans="15:45" ht="16" customHeight="1">
+      <c r="O2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="71"/>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="71"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="72"/>
+      <c r="Z2" s="72"/>
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
       <c r="AJ2" s="72"/>
+      <c r="AK2" s="73"/>
     </row>
-    <row r="3" spans="15:44" ht="16" customHeight="1">
-      <c r="O3" s="73"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="74"/>
-      <c r="AC3" s="74"/>
-      <c r="AD3" s="74"/>
-      <c r="AE3" s="74"/>
-      <c r="AF3" s="74"/>
-      <c r="AG3" s="74"/>
-      <c r="AH3" s="74"/>
-      <c r="AI3" s="74"/>
+    <row r="3" spans="15:45" ht="16" customHeight="1">
+      <c r="O3" s="74"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="75"/>
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="75"/>
+      <c r="AD3" s="75"/>
+      <c r="AE3" s="75"/>
+      <c r="AF3" s="75"/>
+      <c r="AG3" s="75"/>
+      <c r="AH3" s="75"/>
+      <c r="AI3" s="75"/>
       <c r="AJ3" s="75"/>
+      <c r="AK3" s="76"/>
     </row>
-    <row r="4" spans="15:44" ht="16" customHeight="1">
+    <row r="4" spans="15:45" ht="16" customHeight="1">
       <c r="O4" s="4"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
@@ -9672,17 +10031,18 @@
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
-      <c r="AJ4" s="6"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="6"/>
     </row>
-    <row r="5" spans="15:44" ht="16" customHeight="1">
+    <row r="5" spans="15:45" ht="16" customHeight="1">
       <c r="O5" s="4"/>
-      <c r="P5" s="66" t="s">
+      <c r="P5" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="69"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
@@ -9698,9 +10058,10 @@
       <c r="AG5" s="5"/>
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
-      <c r="AJ5" s="6"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="6"/>
     </row>
-    <row r="6" spans="15:44" ht="16" customHeight="1">
+    <row r="6" spans="15:45" ht="16" customHeight="1">
       <c r="O6" s="4"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="1" t="s">
@@ -9710,18 +10071,19 @@
       <c r="S6" s="1"/>
       <c r="T6" s="12"/>
       <c r="U6" s="5"/>
-      <c r="V6" s="16" t="s">
+      <c r="V6" s="5"/>
+      <c r="W6" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="W6" s="17"/>
       <c r="X6" s="17"/>
       <c r="Y6" s="17"/>
       <c r="Z6" s="17"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="22"/>
-      <c r="AJ6" s="5"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="22"/>
+      <c r="AK6" s="5"/>
     </row>
-    <row r="7" spans="15:44" ht="16" customHeight="1">
+    <row r="7" spans="15:45" ht="16" customHeight="1">
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="5" t="s">
@@ -9731,26 +10093,27 @@
       <c r="S7" s="5"/>
       <c r="T7" s="6"/>
       <c r="U7" s="5"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="5" t="s">
+      <c r="V7" s="5"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="5"/>
-      <c r="AD7" s="82" t="s">
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="5"/>
+      <c r="AE7" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="AE7" s="83"/>
-      <c r="AF7" s="83"/>
+      <c r="AF7" s="84"/>
       <c r="AG7" s="84"/>
-      <c r="AH7" s="22"/>
+      <c r="AH7" s="85"/>
       <c r="AI7" s="22"/>
-      <c r="AJ7" s="5"/>
+      <c r="AJ7" s="22"/>
+      <c r="AK7" s="5"/>
     </row>
-    <row r="8" spans="15:44" ht="16" customHeight="1">
+    <row r="8" spans="15:45" ht="16" customHeight="1">
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="5" t="s">
@@ -9760,34 +10123,35 @@
       <c r="S8" s="5"/>
       <c r="T8" s="6"/>
       <c r="U8" s="5"/>
-      <c r="V8" s="2"/>
-      <c r="X8" s="7" t="s">
+      <c r="V8" s="5"/>
+      <c r="W8" s="2"/>
+      <c r="Y8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="5"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="5" t="s">
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="5"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="6"/>
       <c r="AI8" s="5"/>
       <c r="AJ8" s="5"/>
-      <c r="AL8" s="70" t="s">
+      <c r="AK8" s="5"/>
+      <c r="AM8" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="AM8" s="71"/>
-      <c r="AN8" s="71"/>
-      <c r="AO8" s="71"/>
-      <c r="AP8" s="71"/>
-      <c r="AQ8" s="71"/>
+      <c r="AN8" s="72"/>
+      <c r="AO8" s="72"/>
+      <c r="AP8" s="72"/>
+      <c r="AQ8" s="72"/>
       <c r="AR8" s="72"/>
+      <c r="AS8" s="73"/>
     </row>
-    <row r="9" spans="15:44" ht="16" customHeight="1">
+    <row r="9" spans="15:45" ht="16" customHeight="1">
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="5"/>
@@ -9802,69 +10166,71 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7" t="s">
+      <c r="AC9" s="5"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="5"/>
+      <c r="AH9" s="3"/>
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5"/>
-      <c r="AL9" s="73"/>
+      <c r="AK9" s="5"/>
       <c r="AM9" s="74"/>
-      <c r="AN9" s="74"/>
-      <c r="AO9" s="74"/>
-      <c r="AP9" s="74"/>
-      <c r="AQ9" s="74"/>
+      <c r="AN9" s="75"/>
+      <c r="AO9" s="75"/>
+      <c r="AP9" s="75"/>
+      <c r="AQ9" s="75"/>
       <c r="AR9" s="75"/>
+      <c r="AS9" s="76"/>
     </row>
-    <row r="10" spans="15:44" ht="16" customHeight="1">
+    <row r="10" spans="15:45" ht="16" customHeight="1">
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="69" t="s">
+      <c r="Q10" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
       <c r="T10" s="26"/>
       <c r="U10" s="5"/>
-      <c r="AC10" s="22"/>
+      <c r="V10" s="5"/>
       <c r="AD10" s="22"/>
       <c r="AE10" s="22"/>
       <c r="AF10" s="22"/>
       <c r="AG10" s="22"/>
       <c r="AH10" s="22"/>
       <c r="AI10" s="22"/>
-      <c r="AJ10" s="21"/>
-      <c r="AL10" s="4"/>
-      <c r="AM10" s="66" t="s">
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="21"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="AN10" s="67"/>
-      <c r="AO10" s="67"/>
-      <c r="AP10" s="67"/>
+      <c r="AO10" s="68"/>
+      <c r="AP10" s="68"/>
       <c r="AQ10" s="68"/>
-      <c r="AR10" s="6"/>
+      <c r="AR10" s="69"/>
+      <c r="AS10" s="6"/>
     </row>
-    <row r="11" spans="15:44" ht="16" customHeight="1">
+    <row r="11" spans="15:45" ht="16" customHeight="1">
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="69"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
       <c r="T11" s="26"/>
       <c r="U11" s="5"/>
-      <c r="V11" s="66" t="s">
+      <c r="V11" s="5"/>
+      <c r="W11" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="W11" s="67"/>
-      <c r="X11" s="67"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="67"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="68"/>
+      <c r="Z11" s="68"/>
       <c r="AA11" s="68"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="5"/>
+      <c r="AB11" s="69"/>
+      <c r="AC11" s="20"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
@@ -9872,17 +10238,18 @@
       <c r="AH11" s="5"/>
       <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="77" t="s">
+      <c r="AK11" s="5"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="AN11" s="78"/>
-      <c r="AO11" s="78"/>
-      <c r="AP11" s="78"/>
-      <c r="AQ11" s="6"/>
+      <c r="AO11" s="79"/>
+      <c r="AP11" s="79"/>
+      <c r="AQ11" s="79"/>
       <c r="AR11" s="6"/>
+      <c r="AS11" s="6"/>
     </row>
-    <row r="12" spans="15:44" ht="16" customHeight="1">
+    <row r="12" spans="15:45" ht="16" customHeight="1">
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="5"/>
@@ -9890,16 +10257,16 @@
       <c r="S12" s="5"/>
       <c r="T12" s="6"/>
       <c r="U12" s="5"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="1" t="s">
+      <c r="V12" s="5"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="5"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="19"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
@@ -9907,17 +10274,18 @@
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
       <c r="AJ12" s="5"/>
-      <c r="AL12" s="4"/>
+      <c r="AK12" s="5"/>
       <c r="AM12" s="4"/>
-      <c r="AN12" s="5" t="s">
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AO12" s="5"/>
       <c r="AP12" s="5"/>
-      <c r="AQ12" s="6"/>
+      <c r="AQ12" s="5"/>
       <c r="AR12" s="6"/>
+      <c r="AS12" s="6"/>
     </row>
-    <row r="13" spans="15:44" ht="16" customHeight="1">
+    <row r="13" spans="15:45" ht="16" customHeight="1">
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="5" t="s">
@@ -9927,15 +10295,15 @@
       <c r="S13" s="5"/>
       <c r="T13" s="6"/>
       <c r="U13" s="5"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5" t="s">
+      <c r="V13" s="5"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="6"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
@@ -9944,17 +10312,18 @@
       <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
       <c r="AJ13" s="5"/>
-      <c r="AL13" s="4"/>
-      <c r="AM13" s="2"/>
-      <c r="AN13" s="7"/>
-      <c r="AO13" s="7" t="s">
+      <c r="AK13" s="5"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="7"/>
+      <c r="AP13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AP13" s="7"/>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="6"/>
+      <c r="AQ13" s="7"/>
+      <c r="AR13" s="3"/>
+      <c r="AS13" s="6"/>
     </row>
-    <row r="14" spans="15:44" ht="16" customHeight="1">
+    <row r="14" spans="15:45" ht="16" customHeight="1">
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="5"/>
@@ -9962,15 +10331,15 @@
       <c r="S14" s="5"/>
       <c r="T14" s="6"/>
       <c r="U14" s="5"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5" t="s">
+      <c r="V14" s="5"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="6"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
@@ -9978,16 +10347,17 @@
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
       <c r="AI14" s="5"/>
-      <c r="AJ14" s="19"/>
-      <c r="AL14" s="2"/>
-      <c r="AM14" s="7"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="19"/>
+      <c r="AM14" s="2"/>
       <c r="AN14" s="7"/>
       <c r="AO14" s="7"/>
       <c r="AP14" s="7"/>
       <c r="AQ14" s="7"/>
-      <c r="AR14" s="3"/>
+      <c r="AR14" s="7"/>
+      <c r="AS14" s="3"/>
     </row>
-    <row r="15" spans="15:44" ht="16" customHeight="1">
+    <row r="15" spans="15:45" ht="16" customHeight="1">
       <c r="O15" s="4"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="7"/>
@@ -9995,15 +10365,15 @@
       <c r="S15" s="7"/>
       <c r="T15" s="3"/>
       <c r="U15" s="5"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="7"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="2"/>
       <c r="X15" s="7"/>
-      <c r="Y15" s="7" t="s">
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="5"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="3"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
@@ -10011,9 +10381,10 @@
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
       <c r="AI15" s="5"/>
-      <c r="AJ15" s="19"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="19"/>
     </row>
-    <row r="16" spans="15:44" ht="16" customHeight="1">
+    <row r="16" spans="15:45" ht="16" customHeight="1">
       <c r="O16" s="4"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -10021,69 +10392,71 @@
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
-      <c r="AC16" s="19"/>
+      <c r="V16" s="5"/>
       <c r="AD16" s="19"/>
       <c r="AE16" s="19"/>
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="19"/>
-      <c r="AJ16" s="5"/>
-      <c r="AL16" s="70" t="s">
+      <c r="AJ16" s="19"/>
+      <c r="AK16" s="5"/>
+      <c r="AM16" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="AM16" s="71"/>
-      <c r="AN16" s="71"/>
-      <c r="AO16" s="71"/>
-      <c r="AP16" s="71"/>
-      <c r="AQ16" s="71"/>
+      <c r="AN16" s="72"/>
+      <c r="AO16" s="72"/>
+      <c r="AP16" s="72"/>
+      <c r="AQ16" s="72"/>
       <c r="AR16" s="72"/>
+      <c r="AS16" s="73"/>
     </row>
-    <row r="17" spans="3:44" ht="16" customHeight="1">
+    <row r="17" spans="3:45" ht="16" customHeight="1">
       <c r="O17" s="4"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
-      <c r="V17" s="76" t="s">
+      <c r="V17" s="5"/>
+      <c r="W17" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="W17" s="76"/>
-      <c r="X17" s="76"/>
-      <c r="Y17" s="76"/>
-      <c r="Z17" s="76"/>
-      <c r="AA17" s="76"/>
-      <c r="AB17" s="23"/>
-      <c r="AC17" s="19"/>
+      <c r="X17" s="77"/>
+      <c r="Y17" s="77"/>
+      <c r="Z17" s="77"/>
+      <c r="AA17" s="77"/>
+      <c r="AB17" s="77"/>
+      <c r="AC17" s="23"/>
       <c r="AD17" s="19"/>
       <c r="AE17" s="19"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
       <c r="AH17" s="19"/>
       <c r="AI17" s="19"/>
-      <c r="AJ17" s="5"/>
-      <c r="AL17" s="73"/>
+      <c r="AJ17" s="19"/>
+      <c r="AK17" s="5"/>
       <c r="AM17" s="74"/>
-      <c r="AN17" s="74"/>
-      <c r="AO17" s="74"/>
-      <c r="AP17" s="74"/>
-      <c r="AQ17" s="74"/>
+      <c r="AN17" s="75"/>
+      <c r="AO17" s="75"/>
+      <c r="AP17" s="75"/>
+      <c r="AQ17" s="75"/>
       <c r="AR17" s="75"/>
+      <c r="AS17" s="76"/>
     </row>
-    <row r="18" spans="3:44" ht="16" customHeight="1">
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="65" t="s">
+    <row r="18" spans="3:45" ht="16" customHeight="1">
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
       <c r="O18" s="4"/>
       <c r="P18" s="32" t="s">
         <v>23</v>
@@ -10094,10 +10467,10 @@
       <c r="T18" s="34"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
-      <c r="W18" s="10" t="s">
+      <c r="W18" s="5"/>
+      <c r="X18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
@@ -10109,25 +10482,26 @@
       <c r="AG18" s="5"/>
       <c r="AH18" s="5"/>
       <c r="AI18" s="5"/>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AM18" s="4"/>
       <c r="AN18" s="5"/>
       <c r="AO18" s="5"/>
       <c r="AP18" s="5"/>
       <c r="AQ18" s="5"/>
-      <c r="AR18" s="6"/>
+      <c r="AR18" s="5"/>
+      <c r="AS18" s="6"/>
     </row>
-    <row r="19" spans="3:44" ht="16" customHeight="1">
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
+    <row r="19" spans="3:45" ht="16" customHeight="1">
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
       <c r="O19" s="4"/>
       <c r="P19" s="35"/>
       <c r="Q19" s="5" t="s">
@@ -10144,18 +10518,19 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="66" t="s">
+      <c r="AC19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="AN19" s="67"/>
-      <c r="AO19" s="67"/>
-      <c r="AP19" s="67"/>
+      <c r="AO19" s="68"/>
+      <c r="AP19" s="68"/>
       <c r="AQ19" s="68"/>
-      <c r="AR19" s="6"/>
+      <c r="AR19" s="69"/>
+      <c r="AS19" s="6"/>
     </row>
-    <row r="20" spans="3:44" ht="16" customHeight="1">
+    <row r="20" spans="3:45" ht="16" customHeight="1">
       <c r="O20" s="4"/>
       <c r="P20" s="35"/>
       <c r="Q20" s="5"/>
@@ -10165,25 +10540,26 @@
       <c r="S20" s="5"/>
       <c r="T20" s="36"/>
       <c r="U20" s="5"/>
-      <c r="AC20" s="23"/>
+      <c r="V20" s="5"/>
       <c r="AD20" s="23"/>
       <c r="AE20" s="23"/>
       <c r="AF20" s="23"/>
       <c r="AG20" s="23"/>
       <c r="AH20" s="23"/>
-      <c r="AI20" s="30"/>
-      <c r="AJ20" s="5"/>
-      <c r="AL20" s="4"/>
-      <c r="AM20" s="11"/>
-      <c r="AN20" s="5" t="s">
+      <c r="AI20" s="23"/>
+      <c r="AJ20" s="30"/>
+      <c r="AK20" s="5"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AO20" s="5"/>
       <c r="AP20" s="5"/>
-      <c r="AQ20" s="8"/>
-      <c r="AR20" s="6"/>
+      <c r="AQ20" s="5"/>
+      <c r="AR20" s="8"/>
+      <c r="AS20" s="6"/>
     </row>
-    <row r="21" spans="3:44" ht="16" customHeight="1">
+    <row r="21" spans="3:45" ht="16" customHeight="1">
       <c r="O21" s="4"/>
       <c r="P21" s="37"/>
       <c r="Q21" s="38"/>
@@ -10192,63 +10568,64 @@
       </c>
       <c r="S21" s="38"/>
       <c r="T21" s="39"/>
-      <c r="V21" s="79" t="s">
+      <c r="W21" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="W21" s="80"/>
-      <c r="X21" s="80"/>
-      <c r="Y21" s="80"/>
-      <c r="Z21" s="80"/>
+      <c r="X21" s="81"/>
+      <c r="Y21" s="81"/>
+      <c r="Z21" s="81"/>
       <c r="AA21" s="81"/>
-      <c r="AB21" s="47"/>
-      <c r="AC21" s="9"/>
+      <c r="AB21" s="82"/>
+      <c r="AC21" s="47"/>
       <c r="AD21" s="9"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="9"/>
       <c r="AG21" s="9"/>
       <c r="AH21" s="9"/>
       <c r="AI21" s="9"/>
-      <c r="AJ21" s="5"/>
-      <c r="AL21" s="4"/>
+      <c r="AJ21" s="9"/>
+      <c r="AK21" s="5"/>
       <c r="AM21" s="4"/>
-      <c r="AN21" s="1" t="s">
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AO21" s="1"/>
       <c r="AP21" s="1"/>
-      <c r="AQ21" s="6"/>
+      <c r="AQ21" s="1"/>
       <c r="AR21" s="6"/>
+      <c r="AS21" s="6"/>
     </row>
-    <row r="22" spans="3:44" ht="16" customHeight="1">
+    <row r="22" spans="3:45" ht="16" customHeight="1">
       <c r="O22" s="4"/>
       <c r="U22" s="5"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="41" t="s">
+      <c r="V22" s="5"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="X22" s="41"/>
       <c r="Y22" s="41"/>
       <c r="Z22" s="41"/>
-      <c r="AA22" s="42"/>
-      <c r="AB22" s="41"/>
-      <c r="AC22" s="10"/>
+      <c r="AA22" s="41"/>
+      <c r="AB22" s="42"/>
+      <c r="AC22" s="41"/>
       <c r="AD22" s="10"/>
       <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
       <c r="AI22" s="10"/>
-      <c r="AL22" s="4"/>
+      <c r="AJ22" s="10"/>
       <c r="AM22" s="4"/>
-      <c r="AN22" s="5"/>
-      <c r="AO22" s="5" t="s">
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AP22" s="5"/>
-      <c r="AQ22" s="6"/>
+      <c r="AQ22" s="5"/>
       <c r="AR22" s="6"/>
+      <c r="AS22" s="6"/>
     </row>
-    <row r="23" spans="3:44" ht="16" customHeight="1">
+    <row r="23" spans="3:45" ht="16" customHeight="1">
       <c r="O23" s="4"/>
       <c r="P23" s="27" t="s">
         <v>29</v>
@@ -10256,107 +10633,108 @@
       <c r="Q23" s="27"/>
       <c r="R23" s="27"/>
       <c r="S23" s="27"/>
-      <c r="V23" s="40"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="41" t="s">
+      <c r="W23" s="40"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="Y23" s="41"/>
       <c r="Z23" s="41"/>
-      <c r="AA23" s="42"/>
-      <c r="AB23" s="41"/>
-      <c r="AC23" s="5"/>
+      <c r="AA23" s="41"/>
+      <c r="AB23" s="42"/>
+      <c r="AC23" s="41"/>
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
       <c r="AG23" s="5"/>
       <c r="AH23" s="5"/>
       <c r="AI23" s="5"/>
-      <c r="AL23" s="4"/>
+      <c r="AJ23" s="5"/>
       <c r="AM23" s="4"/>
-      <c r="AN23" s="5"/>
+      <c r="AN23" s="4"/>
       <c r="AO23" s="5"/>
-      <c r="AP23" s="5" t="s">
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AQ23" s="6"/>
       <c r="AR23" s="6"/>
+      <c r="AS23" s="6"/>
     </row>
-    <row r="24" spans="3:44" ht="16" customHeight="1">
-      <c r="F24" s="65" t="s">
+    <row r="24" spans="3:45" ht="16" customHeight="1">
+      <c r="F24" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
       <c r="O24" s="4"/>
       <c r="Q24" s="7" t="s">
         <v>26</v>
       </c>
       <c r="T24" s="27"/>
       <c r="U24" s="27"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="43" t="s">
+      <c r="V24" s="51"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="X24" s="41"/>
       <c r="Y24" s="41"/>
       <c r="Z24" s="41"/>
-      <c r="AA24" s="42"/>
-      <c r="AB24" s="41"/>
-      <c r="AC24" s="5"/>
+      <c r="AA24" s="41"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="41"/>
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
       <c r="AG24" s="5"/>
       <c r="AH24" s="5"/>
       <c r="AI24" s="5"/>
-      <c r="AL24" s="4"/>
+      <c r="AJ24" s="5"/>
       <c r="AM24" s="4"/>
-      <c r="AN24" s="5"/>
-      <c r="AO24" s="5" t="s">
+      <c r="AN24" s="4"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AP24" s="5"/>
-      <c r="AQ24" s="6"/>
+      <c r="AQ24" s="5"/>
       <c r="AR24" s="6"/>
+      <c r="AS24" s="6"/>
     </row>
-    <row r="25" spans="3:44" ht="16" customHeight="1">
-      <c r="E25" s="60"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
+    <row r="25" spans="3:45" ht="16" customHeight="1">
+      <c r="E25" s="61"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
       <c r="O25" s="4"/>
       <c r="Q25" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="V25" s="40"/>
-      <c r="W25" s="41"/>
-      <c r="X25" s="41" t="s">
+      <c r="W25" s="40"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="Y25" s="41"/>
       <c r="Z25" s="41"/>
-      <c r="AA25" s="42"/>
-      <c r="AB25" s="41"/>
-      <c r="AL25" s="14"/>
-      <c r="AM25" s="24"/>
-      <c r="AN25" s="7"/>
-      <c r="AO25" s="7" t="s">
+      <c r="AA25" s="41"/>
+      <c r="AB25" s="42"/>
+      <c r="AC25" s="41"/>
+      <c r="AM25" s="14"/>
+      <c r="AN25" s="24"/>
+      <c r="AO25" s="7"/>
+      <c r="AP25" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="AP25" s="7"/>
-      <c r="AQ25" s="25"/>
-      <c r="AR25" s="15"/>
+      <c r="AQ25" s="7"/>
+      <c r="AR25" s="25"/>
+      <c r="AS25" s="15"/>
     </row>
-    <row r="26" spans="3:44" ht="16" customHeight="1">
+    <row r="26" spans="3:45" ht="16" customHeight="1">
       <c r="F26" s="28" t="s">
         <v>33</v>
       </c>
@@ -10364,46 +10742,46 @@
       <c r="H26" s="28"/>
       <c r="I26" s="28"/>
       <c r="O26" s="4"/>
-      <c r="V26" s="40"/>
-      <c r="W26" s="46" t="s">
+      <c r="W26" s="40"/>
+      <c r="X26" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="X26" s="41"/>
       <c r="Y26" s="41"/>
       <c r="Z26" s="41"/>
-      <c r="AA26" s="42"/>
-      <c r="AB26" s="41"/>
-      <c r="AL26" s="4"/>
-      <c r="AM26" s="5"/>
+      <c r="AA26" s="41"/>
+      <c r="AB26" s="42"/>
+      <c r="AC26" s="41"/>
+      <c r="AM26" s="4"/>
       <c r="AN26" s="5"/>
       <c r="AO26" s="5"/>
       <c r="AP26" s="5"/>
       <c r="AQ26" s="5"/>
-      <c r="AR26" s="6"/>
+      <c r="AR26" s="5"/>
+      <c r="AS26" s="6"/>
     </row>
-    <row r="27" spans="3:44" ht="16" customHeight="1">
+    <row r="27" spans="3:45" ht="16" customHeight="1">
       <c r="O27" s="4"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
-      <c r="V27" s="40"/>
-      <c r="W27" s="45" t="s">
+      <c r="W27" s="40"/>
+      <c r="X27" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="X27" s="41"/>
       <c r="Y27" s="41"/>
       <c r="Z27" s="41"/>
-      <c r="AA27" s="42"/>
-      <c r="AB27" s="41"/>
-      <c r="AL27" s="2"/>
-      <c r="AM27" s="7"/>
+      <c r="AA27" s="41"/>
+      <c r="AB27" s="42"/>
+      <c r="AC27" s="41"/>
+      <c r="AM27" s="2"/>
       <c r="AN27" s="7"/>
       <c r="AO27" s="7"/>
       <c r="AP27" s="7"/>
       <c r="AQ27" s="7"/>
-      <c r="AR27" s="3"/>
+      <c r="AR27" s="7"/>
+      <c r="AS27" s="3"/>
     </row>
-    <row r="28" spans="3:44" ht="16" customHeight="1">
+    <row r="28" spans="3:45" ht="16" customHeight="1">
       <c r="O28" s="4"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
@@ -10411,330 +10789,355 @@
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="41" t="s">
+      <c r="V28" s="5"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="X28" s="41"/>
       <c r="Y28" s="41"/>
       <c r="Z28" s="41"/>
-      <c r="AA28" s="42"/>
-      <c r="AB28" s="41"/>
-      <c r="AL28" s="5"/>
+      <c r="AA28" s="41"/>
+      <c r="AB28" s="42"/>
+      <c r="AC28" s="41"/>
       <c r="AM28" s="5"/>
       <c r="AN28" s="5"/>
       <c r="AO28" s="5"/>
       <c r="AP28" s="5"/>
       <c r="AQ28" s="5"/>
       <c r="AR28" s="5"/>
+      <c r="AS28" s="5"/>
     </row>
-    <row r="29" spans="3:44" ht="16" customHeight="1">
-      <c r="V29" s="40"/>
-      <c r="W29" s="41"/>
-      <c r="X29" s="41" t="s">
+    <row r="29" spans="3:45" ht="16" customHeight="1">
+      <c r="W29" s="40"/>
+      <c r="X29" s="41"/>
+      <c r="Y29" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="Y29" s="41"/>
       <c r="Z29" s="41"/>
-      <c r="AA29" s="42"/>
-      <c r="AB29" s="41"/>
-      <c r="AL29" s="5"/>
+      <c r="AA29" s="41"/>
+      <c r="AB29" s="42"/>
+      <c r="AC29" s="41"/>
       <c r="AM29" s="5"/>
       <c r="AN29" s="5"/>
       <c r="AO29" s="5"/>
       <c r="AP29" s="5"/>
       <c r="AQ29" s="5"/>
       <c r="AR29" s="5"/>
+      <c r="AS29" s="5"/>
     </row>
-    <row r="30" spans="3:44" ht="16" customHeight="1">
-      <c r="V30" s="40"/>
-      <c r="W30" s="44" t="s">
+    <row r="30" spans="3:45" ht="16" customHeight="1">
+      <c r="W30" s="40"/>
+      <c r="X30" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="X30" s="41"/>
       <c r="Y30" s="41"/>
       <c r="Z30" s="41"/>
-      <c r="AA30" s="42"/>
-      <c r="AB30" s="41"/>
-      <c r="AL30" s="5"/>
+      <c r="AA30" s="41"/>
+      <c r="AB30" s="42"/>
+      <c r="AC30" s="41"/>
       <c r="AM30" s="5"/>
       <c r="AN30" s="5"/>
       <c r="AO30" s="5"/>
       <c r="AP30" s="5"/>
       <c r="AQ30" s="5"/>
       <c r="AR30" s="5"/>
+      <c r="AS30" s="5"/>
     </row>
-    <row r="31" spans="3:44" ht="16" customHeight="1">
-      <c r="V31" s="40"/>
-      <c r="W31" s="45" t="s">
+    <row r="31" spans="3:45" ht="16" customHeight="1">
+      <c r="W31" s="40"/>
+      <c r="X31" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="X31" s="41"/>
       <c r="Y31" s="41"/>
       <c r="Z31" s="41"/>
-      <c r="AA31" s="42"/>
-      <c r="AB31" s="41"/>
-      <c r="AL31" s="5"/>
+      <c r="AA31" s="41"/>
+      <c r="AB31" s="42"/>
+      <c r="AC31" s="41"/>
       <c r="AM31" s="5"/>
       <c r="AN31" s="5"/>
       <c r="AO31" s="5"/>
       <c r="AP31" s="5"/>
       <c r="AQ31" s="5"/>
       <c r="AR31" s="5"/>
+      <c r="AS31" s="5"/>
     </row>
-    <row r="32" spans="3:44" ht="16" customHeight="1">
-      <c r="AL32" s="5"/>
+    <row r="32" spans="3:45" ht="16" customHeight="1">
       <c r="AM32" s="5"/>
       <c r="AN32" s="5"/>
       <c r="AO32" s="5"/>
       <c r="AP32" s="5"/>
       <c r="AQ32" s="5"/>
       <c r="AR32" s="5"/>
+      <c r="AS32" s="5"/>
     </row>
-    <row r="33" spans="6:44" ht="16" customHeight="1">
-      <c r="V33" s="85" t="s">
+    <row r="33" spans="6:45" ht="16" customHeight="1">
+      <c r="W33" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="W33" s="86"/>
-      <c r="X33" s="86"/>
-      <c r="Y33" s="86"/>
-      <c r="Z33" s="86"/>
+      <c r="X33" s="87"/>
+      <c r="Y33" s="87"/>
+      <c r="Z33" s="87"/>
       <c r="AA33" s="87"/>
-      <c r="AB33" s="22"/>
-      <c r="AC33" t="s">
+      <c r="AB33" s="88"/>
+      <c r="AC33" s="22"/>
+      <c r="AD33" t="s">
         <v>52</v>
       </c>
-      <c r="AL33" s="5"/>
       <c r="AM33" s="5"/>
       <c r="AN33" s="5"/>
       <c r="AO33" s="5"/>
       <c r="AP33" s="5"/>
       <c r="AQ33" s="5"/>
       <c r="AR33" s="5"/>
+      <c r="AS33" s="5"/>
     </row>
-    <row r="34" spans="6:44" ht="16" customHeight="1">
-      <c r="V34" s="35"/>
-      <c r="W34" s="5"/>
+    <row r="34" spans="6:45" ht="16" customHeight="1">
+      <c r="W34" s="35"/>
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
-      <c r="AA34" s="36"/>
-      <c r="AL34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="36"/>
       <c r="AM34" s="5"/>
       <c r="AN34" s="5"/>
       <c r="AO34" s="5"/>
       <c r="AP34" s="5"/>
       <c r="AQ34" s="5"/>
       <c r="AR34" s="5"/>
+      <c r="AS34" s="5"/>
     </row>
-    <row r="35" spans="6:44" ht="16" customHeight="1">
-      <c r="V35" s="35"/>
-      <c r="W35" s="5" t="s">
+    <row r="35" spans="6:45" ht="16" customHeight="1">
+      <c r="W35" s="35"/>
+      <c r="X35" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
-      <c r="AA35" s="36"/>
-      <c r="AD35" s="64" t="s">
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="36"/>
+      <c r="AE35" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="AE35" s="64"/>
-      <c r="AF35" s="64"/>
-      <c r="AG35" s="64"/>
-      <c r="AH35" s="27"/>
-      <c r="AI35" s="29"/>
-      <c r="AL35" s="5"/>
+      <c r="AF35" s="65"/>
+      <c r="AG35" s="65"/>
+      <c r="AH35" s="65"/>
+      <c r="AI35" s="27"/>
+      <c r="AJ35" s="29"/>
       <c r="AM35" s="5"/>
       <c r="AN35" s="5"/>
       <c r="AO35" s="5"/>
       <c r="AP35" s="5"/>
       <c r="AQ35" s="5"/>
       <c r="AR35" s="5"/>
+      <c r="AS35" s="5"/>
     </row>
-    <row r="36" spans="6:44" ht="16" customHeight="1">
-      <c r="V36" s="35"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5" t="s">
+    <row r="36" spans="6:45" ht="16" customHeight="1">
+      <c r="W36" s="35"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
-      <c r="AA36" s="36"/>
-      <c r="AL36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="36"/>
       <c r="AM36" s="5"/>
       <c r="AN36" s="5"/>
       <c r="AO36" s="5"/>
       <c r="AP36" s="5"/>
       <c r="AQ36" s="5"/>
       <c r="AR36" s="5"/>
+      <c r="AS36" s="5"/>
     </row>
-    <row r="37" spans="6:44" ht="16" customHeight="1">
-      <c r="V37" s="35"/>
-      <c r="W37" s="5"/>
+    <row r="37" spans="6:45" ht="16" customHeight="1">
+      <c r="W37" s="35"/>
       <c r="X37" s="5"/>
-      <c r="Y37" s="5" t="s">
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="36"/>
-      <c r="AL37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="36"/>
       <c r="AM37" s="5"/>
       <c r="AN37" s="5"/>
       <c r="AO37" s="5"/>
       <c r="AP37" s="5"/>
       <c r="AQ37" s="5"/>
       <c r="AR37" s="5"/>
+      <c r="AS37" s="5"/>
     </row>
-    <row r="38" spans="6:44" ht="16" customHeight="1">
-      <c r="V38" s="35"/>
-      <c r="W38" s="5"/>
+    <row r="38" spans="6:45" ht="16" customHeight="1">
+      <c r="W38" s="35"/>
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
-      <c r="Z38" s="5" t="s">
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AA38" s="36"/>
-      <c r="AD38" s="64" t="s">
+      <c r="AB38" s="36"/>
+      <c r="AE38" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="AE38" s="64"/>
-      <c r="AF38" s="64"/>
-      <c r="AG38" s="64"/>
-      <c r="AH38" s="27"/>
-      <c r="AI38" s="29"/>
+      <c r="AF38" s="65"/>
+      <c r="AG38" s="65"/>
+      <c r="AH38" s="65"/>
+      <c r="AI38" s="27"/>
+      <c r="AJ38" s="29"/>
     </row>
-    <row r="39" spans="6:44" ht="16" customHeight="1">
-      <c r="V39" s="35"/>
-      <c r="W39" s="5"/>
+    <row r="39" spans="6:45" ht="16" customHeight="1">
+      <c r="W39" s="35"/>
       <c r="X39" s="5"/>
-      <c r="Y39" s="5" t="s">
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="36"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="36"/>
     </row>
-    <row r="40" spans="6:44" ht="16" customHeight="1">
-      <c r="V40" s="35"/>
-      <c r="W40" s="5"/>
+    <row r="40" spans="6:45" ht="16" customHeight="1">
+      <c r="W40" s="35"/>
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
-      <c r="Z40" s="5" t="s">
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AA40" s="36"/>
+      <c r="AB40" s="36"/>
     </row>
-    <row r="41" spans="6:44" ht="16" customHeight="1">
-      <c r="V41" s="35"/>
-      <c r="W41" s="5"/>
+    <row r="41" spans="6:45" ht="16" customHeight="1">
+      <c r="W41" s="35"/>
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
-      <c r="Z41" s="5" t="s">
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AA41" s="36"/>
-      <c r="AD41" s="31" t="s">
+      <c r="AB41" s="36"/>
+      <c r="AE41" s="31" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="6:44" ht="16" customHeight="1">
-      <c r="V42" s="35"/>
-      <c r="W42" s="5"/>
+    <row r="42" spans="6:45" ht="16" customHeight="1">
+      <c r="W42" s="35"/>
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
-      <c r="Z42" s="5" t="s">
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AA42" s="36"/>
-      <c r="AD42" s="31"/>
+      <c r="AB42" s="36"/>
+      <c r="AE42" s="31"/>
     </row>
-    <row r="43" spans="6:44" ht="16" customHeight="1">
-      <c r="V43" s="35"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5" t="s">
+    <row r="43" spans="6:45" ht="16" customHeight="1">
+      <c r="P43" s="86" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q43" s="87"/>
+      <c r="R43" s="87"/>
+      <c r="S43" s="87"/>
+      <c r="T43" s="88"/>
+      <c r="W43" s="35"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
-      <c r="AA43" s="36"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="36"/>
     </row>
-    <row r="44" spans="6:44" ht="16" customHeight="1">
-      <c r="V44" s="35"/>
-      <c r="W44" s="5"/>
+    <row r="44" spans="6:45" ht="16" customHeight="1">
+      <c r="P44" s="35"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="S44" s="5"/>
+      <c r="T44" s="36"/>
+      <c r="W44" s="35"/>
       <c r="X44" s="5"/>
-      <c r="Y44" s="5" t="s">
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="36"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="36"/>
     </row>
-    <row r="45" spans="6:44" ht="16" customHeight="1">
-      <c r="V45" s="35"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5" t="s">
+    <row r="45" spans="6:45" ht="16" customHeight="1">
+      <c r="P45" s="35"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="36"/>
+      <c r="W45" s="35"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
-      <c r="AA45" s="36"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="36"/>
     </row>
-    <row r="46" spans="6:44" ht="16" customHeight="1">
-      <c r="F46" s="88" t="s">
+    <row r="46" spans="6:45" ht="16" customHeight="1">
+      <c r="F46" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="G46" s="89"/>
-      <c r="H46" s="89"/>
-      <c r="I46" s="89"/>
-      <c r="J46" s="90"/>
-      <c r="V46" s="35"/>
-      <c r="W46" s="5"/>
+      <c r="G46" s="90"/>
+      <c r="H46" s="90"/>
+      <c r="I46" s="90"/>
+      <c r="J46" s="91"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="38"/>
+      <c r="R46" s="38"/>
+      <c r="S46" s="38"/>
+      <c r="T46" s="39"/>
+      <c r="W46" s="35"/>
       <c r="X46" s="5"/>
-      <c r="Y46" s="5" t="s">
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="Z46" s="5"/>
-      <c r="AA46" s="36"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="36"/>
     </row>
-    <row r="47" spans="6:44" ht="16" customHeight="1">
-      <c r="F47" s="91"/>
-      <c r="G47" s="92"/>
-      <c r="H47" s="92"/>
-      <c r="I47" s="92"/>
-      <c r="J47" s="93"/>
-      <c r="V47" s="35"/>
-      <c r="W47" s="5" t="s">
+    <row r="47" spans="6:45" ht="16" customHeight="1">
+      <c r="F47" s="92"/>
+      <c r="G47" s="93"/>
+      <c r="H47" s="93"/>
+      <c r="I47" s="93"/>
+      <c r="J47" s="94"/>
+      <c r="W47" s="35"/>
+      <c r="X47" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
       <c r="Z47" s="5"/>
-      <c r="AA47" s="36"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="36"/>
     </row>
-    <row r="48" spans="6:44" ht="16" customHeight="1">
+    <row r="48" spans="6:45" ht="16" customHeight="1">
       <c r="F48" s="35"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="36"/>
-      <c r="Q48" s="85" t="s">
+      <c r="Q48" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="R48" s="86"/>
-      <c r="S48" s="86"/>
-      <c r="T48" s="87"/>
-      <c r="V48" s="35"/>
-      <c r="W48" s="5"/>
-      <c r="X48" s="5" t="s">
+      <c r="R48" s="87"/>
+      <c r="S48" s="87"/>
+      <c r="T48" s="88"/>
+      <c r="W48" s="35"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
-      <c r="AA48" s="36"/>
-      <c r="AH48" s="27"/>
-      <c r="AI48" s="29"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="36"/>
+      <c r="AI48" s="27"/>
       <c r="AJ48" s="29"/>
+      <c r="AK48" s="29"/>
     </row>
-    <row r="49" spans="6:36" ht="16" customHeight="1">
+    <row r="49" spans="6:37" ht="16" customHeight="1">
       <c r="F49" s="35"/>
       <c r="G49" s="5" t="s">
         <v>79</v>
@@ -10748,19 +11151,19 @@
       </c>
       <c r="S49" s="49"/>
       <c r="T49" s="50"/>
-      <c r="V49" s="35"/>
-      <c r="W49" s="5"/>
+      <c r="W49" s="35"/>
       <c r="X49" s="5"/>
-      <c r="Y49" s="5" t="s">
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="Z49" s="5"/>
-      <c r="AA49" s="36"/>
-      <c r="AH49" s="27"/>
-      <c r="AI49" s="29"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="36"/>
+      <c r="AI49" s="27"/>
       <c r="AJ49" s="29"/>
+      <c r="AK49" s="29"/>
     </row>
-    <row r="50" spans="6:36" ht="16" customHeight="1">
+    <row r="50" spans="6:37" ht="16" customHeight="1">
       <c r="F50" s="35"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5" t="s">
@@ -10768,16 +11171,16 @@
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="36"/>
-      <c r="V50" s="35"/>
-      <c r="W50" s="5" t="s">
+      <c r="W50" s="35"/>
+      <c r="X50" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
       <c r="Z50" s="5"/>
-      <c r="AA50" s="36"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="36"/>
     </row>
-    <row r="51" spans="6:36" ht="16" customHeight="1">
+    <row r="51" spans="6:37" ht="16" customHeight="1">
       <c r="F51" s="35"/>
       <c r="G51" s="5" t="s">
         <v>81</v>
@@ -10785,53 +11188,53 @@
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="36"/>
-      <c r="O51" s="55"/>
-      <c r="P51" s="56"/>
-      <c r="Q51" s="56"/>
-      <c r="R51" s="56"/>
-      <c r="S51" s="56"/>
-      <c r="T51" s="57"/>
-      <c r="V51" s="35"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="5" t="s">
+      <c r="O51" s="56"/>
+      <c r="P51" s="57"/>
+      <c r="Q51" s="57"/>
+      <c r="R51" s="57"/>
+      <c r="S51" s="57"/>
+      <c r="T51" s="58"/>
+      <c r="W51" s="35"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
-      <c r="AA51" s="36"/>
-      <c r="AD51" s="64" t="s">
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="36"/>
+      <c r="AE51" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="AE51" s="64"/>
-      <c r="AF51" s="64"/>
-      <c r="AG51" s="64"/>
+      <c r="AF51" s="65"/>
+      <c r="AG51" s="65"/>
+      <c r="AH51" s="65"/>
     </row>
-    <row r="52" spans="6:36" ht="16" customHeight="1">
+    <row r="52" spans="6:37" ht="16" customHeight="1">
       <c r="F52" s="35"/>
       <c r="G52" s="5"/>
-      <c r="H52" s="51" t="s">
+      <c r="H52" s="52" t="s">
         <v>82</v>
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="36"/>
-      <c r="O52" s="61" t="s">
+      <c r="O52" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="P52" s="62"/>
-      <c r="Q52" s="62"/>
-      <c r="R52" s="62"/>
-      <c r="S52" s="62"/>
-      <c r="T52" s="63"/>
-      <c r="V52" s="35"/>
-      <c r="W52" s="5" t="s">
+      <c r="P52" s="63"/>
+      <c r="Q52" s="63"/>
+      <c r="R52" s="63"/>
+      <c r="S52" s="63"/>
+      <c r="T52" s="64"/>
+      <c r="W52" s="35"/>
+      <c r="X52" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
       <c r="Z52" s="5"/>
-      <c r="AA52" s="36"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="36"/>
     </row>
-    <row r="53" spans="6:36" ht="16" customHeight="1">
+    <row r="53" spans="6:37" ht="16" customHeight="1">
       <c r="F53" s="35"/>
       <c r="G53" s="5" t="s">
         <v>72</v>
@@ -10847,22 +11250,22 @@
       <c r="R53" s="5"/>
       <c r="S53" s="5"/>
       <c r="T53" s="36"/>
-      <c r="V53" s="37"/>
-      <c r="W53" s="38"/>
-      <c r="X53" s="38" t="s">
+      <c r="W53" s="37"/>
+      <c r="X53" s="38"/>
+      <c r="Y53" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="Y53" s="38"/>
       <c r="Z53" s="38"/>
-      <c r="AA53" s="39"/>
-      <c r="AD53" s="64" t="s">
+      <c r="AA53" s="38"/>
+      <c r="AB53" s="39"/>
+      <c r="AE53" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="AE53" s="64"/>
-      <c r="AF53" s="64"/>
-      <c r="AG53" s="64"/>
+      <c r="AF53" s="65"/>
+      <c r="AG53" s="65"/>
+      <c r="AH53" s="65"/>
     </row>
-    <row r="54" spans="6:36" ht="16" customHeight="1">
+    <row r="54" spans="6:37" ht="16" customHeight="1">
       <c r="F54" s="35"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5" t="s">
@@ -10879,7 +11282,7 @@
       <c r="S54" s="5"/>
       <c r="T54" s="36"/>
     </row>
-    <row r="55" spans="6:36" ht="16" customHeight="1">
+    <row r="55" spans="6:37" ht="16" customHeight="1">
       <c r="F55" s="35"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5" t="s">
@@ -10896,7 +11299,7 @@
       <c r="S55" s="5"/>
       <c r="T55" s="36"/>
     </row>
-    <row r="56" spans="6:36" ht="16" customHeight="1">
+    <row r="56" spans="6:37" ht="16" customHeight="1">
       <c r="F56" s="35"/>
       <c r="G56" s="5" t="s">
         <v>85</v>
@@ -10911,7 +11314,7 @@
       <c r="S56" s="5"/>
       <c r="T56" s="36"/>
     </row>
-    <row r="57" spans="6:36" ht="16" customHeight="1">
+    <row r="57" spans="6:37" ht="16" customHeight="1">
       <c r="F57" s="35"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
@@ -10925,16 +11328,16 @@
       </c>
       <c r="S57" s="5"/>
       <c r="T57" s="36"/>
-      <c r="V57" s="64" t="s">
+      <c r="W57" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="W57" s="64"/>
-      <c r="X57" s="64"/>
-      <c r="Y57" s="64"/>
-      <c r="Z57" s="64"/>
-      <c r="AA57" s="64"/>
+      <c r="X57" s="65"/>
+      <c r="Y57" s="65"/>
+      <c r="Z57" s="65"/>
+      <c r="AA57" s="65"/>
+      <c r="AB57" s="65"/>
     </row>
-    <row r="58" spans="6:36" ht="16" customHeight="1">
+    <row r="58" spans="6:37" ht="16" customHeight="1">
       <c r="F58" s="35"/>
       <c r="G58" s="5" t="s">
         <v>86</v>
@@ -10951,7 +11354,7 @@
       <c r="S58" s="5"/>
       <c r="T58" s="36"/>
     </row>
-    <row r="59" spans="6:36" ht="16" customHeight="1">
+    <row r="59" spans="6:37" ht="16" customHeight="1">
       <c r="F59" s="35"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5" t="s">
@@ -10967,11 +11370,11 @@
       <c r="R59" s="41"/>
       <c r="S59" s="41"/>
       <c r="T59" s="42"/>
-      <c r="AH59" s="27"/>
-      <c r="AI59" s="29"/>
+      <c r="AI59" s="27"/>
       <c r="AJ59" s="29"/>
+      <c r="AK59" s="29"/>
     </row>
-    <row r="60" spans="6:36" ht="16" customHeight="1">
+    <row r="60" spans="6:37" ht="16" customHeight="1">
       <c r="F60" s="35"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5" t="s">
@@ -10987,9 +11390,10 @@
       </c>
       <c r="S60" s="41"/>
       <c r="T60" s="42"/>
-      <c r="U60" s="54"/>
+      <c r="U60" s="55"/>
+      <c r="V60" s="55"/>
     </row>
-    <row r="61" spans="6:36" ht="16" customHeight="1">
+    <row r="61" spans="6:37" ht="16" customHeight="1">
       <c r="F61" s="35"/>
       <c r="G61" s="5" t="s">
         <v>89</v>
@@ -11005,12 +11409,13 @@
       <c r="R61" s="41"/>
       <c r="S61" s="41"/>
       <c r="T61" s="42"/>
-      <c r="U61" s="54"/>
-      <c r="AH61" s="27"/>
-      <c r="AI61" s="29"/>
+      <c r="U61" s="55"/>
+      <c r="V61" s="55"/>
+      <c r="AI61" s="27"/>
       <c r="AJ61" s="29"/>
+      <c r="AK61" s="29"/>
     </row>
-    <row r="62" spans="6:36" ht="16" customHeight="1">
+    <row r="62" spans="6:37" ht="16" customHeight="1">
       <c r="F62" s="35"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5" t="s">
@@ -11026,9 +11431,10 @@
       <c r="R62" s="41"/>
       <c r="S62" s="41"/>
       <c r="T62" s="42"/>
-      <c r="U62" s="54"/>
+      <c r="U62" s="55"/>
+      <c r="V62" s="55"/>
     </row>
-    <row r="63" spans="6:36" ht="16" customHeight="1">
+    <row r="63" spans="6:37" ht="16" customHeight="1">
       <c r="F63" s="35"/>
       <c r="G63" s="5" t="s">
         <v>91</v>
@@ -11044,9 +11450,10 @@
       <c r="R63" s="41"/>
       <c r="S63" s="41"/>
       <c r="T63" s="42"/>
-      <c r="U63" s="54"/>
+      <c r="U63" s="55"/>
+      <c r="V63" s="55"/>
     </row>
-    <row r="64" spans="6:36" ht="16" customHeight="1">
+    <row r="64" spans="6:37" ht="16" customHeight="1">
       <c r="F64" s="35"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5" t="s">
@@ -11062,9 +11469,10 @@
       <c r="R64" s="41"/>
       <c r="S64" s="41"/>
       <c r="T64" s="42"/>
-      <c r="U64" s="54"/>
+      <c r="U64" s="55"/>
+      <c r="V64" s="55"/>
     </row>
-    <row r="65" spans="6:21" ht="16" customHeight="1">
+    <row r="65" spans="6:22" ht="16" customHeight="1">
       <c r="F65" s="35"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5" t="s">
@@ -11080,9 +11488,10 @@
       </c>
       <c r="S65" s="41"/>
       <c r="T65" s="42"/>
-      <c r="U65" s="54"/>
+      <c r="U65" s="55"/>
+      <c r="V65" s="55"/>
     </row>
-    <row r="66" spans="6:21" ht="16" customHeight="1">
+    <row r="66" spans="6:22" ht="16" customHeight="1">
       <c r="F66" s="35"/>
       <c r="G66" s="5" t="s">
         <v>94</v>
@@ -11096,9 +11505,10 @@
       <c r="R66" s="41"/>
       <c r="S66" s="41"/>
       <c r="T66" s="42"/>
-      <c r="U66" s="54"/>
+      <c r="U66" s="55"/>
+      <c r="V66" s="55"/>
     </row>
-    <row r="67" spans="6:21" ht="16" customHeight="1">
+    <row r="67" spans="6:22" ht="16" customHeight="1">
       <c r="F67" s="35"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5" t="s">
@@ -11114,9 +11524,10 @@
       </c>
       <c r="S67" s="41"/>
       <c r="T67" s="42"/>
-      <c r="U67" s="54"/>
+      <c r="U67" s="55"/>
+      <c r="V67" s="55"/>
     </row>
-    <row r="68" spans="6:21" ht="16" customHeight="1">
+    <row r="68" spans="6:22" ht="16" customHeight="1">
       <c r="F68" s="35"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5" t="s">
@@ -11130,9 +11541,10 @@
       <c r="R68" s="41"/>
       <c r="S68" s="41"/>
       <c r="T68" s="42"/>
-      <c r="U68" s="54"/>
+      <c r="U68" s="55"/>
+      <c r="V68" s="55"/>
     </row>
-    <row r="69" spans="6:21" ht="16" customHeight="1">
+    <row r="69" spans="6:22" ht="16" customHeight="1">
       <c r="F69" s="35"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5" t="s">
@@ -11148,9 +11560,10 @@
       </c>
       <c r="S69" s="41"/>
       <c r="T69" s="42"/>
-      <c r="U69" s="54"/>
+      <c r="U69" s="55"/>
+      <c r="V69" s="55"/>
     </row>
-    <row r="70" spans="6:21" ht="16" customHeight="1">
+    <row r="70" spans="6:22" ht="16" customHeight="1">
       <c r="F70" s="35"/>
       <c r="G70" s="5" t="s">
         <v>98</v>
@@ -11159,14 +11572,15 @@
       <c r="I70" s="5"/>
       <c r="J70" s="36"/>
       <c r="O70" s="37"/>
-      <c r="P70" s="58"/>
-      <c r="Q70" s="58"/>
-      <c r="R70" s="58"/>
-      <c r="S70" s="58"/>
-      <c r="T70" s="59"/>
-      <c r="U70" s="54"/>
+      <c r="P70" s="59"/>
+      <c r="Q70" s="59"/>
+      <c r="R70" s="59"/>
+      <c r="S70" s="59"/>
+      <c r="T70" s="60"/>
+      <c r="U70" s="55"/>
+      <c r="V70" s="55"/>
     </row>
-    <row r="71" spans="6:21" ht="16" customHeight="1">
+    <row r="71" spans="6:22" ht="16" customHeight="1">
       <c r="F71" s="35"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5" t="s">
@@ -11174,22 +11588,24 @@
       </c>
       <c r="I71" s="5"/>
       <c r="J71" s="36"/>
-      <c r="P71" s="54"/>
-      <c r="Q71" s="54"/>
-      <c r="R71" s="54"/>
-      <c r="S71" s="54"/>
-      <c r="T71" s="54"/>
-      <c r="U71" s="54"/>
+      <c r="P71" s="55"/>
+      <c r="Q71" s="55"/>
+      <c r="R71" s="55"/>
+      <c r="S71" s="55"/>
+      <c r="T71" s="55"/>
+      <c r="U71" s="55"/>
+      <c r="V71" s="55"/>
     </row>
-    <row r="72" spans="6:21" ht="16" customHeight="1">
+    <row r="72" spans="6:22" ht="16" customHeight="1">
       <c r="F72" s="35"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="36"/>
-      <c r="U72" s="54"/>
+      <c r="U72" s="55"/>
+      <c r="V72" s="55"/>
     </row>
-    <row r="73" spans="6:21" ht="16" customHeight="1">
+    <row r="73" spans="6:22" ht="16" customHeight="1">
       <c r="F73" s="35"/>
       <c r="G73" s="5" t="s">
         <v>100</v>
@@ -11198,23 +11614,23 @@
       <c r="I73" s="5"/>
       <c r="J73" s="36"/>
     </row>
-    <row r="74" spans="6:21" ht="16" customHeight="1">
+    <row r="74" spans="6:22" ht="16" customHeight="1">
       <c r="F74" s="35"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
       <c r="J74" s="36"/>
     </row>
-    <row r="75" spans="6:21" ht="16" customHeight="1">
+    <row r="75" spans="6:22" ht="16" customHeight="1">
       <c r="F75" s="35"/>
-      <c r="G75" s="52" t="s">
+      <c r="G75" s="53" t="s">
         <v>101</v>
       </c>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="36"/>
     </row>
-    <row r="76" spans="6:21" ht="16" customHeight="1">
+    <row r="76" spans="6:22" ht="16" customHeight="1">
       <c r="F76" s="35"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5" t="s">
@@ -11223,7 +11639,7 @@
       <c r="I76" s="5"/>
       <c r="J76" s="36"/>
     </row>
-    <row r="77" spans="6:21" ht="16" customHeight="1">
+    <row r="77" spans="6:22" ht="16" customHeight="1">
       <c r="F77" s="35"/>
       <c r="G77" s="5" t="s">
         <v>102</v>
@@ -11232,27 +11648,27 @@
       <c r="I77" s="5"/>
       <c r="J77" s="36"/>
     </row>
-    <row r="78" spans="6:21" ht="16" customHeight="1">
+    <row r="78" spans="6:22" ht="16" customHeight="1">
       <c r="F78" s="35"/>
       <c r="G78" s="5"/>
-      <c r="H78" s="52" t="s">
+      <c r="H78" s="53" t="s">
         <v>104</v>
       </c>
       <c r="I78" s="5"/>
       <c r="J78" s="36"/>
     </row>
-    <row r="79" spans="6:21" ht="16" customHeight="1">
+    <row r="79" spans="6:22" ht="16" customHeight="1">
       <c r="F79" s="35"/>
       <c r="G79" s="5"/>
-      <c r="H79" s="52" t="s">
+      <c r="H79" s="53" t="s">
         <v>105</v>
       </c>
       <c r="I79" s="5"/>
       <c r="J79" s="36"/>
     </row>
-    <row r="80" spans="6:21" ht="16" customHeight="1">
+    <row r="80" spans="6:22" ht="16" customHeight="1">
       <c r="F80" s="35"/>
-      <c r="G80" s="52" t="s">
+      <c r="G80" s="53" t="s">
         <v>106</v>
       </c>
       <c r="H80" s="5"/>
@@ -11270,7 +11686,7 @@
     </row>
     <row r="82" spans="6:10" ht="16" customHeight="1">
       <c r="F82" s="35"/>
-      <c r="G82" s="52" t="s">
+      <c r="G82" s="53" t="s">
         <v>108</v>
       </c>
       <c r="H82" s="5"/>
@@ -11315,7 +11731,7 @@
     </row>
     <row r="87" spans="6:10" ht="16" customHeight="1">
       <c r="F87" s="35"/>
-      <c r="G87" s="52" t="s">
+      <c r="G87" s="53" t="s">
         <v>113</v>
       </c>
       <c r="H87" s="5"/>
@@ -11331,7 +11747,7 @@
     </row>
     <row r="89" spans="6:10" ht="16" customHeight="1">
       <c r="F89" s="35"/>
-      <c r="G89" s="52" t="s">
+      <c r="G89" s="53" t="s">
         <v>114</v>
       </c>
       <c r="H89" s="5"/>
@@ -11381,7 +11797,7 @@
     </row>
     <row r="95" spans="6:10" ht="16" customHeight="1">
       <c r="F95" s="35"/>
-      <c r="G95" s="52" t="s">
+      <c r="G95" s="53" t="s">
         <v>118</v>
       </c>
       <c r="H95" s="5"/>
@@ -11391,7 +11807,7 @@
     <row r="96" spans="6:10" ht="16" customHeight="1">
       <c r="F96" s="35"/>
       <c r="G96" s="5"/>
-      <c r="H96" s="53" t="s">
+      <c r="H96" s="54" t="s">
         <v>120</v>
       </c>
       <c r="I96" s="5"/>
@@ -11481,7 +11897,7 @@
     </row>
     <row r="107" spans="6:10" ht="16" customHeight="1">
       <c r="F107" s="35"/>
-      <c r="G107" s="52" t="s">
+      <c r="G107" s="53" t="s">
         <v>122</v>
       </c>
       <c r="H107" s="5"/>
@@ -11534,29 +11950,30 @@
       <c r="J112" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="O2:AJ3"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="AD51:AG51"/>
+  <mergeCells count="24">
+    <mergeCell ref="O2:AK3"/>
+    <mergeCell ref="AE7:AH7"/>
+    <mergeCell ref="AE51:AH51"/>
     <mergeCell ref="Q48:T48"/>
-    <mergeCell ref="AD53:AG53"/>
-    <mergeCell ref="V33:AA33"/>
+    <mergeCell ref="AE53:AH53"/>
+    <mergeCell ref="W33:AB33"/>
+    <mergeCell ref="P43:T43"/>
     <mergeCell ref="Q10:S11"/>
     <mergeCell ref="P5:T5"/>
-    <mergeCell ref="AL8:AR9"/>
-    <mergeCell ref="AL16:AR17"/>
-    <mergeCell ref="V17:AA17"/>
-    <mergeCell ref="V11:AA11"/>
-    <mergeCell ref="AM10:AQ10"/>
-    <mergeCell ref="AM11:AP11"/>
+    <mergeCell ref="AM8:AS9"/>
+    <mergeCell ref="AM16:AS17"/>
+    <mergeCell ref="W17:AB17"/>
+    <mergeCell ref="W11:AB11"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AN11:AQ11"/>
     <mergeCell ref="O52:T52"/>
-    <mergeCell ref="V57:AA57"/>
+    <mergeCell ref="W57:AB57"/>
     <mergeCell ref="F24:J25"/>
     <mergeCell ref="F18:J19"/>
-    <mergeCell ref="AM19:AQ19"/>
-    <mergeCell ref="V21:AA21"/>
-    <mergeCell ref="AD38:AG38"/>
-    <mergeCell ref="AD35:AG35"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="W21:AB21"/>
+    <mergeCell ref="AE38:AH38"/>
+    <mergeCell ref="AE35:AH35"/>
     <mergeCell ref="F46:J47"/>
   </mergeCells>
   <phoneticPr fontId="4"/>

--- a/maraSonSouce/marasong_memo.xlsx
+++ b/maraSonSouce/marasong_memo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hqu666/Documents/Develop/an/workSpace/maraSong/maraSonSouce/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AD08098-A089-E04C-B439-0735580C814C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D66719-A90A-A04C-B1C9-9CF4BA4E3D02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3300" yWindow="-19760" windowWidth="31200" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="エラーリスト" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -863,7 +862,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Menlo"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
@@ -1291,33 +1290,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1336,6 +1308,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1345,6 +1350,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1352,24 +1369,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5660,16 +5659,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>138545</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>23091</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>34637</xdr:rowOff>
+      <xdr:rowOff>81281</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>57726</xdr:colOff>
+      <xdr:colOff>126996</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>184727</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5684,8 +5683,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11372271" y="13542819"/>
-          <a:ext cx="80819" cy="92363"/>
+          <a:off x="692727" y="13589463"/>
+          <a:ext cx="103905" cy="103446"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5765,16 +5764,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>126958</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>23092</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>115455</xdr:rowOff>
+      <xdr:rowOff>115454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>46139</xdr:colOff>
+      <xdr:colOff>69272</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>80819</xdr:rowOff>
+      <xdr:rowOff>133003</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5790,6 +5789,8 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
+          <a:stCxn id="87" idx="2"/>
+          <a:endCxn id="90" idx="2"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
               <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{6817124A-41B7-41FA-85DA-84D2132C9463}" end="{00000000-0000-0000-0000-000000000000}"/>
@@ -5799,12 +5800,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="669594" y="13415819"/>
-          <a:ext cx="207818" cy="173182"/>
+          <a:off x="692728" y="13415818"/>
+          <a:ext cx="207817" cy="225367"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 223750"/>
+            <a:gd name="adj1" fmla="val 210001"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -9933,7 +9934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:AS112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="W51" sqref="W51"/>
     </sheetView>
   </sheetViews>
@@ -9958,56 +9959,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="15:45" ht="16" customHeight="1">
-      <c r="O2" s="71" t="s">
+      <c r="O2" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="73"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="64"/>
     </row>
     <row r="3" spans="15:45" ht="16" customHeight="1">
-      <c r="O3" s="74"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="75"/>
-      <c r="AH3" s="75"/>
-      <c r="AI3" s="75"/>
-      <c r="AJ3" s="75"/>
-      <c r="AK3" s="76"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="67"/>
     </row>
     <row r="4" spans="15:45" ht="16" customHeight="1">
       <c r="O4" s="4"/>
@@ -10036,13 +10037,13 @@
     </row>
     <row r="5" spans="15:45" ht="16" customHeight="1">
       <c r="O5" s="4"/>
-      <c r="P5" s="67" t="s">
+      <c r="P5" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="68"/>
-      <c r="T5" s="69"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="78"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
@@ -10103,12 +10104,12 @@
       <c r="AA7" s="5"/>
       <c r="AB7" s="6"/>
       <c r="AC7" s="5"/>
-      <c r="AE7" s="83" t="s">
+      <c r="AE7" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="AF7" s="84"/>
-      <c r="AG7" s="84"/>
-      <c r="AH7" s="85"/>
+      <c r="AF7" s="69"/>
+      <c r="AG7" s="69"/>
+      <c r="AH7" s="70"/>
       <c r="AI7" s="22"/>
       <c r="AJ7" s="22"/>
       <c r="AK7" s="5"/>
@@ -10141,15 +10142,15 @@
       <c r="AI8" s="5"/>
       <c r="AJ8" s="5"/>
       <c r="AK8" s="5"/>
-      <c r="AM8" s="71" t="s">
+      <c r="AM8" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="AN8" s="72"/>
-      <c r="AO8" s="72"/>
-      <c r="AP8" s="72"/>
-      <c r="AQ8" s="72"/>
-      <c r="AR8" s="72"/>
-      <c r="AS8" s="73"/>
+      <c r="AN8" s="63"/>
+      <c r="AO8" s="63"/>
+      <c r="AP8" s="63"/>
+      <c r="AQ8" s="63"/>
+      <c r="AR8" s="63"/>
+      <c r="AS8" s="64"/>
     </row>
     <row r="9" spans="15:45" ht="16" customHeight="1">
       <c r="O9" s="4"/>
@@ -10176,22 +10177,22 @@
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5"/>
       <c r="AK9" s="5"/>
-      <c r="AM9" s="74"/>
-      <c r="AN9" s="75"/>
-      <c r="AO9" s="75"/>
-      <c r="AP9" s="75"/>
-      <c r="AQ9" s="75"/>
-      <c r="AR9" s="75"/>
-      <c r="AS9" s="76"/>
+      <c r="AM9" s="65"/>
+      <c r="AN9" s="66"/>
+      <c r="AO9" s="66"/>
+      <c r="AP9" s="66"/>
+      <c r="AQ9" s="66"/>
+      <c r="AR9" s="66"/>
+      <c r="AS9" s="67"/>
     </row>
     <row r="10" spans="15:45" ht="16" customHeight="1">
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="70" t="s">
+      <c r="Q10" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="R10" s="70"/>
-      <c r="S10" s="70"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
       <c r="T10" s="26"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
@@ -10204,32 +10205,32 @@
       <c r="AJ10" s="22"/>
       <c r="AK10" s="21"/>
       <c r="AM10" s="4"/>
-      <c r="AN10" s="67" t="s">
+      <c r="AN10" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="AO10" s="68"/>
-      <c r="AP10" s="68"/>
-      <c r="AQ10" s="68"/>
-      <c r="AR10" s="69"/>
+      <c r="AO10" s="77"/>
+      <c r="AP10" s="77"/>
+      <c r="AQ10" s="77"/>
+      <c r="AR10" s="78"/>
       <c r="AS10" s="6"/>
     </row>
     <row r="11" spans="15:45" ht="16" customHeight="1">
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="70"/>
-      <c r="S11" s="70"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="75"/>
       <c r="T11" s="26"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
-      <c r="W11" s="67" t="s">
+      <c r="W11" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="68"/>
-      <c r="Z11" s="68"/>
-      <c r="AA11" s="68"/>
-      <c r="AB11" s="69"/>
+      <c r="X11" s="77"/>
+      <c r="Y11" s="77"/>
+      <c r="Z11" s="77"/>
+      <c r="AA11" s="77"/>
+      <c r="AB11" s="78"/>
       <c r="AC11" s="20"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
@@ -10240,12 +10241,12 @@
       <c r="AJ11" s="5"/>
       <c r="AK11" s="5"/>
       <c r="AM11" s="4"/>
-      <c r="AN11" s="78" t="s">
+      <c r="AN11" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="AO11" s="79"/>
-      <c r="AP11" s="79"/>
-      <c r="AQ11" s="79"/>
+      <c r="AO11" s="81"/>
+      <c r="AP11" s="81"/>
+      <c r="AQ11" s="81"/>
       <c r="AR11" s="6"/>
       <c r="AS11" s="6"/>
     </row>
@@ -10401,15 +10402,15 @@
       <c r="AI16" s="19"/>
       <c r="AJ16" s="19"/>
       <c r="AK16" s="5"/>
-      <c r="AM16" s="71" t="s">
+      <c r="AM16" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="AN16" s="72"/>
-      <c r="AO16" s="72"/>
-      <c r="AP16" s="72"/>
-      <c r="AQ16" s="72"/>
-      <c r="AR16" s="72"/>
-      <c r="AS16" s="73"/>
+      <c r="AN16" s="63"/>
+      <c r="AO16" s="63"/>
+      <c r="AP16" s="63"/>
+      <c r="AQ16" s="63"/>
+      <c r="AR16" s="63"/>
+      <c r="AS16" s="64"/>
     </row>
     <row r="17" spans="3:45" ht="16" customHeight="1">
       <c r="O17" s="4"/>
@@ -10419,14 +10420,14 @@
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
-      <c r="W17" s="77" t="s">
+      <c r="W17" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="X17" s="77"/>
-      <c r="Y17" s="77"/>
-      <c r="Z17" s="77"/>
-      <c r="AA17" s="77"/>
-      <c r="AB17" s="77"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="79"/>
+      <c r="AB17" s="79"/>
       <c r="AC17" s="23"/>
       <c r="AD17" s="19"/>
       <c r="AE17" s="19"/>
@@ -10436,25 +10437,25 @@
       <c r="AI17" s="19"/>
       <c r="AJ17" s="19"/>
       <c r="AK17" s="5"/>
-      <c r="AM17" s="74"/>
-      <c r="AN17" s="75"/>
-      <c r="AO17" s="75"/>
-      <c r="AP17" s="75"/>
-      <c r="AQ17" s="75"/>
-      <c r="AR17" s="75"/>
-      <c r="AS17" s="76"/>
+      <c r="AM17" s="65"/>
+      <c r="AN17" s="66"/>
+      <c r="AO17" s="66"/>
+      <c r="AP17" s="66"/>
+      <c r="AQ17" s="66"/>
+      <c r="AR17" s="66"/>
+      <c r="AS17" s="67"/>
     </row>
     <row r="18" spans="3:45" ht="16" customHeight="1">
       <c r="C18" s="61"/>
       <c r="D18" s="61"/>
       <c r="E18" s="61"/>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
       <c r="K18" s="61"/>
       <c r="L18" s="61"/>
       <c r="O18" s="4"/>
@@ -10495,11 +10496,11 @@
       <c r="C19" s="61"/>
       <c r="D19" s="61"/>
       <c r="E19" s="61"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
       <c r="K19" s="61"/>
       <c r="L19" s="61"/>
       <c r="O19" s="4"/>
@@ -10521,13 +10522,13 @@
       <c r="AC19" s="5"/>
       <c r="AK19" s="5"/>
       <c r="AM19" s="4"/>
-      <c r="AN19" s="67" t="s">
+      <c r="AN19" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="AO19" s="68"/>
-      <c r="AP19" s="68"/>
-      <c r="AQ19" s="68"/>
-      <c r="AR19" s="69"/>
+      <c r="AO19" s="77"/>
+      <c r="AP19" s="77"/>
+      <c r="AQ19" s="77"/>
+      <c r="AR19" s="78"/>
       <c r="AS19" s="6"/>
     </row>
     <row r="20" spans="3:45" ht="16" customHeight="1">
@@ -10568,14 +10569,14 @@
       </c>
       <c r="S21" s="38"/>
       <c r="T21" s="39"/>
-      <c r="W21" s="80" t="s">
+      <c r="W21" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="X21" s="81"/>
-      <c r="Y21" s="81"/>
-      <c r="Z21" s="81"/>
-      <c r="AA21" s="81"/>
-      <c r="AB21" s="82"/>
+      <c r="X21" s="87"/>
+      <c r="Y21" s="87"/>
+      <c r="Z21" s="87"/>
+      <c r="AA21" s="87"/>
+      <c r="AB21" s="88"/>
       <c r="AC21" s="47"/>
       <c r="AD21" s="9"/>
       <c r="AE21" s="9"/>
@@ -10660,13 +10661,13 @@
       <c r="AS23" s="6"/>
     </row>
     <row r="24" spans="3:45" ht="16" customHeight="1">
-      <c r="F24" s="66" t="s">
+      <c r="F24" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
       <c r="K24" s="61"/>
       <c r="L24" s="61"/>
       <c r="O24" s="4"/>
@@ -10704,11 +10705,11 @@
     </row>
     <row r="25" spans="3:45" ht="16" customHeight="1">
       <c r="E25" s="61"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
       <c r="K25" s="61"/>
       <c r="L25" s="61"/>
       <c r="O25" s="4"/>
@@ -10871,14 +10872,14 @@
       <c r="AS32" s="5"/>
     </row>
     <row r="33" spans="6:45" ht="16" customHeight="1">
-      <c r="W33" s="86" t="s">
+      <c r="W33" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="X33" s="87"/>
-      <c r="Y33" s="87"/>
-      <c r="Z33" s="87"/>
-      <c r="AA33" s="87"/>
-      <c r="AB33" s="88"/>
+      <c r="X33" s="73"/>
+      <c r="Y33" s="73"/>
+      <c r="Z33" s="73"/>
+      <c r="AA33" s="73"/>
+      <c r="AB33" s="74"/>
       <c r="AC33" s="22"/>
       <c r="AD33" t="s">
         <v>52</v>
@@ -10915,12 +10916,12 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
       <c r="AB35" s="36"/>
-      <c r="AE35" s="65" t="s">
+      <c r="AE35" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="AF35" s="65"/>
-      <c r="AG35" s="65"/>
-      <c r="AH35" s="65"/>
+      <c r="AF35" s="71"/>
+      <c r="AG35" s="71"/>
+      <c r="AH35" s="71"/>
       <c r="AI35" s="27"/>
       <c r="AJ35" s="29"/>
       <c r="AM35" s="5"/>
@@ -10974,12 +10975,12 @@
         <v>55</v>
       </c>
       <c r="AB38" s="36"/>
-      <c r="AE38" s="65" t="s">
+      <c r="AE38" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="AF38" s="65"/>
-      <c r="AG38" s="65"/>
-      <c r="AH38" s="65"/>
+      <c r="AF38" s="71"/>
+      <c r="AG38" s="71"/>
+      <c r="AH38" s="71"/>
       <c r="AI38" s="27"/>
       <c r="AJ38" s="29"/>
     </row>
@@ -11028,13 +11029,13 @@
       <c r="AE42" s="31"/>
     </row>
     <row r="43" spans="6:45" ht="16" customHeight="1">
-      <c r="P43" s="86" t="s">
+      <c r="P43" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="Q43" s="87"/>
-      <c r="R43" s="87"/>
-      <c r="S43" s="87"/>
-      <c r="T43" s="88"/>
+      <c r="Q43" s="73"/>
+      <c r="R43" s="73"/>
+      <c r="S43" s="73"/>
+      <c r="T43" s="74"/>
       <c r="W43" s="35"/>
       <c r="X43" s="5"/>
       <c r="Y43" s="5" t="s">
@@ -11119,12 +11120,12 @@
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="36"/>
-      <c r="Q48" s="86" t="s">
+      <c r="Q48" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="R48" s="87"/>
-      <c r="S48" s="87"/>
-      <c r="T48" s="88"/>
+      <c r="R48" s="73"/>
+      <c r="S48" s="73"/>
+      <c r="T48" s="74"/>
       <c r="W48" s="35"/>
       <c r="X48" s="5"/>
       <c r="Y48" s="5" t="s">
@@ -11202,12 +11203,12 @@
       <c r="Z51" s="5"/>
       <c r="AA51" s="5"/>
       <c r="AB51" s="36"/>
-      <c r="AE51" s="65" t="s">
+      <c r="AE51" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="AF51" s="65"/>
-      <c r="AG51" s="65"/>
-      <c r="AH51" s="65"/>
+      <c r="AF51" s="71"/>
+      <c r="AG51" s="71"/>
+      <c r="AH51" s="71"/>
     </row>
     <row r="52" spans="6:37" ht="16" customHeight="1">
       <c r="F52" s="35"/>
@@ -11217,14 +11218,14 @@
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="36"/>
-      <c r="O52" s="62" t="s">
+      <c r="O52" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="P52" s="63"/>
-      <c r="Q52" s="63"/>
-      <c r="R52" s="63"/>
-      <c r="S52" s="63"/>
-      <c r="T52" s="64"/>
+      <c r="P52" s="83"/>
+      <c r="Q52" s="83"/>
+      <c r="R52" s="83"/>
+      <c r="S52" s="83"/>
+      <c r="T52" s="84"/>
       <c r="W52" s="35"/>
       <c r="X52" s="5" t="s">
         <v>74</v>
@@ -11258,12 +11259,12 @@
       <c r="Z53" s="38"/>
       <c r="AA53" s="38"/>
       <c r="AB53" s="39"/>
-      <c r="AE53" s="65" t="s">
+      <c r="AE53" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="AF53" s="65"/>
-      <c r="AG53" s="65"/>
-      <c r="AH53" s="65"/>
+      <c r="AF53" s="71"/>
+      <c r="AG53" s="71"/>
+      <c r="AH53" s="71"/>
     </row>
     <row r="54" spans="6:37" ht="16" customHeight="1">
       <c r="F54" s="35"/>
@@ -11328,14 +11329,14 @@
       </c>
       <c r="S57" s="5"/>
       <c r="T57" s="36"/>
-      <c r="W57" s="65" t="s">
+      <c r="W57" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="X57" s="65"/>
-      <c r="Y57" s="65"/>
-      <c r="Z57" s="65"/>
-      <c r="AA57" s="65"/>
-      <c r="AB57" s="65"/>
+      <c r="X57" s="71"/>
+      <c r="Y57" s="71"/>
+      <c r="Z57" s="71"/>
+      <c r="AA57" s="71"/>
+      <c r="AB57" s="71"/>
     </row>
     <row r="58" spans="6:37" ht="16" customHeight="1">
       <c r="F58" s="35"/>
@@ -11951,6 +11952,20 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="W57:AB57"/>
+    <mergeCell ref="F24:J25"/>
+    <mergeCell ref="F18:J19"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="W21:AB21"/>
+    <mergeCell ref="AE38:AH38"/>
+    <mergeCell ref="AE35:AH35"/>
+    <mergeCell ref="F46:J47"/>
+    <mergeCell ref="AM8:AS9"/>
+    <mergeCell ref="AM16:AS17"/>
+    <mergeCell ref="W17:AB17"/>
+    <mergeCell ref="W11:AB11"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AN11:AQ11"/>
     <mergeCell ref="O2:AK3"/>
     <mergeCell ref="AE7:AH7"/>
     <mergeCell ref="AE51:AH51"/>
@@ -11960,21 +11975,7 @@
     <mergeCell ref="P43:T43"/>
     <mergeCell ref="Q10:S11"/>
     <mergeCell ref="P5:T5"/>
-    <mergeCell ref="AM8:AS9"/>
-    <mergeCell ref="AM16:AS17"/>
-    <mergeCell ref="W17:AB17"/>
-    <mergeCell ref="W11:AB11"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AN11:AQ11"/>
     <mergeCell ref="O52:T52"/>
-    <mergeCell ref="W57:AB57"/>
-    <mergeCell ref="F24:J25"/>
-    <mergeCell ref="F18:J19"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="W21:AB21"/>
-    <mergeCell ref="AE38:AH38"/>
-    <mergeCell ref="AE35:AH35"/>
-    <mergeCell ref="F46:J47"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/maraSonSouce/marasong_memo.xlsx
+++ b/maraSonSouce/marasong_memo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hqu666/Documents/Develop/an/workSpace/maraSong/maraSonSouce/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D66719-A90A-A04C-B1C9-9CF4BA4E3D02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB13A174-84FD-364F-B1FB-5F957647A885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3300" yWindow="-19760" windowWidth="31200" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1290,47 +1290,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1339,27 +1303,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1387,6 +1330,63 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -7744,7 +7744,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>92359</xdr:colOff>
+      <xdr:colOff>46640</xdr:colOff>
       <xdr:row>93</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
@@ -7752,7 +7752,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>57727</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>127002</xdr:rowOff>
+      <xdr:rowOff>150324</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7779,12 +7779,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="11568541" y="19504891"/>
-          <a:ext cx="138550" cy="157020"/>
+          <a:off x="716276" y="19504891"/>
+          <a:ext cx="172724" cy="180342"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 264995"/>
+            <a:gd name="adj1" fmla="val 232350"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -7982,16 +7982,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>23086</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>46640</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>80820</xdr:rowOff>
+      <xdr:rowOff>127464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>92359</xdr:colOff>
       <xdr:row>94</xdr:row>
-      <xdr:rowOff>173184</xdr:rowOff>
+      <xdr:rowOff>173183</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8006,8 +8006,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11568541" y="19615729"/>
-          <a:ext cx="103909" cy="92364"/>
+          <a:off x="716276" y="19662373"/>
+          <a:ext cx="45719" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -8387,16 +8387,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>138541</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>46183</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>57722</xdr:colOff>
       <xdr:row>106</xdr:row>
       <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>23091</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>184265</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8410,9 +8410,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11533904" y="22074910"/>
-          <a:ext cx="80819" cy="92363"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="727358" y="22167273"/>
+          <a:ext cx="127006" cy="45719"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -8492,16 +8492,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>115399</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57723</xdr:colOff>
       <xdr:row>105</xdr:row>
       <xdr:rowOff>108527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>115399</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>23041</xdr:colOff>
       <xdr:row>106</xdr:row>
-      <xdr:rowOff>92364</xdr:rowOff>
+      <xdr:rowOff>161404</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8518,6 +8518,7 @@
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
           <a:stCxn id="195" idx="1"/>
+          <a:endCxn id="194" idx="6"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
               <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{6817124A-41B7-41FA-85DA-84D2132C9463}" end="{00000000-0000-0000-0000-000000000000}"/>
@@ -8527,12 +8528,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="658035" y="21929436"/>
-          <a:ext cx="0" cy="191655"/>
+          <a:off x="727359" y="21929436"/>
+          <a:ext cx="126955" cy="260695"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 231996"/>
+            <a:gd name="adj1" fmla="val 280064"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -9934,8 +9935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:AS112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="W51" sqref="W51"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -9959,56 +9960,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="15:45" ht="16" customHeight="1">
-      <c r="O2" s="62" t="s">
+      <c r="O2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="64"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="77"/>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="77"/>
+      <c r="AJ2" s="77"/>
+      <c r="AK2" s="78"/>
     </row>
     <row r="3" spans="15:45" ht="16" customHeight="1">
-      <c r="O3" s="65"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="67"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="81"/>
     </row>
     <row r="4" spans="15:45" ht="16" customHeight="1">
       <c r="O4" s="4"/>
@@ -10037,13 +10038,13 @@
     </row>
     <row r="5" spans="15:45" ht="16" customHeight="1">
       <c r="O5" s="4"/>
-      <c r="P5" s="76" t="s">
+      <c r="P5" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="78"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="66"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
@@ -10104,12 +10105,12 @@
       <c r="AA7" s="5"/>
       <c r="AB7" s="6"/>
       <c r="AC7" s="5"/>
-      <c r="AE7" s="68" t="s">
+      <c r="AE7" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="AF7" s="69"/>
-      <c r="AG7" s="69"/>
-      <c r="AH7" s="70"/>
+      <c r="AF7" s="86"/>
+      <c r="AG7" s="86"/>
+      <c r="AH7" s="87"/>
       <c r="AI7" s="22"/>
       <c r="AJ7" s="22"/>
       <c r="AK7" s="5"/>
@@ -10142,15 +10143,15 @@
       <c r="AI8" s="5"/>
       <c r="AJ8" s="5"/>
       <c r="AK8" s="5"/>
-      <c r="AM8" s="62" t="s">
+      <c r="AM8" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="AN8" s="63"/>
-      <c r="AO8" s="63"/>
-      <c r="AP8" s="63"/>
-      <c r="AQ8" s="63"/>
-      <c r="AR8" s="63"/>
-      <c r="AS8" s="64"/>
+      <c r="AN8" s="77"/>
+      <c r="AO8" s="77"/>
+      <c r="AP8" s="77"/>
+      <c r="AQ8" s="77"/>
+      <c r="AR8" s="77"/>
+      <c r="AS8" s="78"/>
     </row>
     <row r="9" spans="15:45" ht="16" customHeight="1">
       <c r="O9" s="4"/>
@@ -10177,22 +10178,22 @@
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5"/>
       <c r="AK9" s="5"/>
-      <c r="AM9" s="65"/>
-      <c r="AN9" s="66"/>
-      <c r="AO9" s="66"/>
-      <c r="AP9" s="66"/>
-      <c r="AQ9" s="66"/>
-      <c r="AR9" s="66"/>
-      <c r="AS9" s="67"/>
+      <c r="AM9" s="79"/>
+      <c r="AN9" s="80"/>
+      <c r="AO9" s="80"/>
+      <c r="AP9" s="80"/>
+      <c r="AQ9" s="80"/>
+      <c r="AR9" s="80"/>
+      <c r="AS9" s="81"/>
     </row>
     <row r="10" spans="15:45" ht="16" customHeight="1">
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="75" t="s">
+      <c r="Q10" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="R10" s="75"/>
-      <c r="S10" s="75"/>
+      <c r="R10" s="91"/>
+      <c r="S10" s="91"/>
       <c r="T10" s="26"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
@@ -10205,32 +10206,32 @@
       <c r="AJ10" s="22"/>
       <c r="AK10" s="21"/>
       <c r="AM10" s="4"/>
-      <c r="AN10" s="76" t="s">
+      <c r="AN10" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="AO10" s="77"/>
-      <c r="AP10" s="77"/>
-      <c r="AQ10" s="77"/>
-      <c r="AR10" s="78"/>
+      <c r="AO10" s="65"/>
+      <c r="AP10" s="65"/>
+      <c r="AQ10" s="65"/>
+      <c r="AR10" s="66"/>
       <c r="AS10" s="6"/>
     </row>
     <row r="11" spans="15:45" ht="16" customHeight="1">
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="75"/>
-      <c r="R11" s="75"/>
-      <c r="S11" s="75"/>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="91"/>
+      <c r="S11" s="91"/>
       <c r="T11" s="26"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
-      <c r="W11" s="76" t="s">
+      <c r="W11" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="X11" s="77"/>
-      <c r="Y11" s="77"/>
-      <c r="Z11" s="77"/>
-      <c r="AA11" s="77"/>
-      <c r="AB11" s="78"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="65"/>
+      <c r="Z11" s="65"/>
+      <c r="AA11" s="65"/>
+      <c r="AB11" s="66"/>
       <c r="AC11" s="20"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
@@ -10241,12 +10242,12 @@
       <c r="AJ11" s="5"/>
       <c r="AK11" s="5"/>
       <c r="AM11" s="4"/>
-      <c r="AN11" s="80" t="s">
+      <c r="AN11" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="AO11" s="81"/>
-      <c r="AP11" s="81"/>
-      <c r="AQ11" s="81"/>
+      <c r="AO11" s="84"/>
+      <c r="AP11" s="84"/>
+      <c r="AQ11" s="84"/>
       <c r="AR11" s="6"/>
       <c r="AS11" s="6"/>
     </row>
@@ -10402,15 +10403,15 @@
       <c r="AI16" s="19"/>
       <c r="AJ16" s="19"/>
       <c r="AK16" s="5"/>
-      <c r="AM16" s="62" t="s">
+      <c r="AM16" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="AN16" s="63"/>
-      <c r="AO16" s="63"/>
-      <c r="AP16" s="63"/>
-      <c r="AQ16" s="63"/>
-      <c r="AR16" s="63"/>
-      <c r="AS16" s="64"/>
+      <c r="AN16" s="77"/>
+      <c r="AO16" s="77"/>
+      <c r="AP16" s="77"/>
+      <c r="AQ16" s="77"/>
+      <c r="AR16" s="77"/>
+      <c r="AS16" s="78"/>
     </row>
     <row r="17" spans="3:45" ht="16" customHeight="1">
       <c r="O17" s="4"/>
@@ -10420,14 +10421,14 @@
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
-      <c r="W17" s="79" t="s">
+      <c r="W17" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="X17" s="79"/>
-      <c r="Y17" s="79"/>
-      <c r="Z17" s="79"/>
-      <c r="AA17" s="79"/>
-      <c r="AB17" s="79"/>
+      <c r="X17" s="82"/>
+      <c r="Y17" s="82"/>
+      <c r="Z17" s="82"/>
+      <c r="AA17" s="82"/>
+      <c r="AB17" s="82"/>
       <c r="AC17" s="23"/>
       <c r="AD17" s="19"/>
       <c r="AE17" s="19"/>
@@ -10437,25 +10438,25 @@
       <c r="AI17" s="19"/>
       <c r="AJ17" s="19"/>
       <c r="AK17" s="5"/>
-      <c r="AM17" s="65"/>
-      <c r="AN17" s="66"/>
-      <c r="AO17" s="66"/>
-      <c r="AP17" s="66"/>
-      <c r="AQ17" s="66"/>
-      <c r="AR17" s="66"/>
-      <c r="AS17" s="67"/>
+      <c r="AM17" s="79"/>
+      <c r="AN17" s="80"/>
+      <c r="AO17" s="80"/>
+      <c r="AP17" s="80"/>
+      <c r="AQ17" s="80"/>
+      <c r="AR17" s="80"/>
+      <c r="AS17" s="81"/>
     </row>
     <row r="18" spans="3:45" ht="16" customHeight="1">
       <c r="C18" s="61"/>
       <c r="D18" s="61"/>
       <c r="E18" s="61"/>
-      <c r="F18" s="85" t="s">
+      <c r="F18" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
       <c r="K18" s="61"/>
       <c r="L18" s="61"/>
       <c r="O18" s="4"/>
@@ -10496,11 +10497,11 @@
       <c r="C19" s="61"/>
       <c r="D19" s="61"/>
       <c r="E19" s="61"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
       <c r="K19" s="61"/>
       <c r="L19" s="61"/>
       <c r="O19" s="4"/>
@@ -10522,13 +10523,13 @@
       <c r="AC19" s="5"/>
       <c r="AK19" s="5"/>
       <c r="AM19" s="4"/>
-      <c r="AN19" s="76" t="s">
+      <c r="AN19" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="AO19" s="77"/>
-      <c r="AP19" s="77"/>
-      <c r="AQ19" s="77"/>
-      <c r="AR19" s="78"/>
+      <c r="AO19" s="65"/>
+      <c r="AP19" s="65"/>
+      <c r="AQ19" s="65"/>
+      <c r="AR19" s="66"/>
       <c r="AS19" s="6"/>
     </row>
     <row r="20" spans="3:45" ht="16" customHeight="1">
@@ -10569,14 +10570,14 @@
       </c>
       <c r="S21" s="38"/>
       <c r="T21" s="39"/>
-      <c r="W21" s="86" t="s">
+      <c r="W21" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="X21" s="87"/>
-      <c r="Y21" s="87"/>
-      <c r="Z21" s="87"/>
-      <c r="AA21" s="87"/>
-      <c r="AB21" s="88"/>
+      <c r="X21" s="68"/>
+      <c r="Y21" s="68"/>
+      <c r="Z21" s="68"/>
+      <c r="AA21" s="68"/>
+      <c r="AB21" s="69"/>
       <c r="AC21" s="47"/>
       <c r="AD21" s="9"/>
       <c r="AE21" s="9"/>
@@ -10661,13 +10662,13 @@
       <c r="AS23" s="6"/>
     </row>
     <row r="24" spans="3:45" ht="16" customHeight="1">
-      <c r="F24" s="85" t="s">
+      <c r="F24" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
       <c r="K24" s="61"/>
       <c r="L24" s="61"/>
       <c r="O24" s="4"/>
@@ -10705,11 +10706,11 @@
     </row>
     <row r="25" spans="3:45" ht="16" customHeight="1">
       <c r="E25" s="61"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
       <c r="K25" s="61"/>
       <c r="L25" s="61"/>
       <c r="O25" s="4"/>
@@ -10872,14 +10873,14 @@
       <c r="AS32" s="5"/>
     </row>
     <row r="33" spans="6:45" ht="16" customHeight="1">
-      <c r="W33" s="72" t="s">
+      <c r="W33" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="X33" s="73"/>
-      <c r="Y33" s="73"/>
-      <c r="Z33" s="73"/>
-      <c r="AA33" s="73"/>
-      <c r="AB33" s="74"/>
+      <c r="X33" s="89"/>
+      <c r="Y33" s="89"/>
+      <c r="Z33" s="89"/>
+      <c r="AA33" s="89"/>
+      <c r="AB33" s="90"/>
       <c r="AC33" s="22"/>
       <c r="AD33" t="s">
         <v>52</v>
@@ -10916,12 +10917,12 @@
       <c r="Z35" s="5"/>
       <c r="AA35" s="5"/>
       <c r="AB35" s="36"/>
-      <c r="AE35" s="71" t="s">
+      <c r="AE35" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="AF35" s="71"/>
-      <c r="AG35" s="71"/>
-      <c r="AH35" s="71"/>
+      <c r="AF35" s="62"/>
+      <c r="AG35" s="62"/>
+      <c r="AH35" s="62"/>
       <c r="AI35" s="27"/>
       <c r="AJ35" s="29"/>
       <c r="AM35" s="5"/>
@@ -10975,12 +10976,12 @@
         <v>55</v>
       </c>
       <c r="AB38" s="36"/>
-      <c r="AE38" s="71" t="s">
+      <c r="AE38" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="AF38" s="71"/>
-      <c r="AG38" s="71"/>
-      <c r="AH38" s="71"/>
+      <c r="AF38" s="62"/>
+      <c r="AG38" s="62"/>
+      <c r="AH38" s="62"/>
       <c r="AI38" s="27"/>
       <c r="AJ38" s="29"/>
     </row>
@@ -11029,13 +11030,13 @@
       <c r="AE42" s="31"/>
     </row>
     <row r="43" spans="6:45" ht="16" customHeight="1">
-      <c r="P43" s="72" t="s">
+      <c r="P43" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="Q43" s="73"/>
-      <c r="R43" s="73"/>
-      <c r="S43" s="73"/>
-      <c r="T43" s="74"/>
+      <c r="Q43" s="89"/>
+      <c r="R43" s="89"/>
+      <c r="S43" s="89"/>
+      <c r="T43" s="90"/>
       <c r="W43" s="35"/>
       <c r="X43" s="5"/>
       <c r="Y43" s="5" t="s">
@@ -11078,13 +11079,13 @@
       <c r="AB45" s="36"/>
     </row>
     <row r="46" spans="6:45" ht="16" customHeight="1">
-      <c r="F46" s="89" t="s">
+      <c r="F46" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="G46" s="90"/>
-      <c r="H46" s="90"/>
-      <c r="I46" s="90"/>
-      <c r="J46" s="91"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="72"/>
       <c r="P46" s="37"/>
       <c r="Q46" s="38"/>
       <c r="R46" s="38"/>
@@ -11100,11 +11101,11 @@
       <c r="AB46" s="36"/>
     </row>
     <row r="47" spans="6:45" ht="16" customHeight="1">
-      <c r="F47" s="92"/>
-      <c r="G47" s="93"/>
-      <c r="H47" s="93"/>
-      <c r="I47" s="93"/>
-      <c r="J47" s="94"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="75"/>
       <c r="W47" s="35"/>
       <c r="X47" s="5" t="s">
         <v>67</v>
@@ -11120,12 +11121,12 @@
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="36"/>
-      <c r="Q48" s="72" t="s">
+      <c r="Q48" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="R48" s="73"/>
-      <c r="S48" s="73"/>
-      <c r="T48" s="74"/>
+      <c r="R48" s="89"/>
+      <c r="S48" s="89"/>
+      <c r="T48" s="90"/>
       <c r="W48" s="35"/>
       <c r="X48" s="5"/>
       <c r="Y48" s="5" t="s">
@@ -11203,12 +11204,12 @@
       <c r="Z51" s="5"/>
       <c r="AA51" s="5"/>
       <c r="AB51" s="36"/>
-      <c r="AE51" s="71" t="s">
+      <c r="AE51" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="AF51" s="71"/>
-      <c r="AG51" s="71"/>
-      <c r="AH51" s="71"/>
+      <c r="AF51" s="62"/>
+      <c r="AG51" s="62"/>
+      <c r="AH51" s="62"/>
     </row>
     <row r="52" spans="6:37" ht="16" customHeight="1">
       <c r="F52" s="35"/>
@@ -11218,14 +11219,14 @@
       </c>
       <c r="I52" s="5"/>
       <c r="J52" s="36"/>
-      <c r="O52" s="82" t="s">
+      <c r="O52" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="P52" s="83"/>
-      <c r="Q52" s="83"/>
-      <c r="R52" s="83"/>
-      <c r="S52" s="83"/>
-      <c r="T52" s="84"/>
+      <c r="P52" s="93"/>
+      <c r="Q52" s="93"/>
+      <c r="R52" s="93"/>
+      <c r="S52" s="93"/>
+      <c r="T52" s="94"/>
       <c r="W52" s="35"/>
       <c r="X52" s="5" t="s">
         <v>74</v>
@@ -11259,12 +11260,12 @@
       <c r="Z53" s="38"/>
       <c r="AA53" s="38"/>
       <c r="AB53" s="39"/>
-      <c r="AE53" s="71" t="s">
+      <c r="AE53" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="AF53" s="71"/>
-      <c r="AG53" s="71"/>
-      <c r="AH53" s="71"/>
+      <c r="AF53" s="62"/>
+      <c r="AG53" s="62"/>
+      <c r="AH53" s="62"/>
     </row>
     <row r="54" spans="6:37" ht="16" customHeight="1">
       <c r="F54" s="35"/>
@@ -11329,14 +11330,14 @@
       </c>
       <c r="S57" s="5"/>
       <c r="T57" s="36"/>
-      <c r="W57" s="71" t="s">
+      <c r="W57" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="X57" s="71"/>
-      <c r="Y57" s="71"/>
-      <c r="Z57" s="71"/>
-      <c r="AA57" s="71"/>
-      <c r="AB57" s="71"/>
+      <c r="X57" s="62"/>
+      <c r="Y57" s="62"/>
+      <c r="Z57" s="62"/>
+      <c r="AA57" s="62"/>
+      <c r="AB57" s="62"/>
     </row>
     <row r="58" spans="6:37" ht="16" customHeight="1">
       <c r="F58" s="35"/>
@@ -11952,20 +11953,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="W57:AB57"/>
-    <mergeCell ref="F24:J25"/>
-    <mergeCell ref="F18:J19"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="W21:AB21"/>
-    <mergeCell ref="AE38:AH38"/>
-    <mergeCell ref="AE35:AH35"/>
-    <mergeCell ref="F46:J47"/>
-    <mergeCell ref="AM8:AS9"/>
-    <mergeCell ref="AM16:AS17"/>
-    <mergeCell ref="W17:AB17"/>
-    <mergeCell ref="W11:AB11"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AN11:AQ11"/>
     <mergeCell ref="O2:AK3"/>
     <mergeCell ref="AE7:AH7"/>
     <mergeCell ref="AE51:AH51"/>
@@ -11976,6 +11963,20 @@
     <mergeCell ref="Q10:S11"/>
     <mergeCell ref="P5:T5"/>
     <mergeCell ref="O52:T52"/>
+    <mergeCell ref="AM8:AS9"/>
+    <mergeCell ref="AM16:AS17"/>
+    <mergeCell ref="W17:AB17"/>
+    <mergeCell ref="W11:AB11"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AN11:AQ11"/>
+    <mergeCell ref="W57:AB57"/>
+    <mergeCell ref="F24:J25"/>
+    <mergeCell ref="F18:J19"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="W21:AB21"/>
+    <mergeCell ref="AE38:AH38"/>
+    <mergeCell ref="AE35:AH35"/>
+    <mergeCell ref="F46:J47"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/maraSonSouce/marasong_memo.xlsx
+++ b/maraSonSouce/marasong_memo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hqu666/Documents/Develop/an/workSpace/maraSong/maraSonSouce/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB13A174-84FD-364F-B1FB-5F957647A885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAFD4F2-2E9F-CC44-AA59-745F356CC669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3300" yWindow="-19760" windowWidth="31200" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="-18380" windowWidth="33340" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="起動" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="191">
   <si>
     <t>MuList</t>
   </si>
@@ -39,15 +39,9 @@
     <t>onCreate</t>
   </si>
   <si>
-    <t>パーミッション確認</t>
-  </si>
-  <si>
     <t>receiverHaki()</t>
   </si>
   <si>
-    <t>初回起動</t>
-  </si>
-  <si>
     <t>onRequestPermissionsResult</t>
   </si>
   <si>
@@ -69,15 +63,9 @@
     <t>readPrif</t>
   </si>
   <si>
-    <t>前回の使用記録</t>
-  </si>
-  <si>
     <t>まだ作成できていないパラメータの作成</t>
   </si>
   <si>
-    <t>無ければ初期取り込み</t>
-  </si>
-  <si>
     <t>リストID未指定なら</t>
   </si>
   <si>
@@ -87,9 +75,6 @@
     <t>全曲リストに初期設定</t>
   </si>
   <si>
-    <t>有れば</t>
-  </si>
-  <si>
     <t>前回からの継続</t>
   </si>
   <si>
@@ -147,10 +132,6 @@
     <t>E/libc: Access denied finding property "vendor.gralloc.disable_ahardware_buffer"</t>
   </si>
   <si>
-    <t>shigot_bangoの振分け</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>jyoukyou_bunki:	//204；現在の状態に見合った分岐を行う</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -172,10 +153,6 @@
   </si>
   <si>
     <t xml:space="preserve">  oFR</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    jyoukyouBunki</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -489,10 +466,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>readPref</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>onCreate</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -822,10 +795,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>getItems</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>syoki_Yomikomi:</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -843,6 +812,350 @@
   </si>
   <si>
     <t>menu_item_plist_zenkyoku_kousin</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>パーミッション確認　──────────────────────────────────────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>readPref　──────────────────────────────────────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>├──────────────────────────────────────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>初回起動　──────────────────────────────────────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>前回の使用記録無し：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>pref_data_url</t>
+    </r>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">ナシ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>前回からのファイル更新あり</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ゼンカイキアラ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>全曲リストから作成</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ゼンキョクリストカラ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">サクセイ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>┌────────────────────────────────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>│</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>┼──────────────────────────────────────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>preRead　←──────────────────────────────────────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>違えば</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">チガエバ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>shigot_bangoの振分け　──────────────────────────────────────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>registerReceiver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>　←──────────────────────────────────────────</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>　←──────────────────────────────────────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>┐</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>└</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>└──────────────────────────────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>┬──────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>getItems　←──────────────────────────────────────────────────────────────────────────────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>┘</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>→    jyoukyouBunki</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>saikin_tuika</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>抽出期間選択</t>
+    <rPh sb="0" eb="6">
+      <t xml:space="preserve">チュウシュツキカンセンタク </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>saikin_tuika_Junbi</t>
+  </si>
+  <si>
+    <t>プレイリスト配列:plNameSLに追加</t>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ハイレツニ </t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t xml:space="preserve">ツイカ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>saikin_tuika_mod</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>MediaStore.Audio.Media.DATE_ADDED</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>で抽出期間内のファイルを選択</t>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">ナイノ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>reqCode = CONTEXT_saikintuika0;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>//652;最近追加リストの記述</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>plogTask</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>onSuccessplogTask</t>
+  </si>
+  <si>
+    <t>getItems　──────────────────────────────────────────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>──────────────────────────────────────────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>doInBackground</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>testList =  new ArrayList&lt;String&gt;();</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>//最近再生された楽曲のID</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>cursor──────────────────────────────────────────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>まだAUDIO_IDで追加されていなければ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>testList.add(tStr);</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>saikin_tuika_mod_end　←──────────────────────────────────────────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>saikin_tuika_yomi</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>MuList.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>plAL</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>new ArrayList&lt;Map&lt;String, Object&gt;&gt;();</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">reqCode </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>CONTEXT_saikintuika_end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>//最近追加リストのプレイリスト作成   654</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">saikin_tuika_yomi_body( </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">pdCoundtVal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>); 　←──────────────────────────────────────────────</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>　</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>saikin_tuika_yomi_end　←──────────────────────────────────────────────</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -850,7 +1163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -979,6 +1292,40 @@
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000080"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF660E7A"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF660E7A"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1167,7 +1514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1234,7 +1581,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1275,9 +1621,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1290,11 +1633,71 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1303,6 +1706,21 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1332,63 +1750,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1410,268 +1811,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>23091</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>161636</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="カギ線コネクタ 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA071972-0610-4D18-A5FF-99C65202D5D9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="20" idx="6"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6892636" y="1200727"/>
-          <a:ext cx="438728" cy="46182"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:tailEnd type="stealth"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>132774</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>161635</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>508001</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>207817</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="カギ線コネクタ 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF6F4780-ECC0-42DD-AE61-35B260A9D611}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CA071972-0610-4D18-A5FF-99C65202D5D9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="29" idx="4"/>
-          <a:endCxn id="4" idx="0"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{A902F02F-F795-4DD0-BAB7-E5FAAAE64F3F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="7998114" y="1313295"/>
-          <a:ext cx="461819" cy="1067954"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>219362</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>127001</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>46183</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>115454</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="カギ線コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A4120D6-5383-46DE-8CA7-F58917F0615A}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CF6F4780-ECC0-42DD-AE61-35B260A9D611}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="28" idx="6"/>
-          <a:endCxn id="14" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10194635" y="1997365"/>
-          <a:ext cx="3486730" cy="404089"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>173181</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="カギ線コネクタ 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80AEFAE-FB78-4585-815D-657216A00B6B}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5A4120D6-5383-46DE-8CA7-F58917F0615A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="48" idx="6"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{6817124A-41B7-41FA-85DA-84D2132C9463}" end="{00000000-0000-0000-0000-000000000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8162636" y="3659909"/>
-          <a:ext cx="3536373" cy="288636"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>219363</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1728,91 +1876,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>508001</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>109683</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>57727</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>207817</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="カギ線コネクタ 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894CDD3D-34E5-4566-9566-E86CEC2E422D}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6817124A-41B7-41FA-85DA-84D2132C9463}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="35" idx="2"/>
-          <a:endCxn id="4" idx="0"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{A902F02F-F795-4DD0-BAB7-E5FAAAE64F3F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="8763001" y="1772228"/>
-          <a:ext cx="2147453" cy="305953"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A902F02F-F795-4DD0-BAB7-E5FAAAE64F3F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B0E7F0-E9B5-4CE9-8CE1-A5EFBB6EFE33}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{894CDD3D-34E5-4566-9566-E86CEC2E422D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DE319BA7-111C-48B5-BD50-FDE631A01F44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1820,8 +1903,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5345545" y="2170545"/>
-          <a:ext cx="2378364" cy="1154546"/>
+          <a:off x="669636" y="3542434"/>
+          <a:ext cx="3232728" cy="817130"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1949,777 +2032,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>127003</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>184726</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>508001</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>207817</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="カギ線コネクタ 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE319BA7-111C-48B5-BD50-FDE631A01F44}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A902F02F-F795-4DD0-BAB7-E5FAAAE64F3F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="44" idx="4"/>
-          <a:endCxn id="10" idx="0"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{6817124A-41B7-41FA-85DA-84D2132C9463}" end="{00000000-0000-0000-0000-000000000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="6240320" y="2788228"/>
-          <a:ext cx="230909" cy="842816"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7B0E7F0-E9B5-4CE9-8CE1-A5EFBB6EFE33}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DE319BA7-111C-48B5-BD50-FDE631A01F44}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="669636" y="3542434"/>
-          <a:ext cx="3232728" cy="817130"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>103910</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>161638</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>46185</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>46184</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="カギ線コネクタ 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD5AF37C-9024-4869-9645-C90A2E2F6A79}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F7B0E7F0-E9B5-4CE9-8CE1-A5EFBB6EFE33}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="50" idx="4"/>
-          <a:endCxn id="54" idx="0"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{6817124A-41B7-41FA-85DA-84D2132C9463}" end="{F7B0E7F0-E9B5-4CE9-8CE1-A5EFBB6EFE33}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="4185229" y="4416137"/>
-          <a:ext cx="715819" cy="103911"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6511C0D2-9875-4576-A9DE-98F4DED0F0D3}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CD5AF37C-9024-4869-9645-C90A2E2F6A79}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="669636" y="4779818"/>
-          <a:ext cx="3232728" cy="831273"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>2454</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>57728</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>98139</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="カギ線コネクタ 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CBB14B6-60B1-4CA3-8016-7028EF13BC2F}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6511C0D2-9875-4576-A9DE-98F4DED0F0D3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="54" idx="2"/>
-          <a:endCxn id="15" idx="3"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{6817124A-41B7-41FA-85DA-84D2132C9463}" end="{6511C0D2-9875-4576-A9DE-98F4DED0F0D3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="3579092" y="3950999"/>
-          <a:ext cx="865909" cy="926958"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>46183</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>69273</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>150091</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>184728</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="円/楕円 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEA64317-2DDC-874A-84CF-5FB141D61872}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13681365" y="1939637"/>
-          <a:ext cx="103908" cy="115455"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1916545</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>115453</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>23091</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="円/楕円 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{317E0C5A-A47E-D44B-A5D4-858C37ADAA8D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6788727" y="1154544"/>
-          <a:ext cx="103909" cy="92365"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>196279</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>34639</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>80824</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>138549</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="円/楕円 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AA12167-A6B8-CB46-AE0D-4DAC424741A2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8220370" y="1281548"/>
-          <a:ext cx="115454" cy="103910"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>80824</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>86594</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>173182</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>173182</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="カギ線コネクタ 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80EE635-BFC9-1547-9D32-73059A55F69B}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CA071972-0610-4D18-A5FF-99C65202D5D9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="24" idx="6"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{00000000-0000-0000-0000-000000000000}" end="{A902F02F-F795-4DD0-BAB7-E5FAAAE64F3F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8335824" y="1333503"/>
-          <a:ext cx="2251358" cy="86588"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>34635</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>23090</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>219362</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>207817</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2772,13 +2093,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>80818</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>69273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>184727</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>161636</xdr:rowOff>
@@ -2833,891 +2154,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>57726</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>46184</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>150089</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>173184</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="円/楕円 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C89B259C-8FB7-2843-A585-66D421377337}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10910453" y="1708729"/>
-          <a:ext cx="92363" cy="127000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>57728</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>69272</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>196275</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>184727</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="円/楕円 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A5C46BB-05DE-704E-BF16-15FB49E494F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5865092" y="2978727"/>
-          <a:ext cx="138547" cy="115455"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>57727</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>69273</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>173181</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>184727</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="円/楕円 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{724C66F6-42F0-2049-AC1E-3B64485AA73C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8047182" y="3602182"/>
-          <a:ext cx="115454" cy="115454"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>150092</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>34639</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>103911</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>161638</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="円/楕円 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BBFBB9F-7949-A042-A11C-DA6A60F6F900}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3140365" y="3983184"/>
-          <a:ext cx="115455" cy="126999"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="正方形/長方形 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C014A849-DE45-AA46-A45E-A1E8CE8D379E}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C80AEFAE-FB78-4585-815D-657216A00B6B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2990274" y="4779818"/>
-          <a:ext cx="1893454" cy="623455"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>57727</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>46184</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>150091</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>150094</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="円/楕円 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97C5477E-B5CE-0748-BE27-1E39943D829C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4445000" y="4826002"/>
-          <a:ext cx="92364" cy="103910"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>69272</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>92364</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="円/楕円 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BE3D70B-50E2-504A-889F-AE3D1EB5C657}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4456545" y="5080000"/>
-          <a:ext cx="92364" cy="115456"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>150091</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>69272</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>207818</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="カギ線コネクタ 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95002D9-17F5-504A-8760-AF184E19670C}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6511C0D2-9875-4576-A9DE-98F4DED0F0D3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="56" idx="2"/>
-          <a:endCxn id="19" idx="3"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{6817124A-41B7-41FA-85DA-84D2132C9463}" end="{6511C0D2-9875-4576-A9DE-98F4DED0F0D3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3579091" y="5137727"/>
-          <a:ext cx="877454" cy="57727"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1293091</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>46182</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1385455</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>150091</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="円/楕円 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C20881B0-9892-6D4B-A1FF-FF952F52B641}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4768273" y="4202546"/>
-          <a:ext cx="92364" cy="103909"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1385455</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>92364</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>98137</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="カギ線コネクタ 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8B8F3F6-1826-1546-92E5-41B53C96862F}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F7B0E7F0-E9B5-4CE9-8CE1-A5EFBB6EFE33}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="67" idx="6"/>
-          <a:endCxn id="74" idx="2"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{6817124A-41B7-41FA-85DA-84D2132C9463}" end="{F7B0E7F0-E9B5-4CE9-8CE1-A5EFBB6EFE33}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4860637" y="4248728"/>
-          <a:ext cx="484908" cy="5773"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>46182</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>80819</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>138545</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="円/楕円 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15F93F91-B20C-3A4F-9BD5-567A135A544B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5345545" y="4618182"/>
-          <a:ext cx="80819" cy="92363"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>103910</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>138545</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="円/楕円 76">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA5D3E40-ACFE-5E44-A767-E96F5400891C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5576455" y="4987636"/>
-          <a:ext cx="103910" cy="138545"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>80819</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>92363</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="円/楕円 78">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D140C08C-AF55-654A-954B-368951E58807}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5345545" y="6858000"/>
-          <a:ext cx="80819" cy="92363"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>69272</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>46181</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="80" name="カギ線コネクタ 79">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E62BAF0C-EB3A-C34F-A703-BF2FAE6BD612}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F7B0E7F0-E9B5-4CE9-8CE1-A5EFBB6EFE33}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="77" idx="2"/>
-          <a:endCxn id="79" idx="2"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{6817124A-41B7-41FA-85DA-84D2132C9463}" end="{F7B0E7F0-E9B5-4CE9-8CE1-A5EFBB6EFE33}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="5345545" y="4641272"/>
-          <a:ext cx="230910" cy="2055091"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 199000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>115451</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>80815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>196270</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>173178</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3770,15 +2215,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>1708729</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>80815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>65811</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>182415</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3814,15 +2259,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>77356</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>126997</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>115451</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>131615</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3881,15 +2326,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>92348</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>46180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>173167</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>138543</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3942,15 +2387,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>1697171</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>46180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>54253</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>147780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3986,15 +2431,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>65798</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>92362</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>92348</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>96980</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4053,15 +2498,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>115446</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>92369</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>196265</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>184732</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4112,61 +2557,17 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>1674088</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>42715</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>138551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>31170</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>32333</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="102" name="図 101">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACA1B5C4-8F6D-924E-B7D7-3F91181214D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7943270" y="8451278"/>
-          <a:ext cx="88900" cy="101600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>42715</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>138551</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>115446</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>189351</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4183,7 +2584,6 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="102" idx="3"/>
           <a:endCxn id="101" idx="2"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
@@ -4225,187 +2625,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1881909</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>92363</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1973810</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>173181</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="108" name="円/楕円 107">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21A05AC6-562E-F446-88C6-7C2694702F3B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6754091" y="9859818"/>
-          <a:ext cx="91901" cy="80818"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>53284</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>75736</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>151074</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>187496</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="109" name="図 108">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D58FE9F7-AB9E-634B-AFBC-350A1538D82B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8077375" y="9843191"/>
-          <a:ext cx="97790" cy="111760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1973811</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>131616</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>173186</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>132772</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="110" name="カギ線コネクタ 109">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEC8B716-AFE0-9E48-9DF6-498A66E6A1A2}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5A4120D6-5383-46DE-8CA7-F58917F0615A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="138" idx="1"/>
-          <a:endCxn id="108" idx="6"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{6817124A-41B7-41FA-85DA-84D2132C9463}" end="{00000000-0000-0000-0000-000000000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="6845993" y="9899071"/>
-          <a:ext cx="658557" cy="1156"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="stealth"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>115449</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>23090</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>196268</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>115453</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4458,15 +2686,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>1608282</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>57726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>1697182</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>159326</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4502,15 +2730,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>1697182</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>69272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>115449</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>108526</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4569,15 +2797,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>115449</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>196268</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>92363</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4632,13 +2860,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>23084</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>69273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>103903</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>161636</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4693,13 +2921,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>11545</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>23091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>100445</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>124691</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4737,13 +2965,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>100445</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>73891</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>23084</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>115455</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4804,13 +3032,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>11539</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>34637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>92358</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4865,13 +3093,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>34636</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>46181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123536</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>147781</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4909,13 +3137,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>126957</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>96981</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>34637</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>73891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4975,13 +3203,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>69267</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>34639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>150086</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>127002</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5034,15 +3262,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>62</xdr:col>
+      <xdr:col>67</xdr:col>
       <xdr:colOff>57725</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>23091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>62</xdr:col>
+      <xdr:col>67</xdr:col>
       <xdr:colOff>146625</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>124691</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5080,13 +3308,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>69268</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>80819</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>11540</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>80821</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5147,13 +3375,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>46177</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>46183</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>126996</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>138546</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5206,15 +3434,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>63</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>80819</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>57727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>63</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>169719</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>159327</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5252,13 +3480,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>46178</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>108527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>80820</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>92365</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5319,13 +3547,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>126952</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>34638</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>80770</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>127001</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5380,13 +3608,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>23049</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>46181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>111949</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>147781</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5424,13 +3652,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>126953</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>96980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>23050</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>80819</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5491,13 +3719,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>69271</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>69273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>150090</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>161636</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5550,15 +3778,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>50</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>161641</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>46180</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>250541</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>147780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5596,13 +3824,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>115416</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>96980</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>103873</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>108526</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5661,13 +3889,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>23091</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>81281</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>126996</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>184727</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5720,15 +3948,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>50</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>46184</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>57726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>135084</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>159326</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5766,13 +3994,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>23092</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>115454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>69272</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>133003</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5833,13 +4061,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>161600</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>69271</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>88863</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>170871</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5877,13 +4105,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>11504</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>120071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>161600</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>161636</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -5943,13 +4171,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>80817</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>64656</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>161636</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>166255</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6004,13 +4232,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>69278</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>80817</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>158178</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>182417</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6048,13 +4276,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>23049</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>131616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>46146</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>115455</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6113,13 +4341,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>69273</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>115454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6174,13 +4402,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>80818</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>57727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>161637</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>150090</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6235,13 +4463,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>23095</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>69270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>111995</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>170870</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6279,13 +4507,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>23052</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>120069</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>23095</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>120072</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6346,13 +4574,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>11545</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>80819</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>103908</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>173182</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6407,13 +4635,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>23052</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>69273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>111952</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>170873</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6451,13 +4679,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>103908</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>103909</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>80818</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>127001</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6518,13 +4746,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>92364</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>80818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>173181</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6579,13 +4807,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>80824</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>57727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>8088</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>159327</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6623,13 +4851,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>34595</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>108526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57691</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>126999</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6688,13 +4916,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>23048</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>46182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>23048</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>138545</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6749,13 +4977,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>34600</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>103907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123500</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>205507</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6793,13 +5021,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>23049</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>154706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>34601</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>92363</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -6860,13 +5088,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>46185</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>92364</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>127004</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>184727</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6921,13 +5149,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57736</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>46179</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>146636</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>147779</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6965,13 +5193,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>115421</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>96979</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57736</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>73891</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7032,13 +5260,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>80822</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>69272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>161641</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>161635</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7093,13 +5321,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>115421</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>23091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>77321</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>124691</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7137,13 +5365,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>23054</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>138545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>23053</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>115453</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7202,13 +5430,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>46191</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>57724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>135091</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>159324</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7246,13 +5474,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>126964</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>108523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>46192</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>80816</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7313,13 +5541,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>103871</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>80817</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>57690</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>173180</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7374,13 +5602,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57738</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>80815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>146638</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>182415</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7418,13 +5646,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>103871</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>131615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57738</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>126999</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7485,13 +5713,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>126963</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>34635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>103872</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>126999</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7546,13 +5774,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>34636</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>23091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123536</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>124691</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7590,13 +5818,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>92362</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>73890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>34637</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>143163</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7657,13 +5885,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>92361</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>92364</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>19624</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>193964</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7701,13 +5929,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57727</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>146627</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>20782</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7745,13 +5973,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>46640</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57727</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>150324</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7812,13 +6040,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>103903</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>64658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>11540</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>166257</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7873,13 +6101,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57729</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>57731</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>146629</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>159331</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7917,13 +6145,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>103909</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>103907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>23092</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>103910</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7984,13 +6212,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>46640</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>127464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>92359</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>173183</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8045,13 +6273,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>92306</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>103911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>34580</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>196274</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8106,13 +6334,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>46181</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>23090</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>135081</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>124690</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8150,13 +6378,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>57727</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>73889</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>46182</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>73892</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8217,13 +6445,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>69266</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>80821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>150085</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>173184</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8278,13 +6506,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>57726</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>23093</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>146626</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>124693</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8322,13 +6550,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>69266</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>150093</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>92306</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>127003</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8389,13 +6617,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>57722</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>138546</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>23091</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>184265</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8450,13 +6678,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>23040</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>57728</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>111940</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>159328</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8494,13 +6722,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>57723</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>108527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>23041</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>161404</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8561,13 +6789,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>23084</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>46184</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>103903</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>138547</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8622,13 +6850,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>138496</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>34636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>65759</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>136236</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8666,13 +6894,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>23084</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>85436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>138496</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>92366</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8731,168 +6959,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1258458</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>69273</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1347358</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>170873</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="201" name="図 200">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CDAA36D-8E05-694A-B26E-16B7B20C58E0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4733640" y="11914909"/>
-          <a:ext cx="88900" cy="101600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1347358</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>32326</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>79095</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>120073</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="202" name="カギ線コネクタ 201">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E50D657D-B831-6F42-9228-BD2FEDDA20AA}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5A4120D6-5383-46DE-8CA7-F58917F0615A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="201" idx="3"/>
-          <a:endCxn id="204" idx="2"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{6817124A-41B7-41FA-85DA-84D2132C9463}" end="{00000000-0000-0000-0000-000000000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6219540" y="3980871"/>
-          <a:ext cx="7148373" cy="7361384"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>34645</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>138544</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>123545</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>32326</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="204" name="図 203">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9D64E6F-867E-344A-A75E-CB89630D4709}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11337645" y="3879271"/>
-          <a:ext cx="88900" cy="101600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>150043</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>69271</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>77306</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>170871</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8930,13 +7005,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>32856</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>150089</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>51955</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>170871</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8997,13 +7072,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>46179</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>57731</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>126998</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>150094</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9058,13 +7133,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>23094</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>57738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>111994</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>159338</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9102,13 +7177,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>46180</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>108538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>23095</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>103913</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9169,13 +7244,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>23092</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>57728</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>127001</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>150092</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9230,13 +7305,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>57725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>103909</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>150089</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9287,128 +7362,17 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>173185</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>80816</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>31176</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>182416</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="138" name="図 137">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36006C9C-96CE-184F-BA0D-50B34CABEA90}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7273640" y="9848271"/>
-          <a:ext cx="88900" cy="101600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>31176</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>131616</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>53284</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>144316</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="140" name="カギ線コネクタ 139">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FEBF9C7-902F-0446-B908-E1A79C842218}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5A4120D6-5383-46DE-8CA7-F58917F0615A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="109" idx="1"/>
-          <a:endCxn id="138" idx="3"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{6817124A-41B7-41FA-85DA-84D2132C9463}" end="{00000000-0000-0000-0000-000000000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="7593449" y="9899071"/>
-          <a:ext cx="483926" cy="12700"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>1951182</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>182416</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>217635</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>138545</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9426,7 +7390,6 @@
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
           <a:stCxn id="145" idx="6"/>
-          <a:endCxn id="138" idx="2"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
               <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{6817124A-41B7-41FA-85DA-84D2132C9463}" end="{00000000-0000-0000-0000-000000000000}"/>
@@ -9467,13 +7430,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>1870363</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>92363</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>1951182</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>184726</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9528,13 +7491,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>46180</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>57725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>135080</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>159325</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9572,13 +7535,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>135080</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>108525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>217635</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>80816</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9595,7 +7558,6 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="138" idx="0"/>
           <a:endCxn id="170" idx="3"/>
           <a:extLst>
             <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
@@ -9933,10 +7895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:AS112"/>
+  <dimension ref="C2:AX113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H90" sqref="H90"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AB89" sqref="AB89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -9947,71 +7909,82 @@
     <col min="8" max="8" width="29.6640625" customWidth="1"/>
     <col min="9" max="18" width="2.1640625" customWidth="1"/>
     <col min="19" max="19" width="29.1640625" customWidth="1"/>
-    <col min="20" max="26" width="3" customWidth="1"/>
-    <col min="27" max="27" width="22.5" customWidth="1"/>
-    <col min="28" max="32" width="2.83203125" customWidth="1"/>
-    <col min="33" max="33" width="22.6640625" customWidth="1"/>
-    <col min="34" max="36" width="2.1640625" customWidth="1"/>
-    <col min="37" max="40" width="2.33203125" customWidth="1"/>
-    <col min="41" max="41" width="1.83203125" customWidth="1"/>
-    <col min="42" max="42" width="2.5" customWidth="1"/>
-    <col min="43" max="43" width="29.1640625" customWidth="1"/>
-    <col min="44" max="47" width="2.5" customWidth="1"/>
+    <col min="20" max="27" width="3" customWidth="1"/>
+    <col min="28" max="28" width="22.5" customWidth="1"/>
+    <col min="29" max="37" width="2.83203125" customWidth="1"/>
+    <col min="38" max="38" width="22.6640625" customWidth="1"/>
+    <col min="39" max="39" width="2" customWidth="1"/>
+    <col min="40" max="41" width="2.1640625" customWidth="1"/>
+    <col min="42" max="45" width="2.33203125" customWidth="1"/>
+    <col min="46" max="46" width="1.83203125" customWidth="1"/>
+    <col min="47" max="47" width="2.5" customWidth="1"/>
+    <col min="48" max="48" width="29.1640625" customWidth="1"/>
+    <col min="49" max="52" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="15:45" ht="16" customHeight="1">
-      <c r="O2" s="76" t="s">
+    <row r="2" spans="15:50" ht="16" customHeight="1">
+      <c r="O2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="77"/>
-      <c r="AF2" s="77"/>
-      <c r="AG2" s="77"/>
-      <c r="AH2" s="77"/>
-      <c r="AI2" s="77"/>
-      <c r="AJ2" s="77"/>
-      <c r="AK2" s="78"/>
-    </row>
-    <row r="3" spans="15:45" ht="16" customHeight="1">
-      <c r="O3" s="79"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="80"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="80"/>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="80"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="80"/>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="80"/>
-      <c r="AE3" s="80"/>
-      <c r="AF3" s="80"/>
-      <c r="AG3" s="80"/>
-      <c r="AH3" s="80"/>
-      <c r="AI3" s="80"/>
-      <c r="AJ3" s="80"/>
-      <c r="AK3" s="81"/>
-    </row>
-    <row r="4" spans="15:45" ht="16" customHeight="1">
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
+      <c r="AO2" s="69"/>
+      <c r="AP2" s="70"/>
+    </row>
+    <row r="3" spans="15:50" ht="16" customHeight="1">
+      <c r="O3" s="71"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="72"/>
+      <c r="Z3" s="72"/>
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="72"/>
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="72"/>
+      <c r="AE3" s="72"/>
+      <c r="AF3" s="72"/>
+      <c r="AG3" s="72"/>
+      <c r="AH3" s="72"/>
+      <c r="AI3" s="72"/>
+      <c r="AJ3" s="72"/>
+      <c r="AK3" s="72"/>
+      <c r="AL3" s="72"/>
+      <c r="AM3" s="72"/>
+      <c r="AN3" s="72"/>
+      <c r="AO3" s="72"/>
+      <c r="AP3" s="73"/>
+    </row>
+    <row r="4" spans="15:50" ht="16" customHeight="1">
       <c r="O4" s="4"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
@@ -10034,17 +8007,22 @@
       <c r="AH4" s="5"/>
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5"/>
-      <c r="AK4" s="6"/>
-    </row>
-    <row r="5" spans="15:45" ht="16" customHeight="1">
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="6"/>
+    </row>
+    <row r="5" spans="15:50" ht="16" customHeight="1">
       <c r="O5" s="4"/>
-      <c r="P5" s="64" t="s">
+      <c r="P5" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="66"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="84"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
@@ -10061,99 +8039,115 @@
       <c r="AH5" s="5"/>
       <c r="AI5" s="5"/>
       <c r="AJ5" s="5"/>
-      <c r="AK5" s="6"/>
-    </row>
-    <row r="6" spans="15:45" ht="16" customHeight="1">
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="6"/>
+    </row>
+    <row r="6" spans="15:50" ht="16" customHeight="1">
       <c r="O6" s="4"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="1" t="s">
-        <v>2</v>
+        <v>139</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="12"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
-      <c r="W6" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="X6" s="17"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="Y6" s="17"/>
       <c r="Z6" s="17"/>
       <c r="AA6" s="17"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="22"/>
-      <c r="AK6" s="5"/>
-    </row>
-    <row r="7" spans="15:45" ht="16" customHeight="1">
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="22"/>
+      <c r="AP6" s="5"/>
+    </row>
+    <row r="7" spans="15:50" ht="16" customHeight="1">
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
       <c r="T7" s="6"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="5"/>
-      <c r="AE7" s="85" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF7" s="86"/>
-      <c r="AG7" s="86"/>
-      <c r="AH7" s="87"/>
-      <c r="AI7" s="22"/>
-      <c r="AJ7" s="22"/>
-      <c r="AK7" s="5"/>
-    </row>
-    <row r="8" spans="15:45" ht="16" customHeight="1">
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="5"/>
+      <c r="AF7" s="74" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG7" s="75"/>
+      <c r="AH7" s="75"/>
+      <c r="AI7" s="75"/>
+      <c r="AJ7" s="75"/>
+      <c r="AK7" s="75"/>
+      <c r="AL7" s="75"/>
+      <c r="AM7" s="76"/>
+      <c r="AN7" s="22"/>
+      <c r="AO7" s="22"/>
+      <c r="AP7" s="5"/>
+    </row>
+    <row r="8" spans="15:50" ht="16" customHeight="1">
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
       <c r="T8" s="6"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
-      <c r="W8" s="2"/>
-      <c r="Y8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z8" s="7"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="2"/>
+      <c r="Z8" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="AA8" s="7"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="5"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="6"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="5"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH8" s="5"/>
       <c r="AI8" s="5"/>
       <c r="AJ8" s="5"/>
       <c r="AK8" s="5"/>
-      <c r="AM8" s="76" t="s">
-        <v>9</v>
-      </c>
-      <c r="AN8" s="77"/>
-      <c r="AO8" s="77"/>
-      <c r="AP8" s="77"/>
-      <c r="AQ8" s="77"/>
-      <c r="AR8" s="77"/>
-      <c r="AS8" s="78"/>
-    </row>
-    <row r="9" spans="15:45" ht="16" customHeight="1">
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AR8" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS8" s="69"/>
+      <c r="AT8" s="69"/>
+      <c r="AU8" s="69"/>
+      <c r="AV8" s="69"/>
+      <c r="AW8" s="69"/>
+      <c r="AX8" s="70"/>
+    </row>
+    <row r="9" spans="15:50" ht="16" customHeight="1">
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="5"/>
@@ -10164,76 +8158,84 @@
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
+      <c r="Y9" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AM9" s="79"/>
-      <c r="AN9" s="80"/>
-      <c r="AO9" s="80"/>
-      <c r="AP9" s="80"/>
-      <c r="AQ9" s="80"/>
-      <c r="AR9" s="80"/>
-      <c r="AS9" s="81"/>
-    </row>
-    <row r="10" spans="15:45" ht="16" customHeight="1">
+      <c r="AD9" s="5"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="7"/>
+      <c r="AK9" s="7"/>
+      <c r="AL9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
+      <c r="AR9" s="71"/>
+      <c r="AS9" s="72"/>
+      <c r="AT9" s="72"/>
+      <c r="AU9" s="72"/>
+      <c r="AV9" s="72"/>
+      <c r="AW9" s="72"/>
+      <c r="AX9" s="73"/>
+    </row>
+    <row r="10" spans="15:50" ht="16" customHeight="1">
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="91" t="s">
-        <v>10</v>
-      </c>
-      <c r="R10" s="91"/>
-      <c r="S10" s="91"/>
+      <c r="Q10" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="R10" s="81"/>
+      <c r="S10" s="81"/>
       <c r="T10" s="26"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
-      <c r="AD10" s="22"/>
+      <c r="W10" s="5"/>
+      <c r="Y10" t="s">
+        <v>142</v>
+      </c>
       <c r="AE10" s="22"/>
       <c r="AF10" s="22"/>
       <c r="AG10" s="22"/>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="22"/>
-      <c r="AJ10" s="22"/>
-      <c r="AK10" s="21"/>
-      <c r="AM10" s="4"/>
-      <c r="AN10" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO10" s="65"/>
-      <c r="AP10" s="65"/>
-      <c r="AQ10" s="65"/>
-      <c r="AR10" s="66"/>
-      <c r="AS10" s="6"/>
-    </row>
-    <row r="11" spans="15:45" ht="16" customHeight="1">
+      <c r="AH10" s="66"/>
+      <c r="AI10" s="66"/>
+      <c r="AJ10" s="66"/>
+      <c r="AK10" s="66"/>
+      <c r="AL10" s="22"/>
+      <c r="AM10" s="22"/>
+      <c r="AN10" s="22"/>
+      <c r="AO10" s="22"/>
+      <c r="AP10" s="21"/>
+      <c r="AR10" s="4"/>
+      <c r="AX10" s="6"/>
+    </row>
+    <row r="11" spans="15:50" ht="16" customHeight="1">
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="91"/>
-      <c r="S11" s="91"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
+      <c r="S11" s="81"/>
       <c r="T11" s="26"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
-      <c r="W11" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="X11" s="65"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
-      <c r="AB11" s="66"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="101" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y11" s="102"/>
+      <c r="Z11" s="102"/>
+      <c r="AA11" s="102"/>
+      <c r="AB11" s="102"/>
+      <c r="AC11" s="103"/>
+      <c r="AD11" s="20"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
       <c r="AG11" s="5"/>
@@ -10241,35 +8243,40 @@
       <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
       <c r="AK11" s="5"/>
-      <c r="AM11" s="4"/>
-      <c r="AN11" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="AO11" s="84"/>
-      <c r="AP11" s="84"/>
-      <c r="AQ11" s="84"/>
-      <c r="AR11" s="6"/>
-      <c r="AS11" s="6"/>
-    </row>
-    <row r="12" spans="15:45" ht="16" customHeight="1">
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="AT11" s="83"/>
+      <c r="AU11" s="83"/>
+      <c r="AV11" s="83"/>
+      <c r="AW11" s="84"/>
+      <c r="AX11" s="6"/>
+    </row>
+    <row r="12" spans="15:50" ht="16" customHeight="1">
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="6"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="26"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="19"/>
-      <c r="AD12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="100" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="62"/>
+      <c r="AB12" s="62"/>
+      <c r="AC12" s="99"/>
+      <c r="AD12" s="62"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
@@ -10277,55 +8284,64 @@
       <c r="AI12" s="5"/>
       <c r="AJ12" s="5"/>
       <c r="AK12" s="5"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
-      <c r="AO12" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
       <c r="AP12" s="5"/>
-      <c r="AQ12" s="5"/>
-      <c r="AR12" s="6"/>
-      <c r="AS12" s="6"/>
-    </row>
-    <row r="13" spans="15:45" ht="16" customHeight="1">
+      <c r="AR12" s="4"/>
+      <c r="AT12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="6"/>
+      <c r="AX12" s="6"/>
+    </row>
+    <row r="13" spans="15:50" ht="16" customHeight="1">
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
-      <c r="Q13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="6"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="26"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="62"/>
+      <c r="AB13" s="62"/>
+      <c r="AC13" s="99"/>
+      <c r="AD13" s="62"/>
       <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
+      <c r="AF13" s="62" t="s">
+        <v>46</v>
+      </c>
       <c r="AG13" s="5"/>
       <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
       <c r="AJ13" s="5"/>
       <c r="AK13" s="5"/>
-      <c r="AM13" s="4"/>
-      <c r="AN13" s="2"/>
-      <c r="AO13" s="7"/>
-      <c r="AP13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="AQ13" s="7"/>
-      <c r="AR13" s="3"/>
-      <c r="AS13" s="6"/>
-    </row>
-    <row r="14" spans="15:45" ht="16" customHeight="1">
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="5"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU13" s="5"/>
+      <c r="AV13" s="5"/>
+      <c r="AW13" s="6"/>
+      <c r="AX13" s="6"/>
+    </row>
+    <row r="14" spans="15:50" ht="16" customHeight="1">
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="5"/>
@@ -10333,50 +8349,61 @@
       <c r="S14" s="5"/>
       <c r="T14" s="6"/>
       <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
+      <c r="V14" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="W14" s="5"/>
+      <c r="X14" s="11"/>
+      <c r="Z14" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="19"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
       <c r="AI14" s="5"/>
       <c r="AJ14" s="5"/>
-      <c r="AK14" s="19"/>
-      <c r="AM14" s="2"/>
-      <c r="AN14" s="7"/>
-      <c r="AO14" s="7"/>
-      <c r="AP14" s="7"/>
-      <c r="AQ14" s="7"/>
-      <c r="AR14" s="7"/>
-      <c r="AS14" s="3"/>
-    </row>
-    <row r="15" spans="15:45" ht="16" customHeight="1">
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="5"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="7"/>
+      <c r="AU14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AV14" s="7"/>
+      <c r="AW14" s="3"/>
+      <c r="AX14" s="6"/>
+    </row>
+    <row r="15" spans="15:50" ht="16" customHeight="1">
       <c r="O15" s="4"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="3"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="6"/>
       <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="5"/>
+      <c r="V15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="W15" s="5"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="6"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
@@ -10384,1602 +8411,2359 @@
       <c r="AH15" s="5"/>
       <c r="AI15" s="5"/>
       <c r="AJ15" s="5"/>
-      <c r="AK15" s="19"/>
-    </row>
-    <row r="16" spans="15:45" ht="16" customHeight="1">
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="7"/>
+      <c r="AT15" s="7"/>
+      <c r="AU15" s="7"/>
+      <c r="AV15" s="7"/>
+      <c r="AW15" s="7"/>
+      <c r="AX15" s="3"/>
+    </row>
+    <row r="16" spans="15:50" ht="16" customHeight="1">
       <c r="O16" s="4"/>
-      <c r="P16" s="5"/>
+      <c r="P16" s="4"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
+      <c r="T16" s="6"/>
       <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="AD16" s="19"/>
-      <c r="AE16" s="19"/>
-      <c r="AF16" s="19"/>
-      <c r="AG16" s="19"/>
-      <c r="AH16" s="19"/>
-      <c r="AI16" s="19"/>
-      <c r="AJ16" s="19"/>
+      <c r="V16" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="W16" s="5"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
       <c r="AK16" s="5"/>
-      <c r="AM16" s="76" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN16" s="77"/>
-      <c r="AO16" s="77"/>
-      <c r="AP16" s="77"/>
-      <c r="AQ16" s="77"/>
-      <c r="AR16" s="77"/>
-      <c r="AS16" s="78"/>
-    </row>
-    <row r="17" spans="3:45" ht="16" customHeight="1">
+      <c r="AL16" s="5"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="19"/>
+    </row>
+    <row r="17" spans="3:50" ht="16" customHeight="1">
       <c r="O17" s="4"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="3"/>
       <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="82" t="s">
-        <v>21</v>
-      </c>
-      <c r="X17" s="82"/>
-      <c r="Y17" s="82"/>
-      <c r="Z17" s="82"/>
-      <c r="AA17" s="82"/>
-      <c r="AB17" s="82"/>
-      <c r="AC17" s="23"/>
-      <c r="AD17" s="19"/>
-      <c r="AE17" s="19"/>
-      <c r="AF17" s="19"/>
-      <c r="AG17" s="19"/>
-      <c r="AH17" s="19"/>
-      <c r="AI17" s="19"/>
-      <c r="AJ17" s="19"/>
+      <c r="V17" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="W17" s="5"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
       <c r="AK17" s="5"/>
-      <c r="AM17" s="79"/>
-      <c r="AN17" s="80"/>
-      <c r="AO17" s="80"/>
-      <c r="AP17" s="80"/>
-      <c r="AQ17" s="80"/>
-      <c r="AR17" s="80"/>
-      <c r="AS17" s="81"/>
-    </row>
-    <row r="18" spans="3:45" ht="16" customHeight="1">
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="19"/>
+      <c r="AR17" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS17" s="69"/>
+      <c r="AT17" s="69"/>
+      <c r="AU17" s="69"/>
+      <c r="AV17" s="69"/>
+      <c r="AW17" s="69"/>
+      <c r="AX17" s="70"/>
+    </row>
+    <row r="18" spans="3:50" ht="16" customHeight="1">
       <c r="O18" s="4"/>
-      <c r="P18" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="34"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
       <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
+      <c r="V18" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="W18" s="5"/>
-      <c r="X18" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="5"/>
-      <c r="AH18" s="5"/>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="5"/>
-      <c r="AO18" s="5"/>
+      <c r="Z18" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="19"/>
+      <c r="AJ18" s="19"/>
+      <c r="AK18" s="19"/>
+      <c r="AL18" s="19"/>
+      <c r="AM18" s="19"/>
+      <c r="AN18" s="19"/>
+      <c r="AO18" s="19"/>
       <c r="AP18" s="5"/>
-      <c r="AQ18" s="5"/>
-      <c r="AR18" s="5"/>
-      <c r="AS18" s="6"/>
-    </row>
-    <row r="19" spans="3:45" ht="16" customHeight="1">
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
+      <c r="AR18" s="71"/>
+      <c r="AS18" s="72"/>
+      <c r="AT18" s="72"/>
+      <c r="AU18" s="72"/>
+      <c r="AV18" s="72"/>
+      <c r="AW18" s="72"/>
+      <c r="AX18" s="73"/>
+    </row>
+    <row r="19" spans="3:50" ht="16" customHeight="1">
       <c r="O19" s="4"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
-      <c r="T19" s="36"/>
+      <c r="T19" s="5"/>
       <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
+      <c r="V19" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AM19" s="4"/>
-      <c r="AN19" s="64" t="s">
+      <c r="X19" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y19" s="88"/>
+      <c r="Z19" s="88"/>
+      <c r="AA19" s="88"/>
+      <c r="AB19" s="88"/>
+      <c r="AC19" s="88"/>
+      <c r="AD19" s="23"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="19"/>
+      <c r="AM19" s="19"/>
+      <c r="AN19" s="19"/>
+      <c r="AO19" s="19"/>
+      <c r="AP19" s="5"/>
+      <c r="AR19" s="4"/>
+      <c r="AS19" s="5"/>
+      <c r="AT19" s="5"/>
+      <c r="AU19" s="5"/>
+      <c r="AV19" s="5"/>
+      <c r="AW19" s="5"/>
+      <c r="AX19" s="6"/>
+    </row>
+    <row r="20" spans="3:50" ht="16" customHeight="1">
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="89" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" t="s">
+        <v>159</v>
+      </c>
+      <c r="AR20" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS20" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT20" s="83"/>
+      <c r="AU20" s="83"/>
+      <c r="AV20" s="83"/>
+      <c r="AW20" s="84"/>
+      <c r="AX20" s="6"/>
+    </row>
+    <row r="21" spans="3:50" ht="16" customHeight="1">
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AP21" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR21" s="4"/>
+      <c r="AS21" s="11"/>
+      <c r="AT21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU21" s="5"/>
+      <c r="AV21" s="5"/>
+      <c r="AW21" s="8"/>
+      <c r="AX21" s="6"/>
+    </row>
+    <row r="22" spans="3:50" ht="16" customHeight="1">
+      <c r="H22" t="s">
+        <v>155</v>
+      </c>
+      <c r="L22" t="s">
+        <v>156</v>
+      </c>
+      <c r="O22" s="4"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S22" s="5"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="W22" s="5"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="23"/>
+      <c r="AH22" s="60"/>
+      <c r="AI22" s="60"/>
+      <c r="AJ22" s="60"/>
+      <c r="AK22" s="60"/>
+      <c r="AL22" s="23"/>
+      <c r="AM22" s="23"/>
+      <c r="AN22" s="23"/>
+      <c r="AO22" s="29"/>
+      <c r="AP22" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU22" s="1"/>
+      <c r="AV22" s="1"/>
+      <c r="AW22" s="6"/>
+      <c r="AX22" s="6"/>
+    </row>
+    <row r="23" spans="3:50" ht="16" customHeight="1">
+      <c r="L23" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O23" s="4"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="R23" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="S23" s="37"/>
+      <c r="T23" s="38"/>
+      <c r="V23" s="5"/>
+      <c r="X23" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y23" s="91"/>
+      <c r="Z23" s="91"/>
+      <c r="AA23" s="91"/>
+      <c r="AB23" s="91"/>
+      <c r="AC23" s="92"/>
+      <c r="AD23" s="46"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="9"/>
+      <c r="AK23" s="9"/>
+      <c r="AL23" s="9"/>
+      <c r="AM23" s="9"/>
+      <c r="AN23" s="9"/>
+      <c r="AO23" s="9"/>
+      <c r="AP23" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR23" s="4"/>
+      <c r="AS23" s="4"/>
+      <c r="AT23" s="5"/>
+      <c r="AU23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV23" s="5"/>
+      <c r="AW23" s="6"/>
+      <c r="AX23" s="6"/>
+    </row>
+    <row r="24" spans="3:50" ht="16" customHeight="1">
+      <c r="L24" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O24" s="4"/>
+      <c r="Q24" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="W24" s="5"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="41"/>
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="10"/>
+      <c r="AJ24" s="10"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="10"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="10"/>
+      <c r="AO24" s="10"/>
+      <c r="AP24" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR24" s="4"/>
+      <c r="AS24" s="4"/>
+      <c r="AT24" s="5"/>
+      <c r="AU24" s="5"/>
+      <c r="AV24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AW24" s="6"/>
+      <c r="AX24" s="6"/>
+    </row>
+    <row r="25" spans="3:50" ht="16" customHeight="1">
+      <c r="F25" s="109" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="111"/>
+      <c r="L25" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O25" s="4"/>
+      <c r="P25" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="AO19" s="65"/>
-      <c r="AP19" s="65"/>
-      <c r="AQ19" s="65"/>
-      <c r="AR19" s="66"/>
-      <c r="AS19" s="6"/>
-    </row>
-    <row r="20" spans="3:45" ht="16" customHeight="1">
-      <c r="O20" s="4"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="S20" s="5"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="AD20" s="23"/>
-      <c r="AE20" s="23"/>
-      <c r="AF20" s="23"/>
-      <c r="AG20" s="23"/>
-      <c r="AH20" s="23"/>
-      <c r="AI20" s="23"/>
-      <c r="AJ20" s="30"/>
-      <c r="AK20" s="5"/>
-      <c r="AM20" s="4"/>
-      <c r="AN20" s="11"/>
-      <c r="AO20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AP20" s="5"/>
-      <c r="AQ20" s="5"/>
-      <c r="AR20" s="8"/>
-      <c r="AS20" s="6"/>
-    </row>
-    <row r="21" spans="3:45" ht="16" customHeight="1">
-      <c r="O21" s="4"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="S21" s="38"/>
-      <c r="T21" s="39"/>
-      <c r="W21" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="X21" s="68"/>
-      <c r="Y21" s="68"/>
-      <c r="Z21" s="68"/>
-      <c r="AA21" s="68"/>
-      <c r="AB21" s="69"/>
-      <c r="AC21" s="47"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="9"/>
-      <c r="AJ21" s="9"/>
-      <c r="AK21" s="5"/>
-      <c r="AM21" s="4"/>
-      <c r="AN21" s="4"/>
-      <c r="AO21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP21" s="1"/>
-      <c r="AQ21" s="1"/>
-      <c r="AR21" s="6"/>
-      <c r="AS21" s="6"/>
-    </row>
-    <row r="22" spans="3:45" ht="16" customHeight="1">
-      <c r="O22" s="4"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="41" t="s">
+      <c r="Q25" s="64"/>
+      <c r="R25" s="64"/>
+      <c r="S25" s="64"/>
+      <c r="T25" s="56"/>
+      <c r="V25" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="40"/>
+      <c r="AC25" s="41"/>
+      <c r="AD25" s="40"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="5"/>
+      <c r="AO25" s="5"/>
+      <c r="AP25" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR25" s="4"/>
+      <c r="AS25" s="4"/>
+      <c r="AT25" s="5"/>
+      <c r="AU25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AV25" s="5"/>
+      <c r="AW25" s="6"/>
+      <c r="AX25" s="6"/>
+    </row>
+    <row r="26" spans="3:50" ht="16" customHeight="1">
+      <c r="F26" s="112"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O26" s="4"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="27"/>
+      <c r="V26" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="X26" s="39"/>
+      <c r="Y26" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="Y22" s="41"/>
-      <c r="Z22" s="41"/>
-      <c r="AA22" s="41"/>
-      <c r="AB22" s="42"/>
-      <c r="AC22" s="41"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="10"/>
-      <c r="AJ22" s="10"/>
-      <c r="AM22" s="4"/>
-      <c r="AN22" s="4"/>
-      <c r="AO22" s="5"/>
-      <c r="AP22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AQ22" s="5"/>
-      <c r="AR22" s="6"/>
-      <c r="AS22" s="6"/>
-    </row>
-    <row r="23" spans="3:45" ht="16" customHeight="1">
-      <c r="O23" s="4"/>
-      <c r="P23" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="41"/>
-      <c r="AB23" s="42"/>
-      <c r="AC23" s="41"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
-      <c r="AH23" s="5"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AM23" s="4"/>
-      <c r="AN23" s="4"/>
-      <c r="AO23" s="5"/>
-      <c r="AP23" s="5"/>
-      <c r="AQ23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AR23" s="6"/>
-      <c r="AS23" s="6"/>
-    </row>
-    <row r="24" spans="3:45" ht="16" customHeight="1">
-      <c r="F24" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="O24" s="4"/>
-      <c r="Q24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="41"/>
-      <c r="AB24" s="42"/>
-      <c r="AC24" s="41"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AM24" s="4"/>
-      <c r="AN24" s="4"/>
-      <c r="AO24" s="5"/>
-      <c r="AP24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AQ24" s="5"/>
-      <c r="AR24" s="6"/>
-      <c r="AS24" s="6"/>
-    </row>
-    <row r="25" spans="3:45" ht="16" customHeight="1">
-      <c r="E25" s="61"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="O25" s="4"/>
-      <c r="Q25" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="W25" s="40"/>
-      <c r="X25" s="41"/>
-      <c r="Y25" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z25" s="41"/>
-      <c r="AA25" s="41"/>
-      <c r="AB25" s="42"/>
-      <c r="AC25" s="41"/>
-      <c r="AM25" s="14"/>
-      <c r="AN25" s="24"/>
-      <c r="AO25" s="7"/>
-      <c r="AP25" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ25" s="7"/>
-      <c r="AR25" s="25"/>
-      <c r="AS25" s="15"/>
-    </row>
-    <row r="26" spans="3:45" ht="16" customHeight="1">
-      <c r="F26" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="O26" s="4"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="41"/>
-      <c r="AA26" s="41"/>
-      <c r="AB26" s="42"/>
+      <c r="Z26" s="40"/>
+      <c r="AA26" s="40"/>
+      <c r="AB26" s="40"/>
       <c r="AC26" s="41"/>
-      <c r="AM26" s="4"/>
+      <c r="AD26" s="40"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
       <c r="AN26" s="5"/>
       <c r="AO26" s="5"/>
-      <c r="AP26" s="5"/>
-      <c r="AQ26" s="5"/>
-      <c r="AR26" s="5"/>
-      <c r="AS26" s="6"/>
-    </row>
-    <row r="27" spans="3:45" ht="16" customHeight="1">
+      <c r="AP26" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR26" s="14"/>
+      <c r="AS26" s="24"/>
+      <c r="AT26" s="7"/>
+      <c r="AU26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AV26" s="7"/>
+      <c r="AW26" s="25"/>
+      <c r="AX26" s="15"/>
+    </row>
+    <row r="27" spans="3:50" ht="16" customHeight="1">
+      <c r="E27" s="59"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="114" t="s">
+        <v>154</v>
+      </c>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
       <c r="O27" s="4"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="W27" s="40"/>
-      <c r="X27" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="41"/>
-      <c r="AB27" s="42"/>
+      <c r="P27" s="108"/>
+      <c r="Q27" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="38"/>
+      <c r="V27" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="W27" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA27" s="40"/>
+      <c r="AB27" s="40"/>
       <c r="AC27" s="41"/>
-      <c r="AM27" s="2"/>
-      <c r="AN27" s="7"/>
-      <c r="AO27" s="7"/>
-      <c r="AP27" s="7"/>
-      <c r="AQ27" s="7"/>
-      <c r="AR27" s="7"/>
-      <c r="AS27" s="3"/>
-    </row>
-    <row r="28" spans="3:45" ht="16" customHeight="1">
+      <c r="AD27" s="40"/>
+      <c r="AP27" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR27" s="4"/>
+      <c r="AS27" s="5"/>
+      <c r="AT27" s="5"/>
+      <c r="AU27" s="5"/>
+      <c r="AV27" s="5"/>
+      <c r="AW27" s="5"/>
+      <c r="AX27" s="6"/>
+    </row>
+    <row r="28" spans="3:50" ht="16" customHeight="1">
       <c r="O28" s="4"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="40"/>
-      <c r="X28" s="41" t="s">
+      <c r="V28" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="W28" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z28" s="40"/>
+      <c r="AA28" s="40"/>
+      <c r="AB28" s="40"/>
+      <c r="AC28" s="41"/>
+      <c r="AD28" s="40"/>
+      <c r="AP28" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="7"/>
+      <c r="AT28" s="7"/>
+      <c r="AU28" s="7"/>
+      <c r="AV28" s="7"/>
+      <c r="AW28" s="7"/>
+      <c r="AX28" s="3"/>
+    </row>
+    <row r="29" spans="3:50" ht="16" customHeight="1">
+      <c r="O29" s="4"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="V29" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="W29" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="41"/>
-      <c r="AA28" s="41"/>
-      <c r="AB28" s="42"/>
-      <c r="AC28" s="41"/>
-      <c r="AM28" s="5"/>
-      <c r="AN28" s="5"/>
-      <c r="AO28" s="5"/>
-      <c r="AP28" s="5"/>
-      <c r="AQ28" s="5"/>
-      <c r="AR28" s="5"/>
-      <c r="AS28" s="5"/>
-    </row>
-    <row r="29" spans="3:45" ht="16" customHeight="1">
-      <c r="W29" s="40"/>
-      <c r="X29" s="41"/>
-      <c r="Y29" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z29" s="41"/>
-      <c r="AA29" s="41"/>
-      <c r="AB29" s="42"/>
+      <c r="Z29" s="40"/>
+      <c r="AA29" s="40"/>
+      <c r="AB29" s="40"/>
       <c r="AC29" s="41"/>
-      <c r="AM29" s="5"/>
-      <c r="AN29" s="5"/>
-      <c r="AO29" s="5"/>
-      <c r="AP29" s="5"/>
-      <c r="AQ29" s="5"/>
+      <c r="AD29" s="40"/>
+      <c r="AP29" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="AR29" s="5"/>
       <c r="AS29" s="5"/>
-    </row>
-    <row r="30" spans="3:45" ht="16" customHeight="1">
-      <c r="W30" s="40"/>
-      <c r="X30" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y30" s="41"/>
-      <c r="Z30" s="41"/>
-      <c r="AA30" s="41"/>
-      <c r="AB30" s="42"/>
+      <c r="AT29" s="5"/>
+      <c r="AU29" s="5"/>
+      <c r="AV29" s="5"/>
+      <c r="AW29" s="5"/>
+      <c r="AX29" s="5"/>
+    </row>
+    <row r="30" spans="3:50" ht="16" customHeight="1">
+      <c r="O30" s="4"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="W30" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="X30" s="39"/>
+      <c r="Y30" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z30" s="40"/>
+      <c r="AA30" s="40"/>
+      <c r="AB30" s="40"/>
       <c r="AC30" s="41"/>
-      <c r="AM30" s="5"/>
-      <c r="AN30" s="5"/>
-      <c r="AO30" s="5"/>
-      <c r="AP30" s="5"/>
-      <c r="AQ30" s="5"/>
+      <c r="AD30" s="40"/>
+      <c r="AP30" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="AR30" s="5"/>
       <c r="AS30" s="5"/>
-    </row>
-    <row r="31" spans="3:45" ht="16" customHeight="1">
-      <c r="W31" s="40"/>
-      <c r="X31" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y31" s="41"/>
-      <c r="Z31" s="41"/>
-      <c r="AA31" s="41"/>
-      <c r="AB31" s="42"/>
+      <c r="AT30" s="5"/>
+      <c r="AU30" s="5"/>
+      <c r="AV30" s="5"/>
+      <c r="AW30" s="5"/>
+      <c r="AX30" s="5"/>
+    </row>
+    <row r="31" spans="3:50" ht="16" customHeight="1">
+      <c r="V31" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="W31" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA31" s="40"/>
+      <c r="AB31" s="40"/>
       <c r="AC31" s="41"/>
-      <c r="AM31" s="5"/>
-      <c r="AN31" s="5"/>
-      <c r="AO31" s="5"/>
-      <c r="AP31" s="5"/>
-      <c r="AQ31" s="5"/>
+      <c r="AD31" s="40"/>
+      <c r="AP31" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="AR31" s="5"/>
       <c r="AS31" s="5"/>
-    </row>
-    <row r="32" spans="3:45" ht="16" customHeight="1">
-      <c r="AM32" s="5"/>
-      <c r="AN32" s="5"/>
-      <c r="AO32" s="5"/>
-      <c r="AP32" s="5"/>
-      <c r="AQ32" s="5"/>
+      <c r="AT31" s="5"/>
+      <c r="AU31" s="5"/>
+      <c r="AV31" s="5"/>
+      <c r="AW31" s="5"/>
+      <c r="AX31" s="5"/>
+    </row>
+    <row r="32" spans="3:50" ht="16" customHeight="1">
+      <c r="V32" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="W32" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z32" s="40"/>
+      <c r="AA32" s="40"/>
+      <c r="AB32" s="40"/>
+      <c r="AC32" s="41"/>
+      <c r="AD32" s="40"/>
+      <c r="AP32" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="AR32" s="5"/>
       <c r="AS32" s="5"/>
-    </row>
-    <row r="33" spans="6:45" ht="16" customHeight="1">
-      <c r="W33" s="88" t="s">
-        <v>45</v>
-      </c>
-      <c r="X33" s="89"/>
-      <c r="Y33" s="89"/>
-      <c r="Z33" s="89"/>
-      <c r="AA33" s="89"/>
-      <c r="AB33" s="90"/>
-      <c r="AC33" s="22"/>
-      <c r="AD33" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM33" s="5"/>
-      <c r="AN33" s="5"/>
-      <c r="AO33" s="5"/>
-      <c r="AP33" s="5"/>
-      <c r="AQ33" s="5"/>
+      <c r="AT32" s="5"/>
+      <c r="AU32" s="5"/>
+      <c r="AV32" s="5"/>
+      <c r="AW32" s="5"/>
+      <c r="AX32" s="5"/>
+    </row>
+    <row r="33" spans="6:50" ht="16" customHeight="1">
+      <c r="V33" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="W33" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z33" s="40"/>
+      <c r="AA33" s="40"/>
+      <c r="AB33" s="40"/>
+      <c r="AC33" s="41"/>
+      <c r="AD33" s="40"/>
+      <c r="AP33" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="AR33" s="5"/>
       <c r="AS33" s="5"/>
-    </row>
-    <row r="34" spans="6:45" ht="16" customHeight="1">
-      <c r="W34" s="35"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="36"/>
-      <c r="AM34" s="5"/>
-      <c r="AN34" s="5"/>
-      <c r="AO34" s="5"/>
-      <c r="AP34" s="5"/>
-      <c r="AQ34" s="5"/>
+      <c r="AT33" s="5"/>
+      <c r="AU33" s="5"/>
+      <c r="AV33" s="5"/>
+      <c r="AW33" s="5"/>
+      <c r="AX33" s="5"/>
+    </row>
+    <row r="34" spans="6:50" ht="16" customHeight="1">
+      <c r="V34" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="W34" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP34" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="AR34" s="5"/>
       <c r="AS34" s="5"/>
-    </row>
-    <row r="35" spans="6:45" ht="16" customHeight="1">
-      <c r="W35" s="35"/>
-      <c r="X35" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="36"/>
-      <c r="AE35" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF35" s="62"/>
-      <c r="AG35" s="62"/>
-      <c r="AH35" s="62"/>
-      <c r="AI35" s="27"/>
-      <c r="AJ35" s="29"/>
-      <c r="AM35" s="5"/>
-      <c r="AN35" s="5"/>
-      <c r="AO35" s="5"/>
-      <c r="AP35" s="5"/>
-      <c r="AQ35" s="5"/>
+      <c r="AT34" s="5"/>
+      <c r="AU34" s="5"/>
+      <c r="AV34" s="5"/>
+      <c r="AW34" s="5"/>
+      <c r="AX34" s="5"/>
+    </row>
+    <row r="35" spans="6:50" ht="16" customHeight="1">
+      <c r="V35" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="W35" t="s">
+        <v>157</v>
+      </c>
+      <c r="X35" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y35" s="79"/>
+      <c r="Z35" s="79"/>
+      <c r="AA35" s="79"/>
+      <c r="AB35" s="79"/>
+      <c r="AC35" s="80"/>
+      <c r="AD35" s="22"/>
+      <c r="AE35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP35" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="AR35" s="5"/>
       <c r="AS35" s="5"/>
-    </row>
-    <row r="36" spans="6:45" ht="16" customHeight="1">
-      <c r="W36" s="35"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5" t="s">
-        <v>54</v>
-      </c>
+      <c r="AT35" s="5"/>
+      <c r="AU35" s="5"/>
+      <c r="AV35" s="5"/>
+      <c r="AW35" s="5"/>
+      <c r="AX35" s="5"/>
+    </row>
+    <row r="36" spans="6:50" ht="16" customHeight="1">
+      <c r="V36" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="X36" s="34"/>
+      <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
-      <c r="AB36" s="36"/>
-      <c r="AM36" s="5"/>
-      <c r="AN36" s="5"/>
-      <c r="AO36" s="5"/>
-      <c r="AP36" s="5"/>
-      <c r="AQ36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="35"/>
+      <c r="AP36" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="AR36" s="5"/>
       <c r="AS36" s="5"/>
-    </row>
-    <row r="37" spans="6:45" ht="16" customHeight="1">
-      <c r="W37" s="35"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="AT36" s="5"/>
+      <c r="AU36" s="5"/>
+      <c r="AV36" s="5"/>
+      <c r="AW36" s="5"/>
+      <c r="AX36" s="5"/>
+    </row>
+    <row r="37" spans="6:50" ht="16" customHeight="1">
+      <c r="V37" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="X37" s="34"/>
+      <c r="Y37" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
-      <c r="AB37" s="36"/>
-      <c r="AM37" s="5"/>
-      <c r="AN37" s="5"/>
-      <c r="AO37" s="5"/>
-      <c r="AP37" s="5"/>
-      <c r="AQ37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="35"/>
+      <c r="AF37" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG37" s="77"/>
+      <c r="AH37" s="77"/>
+      <c r="AI37" s="77"/>
+      <c r="AJ37" s="77"/>
+      <c r="AK37" s="77"/>
+      <c r="AL37" s="77"/>
+      <c r="AM37" s="77"/>
+      <c r="AN37" s="27"/>
+      <c r="AO37" s="28"/>
+      <c r="AP37" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="AR37" s="5"/>
       <c r="AS37" s="5"/>
-    </row>
-    <row r="38" spans="6:45" ht="16" customHeight="1">
-      <c r="W38" s="35"/>
-      <c r="X38" s="5"/>
+      <c r="AT37" s="5"/>
+      <c r="AU37" s="5"/>
+      <c r="AV37" s="5"/>
+      <c r="AW37" s="5"/>
+      <c r="AX37" s="5"/>
+    </row>
+    <row r="38" spans="6:50" ht="16" customHeight="1">
+      <c r="V38" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="X38" s="34"/>
       <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB38" s="36"/>
-      <c r="AE38" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF38" s="62"/>
-      <c r="AG38" s="62"/>
-      <c r="AH38" s="62"/>
-      <c r="AI38" s="27"/>
-      <c r="AJ38" s="29"/>
-    </row>
-    <row r="39" spans="6:45" ht="16" customHeight="1">
-      <c r="W39" s="35"/>
-      <c r="X39" s="5"/>
+      <c r="Z38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="35"/>
+      <c r="AP38" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AR38" s="5"/>
+      <c r="AS38" s="5"/>
+      <c r="AT38" s="5"/>
+      <c r="AU38" s="5"/>
+      <c r="AV38" s="5"/>
+      <c r="AW38" s="5"/>
+      <c r="AX38" s="5"/>
+    </row>
+    <row r="39" spans="6:50" ht="16" customHeight="1">
+      <c r="V39" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="X39" s="34"/>
       <c r="Y39" s="5"/>
-      <c r="Z39" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="36"/>
-    </row>
-    <row r="40" spans="6:45" ht="16" customHeight="1">
-      <c r="W40" s="35"/>
-      <c r="X40" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="35"/>
+      <c r="AP39" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="6:50" ht="16" customHeight="1">
+      <c r="V40" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="X40" s="34"/>
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
-      <c r="AA40" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB40" s="36"/>
-    </row>
-    <row r="41" spans="6:45" ht="16" customHeight="1">
-      <c r="W41" s="35"/>
-      <c r="X41" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC40" s="35"/>
+      <c r="AF40" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG40" s="77"/>
+      <c r="AH40" s="77"/>
+      <c r="AI40" s="77"/>
+      <c r="AJ40" s="77"/>
+      <c r="AK40" s="77"/>
+      <c r="AL40" s="77"/>
+      <c r="AM40" s="77"/>
+      <c r="AN40" s="27"/>
+      <c r="AO40" s="28"/>
+      <c r="AP40" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="6:50" ht="16" customHeight="1">
+      <c r="V41" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="X41" s="34"/>
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB41" s="36"/>
-      <c r="AE41" s="31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="6:45" ht="16" customHeight="1">
-      <c r="W42" s="35"/>
-      <c r="X42" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="35"/>
+      <c r="AP41" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="6:50" ht="16" customHeight="1">
+      <c r="V42" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="X42" s="34"/>
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
-      <c r="AA42" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB42" s="36"/>
-      <c r="AE42" s="31"/>
-    </row>
-    <row r="43" spans="6:45" ht="16" customHeight="1">
-      <c r="P43" s="88" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q43" s="89"/>
-      <c r="R43" s="89"/>
-      <c r="S43" s="89"/>
-      <c r="T43" s="90"/>
-      <c r="W43" s="35"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC42" s="35"/>
+      <c r="AP42" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="6:50" ht="16" customHeight="1">
+      <c r="V43" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="X43" s="34"/>
+      <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
-      <c r="AB43" s="36"/>
-    </row>
-    <row r="44" spans="6:45" ht="16" customHeight="1">
-      <c r="P44" s="35"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="S44" s="5"/>
-      <c r="T44" s="36"/>
-      <c r="W44" s="35"/>
-      <c r="X44" s="5"/>
+      <c r="AB43" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC43" s="35"/>
+      <c r="AF43" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP43" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="6:50" ht="16" customHeight="1">
+      <c r="V44" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="X44" s="34"/>
       <c r="Y44" s="5"/>
-      <c r="Z44" s="5" t="s">
-        <v>63</v>
-      </c>
+      <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
-      <c r="AB44" s="36"/>
-    </row>
-    <row r="45" spans="6:45" ht="16" customHeight="1">
-      <c r="P45" s="35"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="36"/>
-      <c r="W45" s="35"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z45" s="5"/>
+      <c r="AB44" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC44" s="35"/>
+      <c r="AF44" s="30"/>
+      <c r="AP44" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="6:50" ht="16" customHeight="1">
+      <c r="P45" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q45" s="79"/>
+      <c r="R45" s="79"/>
+      <c r="S45" s="79"/>
+      <c r="T45" s="80"/>
+      <c r="V45" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="X45" s="34"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="AA45" s="5"/>
-      <c r="AB45" s="36"/>
-    </row>
-    <row r="46" spans="6:45" ht="16" customHeight="1">
-      <c r="F46" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="72"/>
-      <c r="P46" s="37"/>
-      <c r="Q46" s="38"/>
-      <c r="R46" s="38"/>
-      <c r="S46" s="38"/>
-      <c r="T46" s="39"/>
-      <c r="W46" s="35"/>
-      <c r="X46" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="35"/>
+      <c r="AP45" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="6:50" ht="16" customHeight="1">
+      <c r="P46" s="34"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="S46" s="5"/>
+      <c r="T46" s="35"/>
+      <c r="V46" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="X46" s="34"/>
       <c r="Y46" s="5"/>
-      <c r="Z46" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA46" s="5"/>
-      <c r="AB46" s="36"/>
-    </row>
-    <row r="47" spans="6:45" ht="16" customHeight="1">
-      <c r="F47" s="73"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
-      <c r="J47" s="75"/>
-      <c r="W47" s="35"/>
-      <c r="X47" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="35"/>
+      <c r="AP46" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="6:50" ht="16" customHeight="1">
+      <c r="F47" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="G47" s="94"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="94"/>
+      <c r="J47" s="95"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="35"/>
+      <c r="V47" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="X47" s="34"/>
       <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
+      <c r="Z47" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="AA47" s="5"/>
-      <c r="AB47" s="36"/>
-    </row>
-    <row r="48" spans="6:45" ht="16" customHeight="1">
-      <c r="F48" s="35"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="36"/>
-      <c r="Q48" s="88" t="s">
-        <v>72</v>
-      </c>
-      <c r="R48" s="89"/>
-      <c r="S48" s="89"/>
-      <c r="T48" s="90"/>
-      <c r="W48" s="35"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="5" t="s">
-        <v>68</v>
-      </c>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="35"/>
+      <c r="AP47" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="6:50" ht="16" customHeight="1">
+      <c r="F48" s="96"/>
+      <c r="G48" s="97"/>
+      <c r="H48" s="97"/>
+      <c r="I48" s="97"/>
+      <c r="J48" s="98"/>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="37"/>
+      <c r="R48" s="37"/>
+      <c r="S48" s="37"/>
+      <c r="T48" s="38"/>
+      <c r="V48" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="X48" s="34"/>
+      <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
-      <c r="AA48" s="5"/>
-      <c r="AB48" s="36"/>
-      <c r="AI48" s="27"/>
-      <c r="AJ48" s="29"/>
-      <c r="AK48" s="29"/>
-    </row>
-    <row r="49" spans="6:37" ht="16" customHeight="1">
-      <c r="F49" s="35"/>
-      <c r="G49" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="AA48" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="35"/>
+      <c r="AP48" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="6:42" ht="16" customHeight="1">
+      <c r="F49" s="34"/>
+      <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
-      <c r="J49" s="36"/>
-      <c r="Q49" s="48"/>
-      <c r="R49" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="S49" s="49"/>
-      <c r="T49" s="50"/>
-      <c r="W49" s="35"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="5" t="s">
-        <v>77</v>
-      </c>
+      <c r="J49" s="35"/>
+      <c r="V49" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="X49" s="34"/>
+      <c r="Y49" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
-      <c r="AB49" s="36"/>
-      <c r="AI49" s="27"/>
-      <c r="AJ49" s="29"/>
-      <c r="AK49" s="29"/>
-    </row>
-    <row r="50" spans="6:37" ht="16" customHeight="1">
-      <c r="F50" s="35"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="35"/>
+      <c r="AP49" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="6:42" ht="16" customHeight="1">
+      <c r="F50" s="34"/>
+      <c r="G50" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H50" s="5"/>
       <c r="I50" s="5"/>
-      <c r="J50" s="36"/>
-      <c r="W50" s="35"/>
-      <c r="X50" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="J50" s="35"/>
+      <c r="Q50" s="104" t="s">
+        <v>150</v>
+      </c>
+      <c r="R50" s="105"/>
+      <c r="S50" s="105"/>
+      <c r="T50" s="106"/>
+      <c r="V50" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="X50" s="34"/>
       <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
+      <c r="Z50" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="AA50" s="5"/>
-      <c r="AB50" s="36"/>
-    </row>
-    <row r="51" spans="6:37" ht="16" customHeight="1">
-      <c r="F51" s="35"/>
-      <c r="G51" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H51" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="35"/>
+      <c r="AN50" s="27"/>
+      <c r="AO50" s="28"/>
+      <c r="AP50" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="6:42" ht="16" customHeight="1">
+      <c r="F51" s="34"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="I51" s="5"/>
-      <c r="J51" s="36"/>
-      <c r="O51" s="56"/>
-      <c r="P51" s="57"/>
-      <c r="Q51" s="57"/>
-      <c r="R51" s="57"/>
-      <c r="S51" s="57"/>
-      <c r="T51" s="58"/>
-      <c r="W51" s="35"/>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="5" t="s">
-        <v>71</v>
-      </c>
+      <c r="J51" s="35"/>
+      <c r="Q51" s="47"/>
+      <c r="R51" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="S51" s="48"/>
+      <c r="T51" s="49"/>
+      <c r="V51" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="X51" s="34"/>
+      <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
-      <c r="AA51" s="5"/>
-      <c r="AB51" s="36"/>
-      <c r="AE51" s="62" t="s">
+      <c r="AA51" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AF51" s="62"/>
-      <c r="AG51" s="62"/>
-      <c r="AH51" s="62"/>
-    </row>
-    <row r="52" spans="6:37" ht="16" customHeight="1">
-      <c r="F52" s="35"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="52" t="s">
-        <v>82</v>
-      </c>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="35"/>
+      <c r="AN51" s="27"/>
+      <c r="AO51" s="28"/>
+      <c r="AP51" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="6:42" ht="16" customHeight="1">
+      <c r="F52" s="34"/>
+      <c r="G52" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H52" s="5"/>
       <c r="I52" s="5"/>
-      <c r="J52" s="36"/>
-      <c r="O52" s="92" t="s">
-        <v>131</v>
-      </c>
-      <c r="P52" s="93"/>
-      <c r="Q52" s="93"/>
-      <c r="R52" s="93"/>
-      <c r="S52" s="93"/>
-      <c r="T52" s="94"/>
-      <c r="W52" s="35"/>
-      <c r="X52" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y52" s="5"/>
+      <c r="J52" s="35"/>
+      <c r="V52" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="X52" s="34"/>
+      <c r="Y52" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="Z52" s="5"/>
       <c r="AA52" s="5"/>
-      <c r="AB52" s="36"/>
-    </row>
-    <row r="53" spans="6:37" ht="16" customHeight="1">
-      <c r="F53" s="35"/>
-      <c r="G53" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H53" s="5"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="35"/>
+      <c r="AP52" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="6:42" ht="16" customHeight="1">
+      <c r="F53" s="34"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="50" t="s">
+        <v>74</v>
+      </c>
       <c r="I53" s="5"/>
-      <c r="J53" s="36"/>
-      <c r="O53" s="35"/>
-      <c r="P53" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="36"/>
-      <c r="W53" s="37"/>
-      <c r="X53" s="38"/>
-      <c r="Y53" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z53" s="38"/>
-      <c r="AA53" s="38"/>
-      <c r="AB53" s="39"/>
-      <c r="AE53" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF53" s="62"/>
-      <c r="AG53" s="62"/>
-      <c r="AH53" s="62"/>
-    </row>
-    <row r="54" spans="6:37" ht="16" customHeight="1">
-      <c r="F54" s="35"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5" t="s">
-        <v>83</v>
-      </c>
+      <c r="J53" s="35"/>
+      <c r="O53" s="54"/>
+      <c r="P53" s="55"/>
+      <c r="Q53" s="55"/>
+      <c r="R53" s="55"/>
+      <c r="S53" s="55"/>
+      <c r="T53" s="56"/>
+      <c r="V53" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="X53" s="34"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="35"/>
+      <c r="AF53" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG53" s="77"/>
+      <c r="AH53" s="77"/>
+      <c r="AI53" s="77"/>
+      <c r="AJ53" s="77"/>
+      <c r="AK53" s="77"/>
+      <c r="AL53" s="77"/>
+      <c r="AM53" s="77"/>
+      <c r="AP53" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="6:42" ht="16" customHeight="1">
+      <c r="F54" s="34"/>
+      <c r="G54" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H54" s="5"/>
       <c r="I54" s="5"/>
-      <c r="J54" s="36"/>
-      <c r="O54" s="35"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="36"/>
-    </row>
-    <row r="55" spans="6:37" ht="16" customHeight="1">
-      <c r="F55" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="O54" s="85" t="s">
+        <v>123</v>
+      </c>
+      <c r="P54" s="86"/>
+      <c r="Q54" s="86"/>
+      <c r="R54" s="86"/>
+      <c r="S54" s="86"/>
+      <c r="T54" s="87"/>
+      <c r="V54" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="X54" s="34"/>
+      <c r="Y54" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="35"/>
+      <c r="AP54" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="6:42" ht="16" customHeight="1">
+      <c r="F55" s="34"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I55" s="5"/>
-      <c r="J55" s="36"/>
-      <c r="O55" s="35"/>
-      <c r="P55" s="5"/>
+      <c r="J55" s="35"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="Q55" s="5"/>
-      <c r="R55" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="R55" s="5"/>
       <c r="S55" s="5"/>
-      <c r="T55" s="36"/>
-    </row>
-    <row r="56" spans="6:37" ht="16" customHeight="1">
-      <c r="F56" s="35"/>
-      <c r="G56" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H56" s="5"/>
+      <c r="T55" s="35"/>
+      <c r="V55" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="X55" s="36"/>
+      <c r="Y55" s="37"/>
+      <c r="Z55" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA55" s="37"/>
+      <c r="AB55" s="37"/>
+      <c r="AC55" s="38"/>
+      <c r="AF55" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG55" s="77"/>
+      <c r="AH55" s="77"/>
+      <c r="AI55" s="77"/>
+      <c r="AJ55" s="77"/>
+      <c r="AK55" s="77"/>
+      <c r="AL55" s="77"/>
+      <c r="AM55" s="77"/>
+      <c r="AP55" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" spans="6:42" ht="16" customHeight="1">
+      <c r="F56" s="34"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="I56" s="5"/>
-      <c r="J56" s="36"/>
-      <c r="O56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="O56" s="34"/>
       <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
+      <c r="Q56" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="R56" s="5"/>
       <c r="S56" s="5"/>
-      <c r="T56" s="36"/>
-    </row>
-    <row r="57" spans="6:37" ht="16" customHeight="1">
-      <c r="F57" s="35"/>
-      <c r="G57" s="5"/>
+      <c r="T56" s="35"/>
+      <c r="V56" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP56" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" spans="6:42" ht="16" customHeight="1">
+      <c r="F57" s="34"/>
+      <c r="G57" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
-      <c r="J57" s="36"/>
-      <c r="O57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="O57" s="34"/>
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
       <c r="R57" s="5" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="S57" s="5"/>
-      <c r="T57" s="36"/>
-      <c r="W57" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="X57" s="62"/>
-      <c r="Y57" s="62"/>
-      <c r="Z57" s="62"/>
-      <c r="AA57" s="62"/>
-      <c r="AB57" s="62"/>
-    </row>
-    <row r="58" spans="6:37" ht="16" customHeight="1">
-      <c r="F58" s="35"/>
-      <c r="G58" s="5" t="s">
-        <v>86</v>
-      </c>
+      <c r="T57" s="35"/>
+      <c r="V57" s="5"/>
+      <c r="AP57" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="6:42" ht="16" customHeight="1">
+      <c r="F58" s="34"/>
+      <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
-      <c r="J58" s="36"/>
-      <c r="O58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="O58" s="34"/>
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
-      <c r="R58" s="5" t="s">
-        <v>144</v>
-      </c>
+      <c r="R58" s="5"/>
       <c r="S58" s="5"/>
-      <c r="T58" s="36"/>
-    </row>
-    <row r="59" spans="6:37" ht="16" customHeight="1">
-      <c r="F59" s="35"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5" t="s">
-        <v>87</v>
-      </c>
+      <c r="T58" s="35"/>
+      <c r="V58" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="6:42" ht="16" customHeight="1">
+      <c r="F59" s="34"/>
+      <c r="G59" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H59" s="5"/>
       <c r="I59" s="5"/>
-      <c r="J59" s="36"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q59" s="41"/>
-      <c r="R59" s="41"/>
-      <c r="S59" s="41"/>
-      <c r="T59" s="42"/>
-      <c r="AI59" s="27"/>
-      <c r="AJ59" s="29"/>
-      <c r="AK59" s="29"/>
-    </row>
-    <row r="60" spans="6:37" ht="16" customHeight="1">
-      <c r="F60" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="O59" s="34"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="S59" s="5"/>
+      <c r="T59" s="35"/>
+      <c r="X59" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y59" s="77"/>
+      <c r="Z59" s="77"/>
+      <c r="AA59" s="77"/>
+      <c r="AB59" s="77"/>
+      <c r="AC59" s="77"/>
+      <c r="AF59" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG59" s="55"/>
+      <c r="AH59" s="55"/>
+      <c r="AI59" s="55"/>
+      <c r="AJ59" s="55"/>
+      <c r="AK59" s="55"/>
+      <c r="AL59" s="55"/>
+      <c r="AM59" s="56"/>
+    </row>
+    <row r="60" spans="6:42" ht="16" customHeight="1">
+      <c r="F60" s="34"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I60" s="5"/>
-      <c r="J60" s="36"/>
-      <c r="O60" s="35"/>
-      <c r="P60" s="41"/>
-      <c r="Q60" s="41"/>
-      <c r="R60" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="S60" s="41"/>
-      <c r="T60" s="42"/>
-      <c r="U60" s="55"/>
-      <c r="V60" s="55"/>
-    </row>
-    <row r="61" spans="6:37" ht="16" customHeight="1">
-      <c r="F61" s="35"/>
-      <c r="G61" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H61" s="5"/>
+      <c r="J60" s="35"/>
+      <c r="O60" s="34"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="S60" s="5"/>
+      <c r="T60" s="35"/>
+      <c r="AF60" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG60" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH60" s="5"/>
+      <c r="AI60" s="5"/>
+      <c r="AJ60" s="5"/>
+      <c r="AK60" s="5"/>
+      <c r="AL60" s="5"/>
+      <c r="AM60" s="35"/>
+    </row>
+    <row r="61" spans="6:42" ht="16" customHeight="1">
+      <c r="F61" s="34"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="I61" s="5"/>
-      <c r="J61" s="36"/>
-      <c r="O61" s="35"/>
-      <c r="P61" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q61" s="41"/>
-      <c r="R61" s="41"/>
-      <c r="S61" s="41"/>
-      <c r="T61" s="42"/>
-      <c r="U61" s="55"/>
-      <c r="V61" s="55"/>
-      <c r="AI61" s="27"/>
-      <c r="AJ61" s="29"/>
-      <c r="AK61" s="29"/>
-    </row>
-    <row r="62" spans="6:37" ht="16" customHeight="1">
-      <c r="F62" s="35"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5" t="s">
-        <v>90</v>
-      </c>
+      <c r="J61" s="35"/>
+      <c r="O61" s="34"/>
+      <c r="P61" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q61" s="40"/>
+      <c r="R61" s="40"/>
+      <c r="S61" s="40"/>
+      <c r="T61" s="41"/>
+      <c r="AF61" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG61" s="37"/>
+      <c r="AH61" s="37"/>
+      <c r="AI61" s="37"/>
+      <c r="AJ61" s="37"/>
+      <c r="AK61" s="37"/>
+      <c r="AL61" s="37"/>
+      <c r="AM61" s="38"/>
+      <c r="AN61" s="27"/>
+      <c r="AO61" s="28"/>
+      <c r="AP61" s="28"/>
+    </row>
+    <row r="62" spans="6:42" ht="16" customHeight="1">
+      <c r="F62" s="34"/>
+      <c r="G62" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H62" s="5"/>
       <c r="I62" s="5"/>
-      <c r="J62" s="36"/>
-      <c r="O62" s="35"/>
-      <c r="P62" s="41"/>
-      <c r="Q62" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="R62" s="41"/>
-      <c r="S62" s="41"/>
-      <c r="T62" s="42"/>
-      <c r="U62" s="55"/>
-      <c r="V62" s="55"/>
-    </row>
-    <row r="63" spans="6:37" ht="16" customHeight="1">
-      <c r="F63" s="35"/>
-      <c r="G63" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H63" s="5"/>
+      <c r="J62" s="35"/>
+      <c r="O62" s="34"/>
+      <c r="P62" s="40"/>
+      <c r="Q62" s="40"/>
+      <c r="R62" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="S62" s="40"/>
+      <c r="T62" s="41"/>
+      <c r="U62" s="53"/>
+      <c r="V62" s="53"/>
+      <c r="W62" s="53"/>
+      <c r="AF62" s="115" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="6:42" ht="16" customHeight="1">
+      <c r="F63" s="34"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="I63" s="5"/>
-      <c r="J63" s="36"/>
-      <c r="O63" s="35"/>
-      <c r="P63" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q63" s="41"/>
-      <c r="R63" s="41"/>
-      <c r="S63" s="41"/>
-      <c r="T63" s="42"/>
-      <c r="U63" s="55"/>
-      <c r="V63" s="55"/>
-    </row>
-    <row r="64" spans="6:37" ht="16" customHeight="1">
-      <c r="F64" s="35"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5" t="s">
-        <v>92</v>
-      </c>
+      <c r="J63" s="35"/>
+      <c r="O63" s="34"/>
+      <c r="P63" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q63" s="40"/>
+      <c r="R63" s="40"/>
+      <c r="S63" s="40"/>
+      <c r="T63" s="41"/>
+      <c r="U63" s="53"/>
+      <c r="V63" s="53"/>
+      <c r="W63" s="53"/>
+      <c r="AF63" s="116" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG63" s="55"/>
+      <c r="AH63" s="55"/>
+      <c r="AI63" s="55"/>
+      <c r="AJ63" s="55"/>
+      <c r="AK63" s="55"/>
+      <c r="AL63" s="55"/>
+      <c r="AM63" s="56"/>
+      <c r="AN63" s="27"/>
+      <c r="AO63" s="28"/>
+      <c r="AP63" s="28"/>
+    </row>
+    <row r="64" spans="6:42" ht="16" customHeight="1">
+      <c r="F64" s="34"/>
+      <c r="G64" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H64" s="5"/>
       <c r="I64" s="5"/>
-      <c r="J64" s="36"/>
-      <c r="O64" s="35"/>
-      <c r="P64" s="41"/>
-      <c r="Q64" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="R64" s="41"/>
-      <c r="S64" s="41"/>
-      <c r="T64" s="42"/>
-      <c r="U64" s="55"/>
-      <c r="V64" s="55"/>
-    </row>
-    <row r="65" spans="6:22" ht="16" customHeight="1">
-      <c r="F65" s="35"/>
+      <c r="J64" s="35"/>
+      <c r="O64" s="34"/>
+      <c r="P64" s="40"/>
+      <c r="Q64" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="R64" s="40"/>
+      <c r="S64" s="40"/>
+      <c r="T64" s="41"/>
+      <c r="U64" s="53"/>
+      <c r="V64" s="53"/>
+      <c r="W64" s="53"/>
+      <c r="AF64" s="34"/>
+      <c r="AG64" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH64" s="5"/>
+      <c r="AI64" s="5"/>
+      <c r="AJ64" s="5"/>
+      <c r="AK64" s="5"/>
+      <c r="AL64" s="5"/>
+      <c r="AM64" s="35"/>
+    </row>
+    <row r="65" spans="6:50" ht="16" customHeight="1">
+      <c r="F65" s="34"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="I65" s="5"/>
-      <c r="J65" s="36"/>
-      <c r="O65" s="35"/>
-      <c r="P65" s="41"/>
-      <c r="Q65" s="41"/>
-      <c r="R65" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="S65" s="41"/>
-      <c r="T65" s="42"/>
-      <c r="U65" s="55"/>
-      <c r="V65" s="55"/>
-    </row>
-    <row r="66" spans="6:22" ht="16" customHeight="1">
-      <c r="F66" s="35"/>
-      <c r="G66" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H66" s="5"/>
+      <c r="J65" s="35"/>
+      <c r="O65" s="34"/>
+      <c r="P65" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q65" s="40"/>
+      <c r="R65" s="40"/>
+      <c r="S65" s="40"/>
+      <c r="T65" s="41"/>
+      <c r="U65" s="53"/>
+      <c r="V65" s="53"/>
+      <c r="W65" s="53"/>
+      <c r="AF65" s="36"/>
+      <c r="AG65" s="37"/>
+      <c r="AH65" s="37"/>
+      <c r="AI65" s="37"/>
+      <c r="AJ65" s="37"/>
+      <c r="AK65" s="37"/>
+      <c r="AL65" s="37"/>
+      <c r="AM65" s="38"/>
+    </row>
+    <row r="66" spans="6:50" ht="16" customHeight="1">
+      <c r="F66" s="34"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="I66" s="5"/>
-      <c r="J66" s="36"/>
-      <c r="O66" s="35"/>
-      <c r="P66" s="41"/>
-      <c r="Q66" s="41"/>
-      <c r="R66" s="41"/>
-      <c r="S66" s="41"/>
-      <c r="T66" s="42"/>
-      <c r="U66" s="55"/>
-      <c r="V66" s="55"/>
-    </row>
-    <row r="67" spans="6:22" ht="16" customHeight="1">
-      <c r="F67" s="35"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="J66" s="35"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="40"/>
+      <c r="Q66" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="R66" s="40"/>
+      <c r="S66" s="40"/>
+      <c r="T66" s="41"/>
+      <c r="U66" s="53"/>
+      <c r="V66" s="53"/>
+      <c r="W66" s="53"/>
+      <c r="AG66" s="115" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH66" s="115"/>
+      <c r="AI66" s="115"/>
+      <c r="AJ66" s="115"/>
+      <c r="AK66" s="115"/>
+    </row>
+    <row r="67" spans="6:50" ht="16" customHeight="1">
+      <c r="F67" s="34"/>
+      <c r="G67" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H67" s="5"/>
       <c r="I67" s="5"/>
-      <c r="J67" s="36"/>
-      <c r="O67" s="35"/>
-      <c r="P67" s="41"/>
-      <c r="Q67" s="41"/>
-      <c r="R67" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="S67" s="41"/>
-      <c r="T67" s="42"/>
-      <c r="U67" s="55"/>
-      <c r="V67" s="55"/>
-    </row>
-    <row r="68" spans="6:22" ht="16" customHeight="1">
-      <c r="F68" s="35"/>
+      <c r="J67" s="35"/>
+      <c r="O67" s="34"/>
+      <c r="P67" s="40"/>
+      <c r="Q67" s="40"/>
+      <c r="R67" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="S67" s="40"/>
+      <c r="T67" s="41"/>
+      <c r="U67" s="53"/>
+      <c r="V67" s="53"/>
+      <c r="W67" s="53"/>
+      <c r="AF67" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG67" s="55"/>
+      <c r="AH67" s="55"/>
+      <c r="AI67" s="55"/>
+      <c r="AJ67" s="55"/>
+      <c r="AK67" s="55"/>
+      <c r="AL67" s="55"/>
+      <c r="AM67" s="56"/>
+    </row>
+    <row r="68" spans="6:50" ht="16" customHeight="1">
+      <c r="F68" s="34"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="I68" s="5"/>
-      <c r="J68" s="36"/>
-      <c r="O68" s="35"/>
-      <c r="P68" s="41"/>
-      <c r="Q68" s="41"/>
-      <c r="R68" s="41"/>
-      <c r="S68" s="41"/>
-      <c r="T68" s="42"/>
-      <c r="U68" s="55"/>
-      <c r="V68" s="55"/>
-    </row>
-    <row r="69" spans="6:22" ht="16" customHeight="1">
-      <c r="F69" s="35"/>
+      <c r="J68" s="35"/>
+      <c r="O68" s="34"/>
+      <c r="P68" s="40"/>
+      <c r="Q68" s="40"/>
+      <c r="R68" s="40"/>
+      <c r="S68" s="40"/>
+      <c r="T68" s="41"/>
+      <c r="U68" s="53"/>
+      <c r="V68" s="53"/>
+      <c r="W68" s="53"/>
+      <c r="AF68" s="34"/>
+      <c r="AG68" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH68" s="5"/>
+      <c r="AI68" s="5"/>
+      <c r="AJ68" s="5"/>
+      <c r="AK68" s="5"/>
+      <c r="AL68" s="5"/>
+      <c r="AM68" s="35"/>
+    </row>
+    <row r="69" spans="6:50" ht="16" customHeight="1">
+      <c r="F69" s="34"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="I69" s="5"/>
-      <c r="J69" s="36"/>
-      <c r="O69" s="35"/>
-      <c r="P69" s="41"/>
-      <c r="Q69" s="41"/>
-      <c r="R69" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="S69" s="41"/>
-      <c r="T69" s="42"/>
-      <c r="U69" s="55"/>
-      <c r="V69" s="55"/>
-    </row>
-    <row r="70" spans="6:22" ht="16" customHeight="1">
-      <c r="F70" s="35"/>
-      <c r="G70" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="H70" s="5"/>
+      <c r="J69" s="35"/>
+      <c r="O69" s="34"/>
+      <c r="P69" s="40"/>
+      <c r="Q69" s="40"/>
+      <c r="R69" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="S69" s="40"/>
+      <c r="T69" s="41"/>
+      <c r="U69" s="53"/>
+      <c r="V69" s="53"/>
+      <c r="W69" s="53"/>
+      <c r="AF69" s="34"/>
+      <c r="AG69" s="5"/>
+      <c r="AH69" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="AI69" s="5"/>
+      <c r="AJ69" s="5"/>
+      <c r="AK69" s="5"/>
+      <c r="AL69" s="5"/>
+      <c r="AM69" s="35"/>
+    </row>
+    <row r="70" spans="6:50" ht="16" customHeight="1">
+      <c r="F70" s="34"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="I70" s="5"/>
-      <c r="J70" s="36"/>
-      <c r="O70" s="37"/>
-      <c r="P70" s="59"/>
-      <c r="Q70" s="59"/>
-      <c r="R70" s="59"/>
-      <c r="S70" s="59"/>
-      <c r="T70" s="60"/>
-      <c r="U70" s="55"/>
-      <c r="V70" s="55"/>
-    </row>
-    <row r="71" spans="6:22" ht="16" customHeight="1">
-      <c r="F71" s="35"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5" t="s">
-        <v>99</v>
-      </c>
+      <c r="J70" s="35"/>
+      <c r="O70" s="34"/>
+      <c r="P70" s="40"/>
+      <c r="Q70" s="40"/>
+      <c r="R70" s="40"/>
+      <c r="S70" s="40"/>
+      <c r="T70" s="41"/>
+      <c r="U70" s="53"/>
+      <c r="V70" s="53"/>
+      <c r="W70" s="53"/>
+      <c r="AF70" s="34"/>
+      <c r="AG70" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH70" s="5"/>
+      <c r="AI70" s="5"/>
+      <c r="AJ70" s="5"/>
+      <c r="AK70" s="5"/>
+      <c r="AL70" s="5"/>
+      <c r="AM70" s="35"/>
+    </row>
+    <row r="71" spans="6:50" ht="16" customHeight="1">
+      <c r="F71" s="34"/>
+      <c r="G71" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H71" s="5"/>
       <c r="I71" s="5"/>
-      <c r="J71" s="36"/>
-      <c r="P71" s="55"/>
-      <c r="Q71" s="55"/>
-      <c r="R71" s="55"/>
-      <c r="S71" s="55"/>
-      <c r="T71" s="55"/>
-      <c r="U71" s="55"/>
-      <c r="V71" s="55"/>
-    </row>
-    <row r="72" spans="6:22" ht="16" customHeight="1">
-      <c r="F72" s="35"/>
+      <c r="J71" s="35"/>
+      <c r="O71" s="34"/>
+      <c r="P71" s="40"/>
+      <c r="Q71" s="40"/>
+      <c r="R71" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="S71" s="40"/>
+      <c r="T71" s="41"/>
+      <c r="U71" s="53"/>
+      <c r="V71" s="53"/>
+      <c r="W71" s="53"/>
+      <c r="AF71" s="34"/>
+      <c r="AG71" s="5"/>
+      <c r="AH71" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI71" s="5"/>
+      <c r="AJ71" s="5"/>
+      <c r="AK71" s="5"/>
+      <c r="AL71" s="5"/>
+      <c r="AM71" s="35"/>
+    </row>
+    <row r="72" spans="6:50" ht="16" customHeight="1">
+      <c r="F72" s="34"/>
       <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
+      <c r="H72" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="I72" s="5"/>
-      <c r="J72" s="36"/>
-      <c r="U72" s="55"/>
-      <c r="V72" s="55"/>
-    </row>
-    <row r="73" spans="6:22" ht="16" customHeight="1">
-      <c r="F73" s="35"/>
-      <c r="G73" s="5" t="s">
-        <v>100</v>
-      </c>
+      <c r="J72" s="35"/>
+      <c r="O72" s="36"/>
+      <c r="P72" s="57"/>
+      <c r="Q72" s="57"/>
+      <c r="R72" s="57"/>
+      <c r="S72" s="57"/>
+      <c r="T72" s="58"/>
+      <c r="U72" s="53"/>
+      <c r="V72" s="53"/>
+      <c r="W72" s="53"/>
+      <c r="AF72" s="36"/>
+      <c r="AG72" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH72" s="37"/>
+      <c r="AI72" s="37"/>
+      <c r="AJ72" s="37"/>
+      <c r="AK72" s="37"/>
+      <c r="AL72" s="37"/>
+      <c r="AM72" s="38"/>
+      <c r="AQ72" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR72" s="55"/>
+      <c r="AS72" s="55"/>
+      <c r="AT72" s="55"/>
+      <c r="AU72" s="55"/>
+      <c r="AV72" s="55"/>
+      <c r="AW72" s="55"/>
+      <c r="AX72" s="56"/>
+    </row>
+    <row r="73" spans="6:50" ht="16" customHeight="1">
+      <c r="F73" s="34"/>
+      <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
-      <c r="J73" s="36"/>
-    </row>
-    <row r="74" spans="6:22" ht="16" customHeight="1">
-      <c r="F74" s="35"/>
-      <c r="G74" s="5"/>
+      <c r="J73" s="35"/>
+      <c r="P73" s="53"/>
+      <c r="Q73" s="53"/>
+      <c r="R73" s="53"/>
+      <c r="S73" s="53"/>
+      <c r="T73" s="53"/>
+      <c r="U73" s="53"/>
+      <c r="V73" s="53"/>
+      <c r="W73" s="53"/>
+      <c r="AG73" s="115"/>
+      <c r="AQ73" s="34"/>
+      <c r="AR73" s="115" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS73" s="5"/>
+      <c r="AT73" s="5"/>
+      <c r="AU73" s="5"/>
+      <c r="AV73" s="5"/>
+      <c r="AW73" s="5"/>
+      <c r="AX73" s="35"/>
+    </row>
+    <row r="74" spans="6:50" ht="16" customHeight="1">
+      <c r="F74" s="34"/>
+      <c r="G74" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
-      <c r="J74" s="36"/>
-    </row>
-    <row r="75" spans="6:22" ht="16" customHeight="1">
-      <c r="F75" s="35"/>
-      <c r="G75" s="53" t="s">
-        <v>101</v>
-      </c>
+      <c r="J74" s="35"/>
+      <c r="U74" s="53"/>
+      <c r="V74" s="53"/>
+      <c r="W74" s="53"/>
+      <c r="AQ74" s="34"/>
+      <c r="AR74" s="115" t="s">
+        <v>176</v>
+      </c>
+      <c r="AS74" s="5"/>
+      <c r="AT74" s="5"/>
+      <c r="AU74" s="5"/>
+      <c r="AV74" s="5"/>
+      <c r="AW74" s="5"/>
+      <c r="AX74" s="35"/>
+    </row>
+    <row r="75" spans="6:50" ht="16" customHeight="1">
+      <c r="F75" s="34"/>
+      <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
-      <c r="J75" s="36"/>
-    </row>
-    <row r="76" spans="6:22" ht="16" customHeight="1">
-      <c r="F76" s="35"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5" t="s">
-        <v>103</v>
-      </c>
+      <c r="J75" s="35"/>
+      <c r="AQ75" s="34"/>
+      <c r="AR75" s="115"/>
+      <c r="AS75" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT75" s="5"/>
+      <c r="AU75" s="5"/>
+      <c r="AV75" s="5"/>
+      <c r="AW75" s="5"/>
+      <c r="AX75" s="35"/>
+    </row>
+    <row r="76" spans="6:50" ht="16" customHeight="1">
+      <c r="F76" s="34"/>
+      <c r="G76" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="H76" s="5"/>
       <c r="I76" s="5"/>
-      <c r="J76" s="36"/>
-    </row>
-    <row r="77" spans="6:22" ht="16" customHeight="1">
-      <c r="F77" s="35"/>
-      <c r="G77" s="5" t="s">
+      <c r="J76" s="35"/>
+      <c r="AQ76" s="34"/>
+      <c r="AR76" s="5"/>
+      <c r="AS76" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT76" s="5"/>
+      <c r="AU76" s="5"/>
+      <c r="AV76" s="5"/>
+      <c r="AW76" s="5"/>
+      <c r="AX76" s="35"/>
+    </row>
+    <row r="77" spans="6:50" ht="16" customHeight="1">
+      <c r="F77" s="34"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I77" s="5"/>
+      <c r="J77" s="35"/>
+      <c r="AQ77" s="34"/>
+      <c r="AR77" s="5"/>
+      <c r="AS77" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AT77" s="5"/>
+      <c r="AU77" s="5"/>
+      <c r="AV77" s="5"/>
+      <c r="AW77" s="5"/>
+      <c r="AX77" s="35"/>
+    </row>
+    <row r="78" spans="6:50" ht="16" customHeight="1">
+      <c r="F78" s="34"/>
+      <c r="G78" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="35"/>
+      <c r="AQ78" s="34"/>
+      <c r="AR78" s="5"/>
+      <c r="AS78" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT78" s="5"/>
+      <c r="AU78" s="5"/>
+      <c r="AV78" s="5"/>
+      <c r="AW78" s="5"/>
+      <c r="AX78" s="35"/>
+    </row>
+    <row r="79" spans="6:50" ht="16" customHeight="1">
+      <c r="F79" s="34"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="I79" s="5"/>
+      <c r="J79" s="35"/>
+      <c r="AF79" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ79" s="36"/>
+      <c r="AR79" s="117" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS79" s="37"/>
+      <c r="AT79" s="37"/>
+      <c r="AU79" s="37"/>
+      <c r="AV79" s="37"/>
+      <c r="AW79" s="37"/>
+      <c r="AX79" s="38"/>
+    </row>
+    <row r="80" spans="6:50" ht="16" customHeight="1">
+      <c r="F80" s="34"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="I80" s="5"/>
+      <c r="J80" s="35"/>
+      <c r="AG80" s="115" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81" spans="6:50" ht="16" customHeight="1">
+      <c r="F81" s="34"/>
+      <c r="G81" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="35"/>
+      <c r="AF81" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="82" spans="6:50" ht="16" customHeight="1">
+      <c r="F82" s="34"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I82" s="5"/>
+      <c r="J82" s="35"/>
+      <c r="AG82" s="100" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="83" spans="6:50" ht="16" customHeight="1">
+      <c r="F83" s="34"/>
+      <c r="G83" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="35"/>
+      <c r="AH83" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="84" spans="6:50" ht="16" customHeight="1">
+      <c r="F84" s="34"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="36"/>
-    </row>
-    <row r="78" spans="6:22" ht="16" customHeight="1">
-      <c r="F78" s="35"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="I78" s="5"/>
-      <c r="J78" s="36"/>
-    </row>
-    <row r="79" spans="6:22" ht="16" customHeight="1">
-      <c r="F79" s="35"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="I79" s="5"/>
-      <c r="J79" s="36"/>
-    </row>
-    <row r="80" spans="6:22" ht="16" customHeight="1">
-      <c r="F80" s="35"/>
-      <c r="G80" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="36"/>
-    </row>
-    <row r="81" spans="6:10" ht="16" customHeight="1">
-      <c r="F81" s="35"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="I81" s="5"/>
-      <c r="J81" s="36"/>
-    </row>
-    <row r="82" spans="6:10" ht="16" customHeight="1">
-      <c r="F82" s="35"/>
-      <c r="G82" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="36"/>
-    </row>
-    <row r="83" spans="6:10" ht="16" customHeight="1">
-      <c r="F83" s="35"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="I83" s="5"/>
-      <c r="J83" s="36"/>
-    </row>
-    <row r="84" spans="6:10" ht="16" customHeight="1">
-      <c r="F84" s="35"/>
-      <c r="G84" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H84" s="5"/>
       <c r="I84" s="5"/>
-      <c r="J84" s="36"/>
-    </row>
-    <row r="85" spans="6:10" ht="16" customHeight="1">
-      <c r="F85" s="35"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5" t="s">
-        <v>111</v>
-      </c>
+      <c r="J84" s="35"/>
+      <c r="AG84" s="118" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="85" spans="6:50" ht="16" customHeight="1">
+      <c r="F85" s="34"/>
+      <c r="G85" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H85" s="5"/>
       <c r="I85" s="5"/>
-      <c r="J85" s="36"/>
-    </row>
-    <row r="86" spans="6:10" ht="16" customHeight="1">
-      <c r="F86" s="35"/>
+      <c r="J85" s="35"/>
+      <c r="AH85" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="86" spans="6:50" ht="16" customHeight="1">
+      <c r="F86" s="34"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I86" s="5"/>
-      <c r="J86" s="36"/>
-    </row>
-    <row r="87" spans="6:10" ht="16" customHeight="1">
-      <c r="F87" s="35"/>
-      <c r="G87" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="H87" s="5"/>
+      <c r="J86" s="35"/>
+      <c r="AH86" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ86" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR86" s="55"/>
+      <c r="AS86" s="55"/>
+      <c r="AT86" s="55"/>
+      <c r="AU86" s="55"/>
+      <c r="AV86" s="55"/>
+      <c r="AW86" s="55"/>
+      <c r="AX86" s="56"/>
+    </row>
+    <row r="87" spans="6:50" ht="16" customHeight="1">
+      <c r="F87" s="34"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="I87" s="5"/>
-      <c r="J87" s="36"/>
-    </row>
-    <row r="88" spans="6:10" ht="16" customHeight="1">
-      <c r="F88" s="35"/>
-      <c r="G88" s="5"/>
+      <c r="J87" s="35"/>
+      <c r="AQ87" s="34"/>
+      <c r="AR87" s="115" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS87" s="5"/>
+      <c r="AT87" s="5"/>
+      <c r="AU87" s="5"/>
+      <c r="AV87" s="5"/>
+      <c r="AW87" s="5"/>
+      <c r="AX87" s="35"/>
+    </row>
+    <row r="88" spans="6:50" ht="16" customHeight="1">
+      <c r="F88" s="34"/>
+      <c r="G88" s="51" t="s">
+        <v>105</v>
+      </c>
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
-      <c r="J88" s="36"/>
-    </row>
-    <row r="89" spans="6:10" ht="16" customHeight="1">
-      <c r="F89" s="35"/>
-      <c r="G89" s="53" t="s">
-        <v>114</v>
-      </c>
+      <c r="J88" s="35"/>
+      <c r="AQ88" s="34"/>
+      <c r="AR88" s="115" t="s">
+        <v>176</v>
+      </c>
+      <c r="AS88" s="5"/>
+      <c r="AT88" s="5"/>
+      <c r="AU88" s="5"/>
+      <c r="AV88" s="5"/>
+      <c r="AW88" s="5"/>
+      <c r="AX88" s="35"/>
+    </row>
+    <row r="89" spans="6:50" ht="16" customHeight="1">
+      <c r="F89" s="34"/>
+      <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
-      <c r="J89" s="36"/>
-    </row>
-    <row r="90" spans="6:10" ht="16" customHeight="1">
-      <c r="F90" s="35"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5" t="s">
-        <v>117</v>
-      </c>
+      <c r="J89" s="35"/>
+      <c r="AF89" s="100" t="s">
+        <v>188</v>
+      </c>
+      <c r="AQ89" s="34"/>
+      <c r="AR89" s="115"/>
+      <c r="AS89" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AT89" s="5"/>
+      <c r="AU89" s="5"/>
+      <c r="AV89" s="5"/>
+      <c r="AW89" s="5"/>
+      <c r="AX89" s="35"/>
+    </row>
+    <row r="90" spans="6:50" ht="16" customHeight="1">
+      <c r="F90" s="34"/>
+      <c r="G90" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="H90" s="5"/>
       <c r="I90" s="5"/>
-      <c r="J90" s="36"/>
-    </row>
-    <row r="91" spans="6:10" ht="16" customHeight="1">
-      <c r="F91" s="35"/>
-      <c r="G91" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="H91" s="5"/>
+      <c r="J90" s="35"/>
+      <c r="AQ90" s="34"/>
+      <c r="AR90" s="5"/>
+      <c r="AS90" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT90" s="5"/>
+      <c r="AU90" s="5"/>
+      <c r="AV90" s="5"/>
+      <c r="AW90" s="5"/>
+      <c r="AX90" s="35"/>
+    </row>
+    <row r="91" spans="6:50" ht="16" customHeight="1">
+      <c r="F91" s="34"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="I91" s="5"/>
-      <c r="J91" s="36"/>
-    </row>
-    <row r="92" spans="6:10" ht="16" customHeight="1">
-      <c r="F92" s="35"/>
-      <c r="G92" s="5"/>
+      <c r="J91" s="35"/>
+      <c r="AQ91" s="34"/>
+      <c r="AR91" s="5"/>
+      <c r="AS91" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AT91" s="5"/>
+      <c r="AU91" s="5"/>
+      <c r="AV91" s="5"/>
+      <c r="AW91" s="5"/>
+      <c r="AX91" s="35"/>
+    </row>
+    <row r="92" spans="6:50" ht="16" customHeight="1">
+      <c r="F92" s="34"/>
+      <c r="G92" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
-      <c r="J92" s="36"/>
-    </row>
-    <row r="93" spans="6:10" ht="16" customHeight="1">
-      <c r="F93" s="35"/>
-      <c r="G93" s="5" t="s">
-        <v>116</v>
-      </c>
+      <c r="J92" s="35"/>
+      <c r="AQ92" s="34"/>
+      <c r="AR92" s="5"/>
+      <c r="AS92" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT92" s="5"/>
+      <c r="AU92" s="5"/>
+      <c r="AV92" s="5"/>
+      <c r="AW92" s="5"/>
+      <c r="AX92" s="35"/>
+    </row>
+    <row r="93" spans="6:50" ht="16" customHeight="1">
+      <c r="F93" s="34"/>
+      <c r="G93" s="5"/>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
-      <c r="J93" s="36"/>
-    </row>
-    <row r="94" spans="6:10" ht="16" customHeight="1">
-      <c r="F94" s="35"/>
-      <c r="G94" s="5"/>
+      <c r="J93" s="35"/>
+      <c r="AF93" t="s">
+        <v>190</v>
+      </c>
+      <c r="AQ93" s="36"/>
+      <c r="AR93" s="117" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS93" s="37"/>
+      <c r="AT93" s="37"/>
+      <c r="AU93" s="37"/>
+      <c r="AV93" s="37"/>
+      <c r="AW93" s="37"/>
+      <c r="AX93" s="38"/>
+    </row>
+    <row r="94" spans="6:50" ht="16" customHeight="1">
+      <c r="F94" s="34"/>
+      <c r="G94" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
-      <c r="J94" s="36"/>
-    </row>
-    <row r="95" spans="6:10" ht="16" customHeight="1">
-      <c r="F95" s="35"/>
-      <c r="G95" s="53" t="s">
-        <v>118</v>
-      </c>
+      <c r="J94" s="35"/>
+    </row>
+    <row r="95" spans="6:50" ht="16" customHeight="1">
+      <c r="F95" s="34"/>
+      <c r="G95" s="5"/>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
-      <c r="J95" s="36"/>
-    </row>
-    <row r="96" spans="6:10" ht="16" customHeight="1">
-      <c r="F96" s="35"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="54" t="s">
-        <v>120</v>
-      </c>
+      <c r="J95" s="35"/>
+    </row>
+    <row r="96" spans="6:50" ht="16" customHeight="1">
+      <c r="F96" s="34"/>
+      <c r="G96" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="H96" s="5"/>
       <c r="I96" s="5"/>
-      <c r="J96" s="36"/>
+      <c r="J96" s="35"/>
     </row>
     <row r="97" spans="6:10" ht="16" customHeight="1">
-      <c r="F97" s="35"/>
-      <c r="G97" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="H97" s="5"/>
+      <c r="F97" s="34"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="52" t="s">
+        <v>112</v>
+      </c>
       <c r="I97" s="5"/>
-      <c r="J97" s="36"/>
+      <c r="J97" s="35"/>
     </row>
     <row r="98" spans="6:10" ht="16" customHeight="1">
-      <c r="F98" s="35"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5" t="s">
-        <v>121</v>
-      </c>
+      <c r="F98" s="34"/>
+      <c r="G98" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H98" s="5"/>
       <c r="I98" s="5"/>
-      <c r="J98" s="36"/>
+      <c r="J98" s="35"/>
     </row>
     <row r="99" spans="6:10" ht="16" customHeight="1">
-      <c r="F99" s="35"/>
-      <c r="G99" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H99" s="5"/>
+      <c r="F99" s="34"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="I99" s="5"/>
-      <c r="J99" s="36"/>
+      <c r="J99" s="35"/>
     </row>
     <row r="100" spans="6:10" ht="16" customHeight="1">
-      <c r="F100" s="35"/>
-      <c r="G100" s="5"/>
+      <c r="F100" s="34"/>
+      <c r="G100" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
-      <c r="J100" s="36"/>
+      <c r="J100" s="35"/>
     </row>
     <row r="101" spans="6:10" ht="16" customHeight="1">
-      <c r="F101" s="35"/>
-      <c r="G101" s="5" t="s">
-        <v>123</v>
-      </c>
+      <c r="F101" s="34"/>
+      <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
-      <c r="J101" s="36"/>
+      <c r="J101" s="35"/>
     </row>
     <row r="102" spans="6:10" ht="16" customHeight="1">
-      <c r="F102" s="35"/>
-      <c r="G102" s="5"/>
+      <c r="F102" s="34"/>
+      <c r="G102" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
-      <c r="J102" s="36"/>
+      <c r="J102" s="35"/>
     </row>
     <row r="103" spans="6:10" ht="16" customHeight="1">
-      <c r="F103" s="35"/>
-      <c r="G103" s="5" t="s">
-        <v>125</v>
-      </c>
+      <c r="F103" s="34"/>
+      <c r="G103" s="5"/>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
-      <c r="J103" s="36"/>
+      <c r="J103" s="35"/>
     </row>
     <row r="104" spans="6:10" ht="16" customHeight="1">
-      <c r="F104" s="35"/>
-      <c r="G104" s="5"/>
+      <c r="F104" s="34"/>
+      <c r="G104" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
-      <c r="J104" s="36"/>
+      <c r="J104" s="35"/>
     </row>
     <row r="105" spans="6:10" ht="16" customHeight="1">
-      <c r="F105" s="35"/>
-      <c r="G105" s="5" t="s">
-        <v>124</v>
-      </c>
+      <c r="F105" s="34"/>
+      <c r="G105" s="5"/>
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
-      <c r="J105" s="36"/>
+      <c r="J105" s="35"/>
     </row>
     <row r="106" spans="6:10" ht="16" customHeight="1">
-      <c r="F106" s="35"/>
-      <c r="G106" s="5"/>
+      <c r="F106" s="34"/>
+      <c r="G106" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
-      <c r="J106" s="36"/>
+      <c r="J106" s="35"/>
     </row>
     <row r="107" spans="6:10" ht="16" customHeight="1">
-      <c r="F107" s="35"/>
-      <c r="G107" s="53" t="s">
-        <v>122</v>
-      </c>
+      <c r="F107" s="34"/>
+      <c r="G107" s="5"/>
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
-      <c r="J107" s="36"/>
+      <c r="J107" s="35"/>
     </row>
     <row r="108" spans="6:10" ht="16" customHeight="1">
-      <c r="F108" s="35"/>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5" t="s">
-        <v>127</v>
-      </c>
+      <c r="F108" s="34"/>
+      <c r="G108" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="H108" s="5"/>
       <c r="I108" s="5"/>
-      <c r="J108" s="36"/>
+      <c r="J108" s="35"/>
     </row>
     <row r="109" spans="6:10" ht="16" customHeight="1">
-      <c r="F109" s="35"/>
-      <c r="G109" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="H109" s="5"/>
+      <c r="F109" s="34"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5" t="s">
+        <v>119</v>
+      </c>
       <c r="I109" s="5"/>
-      <c r="J109" s="36"/>
+      <c r="J109" s="35"/>
     </row>
     <row r="110" spans="6:10" ht="16" customHeight="1">
-      <c r="F110" s="35"/>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5" t="s">
-        <v>128</v>
-      </c>
+      <c r="F110" s="34"/>
+      <c r="G110" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H110" s="5"/>
       <c r="I110" s="5"/>
-      <c r="J110" s="36"/>
+      <c r="J110" s="35"/>
     </row>
     <row r="111" spans="6:10" ht="16" customHeight="1">
-      <c r="F111" s="35"/>
+      <c r="F111" s="34"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="I111" s="5"/>
-      <c r="J111" s="36"/>
+      <c r="J111" s="35"/>
     </row>
     <row r="112" spans="6:10" ht="16" customHeight="1">
-      <c r="F112" s="37"/>
-      <c r="G112" s="38"/>
-      <c r="H112" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="I112" s="38"/>
-      <c r="J112" s="39"/>
+      <c r="F112" s="34"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="I112" s="5"/>
+      <c r="J112" s="35"/>
+    </row>
+    <row r="113" spans="6:10" ht="16" customHeight="1">
+      <c r="F113" s="36"/>
+      <c r="G113" s="37"/>
+      <c r="H113" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="I113" s="37"/>
+      <c r="J113" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="O2:AK3"/>
-    <mergeCell ref="AE7:AH7"/>
-    <mergeCell ref="AE51:AH51"/>
-    <mergeCell ref="Q48:T48"/>
-    <mergeCell ref="AE53:AH53"/>
-    <mergeCell ref="W33:AB33"/>
-    <mergeCell ref="P43:T43"/>
+  <mergeCells count="21">
+    <mergeCell ref="X59:AC59"/>
+    <mergeCell ref="F25:J26"/>
+    <mergeCell ref="F20:J21"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="X23:AC23"/>
+    <mergeCell ref="AF40:AM40"/>
+    <mergeCell ref="AF37:AM37"/>
+    <mergeCell ref="F47:J48"/>
+    <mergeCell ref="AR8:AX9"/>
+    <mergeCell ref="AR17:AX18"/>
+    <mergeCell ref="X19:AC19"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="O2:AP3"/>
+    <mergeCell ref="AF7:AM7"/>
+    <mergeCell ref="AF53:AM53"/>
+    <mergeCell ref="AF55:AM55"/>
+    <mergeCell ref="X35:AC35"/>
+    <mergeCell ref="P45:T45"/>
     <mergeCell ref="Q10:S11"/>
     <mergeCell ref="P5:T5"/>
-    <mergeCell ref="O52:T52"/>
-    <mergeCell ref="AM8:AS9"/>
-    <mergeCell ref="AM16:AS17"/>
-    <mergeCell ref="W17:AB17"/>
-    <mergeCell ref="W11:AB11"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AN11:AQ11"/>
-    <mergeCell ref="W57:AB57"/>
-    <mergeCell ref="F24:J25"/>
-    <mergeCell ref="F18:J19"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="W21:AB21"/>
-    <mergeCell ref="AE38:AH38"/>
-    <mergeCell ref="AE35:AH35"/>
-    <mergeCell ref="F46:J47"/>
+    <mergeCell ref="O54:T54"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -12002,12 +10786,12 @@
         <v>43883</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/maraSonSouce/marasong_memo.xlsx
+++ b/maraSonSouce/marasong_memo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hqu666/Documents/Develop/an/workSpace/maraSong/maraSonSouce/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAFD4F2-2E9F-CC44-AA59-745F356CC669}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E2E176-5068-9F4D-BF7B-E76EA37D62CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="-18380" windowWidth="33340" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8180" yWindow="-18080" windowWidth="26760" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="起動" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="192">
   <si>
     <t>MuList</t>
   </si>
@@ -312,10 +312,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>プレイヤーへ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>send2Player</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -353,10 +349,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>全曲リストの読み込み</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>最近追加</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">サイキン </t>
@@ -376,22 +368,6 @@
   </si>
   <si>
     <t xml:space="preserve">listUMUCursor1 = listUMU(MuList.this.nowList);	</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>最近追加したファイルに変更無し</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">サイキン </t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t xml:space="preserve">ツイカシタ </t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t xml:space="preserve">ヘンコウ </t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t xml:space="preserve">ヘンナシ </t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -432,10 +408,6 @@
   </si>
   <si>
     <t>artistList_yomikomi</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>アーティストリスト表示</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1156,6 +1128,44 @@
   </si>
   <si>
     <t>saikin_tuika_yomi_end　←──────────────────────────────────────────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>プレイヤーへ　──────────────────────────────────────────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>全曲リストの読み込み　──────────────────────────────────────────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>最近追加したファイルに変更無し　──────────────────────────────────────────────</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サイキン </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ツイカシタ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">ヘンコウ </t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">ヘンナシ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アーティストリスト表示　──────────────────────────────────────────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>最近追加　──────────────────────────────────────────────</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サイキン </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">サキンツイカ </t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1657,47 +1667,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1706,21 +1723,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1750,46 +1752,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2032,67 +2042,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>34635</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>23090</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>219362</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>207817</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="円/楕円 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D03A0AD8-6697-2146-99B6-403CF8E5EA9F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8024090" y="2309090"/>
-          <a:ext cx="184727" cy="184727"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>80818</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -2119,710 +2068,6 @@
         <a:xfrm>
           <a:off x="7643091" y="1524000"/>
           <a:ext cx="103909" cy="92363"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>115451</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>80815</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>196270</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>173178</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="円/楕円 91">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{590E4C7B-E2A7-8841-9B81-9364A78252F3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7619996" y="7146633"/>
-          <a:ext cx="80819" cy="92363"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>1708729</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>80815</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>65811</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>182415</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="94" name="図 93">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{991EDAF8-65FF-2F44-BCD9-5FED0AD71FA4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7977911" y="7146633"/>
-          <a:ext cx="88900" cy="101600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>77356</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>126997</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>115451</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>131615</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="95" name="カギ線コネクタ 94">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B88F18D3-3250-FC40-9117-8A3D2A9334A1}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5A4120D6-5383-46DE-8CA7-F58917F0615A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="94" idx="3"/>
-          <a:endCxn id="92" idx="2"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{6817124A-41B7-41FA-85DA-84D2132C9463}" end="{00000000-0000-0000-0000-000000000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8066811" y="7192815"/>
-          <a:ext cx="257458" cy="4618"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>92348</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>46180</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>173167</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>138543</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="98" name="円/楕円 97">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E2E0290-1CBB-DE4A-BB34-5D2F4AF5710C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8301166" y="7527635"/>
-          <a:ext cx="80819" cy="92363"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>1697171</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>46180</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>54253</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>147780</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="99" name="図 98">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78BABE42-71E8-014C-B2DF-5BAB2F3D658A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7966353" y="7735453"/>
-          <a:ext cx="88900" cy="101600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>65798</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>92362</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>92348</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>96980</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="100" name="カギ線コネクタ 99">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{089EEB1B-3128-1647-8872-4503967E068E}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5A4120D6-5383-46DE-8CA7-F58917F0615A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="99" idx="3"/>
-          <a:endCxn id="98" idx="2"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{6817124A-41B7-41FA-85DA-84D2132C9463}" end="{00000000-0000-0000-0000-000000000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8055253" y="7781635"/>
-          <a:ext cx="245913" cy="4618"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>115446</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>92369</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>196265</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>184732</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="円/楕円 100">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B4978F6-109E-A440-B251-8DC1A59706BD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8324264" y="8405096"/>
-          <a:ext cx="80819" cy="92363"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>42715</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>138551</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>115446</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>189351</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="103" name="カギ線コネクタ 102">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{651DA77D-B222-4040-9607-7045BE762C95}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5A4120D6-5383-46DE-8CA7-F58917F0615A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:endCxn id="101" idx="2"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{6817124A-41B7-41FA-85DA-84D2132C9463}" end="{00000000-0000-0000-0000-000000000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8032170" y="8451278"/>
-          <a:ext cx="511458" cy="50800"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>115449</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>23090</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>196268</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>115453</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="111" name="円/楕円 110">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60991A62-EF42-DC4F-AB07-714EE532249C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8543631" y="10206181"/>
-          <a:ext cx="80819" cy="92363"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>1608282</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>57726</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>1697182</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>159326</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="112" name="図 111">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C731F80-08A5-2647-B5B7-8B1AA658EDF3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9863282" y="10448635"/>
-          <a:ext cx="88900" cy="101600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>1697182</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>69272</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>115449</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>108526</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="113" name="カギ線コネクタ 112">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41F1BDD3-C4EC-4B4B-8145-9346E0186915}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5A4120D6-5383-46DE-8CA7-F58917F0615A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="112" idx="3"/>
-          <a:endCxn id="111" idx="2"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{6817124A-41B7-41FA-85DA-84D2132C9463}" end="{00000000-0000-0000-0000-000000000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9952182" y="10460181"/>
-          <a:ext cx="577267" cy="39254"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>115449</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>196268</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>92363</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="円/楕円 115">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8FF23C4-66D3-A843-B57A-4495A6D5A823}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8543631" y="10598727"/>
-          <a:ext cx="80819" cy="92363"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3776,50 +3021,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>161641</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>46180</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>250541</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>147780</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="88" name="図 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{374F2A34-C2C2-B14B-AB2A-CC5EAE6B3F4A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11811005" y="15216907"/>
-          <a:ext cx="88900" cy="101600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -3944,50 +3145,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>46184</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>57726</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>135084</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>159326</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="91" name="図 90">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2619277-0D33-C84B-9CEB-BE30A546D12E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11695548" y="15436271"/>
-          <a:ext cx="88900" cy="101600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -7485,114 +6642,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>46180</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>57725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>135080</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>159325</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="170" name="図 169">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67A62C2E-4E56-B844-8447-F9C44544606C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7146635" y="8993907"/>
-          <a:ext cx="88900" cy="101600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>135080</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>108525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>217635</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>80816</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="171" name="カギ線コネクタ 170">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B9828D0-054A-5B45-AEBA-5DDFCB0A268C}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5A4120D6-5383-46DE-8CA7-F58917F0615A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:endCxn id="170" idx="3"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{6817124A-41B7-41FA-85DA-84D2132C9463}" end="{00000000-0000-0000-0000-000000000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="6990485" y="9289757"/>
-          <a:ext cx="803564" cy="313464"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7897,8 +6946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:AX113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AB89" sqref="AB89"/>
+    <sheetView tabSelected="1" topLeftCell="P72" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AL82" sqref="AL82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -7923,66 +6972,66 @@
   </cols>
   <sheetData>
     <row r="2" spans="15:50" ht="16" customHeight="1">
-      <c r="O2" s="68" t="s">
+      <c r="O2" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="69"/>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
-      <c r="AO2" s="69"/>
-      <c r="AP2" s="70"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
+      <c r="Z2" s="104"/>
+      <c r="AA2" s="104"/>
+      <c r="AB2" s="104"/>
+      <c r="AC2" s="104"/>
+      <c r="AD2" s="104"/>
+      <c r="AE2" s="104"/>
+      <c r="AF2" s="104"/>
+      <c r="AG2" s="104"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="104"/>
+      <c r="AO2" s="104"/>
+      <c r="AP2" s="105"/>
     </row>
     <row r="3" spans="15:50" ht="16" customHeight="1">
-      <c r="O3" s="71"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="72"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="72"/>
-      <c r="AF3" s="72"/>
-      <c r="AG3" s="72"/>
-      <c r="AH3" s="72"/>
-      <c r="AI3" s="72"/>
-      <c r="AJ3" s="72"/>
-      <c r="AK3" s="72"/>
-      <c r="AL3" s="72"/>
-      <c r="AM3" s="72"/>
-      <c r="AN3" s="72"/>
-      <c r="AO3" s="72"/>
-      <c r="AP3" s="73"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="88"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="88"/>
+      <c r="S3" s="88"/>
+      <c r="T3" s="88"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="88"/>
+      <c r="X3" s="88"/>
+      <c r="Y3" s="88"/>
+      <c r="Z3" s="88"/>
+      <c r="AA3" s="88"/>
+      <c r="AB3" s="88"/>
+      <c r="AC3" s="88"/>
+      <c r="AD3" s="88"/>
+      <c r="AE3" s="88"/>
+      <c r="AF3" s="88"/>
+      <c r="AG3" s="88"/>
+      <c r="AH3" s="88"/>
+      <c r="AI3" s="88"/>
+      <c r="AJ3" s="88"/>
+      <c r="AK3" s="88"/>
+      <c r="AL3" s="88"/>
+      <c r="AM3" s="88"/>
+      <c r="AN3" s="88"/>
+      <c r="AO3" s="88"/>
+      <c r="AP3" s="107"/>
     </row>
     <row r="4" spans="15:50" ht="16" customHeight="1">
       <c r="O4" s="4"/>
@@ -8016,13 +7065,13 @@
     </row>
     <row r="5" spans="15:50" ht="16" customHeight="1">
       <c r="O5" s="4"/>
-      <c r="P5" s="82" t="s">
+      <c r="P5" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="84"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="93"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
@@ -8050,7 +7099,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -8083,23 +7132,23 @@
       <c r="W7" s="5"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="5"/>
-      <c r="AF7" s="74" t="s">
+      <c r="AF7" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="AG7" s="75"/>
-      <c r="AH7" s="75"/>
-      <c r="AI7" s="75"/>
-      <c r="AJ7" s="75"/>
-      <c r="AK7" s="75"/>
-      <c r="AL7" s="75"/>
-      <c r="AM7" s="76"/>
+      <c r="AG7" s="110"/>
+      <c r="AH7" s="110"/>
+      <c r="AI7" s="110"/>
+      <c r="AJ7" s="110"/>
+      <c r="AK7" s="110"/>
+      <c r="AL7" s="110"/>
+      <c r="AM7" s="111"/>
       <c r="AN7" s="22"/>
       <c r="AO7" s="22"/>
       <c r="AP7" s="5"/>
@@ -8137,15 +7186,15 @@
       <c r="AN8" s="5"/>
       <c r="AO8" s="5"/>
       <c r="AP8" s="5"/>
-      <c r="AR8" s="68" t="s">
+      <c r="AR8" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="AS8" s="69"/>
-      <c r="AT8" s="69"/>
-      <c r="AU8" s="69"/>
-      <c r="AV8" s="69"/>
-      <c r="AW8" s="69"/>
-      <c r="AX8" s="70"/>
+      <c r="AS8" s="104"/>
+      <c r="AT8" s="104"/>
+      <c r="AU8" s="104"/>
+      <c r="AV8" s="104"/>
+      <c r="AW8" s="104"/>
+      <c r="AX8" s="105"/>
     </row>
     <row r="9" spans="15:50" ht="16" customHeight="1">
       <c r="O9" s="4"/>
@@ -8159,7 +7208,7 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
@@ -8179,28 +7228,28 @@
       <c r="AN9" s="5"/>
       <c r="AO9" s="5"/>
       <c r="AP9" s="5"/>
-      <c r="AR9" s="71"/>
-      <c r="AS9" s="72"/>
-      <c r="AT9" s="72"/>
-      <c r="AU9" s="72"/>
-      <c r="AV9" s="72"/>
-      <c r="AW9" s="72"/>
-      <c r="AX9" s="73"/>
+      <c r="AR9" s="106"/>
+      <c r="AS9" s="88"/>
+      <c r="AT9" s="88"/>
+      <c r="AU9" s="88"/>
+      <c r="AV9" s="88"/>
+      <c r="AW9" s="88"/>
+      <c r="AX9" s="107"/>
     </row>
     <row r="10" spans="15:50" ht="16" customHeight="1">
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="81" t="s">
+      <c r="Q10" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="R10" s="81"/>
-      <c r="S10" s="81"/>
+      <c r="R10" s="115"/>
+      <c r="S10" s="115"/>
       <c r="T10" s="26"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="Y10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AE10" s="22"/>
       <c r="AF10" s="22"/>
@@ -8220,21 +7269,21 @@
     <row r="11" spans="15:50" ht="16" customHeight="1">
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="81"/>
+      <c r="Q11" s="115"/>
+      <c r="R11" s="115"/>
+      <c r="S11" s="115"/>
       <c r="T11" s="26"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
-      <c r="X11" s="101" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y11" s="102"/>
-      <c r="Z11" s="102"/>
-      <c r="AA11" s="102"/>
-      <c r="AB11" s="102"/>
-      <c r="AC11" s="103"/>
+      <c r="X11" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y11" s="71"/>
+      <c r="Z11" s="71"/>
+      <c r="AA11" s="71"/>
+      <c r="AB11" s="71"/>
+      <c r="AC11" s="72"/>
       <c r="AD11" s="20"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
@@ -8249,13 +7298,13 @@
       <c r="AO11" s="5"/>
       <c r="AP11" s="5"/>
       <c r="AR11" s="4"/>
-      <c r="AS11" s="82" t="s">
+      <c r="AS11" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="AT11" s="83"/>
-      <c r="AU11" s="83"/>
-      <c r="AV11" s="83"/>
-      <c r="AW11" s="84"/>
+      <c r="AT11" s="92"/>
+      <c r="AU11" s="92"/>
+      <c r="AV11" s="92"/>
+      <c r="AW11" s="93"/>
       <c r="AX11" s="6"/>
     </row>
     <row r="12" spans="15:50" ht="16" customHeight="1">
@@ -8269,13 +7318,13 @@
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="61"/>
-      <c r="Y12" s="100" t="s">
-        <v>144</v>
+      <c r="Y12" s="69" t="s">
+        <v>140</v>
       </c>
       <c r="Z12" s="62"/>
       <c r="AA12" s="62"/>
       <c r="AB12" s="62"/>
-      <c r="AC12" s="99"/>
+      <c r="AC12" s="68"/>
       <c r="AD12" s="62"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
@@ -8310,12 +7359,12 @@
       <c r="W13" s="5"/>
       <c r="X13" s="61"/>
       <c r="Y13" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Z13" s="62"/>
       <c r="AA13" s="62"/>
       <c r="AB13" s="62"/>
-      <c r="AC13" s="99"/>
+      <c r="AC13" s="68"/>
       <c r="AD13" s="62"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="62" t="s">
@@ -8350,12 +7399,12 @@
       <c r="T14" s="6"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="W14" s="5"/>
       <c r="X14" s="11"/>
       <c r="Z14" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
@@ -8394,12 +7443,12 @@
       <c r="T15" s="6"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="W15" s="5"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AA15" s="5"/>
       <c r="AB15" s="5"/>
@@ -8434,13 +7483,13 @@
       <c r="T16" s="6"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="W16" s="5"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AA16" s="5" t="s">
         <v>14</v>
@@ -8470,13 +7519,13 @@
       <c r="T17" s="3"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="W17" s="5"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
@@ -8494,15 +7543,15 @@
       <c r="AN17" s="5"/>
       <c r="AO17" s="5"/>
       <c r="AP17" s="19"/>
-      <c r="AR17" s="68" t="s">
+      <c r="AR17" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="AS17" s="69"/>
-      <c r="AT17" s="69"/>
-      <c r="AU17" s="69"/>
-      <c r="AV17" s="69"/>
-      <c r="AW17" s="69"/>
-      <c r="AX17" s="70"/>
+      <c r="AS17" s="104"/>
+      <c r="AT17" s="104"/>
+      <c r="AU17" s="104"/>
+      <c r="AV17" s="104"/>
+      <c r="AW17" s="104"/>
+      <c r="AX17" s="105"/>
     </row>
     <row r="18" spans="3:50" ht="16" customHeight="1">
       <c r="O18" s="4"/>
@@ -8513,11 +7562,11 @@
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="W18" s="5"/>
       <c r="Z18" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AE18" s="19"/>
       <c r="AF18" s="19"/>
@@ -8531,13 +7580,13 @@
       <c r="AN18" s="19"/>
       <c r="AO18" s="19"/>
       <c r="AP18" s="5"/>
-      <c r="AR18" s="71"/>
-      <c r="AS18" s="72"/>
-      <c r="AT18" s="72"/>
-      <c r="AU18" s="72"/>
-      <c r="AV18" s="72"/>
-      <c r="AW18" s="72"/>
-      <c r="AX18" s="73"/>
+      <c r="AR18" s="106"/>
+      <c r="AS18" s="88"/>
+      <c r="AT18" s="88"/>
+      <c r="AU18" s="88"/>
+      <c r="AV18" s="88"/>
+      <c r="AW18" s="88"/>
+      <c r="AX18" s="107"/>
     </row>
     <row r="19" spans="3:50" ht="16" customHeight="1">
       <c r="O19" s="4"/>
@@ -8547,17 +7596,17 @@
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="W19" s="5"/>
-      <c r="X19" s="88" t="s">
+      <c r="X19" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="Y19" s="88"/>
-      <c r="Z19" s="88"/>
-      <c r="AA19" s="88"/>
-      <c r="AB19" s="88"/>
-      <c r="AC19" s="88"/>
+      <c r="Y19" s="108"/>
+      <c r="Z19" s="108"/>
+      <c r="AA19" s="108"/>
+      <c r="AB19" s="108"/>
+      <c r="AC19" s="108"/>
       <c r="AD19" s="23"/>
       <c r="AE19" s="19"/>
       <c r="AF19" s="19"/>
@@ -8583,13 +7632,13 @@
       <c r="C20" s="59"/>
       <c r="D20" s="59"/>
       <c r="E20" s="59"/>
-      <c r="F20" s="89" t="s">
+      <c r="F20" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
       <c r="K20" s="59"/>
       <c r="L20" s="59"/>
       <c r="O20" s="4"/>
@@ -8602,12 +7651,12 @@
       <c r="T20" s="33"/>
       <c r="U20" s="5"/>
       <c r="V20" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="10" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
@@ -8626,29 +7675,29 @@
       <c r="AN20" s="5"/>
       <c r="AO20" s="5"/>
       <c r="AP20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AR20" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS20" s="82" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS20" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="AT20" s="83"/>
-      <c r="AU20" s="83"/>
-      <c r="AV20" s="83"/>
-      <c r="AW20" s="84"/>
+      <c r="AT20" s="92"/>
+      <c r="AU20" s="92"/>
+      <c r="AV20" s="92"/>
+      <c r="AW20" s="93"/>
       <c r="AX20" s="6"/>
     </row>
     <row r="21" spans="3:50" ht="16" customHeight="1">
       <c r="C21" s="59"/>
       <c r="D21" s="59"/>
       <c r="E21" s="59"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
       <c r="K21" s="59"/>
       <c r="L21" s="59"/>
       <c r="O21" s="4"/>
@@ -8661,7 +7710,7 @@
       <c r="T21" s="35"/>
       <c r="U21" s="5"/>
       <c r="V21" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
@@ -8672,7 +7721,7 @@
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
       <c r="AP21" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AR21" s="4"/>
       <c r="AS21" s="11"/>
@@ -8686,15 +7735,15 @@
     </row>
     <row r="22" spans="3:50" ht="16" customHeight="1">
       <c r="H22" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L22" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O22" s="4"/>
       <c r="P22" s="34"/>
       <c r="Q22" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="R22" s="5" t="s">
         <v>21</v>
@@ -8703,7 +7752,7 @@
       <c r="T22" s="35"/>
       <c r="U22" s="5"/>
       <c r="V22" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="W22" s="5"/>
       <c r="AE22" s="23"/>
@@ -8718,7 +7767,7 @@
       <c r="AN22" s="23"/>
       <c r="AO22" s="29"/>
       <c r="AP22" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AR22" s="4"/>
       <c r="AS22" s="4"/>
@@ -8732,27 +7781,27 @@
     </row>
     <row r="23" spans="3:50" ht="16" customHeight="1">
       <c r="L23" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="O23" s="4"/>
       <c r="P23" s="36"/>
       <c r="Q23" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="R23" s="37" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="S23" s="37"/>
       <c r="T23" s="38"/>
       <c r="V23" s="5"/>
-      <c r="X23" s="90" t="s">
+      <c r="X23" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="Y23" s="91"/>
-      <c r="Z23" s="91"/>
-      <c r="AA23" s="91"/>
-      <c r="AB23" s="91"/>
-      <c r="AC23" s="92"/>
+      <c r="Y23" s="95"/>
+      <c r="Z23" s="95"/>
+      <c r="AA23" s="95"/>
+      <c r="AB23" s="95"/>
+      <c r="AC23" s="96"/>
       <c r="AD23" s="46"/>
       <c r="AE23" s="9"/>
       <c r="AF23" s="9"/>
@@ -8766,7 +7815,7 @@
       <c r="AN23" s="9"/>
       <c r="AO23" s="9"/>
       <c r="AP23" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AR23" s="4"/>
       <c r="AS23" s="4"/>
@@ -8780,15 +7829,15 @@
     </row>
     <row r="24" spans="3:50" ht="16" customHeight="1">
       <c r="L24" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="O24" s="4"/>
       <c r="Q24" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="U24" s="5"/>
       <c r="V24" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="W24" s="5"/>
       <c r="X24" s="39"/>
@@ -8812,7 +7861,7 @@
       <c r="AN24" s="10"/>
       <c r="AO24" s="10"/>
       <c r="AP24" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AR24" s="4"/>
       <c r="AS24" s="4"/>
@@ -8825,15 +7874,15 @@
       <c r="AX24" s="6"/>
     </row>
     <row r="25" spans="3:50" ht="16" customHeight="1">
-      <c r="F25" s="109" t="s">
+      <c r="F25" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="111"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="86"/>
       <c r="L25" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="O25" s="4"/>
       <c r="P25" s="63" t="s">
@@ -8844,10 +7893,10 @@
       <c r="S25" s="64"/>
       <c r="T25" s="56"/>
       <c r="V25" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="X25" s="39"/>
       <c r="Y25" s="40"/>
@@ -8870,7 +7919,7 @@
       <c r="AN25" s="5"/>
       <c r="AO25" s="5"/>
       <c r="AP25" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AR25" s="4"/>
       <c r="AS25" s="4"/>
@@ -8883,14 +7932,14 @@
       <c r="AX25" s="6"/>
     </row>
     <row r="26" spans="3:50" ht="16" customHeight="1">
-      <c r="F26" s="112"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="113"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="89"/>
       <c r="K26" s="59"/>
       <c r="L26" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O26" s="4"/>
       <c r="P26" s="34"/>
@@ -8902,10 +7951,10 @@
       <c r="T26" s="67"/>
       <c r="U26" s="27"/>
       <c r="V26" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X26" s="39"/>
       <c r="Y26" s="42" t="s">
@@ -8928,7 +7977,7 @@
       <c r="AN26" s="5"/>
       <c r="AO26" s="5"/>
       <c r="AP26" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AR26" s="14"/>
       <c r="AS26" s="24"/>
@@ -8943,27 +7992,27 @@
     <row r="27" spans="3:50" ht="16" customHeight="1">
       <c r="E27" s="59"/>
       <c r="F27" s="36"/>
-      <c r="G27" s="114" t="s">
-        <v>154</v>
-      </c>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
+      <c r="G27" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
       <c r="J27" s="38"/>
       <c r="K27" s="59"/>
       <c r="L27" s="59"/>
       <c r="O27" s="4"/>
-      <c r="P27" s="108"/>
-      <c r="Q27" s="107" t="s">
+      <c r="P27" s="77"/>
+      <c r="Q27" s="76" t="s">
         <v>28</v>
       </c>
       <c r="R27" s="37"/>
       <c r="S27" s="37"/>
       <c r="T27" s="38"/>
       <c r="V27" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X27" s="39"/>
       <c r="Y27" s="40"/>
@@ -8975,7 +8024,7 @@
       <c r="AC27" s="41"/>
       <c r="AD27" s="40"/>
       <c r="AP27" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AR27" s="4"/>
       <c r="AS27" s="5"/>
@@ -8988,10 +8037,10 @@
     <row r="28" spans="3:50" ht="16" customHeight="1">
       <c r="O28" s="4"/>
       <c r="V28" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X28" s="39"/>
       <c r="Y28" s="45" t="s">
@@ -9003,7 +8052,7 @@
       <c r="AC28" s="41"/>
       <c r="AD28" s="40"/>
       <c r="AP28" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AR28" s="2"/>
       <c r="AS28" s="7"/>
@@ -9019,10 +8068,10 @@
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
       <c r="V29" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="W29" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X29" s="39"/>
       <c r="Y29" s="44" t="s">
@@ -9034,7 +8083,7 @@
       <c r="AC29" s="41"/>
       <c r="AD29" s="40"/>
       <c r="AP29" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AR29" s="5"/>
       <c r="AS29" s="5"/>
@@ -9053,10 +8102,10 @@
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="W30" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X30" s="39"/>
       <c r="Y30" s="40" t="s">
@@ -9068,7 +8117,7 @@
       <c r="AC30" s="41"/>
       <c r="AD30" s="40"/>
       <c r="AP30" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AR30" s="5"/>
       <c r="AS30" s="5"/>
@@ -9080,10 +8129,10 @@
     </row>
     <row r="31" spans="3:50" ht="16" customHeight="1">
       <c r="V31" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="W31" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X31" s="39"/>
       <c r="Y31" s="40"/>
@@ -9095,7 +8144,7 @@
       <c r="AC31" s="41"/>
       <c r="AD31" s="40"/>
       <c r="AP31" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AR31" s="5"/>
       <c r="AS31" s="5"/>
@@ -9107,10 +8156,10 @@
     </row>
     <row r="32" spans="3:50" ht="16" customHeight="1">
       <c r="V32" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="W32" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X32" s="39"/>
       <c r="Y32" s="43" t="s">
@@ -9122,7 +8171,7 @@
       <c r="AC32" s="41"/>
       <c r="AD32" s="40"/>
       <c r="AP32" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AR32" s="5"/>
       <c r="AS32" s="5"/>
@@ -9134,10 +8183,10 @@
     </row>
     <row r="33" spans="6:50" ht="16" customHeight="1">
       <c r="V33" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="W33" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X33" s="39"/>
       <c r="Y33" s="44" t="s">
@@ -9149,7 +8198,7 @@
       <c r="AC33" s="41"/>
       <c r="AD33" s="40"/>
       <c r="AP33" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AR33" s="5"/>
       <c r="AS33" s="5"/>
@@ -9161,13 +8210,13 @@
     </row>
     <row r="34" spans="6:50" ht="16" customHeight="1">
       <c r="V34" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="W34" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AP34" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AR34" s="5"/>
       <c r="AS34" s="5"/>
@@ -9179,25 +8228,25 @@
     </row>
     <row r="35" spans="6:50" ht="16" customHeight="1">
       <c r="V35" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="W35" t="s">
-        <v>157</v>
-      </c>
-      <c r="X35" s="78" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y35" s="79"/>
-      <c r="Z35" s="79"/>
-      <c r="AA35" s="79"/>
-      <c r="AB35" s="79"/>
-      <c r="AC35" s="80"/>
+        <v>153</v>
+      </c>
+      <c r="X35" s="112" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y35" s="113"/>
+      <c r="Z35" s="113"/>
+      <c r="AA35" s="113"/>
+      <c r="AB35" s="113"/>
+      <c r="AC35" s="114"/>
       <c r="AD35" s="22"/>
       <c r="AE35" t="s">
         <v>45</v>
       </c>
       <c r="AP35" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AR35" s="5"/>
       <c r="AS35" s="5"/>
@@ -9209,7 +8258,7 @@
     </row>
     <row r="36" spans="6:50" ht="16" customHeight="1">
       <c r="V36" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X36" s="34"/>
       <c r="Y36" s="5"/>
@@ -9218,7 +8267,7 @@
       <c r="AB36" s="5"/>
       <c r="AC36" s="35"/>
       <c r="AP36" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AR36" s="5"/>
       <c r="AS36" s="5"/>
@@ -9230,30 +8279,30 @@
     </row>
     <row r="37" spans="6:50" ht="16" customHeight="1">
       <c r="V37" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X37" s="34"/>
       <c r="Y37" s="5" t="s">
-        <v>59</v>
+        <v>189</v>
       </c>
       <c r="Z37" s="5"/>
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
       <c r="AC37" s="35"/>
-      <c r="AF37" s="77" t="s">
+      <c r="AF37" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="AG37" s="77"/>
-      <c r="AH37" s="77"/>
-      <c r="AI37" s="77"/>
-      <c r="AJ37" s="77"/>
-      <c r="AK37" s="77"/>
-      <c r="AL37" s="77"/>
-      <c r="AM37" s="77"/>
+      <c r="AG37" s="83"/>
+      <c r="AH37" s="83"/>
+      <c r="AI37" s="83"/>
+      <c r="AJ37" s="83"/>
+      <c r="AK37" s="83"/>
+      <c r="AL37" s="83"/>
+      <c r="AM37" s="83"/>
       <c r="AN37" s="27"/>
       <c r="AO37" s="28"/>
       <c r="AP37" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AR37" s="5"/>
       <c r="AS37" s="5"/>
@@ -9265,7 +8314,7 @@
     </row>
     <row r="38" spans="6:50" ht="16" customHeight="1">
       <c r="V38" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X38" s="34"/>
       <c r="Y38" s="5"/>
@@ -9276,7 +8325,7 @@
       <c r="AB38" s="5"/>
       <c r="AC38" s="35"/>
       <c r="AP38" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AR38" s="5"/>
       <c r="AS38" s="5"/>
@@ -9288,214 +8337,214 @@
     </row>
     <row r="39" spans="6:50" ht="16" customHeight="1">
       <c r="V39" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X39" s="34"/>
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
       <c r="AA39" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB39" s="5"/>
       <c r="AC39" s="35"/>
       <c r="AP39" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="6:50" ht="16" customHeight="1">
       <c r="V40" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X40" s="34"/>
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
       <c r="AB40" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC40" s="35"/>
+      <c r="AF40" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="AC40" s="35"/>
-      <c r="AF40" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG40" s="77"/>
-      <c r="AH40" s="77"/>
-      <c r="AI40" s="77"/>
-      <c r="AJ40" s="77"/>
-      <c r="AK40" s="77"/>
-      <c r="AL40" s="77"/>
-      <c r="AM40" s="77"/>
+      <c r="AG40" s="83"/>
+      <c r="AH40" s="83"/>
+      <c r="AI40" s="83"/>
+      <c r="AJ40" s="83"/>
+      <c r="AK40" s="83"/>
+      <c r="AL40" s="83"/>
+      <c r="AM40" s="83"/>
       <c r="AN40" s="27"/>
       <c r="AO40" s="28"/>
       <c r="AP40" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="6:50" ht="16" customHeight="1">
       <c r="V41" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X41" s="34"/>
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
       <c r="AA41" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB41" s="5"/>
       <c r="AC41" s="35"/>
       <c r="AP41" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="6:50" ht="16" customHeight="1">
       <c r="V42" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X42" s="34"/>
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
       <c r="AB42" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AC42" s="35"/>
       <c r="AP42" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="6:50" ht="16" customHeight="1">
       <c r="V43" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X43" s="34"/>
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
       <c r="AB43" s="5" t="s">
-        <v>54</v>
+        <v>188</v>
       </c>
       <c r="AC43" s="35"/>
       <c r="AF43" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AP43" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="6:50" ht="16" customHeight="1">
       <c r="V44" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X44" s="34"/>
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
       <c r="AB44" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AC44" s="35"/>
       <c r="AF44" s="30"/>
       <c r="AP44" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="6:50" ht="16" customHeight="1">
-      <c r="P45" s="78" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q45" s="79"/>
-      <c r="R45" s="79"/>
-      <c r="S45" s="79"/>
-      <c r="T45" s="80"/>
+      <c r="P45" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q45" s="113"/>
+      <c r="R45" s="113"/>
+      <c r="S45" s="113"/>
+      <c r="T45" s="114"/>
       <c r="V45" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X45" s="34"/>
       <c r="Y45" s="5"/>
       <c r="Z45" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
       <c r="AC45" s="35"/>
       <c r="AP45" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="6:50" ht="16" customHeight="1">
       <c r="P46" s="34"/>
       <c r="Q46" s="5"/>
       <c r="R46" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="S46" s="5"/>
       <c r="T46" s="35"/>
       <c r="V46" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X46" s="34"/>
       <c r="Y46" s="5"/>
       <c r="Z46" s="5"/>
       <c r="AA46" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AB46" s="5"/>
       <c r="AC46" s="35"/>
       <c r="AP46" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="6:50" ht="16" customHeight="1">
-      <c r="F47" s="93" t="s">
-        <v>69</v>
-      </c>
-      <c r="G47" s="94"/>
-      <c r="H47" s="94"/>
-      <c r="I47" s="94"/>
-      <c r="J47" s="95"/>
+      <c r="F47" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47" s="98"/>
+      <c r="H47" s="98"/>
+      <c r="I47" s="98"/>
+      <c r="J47" s="99"/>
       <c r="P47" s="34"/>
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
       <c r="S47" s="5"/>
       <c r="T47" s="35"/>
       <c r="V47" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X47" s="34"/>
       <c r="Y47" s="5"/>
       <c r="Z47" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AA47" s="5"/>
       <c r="AB47" s="5"/>
       <c r="AC47" s="35"/>
       <c r="AP47" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="6:50" ht="16" customHeight="1">
-      <c r="F48" s="96"/>
-      <c r="G48" s="97"/>
-      <c r="H48" s="97"/>
-      <c r="I48" s="97"/>
-      <c r="J48" s="98"/>
+      <c r="F48" s="100"/>
+      <c r="G48" s="101"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="101"/>
+      <c r="J48" s="102"/>
       <c r="P48" s="36"/>
       <c r="Q48" s="37"/>
       <c r="R48" s="37"/>
       <c r="S48" s="37"/>
       <c r="T48" s="38"/>
       <c r="V48" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X48" s="34"/>
       <c r="Y48" s="5"/>
       <c r="Z48" s="5"/>
       <c r="AA48" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AB48" s="5"/>
       <c r="AC48" s="35"/>
       <c r="AP48" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="6:42" ht="16" customHeight="1">
@@ -9505,41 +8554,41 @@
       <c r="I49" s="5"/>
       <c r="J49" s="35"/>
       <c r="V49" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X49" s="34"/>
       <c r="Y49" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
       <c r="AC49" s="35"/>
       <c r="AP49" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="6:42" ht="16" customHeight="1">
       <c r="F50" s="34"/>
       <c r="G50" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="35"/>
-      <c r="Q50" s="104" t="s">
-        <v>150</v>
-      </c>
-      <c r="R50" s="105"/>
-      <c r="S50" s="105"/>
-      <c r="T50" s="106"/>
+      <c r="Q50" s="73" t="s">
+        <v>146</v>
+      </c>
+      <c r="R50" s="74"/>
+      <c r="S50" s="74"/>
+      <c r="T50" s="75"/>
       <c r="V50" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="X50" s="34"/>
       <c r="Y50" s="5"/>
       <c r="Z50" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
@@ -9547,68 +8596,68 @@
       <c r="AN50" s="27"/>
       <c r="AO50" s="28"/>
       <c r="AP50" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="6:42" ht="16" customHeight="1">
       <c r="F51" s="34"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="35"/>
       <c r="Q51" s="47"/>
       <c r="R51" s="48" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="S51" s="48"/>
       <c r="T51" s="49"/>
       <c r="V51" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X51" s="34"/>
       <c r="Y51" s="5"/>
       <c r="Z51" s="5"/>
       <c r="AA51" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AB51" s="5"/>
       <c r="AC51" s="35"/>
       <c r="AN51" s="27"/>
       <c r="AO51" s="28"/>
       <c r="AP51" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="6:42" ht="16" customHeight="1">
       <c r="F52" s="34"/>
       <c r="G52" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="35"/>
       <c r="V52" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X52" s="34"/>
       <c r="Y52" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Z52" s="5"/>
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
       <c r="AC52" s="35"/>
       <c r="AP52" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="6:42" ht="16" customHeight="1">
       <c r="F53" s="34"/>
       <c r="G53" s="5"/>
       <c r="H53" s="50" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="35"/>
@@ -9619,129 +8668,129 @@
       <c r="S53" s="55"/>
       <c r="T53" s="56"/>
       <c r="V53" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X53" s="34"/>
       <c r="Y53" s="5"/>
       <c r="Z53" s="5" t="s">
-        <v>64</v>
+        <v>190</v>
       </c>
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
       <c r="AC53" s="35"/>
-      <c r="AF53" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG53" s="77"/>
-      <c r="AH53" s="77"/>
-      <c r="AI53" s="77"/>
-      <c r="AJ53" s="77"/>
-      <c r="AK53" s="77"/>
-      <c r="AL53" s="77"/>
-      <c r="AM53" s="77"/>
+      <c r="AF53" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG53" s="83"/>
+      <c r="AH53" s="83"/>
+      <c r="AI53" s="83"/>
+      <c r="AJ53" s="83"/>
+      <c r="AK53" s="83"/>
+      <c r="AL53" s="83"/>
+      <c r="AM53" s="83"/>
       <c r="AP53" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="6:42" ht="16" customHeight="1">
       <c r="F54" s="34"/>
       <c r="G54" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="35"/>
-      <c r="O54" s="85" t="s">
-        <v>123</v>
-      </c>
-      <c r="P54" s="86"/>
-      <c r="Q54" s="86"/>
-      <c r="R54" s="86"/>
-      <c r="S54" s="86"/>
-      <c r="T54" s="87"/>
+      <c r="O54" s="116" t="s">
+        <v>119</v>
+      </c>
+      <c r="P54" s="117"/>
+      <c r="Q54" s="117"/>
+      <c r="R54" s="117"/>
+      <c r="S54" s="117"/>
+      <c r="T54" s="118"/>
       <c r="V54" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X54" s="34"/>
       <c r="Y54" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Z54" s="5"/>
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
       <c r="AC54" s="35"/>
       <c r="AP54" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="6:42" ht="16" customHeight="1">
       <c r="F55" s="34"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="35"/>
       <c r="O55" s="34"/>
       <c r="P55" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
       <c r="T55" s="35"/>
       <c r="V55" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="X55" s="36"/>
       <c r="Y55" s="37"/>
       <c r="Z55" s="37" t="s">
-        <v>55</v>
+        <v>191</v>
       </c>
       <c r="AA55" s="37"/>
       <c r="AB55" s="37"/>
       <c r="AC55" s="38"/>
-      <c r="AF55" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG55" s="77"/>
-      <c r="AH55" s="77"/>
-      <c r="AI55" s="77"/>
-      <c r="AJ55" s="77"/>
-      <c r="AK55" s="77"/>
-      <c r="AL55" s="77"/>
-      <c r="AM55" s="77"/>
+      <c r="AF55" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG55" s="83"/>
+      <c r="AH55" s="83"/>
+      <c r="AI55" s="83"/>
+      <c r="AJ55" s="83"/>
+      <c r="AK55" s="83"/>
+      <c r="AL55" s="83"/>
+      <c r="AM55" s="83"/>
       <c r="AP55" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="6:42" ht="16" customHeight="1">
       <c r="F56" s="34"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I56" s="5"/>
       <c r="J56" s="35"/>
       <c r="O56" s="34"/>
       <c r="P56" s="5"/>
       <c r="Q56" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="R56" s="5"/>
       <c r="S56" s="5"/>
       <c r="T56" s="35"/>
       <c r="V56" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AP56" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="6:42" ht="16" customHeight="1">
       <c r="F57" s="34"/>
       <c r="G57" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
@@ -9750,13 +8799,13 @@
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
       <c r="R57" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="S57" s="5"/>
       <c r="T57" s="35"/>
       <c r="V57" s="5"/>
       <c r="AP57" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="6:42" ht="16" customHeight="1">
@@ -9772,13 +8821,13 @@
       <c r="S58" s="5"/>
       <c r="T58" s="35"/>
       <c r="V58" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="6:42" ht="16" customHeight="1">
       <c r="F59" s="34"/>
       <c r="G59" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
@@ -9787,20 +8836,20 @@
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
       <c r="R59" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="S59" s="5"/>
       <c r="T59" s="35"/>
-      <c r="X59" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y59" s="77"/>
-      <c r="Z59" s="77"/>
-      <c r="AA59" s="77"/>
-      <c r="AB59" s="77"/>
-      <c r="AC59" s="77"/>
+      <c r="X59" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y59" s="83"/>
+      <c r="Z59" s="83"/>
+      <c r="AA59" s="83"/>
+      <c r="AB59" s="83"/>
+      <c r="AC59" s="83"/>
       <c r="AF59" s="54" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AG59" s="55"/>
       <c r="AH59" s="55"/>
@@ -9814,7 +8863,7 @@
       <c r="F60" s="34"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="35"/>
@@ -9822,15 +8871,15 @@
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
       <c r="R60" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="S60" s="5"/>
       <c r="T60" s="35"/>
       <c r="AF60" s="34" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="AG60" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AH60" s="5"/>
       <c r="AI60" s="5"/>
@@ -9843,20 +8892,20 @@
       <c r="F61" s="34"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I61" s="5"/>
       <c r="J61" s="35"/>
       <c r="O61" s="34"/>
       <c r="P61" s="40" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q61" s="40"/>
       <c r="R61" s="40"/>
       <c r="S61" s="40"/>
       <c r="T61" s="41"/>
       <c r="AF61" s="36" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AG61" s="37"/>
       <c r="AH61" s="37"/>
@@ -9872,7 +8921,7 @@
     <row r="62" spans="6:42" ht="16" customHeight="1">
       <c r="F62" s="34"/>
       <c r="G62" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
@@ -9881,28 +8930,28 @@
       <c r="P62" s="40"/>
       <c r="Q62" s="40"/>
       <c r="R62" s="40" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="S62" s="40"/>
       <c r="T62" s="41"/>
       <c r="U62" s="53"/>
       <c r="V62" s="53"/>
       <c r="W62" s="53"/>
-      <c r="AF62" s="115" t="s">
-        <v>142</v>
+      <c r="AF62" s="79" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="6:42" ht="16" customHeight="1">
       <c r="F63" s="34"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I63" s="5"/>
       <c r="J63" s="35"/>
       <c r="O63" s="34"/>
       <c r="P63" s="40" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q63" s="40"/>
       <c r="R63" s="40"/>
@@ -9911,8 +8960,8 @@
       <c r="U63" s="53"/>
       <c r="V63" s="53"/>
       <c r="W63" s="53"/>
-      <c r="AF63" s="116" t="s">
-        <v>165</v>
+      <c r="AF63" s="80" t="s">
+        <v>161</v>
       </c>
       <c r="AG63" s="55"/>
       <c r="AH63" s="55"/>
@@ -9928,7 +8977,7 @@
     <row r="64" spans="6:42" ht="16" customHeight="1">
       <c r="F64" s="34"/>
       <c r="G64" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
@@ -9936,7 +8985,7 @@
       <c r="O64" s="34"/>
       <c r="P64" s="40"/>
       <c r="Q64" s="40" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="R64" s="40"/>
       <c r="S64" s="40"/>
@@ -9946,7 +8995,7 @@
       <c r="W64" s="53"/>
       <c r="AF64" s="34"/>
       <c r="AG64" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AH64" s="5"/>
       <c r="AI64" s="5"/>
@@ -9959,13 +9008,13 @@
       <c r="F65" s="34"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I65" s="5"/>
       <c r="J65" s="35"/>
       <c r="O65" s="34"/>
       <c r="P65" s="40" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q65" s="40"/>
       <c r="R65" s="40"/>
@@ -9987,14 +9036,14 @@
       <c r="F66" s="34"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I66" s="5"/>
       <c r="J66" s="35"/>
       <c r="O66" s="34"/>
       <c r="P66" s="40"/>
       <c r="Q66" s="40" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="R66" s="40"/>
       <c r="S66" s="40"/>
@@ -10002,18 +9051,18 @@
       <c r="U66" s="53"/>
       <c r="V66" s="53"/>
       <c r="W66" s="53"/>
-      <c r="AG66" s="115" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH66" s="115"/>
-      <c r="AI66" s="115"/>
-      <c r="AJ66" s="115"/>
-      <c r="AK66" s="115"/>
+      <c r="AG66" s="79" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH66" s="79"/>
+      <c r="AI66" s="79"/>
+      <c r="AJ66" s="79"/>
+      <c r="AK66" s="79"/>
     </row>
     <row r="67" spans="6:50" ht="16" customHeight="1">
       <c r="F67" s="34"/>
       <c r="G67" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
@@ -10022,7 +9071,7 @@
       <c r="P67" s="40"/>
       <c r="Q67" s="40"/>
       <c r="R67" s="40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="S67" s="40"/>
       <c r="T67" s="41"/>
@@ -10030,7 +9079,7 @@
       <c r="V67" s="53"/>
       <c r="W67" s="53"/>
       <c r="AF67" s="54" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AG67" s="55"/>
       <c r="AH67" s="55"/>
@@ -10044,7 +9093,7 @@
       <c r="F68" s="34"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I68" s="5"/>
       <c r="J68" s="35"/>
@@ -10059,7 +9108,7 @@
       <c r="W68" s="53"/>
       <c r="AF68" s="34"/>
       <c r="AG68" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AH68" s="5"/>
       <c r="AI68" s="5"/>
@@ -10072,7 +9121,7 @@
       <c r="F69" s="34"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I69" s="5"/>
       <c r="J69" s="35"/>
@@ -10080,7 +9129,7 @@
       <c r="P69" s="40"/>
       <c r="Q69" s="40"/>
       <c r="R69" s="40" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="S69" s="40"/>
       <c r="T69" s="41"/>
@@ -10090,7 +9139,7 @@
       <c r="AF69" s="34"/>
       <c r="AG69" s="5"/>
       <c r="AH69" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AI69" s="5"/>
       <c r="AJ69" s="5"/>
@@ -10102,7 +9151,7 @@
       <c r="F70" s="34"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I70" s="5"/>
       <c r="J70" s="35"/>
@@ -10117,7 +9166,7 @@
       <c r="W70" s="53"/>
       <c r="AF70" s="34"/>
       <c r="AG70" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AH70" s="5"/>
       <c r="AI70" s="5"/>
@@ -10129,7 +9178,7 @@
     <row r="71" spans="6:50" ht="16" customHeight="1">
       <c r="F71" s="34"/>
       <c r="G71" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
@@ -10138,7 +9187,7 @@
       <c r="P71" s="40"/>
       <c r="Q71" s="40"/>
       <c r="R71" s="40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="S71" s="40"/>
       <c r="T71" s="41"/>
@@ -10148,7 +9197,7 @@
       <c r="AF71" s="34"/>
       <c r="AG71" s="5"/>
       <c r="AH71" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AI71" s="5"/>
       <c r="AJ71" s="5"/>
@@ -10160,7 +9209,7 @@
       <c r="F72" s="34"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I72" s="5"/>
       <c r="J72" s="35"/>
@@ -10175,7 +9224,7 @@
       <c r="W72" s="53"/>
       <c r="AF72" s="36"/>
       <c r="AG72" s="37" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AH72" s="37"/>
       <c r="AI72" s="37"/>
@@ -10184,7 +9233,7 @@
       <c r="AL72" s="37"/>
       <c r="AM72" s="38"/>
       <c r="AQ72" s="54" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AR72" s="55"/>
       <c r="AS72" s="55"/>
@@ -10208,10 +9257,10 @@
       <c r="U73" s="53"/>
       <c r="V73" s="53"/>
       <c r="W73" s="53"/>
-      <c r="AG73" s="115"/>
+      <c r="AG73" s="79"/>
       <c r="AQ73" s="34"/>
-      <c r="AR73" s="115" t="s">
-        <v>142</v>
+      <c r="AR73" s="79" t="s">
+        <v>138</v>
       </c>
       <c r="AS73" s="5"/>
       <c r="AT73" s="5"/>
@@ -10223,7 +9272,7 @@
     <row r="74" spans="6:50" ht="16" customHeight="1">
       <c r="F74" s="34"/>
       <c r="G74" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
@@ -10232,8 +9281,8 @@
       <c r="V74" s="53"/>
       <c r="W74" s="53"/>
       <c r="AQ74" s="34"/>
-      <c r="AR74" s="115" t="s">
-        <v>176</v>
+      <c r="AR74" s="79" t="s">
+        <v>172</v>
       </c>
       <c r="AS74" s="5"/>
       <c r="AT74" s="5"/>
@@ -10249,9 +9298,9 @@
       <c r="I75" s="5"/>
       <c r="J75" s="35"/>
       <c r="AQ75" s="34"/>
-      <c r="AR75" s="115"/>
+      <c r="AR75" s="79"/>
       <c r="AS75" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AT75" s="5"/>
       <c r="AU75" s="5"/>
@@ -10262,7 +9311,7 @@
     <row r="76" spans="6:50" ht="16" customHeight="1">
       <c r="F76" s="34"/>
       <c r="G76" s="51" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
@@ -10270,7 +9319,7 @@
       <c r="AQ76" s="34"/>
       <c r="AR76" s="5"/>
       <c r="AS76" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AT76" s="5"/>
       <c r="AU76" s="5"/>
@@ -10282,14 +9331,14 @@
       <c r="F77" s="34"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I77" s="5"/>
       <c r="J77" s="35"/>
       <c r="AQ77" s="34"/>
       <c r="AR77" s="5"/>
       <c r="AS77" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AT77" s="5"/>
       <c r="AU77" s="5"/>
@@ -10300,7 +9349,7 @@
     <row r="78" spans="6:50" ht="16" customHeight="1">
       <c r="F78" s="34"/>
       <c r="G78" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
@@ -10308,7 +9357,7 @@
       <c r="AQ78" s="34"/>
       <c r="AR78" s="5"/>
       <c r="AS78" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AT78" s="5"/>
       <c r="AU78" s="5"/>
@@ -10320,16 +9369,16 @@
       <c r="F79" s="34"/>
       <c r="G79" s="5"/>
       <c r="H79" s="51" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I79" s="5"/>
       <c r="J79" s="35"/>
       <c r="AF79" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AQ79" s="36"/>
-      <c r="AR79" s="117" t="s">
-        <v>173</v>
+      <c r="AR79" s="81" t="s">
+        <v>169</v>
       </c>
       <c r="AS79" s="37"/>
       <c r="AT79" s="37"/>
@@ -10342,87 +9391,87 @@
       <c r="F80" s="34"/>
       <c r="G80" s="5"/>
       <c r="H80" s="51" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I80" s="5"/>
       <c r="J80" s="35"/>
-      <c r="AG80" s="115" t="s">
-        <v>142</v>
+      <c r="AG80" s="79" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="81" spans="6:50" ht="16" customHeight="1">
       <c r="F81" s="34"/>
       <c r="G81" s="51" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="35"/>
       <c r="AF81" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="6:50" ht="16" customHeight="1">
       <c r="F82" s="34"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I82" s="5"/>
       <c r="J82" s="35"/>
-      <c r="AG82" s="100" t="s">
-        <v>184</v>
+      <c r="AG82" s="69" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="6:50" ht="16" customHeight="1">
       <c r="F83" s="34"/>
       <c r="G83" s="51" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="35"/>
       <c r="AH83" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="6:50" ht="16" customHeight="1">
       <c r="F84" s="34"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I84" s="5"/>
       <c r="J84" s="35"/>
-      <c r="AG84" s="118" t="s">
-        <v>186</v>
+      <c r="AG84" s="82" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="6:50" ht="16" customHeight="1">
       <c r="F85" s="34"/>
       <c r="G85" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="35"/>
       <c r="AH85" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="6:50" ht="16" customHeight="1">
       <c r="F86" s="34"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I86" s="5"/>
       <c r="J86" s="35"/>
-      <c r="AH86" t="s">
-        <v>175</v>
+      <c r="AI86" t="s">
+        <v>171</v>
       </c>
       <c r="AQ86" s="54" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AR86" s="55"/>
       <c r="AS86" s="55"/>
@@ -10436,13 +9485,13 @@
       <c r="F87" s="34"/>
       <c r="G87" s="5"/>
       <c r="H87" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I87" s="5"/>
       <c r="J87" s="35"/>
       <c r="AQ87" s="34"/>
-      <c r="AR87" s="115" t="s">
-        <v>142</v>
+      <c r="AR87" s="79" t="s">
+        <v>138</v>
       </c>
       <c r="AS87" s="5"/>
       <c r="AT87" s="5"/>
@@ -10454,14 +9503,14 @@
     <row r="88" spans="6:50" ht="16" customHeight="1">
       <c r="F88" s="34"/>
       <c r="G88" s="51" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
       <c r="J88" s="35"/>
       <c r="AQ88" s="34"/>
-      <c r="AR88" s="115" t="s">
-        <v>176</v>
+      <c r="AR88" s="79" t="s">
+        <v>172</v>
       </c>
       <c r="AS88" s="5"/>
       <c r="AT88" s="5"/>
@@ -10476,13 +9525,13 @@
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="35"/>
-      <c r="AF89" s="100" t="s">
-        <v>188</v>
+      <c r="AF89" s="69" t="s">
+        <v>184</v>
       </c>
       <c r="AQ89" s="34"/>
-      <c r="AR89" s="115"/>
+      <c r="AR89" s="79"/>
       <c r="AS89" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AT89" s="5"/>
       <c r="AU89" s="5"/>
@@ -10493,7 +9542,7 @@
     <row r="90" spans="6:50" ht="16" customHeight="1">
       <c r="F90" s="34"/>
       <c r="G90" s="51" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
@@ -10501,7 +9550,7 @@
       <c r="AQ90" s="34"/>
       <c r="AR90" s="5"/>
       <c r="AS90" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AT90" s="5"/>
       <c r="AU90" s="5"/>
@@ -10513,14 +9562,14 @@
       <c r="F91" s="34"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I91" s="5"/>
       <c r="J91" s="35"/>
       <c r="AQ91" s="34"/>
       <c r="AR91" s="5"/>
       <c r="AS91" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AT91" s="5"/>
       <c r="AU91" s="5"/>
@@ -10531,7 +9580,7 @@
     <row r="92" spans="6:50" ht="16" customHeight="1">
       <c r="F92" s="34"/>
       <c r="G92" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
@@ -10539,7 +9588,7 @@
       <c r="AQ92" s="34"/>
       <c r="AR92" s="5"/>
       <c r="AS92" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AT92" s="5"/>
       <c r="AU92" s="5"/>
@@ -10554,11 +9603,11 @@
       <c r="I93" s="5"/>
       <c r="J93" s="35"/>
       <c r="AF93" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AQ93" s="36"/>
-      <c r="AR93" s="117" t="s">
-        <v>173</v>
+      <c r="AR93" s="81" t="s">
+        <v>169</v>
       </c>
       <c r="AS93" s="37"/>
       <c r="AT93" s="37"/>
@@ -10570,7 +9619,7 @@
     <row r="94" spans="6:50" ht="16" customHeight="1">
       <c r="F94" s="34"/>
       <c r="G94" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
@@ -10586,7 +9635,7 @@
     <row r="96" spans="6:50" ht="16" customHeight="1">
       <c r="F96" s="34"/>
       <c r="G96" s="51" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
@@ -10596,7 +9645,7 @@
       <c r="F97" s="34"/>
       <c r="G97" s="5"/>
       <c r="H97" s="52" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I97" s="5"/>
       <c r="J97" s="35"/>
@@ -10604,7 +9653,7 @@
     <row r="98" spans="6:10" ht="16" customHeight="1">
       <c r="F98" s="34"/>
       <c r="G98" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
@@ -10614,7 +9663,7 @@
       <c r="F99" s="34"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I99" s="5"/>
       <c r="J99" s="35"/>
@@ -10622,7 +9671,7 @@
     <row r="100" spans="6:10" ht="16" customHeight="1">
       <c r="F100" s="34"/>
       <c r="G100" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
@@ -10638,7 +9687,7 @@
     <row r="102" spans="6:10" ht="16" customHeight="1">
       <c r="F102" s="34"/>
       <c r="G102" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
@@ -10654,7 +9703,7 @@
     <row r="104" spans="6:10" ht="16" customHeight="1">
       <c r="F104" s="34"/>
       <c r="G104" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
@@ -10670,7 +9719,7 @@
     <row r="106" spans="6:10" ht="16" customHeight="1">
       <c r="F106" s="34"/>
       <c r="G106" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
@@ -10686,7 +9735,7 @@
     <row r="108" spans="6:10" ht="16" customHeight="1">
       <c r="F108" s="34"/>
       <c r="G108" s="51" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
@@ -10696,7 +9745,7 @@
       <c r="F109" s="34"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I109" s="5"/>
       <c r="J109" s="35"/>
@@ -10704,7 +9753,7 @@
     <row r="110" spans="6:10" ht="16" customHeight="1">
       <c r="F110" s="34"/>
       <c r="G110" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
@@ -10714,7 +9763,7 @@
       <c r="F111" s="34"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I111" s="5"/>
       <c r="J111" s="35"/>
@@ -10723,7 +9772,7 @@
       <c r="F112" s="34"/>
       <c r="G112" s="5"/>
       <c r="H112" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I112" s="5"/>
       <c r="J112" s="35"/>
@@ -10732,13 +9781,21 @@
       <c r="F113" s="36"/>
       <c r="G113" s="37"/>
       <c r="H113" s="37" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I113" s="37"/>
       <c r="J113" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="AR8:AX9"/>
+    <mergeCell ref="AR17:AX18"/>
+    <mergeCell ref="X19:AC19"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="O2:AP3"/>
+    <mergeCell ref="AF7:AM7"/>
+    <mergeCell ref="Q10:S11"/>
+    <mergeCell ref="P5:T5"/>
     <mergeCell ref="X59:AC59"/>
     <mergeCell ref="F25:J26"/>
     <mergeCell ref="F20:J21"/>
@@ -10747,18 +9804,10 @@
     <mergeCell ref="AF40:AM40"/>
     <mergeCell ref="AF37:AM37"/>
     <mergeCell ref="F47:J48"/>
-    <mergeCell ref="AR8:AX9"/>
-    <mergeCell ref="AR17:AX18"/>
-    <mergeCell ref="X19:AC19"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="O2:AP3"/>
-    <mergeCell ref="AF7:AM7"/>
     <mergeCell ref="AF53:AM53"/>
     <mergeCell ref="AF55:AM55"/>
     <mergeCell ref="X35:AC35"/>
     <mergeCell ref="P45:T45"/>
-    <mergeCell ref="Q10:S11"/>
-    <mergeCell ref="P5:T5"/>
     <mergeCell ref="O54:T54"/>
   </mergeCells>
   <phoneticPr fontId="4"/>

--- a/maraSonSouce/marasong_memo.xlsx
+++ b/maraSonSouce/marasong_memo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hqu666/Documents/Develop/an/workSpace/maraSong/maraSonSouce/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD1A76D-C7DC-074E-86F5-97E12B82449E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F28751B-8021-284F-A258-9473E529D63A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8180" yWindow="-18080" windowWidth="26760" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="252">
   <si>
     <t>MuList</t>
   </si>
@@ -723,10 +723,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>全曲リスト更新</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>設定表示</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -763,10 +759,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>syoki_Yomikomi:</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>shigot_bangou =reTryMse;				//全曲リスト作成から戻ってメッセージ表示</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -784,10 +776,6 @@
   </si>
   <si>
     <t>パーミッション確認　──────────────────────────────────────────</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>readPref　──────────────────────────────────────────</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -843,10 +831,6 @@
   </si>
   <si>
     <t>│</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>┼──────────────────────────────────────────</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -907,10 +891,6 @@
   </si>
   <si>
     <t>┬──────</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>getItems　←──────────────────────────────────────────────────────────────────────────────────</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1273,15 +1253,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>mItems = getAllSongItems();</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>CreatePLListEnd</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>CreatePLListEnd　←──────────────────────────────────────────────</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1381,6 +1353,144 @@
   </si>
   <si>
     <t>└───────────────────────────────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>makePlayListSPN(sousalistName);		//プレイリストスピナーを作成する</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>getAllSongItems()</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>getAllSongItems　─────────────────────────────────────────────────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>getItems　──────────────────────────────────────────────────────────────────────────────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>return myItems</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>←取得できなければ</t>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">シュトクデキナケレバ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>syoki_Yomikomi:   //全曲リスト更新</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>artistList_yomikomiEnd</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>sousinnMaeSyori</t>
+  </si>
+  <si>
+    <t>├──────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BroadcastReceiver</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>mItems == null</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>makePlayListSPN(sousalistName);　─────────────────────────────────────────────────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>mItems == null　───────────────────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>┴──────────────────────────────────────────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>readSaikinTuikaDB</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>再生中のアイテムを取り直して</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">サイセイチュウノ </t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">トリナオシテ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>リストを全曲に</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ゼンキョクニ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>作り直し　─────────────────────────────────────────────────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>↑</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>┼←──────────────────────────────────────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>readPref　────────────────────────────────────────────────────────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>shyuuseiuList</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>contextTitile != null　─────────────────────────────────────────────────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>┥</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>←──────────────────────────────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CONTEXT_saikintuika_Wr　</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CreatePLList</t>
+  </si>
+  <si>
+    <t>plAL != null</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>←──────────────────────────────────────────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>siteiListSakusi</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>指定された名称のリストを作成する</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2107,13 +2217,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>219363</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2326,76 +2436,15 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>80818</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>69273</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>184727</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>161636</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="円/楕円 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A748353-3C71-7B42-9106-7292812DE6B5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7643091" y="1524000"/>
-          <a:ext cx="103909" cy="92363"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>67</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>57725</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>23091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>67</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>146625</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>124691</xdr:rowOff>
@@ -2433,13 +2482,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>68</xdr:col>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>80819</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>57727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>68</xdr:col>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>169719</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>159327</xdr:rowOff>
@@ -2775,10 +2824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:AX129"/>
+  <dimension ref="C2:AY124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S96" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AH125" sqref="AH125"/>
+    <sheetView tabSelected="1" topLeftCell="D90" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AA123" sqref="AA123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -2789,20 +2838,20 @@
     <col min="8" max="8" width="29.6640625" customWidth="1"/>
     <col min="9" max="18" width="2.1640625" customWidth="1"/>
     <col min="19" max="19" width="29.1640625" customWidth="1"/>
-    <col min="20" max="27" width="3" customWidth="1"/>
-    <col min="28" max="28" width="26.83203125" customWidth="1"/>
-    <col min="29" max="37" width="2.83203125" customWidth="1"/>
-    <col min="38" max="38" width="22.6640625" customWidth="1"/>
-    <col min="39" max="39" width="2" customWidth="1"/>
-    <col min="40" max="41" width="2.1640625" customWidth="1"/>
-    <col min="42" max="45" width="2.33203125" customWidth="1"/>
-    <col min="46" max="46" width="1.83203125" customWidth="1"/>
-    <col min="47" max="47" width="2.5" customWidth="1"/>
-    <col min="48" max="48" width="29.1640625" customWidth="1"/>
-    <col min="49" max="52" width="2.5" customWidth="1"/>
+    <col min="20" max="28" width="3" customWidth="1"/>
+    <col min="29" max="29" width="26.83203125" customWidth="1"/>
+    <col min="30" max="38" width="2.83203125" customWidth="1"/>
+    <col min="39" max="39" width="22.6640625" customWidth="1"/>
+    <col min="40" max="40" width="2" customWidth="1"/>
+    <col min="41" max="42" width="2.1640625" customWidth="1"/>
+    <col min="43" max="46" width="2.33203125" customWidth="1"/>
+    <col min="47" max="47" width="1.83203125" customWidth="1"/>
+    <col min="48" max="48" width="2.5" customWidth="1"/>
+    <col min="49" max="49" width="29.1640625" customWidth="1"/>
+    <col min="50" max="53" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="15:50" ht="16" customHeight="1">
+    <row r="2" spans="15:51" ht="16" customHeight="1">
       <c r="O2" s="117" t="s">
         <v>0</v>
       </c>
@@ -2832,9 +2881,10 @@
       <c r="AM2" s="118"/>
       <c r="AN2" s="118"/>
       <c r="AO2" s="118"/>
-      <c r="AP2" s="119"/>
-    </row>
-    <row r="3" spans="15:50" ht="16" customHeight="1">
+      <c r="AP2" s="118"/>
+      <c r="AQ2" s="119"/>
+    </row>
+    <row r="3" spans="15:51" ht="16" customHeight="1">
       <c r="O3" s="120"/>
       <c r="P3" s="96"/>
       <c r="Q3" s="96"/>
@@ -2862,9 +2912,10 @@
       <c r="AM3" s="96"/>
       <c r="AN3" s="96"/>
       <c r="AO3" s="96"/>
-      <c r="AP3" s="121"/>
-    </row>
-    <row r="4" spans="15:50" ht="16" customHeight="1">
+      <c r="AP3" s="96"/>
+      <c r="AQ3" s="121"/>
+    </row>
+    <row r="4" spans="15:51" ht="16" customHeight="1">
       <c r="O4" s="4"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
@@ -2892,9 +2943,10 @@
       <c r="AM4" s="5"/>
       <c r="AN4" s="5"/>
       <c r="AO4" s="5"/>
-      <c r="AP4" s="6"/>
-    </row>
-    <row r="5" spans="15:50" ht="16" customHeight="1">
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="6"/>
+    </row>
+    <row r="5" spans="15:51" ht="16" customHeight="1">
       <c r="O5" s="4"/>
       <c r="P5" s="99" t="s">
         <v>1</v>
@@ -2924,13 +2976,14 @@
       <c r="AM5" s="5"/>
       <c r="AN5" s="5"/>
       <c r="AO5" s="5"/>
-      <c r="AP5" s="6"/>
-    </row>
-    <row r="6" spans="15:50" ht="16" customHeight="1">
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="6"/>
+    </row>
+    <row r="6" spans="15:51" ht="16" customHeight="1">
       <c r="O6" s="4"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -2938,18 +2991,19 @@
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
-      <c r="X6" s="16" t="s">
+      <c r="X6" s="5"/>
+      <c r="Y6" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="Y6" s="17"/>
       <c r="Z6" s="17"/>
       <c r="AA6" s="17"/>
       <c r="AB6" s="17"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="22"/>
-      <c r="AP6" s="5"/>
-    </row>
-    <row r="7" spans="15:50" ht="16" customHeight="1">
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="22"/>
+      <c r="AQ6" s="5"/>
+    </row>
+    <row r="7" spans="15:51" ht="16" customHeight="1">
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="5" t="s">
@@ -2961,30 +3015,31 @@
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="5"/>
-      <c r="AF7" s="123" t="s">
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="5"/>
+      <c r="AG7" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="AG7" s="124"/>
       <c r="AH7" s="124"/>
       <c r="AI7" s="124"/>
       <c r="AJ7" s="124"/>
       <c r="AK7" s="124"/>
       <c r="AL7" s="124"/>
-      <c r="AM7" s="125"/>
-      <c r="AN7" s="22"/>
+      <c r="AM7" s="124"/>
+      <c r="AN7" s="125"/>
       <c r="AO7" s="22"/>
-      <c r="AP7" s="5"/>
-    </row>
-    <row r="8" spans="15:50" ht="16" customHeight="1">
+      <c r="AP7" s="22"/>
+      <c r="AQ7" s="5"/>
+    </row>
+    <row r="8" spans="15:51" ht="16" customHeight="1">
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="5" t="s">
@@ -2996,38 +3051,39 @@
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
-      <c r="X8" s="2"/>
-      <c r="Z8" s="7" t="s">
+      <c r="X8" s="5"/>
+      <c r="Y8" s="2"/>
+      <c r="AA8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AA8" s="7"/>
       <c r="AB8" s="7"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="5"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="5" t="s">
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="5"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AH8" s="5"/>
       <c r="AI8" s="5"/>
       <c r="AJ8" s="5"/>
       <c r="AK8" s="5"/>
       <c r="AL8" s="5"/>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="6"/>
       <c r="AO8" s="5"/>
       <c r="AP8" s="5"/>
-      <c r="AR8" s="117" t="s">
+      <c r="AQ8" s="5"/>
+      <c r="AS8" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="AS8" s="118"/>
       <c r="AT8" s="118"/>
       <c r="AU8" s="118"/>
       <c r="AV8" s="118"/>
       <c r="AW8" s="118"/>
-      <c r="AX8" s="119"/>
-    </row>
-    <row r="9" spans="15:50" ht="16" customHeight="1">
+      <c r="AX8" s="118"/>
+      <c r="AY8" s="119"/>
+    </row>
+    <row r="9" spans="15:51" ht="16" customHeight="1">
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="5"/>
@@ -3038,36 +3094,37 @@
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
-      <c r="Y9" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="Z9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="7"/>
+      <c r="AE9" s="5"/>
+      <c r="AG9" s="2"/>
       <c r="AH9" s="7"/>
       <c r="AI9" s="7"/>
       <c r="AJ9" s="7"/>
       <c r="AK9" s="7"/>
-      <c r="AL9" s="7" t="s">
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="5"/>
+      <c r="AN9" s="3"/>
       <c r="AO9" s="5"/>
       <c r="AP9" s="5"/>
-      <c r="AR9" s="120"/>
-      <c r="AS9" s="96"/>
+      <c r="AQ9" s="5"/>
+      <c r="AS9" s="120"/>
       <c r="AT9" s="96"/>
       <c r="AU9" s="96"/>
       <c r="AV9" s="96"/>
       <c r="AW9" s="96"/>
-      <c r="AX9" s="121"/>
-    </row>
-    <row r="10" spans="15:50" ht="16" customHeight="1">
+      <c r="AX9" s="96"/>
+      <c r="AY9" s="121"/>
+    </row>
+    <row r="10" spans="15:51" ht="16" customHeight="1">
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="126" t="s">
@@ -3079,25 +3136,26 @@
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
-      <c r="Y10" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE10" s="22"/>
+      <c r="X10" s="5"/>
+      <c r="Z10" t="s">
+        <v>134</v>
+      </c>
       <c r="AF10" s="22"/>
       <c r="AG10" s="22"/>
-      <c r="AH10" s="66"/>
+      <c r="AH10" s="22"/>
       <c r="AI10" s="66"/>
       <c r="AJ10" s="66"/>
       <c r="AK10" s="66"/>
-      <c r="AL10" s="22"/>
+      <c r="AL10" s="66"/>
       <c r="AM10" s="22"/>
       <c r="AN10" s="22"/>
       <c r="AO10" s="22"/>
-      <c r="AP10" s="21"/>
-      <c r="AR10" s="4"/>
-      <c r="AX10" s="6"/>
-    </row>
-    <row r="11" spans="15:50" ht="16" customHeight="1">
+      <c r="AP10" s="22"/>
+      <c r="AQ10" s="21"/>
+      <c r="AS10" s="4"/>
+      <c r="AY10" s="6"/>
+    </row>
+    <row r="11" spans="15:51" ht="16" customHeight="1">
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="126"/>
@@ -3107,16 +3165,16 @@
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
-      <c r="X11" s="70" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y11" s="71"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="70" t="s">
+        <v>241</v>
+      </c>
       <c r="Z11" s="71"/>
       <c r="AA11" s="71"/>
       <c r="AB11" s="71"/>
-      <c r="AC11" s="72"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="5"/>
+      <c r="AC11" s="71"/>
+      <c r="AD11" s="72"/>
+      <c r="AE11" s="20"/>
       <c r="AF11" s="5"/>
       <c r="AG11" s="5"/>
       <c r="AH11" s="5"/>
@@ -3128,17 +3186,18 @@
       <c r="AN11" s="5"/>
       <c r="AO11" s="5"/>
       <c r="AP11" s="5"/>
-      <c r="AR11" s="4"/>
-      <c r="AS11" s="99" t="s">
+      <c r="AQ11" s="5"/>
+      <c r="AS11" s="4"/>
+      <c r="AT11" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="AT11" s="100"/>
       <c r="AU11" s="100"/>
       <c r="AV11" s="100"/>
-      <c r="AW11" s="101"/>
-      <c r="AX11" s="6"/>
-    </row>
-    <row r="12" spans="15:50" ht="16" customHeight="1">
+      <c r="AW11" s="100"/>
+      <c r="AX11" s="101"/>
+      <c r="AY11" s="6"/>
+    </row>
+    <row r="12" spans="15:51" ht="16" customHeight="1">
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="65"/>
@@ -3148,16 +3207,16 @@
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="69" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z12" s="62"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="69" t="s">
+        <v>136</v>
+      </c>
       <c r="AA12" s="62"/>
       <c r="AB12" s="62"/>
-      <c r="AC12" s="68"/>
-      <c r="AD12" s="62"/>
-      <c r="AE12" s="5"/>
+      <c r="AC12" s="62"/>
+      <c r="AD12" s="68"/>
+      <c r="AE12" s="62"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
       <c r="AH12" s="5"/>
@@ -3169,16 +3228,17 @@
       <c r="AN12" s="5"/>
       <c r="AO12" s="5"/>
       <c r="AP12" s="5"/>
-      <c r="AR12" s="4"/>
-      <c r="AT12" s="1" t="s">
+      <c r="AQ12" s="5"/>
+      <c r="AS12" s="4"/>
+      <c r="AU12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AU12" s="1"/>
       <c r="AV12" s="1"/>
-      <c r="AW12" s="6"/>
+      <c r="AW12" s="1"/>
       <c r="AX12" s="6"/>
-    </row>
-    <row r="13" spans="15:50" ht="16" customHeight="1">
+      <c r="AY12" s="6"/>
+    </row>
+    <row r="13" spans="15:51" ht="16" customHeight="1">
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="65"/>
@@ -3188,20 +3248,20 @@
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z13" s="62"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="AA13" s="62"/>
       <c r="AB13" s="62"/>
-      <c r="AC13" s="68"/>
-      <c r="AD13" s="62"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="62" t="s">
+      <c r="AC13" s="62"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="62"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="AG13" s="5"/>
       <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
       <c r="AJ13" s="5"/>
@@ -3211,17 +3271,18 @@
       <c r="AN13" s="5"/>
       <c r="AO13" s="5"/>
       <c r="AP13" s="5"/>
-      <c r="AR13" s="4"/>
+      <c r="AQ13" s="5"/>
       <c r="AS13" s="4"/>
-      <c r="AT13" s="5" t="s">
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AU13" s="5"/>
       <c r="AV13" s="5"/>
-      <c r="AW13" s="6"/>
+      <c r="AW13" s="5"/>
       <c r="AX13" s="6"/>
-    </row>
-    <row r="14" spans="15:50" ht="16" customHeight="1">
+      <c r="AY13" s="6"/>
+    </row>
+    <row r="14" spans="15:51" ht="16" customHeight="1">
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="5"/>
@@ -3230,18 +3291,18 @@
       <c r="T14" s="6"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="W14" s="5"/>
-      <c r="X14" s="11"/>
-      <c r="Z14" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA14" s="1"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="11"/>
+      <c r="AA14" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="AB14" s="1"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="5"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="19"/>
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
@@ -3253,17 +3314,18 @@
       <c r="AN14" s="5"/>
       <c r="AO14" s="5"/>
       <c r="AP14" s="5"/>
-      <c r="AR14" s="4"/>
-      <c r="AS14" s="2"/>
-      <c r="AT14" s="7"/>
-      <c r="AU14" s="7" t="s">
+      <c r="AQ14" s="5"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="7"/>
+      <c r="AV14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="AV14" s="7"/>
-      <c r="AW14" s="3"/>
-      <c r="AX14" s="6"/>
-    </row>
-    <row r="15" spans="15:50" ht="16" customHeight="1">
+      <c r="AW14" s="7"/>
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="6"/>
+    </row>
+    <row r="15" spans="15:51" ht="16" customHeight="1">
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="5" t="s">
@@ -3274,17 +3336,17 @@
       <c r="T15" s="6"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="W15" s="5"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="AB15" s="5"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="6"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
@@ -3297,15 +3359,16 @@
       <c r="AN15" s="5"/>
       <c r="AO15" s="5"/>
       <c r="AP15" s="5"/>
-      <c r="AR15" s="2"/>
-      <c r="AS15" s="7"/>
+      <c r="AQ15" s="5"/>
+      <c r="AS15" s="2"/>
       <c r="AT15" s="7"/>
       <c r="AU15" s="7"/>
       <c r="AV15" s="7"/>
       <c r="AW15" s="7"/>
-      <c r="AX15" s="3"/>
-    </row>
-    <row r="16" spans="15:50" ht="16" customHeight="1">
+      <c r="AX15" s="7"/>
+      <c r="AY15" s="3"/>
+    </row>
+    <row r="16" spans="15:51" ht="16" customHeight="1">
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="5"/>
@@ -3314,20 +3377,20 @@
       <c r="T16" s="6"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="W16" s="5"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5" t="s">
-        <v>142</v>
-      </c>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="5"/>
       <c r="AA16" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="6"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
@@ -3339,9 +3402,10 @@
       <c r="AM16" s="5"/>
       <c r="AN16" s="5"/>
       <c r="AO16" s="5"/>
-      <c r="AP16" s="19"/>
-    </row>
-    <row r="17" spans="3:50" ht="16" customHeight="1">
+      <c r="AP16" s="5"/>
+      <c r="AQ16" s="19"/>
+    </row>
+    <row r="17" spans="3:51" ht="16" customHeight="1">
       <c r="O17" s="4"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="7"/>
@@ -3350,18 +3414,18 @@
       <c r="T17" s="3"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="W17" s="5"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA17" s="7"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AB17" s="7"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="5"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="3"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
@@ -3373,18 +3437,19 @@
       <c r="AM17" s="5"/>
       <c r="AN17" s="5"/>
       <c r="AO17" s="5"/>
-      <c r="AP17" s="19"/>
-      <c r="AR17" s="117" t="s">
+      <c r="AP17" s="5"/>
+      <c r="AQ17" s="19"/>
+      <c r="AS17" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="AS17" s="118"/>
       <c r="AT17" s="118"/>
       <c r="AU17" s="118"/>
       <c r="AV17" s="118"/>
       <c r="AW17" s="118"/>
-      <c r="AX17" s="119"/>
-    </row>
-    <row r="18" spans="3:50" ht="16" customHeight="1">
+      <c r="AX17" s="118"/>
+      <c r="AY17" s="119"/>
+    </row>
+    <row r="18" spans="3:51" ht="16" customHeight="1">
       <c r="O18" s="4"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -3393,13 +3458,13 @@
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="W18" s="5"/>
-      <c r="Z18" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE18" s="19"/>
+      <c r="X18" s="5"/>
+      <c r="AA18" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
       <c r="AH18" s="19"/>
@@ -3410,16 +3475,17 @@
       <c r="AM18" s="19"/>
       <c r="AN18" s="19"/>
       <c r="AO18" s="19"/>
-      <c r="AP18" s="5"/>
-      <c r="AR18" s="120"/>
-      <c r="AS18" s="96"/>
+      <c r="AP18" s="19"/>
+      <c r="AQ18" s="5"/>
+      <c r="AS18" s="120"/>
       <c r="AT18" s="96"/>
       <c r="AU18" s="96"/>
       <c r="AV18" s="96"/>
       <c r="AW18" s="96"/>
-      <c r="AX18" s="121"/>
-    </row>
-    <row r="19" spans="3:50" ht="16" customHeight="1">
+      <c r="AX18" s="96"/>
+      <c r="AY18" s="121"/>
+    </row>
+    <row r="19" spans="3:51" ht="16" customHeight="1">
       <c r="O19" s="4"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
@@ -3427,19 +3493,19 @@
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="W19" s="5"/>
-      <c r="X19" s="122" t="s">
+      <c r="X19" s="5"/>
+      <c r="Y19" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="Y19" s="122"/>
       <c r="Z19" s="122"/>
       <c r="AA19" s="122"/>
       <c r="AB19" s="122"/>
       <c r="AC19" s="122"/>
-      <c r="AD19" s="23"/>
-      <c r="AE19" s="19"/>
+      <c r="AD19" s="122"/>
+      <c r="AE19" s="23"/>
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="19"/>
@@ -3450,16 +3516,17 @@
       <c r="AM19" s="19"/>
       <c r="AN19" s="19"/>
       <c r="AO19" s="19"/>
-      <c r="AP19" s="5"/>
-      <c r="AR19" s="4"/>
-      <c r="AS19" s="5"/>
+      <c r="AP19" s="19"/>
+      <c r="AQ19" s="5"/>
+      <c r="AS19" s="4"/>
       <c r="AT19" s="5"/>
       <c r="AU19" s="5"/>
       <c r="AV19" s="5"/>
       <c r="AW19" s="5"/>
-      <c r="AX19" s="6"/>
-    </row>
-    <row r="20" spans="3:50" ht="16" customHeight="1">
+      <c r="AX19" s="5"/>
+      <c r="AY19" s="6"/>
+    </row>
+    <row r="20" spans="3:51" ht="16" customHeight="1">
       <c r="C20" s="59"/>
       <c r="D20" s="59"/>
       <c r="E20" s="59"/>
@@ -3482,14 +3549,14 @@
       <c r="T20" s="33"/>
       <c r="U20" s="5"/>
       <c r="V20" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
-      <c r="Y20" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
@@ -3505,22 +3572,23 @@
       <c r="AM20" s="5"/>
       <c r="AN20" s="5"/>
       <c r="AO20" s="5"/>
-      <c r="AP20" t="s">
-        <v>154</v>
-      </c>
-      <c r="AR20" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AS20" s="99" t="s">
+      <c r="AP20" s="5"/>
+      <c r="AQ20" t="s">
+        <v>150</v>
+      </c>
+      <c r="AS20" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT20" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="AT20" s="100"/>
       <c r="AU20" s="100"/>
       <c r="AV20" s="100"/>
-      <c r="AW20" s="101"/>
-      <c r="AX20" s="6"/>
-    </row>
-    <row r="21" spans="3:50" ht="16" customHeight="1">
+      <c r="AW20" s="100"/>
+      <c r="AX20" s="101"/>
+      <c r="AY20" s="6"/>
+    </row>
+    <row r="21" spans="3:51" ht="16" customHeight="1">
       <c r="C21" s="59"/>
       <c r="D21" s="59"/>
       <c r="E21" s="59"/>
@@ -3541,7 +3609,7 @@
       <c r="T21" s="35"/>
       <c r="U21" s="5"/>
       <c r="V21" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
@@ -3551,30 +3619,31 @@
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
-      <c r="AP21" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AR21" s="4"/>
-      <c r="AS21" s="11"/>
-      <c r="AT21" s="5" t="s">
+      <c r="AE21" s="5"/>
+      <c r="AQ21" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS21" s="4"/>
+      <c r="AT21" s="11"/>
+      <c r="AU21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AU21" s="5"/>
       <c r="AV21" s="5"/>
-      <c r="AW21" s="8"/>
-      <c r="AX21" s="6"/>
-    </row>
-    <row r="22" spans="3:50" ht="16" customHeight="1">
+      <c r="AW21" s="5"/>
+      <c r="AX21" s="8"/>
+      <c r="AY21" s="6"/>
+    </row>
+    <row r="22" spans="3:51" ht="16" customHeight="1">
       <c r="H22" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="O22" s="4"/>
       <c r="P22" s="34"/>
       <c r="Q22" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="R22" s="5" t="s">
         <v>21</v>
@@ -3583,58 +3652,59 @@
       <c r="T22" s="35"/>
       <c r="U22" s="5"/>
       <c r="V22" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="W22" s="5"/>
-      <c r="AE22" s="23"/>
+      <c r="X22" s="5"/>
       <c r="AF22" s="23"/>
       <c r="AG22" s="23"/>
-      <c r="AH22" s="60"/>
+      <c r="AH22" s="23"/>
       <c r="AI22" s="60"/>
       <c r="AJ22" s="60"/>
       <c r="AK22" s="60"/>
-      <c r="AL22" s="23"/>
+      <c r="AL22" s="60"/>
       <c r="AM22" s="23"/>
       <c r="AN22" s="23"/>
-      <c r="AO22" s="29"/>
-      <c r="AP22" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AR22" s="4"/>
+      <c r="AO22" s="23"/>
+      <c r="AP22" s="29"/>
+      <c r="AQ22" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AS22" s="4"/>
-      <c r="AT22" s="1" t="s">
+      <c r="AT22" s="4"/>
+      <c r="AU22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AU22" s="1"/>
       <c r="AV22" s="1"/>
-      <c r="AW22" s="6"/>
+      <c r="AW22" s="1"/>
       <c r="AX22" s="6"/>
-    </row>
-    <row r="23" spans="3:50" ht="16" customHeight="1">
+      <c r="AY22" s="6"/>
+    </row>
+    <row r="23" spans="3:51" ht="16" customHeight="1">
       <c r="L23" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O23" s="4"/>
       <c r="P23" s="36"/>
       <c r="Q23" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="R23" s="37" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="S23" s="37"/>
       <c r="T23" s="38"/>
       <c r="V23" s="5"/>
-      <c r="X23" s="102" t="s">
+      <c r="W23" s="5"/>
+      <c r="Y23" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="Y23" s="103"/>
       <c r="Z23" s="103"/>
       <c r="AA23" s="103"/>
       <c r="AB23" s="103"/>
-      <c r="AC23" s="104"/>
-      <c r="AD23" s="46"/>
-      <c r="AE23" s="9"/>
+      <c r="AC23" s="103"/>
+      <c r="AD23" s="104"/>
+      <c r="AE23" s="46"/>
       <c r="AF23" s="9"/>
       <c r="AG23" s="9"/>
       <c r="AH23" s="9"/>
@@ -3645,42 +3715,43 @@
       <c r="AM23" s="9"/>
       <c r="AN23" s="9"/>
       <c r="AO23" s="9"/>
-      <c r="AP23" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AR23" s="4"/>
+      <c r="AP23" s="9"/>
+      <c r="AQ23" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AS23" s="4"/>
-      <c r="AT23" s="5"/>
-      <c r="AU23" s="5" t="s">
+      <c r="AT23" s="4"/>
+      <c r="AU23" s="5"/>
+      <c r="AV23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AV23" s="5"/>
-      <c r="AW23" s="6"/>
+      <c r="AW23" s="5"/>
       <c r="AX23" s="6"/>
-    </row>
-    <row r="24" spans="3:50" ht="16" customHeight="1">
+      <c r="AY23" s="6"/>
+    </row>
+    <row r="24" spans="3:51" ht="16" customHeight="1">
       <c r="L24" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O24" s="4"/>
       <c r="Q24" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="U24" s="5"/>
       <c r="V24" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="W24" s="5"/>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="40" t="s">
+      <c r="X24" s="5"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="Z24" s="40"/>
       <c r="AA24" s="40"/>
       <c r="AB24" s="40"/>
-      <c r="AC24" s="41"/>
-      <c r="AD24" s="40"/>
-      <c r="AE24" s="10"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="41"/>
+      <c r="AE24" s="40"/>
       <c r="AF24" s="10"/>
       <c r="AG24" s="10"/>
       <c r="AH24" s="10"/>
@@ -3691,20 +3762,21 @@
       <c r="AM24" s="10"/>
       <c r="AN24" s="10"/>
       <c r="AO24" s="10"/>
-      <c r="AP24" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AR24" s="4"/>
+      <c r="AP24" s="10"/>
+      <c r="AQ24" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AS24" s="4"/>
-      <c r="AT24" s="5"/>
+      <c r="AT24" s="4"/>
       <c r="AU24" s="5"/>
-      <c r="AV24" s="5" t="s">
+      <c r="AV24" s="5"/>
+      <c r="AW24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AW24" s="6"/>
       <c r="AX24" s="6"/>
-    </row>
-    <row r="25" spans="3:50" ht="16" customHeight="1">
+      <c r="AY24" s="6"/>
+    </row>
+    <row r="25" spans="3:51" ht="16" customHeight="1">
       <c r="F25" s="92" t="s">
         <v>27</v>
       </c>
@@ -3713,7 +3785,7 @@
       <c r="I25" s="93"/>
       <c r="J25" s="94"/>
       <c r="L25" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O25" s="4"/>
       <c r="P25" s="63" t="s">
@@ -3724,21 +3796,21 @@
       <c r="S25" s="64"/>
       <c r="T25" s="56"/>
       <c r="V25" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="W25" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="AA25" s="40"/>
       <c r="AB25" s="40"/>
-      <c r="AC25" s="41"/>
-      <c r="AD25" s="40"/>
-      <c r="AE25" s="5"/>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="41"/>
+      <c r="AE25" s="40"/>
       <c r="AF25" s="5"/>
       <c r="AG25" s="5"/>
       <c r="AH25" s="5"/>
@@ -3749,20 +3821,21 @@
       <c r="AM25" s="5"/>
       <c r="AN25" s="5"/>
       <c r="AO25" s="5"/>
-      <c r="AP25" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AR25" s="4"/>
+      <c r="AP25" s="5"/>
+      <c r="AQ25" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AS25" s="4"/>
-      <c r="AT25" s="5"/>
-      <c r="AU25" s="5" t="s">
+      <c r="AT25" s="4"/>
+      <c r="AU25" s="5"/>
+      <c r="AV25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AV25" s="5"/>
-      <c r="AW25" s="6"/>
+      <c r="AW25" s="5"/>
       <c r="AX25" s="6"/>
-    </row>
-    <row r="26" spans="3:50" ht="16" customHeight="1">
+      <c r="AY25" s="6"/>
+    </row>
+    <row r="26" spans="3:51" ht="16" customHeight="1">
       <c r="F26" s="95"/>
       <c r="G26" s="96"/>
       <c r="H26" s="96"/>
@@ -3770,7 +3843,7 @@
       <c r="J26" s="97"/>
       <c r="K26" s="59"/>
       <c r="L26" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="O26" s="4"/>
       <c r="P26" s="34"/>
@@ -3782,21 +3855,21 @@
       <c r="T26" s="67"/>
       <c r="U26" s="27"/>
       <c r="V26" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="W26" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="X26" s="39"/>
-      <c r="Y26" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="Z26" s="40"/>
       <c r="AA26" s="40"/>
       <c r="AB26" s="40"/>
-      <c r="AC26" s="41"/>
-      <c r="AD26" s="40"/>
-      <c r="AE26" s="5"/>
+      <c r="AC26" s="40"/>
+      <c r="AD26" s="41"/>
+      <c r="AE26" s="40"/>
       <c r="AF26" s="5"/>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
@@ -3807,24 +3880,25 @@
       <c r="AM26" s="5"/>
       <c r="AN26" s="5"/>
       <c r="AO26" s="5"/>
-      <c r="AP26" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AR26" s="14"/>
-      <c r="AS26" s="24"/>
-      <c r="AT26" s="7"/>
-      <c r="AU26" s="7" t="s">
+      <c r="AP26" s="5"/>
+      <c r="AQ26" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS26" s="14"/>
+      <c r="AT26" s="24"/>
+      <c r="AU26" s="7"/>
+      <c r="AV26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AV26" s="7"/>
-      <c r="AW26" s="25"/>
-      <c r="AX26" s="15"/>
-    </row>
-    <row r="27" spans="3:50" ht="16" customHeight="1">
+      <c r="AW26" s="7"/>
+      <c r="AX26" s="25"/>
+      <c r="AY26" s="15"/>
+    </row>
+    <row r="27" spans="3:51" ht="16" customHeight="1">
       <c r="E27" s="59"/>
       <c r="F27" s="36"/>
       <c r="G27" s="78" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H27" s="76"/>
       <c r="I27" s="76"/>
@@ -3840,91 +3914,94 @@
       <c r="S27" s="37"/>
       <c r="T27" s="38"/>
       <c r="V27" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="W27" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="40"/>
+      <c r="AA27" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="AA27" s="40"/>
       <c r="AB27" s="40"/>
-      <c r="AC27" s="41"/>
-      <c r="AD27" s="40"/>
-      <c r="AP27" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AR27" s="4"/>
-      <c r="AS27" s="5"/>
+      <c r="AC27" s="40"/>
+      <c r="AD27" s="41"/>
+      <c r="AE27" s="40"/>
+      <c r="AQ27" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS27" s="4"/>
       <c r="AT27" s="5"/>
       <c r="AU27" s="5"/>
       <c r="AV27" s="5"/>
       <c r="AW27" s="5"/>
-      <c r="AX27" s="6"/>
-    </row>
-    <row r="28" spans="3:50" ht="16" customHeight="1">
+      <c r="AX27" s="5"/>
+      <c r="AY27" s="6"/>
+    </row>
+    <row r="28" spans="3:51" ht="16" customHeight="1">
       <c r="O28" s="4"/>
       <c r="V28" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="W28" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="X28" s="39"/>
-      <c r="Y28" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="Z28" s="40"/>
       <c r="AA28" s="40"/>
       <c r="AB28" s="40"/>
-      <c r="AC28" s="41"/>
-      <c r="AD28" s="40"/>
-      <c r="AP28" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AR28" s="2"/>
-      <c r="AS28" s="7"/>
+      <c r="AC28" s="40"/>
+      <c r="AD28" s="41"/>
+      <c r="AE28" s="40"/>
+      <c r="AQ28" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS28" s="2"/>
       <c r="AT28" s="7"/>
       <c r="AU28" s="7"/>
       <c r="AV28" s="7"/>
       <c r="AW28" s="7"/>
-      <c r="AX28" s="3"/>
-    </row>
-    <row r="29" spans="3:50" ht="16" customHeight="1">
+      <c r="AX28" s="7"/>
+      <c r="AY28" s="3"/>
+    </row>
+    <row r="29" spans="3:51" ht="16" customHeight="1">
       <c r="O29" s="4"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
       <c r="V29" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="W29" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="X29" s="39"/>
-      <c r="Y29" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="Z29" s="40"/>
       <c r="AA29" s="40"/>
       <c r="AB29" s="40"/>
-      <c r="AC29" s="41"/>
-      <c r="AD29" s="40"/>
-      <c r="AP29" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AR29" s="5"/>
+      <c r="AC29" s="40"/>
+      <c r="AD29" s="41"/>
+      <c r="AE29" s="40"/>
+      <c r="AQ29" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AS29" s="5"/>
       <c r="AT29" s="5"/>
       <c r="AU29" s="5"/>
       <c r="AV29" s="5"/>
       <c r="AW29" s="5"/>
       <c r="AX29" s="5"/>
-    </row>
-    <row r="30" spans="3:50" ht="16" customHeight="1">
+      <c r="AY29" s="5"/>
+    </row>
+    <row r="30" spans="3:51" ht="16" customHeight="1">
       <c r="O30" s="4"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
@@ -3933,403 +4010,420 @@
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="W30" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="Z30" s="40"/>
       <c r="AA30" s="40"/>
       <c r="AB30" s="40"/>
-      <c r="AC30" s="41"/>
-      <c r="AD30" s="40"/>
-      <c r="AP30" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AR30" s="5"/>
+      <c r="AC30" s="40"/>
+      <c r="AD30" s="41"/>
+      <c r="AE30" s="40"/>
+      <c r="AQ30" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AS30" s="5"/>
       <c r="AT30" s="5"/>
       <c r="AU30" s="5"/>
       <c r="AV30" s="5"/>
       <c r="AW30" s="5"/>
       <c r="AX30" s="5"/>
-    </row>
-    <row r="31" spans="3:50" ht="16" customHeight="1">
+      <c r="AY30" s="5"/>
+    </row>
+    <row r="31" spans="3:51" ht="16" customHeight="1">
       <c r="V31" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="W31" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="X31" s="39"/>
-      <c r="Y31" s="40"/>
-      <c r="Z31" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y31" s="39"/>
+      <c r="Z31" s="40"/>
+      <c r="AA31" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="AA31" s="40"/>
       <c r="AB31" s="40"/>
-      <c r="AC31" s="41"/>
-      <c r="AD31" s="40"/>
-      <c r="AP31" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AR31" s="5"/>
+      <c r="AC31" s="40"/>
+      <c r="AD31" s="41"/>
+      <c r="AE31" s="40"/>
+      <c r="AQ31" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AS31" s="5"/>
       <c r="AT31" s="5"/>
       <c r="AU31" s="5"/>
       <c r="AV31" s="5"/>
       <c r="AW31" s="5"/>
       <c r="AX31" s="5"/>
-    </row>
-    <row r="32" spans="3:50" ht="16" customHeight="1">
+      <c r="AY31" s="5"/>
+    </row>
+    <row r="32" spans="3:51" ht="16" customHeight="1">
       <c r="V32" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="W32" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="X32" s="39"/>
-      <c r="Y32" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="Z32" s="40"/>
       <c r="AA32" s="40"/>
       <c r="AB32" s="40"/>
-      <c r="AC32" s="41"/>
-      <c r="AD32" s="40"/>
-      <c r="AP32" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AR32" s="5"/>
+      <c r="AC32" s="40"/>
+      <c r="AD32" s="41"/>
+      <c r="AE32" s="40"/>
+      <c r="AQ32" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AS32" s="5"/>
       <c r="AT32" s="5"/>
       <c r="AU32" s="5"/>
       <c r="AV32" s="5"/>
       <c r="AW32" s="5"/>
       <c r="AX32" s="5"/>
-    </row>
-    <row r="33" spans="6:50" ht="16" customHeight="1">
+      <c r="AY32" s="5"/>
+    </row>
+    <row r="33" spans="6:51" ht="16" customHeight="1">
       <c r="V33" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="W33" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="X33" s="39"/>
-      <c r="Y33" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y33" s="39"/>
+      <c r="Z33" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="Z33" s="40"/>
       <c r="AA33" s="40"/>
       <c r="AB33" s="40"/>
-      <c r="AC33" s="41"/>
-      <c r="AD33" s="40"/>
-      <c r="AP33" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AR33" s="5"/>
+      <c r="AC33" s="40"/>
+      <c r="AD33" s="41"/>
+      <c r="AE33" s="40"/>
+      <c r="AQ33" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AS33" s="5"/>
       <c r="AT33" s="5"/>
       <c r="AU33" s="5"/>
       <c r="AV33" s="5"/>
       <c r="AW33" s="5"/>
       <c r="AX33" s="5"/>
-    </row>
-    <row r="34" spans="6:50" ht="16" customHeight="1">
+      <c r="AY33" s="5"/>
+    </row>
+    <row r="34" spans="6:51" ht="16" customHeight="1">
       <c r="V34" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="W34" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AP34" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AR34" s="5"/>
+        <v>140</v>
+      </c>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ34" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AS34" s="5"/>
       <c r="AT34" s="5"/>
       <c r="AU34" s="5"/>
       <c r="AV34" s="5"/>
       <c r="AW34" s="5"/>
       <c r="AX34" s="5"/>
-    </row>
-    <row r="35" spans="6:50" ht="16" customHeight="1">
+      <c r="AY34" s="5"/>
+    </row>
+    <row r="35" spans="6:51" ht="16" customHeight="1">
       <c r="V35" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="W35" t="s">
+        <v>140</v>
+      </c>
+      <c r="W35" s="5"/>
+      <c r="X35" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y35" s="111" t="s">
         <v>152</v>
       </c>
-      <c r="X35" s="111" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y35" s="112"/>
       <c r="Z35" s="112"/>
       <c r="AA35" s="112"/>
       <c r="AB35" s="112"/>
-      <c r="AC35" s="113"/>
-      <c r="AD35" s="22"/>
-      <c r="AE35" t="s">
+      <c r="AC35" s="112"/>
+      <c r="AD35" s="113"/>
+      <c r="AE35" s="22"/>
+      <c r="AF35" t="s">
         <v>45</v>
       </c>
-      <c r="AP35" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AR35" s="5"/>
+      <c r="AQ35" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AS35" s="5"/>
       <c r="AT35" s="5"/>
       <c r="AU35" s="5"/>
       <c r="AV35" s="5"/>
       <c r="AW35" s="5"/>
       <c r="AX35" s="5"/>
-    </row>
-    <row r="36" spans="6:50" ht="16" customHeight="1">
+      <c r="AY35" s="5"/>
+    </row>
+    <row r="36" spans="6:51" ht="16" customHeight="1">
       <c r="V36" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="5"/>
+        <v>140</v>
+      </c>
+      <c r="W36" s="5"/>
+      <c r="Y36" s="34"/>
       <c r="Z36" s="5"/>
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
-      <c r="AC36" s="35"/>
-      <c r="AP36" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AR36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="35"/>
+      <c r="AQ36" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AS36" s="5"/>
       <c r="AT36" s="5"/>
       <c r="AU36" s="5"/>
       <c r="AV36" s="5"/>
       <c r="AW36" s="5"/>
       <c r="AX36" s="5"/>
-    </row>
-    <row r="37" spans="6:50" ht="16" customHeight="1">
+      <c r="AY36" s="5"/>
+    </row>
+    <row r="37" spans="6:51" ht="16" customHeight="1">
       <c r="V37" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z37" s="5"/>
+        <v>140</v>
+      </c>
+      <c r="W37" s="5"/>
+      <c r="Y37" s="34"/>
+      <c r="Z37" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
-      <c r="AC37" s="35"/>
-      <c r="AF37" s="91" t="s">
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="35"/>
+      <c r="AG37" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="AG37" s="91"/>
       <c r="AH37" s="91"/>
       <c r="AI37" s="91"/>
       <c r="AJ37" s="91"/>
       <c r="AK37" s="91"/>
       <c r="AL37" s="91"/>
       <c r="AM37" s="91"/>
-      <c r="AN37" s="27"/>
-      <c r="AO37" s="28"/>
-      <c r="AP37" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AR37" s="5"/>
+      <c r="AN37" s="91"/>
+      <c r="AO37" s="27"/>
+      <c r="AP37" s="28"/>
+      <c r="AQ37" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AS37" s="5"/>
       <c r="AT37" s="5"/>
       <c r="AU37" s="5"/>
       <c r="AV37" s="5"/>
       <c r="AW37" s="5"/>
       <c r="AX37" s="5"/>
-    </row>
-    <row r="38" spans="6:50" ht="16" customHeight="1">
+      <c r="AY37" s="5"/>
+    </row>
+    <row r="38" spans="6:51" ht="16" customHeight="1">
       <c r="V38" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W38" s="5"/>
+      <c r="Y38" s="34"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AA38" s="5"/>
       <c r="AB38" s="5"/>
-      <c r="AC38" s="35"/>
-      <c r="AP38" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AR38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="35"/>
+      <c r="AQ38" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AS38" s="5"/>
       <c r="AT38" s="5"/>
       <c r="AU38" s="5"/>
       <c r="AV38" s="5"/>
       <c r="AW38" s="5"/>
       <c r="AX38" s="5"/>
-    </row>
-    <row r="39" spans="6:50" ht="16" customHeight="1">
+      <c r="AY38" s="5"/>
+    </row>
+    <row r="39" spans="6:51" ht="16" customHeight="1">
       <c r="V39" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="5"/>
+        <v>140</v>
+      </c>
+      <c r="W39" s="5"/>
+      <c r="Y39" s="34"/>
       <c r="Z39" s="5"/>
-      <c r="AA39" s="5" t="s">
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AB39" s="5"/>
-      <c r="AC39" s="35"/>
-      <c r="AP39" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="40" spans="6:50" ht="16" customHeight="1">
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="35"/>
+      <c r="AQ39" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="6:51" ht="16" customHeight="1">
       <c r="V40" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="X40" s="34"/>
-      <c r="Y40" s="5"/>
+        <v>140</v>
+      </c>
+      <c r="W40" s="5"/>
+      <c r="Y40" s="34"/>
       <c r="Z40" s="5"/>
       <c r="AA40" s="5"/>
-      <c r="AB40" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC40" s="35"/>
-      <c r="AF40" s="91" t="s">
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD40" s="35"/>
+      <c r="AG40" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="AG40" s="91"/>
       <c r="AH40" s="91"/>
       <c r="AI40" s="91"/>
       <c r="AJ40" s="91"/>
       <c r="AK40" s="91"/>
       <c r="AL40" s="91"/>
       <c r="AM40" s="91"/>
-      <c r="AN40" s="27"/>
-      <c r="AO40" s="28"/>
-      <c r="AP40" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="6:50" ht="16" customHeight="1">
+      <c r="AN40" s="91"/>
+      <c r="AO40" s="27"/>
+      <c r="AP40" s="28"/>
+      <c r="AQ40" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="6:51" ht="16" customHeight="1">
       <c r="V41" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="X41" s="34"/>
-      <c r="Y41" s="5"/>
+        <v>140</v>
+      </c>
+      <c r="W41" s="5"/>
+      <c r="Y41" s="34"/>
       <c r="Z41" s="5"/>
-      <c r="AA41" s="5" t="s">
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AB41" s="5"/>
-      <c r="AC41" s="35"/>
-      <c r="AP41" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="42" spans="6:50" ht="16" customHeight="1">
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="35"/>
+      <c r="AQ41" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="6:51" ht="16" customHeight="1">
       <c r="V42" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="X42" s="34"/>
-      <c r="Y42" s="5"/>
+        <v>140</v>
+      </c>
+      <c r="W42" s="5"/>
+      <c r="Y42" s="34"/>
       <c r="Z42" s="5"/>
       <c r="AA42" s="5"/>
-      <c r="AB42" s="5" t="s">
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AC42" s="35"/>
-      <c r="AP42" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="43" spans="6:50" ht="16" customHeight="1">
+      <c r="AD42" s="35"/>
+      <c r="AQ42" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="6:51" ht="16" customHeight="1">
       <c r="V43" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="X43" s="34"/>
-      <c r="Y43" s="5"/>
+        <v>140</v>
+      </c>
+      <c r="W43" s="5"/>
+      <c r="Y43" s="34"/>
       <c r="Z43" s="5"/>
       <c r="AA43" s="5"/>
-      <c r="AB43" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="AC43" s="35"/>
-      <c r="AF43" s="30" t="s">
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD43" s="35"/>
+      <c r="AG43" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="AP43" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="44" spans="6:50" ht="16" customHeight="1">
+      <c r="AQ43" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="6:51" ht="16" customHeight="1">
       <c r="P44" s="83" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q44" s="84"/>
       <c r="R44" s="84"/>
       <c r="S44" s="84"/>
       <c r="T44" s="85"/>
       <c r="V44" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="X44" s="34"/>
-      <c r="Y44" s="5"/>
+        <v>140</v>
+      </c>
+      <c r="W44" s="5"/>
+      <c r="Y44" s="34"/>
       <c r="Z44" s="5"/>
       <c r="AA44" s="5"/>
-      <c r="AB44" s="5" t="s">
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AC44" s="35"/>
-      <c r="AF44" s="30"/>
-      <c r="AP44" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="45" spans="6:50" ht="16" customHeight="1">
+      <c r="AD44" s="35"/>
+      <c r="AG44" s="30"/>
+      <c r="AQ44" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="6:51" ht="16" customHeight="1">
       <c r="P45" s="34"/>
       <c r="Q45" s="5"/>
       <c r="R45" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S45" s="5"/>
       <c r="T45" s="35"/>
       <c r="V45" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="X45" s="34"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W45" s="5"/>
+      <c r="Y45" s="34"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
-      <c r="AC45" s="35"/>
-      <c r="AP45" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="6:50" ht="16" customHeight="1">
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="35"/>
+      <c r="AQ45" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="6:51" ht="16" customHeight="1">
       <c r="P46" s="34"/>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
       <c r="S46" s="5"/>
       <c r="T46" s="35"/>
       <c r="V46" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="X46" s="34"/>
-      <c r="Y46" s="5"/>
+        <v>140</v>
+      </c>
+      <c r="W46" s="5"/>
+      <c r="Y46" s="34"/>
       <c r="Z46" s="5"/>
-      <c r="AA46" s="5" t="s">
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AB46" s="5"/>
-      <c r="AC46" s="35"/>
-      <c r="AP46" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="6:50" ht="16" customHeight="1">
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="35"/>
+      <c r="AQ46" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="6:51" ht="16" customHeight="1">
       <c r="F47" s="105" t="s">
         <v>65</v>
       </c>
@@ -4343,100 +4437,104 @@
       <c r="S47" s="37"/>
       <c r="T47" s="38"/>
       <c r="V47" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="X47" s="34"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W47" s="5"/>
+      <c r="Y47" s="34"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AA47" s="5"/>
       <c r="AB47" s="5"/>
-      <c r="AC47" s="35"/>
-      <c r="AP47" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="6:50" ht="16" customHeight="1">
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="35"/>
+      <c r="AQ47" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="6:51" ht="16" customHeight="1">
       <c r="F48" s="108"/>
       <c r="G48" s="109"/>
       <c r="H48" s="109"/>
       <c r="I48" s="109"/>
       <c r="J48" s="110"/>
       <c r="V48" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="X48" s="34"/>
-      <c r="Y48" s="5"/>
+        <v>134</v>
+      </c>
+      <c r="W48" s="5"/>
+      <c r="Y48" s="34"/>
       <c r="Z48" s="5"/>
-      <c r="AA48" s="5" t="s">
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AB48" s="5"/>
-      <c r="AC48" s="35"/>
-      <c r="AP48" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49" spans="4:42" ht="16" customHeight="1">
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="35"/>
+      <c r="AQ48" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="4:43" ht="16" customHeight="1">
       <c r="F49" s="34"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="35"/>
       <c r="Q49" s="73" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="R49" s="74"/>
       <c r="S49" s="74"/>
       <c r="T49" s="75"/>
       <c r="V49" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="X49" s="34"/>
-      <c r="Y49" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="W49" s="5"/>
+      <c r="Y49" s="34"/>
+      <c r="Z49" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
-      <c r="AC49" s="35"/>
-      <c r="AP49" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="50" spans="4:42" ht="16" customHeight="1">
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="35"/>
+      <c r="AQ49" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="4:43" ht="16" customHeight="1">
       <c r="F50" s="34"/>
       <c r="G50" s="5" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="35"/>
       <c r="Q50" s="47"/>
       <c r="R50" s="48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S50" s="48"/>
       <c r="T50" s="49"/>
       <c r="V50" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="X50" s="34"/>
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="W50" s="5"/>
+      <c r="Y50" s="34"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
-      <c r="AC50" s="35"/>
-      <c r="AN50" s="27"/>
-      <c r="AO50" s="28"/>
-      <c r="AP50" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" spans="4:42" ht="16" customHeight="1">
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="35"/>
+      <c r="AO50" s="27"/>
+      <c r="AP50" s="28"/>
+      <c r="AQ50" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="4:43" ht="16" customHeight="1">
       <c r="F51" s="34"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5" t="s">
@@ -4445,23 +4543,24 @@
       <c r="I51" s="5"/>
       <c r="J51" s="35"/>
       <c r="V51" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="X51" s="34"/>
-      <c r="Y51" s="5"/>
+        <v>140</v>
+      </c>
+      <c r="W51" s="5"/>
+      <c r="Y51" s="34"/>
       <c r="Z51" s="5"/>
-      <c r="AA51" s="5" t="s">
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="AB51" s="5"/>
-      <c r="AC51" s="35"/>
-      <c r="AN51" s="27"/>
-      <c r="AO51" s="28"/>
-      <c r="AP51" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="52" spans="4:42" ht="16" customHeight="1">
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="35"/>
+      <c r="AO51" s="27"/>
+      <c r="AP51" s="28"/>
+      <c r="AQ51" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="4:43" ht="16" customHeight="1">
       <c r="F52" s="34"/>
       <c r="G52" s="5" t="s">
         <v>68</v>
@@ -4470,23 +4569,24 @@
       <c r="I52" s="5"/>
       <c r="J52" s="35"/>
       <c r="V52" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="X52" s="34"/>
-      <c r="Y52" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W52" s="5"/>
+      <c r="Y52" s="34"/>
+      <c r="Z52" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="Z52" s="5"/>
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
-      <c r="AC52" s="35"/>
-      <c r="AP52" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" spans="4:42" ht="16" customHeight="1">
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="35"/>
+      <c r="AQ52" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="4:43" ht="16" customHeight="1">
       <c r="D53" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F53" s="34"/>
       <c r="G53" s="5"/>
@@ -4502,36 +4602,37 @@
       <c r="S53" s="55"/>
       <c r="T53" s="56"/>
       <c r="V53" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="X53" s="34"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA53" s="5"/>
+        <v>140</v>
+      </c>
+      <c r="W53" s="5"/>
+      <c r="Y53" s="34"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="AB53" s="5"/>
-      <c r="AC53" s="35"/>
-      <c r="AF53" s="91" t="s">
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="35"/>
+      <c r="AG53" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="AG53" s="91"/>
       <c r="AH53" s="91"/>
       <c r="AI53" s="91"/>
       <c r="AJ53" s="91"/>
       <c r="AK53" s="91"/>
       <c r="AL53" s="91"/>
       <c r="AM53" s="91"/>
-      <c r="AP53" s="5" t="s">
+      <c r="AN53" s="91"/>
+      <c r="AQ53" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="4:43" ht="16" customHeight="1">
+      <c r="D54" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="F54" s="34" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="54" spans="4:42" ht="16" customHeight="1">
-      <c r="D54" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="F54" s="34" t="s">
-        <v>147</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>61</v>
@@ -4548,21 +4649,22 @@
       <c r="S54" s="115"/>
       <c r="T54" s="116"/>
       <c r="V54" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="X54" s="34"/>
-      <c r="Y54" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W54" s="5"/>
+      <c r="Y54" s="34"/>
+      <c r="Z54" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="Z54" s="5"/>
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
-      <c r="AC54" s="35"/>
-      <c r="AP54" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="55" spans="4:42" ht="16" customHeight="1">
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="35"/>
+      <c r="AQ54" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="4:43" ht="16" customHeight="1">
       <c r="F55" s="34"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5" t="s">
@@ -4571,44 +4673,45 @@
       <c r="I55" s="5"/>
       <c r="J55" s="35"/>
       <c r="M55" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O55" s="34" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>129</v>
+        <v>226</v>
       </c>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
       <c r="T55" s="35"/>
       <c r="V55" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="X55" s="36"/>
-      <c r="Y55" s="37"/>
-      <c r="Z55" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA55" s="37"/>
+        <v>140</v>
+      </c>
+      <c r="W55" s="5"/>
+      <c r="Y55" s="36"/>
+      <c r="Z55" s="37"/>
+      <c r="AA55" s="37" t="s">
+        <v>184</v>
+      </c>
       <c r="AB55" s="37"/>
-      <c r="AC55" s="38"/>
-      <c r="AF55" s="91" t="s">
+      <c r="AC55" s="37"/>
+      <c r="AD55" s="38"/>
+      <c r="AG55" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="AG55" s="91"/>
       <c r="AH55" s="91"/>
       <c r="AI55" s="91"/>
       <c r="AJ55" s="91"/>
       <c r="AK55" s="91"/>
       <c r="AL55" s="91"/>
       <c r="AM55" s="91"/>
-      <c r="AP55" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="56" spans="4:42" ht="16" customHeight="1">
+      <c r="AN55" s="91"/>
+      <c r="AQ55" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="4:43" ht="16" customHeight="1">
       <c r="F56" s="34"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5" t="s">
@@ -4617,26 +4720,25 @@
       <c r="I56" s="5"/>
       <c r="J56" s="35"/>
       <c r="M56" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O56" s="34"/>
       <c r="P56" s="5"/>
-      <c r="Q56" s="5" t="s">
-        <v>119</v>
-      </c>
+      <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
       <c r="S56" s="5"/>
       <c r="T56" s="35"/>
       <c r="V56" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AP56" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="57" spans="4:42" ht="16" customHeight="1">
+        <v>140</v>
+      </c>
+      <c r="W56" s="5"/>
+      <c r="AQ56" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="4:43" ht="16" customHeight="1">
       <c r="D57" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F57" s="34"/>
       <c r="G57" s="5" t="s">
@@ -4646,46 +4748,75 @@
       <c r="I57" s="5"/>
       <c r="J57" s="35"/>
       <c r="M57" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O57" s="34"/>
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
       <c r="R57" s="5" t="s">
-        <v>155</v>
+        <v>222</v>
       </c>
       <c r="S57" s="5"/>
       <c r="T57" s="35"/>
-      <c r="V57" s="5"/>
-      <c r="AP57" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="58" spans="4:42" ht="16" customHeight="1">
+      <c r="W57" t="s">
+        <v>150</v>
+      </c>
+      <c r="X57" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y57" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z57" s="55"/>
+      <c r="AA57" s="55"/>
+      <c r="AB57" s="55"/>
+      <c r="AC57" s="55"/>
+      <c r="AD57" s="56"/>
+      <c r="AQ57" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="4:43" ht="16" customHeight="1">
       <c r="D58" s="40" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F58" s="34" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="35"/>
       <c r="M58" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O58" s="34"/>
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
+      <c r="S58" s="5" t="s">
+        <v>236</v>
+      </c>
       <c r="T58" s="35"/>
       <c r="V58" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="59" spans="4:42" ht="16" customHeight="1">
+        <v>140</v>
+      </c>
+      <c r="W58" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y58" s="34"/>
+      <c r="Z58" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="5"/>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="35"/>
+      <c r="AQ58" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="4:43" ht="16" customHeight="1">
       <c r="F59" s="34"/>
       <c r="G59" s="5" t="s">
         <v>73</v>
@@ -4694,36 +4825,30 @@
       <c r="I59" s="5"/>
       <c r="J59" s="35"/>
       <c r="M59" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O59" s="34"/>
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
-      <c r="R59" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="S59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5" t="s">
+        <v>237</v>
+      </c>
       <c r="T59" s="35"/>
-      <c r="X59" s="91" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y59" s="91"/>
-      <c r="Z59" s="91"/>
-      <c r="AA59" s="91"/>
-      <c r="AB59" s="91"/>
-      <c r="AC59" s="91"/>
-      <c r="AF59" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG59" s="55"/>
-      <c r="AH59" s="55"/>
-      <c r="AI59" s="55"/>
-      <c r="AJ59" s="55"/>
-      <c r="AK59" s="55"/>
-      <c r="AL59" s="55"/>
-      <c r="AM59" s="56"/>
-    </row>
-    <row r="60" spans="4:42" ht="16" customHeight="1">
+      <c r="V59" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="W59" s="5"/>
+      <c r="Y59" s="34"/>
+      <c r="Z59" s="5"/>
+      <c r="AA59" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="AB59" s="5"/>
+      <c r="AC59" s="5"/>
+      <c r="AD59" s="35"/>
+    </row>
+    <row r="60" spans="4:43" ht="16" customHeight="1">
       <c r="F60" s="34"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5" t="s">
@@ -4732,30 +4857,30 @@
       <c r="I60" s="5"/>
       <c r="J60" s="35"/>
       <c r="M60" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O60" s="34"/>
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
-      <c r="R60" s="5" t="s">
-        <v>130</v>
-      </c>
+      <c r="R60" s="5"/>
       <c r="S60" s="5"/>
       <c r="T60" s="35"/>
-      <c r="AF60" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG60" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="AH60" s="5"/>
-      <c r="AI60" s="5"/>
-      <c r="AJ60" s="5"/>
-      <c r="AK60" s="5"/>
-      <c r="AL60" s="5"/>
-      <c r="AM60" s="35"/>
-    </row>
-    <row r="61" spans="4:42" ht="16" customHeight="1">
+      <c r="V60" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W60" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y60" s="36"/>
+      <c r="Z60" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA60" s="37"/>
+      <c r="AB60" s="37"/>
+      <c r="AC60" s="37"/>
+      <c r="AD60" s="38"/>
+    </row>
+    <row r="61" spans="4:43" ht="16" customHeight="1">
       <c r="F61" s="34"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5" t="s">
@@ -4764,33 +4889,31 @@
       <c r="I61" s="5"/>
       <c r="J61" s="35"/>
       <c r="M61" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O61" s="34"/>
-      <c r="P61" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q61" s="40"/>
-      <c r="R61" s="40"/>
-      <c r="S61" s="40"/>
-      <c r="T61" s="41"/>
-      <c r="AF61" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="AG61" s="37"/>
-      <c r="AH61" s="37"/>
-      <c r="AI61" s="37"/>
-      <c r="AJ61" s="37"/>
-      <c r="AK61" s="37"/>
-      <c r="AL61" s="37"/>
-      <c r="AM61" s="38"/>
-      <c r="AN61" s="27"/>
-      <c r="AO61" s="28"/>
-      <c r="AP61" s="28"/>
-    </row>
-    <row r="62" spans="4:42" ht="16" customHeight="1">
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="V61" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W61" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG61" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH61" s="55"/>
+      <c r="AI61" s="55"/>
+      <c r="AJ61" s="55"/>
+      <c r="AK61" s="55"/>
+      <c r="AL61" s="55"/>
+      <c r="AM61" s="55"/>
+      <c r="AN61" s="56"/>
+    </row>
+    <row r="62" spans="4:43" ht="16" customHeight="1">
       <c r="D62" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F62" s="34"/>
       <c r="G62" s="5" t="s">
@@ -4800,29 +4923,42 @@
       <c r="I62" s="5"/>
       <c r="J62" s="35"/>
       <c r="M62" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="O62" s="34"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="35"/>
+      <c r="U62" s="53"/>
+      <c r="V62" s="5"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="53"/>
+      <c r="Y62" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="AG62" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH62" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI62" s="5"/>
+      <c r="AJ62" s="5"/>
+      <c r="AK62" s="5"/>
+      <c r="AL62" s="5"/>
+      <c r="AM62" s="5"/>
+      <c r="AN62" s="35"/>
+    </row>
+    <row r="63" spans="4:43" ht="16" customHeight="1">
+      <c r="D63" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="F63" s="34" t="s">
         <v>143</v>
-      </c>
-      <c r="O62" s="34"/>
-      <c r="P62" s="40"/>
-      <c r="Q62" s="40"/>
-      <c r="R62" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="S62" s="40"/>
-      <c r="T62" s="41"/>
-      <c r="U62" s="53"/>
-      <c r="V62" s="53"/>
-      <c r="W62" s="53"/>
-      <c r="AF62" s="79" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="63" spans="4:42" ht="16" customHeight="1">
-      <c r="D63" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="F63" s="34" t="s">
-        <v>147</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5" t="s">
@@ -4831,34 +4967,39 @@
       <c r="I63" s="5"/>
       <c r="J63" s="35"/>
       <c r="M63" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O63" s="34"/>
-      <c r="P63" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q63" s="40"/>
-      <c r="R63" s="40"/>
-      <c r="S63" s="40"/>
-      <c r="T63" s="41"/>
+      <c r="P63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="35"/>
       <c r="U63" s="53"/>
-      <c r="V63" s="53"/>
-      <c r="W63" s="53"/>
-      <c r="AF63" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG63" s="55"/>
-      <c r="AH63" s="55"/>
-      <c r="AI63" s="55"/>
-      <c r="AJ63" s="55"/>
-      <c r="AK63" s="55"/>
-      <c r="AL63" s="55"/>
-      <c r="AM63" s="56"/>
-      <c r="AN63" s="27"/>
-      <c r="AO63" s="28"/>
+      <c r="V63" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W63" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="X63" s="53"/>
+      <c r="Z63" t="s">
+        <v>231</v>
+      </c>
+      <c r="AG63" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH63" s="37"/>
+      <c r="AI63" s="37"/>
+      <c r="AJ63" s="37"/>
+      <c r="AK63" s="37"/>
+      <c r="AL63" s="37"/>
+      <c r="AM63" s="37"/>
+      <c r="AN63" s="38"/>
+      <c r="AO63" s="27"/>
       <c r="AP63" s="28"/>
-    </row>
-    <row r="64" spans="4:42" ht="16" customHeight="1">
+      <c r="AQ63" s="28"/>
+    </row>
+    <row r="64" spans="4:43" ht="16" customHeight="1">
       <c r="F64" s="34"/>
       <c r="G64" s="5" t="s">
         <v>78</v>
@@ -4867,31 +5008,27 @@
       <c r="I64" s="5"/>
       <c r="J64" s="35"/>
       <c r="M64" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O64" s="34"/>
-      <c r="P64" s="40"/>
-      <c r="Q64" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="R64" s="40"/>
-      <c r="S64" s="40"/>
-      <c r="T64" s="41"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="35"/>
       <c r="U64" s="53"/>
-      <c r="V64" s="53"/>
-      <c r="W64" s="53"/>
-      <c r="AF64" s="34"/>
-      <c r="AG64" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="AH64" s="5"/>
-      <c r="AI64" s="5"/>
-      <c r="AJ64" s="5"/>
-      <c r="AK64" s="5"/>
-      <c r="AL64" s="5"/>
-      <c r="AM64" s="35"/>
-    </row>
-    <row r="65" spans="4:50" ht="16" customHeight="1">
+      <c r="V64" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W64" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X64" s="53"/>
+      <c r="AG64" s="79" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="4:51" ht="16" customHeight="1">
       <c r="F65" s="34"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5" t="s">
@@ -4900,36 +5037,49 @@
       <c r="I65" s="5"/>
       <c r="J65" s="35"/>
       <c r="M65" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O65" s="34"/>
-      <c r="P65" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q65" s="40"/>
-      <c r="R65" s="40"/>
-      <c r="S65" s="40"/>
-      <c r="T65" s="41"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="35"/>
       <c r="U65" s="53"/>
-      <c r="V65" s="53"/>
-      <c r="W65" s="53"/>
-      <c r="AD65" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF65" s="36"/>
-      <c r="AG65" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH65" s="37"/>
-      <c r="AI65" s="37"/>
-      <c r="AJ65" s="37"/>
-      <c r="AK65" s="37"/>
-      <c r="AL65" s="37"/>
-      <c r="AM65" s="38"/>
-    </row>
-    <row r="66" spans="4:50" ht="16" customHeight="1">
+      <c r="V65" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W65" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X65" s="53"/>
+      <c r="Y65" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z65" s="91"/>
+      <c r="AA65" s="91"/>
+      <c r="AB65" s="91"/>
+      <c r="AC65" s="91"/>
+      <c r="AD65" s="91"/>
+      <c r="AG65" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH65" s="55"/>
+      <c r="AI65" s="55"/>
+      <c r="AJ65" s="55"/>
+      <c r="AK65" s="55"/>
+      <c r="AL65" s="55"/>
+      <c r="AM65" s="55"/>
+      <c r="AN65" s="56"/>
+      <c r="AO65" s="27"/>
+      <c r="AP65" s="28"/>
+      <c r="AQ65" s="28"/>
+    </row>
+    <row r="66" spans="4:51" ht="16" customHeight="1">
       <c r="D66" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F66" s="34"/>
       <c r="G66" s="5"/>
@@ -4939,36 +5089,41 @@
       <c r="I66" s="5"/>
       <c r="J66" s="35"/>
       <c r="M66" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="O66" s="34"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="S66" s="5"/>
+      <c r="T66" s="35"/>
+      <c r="U66" s="53"/>
+      <c r="V66" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W66" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X66" s="53"/>
+      <c r="AG66" s="34"/>
+      <c r="AH66" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI66" s="5"/>
+      <c r="AJ66" s="5"/>
+      <c r="AK66" s="5"/>
+      <c r="AL66" s="5"/>
+      <c r="AM66" s="5"/>
+      <c r="AN66" s="35"/>
+    </row>
+    <row r="67" spans="4:51" ht="16" customHeight="1">
+      <c r="D67" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="F67" s="34" t="s">
         <v>143</v>
-      </c>
-      <c r="O66" s="34"/>
-      <c r="P66" s="40"/>
-      <c r="Q66" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="R66" s="40"/>
-      <c r="S66" s="40"/>
-      <c r="T66" s="41"/>
-      <c r="U66" s="53"/>
-      <c r="V66" s="53"/>
-      <c r="W66" s="53"/>
-      <c r="AD66" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AG66" s="79" t="s">
-        <v>137</v>
-      </c>
-      <c r="AH66" s="79"/>
-      <c r="AI66" s="79"/>
-      <c r="AJ66" s="79"/>
-      <c r="AK66" s="79"/>
-    </row>
-    <row r="67" spans="4:50" ht="16" customHeight="1">
-      <c r="D67" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="F67" s="34" t="s">
-        <v>147</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>81</v>
@@ -4977,34 +5132,39 @@
       <c r="I67" s="5"/>
       <c r="J67" s="35"/>
       <c r="M67" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O67" s="34"/>
-      <c r="P67" s="40"/>
-      <c r="Q67" s="40"/>
-      <c r="R67" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="S67" s="40"/>
-      <c r="T67" s="41"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="S67" s="5"/>
+      <c r="T67" s="35"/>
       <c r="U67" s="53"/>
-      <c r="V67" s="53"/>
-      <c r="W67" s="53"/>
-      <c r="AD67" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF67" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG67" s="55"/>
-      <c r="AH67" s="55"/>
-      <c r="AI67" s="55"/>
-      <c r="AJ67" s="55"/>
-      <c r="AK67" s="55"/>
-      <c r="AL67" s="55"/>
-      <c r="AM67" s="56"/>
-    </row>
-    <row r="68" spans="4:50" ht="16" customHeight="1">
+      <c r="V67" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W67" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X67" s="53"/>
+      <c r="AE67" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG67" s="36"/>
+      <c r="AH67" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI67" s="37"/>
+      <c r="AJ67" s="37"/>
+      <c r="AK67" s="37"/>
+      <c r="AL67" s="37"/>
+      <c r="AM67" s="37"/>
+      <c r="AN67" s="38"/>
+    </row>
+    <row r="68" spans="4:51" ht="16" customHeight="1">
       <c r="F68" s="34"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5" t="s">
@@ -5013,32 +5173,36 @@
       <c r="I68" s="5"/>
       <c r="J68" s="35"/>
       <c r="M68" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O68" s="34"/>
-      <c r="P68" s="40"/>
+      <c r="P68" s="40" t="s">
+        <v>125</v>
+      </c>
       <c r="Q68" s="40"/>
       <c r="R68" s="40"/>
       <c r="S68" s="40"/>
       <c r="T68" s="41"/>
       <c r="U68" s="53"/>
-      <c r="V68" s="53"/>
-      <c r="W68" s="53"/>
-      <c r="AD68" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF68" s="34"/>
-      <c r="AG68" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AH68" s="5"/>
-      <c r="AI68" s="5"/>
-      <c r="AJ68" s="5"/>
-      <c r="AK68" s="5"/>
-      <c r="AL68" s="5"/>
-      <c r="AM68" s="35"/>
-    </row>
-    <row r="69" spans="4:50" ht="16" customHeight="1">
+      <c r="V68" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W68" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X68" s="53"/>
+      <c r="AE68" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH68" s="79" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI68" s="79"/>
+      <c r="AJ68" s="79"/>
+      <c r="AK68" s="79"/>
+      <c r="AL68" s="79"/>
+    </row>
+    <row r="69" spans="4:51" ht="16" customHeight="1">
       <c r="F69" s="34"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5" t="s">
@@ -5047,36 +5211,43 @@
       <c r="I69" s="5"/>
       <c r="J69" s="35"/>
       <c r="M69" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O69" s="34"/>
-      <c r="P69" s="40"/>
       <c r="Q69" s="40"/>
       <c r="R69" s="40" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="S69" s="40"/>
       <c r="T69" s="41"/>
       <c r="U69" s="53"/>
-      <c r="V69" s="53"/>
-      <c r="W69" s="53"/>
-      <c r="AD69" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF69" s="34"/>
-      <c r="AG69" s="5"/>
-      <c r="AH69" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="AI69" s="5"/>
-      <c r="AJ69" s="5"/>
-      <c r="AK69" s="5"/>
-      <c r="AL69" s="5"/>
-      <c r="AM69" s="35"/>
-    </row>
-    <row r="70" spans="4:50" ht="16" customHeight="1">
+      <c r="V69" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W69" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X69" s="53"/>
+      <c r="Y69" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE69" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG69" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH69" s="55"/>
+      <c r="AI69" s="55"/>
+      <c r="AJ69" s="55"/>
+      <c r="AK69" s="55"/>
+      <c r="AL69" s="55"/>
+      <c r="AM69" s="55"/>
+      <c r="AN69" s="56"/>
+    </row>
+    <row r="70" spans="4:51" ht="16" customHeight="1">
       <c r="D70" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F70" s="34"/>
       <c r="G70" s="5"/>
@@ -5086,37 +5257,44 @@
       <c r="I70" s="5"/>
       <c r="J70" s="35"/>
       <c r="M70" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O70" s="34"/>
-      <c r="P70" s="40"/>
-      <c r="Q70" s="40"/>
-      <c r="R70" s="40"/>
-      <c r="S70" s="40"/>
+      <c r="S70" t="s">
+        <v>238</v>
+      </c>
       <c r="T70" s="41"/>
       <c r="U70" s="53"/>
-      <c r="V70" s="53"/>
-      <c r="W70" s="53"/>
-      <c r="AD70" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF70" s="34"/>
-      <c r="AG70" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="AH70" s="5"/>
+      <c r="V70" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="W70" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="X70" s="53"/>
+      <c r="Z70" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE70" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG70" s="34"/>
+      <c r="AH70" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="AI70" s="5"/>
       <c r="AJ70" s="5"/>
       <c r="AK70" s="5"/>
       <c r="AL70" s="5"/>
-      <c r="AM70" s="35"/>
-    </row>
-    <row r="71" spans="4:50" ht="16" customHeight="1">
+      <c r="AM70" s="5"/>
+      <c r="AN70" s="35"/>
+    </row>
+    <row r="71" spans="4:51" ht="16" customHeight="1">
       <c r="D71" s="40" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F71" s="34" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>85</v>
@@ -5125,36 +5303,35 @@
       <c r="I71" s="5"/>
       <c r="J71" s="35"/>
       <c r="M71" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O71" s="34"/>
-      <c r="P71" s="40"/>
-      <c r="Q71" s="40"/>
-      <c r="R71" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="S71" s="40"/>
       <c r="T71" s="41"/>
       <c r="U71" s="53"/>
-      <c r="V71" s="53"/>
-      <c r="W71" s="53"/>
-      <c r="AD71" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF71" s="34"/>
-      <c r="AG71" s="5"/>
-      <c r="AH71" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="AI71" s="5"/>
+      <c r="V71" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W71" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X71" s="53"/>
+      <c r="AE71" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG71" s="34"/>
+      <c r="AH71" s="5"/>
+      <c r="AI71" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="AJ71" s="5"/>
       <c r="AK71" s="5"/>
       <c r="AL71" s="5"/>
-      <c r="AM71" s="35"/>
-    </row>
-    <row r="72" spans="4:50" ht="16" customHeight="1">
+      <c r="AM71" s="5"/>
+      <c r="AN71" s="35"/>
+    </row>
+    <row r="72" spans="4:51" ht="16" customHeight="1">
       <c r="D72" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F72" s="34"/>
       <c r="G72" s="5"/>
@@ -5164,79 +5341,81 @@
       <c r="I72" s="5"/>
       <c r="J72" s="35"/>
       <c r="M72" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="O72" s="34"/>
+      <c r="P72" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q72" s="40"/>
+      <c r="R72" s="40"/>
+      <c r="S72" s="40"/>
+      <c r="T72" s="41"/>
+      <c r="U72" s="53"/>
+      <c r="V72" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W72" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X72" s="53"/>
+      <c r="AE72" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG72" s="34"/>
+      <c r="AH72" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI72" s="5"/>
+      <c r="AJ72" s="5"/>
+      <c r="AK72" s="5"/>
+      <c r="AL72" s="5"/>
+      <c r="AM72" s="5"/>
+      <c r="AN72" s="35"/>
+    </row>
+    <row r="73" spans="4:51" ht="16" customHeight="1">
+      <c r="D73" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="F73" s="34" t="s">
         <v>143</v>
-      </c>
-      <c r="O72" s="36"/>
-      <c r="P72" s="57"/>
-      <c r="Q72" s="57"/>
-      <c r="R72" s="57"/>
-      <c r="S72" s="57"/>
-      <c r="T72" s="58"/>
-      <c r="U72" s="53"/>
-      <c r="V72" s="53"/>
-      <c r="W72" s="53"/>
-      <c r="AD72" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF72" s="36"/>
-      <c r="AG72" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="AH72" s="37"/>
-      <c r="AI72" s="37"/>
-      <c r="AJ72" s="37"/>
-      <c r="AK72" s="37"/>
-      <c r="AL72" s="37"/>
-      <c r="AM72" s="38"/>
-      <c r="AQ72" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="AR72" s="55"/>
-      <c r="AS72" s="55"/>
-      <c r="AT72" s="55"/>
-      <c r="AU72" s="55"/>
-      <c r="AV72" s="55"/>
-      <c r="AW72" s="55"/>
-      <c r="AX72" s="56"/>
-    </row>
-    <row r="73" spans="4:50" ht="16" customHeight="1">
-      <c r="D73" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="F73" s="34" t="s">
-        <v>147</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="35"/>
       <c r="M73" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="P73" s="53"/>
-      <c r="Q73" s="53"/>
-      <c r="R73" s="53"/>
-      <c r="S73" s="53"/>
-      <c r="T73" s="53"/>
+        <v>140</v>
+      </c>
+      <c r="O73" s="34"/>
+      <c r="P73" s="40"/>
+      <c r="Q73" s="40"/>
+      <c r="R73" s="40"/>
+      <c r="S73" s="40"/>
+      <c r="T73" s="41"/>
       <c r="U73" s="53"/>
-      <c r="V73" s="53"/>
-      <c r="W73" s="53"/>
-      <c r="AD73" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AG73" s="79"/>
-      <c r="AQ73" s="34"/>
-      <c r="AR73" s="79" t="s">
-        <v>137</v>
-      </c>
-      <c r="AS73" s="5"/>
-      <c r="AT73" s="5"/>
-      <c r="AU73" s="5"/>
-      <c r="AV73" s="5"/>
-      <c r="AW73" s="5"/>
-      <c r="AX73" s="35"/>
-    </row>
-    <row r="74" spans="4:50" ht="16" customHeight="1">
+      <c r="V73" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W73" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X73" s="53"/>
+      <c r="AE73" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG73" s="34"/>
+      <c r="AH73" s="5"/>
+      <c r="AI73" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ73" s="5"/>
+      <c r="AK73" s="5"/>
+      <c r="AL73" s="5"/>
+      <c r="AM73" s="5"/>
+      <c r="AN73" s="35"/>
+    </row>
+    <row r="74" spans="4:51" ht="16" customHeight="1">
       <c r="F74" s="34"/>
       <c r="G74" s="5" t="s">
         <v>87</v>
@@ -5245,51 +5424,95 @@
       <c r="I74" s="5"/>
       <c r="J74" s="35"/>
       <c r="M74" s="5" t="s">
-        <v>143</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O74" s="34"/>
+      <c r="P74" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q74" s="40"/>
+      <c r="R74" s="40"/>
+      <c r="S74" s="40"/>
+      <c r="T74" s="41"/>
       <c r="U74" s="53"/>
-      <c r="V74" s="53"/>
-      <c r="W74" s="53"/>
-      <c r="AD74" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AQ74" s="34"/>
-      <c r="AR74" s="79" t="s">
-        <v>171</v>
-      </c>
-      <c r="AS74" s="5"/>
-      <c r="AT74" s="5"/>
-      <c r="AU74" s="5"/>
-      <c r="AV74" s="5"/>
-      <c r="AW74" s="5"/>
-      <c r="AX74" s="35"/>
-    </row>
-    <row r="75" spans="4:50" ht="16" customHeight="1">
+      <c r="V74" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W74" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X74" s="53"/>
+      <c r="Y74" s="69" t="s">
+        <v>228</v>
+      </c>
+      <c r="AE74" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG74" s="36"/>
+      <c r="AH74" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="AI74" s="37"/>
+      <c r="AJ74" s="37"/>
+      <c r="AK74" s="37"/>
+      <c r="AL74" s="37"/>
+      <c r="AM74" s="37"/>
+      <c r="AN74" s="38"/>
+      <c r="AR74" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="AS74" s="55"/>
+      <c r="AT74" s="55"/>
+      <c r="AU74" s="55"/>
+      <c r="AV74" s="55"/>
+      <c r="AW74" s="55"/>
+      <c r="AX74" s="55"/>
+      <c r="AY74" s="56"/>
+    </row>
+    <row r="75" spans="4:51" ht="16" customHeight="1">
       <c r="F75" s="34"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
       <c r="J75" s="35"/>
       <c r="M75" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD75" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AQ75" s="34"/>
-      <c r="AR75" s="79"/>
-      <c r="AS75" s="5" t="s">
-        <v>172</v>
+        <v>140</v>
+      </c>
+      <c r="O75" s="34"/>
+      <c r="P75" s="40"/>
+      <c r="Q75" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="R75" s="40"/>
+      <c r="S75" s="40"/>
+      <c r="T75" s="41"/>
+      <c r="V75" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W75" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE75" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH75" s="79"/>
+      <c r="AR75" s="34"/>
+      <c r="AS75" s="79" t="s">
+        <v>134</v>
       </c>
       <c r="AT75" s="5"/>
       <c r="AU75" s="5"/>
       <c r="AV75" s="5"/>
       <c r="AW75" s="5"/>
-      <c r="AX75" s="35"/>
-    </row>
-    <row r="76" spans="4:50" ht="16" customHeight="1">
+      <c r="AX75" s="5"/>
+      <c r="AY75" s="35"/>
+    </row>
+    <row r="76" spans="4:51" ht="16" customHeight="1">
       <c r="D76" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F76" s="34"/>
       <c r="G76" s="51" t="s">
@@ -5299,28 +5522,42 @@
       <c r="I76" s="5"/>
       <c r="J76" s="35"/>
       <c r="M76" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD76" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AQ76" s="34"/>
-      <c r="AR76" s="5"/>
-      <c r="AS76" s="5" t="s">
-        <v>173</v>
+        <v>140</v>
+      </c>
+      <c r="O76" s="34"/>
+      <c r="P76" s="40"/>
+      <c r="Q76" s="40"/>
+      <c r="R76" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="S76" s="40"/>
+      <c r="T76" s="41"/>
+      <c r="V76" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W76" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE76" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR76" s="34"/>
+      <c r="AS76" s="79" t="s">
+        <v>166</v>
       </c>
       <c r="AT76" s="5"/>
       <c r="AU76" s="5"/>
       <c r="AV76" s="5"/>
       <c r="AW76" s="5"/>
-      <c r="AX76" s="35"/>
-    </row>
-    <row r="77" spans="4:50" ht="16" customHeight="1">
+      <c r="AX76" s="5"/>
+      <c r="AY76" s="35"/>
+    </row>
+    <row r="77" spans="4:51" ht="16" customHeight="1">
       <c r="D77" s="40" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F77" s="34" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5" t="s">
@@ -5329,23 +5566,35 @@
       <c r="I77" s="5"/>
       <c r="J77" s="35"/>
       <c r="M77" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD77" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AQ77" s="34"/>
-      <c r="AR77" s="5"/>
-      <c r="AS77" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT77" s="5"/>
+        <v>140</v>
+      </c>
+      <c r="O77" s="34"/>
+      <c r="P77" s="40"/>
+      <c r="Q77" s="40"/>
+      <c r="R77" s="40"/>
+      <c r="S77" s="40"/>
+      <c r="T77" s="41"/>
+      <c r="V77" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W77" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE77" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR77" s="34"/>
+      <c r="AS77" s="79"/>
+      <c r="AT77" s="5" t="s">
+        <v>167</v>
+      </c>
       <c r="AU77" s="5"/>
       <c r="AV77" s="5"/>
       <c r="AW77" s="5"/>
-      <c r="AX77" s="35"/>
-    </row>
-    <row r="78" spans="4:50" ht="16" customHeight="1">
+      <c r="AX77" s="5"/>
+      <c r="AY77" s="35"/>
+    </row>
+    <row r="78" spans="4:51" ht="16" customHeight="1">
       <c r="F78" s="34"/>
       <c r="G78" s="5" t="s">
         <v>89</v>
@@ -5354,23 +5603,37 @@
       <c r="I78" s="5"/>
       <c r="J78" s="35"/>
       <c r="M78" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD78" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AQ78" s="34"/>
-      <c r="AR78" s="5"/>
-      <c r="AS78" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="AT78" s="5"/>
+        <v>140</v>
+      </c>
+      <c r="O78" s="34"/>
+      <c r="P78" s="40"/>
+      <c r="Q78" s="40"/>
+      <c r="R78" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="S78" s="40"/>
+      <c r="T78" s="41"/>
+      <c r="V78" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W78" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE78" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR78" s="34"/>
+      <c r="AS78" s="5"/>
+      <c r="AT78" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="AU78" s="5"/>
       <c r="AV78" s="5"/>
       <c r="AW78" s="5"/>
-      <c r="AX78" s="35"/>
-    </row>
-    <row r="79" spans="4:50" ht="16" customHeight="1">
+      <c r="AX78" s="5"/>
+      <c r="AY78" s="35"/>
+    </row>
+    <row r="79" spans="4:51" ht="16" customHeight="1">
       <c r="F79" s="34"/>
       <c r="G79" s="5"/>
       <c r="H79" s="51" t="s">
@@ -5379,28 +5642,40 @@
       <c r="I79" s="5"/>
       <c r="J79" s="35"/>
       <c r="M79" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD79" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF79" t="s">
-        <v>177</v>
-      </c>
-      <c r="AQ79" s="36"/>
-      <c r="AR79" s="81" t="s">
-        <v>168</v>
-      </c>
-      <c r="AS79" s="37"/>
-      <c r="AT79" s="37"/>
-      <c r="AU79" s="37"/>
-      <c r="AV79" s="37"/>
-      <c r="AW79" s="37"/>
-      <c r="AX79" s="38"/>
-    </row>
-    <row r="80" spans="4:50" ht="16" customHeight="1">
+        <v>140</v>
+      </c>
+      <c r="O79" s="34"/>
+      <c r="P79" s="40"/>
+      <c r="Q79" s="40"/>
+      <c r="R79" s="40"/>
+      <c r="S79" s="40"/>
+      <c r="T79" s="41"/>
+      <c r="V79" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W79" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE79" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR79" s="34"/>
+      <c r="AS79" s="5"/>
+      <c r="AT79" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="AU79" s="5"/>
+      <c r="AV79" s="5"/>
+      <c r="AW79" s="5"/>
+      <c r="AX79" s="5"/>
+      <c r="AY79" s="35"/>
+    </row>
+    <row r="80" spans="4:51" ht="16" customHeight="1">
       <c r="D80" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F80" s="34"/>
       <c r="G80" s="5"/>
@@ -5410,21 +5685,45 @@
       <c r="I80" s="5"/>
       <c r="J80" s="35"/>
       <c r="M80" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="O80" s="34"/>
+      <c r="P80" s="40"/>
+      <c r="Q80" s="40"/>
+      <c r="R80" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="S80" s="40"/>
+      <c r="T80" s="41"/>
+      <c r="V80" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W80" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE80" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR80" s="34"/>
+      <c r="AS80" s="5"/>
+      <c r="AT80" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="AU80" s="5"/>
+      <c r="AV80" s="5"/>
+      <c r="AW80" s="5"/>
+      <c r="AX80" s="5"/>
+      <c r="AY80" s="35"/>
+    </row>
+    <row r="81" spans="4:51" ht="16" customHeight="1">
+      <c r="D81" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="F81" s="34" t="s">
         <v>143</v>
-      </c>
-      <c r="AD80" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AG80" s="79" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="81" spans="4:50" ht="16" customHeight="1">
-      <c r="D81" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="F81" s="34" t="s">
-        <v>147</v>
       </c>
       <c r="G81" s="51" t="s">
         <v>93</v>
@@ -5433,18 +5732,40 @@
       <c r="I81" s="5"/>
       <c r="J81" s="35"/>
       <c r="M81" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD81" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF81" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="82" spans="4:50" ht="16" customHeight="1">
+        <v>140</v>
+      </c>
+      <c r="O81" s="36"/>
+      <c r="P81" s="57"/>
+      <c r="Q81" s="57"/>
+      <c r="R81" s="57"/>
+      <c r="S81" s="57"/>
+      <c r="T81" s="58"/>
+      <c r="V81" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W81" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE81" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG81" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR81" s="36"/>
+      <c r="AS81" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT81" s="37"/>
+      <c r="AU81" s="37"/>
+      <c r="AV81" s="37"/>
+      <c r="AW81" s="37"/>
+      <c r="AX81" s="37"/>
+      <c r="AY81" s="38"/>
+    </row>
+    <row r="82" spans="4:51" ht="16" customHeight="1">
       <c r="D82" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F82" s="34"/>
       <c r="G82" s="5"/>
@@ -5454,21 +5775,27 @@
       <c r="I82" s="5"/>
       <c r="J82" s="35"/>
       <c r="M82" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="V82" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W82" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE82" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH82" s="79" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="4:51" ht="16" customHeight="1">
+      <c r="D83" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="F83" s="34" t="s">
         <v>143</v>
-      </c>
-      <c r="AD82" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AG82" s="69" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="83" spans="4:50" ht="16" customHeight="1">
-      <c r="D83" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="F83" s="34" t="s">
-        <v>147</v>
       </c>
       <c r="G83" s="51" t="s">
         <v>95</v>
@@ -5477,18 +5804,24 @@
       <c r="I83" s="5"/>
       <c r="J83" s="35"/>
       <c r="M83" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD83" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH83" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="84" spans="4:50" ht="16" customHeight="1">
+        <v>140</v>
+      </c>
+      <c r="V83" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W83" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE83" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG83" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="84" spans="4:51" ht="16" customHeight="1">
       <c r="D84" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F84" s="34"/>
       <c r="G84" s="5"/>
@@ -5498,21 +5831,30 @@
       <c r="I84" s="5"/>
       <c r="J84" s="35"/>
       <c r="M84" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="O84" t="s">
+        <v>242</v>
+      </c>
+      <c r="V84" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W84" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE84" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH84" s="69" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="85" spans="4:51" ht="16" customHeight="1">
+      <c r="D85" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="F85" s="34" t="s">
         <v>143</v>
-      </c>
-      <c r="AD84" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AG84" s="82" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="85" spans="4:50" ht="16" customHeight="1">
-      <c r="D85" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="F85" s="34" t="s">
-        <v>147</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>96</v>
@@ -5521,16 +5863,25 @@
       <c r="I85" s="5"/>
       <c r="J85" s="35"/>
       <c r="M85" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD85" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH85" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="86" spans="4:50" ht="16" customHeight="1">
+        <v>140</v>
+      </c>
+      <c r="P85" t="s">
+        <v>243</v>
+      </c>
+      <c r="V85" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="W85" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE85" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI85" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="86" spans="4:51" ht="16" customHeight="1">
       <c r="F86" s="34"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5" t="s">
@@ -5539,28 +5890,21 @@
       <c r="I86" s="5"/>
       <c r="J86" s="35"/>
       <c r="M86" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD86" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AI86" t="s">
-        <v>170</v>
-      </c>
-      <c r="AQ86" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="AR86" s="55"/>
-      <c r="AS86" s="55"/>
-      <c r="AT86" s="55"/>
-      <c r="AU86" s="55"/>
-      <c r="AV86" s="55"/>
-      <c r="AW86" s="55"/>
-      <c r="AX86" s="56"/>
-    </row>
-    <row r="87" spans="4:50" ht="16" customHeight="1">
+        <v>140</v>
+      </c>
+      <c r="W86" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE86" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH86" s="82" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="87" spans="4:51" ht="16" customHeight="1">
       <c r="D87" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F87" s="34"/>
       <c r="G87" s="5"/>
@@ -5570,28 +5914,24 @@
       <c r="I87" s="5"/>
       <c r="J87" s="35"/>
       <c r="M87" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W87" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE87" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI87" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="88" spans="4:51" ht="16" customHeight="1">
+      <c r="D88" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="F88" s="34" t="s">
         <v>143</v>
-      </c>
-      <c r="AD87" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AQ87" s="34"/>
-      <c r="AR87" s="79" t="s">
-        <v>137</v>
-      </c>
-      <c r="AS87" s="5"/>
-      <c r="AT87" s="5"/>
-      <c r="AU87" s="5"/>
-      <c r="AV87" s="5"/>
-      <c r="AW87" s="5"/>
-      <c r="AX87" s="35"/>
-    </row>
-    <row r="88" spans="4:50" ht="16" customHeight="1">
-      <c r="D88" s="40" t="s">
-        <v>153</v>
-      </c>
-      <c r="F88" s="34" t="s">
-        <v>147</v>
       </c>
       <c r="G88" s="51" t="s">
         <v>100</v>
@@ -5600,51 +5940,57 @@
       <c r="I88" s="5"/>
       <c r="J88" s="35"/>
       <c r="M88" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD88" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AQ88" s="34"/>
-      <c r="AR88" s="79" t="s">
-        <v>171</v>
-      </c>
-      <c r="AS88" s="5"/>
-      <c r="AT88" s="5"/>
-      <c r="AU88" s="5"/>
-      <c r="AV88" s="5"/>
-      <c r="AW88" s="5"/>
-      <c r="AX88" s="35"/>
-    </row>
-    <row r="89" spans="4:50" ht="16" customHeight="1">
+        <v>140</v>
+      </c>
+      <c r="W88" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE88" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ88" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR88" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="AS88" s="55"/>
+      <c r="AT88" s="55"/>
+      <c r="AU88" s="55"/>
+      <c r="AV88" s="55"/>
+      <c r="AW88" s="55"/>
+      <c r="AX88" s="55"/>
+      <c r="AY88" s="56"/>
+    </row>
+    <row r="89" spans="4:51" ht="16" customHeight="1">
       <c r="F89" s="34"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
       <c r="J89" s="35"/>
       <c r="M89" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD89" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF89" s="69" t="s">
-        <v>193</v>
-      </c>
-      <c r="AQ89" s="34"/>
-      <c r="AR89" s="79"/>
-      <c r="AS89" s="5" t="s">
-        <v>183</v>
+        <v>140</v>
+      </c>
+      <c r="W89" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE89" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR89" s="34"/>
+      <c r="AS89" s="79" t="s">
+        <v>134</v>
       </c>
       <c r="AT89" s="5"/>
       <c r="AU89" s="5"/>
       <c r="AV89" s="5"/>
       <c r="AW89" s="5"/>
-      <c r="AX89" s="35"/>
-    </row>
-    <row r="90" spans="4:50" ht="16" customHeight="1">
+      <c r="AX89" s="5"/>
+      <c r="AY89" s="35"/>
+    </row>
+    <row r="90" spans="4:51" ht="16" customHeight="1">
       <c r="D90" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F90" s="34"/>
       <c r="G90" s="51" t="s">
@@ -5654,31 +6000,31 @@
       <c r="I90" s="5"/>
       <c r="J90" s="35"/>
       <c r="M90" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD90" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AG90" t="s">
-        <v>190</v>
-      </c>
-      <c r="AQ90" s="34"/>
-      <c r="AR90" s="5"/>
-      <c r="AS90" s="5" t="s">
-        <v>173</v>
+        <v>140</v>
+      </c>
+      <c r="W90" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE90" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR90" s="34"/>
+      <c r="AS90" s="79" t="s">
+        <v>166</v>
       </c>
       <c r="AT90" s="5"/>
       <c r="AU90" s="5"/>
       <c r="AV90" s="5"/>
       <c r="AW90" s="5"/>
-      <c r="AX90" s="35"/>
-    </row>
-    <row r="91" spans="4:50" ht="16" customHeight="1">
+      <c r="AX90" s="5"/>
+      <c r="AY90" s="35"/>
+    </row>
+    <row r="91" spans="4:51" ht="16" customHeight="1">
       <c r="D91" s="40" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F91" s="34" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G91" s="5"/>
       <c r="H91" s="5" t="s">
@@ -5687,26 +6033,29 @@
       <c r="I91" s="5"/>
       <c r="J91" s="35"/>
       <c r="M91" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD91" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH91" t="s">
-        <v>191</v>
-      </c>
-      <c r="AQ91" s="34"/>
-      <c r="AR91" s="5"/>
-      <c r="AS91" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT91" s="5"/>
+        <v>140</v>
+      </c>
+      <c r="W91" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE91" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG91" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="AR91" s="34"/>
+      <c r="AS91" s="79"/>
+      <c r="AT91" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="AU91" s="5"/>
       <c r="AV91" s="5"/>
       <c r="AW91" s="5"/>
-      <c r="AX91" s="35"/>
-    </row>
-    <row r="92" spans="4:50" ht="16" customHeight="1">
+      <c r="AX91" s="5"/>
+      <c r="AY91" s="35"/>
+    </row>
+    <row r="92" spans="4:51" ht="16" customHeight="1">
       <c r="F92" s="34"/>
       <c r="G92" s="5" t="s">
         <v>102</v>
@@ -5715,58 +6064,66 @@
       <c r="I92" s="5"/>
       <c r="J92" s="35"/>
       <c r="M92" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD92" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AG92" t="s">
-        <v>195</v>
-      </c>
-      <c r="AQ92" s="34"/>
-      <c r="AR92" s="5"/>
-      <c r="AS92" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="AT92" s="5"/>
+        <v>140</v>
+      </c>
+      <c r="W92" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE92" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH92" t="s">
+        <v>185</v>
+      </c>
+      <c r="AR92" s="34"/>
+      <c r="AS92" s="5"/>
+      <c r="AT92" s="5" t="s">
+        <v>168</v>
+      </c>
       <c r="AU92" s="5"/>
       <c r="AV92" s="5"/>
       <c r="AW92" s="5"/>
-      <c r="AX92" s="35"/>
-    </row>
-    <row r="93" spans="4:50" ht="16" customHeight="1">
+      <c r="AX92" s="5"/>
+      <c r="AY92" s="35"/>
+    </row>
+    <row r="93" spans="4:51" ht="16" customHeight="1">
       <c r="F93" s="34"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="35"/>
       <c r="M93" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="X93" s="54" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y93" s="55"/>
+        <v>140</v>
+      </c>
+      <c r="W93" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y93" s="54" t="s">
+        <v>201</v>
+      </c>
       <c r="Z93" s="55"/>
       <c r="AA93" s="55"/>
       <c r="AB93" s="55"/>
-      <c r="AC93" s="56"/>
-      <c r="AD93" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="AH93" t="s">
-        <v>196</v>
-      </c>
-      <c r="AQ93" s="34"/>
-      <c r="AR93" s="5"/>
+      <c r="AC93" s="55"/>
+      <c r="AD93" s="56"/>
+      <c r="AE93" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI93" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR93" s="34"/>
       <c r="AS93" s="5"/>
-      <c r="AT93" s="5"/>
+      <c r="AT93" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="AU93" s="5"/>
       <c r="AV93" s="5"/>
       <c r="AW93" s="5"/>
-      <c r="AX93" s="35"/>
-    </row>
-    <row r="94" spans="4:50" ht="16" customHeight="1">
+      <c r="AX93" s="5"/>
+      <c r="AY93" s="35"/>
+    </row>
+    <row r="94" spans="4:51" ht="16" customHeight="1">
       <c r="F94" s="34"/>
       <c r="G94" s="5" t="s">
         <v>103</v>
@@ -5775,57 +6132,66 @@
       <c r="I94" s="5"/>
       <c r="J94" s="35"/>
       <c r="M94" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="X94" s="34"/>
-      <c r="Y94" s="88" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z94" s="5"/>
+        <v>140</v>
+      </c>
+      <c r="W94" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y94" s="34"/>
+      <c r="Z94" s="88" t="s">
+        <v>202</v>
+      </c>
       <c r="AA94" s="5"/>
       <c r="AB94" s="5"/>
-      <c r="AC94" s="35"/>
-      <c r="AQ94" s="34"/>
-      <c r="AR94" s="5"/>
+      <c r="AC94" s="5"/>
+      <c r="AD94" s="35"/>
+      <c r="AH94" t="s">
+        <v>190</v>
+      </c>
+      <c r="AR94" s="34"/>
       <c r="AS94" s="5"/>
-      <c r="AT94" s="5"/>
+      <c r="AT94" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="AU94" s="5"/>
       <c r="AV94" s="5"/>
       <c r="AW94" s="5"/>
-      <c r="AX94" s="35"/>
-    </row>
-    <row r="95" spans="4:50" ht="16" customHeight="1">
+      <c r="AX94" s="5"/>
+      <c r="AY94" s="35"/>
+    </row>
+    <row r="95" spans="4:51" ht="16" customHeight="1">
       <c r="F95" s="34"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
       <c r="J95" s="35"/>
       <c r="M95" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="X95" s="34"/>
-      <c r="Y95" s="5"/>
-      <c r="Z95" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="AA95" s="5"/>
+        <v>140</v>
+      </c>
+      <c r="W95" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y95" s="34"/>
+      <c r="Z95" s="5"/>
+      <c r="AA95" s="5" t="s">
+        <v>203</v>
+      </c>
       <c r="AB95" s="5"/>
-      <c r="AC95" s="35"/>
-      <c r="AF95" t="s">
-        <v>184</v>
-      </c>
-      <c r="AQ95" s="36"/>
-      <c r="AR95" s="81" t="s">
-        <v>168</v>
-      </c>
-      <c r="AS95" s="37"/>
-      <c r="AT95" s="37"/>
-      <c r="AU95" s="37"/>
-      <c r="AV95" s="37"/>
-      <c r="AW95" s="37"/>
-      <c r="AX95" s="38"/>
-    </row>
-    <row r="96" spans="4:50" ht="16" customHeight="1">
+      <c r="AC95" s="5"/>
+      <c r="AD95" s="35"/>
+      <c r="AI95" t="s">
+        <v>191</v>
+      </c>
+      <c r="AR95" s="34"/>
+      <c r="AS95" s="5"/>
+      <c r="AT95" s="5"/>
+      <c r="AU95" s="5"/>
+      <c r="AV95" s="5"/>
+      <c r="AW95" s="5"/>
+      <c r="AX95" s="5"/>
+      <c r="AY95" s="35"/>
+    </row>
+    <row r="96" spans="4:51" ht="16" customHeight="1">
       <c r="F96" s="34"/>
       <c r="G96" s="51" t="s">
         <v>105</v>
@@ -5834,24 +6200,32 @@
       <c r="I96" s="5"/>
       <c r="J96" s="35"/>
       <c r="M96" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="W96" s="128" t="s">
-        <v>142</v>
-      </c>
-      <c r="X96" s="36"/>
-      <c r="Y96" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="Z96" s="37"/>
+        <v>140</v>
+      </c>
+      <c r="W96" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X96" s="128" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y96" s="36"/>
+      <c r="Z96" s="37" t="s">
+        <v>218</v>
+      </c>
       <c r="AA96" s="37"/>
       <c r="AB96" s="37"/>
-      <c r="AC96" s="38"/>
-      <c r="AG96" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="97" spans="4:50" ht="16" customHeight="1">
+      <c r="AC96" s="37"/>
+      <c r="AD96" s="38"/>
+      <c r="AR96" s="34"/>
+      <c r="AS96" s="5"/>
+      <c r="AT96" s="5"/>
+      <c r="AU96" s="5"/>
+      <c r="AV96" s="5"/>
+      <c r="AW96" s="5"/>
+      <c r="AX96" s="5"/>
+      <c r="AY96" s="35"/>
+    </row>
+    <row r="97" spans="4:51" ht="16" customHeight="1">
       <c r="F97" s="34"/>
       <c r="G97" s="5"/>
       <c r="H97" s="52" t="s">
@@ -5860,16 +6234,29 @@
       <c r="I97" s="5"/>
       <c r="J97" s="35"/>
       <c r="M97" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="W97" s="129" t="s">
-        <v>143</v>
+        <v>140</v>
+      </c>
+      <c r="W97" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X97" s="129" t="s">
+        <v>140</v>
       </c>
       <c r="AG97" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="98" spans="4:50" ht="16" customHeight="1">
+        <v>179</v>
+      </c>
+      <c r="AR97" s="36"/>
+      <c r="AS97" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT97" s="37"/>
+      <c r="AU97" s="37"/>
+      <c r="AV97" s="37"/>
+      <c r="AW97" s="37"/>
+      <c r="AX97" s="37"/>
+      <c r="AY97" s="38"/>
+    </row>
+    <row r="98" spans="4:51" ht="16" customHeight="1">
       <c r="F98" s="34"/>
       <c r="G98" s="5" t="s">
         <v>106</v>
@@ -5878,20 +6265,19 @@
       <c r="I98" s="5"/>
       <c r="J98" s="35"/>
       <c r="M98" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="W98" s="87" t="s">
-        <v>143</v>
-      </c>
-      <c r="X98" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="AD98" s="87"/>
-      <c r="AG98" s="69" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="99" spans="4:50" ht="16" customHeight="1">
+        <v>140</v>
+      </c>
+      <c r="W98" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X98" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH98" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="99" spans="4:51" ht="16" customHeight="1">
       <c r="F99" s="34"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5" t="s">
@@ -5900,16 +6286,20 @@
       <c r="I99" s="5"/>
       <c r="J99" s="35"/>
       <c r="M99" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="W99" s="87" t="s">
-        <v>143</v>
-      </c>
-      <c r="X99" s="79" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="100" spans="4:50" ht="16" customHeight="1">
+        <v>140</v>
+      </c>
+      <c r="W99" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X99" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y99" s="79"/>
+      <c r="AH99" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="100" spans="4:51" ht="16" customHeight="1">
       <c r="F100" s="34"/>
       <c r="G100" s="5" t="s">
         <v>111</v>
@@ -5918,43 +6308,58 @@
       <c r="I100" s="5"/>
       <c r="J100" s="35"/>
       <c r="M100" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="W100" s="87" t="s">
-        <v>143</v>
-      </c>
-      <c r="X100" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y100" s="55"/>
+        <v>140</v>
+      </c>
+      <c r="W100" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X100" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y100" s="54" t="s">
+        <v>193</v>
+      </c>
       <c r="Z100" s="55"/>
       <c r="AA100" s="55"/>
       <c r="AB100" s="55"/>
-      <c r="AC100" s="56"/>
-    </row>
-    <row r="101" spans="4:50" ht="16" customHeight="1">
+      <c r="AC100" s="55"/>
+      <c r="AD100" s="56"/>
+      <c r="AE100" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH100" s="69" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="101" spans="4:51" ht="16" customHeight="1">
       <c r="F101" s="34"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
       <c r="J101" s="35"/>
       <c r="M101" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="W101" s="87" t="s">
-        <v>143</v>
-      </c>
-      <c r="X101" s="34"/>
-      <c r="Y101" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="Z101" s="5"/>
+        <v>140</v>
+      </c>
+      <c r="O101" s="69" t="s">
+        <v>247</v>
+      </c>
+      <c r="U101" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="W101" s="5"/>
+      <c r="X101" s="87"/>
+      <c r="Y101" s="34"/>
+      <c r="Z101" s="5" t="s">
+        <v>248</v>
+      </c>
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
-      <c r="AC101" s="35"/>
-      <c r="AD101" s="87"/>
-    </row>
-    <row r="102" spans="4:50" ht="16" customHeight="1">
+      <c r="AC101" s="5"/>
+      <c r="AD101" s="35"/>
+      <c r="AE101" s="5"/>
+      <c r="AH101" s="69"/>
+    </row>
+    <row r="102" spans="4:51" ht="16" customHeight="1">
       <c r="F102" s="34"/>
       <c r="G102" s="5" t="s">
         <v>110</v>
@@ -5963,56 +6368,54 @@
       <c r="I102" s="5"/>
       <c r="J102" s="35"/>
       <c r="M102" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="W102" s="87" t="s">
-        <v>143</v>
-      </c>
-      <c r="X102" s="36"/>
-      <c r="Y102" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z102" s="37"/>
-      <c r="AA102" s="37"/>
-      <c r="AB102" s="37"/>
-      <c r="AC102" s="38"/>
-      <c r="AD102" s="87"/>
-      <c r="AQ102" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="AR102" s="55"/>
-      <c r="AS102" s="55"/>
-      <c r="AT102" s="55"/>
-      <c r="AU102" s="55"/>
-      <c r="AV102" s="55"/>
-      <c r="AW102" s="55"/>
-      <c r="AX102" s="56"/>
-    </row>
-    <row r="103" spans="4:50" ht="16" customHeight="1">
+        <v>140</v>
+      </c>
+      <c r="P102" t="s">
+        <v>250</v>
+      </c>
+      <c r="W102" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X102" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y102" s="34"/>
+      <c r="Z102" s="5"/>
+      <c r="AA102" s="5"/>
+      <c r="AB102" s="5"/>
+      <c r="AC102" s="5"/>
+      <c r="AD102" s="35"/>
+      <c r="AE102" s="5"/>
+      <c r="AH102" s="69"/>
+    </row>
+    <row r="103" spans="4:51" ht="16" customHeight="1">
       <c r="F103" s="34"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
       <c r="J103" s="35"/>
       <c r="M103" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="W103" s="87" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD103" s="87"/>
-      <c r="AQ103" s="34"/>
-      <c r="AR103" s="79" t="s">
-        <v>137</v>
-      </c>
-      <c r="AS103" s="5"/>
-      <c r="AT103" s="5"/>
-      <c r="AU103" s="5"/>
-      <c r="AV103" s="5"/>
-      <c r="AW103" s="5"/>
-      <c r="AX103" s="35"/>
-    </row>
-    <row r="104" spans="4:50" ht="16" customHeight="1">
+        <v>140</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>251</v>
+      </c>
+      <c r="W103" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X103" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y103" s="34"/>
+      <c r="Z103" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA103" s="5"/>
+      <c r="AB103" s="5"/>
+      <c r="AC103" s="5"/>
+      <c r="AD103" s="35"/>
+    </row>
+    <row r="104" spans="4:51" ht="16" customHeight="1">
       <c r="F104" s="34"/>
       <c r="G104" s="5" t="s">
         <v>112</v>
@@ -6021,51 +6424,61 @@
       <c r="I104" s="5"/>
       <c r="J104" s="35"/>
       <c r="M104" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="W104" s="87" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD104" s="87"/>
-      <c r="AQ104" s="34"/>
-      <c r="AR104" s="79" t="s">
-        <v>171</v>
-      </c>
-      <c r="AS104" s="5"/>
-      <c r="AT104" s="5"/>
-      <c r="AU104" s="5"/>
-      <c r="AV104" s="5"/>
-      <c r="AW104" s="5"/>
-      <c r="AX104" s="35"/>
-    </row>
-    <row r="105" spans="4:50" ht="16" customHeight="1">
+        <v>140</v>
+      </c>
+      <c r="W104" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X104" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y104" s="36"/>
+      <c r="Z104" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA104" s="37"/>
+      <c r="AB104" s="37"/>
+      <c r="AC104" s="37"/>
+      <c r="AD104" s="38"/>
+      <c r="AR104" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="AS104" s="55"/>
+      <c r="AT104" s="55"/>
+      <c r="AU104" s="55"/>
+      <c r="AV104" s="55"/>
+      <c r="AW104" s="55"/>
+      <c r="AX104" s="55"/>
+      <c r="AY104" s="56"/>
+    </row>
+    <row r="105" spans="4:51" ht="16" customHeight="1">
       <c r="F105" s="34"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
       <c r="J105" s="35"/>
       <c r="M105" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="W105" s="87" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD105" s="87"/>
-      <c r="AF105" t="s">
-        <v>199</v>
-      </c>
-      <c r="AQ105" s="34"/>
-      <c r="AR105" s="79"/>
-      <c r="AS105" s="5" t="s">
-        <v>183</v>
+        <v>140</v>
+      </c>
+      <c r="W105" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X105" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE105" s="87"/>
+      <c r="AR105" s="34"/>
+      <c r="AS105" s="79" t="s">
+        <v>134</v>
       </c>
       <c r="AT105" s="5"/>
       <c r="AU105" s="5"/>
       <c r="AV105" s="5"/>
       <c r="AW105" s="5"/>
-      <c r="AX105" s="35"/>
-    </row>
-    <row r="106" spans="4:50" ht="16" customHeight="1">
+      <c r="AX105" s="5"/>
+      <c r="AY105" s="35"/>
+    </row>
+    <row r="106" spans="4:51" ht="16" customHeight="1">
       <c r="F106" s="34"/>
       <c r="G106" s="5" t="s">
         <v>111</v>
@@ -6074,73 +6487,83 @@
       <c r="I106" s="5"/>
       <c r="J106" s="35"/>
       <c r="M106" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="W106" s="87" t="s">
-        <v>143</v>
-      </c>
-      <c r="X106" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y106" s="55"/>
+        <v>140</v>
+      </c>
+      <c r="W106" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X106" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y106" s="54" t="s">
+        <v>199</v>
+      </c>
       <c r="Z106" s="55"/>
       <c r="AA106" s="55"/>
       <c r="AB106" s="55"/>
-      <c r="AC106" s="56"/>
-      <c r="AD106" s="5"/>
-      <c r="AG106" t="s">
-        <v>201</v>
-      </c>
-      <c r="AQ106" s="34"/>
-      <c r="AR106" s="5"/>
-      <c r="AS106" s="5"/>
+      <c r="AC106" s="55"/>
+      <c r="AD106" s="56"/>
+      <c r="AE106" s="87"/>
+      <c r="AR106" s="34"/>
+      <c r="AS106" s="79" t="s">
+        <v>166</v>
+      </c>
       <c r="AT106" s="5"/>
       <c r="AU106" s="5"/>
       <c r="AV106" s="5"/>
       <c r="AW106" s="5"/>
-      <c r="AX106" s="35"/>
-    </row>
-    <row r="107" spans="4:50" ht="16" customHeight="1">
+      <c r="AX106" s="5"/>
+      <c r="AY106" s="35"/>
+    </row>
+    <row r="107" spans="4:51" ht="16" customHeight="1">
       <c r="D107" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F107" s="34"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I107" s="5"/>
       <c r="J107" s="35"/>
       <c r="M107" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="W107" s="87" t="s">
-        <v>143</v>
-      </c>
-      <c r="X107" s="34"/>
-      <c r="Y107" s="90" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z107" s="90"/>
+        <v>140</v>
+      </c>
+      <c r="W107" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X107" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y107" s="34"/>
+      <c r="Z107" s="90" t="s">
+        <v>197</v>
+      </c>
       <c r="AA107" s="90"/>
       <c r="AB107" s="90"/>
-      <c r="AC107" s="35"/>
-      <c r="AD107" s="86"/>
-      <c r="AQ107" s="34"/>
-      <c r="AR107" s="5"/>
-      <c r="AS107" s="5"/>
-      <c r="AT107" s="5"/>
+      <c r="AC107" s="90"/>
+      <c r="AD107" s="35"/>
+      <c r="AE107" s="87"/>
+      <c r="AG107" t="s">
+        <v>194</v>
+      </c>
+      <c r="AR107" s="34"/>
+      <c r="AS107" s="79"/>
+      <c r="AT107" s="5" t="s">
+        <v>246</v>
+      </c>
       <c r="AU107" s="5"/>
       <c r="AV107" s="5"/>
       <c r="AW107" s="5"/>
-      <c r="AX107" s="35"/>
-    </row>
-    <row r="108" spans="4:50" ht="16" customHeight="1">
+      <c r="AX107" s="5"/>
+      <c r="AY107" s="35"/>
+    </row>
+    <row r="108" spans="4:51" ht="16" customHeight="1">
       <c r="D108" s="40" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F108" s="34" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G108" s="51" t="s">
         <v>109</v>
@@ -6149,29 +6572,36 @@
       <c r="I108" s="5"/>
       <c r="J108" s="35"/>
       <c r="M108" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="W108" s="128" t="s">
-        <v>153</v>
-      </c>
-      <c r="X108" s="34"/>
-      <c r="Y108" s="90"/>
+        <v>140</v>
+      </c>
+      <c r="W108" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X108" s="128" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y108" s="34"/>
       <c r="Z108" s="90"/>
       <c r="AA108" s="90"/>
       <c r="AB108" s="90"/>
-      <c r="AC108" s="35"/>
-      <c r="AQ108" s="34"/>
-      <c r="AR108" s="5"/>
+      <c r="AC108" s="90"/>
+      <c r="AD108" s="35"/>
+      <c r="AE108" s="5"/>
+      <c r="AH108" t="s">
+        <v>196</v>
+      </c>
+      <c r="AR108" s="34"/>
       <c r="AS108" s="5"/>
       <c r="AT108" s="5"/>
       <c r="AU108" s="5"/>
       <c r="AV108" s="5"/>
       <c r="AW108" s="5"/>
-      <c r="AX108" s="35"/>
-    </row>
-    <row r="109" spans="4:50" ht="16" customHeight="1">
+      <c r="AX108" s="5"/>
+      <c r="AY108" s="35"/>
+    </row>
+    <row r="109" spans="4:51" ht="16" customHeight="1">
       <c r="D109" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F109" s="34"/>
       <c r="G109" s="5"/>
@@ -6181,36 +6611,35 @@
       <c r="I109" s="5"/>
       <c r="J109" s="35"/>
       <c r="M109" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="X109" s="34"/>
-      <c r="Y109" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z109" s="5"/>
+        <v>140</v>
+      </c>
+      <c r="W109" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y109" s="34"/>
+      <c r="Z109" s="5" t="s">
+        <v>198</v>
+      </c>
       <c r="AA109" s="5"/>
       <c r="AB109" s="5"/>
-      <c r="AC109" s="35"/>
-      <c r="AF109" t="s">
-        <v>200</v>
-      </c>
-      <c r="AQ109" s="36"/>
-      <c r="AR109" s="81" t="s">
-        <v>168</v>
-      </c>
-      <c r="AS109" s="37"/>
-      <c r="AT109" s="37"/>
-      <c r="AU109" s="37"/>
-      <c r="AV109" s="37"/>
-      <c r="AW109" s="37"/>
-      <c r="AX109" s="38"/>
-    </row>
-    <row r="110" spans="4:50" ht="16" customHeight="1">
+      <c r="AC109" s="5"/>
+      <c r="AD109" s="35"/>
+      <c r="AE109" s="86"/>
+      <c r="AR109" s="34"/>
+      <c r="AS109" s="5"/>
+      <c r="AT109" s="5"/>
+      <c r="AU109" s="5"/>
+      <c r="AV109" s="5"/>
+      <c r="AW109" s="5"/>
+      <c r="AX109" s="5"/>
+      <c r="AY109" s="35"/>
+    </row>
+    <row r="110" spans="4:51" ht="16" customHeight="1">
       <c r="D110" s="40" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F110" s="34" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G110" s="5" t="s">
         <v>113</v>
@@ -6219,21 +6648,29 @@
       <c r="I110" s="5"/>
       <c r="J110" s="35"/>
       <c r="M110" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="X110" s="36"/>
-      <c r="Y110" s="89" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z110" s="37"/>
+        <v>140</v>
+      </c>
+      <c r="W110" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y110" s="36"/>
+      <c r="Z110" s="89" t="s">
+        <v>215</v>
+      </c>
       <c r="AA110" s="37"/>
       <c r="AB110" s="37"/>
-      <c r="AC110" s="38"/>
-      <c r="AG110" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="111" spans="4:50" ht="16" customHeight="1">
+      <c r="AC110" s="37"/>
+      <c r="AD110" s="38"/>
+      <c r="AR110" s="34"/>
+      <c r="AS110" s="5"/>
+      <c r="AT110" s="5"/>
+      <c r="AU110" s="5"/>
+      <c r="AV110" s="5"/>
+      <c r="AW110" s="5"/>
+      <c r="AX110" s="5"/>
+      <c r="AY110" s="35"/>
+    </row>
+    <row r="111" spans="4:51" ht="16" customHeight="1">
       <c r="F111" s="34"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5" t="s">
@@ -6242,13 +6679,29 @@
       <c r="I111" s="5"/>
       <c r="J111" s="35"/>
       <c r="M111" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH111" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="112" spans="4:50" ht="16" customHeight="1">
+        <v>140</v>
+      </c>
+      <c r="O111" t="s">
+        <v>230</v>
+      </c>
+      <c r="W111" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG111" t="s">
+        <v>195</v>
+      </c>
+      <c r="AR111" s="36"/>
+      <c r="AS111" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT111" s="37"/>
+      <c r="AU111" s="37"/>
+      <c r="AV111" s="37"/>
+      <c r="AW111" s="37"/>
+      <c r="AX111" s="37"/>
+      <c r="AY111" s="38"/>
+    </row>
+    <row r="112" spans="4:51" ht="16" customHeight="1">
       <c r="F112" s="34"/>
       <c r="G112" s="5"/>
       <c r="H112" s="5" t="s">
@@ -6257,21 +6710,19 @@
       <c r="I112" s="5"/>
       <c r="J112" s="35"/>
       <c r="M112" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="X112" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y112" s="55"/>
-      <c r="Z112" s="55"/>
-      <c r="AA112" s="55"/>
-      <c r="AB112" s="55"/>
-      <c r="AC112" s="56"/>
-      <c r="AG112" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="113" spans="6:50" ht="16" customHeight="1">
+        <v>140</v>
+      </c>
+      <c r="P112" t="s">
+        <v>233</v>
+      </c>
+      <c r="W112" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH112" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="113" spans="6:51" ht="16" customHeight="1">
       <c r="F113" s="36"/>
       <c r="G113" s="37"/>
       <c r="H113" s="37" t="s">
@@ -6280,242 +6731,194 @@
       <c r="I113" s="37"/>
       <c r="J113" s="38"/>
       <c r="M113" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="X113" s="34"/>
-      <c r="Y113" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="Z113" s="5"/>
-      <c r="AA113" s="5"/>
-      <c r="AB113" s="5"/>
-      <c r="AC113" s="35"/>
-    </row>
-    <row r="114" spans="6:50" ht="16" customHeight="1">
+        <v>140</v>
+      </c>
+      <c r="Y113" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z113" s="55"/>
+      <c r="AA113" s="55"/>
+      <c r="AB113" s="55"/>
+      <c r="AC113" s="55"/>
+      <c r="AD113" s="56"/>
+      <c r="AE113" t="s">
+        <v>249</v>
+      </c>
+      <c r="AH113" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="114" spans="6:51" ht="16" customHeight="1">
       <c r="H114" s="79" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="M114" s="40" t="s">
-        <v>156</v>
-      </c>
-      <c r="X114" s="34"/>
-      <c r="Y114" s="5"/>
-      <c r="Z114" s="127" t="s">
-        <v>219</v>
+        <v>151</v>
+      </c>
+      <c r="Y114" s="34"/>
+      <c r="Z114" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="AA114" s="5"/>
       <c r="AB114" s="5"/>
-      <c r="AC114" s="35"/>
-    </row>
-    <row r="115" spans="6:50" ht="16" customHeight="1">
-      <c r="X115" s="34"/>
-      <c r="Y115" s="5"/>
+      <c r="AC114" s="5"/>
+      <c r="AD114" s="35"/>
+    </row>
+    <row r="115" spans="6:51" ht="16" customHeight="1">
+      <c r="Y115" s="34"/>
       <c r="Z115" s="5"/>
-      <c r="AA115" s="5"/>
+      <c r="AA115" s="127" t="s">
+        <v>212</v>
+      </c>
       <c r="AB115" s="5"/>
-      <c r="AC115" s="35"/>
-    </row>
-    <row r="116" spans="6:50" ht="16" customHeight="1">
-      <c r="X116" s="34"/>
-      <c r="Y116" s="5"/>
-      <c r="Z116" s="5"/>
+      <c r="AC115" s="5"/>
+      <c r="AD115" s="35"/>
+    </row>
+    <row r="116" spans="6:51" ht="16" customHeight="1">
+      <c r="Y116" s="34"/>
+      <c r="Z116" s="5" t="s">
+        <v>207</v>
+      </c>
       <c r="AA116" s="5"/>
       <c r="AB116" s="5"/>
-      <c r="AC116" s="35"/>
-    </row>
-    <row r="117" spans="6:50" ht="16" customHeight="1">
-      <c r="X117" s="34"/>
-      <c r="Y117" s="5" t="s">
-        <v>214</v>
-      </c>
+      <c r="AC116" s="5"/>
+      <c r="AD116" s="35"/>
+    </row>
+    <row r="117" spans="6:51" ht="16" customHeight="1">
+      <c r="Y117" s="34"/>
       <c r="Z117" s="5"/>
-      <c r="AA117" s="5"/>
+      <c r="AA117" s="5" t="s">
+        <v>208</v>
+      </c>
       <c r="AB117" s="5"/>
-      <c r="AC117" s="35"/>
-    </row>
-    <row r="118" spans="6:50" ht="16" customHeight="1">
-      <c r="X118" s="34"/>
-      <c r="Y118" s="5"/>
+      <c r="AC117" s="5"/>
+      <c r="AD117" s="35"/>
+    </row>
+    <row r="118" spans="6:51" ht="16" customHeight="1">
+      <c r="Y118" s="34"/>
       <c r="Z118" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="AA118" s="5"/>
       <c r="AB118" s="5"/>
-      <c r="AC118" s="35"/>
-    </row>
-    <row r="119" spans="6:50" ht="16" customHeight="1">
-      <c r="X119" s="34"/>
-      <c r="Y119" s="5" t="s">
-        <v>216</v>
-      </c>
+      <c r="AC118" s="5"/>
+      <c r="AD118" s="35"/>
+    </row>
+    <row r="119" spans="6:51" ht="16" customHeight="1">
+      <c r="Y119" s="34"/>
       <c r="Z119" s="5"/>
-      <c r="AA119" s="5"/>
+      <c r="AA119" s="5" t="s">
+        <v>210</v>
+      </c>
       <c r="AB119" s="5"/>
-      <c r="AC119" s="35"/>
-    </row>
-    <row r="120" spans="6:50" ht="16" customHeight="1">
-      <c r="X120" s="34"/>
-      <c r="Y120" s="5"/>
-      <c r="Z120" s="5" t="s">
-        <v>217</v>
-      </c>
+      <c r="AC119" s="5"/>
+      <c r="AD119" s="35"/>
+      <c r="AR119" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="AS119" s="55"/>
+      <c r="AT119" s="55"/>
+      <c r="AU119" s="55"/>
+      <c r="AV119" s="55"/>
+      <c r="AW119" s="55"/>
+      <c r="AX119" s="55"/>
+      <c r="AY119" s="56"/>
+    </row>
+    <row r="120" spans="6:51" ht="16" customHeight="1">
+      <c r="Y120" s="34"/>
+      <c r="Z120" s="5"/>
       <c r="AA120" s="5"/>
       <c r="AB120" s="5"/>
-      <c r="AC120" s="35"/>
-      <c r="AQ120" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="AR120" s="55"/>
-      <c r="AS120" s="55"/>
-      <c r="AT120" s="55"/>
-      <c r="AU120" s="55"/>
-      <c r="AV120" s="55"/>
-      <c r="AW120" s="55"/>
-      <c r="AX120" s="56"/>
-    </row>
-    <row r="121" spans="6:50" ht="16" customHeight="1">
-      <c r="X121" s="34"/>
-      <c r="Y121" s="5"/>
-      <c r="Z121" s="5"/>
-      <c r="AA121" s="5"/>
-      <c r="AB121" s="5"/>
-      <c r="AC121" s="35"/>
-      <c r="AQ121" s="34"/>
-      <c r="AR121" s="79" t="s">
-        <v>137</v>
-      </c>
-      <c r="AS121" s="5"/>
+      <c r="AC120" s="5"/>
+      <c r="AD120" s="35"/>
+      <c r="AR120" s="34"/>
+      <c r="AS120" s="79" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT120" s="5"/>
+      <c r="AU120" s="5"/>
+      <c r="AV120" s="5"/>
+      <c r="AW120" s="5"/>
+      <c r="AX120" s="5"/>
+      <c r="AY120" s="35"/>
+    </row>
+    <row r="121" spans="6:51" ht="16" customHeight="1">
+      <c r="Y121" s="36"/>
+      <c r="Z121" s="89" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA121" s="37"/>
+      <c r="AB121" s="37"/>
+      <c r="AC121" s="37"/>
+      <c r="AD121" s="38"/>
+      <c r="AR121" s="34"/>
+      <c r="AS121" s="79" t="s">
+        <v>166</v>
+      </c>
       <c r="AT121" s="5"/>
       <c r="AU121" s="5"/>
       <c r="AV121" s="5"/>
       <c r="AW121" s="5"/>
-      <c r="AX121" s="35"/>
-    </row>
-    <row r="122" spans="6:50" ht="16" customHeight="1">
-      <c r="X122" s="36"/>
-      <c r="Y122" s="89" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z122" s="37"/>
-      <c r="AA122" s="37"/>
-      <c r="AB122" s="37"/>
-      <c r="AC122" s="38"/>
-      <c r="AQ122" s="34"/>
-      <c r="AR122" s="79" t="s">
-        <v>171</v>
-      </c>
+      <c r="AX121" s="5"/>
+      <c r="AY121" s="35"/>
+    </row>
+    <row r="122" spans="6:51" ht="16" customHeight="1">
+      <c r="AR122" s="34"/>
       <c r="AS122" s="5"/>
       <c r="AT122" s="5"/>
       <c r="AU122" s="5"/>
       <c r="AV122" s="5"/>
       <c r="AW122" s="5"/>
-      <c r="AX122" s="35"/>
-    </row>
-    <row r="123" spans="6:50" ht="16" customHeight="1">
-      <c r="AQ123" s="34"/>
-      <c r="AR123" s="79"/>
-      <c r="AS123" s="5" t="s">
-        <v>183</v>
-      </c>
+      <c r="AX122" s="5"/>
+      <c r="AY122" s="35"/>
+    </row>
+    <row r="123" spans="6:51" ht="16" customHeight="1">
+      <c r="AR123" s="34"/>
+      <c r="AS123" s="5"/>
       <c r="AT123" s="5"/>
       <c r="AU123" s="5"/>
       <c r="AV123" s="5"/>
       <c r="AW123" s="5"/>
-      <c r="AX123" s="35"/>
-    </row>
-    <row r="124" spans="6:50" ht="16" customHeight="1">
-      <c r="AQ124" s="34"/>
-      <c r="AR124" s="5"/>
-      <c r="AS124" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="AT124" s="5"/>
-      <c r="AU124" s="5"/>
-      <c r="AV124" s="5"/>
-      <c r="AW124" s="5"/>
-      <c r="AX124" s="35"/>
-    </row>
-    <row r="125" spans="6:50" ht="16" customHeight="1">
-      <c r="AQ125" s="34"/>
-      <c r="AR125" s="5"/>
-      <c r="AS125" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT125" s="5"/>
-      <c r="AU125" s="5"/>
-      <c r="AV125" s="5"/>
-      <c r="AW125" s="5"/>
-      <c r="AX125" s="35"/>
-    </row>
-    <row r="126" spans="6:50" ht="16" customHeight="1">
-      <c r="AQ126" s="34"/>
-      <c r="AR126" s="5"/>
-      <c r="AS126" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="AT126" s="5"/>
-      <c r="AU126" s="5"/>
-      <c r="AV126" s="5"/>
-      <c r="AW126" s="5"/>
-      <c r="AX126" s="35"/>
-    </row>
-    <row r="127" spans="6:50" ht="16" customHeight="1">
-      <c r="AQ127" s="34"/>
-      <c r="AR127" s="5"/>
-      <c r="AS127" s="5"/>
-      <c r="AT127" s="5"/>
-      <c r="AU127" s="5"/>
-      <c r="AV127" s="5"/>
-      <c r="AW127" s="5"/>
-      <c r="AX127" s="35"/>
-    </row>
-    <row r="128" spans="6:50" ht="16" customHeight="1">
-      <c r="AQ128" s="34"/>
-      <c r="AR128" s="5"/>
-      <c r="AS128" s="5"/>
-      <c r="AT128" s="5"/>
-      <c r="AU128" s="5"/>
-      <c r="AV128" s="5"/>
-      <c r="AW128" s="5"/>
-      <c r="AX128" s="35"/>
-    </row>
-    <row r="129" spans="24:50" ht="16" customHeight="1">
-      <c r="X129" t="s">
-        <v>220</v>
-      </c>
-      <c r="AQ129" s="36"/>
-      <c r="AR129" s="81" t="s">
-        <v>168</v>
-      </c>
-      <c r="AS129" s="37"/>
-      <c r="AT129" s="37"/>
-      <c r="AU129" s="37"/>
-      <c r="AV129" s="37"/>
-      <c r="AW129" s="37"/>
-      <c r="AX129" s="38"/>
+      <c r="AX123" s="5"/>
+      <c r="AY123" s="35"/>
+    </row>
+    <row r="124" spans="6:51" ht="16" customHeight="1">
+      <c r="Y124" t="s">
+        <v>213</v>
+      </c>
+      <c r="AR124" s="36"/>
+      <c r="AS124" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT124" s="37"/>
+      <c r="AU124" s="37"/>
+      <c r="AV124" s="37"/>
+      <c r="AW124" s="37"/>
+      <c r="AX124" s="37"/>
+      <c r="AY124" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="AR8:AX9"/>
-    <mergeCell ref="AR17:AX18"/>
-    <mergeCell ref="X19:AC19"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="O2:AP3"/>
-    <mergeCell ref="AF7:AM7"/>
+    <mergeCell ref="AS8:AY9"/>
+    <mergeCell ref="AS17:AY18"/>
+    <mergeCell ref="Y19:AD19"/>
+    <mergeCell ref="AT11:AX11"/>
+    <mergeCell ref="O2:AQ3"/>
+    <mergeCell ref="AG7:AN7"/>
     <mergeCell ref="Q10:S11"/>
     <mergeCell ref="P5:T5"/>
-    <mergeCell ref="Y107:AB108"/>
-    <mergeCell ref="X59:AC59"/>
+    <mergeCell ref="Z107:AC108"/>
+    <mergeCell ref="Y65:AD65"/>
     <mergeCell ref="F25:J26"/>
     <mergeCell ref="F20:J21"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="X23:AC23"/>
-    <mergeCell ref="AF40:AM40"/>
-    <mergeCell ref="AF37:AM37"/>
+    <mergeCell ref="AT20:AX20"/>
+    <mergeCell ref="Y23:AD23"/>
+    <mergeCell ref="AG40:AN40"/>
+    <mergeCell ref="AG37:AN37"/>
     <mergeCell ref="F47:J48"/>
-    <mergeCell ref="AF53:AM53"/>
-    <mergeCell ref="AF55:AM55"/>
-    <mergeCell ref="X35:AC35"/>
+    <mergeCell ref="AG53:AN53"/>
+    <mergeCell ref="AG55:AN55"/>
+    <mergeCell ref="Y35:AD35"/>
     <mergeCell ref="O54:T54"/>
   </mergeCells>
   <phoneticPr fontId="4"/>

--- a/maraSonSouce/marasong_memo.xlsx
+++ b/maraSonSouce/marasong_memo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hqu666/Documents/Develop/an/workSpace/maraSong/maraSonSouce/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F28751B-8021-284F-A258-9473E529D63A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDCC993-EBB4-FD4C-95C4-7C8293FE1FB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8180" yWindow="-18080" windowWidth="26760" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="256">
   <si>
     <t>MuList</t>
   </si>
@@ -1478,10 +1478,6 @@
     <t>CreatePLList</t>
   </si>
   <si>
-    <t>plAL != null</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>←──────────────────────────────────────────────</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1492,6 +1488,61 @@
   <si>
     <t>指定された名称のリストを作成する</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>plALに全曲リスト追記</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ゼンキョクリスト </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">ツイキ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>plAL != null　──────────────────────────────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>└→</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tuikaSakiListName </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>全曲リスト</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>──────────────────────────────────</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>m3U2PlayList</t>
   </si>
 </sst>
 </file>
@@ -2082,120 +2133,114 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2217,13 +2262,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>219363</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2438,13 +2483,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>68</xdr:col>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>57725</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>23091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>68</xdr:col>
+      <xdr:col>69</xdr:col>
       <xdr:colOff>146625</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>124691</xdr:rowOff>
@@ -2482,13 +2527,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>69</xdr:col>
+      <xdr:col>70</xdr:col>
       <xdr:colOff>80819</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>57727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>69</xdr:col>
+      <xdr:col>70</xdr:col>
       <xdr:colOff>169719</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>159327</xdr:rowOff>
@@ -2824,10 +2869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:AY124"/>
+  <dimension ref="C2:AZ127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D90" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AA123" sqref="AA123"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="R99" sqref="R99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -2836,88 +2881,87 @@
     <col min="2" max="5" width="1.6640625" customWidth="1"/>
     <col min="6" max="7" width="2.1640625" customWidth="1"/>
     <col min="8" max="8" width="29.6640625" customWidth="1"/>
-    <col min="9" max="18" width="2.1640625" customWidth="1"/>
-    <col min="19" max="19" width="29.1640625" customWidth="1"/>
-    <col min="20" max="28" width="3" customWidth="1"/>
-    <col min="29" max="29" width="26.83203125" customWidth="1"/>
-    <col min="30" max="38" width="2.83203125" customWidth="1"/>
-    <col min="39" max="39" width="22.6640625" customWidth="1"/>
-    <col min="40" max="40" width="2" customWidth="1"/>
-    <col min="41" max="42" width="2.1640625" customWidth="1"/>
-    <col min="43" max="46" width="2.33203125" customWidth="1"/>
-    <col min="47" max="47" width="1.83203125" customWidth="1"/>
-    <col min="48" max="48" width="2.5" customWidth="1"/>
-    <col min="49" max="49" width="29.1640625" customWidth="1"/>
-    <col min="50" max="53" width="2.5" customWidth="1"/>
+    <col min="9" max="19" width="2.1640625" customWidth="1"/>
+    <col min="20" max="20" width="29.1640625" customWidth="1"/>
+    <col min="21" max="29" width="3" customWidth="1"/>
+    <col min="30" max="30" width="26.83203125" customWidth="1"/>
+    <col min="31" max="39" width="2.83203125" customWidth="1"/>
+    <col min="40" max="40" width="22.6640625" customWidth="1"/>
+    <col min="41" max="41" width="2" customWidth="1"/>
+    <col min="42" max="43" width="2.1640625" customWidth="1"/>
+    <col min="44" max="47" width="2.33203125" customWidth="1"/>
+    <col min="48" max="48" width="1.83203125" customWidth="1"/>
+    <col min="49" max="49" width="2.5" customWidth="1"/>
+    <col min="50" max="50" width="29.1640625" customWidth="1"/>
+    <col min="51" max="54" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="15:51" ht="16" customHeight="1">
-      <c r="O2" s="117" t="s">
+    <row r="2" spans="16:52" ht="16" customHeight="1">
+      <c r="P2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="118"/>
-      <c r="S2" s="118"/>
-      <c r="T2" s="118"/>
-      <c r="U2" s="118"/>
-      <c r="V2" s="118"/>
-      <c r="W2" s="118"/>
-      <c r="X2" s="118"/>
-      <c r="Y2" s="118"/>
-      <c r="Z2" s="118"/>
-      <c r="AA2" s="118"/>
-      <c r="AB2" s="118"/>
-      <c r="AC2" s="118"/>
-      <c r="AD2" s="118"/>
-      <c r="AE2" s="118"/>
-      <c r="AF2" s="118"/>
-      <c r="AG2" s="118"/>
-      <c r="AH2" s="118"/>
-      <c r="AI2" s="118"/>
-      <c r="AJ2" s="118"/>
-      <c r="AK2" s="118"/>
-      <c r="AL2" s="118"/>
-      <c r="AM2" s="118"/>
-      <c r="AN2" s="118"/>
-      <c r="AO2" s="118"/>
-      <c r="AP2" s="118"/>
-      <c r="AQ2" s="119"/>
-    </row>
-    <row r="3" spans="15:51" ht="16" customHeight="1">
-      <c r="O3" s="120"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="94"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="94"/>
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="94"/>
+      <c r="AG2" s="94"/>
+      <c r="AH2" s="94"/>
+      <c r="AI2" s="94"/>
+      <c r="AJ2" s="94"/>
+      <c r="AK2" s="94"/>
+      <c r="AL2" s="94"/>
+      <c r="AM2" s="94"/>
+      <c r="AN2" s="94"/>
+      <c r="AO2" s="94"/>
+      <c r="AP2" s="94"/>
+      <c r="AQ2" s="94"/>
+      <c r="AR2" s="95"/>
+    </row>
+    <row r="3" spans="16:52" ht="16" customHeight="1">
       <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="96"/>
-      <c r="Z3" s="96"/>
-      <c r="AA3" s="96"/>
-      <c r="AB3" s="96"/>
-      <c r="AC3" s="96"/>
-      <c r="AD3" s="96"/>
-      <c r="AE3" s="96"/>
-      <c r="AF3" s="96"/>
-      <c r="AG3" s="96"/>
-      <c r="AH3" s="96"/>
-      <c r="AI3" s="96"/>
-      <c r="AJ3" s="96"/>
-      <c r="AK3" s="96"/>
-      <c r="AL3" s="96"/>
-      <c r="AM3" s="96"/>
-      <c r="AN3" s="96"/>
-      <c r="AO3" s="96"/>
-      <c r="AP3" s="96"/>
-      <c r="AQ3" s="121"/>
-    </row>
-    <row r="4" spans="15:51" ht="16" customHeight="1">
-      <c r="O4" s="4"/>
-      <c r="P4" s="5"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="97"/>
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97"/>
+      <c r="AN3" s="97"/>
+      <c r="AO3" s="97"/>
+      <c r="AP3" s="97"/>
+      <c r="AQ3" s="97"/>
+      <c r="AR3" s="98"/>
+    </row>
+    <row r="4" spans="16:52" ht="16" customHeight="1">
+      <c r="P4" s="4"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
@@ -2944,18 +2988,18 @@
       <c r="AN4" s="5"/>
       <c r="AO4" s="5"/>
       <c r="AP4" s="5"/>
-      <c r="AQ4" s="6"/>
-    </row>
-    <row r="5" spans="15:51" ht="16" customHeight="1">
-      <c r="O5" s="4"/>
-      <c r="P5" s="99" t="s">
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="6"/>
+    </row>
+    <row r="5" spans="16:52" ht="16" customHeight="1">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="100"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="100"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="101"/>
       <c r="T5" s="101"/>
-      <c r="U5" s="5"/>
+      <c r="U5" s="102"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
@@ -2977,205 +3021,205 @@
       <c r="AN5" s="5"/>
       <c r="AO5" s="5"/>
       <c r="AP5" s="5"/>
-      <c r="AQ5" s="6"/>
-    </row>
-    <row r="6" spans="15:51" ht="16" customHeight="1">
-      <c r="O6" s="4"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="1" t="s">
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="6"/>
+    </row>
+    <row r="6" spans="16:52" ht="16" customHeight="1">
+      <c r="P6" s="4"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="5"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="12"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
-      <c r="Y6" s="16" t="s">
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="Z6" s="17"/>
       <c r="AA6" s="17"/>
       <c r="AB6" s="17"/>
       <c r="AC6" s="17"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="22"/>
-      <c r="AQ6" s="5"/>
-    </row>
-    <row r="7" spans="15:51" ht="16" customHeight="1">
-      <c r="O7" s="4"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="22"/>
+      <c r="AR6" s="5"/>
+    </row>
+    <row r="7" spans="16:52" ht="16" customHeight="1">
       <c r="P7" s="4"/>
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" s="4"/>
+      <c r="R7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="R7" s="5"/>
       <c r="S7" s="5"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="6"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="5" t="s">
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="AA7" s="5"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="5"/>
-      <c r="AG7" s="123" t="s">
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="5"/>
+      <c r="AH7" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="AH7" s="124"/>
-      <c r="AI7" s="124"/>
-      <c r="AJ7" s="124"/>
-      <c r="AK7" s="124"/>
-      <c r="AL7" s="124"/>
-      <c r="AM7" s="124"/>
-      <c r="AN7" s="125"/>
-      <c r="AO7" s="22"/>
+      <c r="AI7" s="104"/>
+      <c r="AJ7" s="104"/>
+      <c r="AK7" s="104"/>
+      <c r="AL7" s="104"/>
+      <c r="AM7" s="104"/>
+      <c r="AN7" s="104"/>
+      <c r="AO7" s="105"/>
       <c r="AP7" s="22"/>
-      <c r="AQ7" s="5"/>
-    </row>
-    <row r="8" spans="15:51" ht="16" customHeight="1">
-      <c r="O8" s="4"/>
+      <c r="AQ7" s="22"/>
+      <c r="AR7" s="5"/>
+    </row>
+    <row r="8" spans="16:52" ht="16" customHeight="1">
       <c r="P8" s="4"/>
-      <c r="Q8" s="5" t="s">
+      <c r="Q8" s="4"/>
+      <c r="R8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="5"/>
       <c r="S8" s="5"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="6"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
-      <c r="Y8" s="2"/>
-      <c r="AA8" s="7" t="s">
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="2"/>
+      <c r="AB8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="5"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="5" t="s">
+      <c r="AD8" s="7"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="5"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="AI8" s="5"/>
       <c r="AJ8" s="5"/>
       <c r="AK8" s="5"/>
       <c r="AL8" s="5"/>
       <c r="AM8" s="5"/>
-      <c r="AN8" s="6"/>
-      <c r="AO8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="6"/>
       <c r="AP8" s="5"/>
       <c r="AQ8" s="5"/>
-      <c r="AS8" s="117" t="s">
+      <c r="AR8" s="5"/>
+      <c r="AT8" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="AT8" s="118"/>
-      <c r="AU8" s="118"/>
-      <c r="AV8" s="118"/>
-      <c r="AW8" s="118"/>
-      <c r="AX8" s="118"/>
-      <c r="AY8" s="119"/>
-    </row>
-    <row r="9" spans="15:51" ht="16" customHeight="1">
-      <c r="O9" s="4"/>
+      <c r="AU8" s="94"/>
+      <c r="AV8" s="94"/>
+      <c r="AW8" s="94"/>
+      <c r="AX8" s="94"/>
+      <c r="AY8" s="94"/>
+      <c r="AZ8" s="95"/>
+    </row>
+    <row r="9" spans="16:52" ht="16" customHeight="1">
       <c r="P9" s="4"/>
-      <c r="Q9" s="5"/>
+      <c r="Q9" s="4"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="6"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
-      <c r="Z9" s="5" t="s">
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="AA9" s="5"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="7"/>
+      <c r="AF9" s="5"/>
+      <c r="AH9" s="2"/>
       <c r="AI9" s="7"/>
       <c r="AJ9" s="7"/>
       <c r="AK9" s="7"/>
       <c r="AL9" s="7"/>
-      <c r="AM9" s="7" t="s">
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="5"/>
+      <c r="AO9" s="3"/>
       <c r="AP9" s="5"/>
       <c r="AQ9" s="5"/>
-      <c r="AS9" s="120"/>
+      <c r="AR9" s="5"/>
       <c r="AT9" s="96"/>
-      <c r="AU9" s="96"/>
-      <c r="AV9" s="96"/>
-      <c r="AW9" s="96"/>
-      <c r="AX9" s="96"/>
-      <c r="AY9" s="121"/>
-    </row>
-    <row r="10" spans="15:51" ht="16" customHeight="1">
-      <c r="O10" s="4"/>
+      <c r="AU9" s="97"/>
+      <c r="AV9" s="97"/>
+      <c r="AW9" s="97"/>
+      <c r="AX9" s="97"/>
+      <c r="AY9" s="97"/>
+      <c r="AZ9" s="98"/>
+    </row>
+    <row r="10" spans="16:52" ht="16" customHeight="1">
       <c r="P10" s="4"/>
-      <c r="Q10" s="126" t="s">
+      <c r="Q10" s="4"/>
+      <c r="R10" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="R10" s="126"/>
-      <c r="S10" s="126"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="5"/>
+      <c r="S10" s="106"/>
+      <c r="T10" s="106"/>
+      <c r="U10" s="26"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
-      <c r="Z10" t="s">
+      <c r="Y10" s="5"/>
+      <c r="AA10" t="s">
         <v>134</v>
       </c>
-      <c r="AF10" s="22"/>
       <c r="AG10" s="22"/>
       <c r="AH10" s="22"/>
-      <c r="AI10" s="66"/>
+      <c r="AI10" s="22"/>
       <c r="AJ10" s="66"/>
       <c r="AK10" s="66"/>
       <c r="AL10" s="66"/>
-      <c r="AM10" s="22"/>
+      <c r="AM10" s="66"/>
       <c r="AN10" s="22"/>
       <c r="AO10" s="22"/>
       <c r="AP10" s="22"/>
-      <c r="AQ10" s="21"/>
-      <c r="AS10" s="4"/>
-      <c r="AY10" s="6"/>
-    </row>
-    <row r="11" spans="15:51" ht="16" customHeight="1">
-      <c r="O11" s="4"/>
+      <c r="AQ10" s="22"/>
+      <c r="AR10" s="21"/>
+      <c r="AT10" s="4"/>
+      <c r="AZ10" s="6"/>
+    </row>
+    <row r="11" spans="16:52" ht="16" customHeight="1">
       <c r="P11" s="4"/>
-      <c r="Q11" s="126"/>
-      <c r="R11" s="126"/>
-      <c r="S11" s="126"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="5"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="106"/>
+      <c r="S11" s="106"/>
+      <c r="T11" s="106"/>
+      <c r="U11" s="26"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
-      <c r="Y11" s="70" t="s">
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="70" t="s">
         <v>241</v>
       </c>
-      <c r="Z11" s="71"/>
       <c r="AA11" s="71"/>
       <c r="AB11" s="71"/>
       <c r="AC11" s="71"/>
-      <c r="AD11" s="72"/>
-      <c r="AE11" s="20"/>
-      <c r="AF11" s="5"/>
+      <c r="AD11" s="71"/>
+      <c r="AE11" s="72"/>
+      <c r="AF11" s="20"/>
       <c r="AG11" s="5"/>
       <c r="AH11" s="5"/>
       <c r="AI11" s="5"/>
@@ -3187,37 +3231,37 @@
       <c r="AO11" s="5"/>
       <c r="AP11" s="5"/>
       <c r="AQ11" s="5"/>
-      <c r="AS11" s="4"/>
-      <c r="AT11" s="99" t="s">
+      <c r="AR11" s="5"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="AU11" s="100"/>
-      <c r="AV11" s="100"/>
-      <c r="AW11" s="100"/>
+      <c r="AV11" s="101"/>
+      <c r="AW11" s="101"/>
       <c r="AX11" s="101"/>
-      <c r="AY11" s="6"/>
-    </row>
-    <row r="12" spans="15:51" ht="16" customHeight="1">
-      <c r="O12" s="4"/>
+      <c r="AY11" s="102"/>
+      <c r="AZ11" s="6"/>
+    </row>
+    <row r="12" spans="16:52" ht="16" customHeight="1">
       <c r="P12" s="4"/>
-      <c r="Q12" s="65"/>
+      <c r="Q12" s="4"/>
       <c r="R12" s="65"/>
       <c r="S12" s="65"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="5"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="26"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="61"/>
-      <c r="Z12" s="69" t="s">
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="61"/>
+      <c r="AA12" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="AA12" s="62"/>
       <c r="AB12" s="62"/>
       <c r="AC12" s="62"/>
-      <c r="AD12" s="68"/>
-      <c r="AE12" s="62"/>
-      <c r="AF12" s="5"/>
+      <c r="AD12" s="62"/>
+      <c r="AE12" s="68"/>
+      <c r="AF12" s="62"/>
       <c r="AG12" s="5"/>
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
@@ -3229,40 +3273,40 @@
       <c r="AO12" s="5"/>
       <c r="AP12" s="5"/>
       <c r="AQ12" s="5"/>
-      <c r="AS12" s="4"/>
-      <c r="AU12" s="1" t="s">
+      <c r="AR12" s="5"/>
+      <c r="AT12" s="4"/>
+      <c r="AV12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AV12" s="1"/>
       <c r="AW12" s="1"/>
-      <c r="AX12" s="6"/>
+      <c r="AX12" s="1"/>
       <c r="AY12" s="6"/>
-    </row>
-    <row r="13" spans="15:51" ht="16" customHeight="1">
-      <c r="O13" s="4"/>
+      <c r="AZ12" s="6"/>
+    </row>
+    <row r="13" spans="16:52" ht="16" customHeight="1">
       <c r="P13" s="4"/>
-      <c r="Q13" s="65"/>
+      <c r="Q13" s="4"/>
       <c r="R13" s="65"/>
       <c r="S13" s="65"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="5"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="26"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
-      <c r="Y13" s="61"/>
-      <c r="Z13" s="1" t="s">
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AA13" s="62"/>
       <c r="AB13" s="62"/>
       <c r="AC13" s="62"/>
-      <c r="AD13" s="68"/>
-      <c r="AE13" s="62"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="62" t="s">
+      <c r="AD13" s="62"/>
+      <c r="AE13" s="68"/>
+      <c r="AF13" s="62"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="AH13" s="5"/>
       <c r="AI13" s="5"/>
       <c r="AJ13" s="5"/>
       <c r="AK13" s="5"/>
@@ -3272,38 +3316,38 @@
       <c r="AO13" s="5"/>
       <c r="AP13" s="5"/>
       <c r="AQ13" s="5"/>
-      <c r="AS13" s="4"/>
+      <c r="AR13" s="5"/>
       <c r="AT13" s="4"/>
-      <c r="AU13" s="5" t="s">
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AV13" s="5"/>
       <c r="AW13" s="5"/>
-      <c r="AX13" s="6"/>
+      <c r="AX13" s="5"/>
       <c r="AY13" s="6"/>
-    </row>
-    <row r="14" spans="15:51" ht="16" customHeight="1">
-      <c r="O14" s="4"/>
+      <c r="AZ13" s="6"/>
+    </row>
+    <row r="14" spans="16:52" ht="16" customHeight="1">
       <c r="P14" s="4"/>
-      <c r="Q14" s="5"/>
+      <c r="Q14" s="4"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5" t="s">
+      <c r="T14" s="5"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="W14" s="5"/>
       <c r="X14" s="5"/>
-      <c r="Y14" s="11"/>
-      <c r="AA14" s="5" t="s">
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="11"/>
+      <c r="AB14" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="19"/>
-      <c r="AF14" s="5"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="19"/>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
       <c r="AI14" s="5"/>
@@ -3315,39 +3359,39 @@
       <c r="AO14" s="5"/>
       <c r="AP14" s="5"/>
       <c r="AQ14" s="5"/>
-      <c r="AS14" s="4"/>
-      <c r="AT14" s="2"/>
-      <c r="AU14" s="7"/>
-      <c r="AV14" s="7" t="s">
+      <c r="AR14" s="5"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="7"/>
+      <c r="AW14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="AW14" s="7"/>
-      <c r="AX14" s="3"/>
-      <c r="AY14" s="6"/>
-    </row>
-    <row r="15" spans="15:51" ht="16" customHeight="1">
-      <c r="O15" s="4"/>
+      <c r="AX14" s="7"/>
+      <c r="AY14" s="3"/>
+      <c r="AZ14" s="6"/>
+    </row>
+    <row r="15" spans="16:52" ht="16" customHeight="1">
       <c r="P15" s="4"/>
-      <c r="Q15" s="5" t="s">
+      <c r="Q15" s="4"/>
+      <c r="R15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="R15" s="5"/>
       <c r="S15" s="5"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="X15" s="5"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="5" t="s">
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="6"/>
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
       <c r="AH15" s="5"/>
@@ -3360,38 +3404,38 @@
       <c r="AO15" s="5"/>
       <c r="AP15" s="5"/>
       <c r="AQ15" s="5"/>
-      <c r="AS15" s="2"/>
-      <c r="AT15" s="7"/>
+      <c r="AR15" s="5"/>
+      <c r="AT15" s="2"/>
       <c r="AU15" s="7"/>
       <c r="AV15" s="7"/>
       <c r="AW15" s="7"/>
       <c r="AX15" s="7"/>
-      <c r="AY15" s="3"/>
-    </row>
-    <row r="16" spans="15:51" ht="16" customHeight="1">
-      <c r="O16" s="4"/>
+      <c r="AY15" s="7"/>
+      <c r="AZ15" s="3"/>
+    </row>
+    <row r="16" spans="16:52" ht="16" customHeight="1">
       <c r="P16" s="4"/>
-      <c r="Q16" s="5"/>
+      <c r="Q16" s="4"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="X16" s="5"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5" t="s">
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="AB16" s="5" t="s">
+      <c r="AC16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="6"/>
       <c r="AF16" s="5"/>
       <c r="AG16" s="5"/>
       <c r="AH16" s="5"/>
@@ -3403,30 +3447,30 @@
       <c r="AN16" s="5"/>
       <c r="AO16" s="5"/>
       <c r="AP16" s="5"/>
-      <c r="AQ16" s="19"/>
-    </row>
-    <row r="17" spans="3:51" ht="16" customHeight="1">
-      <c r="O17" s="4"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="7"/>
+      <c r="AQ16" s="5"/>
+      <c r="AR16" s="19"/>
+    </row>
+    <row r="17" spans="3:52" ht="16" customHeight="1">
+      <c r="P17" s="4"/>
+      <c r="Q17" s="2"/>
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W17" s="5"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="X17" s="5"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB17" s="7"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AC17" s="7"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="5"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="3"/>
       <c r="AF17" s="5"/>
       <c r="AG17" s="5"/>
       <c r="AH17" s="5"/>
@@ -3438,34 +3482,34 @@
       <c r="AN17" s="5"/>
       <c r="AO17" s="5"/>
       <c r="AP17" s="5"/>
-      <c r="AQ17" s="19"/>
-      <c r="AS17" s="117" t="s">
+      <c r="AQ17" s="5"/>
+      <c r="AR17" s="19"/>
+      <c r="AT17" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="AT17" s="118"/>
-      <c r="AU17" s="118"/>
-      <c r="AV17" s="118"/>
-      <c r="AW17" s="118"/>
-      <c r="AX17" s="118"/>
-      <c r="AY17" s="119"/>
-    </row>
-    <row r="18" spans="3:51" ht="16" customHeight="1">
-      <c r="O18" s="4"/>
-      <c r="P18" s="5"/>
+      <c r="AU17" s="94"/>
+      <c r="AV17" s="94"/>
+      <c r="AW17" s="94"/>
+      <c r="AX17" s="94"/>
+      <c r="AY17" s="94"/>
+      <c r="AZ17" s="95"/>
+    </row>
+    <row r="18" spans="3:52" ht="16" customHeight="1">
+      <c r="P18" s="4"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
-      <c r="V18" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="X18" s="5"/>
-      <c r="AA18" s="5" t="s">
+      <c r="Y18" s="5"/>
+      <c r="AB18" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
       <c r="AH18" s="19"/>
       <c r="AI18" s="19"/>
@@ -3476,37 +3520,37 @@
       <c r="AN18" s="19"/>
       <c r="AO18" s="19"/>
       <c r="AP18" s="19"/>
-      <c r="AQ18" s="5"/>
-      <c r="AS18" s="120"/>
+      <c r="AQ18" s="19"/>
+      <c r="AR18" s="5"/>
       <c r="AT18" s="96"/>
-      <c r="AU18" s="96"/>
-      <c r="AV18" s="96"/>
-      <c r="AW18" s="96"/>
-      <c r="AX18" s="96"/>
-      <c r="AY18" s="121"/>
-    </row>
-    <row r="19" spans="3:51" ht="16" customHeight="1">
-      <c r="O19" s="4"/>
-      <c r="Q19" s="5"/>
+      <c r="AU18" s="97"/>
+      <c r="AV18" s="97"/>
+      <c r="AW18" s="97"/>
+      <c r="AX18" s="97"/>
+      <c r="AY18" s="97"/>
+      <c r="AZ18" s="98"/>
+    </row>
+    <row r="19" spans="3:52" ht="16" customHeight="1">
+      <c r="P19" s="4"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
-      <c r="V19" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="X19" s="5"/>
-      <c r="Y19" s="122" t="s">
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="Z19" s="122"/>
-      <c r="AA19" s="122"/>
-      <c r="AB19" s="122"/>
-      <c r="AC19" s="122"/>
-      <c r="AD19" s="122"/>
-      <c r="AE19" s="23"/>
-      <c r="AF19" s="19"/>
+      <c r="AA19" s="99"/>
+      <c r="AB19" s="99"/>
+      <c r="AC19" s="99"/>
+      <c r="AD19" s="99"/>
+      <c r="AE19" s="99"/>
+      <c r="AF19" s="23"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="19"/>
       <c r="AI19" s="19"/>
@@ -3517,47 +3561,47 @@
       <c r="AN19" s="19"/>
       <c r="AO19" s="19"/>
       <c r="AP19" s="19"/>
-      <c r="AQ19" s="5"/>
-      <c r="AS19" s="4"/>
-      <c r="AT19" s="5"/>
+      <c r="AQ19" s="19"/>
+      <c r="AR19" s="5"/>
+      <c r="AT19" s="4"/>
       <c r="AU19" s="5"/>
       <c r="AV19" s="5"/>
       <c r="AW19" s="5"/>
       <c r="AX19" s="5"/>
-      <c r="AY19" s="6"/>
-    </row>
-    <row r="20" spans="3:51" ht="16" customHeight="1">
+      <c r="AY19" s="5"/>
+      <c r="AZ19" s="6"/>
+    </row>
+    <row r="20" spans="3:52" ht="16" customHeight="1">
       <c r="C20" s="59"/>
       <c r="D20" s="59"/>
       <c r="E20" s="59"/>
-      <c r="F20" s="98" t="s">
+      <c r="F20" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="98"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="98"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="114"/>
       <c r="K20" s="59"/>
       <c r="L20" s="59"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="31" t="s">
+      <c r="P20" s="4"/>
+      <c r="Q20" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="Q20" s="32"/>
       <c r="R20" s="32"/>
       <c r="S20" s="32"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W20" s="5"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
-      <c r="Z20" s="10" t="s">
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="AA20" s="5"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
@@ -3573,45 +3617,45 @@
       <c r="AN20" s="5"/>
       <c r="AO20" s="5"/>
       <c r="AP20" s="5"/>
-      <c r="AQ20" t="s">
+      <c r="AQ20" s="5"/>
+      <c r="AR20" t="s">
         <v>150</v>
       </c>
-      <c r="AS20" s="4" t="s">
+      <c r="AT20" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AT20" s="99" t="s">
+      <c r="AU20" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="AU20" s="100"/>
-      <c r="AV20" s="100"/>
-      <c r="AW20" s="100"/>
+      <c r="AV20" s="101"/>
+      <c r="AW20" s="101"/>
       <c r="AX20" s="101"/>
-      <c r="AY20" s="6"/>
-    </row>
-    <row r="21" spans="3:51" ht="16" customHeight="1">
+      <c r="AY20" s="102"/>
+      <c r="AZ20" s="6"/>
+    </row>
+    <row r="21" spans="3:52" ht="16" customHeight="1">
       <c r="C21" s="59"/>
       <c r="D21" s="59"/>
       <c r="E21" s="59"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="114"/>
       <c r="K21" s="59"/>
       <c r="L21" s="59"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="5" t="s">
+      <c r="P21" s="4"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R21" s="5"/>
       <c r="S21" s="5"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
@@ -3620,92 +3664,92 @@
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
-      <c r="AQ21" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS21" s="4"/>
-      <c r="AT21" s="11"/>
-      <c r="AU21" s="5" t="s">
+      <c r="AF21" s="5"/>
+      <c r="AR21" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT21" s="4"/>
+      <c r="AU21" s="11"/>
+      <c r="AV21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AV21" s="5"/>
       <c r="AW21" s="5"/>
-      <c r="AX21" s="8"/>
-      <c r="AY21" s="6"/>
-    </row>
-    <row r="22" spans="3:51" ht="16" customHeight="1">
+      <c r="AX21" s="5"/>
+      <c r="AY21" s="8"/>
+      <c r="AZ21" s="6"/>
+    </row>
+    <row r="22" spans="3:52" ht="16" customHeight="1">
       <c r="H22" t="s">
         <v>146</v>
       </c>
       <c r="L22" t="s">
         <v>147</v>
       </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="5" t="s">
+      <c r="P22" s="4"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="R22" s="5" t="s">
+      <c r="S22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="S22" s="5"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="X22" s="5"/>
-      <c r="AF22" s="23"/>
+      <c r="Y22" s="5"/>
       <c r="AG22" s="23"/>
       <c r="AH22" s="23"/>
-      <c r="AI22" s="60"/>
+      <c r="AI22" s="23"/>
       <c r="AJ22" s="60"/>
       <c r="AK22" s="60"/>
       <c r="AL22" s="60"/>
-      <c r="AM22" s="23"/>
+      <c r="AM22" s="60"/>
       <c r="AN22" s="23"/>
       <c r="AO22" s="23"/>
-      <c r="AP22" s="29"/>
-      <c r="AQ22" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS22" s="4"/>
+      <c r="AP22" s="23"/>
+      <c r="AQ22" s="29"/>
+      <c r="AR22" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AT22" s="4"/>
-      <c r="AU22" s="1" t="s">
+      <c r="AU22" s="4"/>
+      <c r="AV22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AV22" s="1"/>
       <c r="AW22" s="1"/>
-      <c r="AX22" s="6"/>
+      <c r="AX22" s="1"/>
       <c r="AY22" s="6"/>
-    </row>
-    <row r="23" spans="3:51" ht="16" customHeight="1">
+      <c r="AZ22" s="6"/>
+    </row>
+    <row r="23" spans="3:52" ht="16" customHeight="1">
       <c r="L23" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O23" s="4"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="R23" s="37" t="s">
+      <c r="P23" s="4"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="S23" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="S23" s="37"/>
-      <c r="T23" s="38"/>
-      <c r="V23" s="5"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="38"/>
       <c r="W23" s="5"/>
-      <c r="Y23" s="102" t="s">
+      <c r="X23" s="5"/>
+      <c r="Z23" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="Z23" s="103"/>
-      <c r="AA23" s="103"/>
-      <c r="AB23" s="103"/>
-      <c r="AC23" s="103"/>
-      <c r="AD23" s="104"/>
-      <c r="AE23" s="46"/>
-      <c r="AF23" s="9"/>
+      <c r="AA23" s="116"/>
+      <c r="AB23" s="116"/>
+      <c r="AC23" s="116"/>
+      <c r="AD23" s="116"/>
+      <c r="AE23" s="117"/>
+      <c r="AF23" s="46"/>
       <c r="AG23" s="9"/>
       <c r="AH23" s="9"/>
       <c r="AI23" s="9"/>
@@ -3716,43 +3760,43 @@
       <c r="AN23" s="9"/>
       <c r="AO23" s="9"/>
       <c r="AP23" s="9"/>
-      <c r="AQ23" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS23" s="4"/>
+      <c r="AQ23" s="9"/>
+      <c r="AR23" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AT23" s="4"/>
-      <c r="AU23" s="5"/>
-      <c r="AV23" s="5" t="s">
+      <c r="AU23" s="4"/>
+      <c r="AV23" s="5"/>
+      <c r="AW23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AW23" s="5"/>
-      <c r="AX23" s="6"/>
+      <c r="AX23" s="5"/>
       <c r="AY23" s="6"/>
-    </row>
-    <row r="24" spans="3:51" ht="16" customHeight="1">
+      <c r="AZ23" s="6"/>
+    </row>
+    <row r="24" spans="3:52" ht="16" customHeight="1">
       <c r="L24" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O24" s="4"/>
-      <c r="Q24" s="5" t="s">
+      <c r="P24" s="4"/>
+      <c r="R24" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="X24" s="5"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="40" t="s">
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="AA24" s="40"/>
       <c r="AB24" s="40"/>
       <c r="AC24" s="40"/>
-      <c r="AD24" s="41"/>
-      <c r="AE24" s="40"/>
-      <c r="AF24" s="10"/>
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="41"/>
+      <c r="AF24" s="40"/>
       <c r="AG24" s="10"/>
       <c r="AH24" s="10"/>
       <c r="AI24" s="10"/>
@@ -3763,55 +3807,55 @@
       <c r="AN24" s="10"/>
       <c r="AO24" s="10"/>
       <c r="AP24" s="10"/>
-      <c r="AQ24" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS24" s="4"/>
+      <c r="AQ24" s="10"/>
+      <c r="AR24" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AT24" s="4"/>
-      <c r="AU24" s="5"/>
+      <c r="AU24" s="4"/>
       <c r="AV24" s="5"/>
-      <c r="AW24" s="5" t="s">
+      <c r="AW24" s="5"/>
+      <c r="AX24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AX24" s="6"/>
       <c r="AY24" s="6"/>
-    </row>
-    <row r="25" spans="3:51" ht="16" customHeight="1">
-      <c r="F25" s="92" t="s">
+      <c r="AZ24" s="6"/>
+    </row>
+    <row r="25" spans="3:52" ht="16" customHeight="1">
+      <c r="F25" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="94"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="111"/>
       <c r="L25" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O25" s="4"/>
-      <c r="P25" s="63" t="s">
+      <c r="P25" s="4"/>
+      <c r="Q25" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="Q25" s="64"/>
       <c r="R25" s="64"/>
       <c r="S25" s="64"/>
-      <c r="T25" s="56"/>
-      <c r="V25" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5" t="s">
+      <c r="T25" s="64"/>
+      <c r="U25" s="56"/>
+      <c r="W25" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="Y25" s="39"/>
-      <c r="Z25" s="40"/>
-      <c r="AA25" s="40" t="s">
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="AB25" s="40"/>
       <c r="AC25" s="40"/>
-      <c r="AD25" s="41"/>
-      <c r="AE25" s="40"/>
-      <c r="AF25" s="5"/>
+      <c r="AD25" s="40"/>
+      <c r="AE25" s="41"/>
+      <c r="AF25" s="40"/>
       <c r="AG25" s="5"/>
       <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
@@ -3822,55 +3866,55 @@
       <c r="AN25" s="5"/>
       <c r="AO25" s="5"/>
       <c r="AP25" s="5"/>
-      <c r="AQ25" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS25" s="4"/>
+      <c r="AQ25" s="5"/>
+      <c r="AR25" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AT25" s="4"/>
-      <c r="AU25" s="5"/>
-      <c r="AV25" s="5" t="s">
+      <c r="AU25" s="4"/>
+      <c r="AV25" s="5"/>
+      <c r="AW25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AW25" s="5"/>
-      <c r="AX25" s="6"/>
+      <c r="AX25" s="5"/>
       <c r="AY25" s="6"/>
-    </row>
-    <row r="26" spans="3:51" ht="16" customHeight="1">
-      <c r="F26" s="95"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="97"/>
+      <c r="AZ25" s="6"/>
+    </row>
+    <row r="26" spans="3:52" ht="16" customHeight="1">
+      <c r="F26" s="112"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="113"/>
       <c r="K26" s="59"/>
       <c r="L26" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="O26" s="4"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="7" t="s">
+      <c r="P26" s="4"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="R26" s="5"/>
       <c r="S26" s="5"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y26" s="39"/>
-      <c r="Z26" s="42" t="s">
+      <c r="T26" s="5"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z26" s="39"/>
+      <c r="AA26" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AA26" s="40"/>
       <c r="AB26" s="40"/>
       <c r="AC26" s="40"/>
-      <c r="AD26" s="41"/>
-      <c r="AE26" s="40"/>
-      <c r="AF26" s="5"/>
+      <c r="AD26" s="40"/>
+      <c r="AE26" s="41"/>
+      <c r="AF26" s="40"/>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
@@ -3881,20 +3925,21 @@
       <c r="AN26" s="5"/>
       <c r="AO26" s="5"/>
       <c r="AP26" s="5"/>
-      <c r="AQ26" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS26" s="14"/>
-      <c r="AT26" s="24"/>
-      <c r="AU26" s="7"/>
-      <c r="AV26" s="7" t="s">
+      <c r="AQ26" s="5"/>
+      <c r="AR26" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT26" s="14"/>
+      <c r="AU26" s="24"/>
+      <c r="AV26" s="7"/>
+      <c r="AW26" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AW26" s="7"/>
-      <c r="AX26" s="25"/>
-      <c r="AY26" s="15"/>
-    </row>
-    <row r="27" spans="3:51" ht="16" customHeight="1">
+      <c r="AX26" s="7"/>
+      <c r="AY26" s="25"/>
+      <c r="AZ26" s="15"/>
+    </row>
+    <row r="27" spans="3:52" ht="16" customHeight="1">
       <c r="E27" s="59"/>
       <c r="F27" s="36"/>
       <c r="G27" s="78" t="s">
@@ -3905,604 +3950,604 @@
       <c r="J27" s="38"/>
       <c r="K27" s="59"/>
       <c r="L27" s="59"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="77"/>
-      <c r="Q27" s="76" t="s">
+      <c r="P27" s="4"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="R27" s="37"/>
       <c r="S27" s="37"/>
-      <c r="T27" s="38"/>
-      <c r="V27" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="40"/>
-      <c r="AA27" s="40" t="s">
+      <c r="T27" s="37"/>
+      <c r="U27" s="38"/>
+      <c r="W27" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z27" s="39"/>
+      <c r="AA27" s="40"/>
+      <c r="AB27" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="AB27" s="40"/>
       <c r="AC27" s="40"/>
-      <c r="AD27" s="41"/>
-      <c r="AE27" s="40"/>
-      <c r="AQ27" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS27" s="4"/>
-      <c r="AT27" s="5"/>
+      <c r="AD27" s="40"/>
+      <c r="AE27" s="41"/>
+      <c r="AF27" s="40"/>
+      <c r="AR27" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT27" s="4"/>
       <c r="AU27" s="5"/>
       <c r="AV27" s="5"/>
       <c r="AW27" s="5"/>
       <c r="AX27" s="5"/>
-      <c r="AY27" s="6"/>
-    </row>
-    <row r="28" spans="3:51" ht="16" customHeight="1">
-      <c r="O28" s="4"/>
-      <c r="V28" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y28" s="39"/>
-      <c r="Z28" s="45" t="s">
+      <c r="AY27" s="5"/>
+      <c r="AZ27" s="6"/>
+    </row>
+    <row r="28" spans="3:52" ht="16" customHeight="1">
+      <c r="P28" s="4"/>
+      <c r="W28" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="AA28" s="40"/>
       <c r="AB28" s="40"/>
       <c r="AC28" s="40"/>
-      <c r="AD28" s="41"/>
-      <c r="AE28" s="40"/>
-      <c r="AQ28" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS28" s="2"/>
-      <c r="AT28" s="7"/>
+      <c r="AD28" s="40"/>
+      <c r="AE28" s="41"/>
+      <c r="AF28" s="40"/>
+      <c r="AR28" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT28" s="2"/>
       <c r="AU28" s="7"/>
       <c r="AV28" s="7"/>
       <c r="AW28" s="7"/>
       <c r="AX28" s="7"/>
-      <c r="AY28" s="3"/>
-    </row>
-    <row r="29" spans="3:51" ht="16" customHeight="1">
-      <c r="O29" s="4"/>
-      <c r="P29" s="5"/>
+      <c r="AY28" s="7"/>
+      <c r="AZ28" s="3"/>
+    </row>
+    <row r="29" spans="3:52" ht="16" customHeight="1">
+      <c r="P29" s="4"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
-      <c r="V29" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y29" s="39"/>
-      <c r="Z29" s="44" t="s">
+      <c r="S29" s="5"/>
+      <c r="W29" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z29" s="39"/>
+      <c r="AA29" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="AA29" s="40"/>
       <c r="AB29" s="40"/>
       <c r="AC29" s="40"/>
-      <c r="AD29" s="41"/>
-      <c r="AE29" s="40"/>
-      <c r="AQ29" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS29" s="5"/>
+      <c r="AD29" s="40"/>
+      <c r="AE29" s="41"/>
+      <c r="AF29" s="40"/>
+      <c r="AR29" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AT29" s="5"/>
       <c r="AU29" s="5"/>
       <c r="AV29" s="5"/>
       <c r="AW29" s="5"/>
       <c r="AX29" s="5"/>
       <c r="AY29" s="5"/>
-    </row>
-    <row r="30" spans="3:51" ht="16" customHeight="1">
-      <c r="O30" s="4"/>
-      <c r="P30" s="5"/>
+      <c r="AZ29" s="5"/>
+    </row>
+    <row r="30" spans="3:52" ht="16" customHeight="1">
+      <c r="P30" s="4"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
-      <c r="V30" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="40" t="s">
+      <c r="V30" s="5"/>
+      <c r="W30" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z30" s="39"/>
+      <c r="AA30" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="AA30" s="40"/>
       <c r="AB30" s="40"/>
       <c r="AC30" s="40"/>
-      <c r="AD30" s="41"/>
-      <c r="AE30" s="40"/>
-      <c r="AQ30" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS30" s="5"/>
+      <c r="AD30" s="40"/>
+      <c r="AE30" s="41"/>
+      <c r="AF30" s="40"/>
+      <c r="AR30" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AT30" s="5"/>
       <c r="AU30" s="5"/>
       <c r="AV30" s="5"/>
       <c r="AW30" s="5"/>
       <c r="AX30" s="5"/>
       <c r="AY30" s="5"/>
-    </row>
-    <row r="31" spans="3:51" ht="16" customHeight="1">
-      <c r="V31" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y31" s="39"/>
-      <c r="Z31" s="40"/>
-      <c r="AA31" s="40" t="s">
+      <c r="AZ30" s="5"/>
+    </row>
+    <row r="31" spans="3:52" ht="16" customHeight="1">
+      <c r="W31" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z31" s="39"/>
+      <c r="AA31" s="40"/>
+      <c r="AB31" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="AB31" s="40"/>
       <c r="AC31" s="40"/>
-      <c r="AD31" s="41"/>
-      <c r="AE31" s="40"/>
-      <c r="AQ31" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS31" s="5"/>
+      <c r="AD31" s="40"/>
+      <c r="AE31" s="41"/>
+      <c r="AF31" s="40"/>
+      <c r="AR31" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AT31" s="5"/>
       <c r="AU31" s="5"/>
       <c r="AV31" s="5"/>
       <c r="AW31" s="5"/>
       <c r="AX31" s="5"/>
       <c r="AY31" s="5"/>
-    </row>
-    <row r="32" spans="3:51" ht="16" customHeight="1">
-      <c r="V32" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y32" s="39"/>
-      <c r="Z32" s="43" t="s">
+      <c r="AZ31" s="5"/>
+    </row>
+    <row r="32" spans="3:52" ht="16" customHeight="1">
+      <c r="W32" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z32" s="39"/>
+      <c r="AA32" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="AA32" s="40"/>
       <c r="AB32" s="40"/>
       <c r="AC32" s="40"/>
-      <c r="AD32" s="41"/>
-      <c r="AE32" s="40"/>
-      <c r="AQ32" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS32" s="5"/>
+      <c r="AD32" s="40"/>
+      <c r="AE32" s="41"/>
+      <c r="AF32" s="40"/>
+      <c r="AR32" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AT32" s="5"/>
       <c r="AU32" s="5"/>
       <c r="AV32" s="5"/>
       <c r="AW32" s="5"/>
       <c r="AX32" s="5"/>
       <c r="AY32" s="5"/>
-    </row>
-    <row r="33" spans="6:51" ht="16" customHeight="1">
-      <c r="V33" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y33" s="39"/>
-      <c r="Z33" s="44" t="s">
+      <c r="AZ32" s="5"/>
+    </row>
+    <row r="33" spans="6:52" ht="16" customHeight="1">
+      <c r="W33" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z33" s="39"/>
+      <c r="AA33" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="AA33" s="40"/>
       <c r="AB33" s="40"/>
       <c r="AC33" s="40"/>
-      <c r="AD33" s="41"/>
-      <c r="AE33" s="40"/>
-      <c r="AQ33" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS33" s="5"/>
+      <c r="AD33" s="40"/>
+      <c r="AE33" s="41"/>
+      <c r="AF33" s="40"/>
+      <c r="AR33" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AT33" s="5"/>
       <c r="AU33" s="5"/>
       <c r="AV33" s="5"/>
       <c r="AW33" s="5"/>
       <c r="AX33" s="5"/>
       <c r="AY33" s="5"/>
-    </row>
-    <row r="34" spans="6:51" ht="16" customHeight="1">
-      <c r="V34" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ34" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS34" s="5"/>
+      <c r="AZ33" s="5"/>
+    </row>
+    <row r="34" spans="6:52" ht="16" customHeight="1">
+      <c r="W34" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR34" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AT34" s="5"/>
       <c r="AU34" s="5"/>
       <c r="AV34" s="5"/>
       <c r="AW34" s="5"/>
       <c r="AX34" s="5"/>
       <c r="AY34" s="5"/>
-    </row>
-    <row r="35" spans="6:51" ht="16" customHeight="1">
-      <c r="V35" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W35" s="5"/>
-      <c r="X35" t="s">
+      <c r="AZ34" s="5"/>
+    </row>
+    <row r="35" spans="6:52" ht="16" customHeight="1">
+      <c r="W35" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X35" s="5"/>
+      <c r="Y35" t="s">
         <v>148</v>
       </c>
-      <c r="Y35" s="111" t="s">
+      <c r="Z35" s="124" t="s">
         <v>152</v>
       </c>
-      <c r="Z35" s="112"/>
-      <c r="AA35" s="112"/>
-      <c r="AB35" s="112"/>
-      <c r="AC35" s="112"/>
-      <c r="AD35" s="113"/>
-      <c r="AE35" s="22"/>
-      <c r="AF35" t="s">
+      <c r="AA35" s="125"/>
+      <c r="AB35" s="125"/>
+      <c r="AC35" s="125"/>
+      <c r="AD35" s="125"/>
+      <c r="AE35" s="126"/>
+      <c r="AF35" s="22"/>
+      <c r="AG35" t="s">
         <v>45</v>
       </c>
-      <c r="AQ35" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS35" s="5"/>
+      <c r="AR35" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AT35" s="5"/>
       <c r="AU35" s="5"/>
       <c r="AV35" s="5"/>
       <c r="AW35" s="5"/>
       <c r="AX35" s="5"/>
       <c r="AY35" s="5"/>
-    </row>
-    <row r="36" spans="6:51" ht="16" customHeight="1">
-      <c r="V36" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W36" s="5"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="5"/>
+      <c r="AZ35" s="5"/>
+    </row>
+    <row r="36" spans="6:52" ht="16" customHeight="1">
+      <c r="W36" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X36" s="5"/>
+      <c r="Z36" s="34"/>
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
-      <c r="AD36" s="35"/>
-      <c r="AQ36" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="35"/>
+      <c r="AR36" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AT36" s="5"/>
       <c r="AU36" s="5"/>
       <c r="AV36" s="5"/>
       <c r="AW36" s="5"/>
       <c r="AX36" s="5"/>
       <c r="AY36" s="5"/>
-    </row>
-    <row r="37" spans="6:51" ht="16" customHeight="1">
-      <c r="V37" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W37" s="5"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="5" t="s">
+      <c r="AZ36" s="5"/>
+    </row>
+    <row r="37" spans="6:52" ht="16" customHeight="1">
+      <c r="W37" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X37" s="5"/>
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="AA37" s="5"/>
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
-      <c r="AD37" s="35"/>
-      <c r="AG37" s="91" t="s">
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="35"/>
+      <c r="AH37" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="AH37" s="91"/>
-      <c r="AI37" s="91"/>
-      <c r="AJ37" s="91"/>
-      <c r="AK37" s="91"/>
-      <c r="AL37" s="91"/>
-      <c r="AM37" s="91"/>
-      <c r="AN37" s="91"/>
-      <c r="AO37" s="27"/>
-      <c r="AP37" s="28"/>
-      <c r="AQ37" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS37" s="5"/>
+      <c r="AI37" s="108"/>
+      <c r="AJ37" s="108"/>
+      <c r="AK37" s="108"/>
+      <c r="AL37" s="108"/>
+      <c r="AM37" s="108"/>
+      <c r="AN37" s="108"/>
+      <c r="AO37" s="108"/>
+      <c r="AP37" s="27"/>
+      <c r="AQ37" s="28"/>
+      <c r="AR37" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AT37" s="5"/>
       <c r="AU37" s="5"/>
       <c r="AV37" s="5"/>
       <c r="AW37" s="5"/>
       <c r="AX37" s="5"/>
       <c r="AY37" s="5"/>
-    </row>
-    <row r="38" spans="6:51" ht="16" customHeight="1">
-      <c r="V38" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W38" s="5"/>
-      <c r="Y38" s="34"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5" t="s">
+      <c r="AZ37" s="5"/>
+    </row>
+    <row r="38" spans="6:52" ht="16" customHeight="1">
+      <c r="W38" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X38" s="5"/>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
-      <c r="AD38" s="35"/>
-      <c r="AQ38" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="35"/>
+      <c r="AR38" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AT38" s="5"/>
       <c r="AU38" s="5"/>
       <c r="AV38" s="5"/>
       <c r="AW38" s="5"/>
       <c r="AX38" s="5"/>
       <c r="AY38" s="5"/>
-    </row>
-    <row r="39" spans="6:51" ht="16" customHeight="1">
-      <c r="V39" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W39" s="5"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="5"/>
+      <c r="AZ38" s="5"/>
+    </row>
+    <row r="39" spans="6:52" ht="16" customHeight="1">
+      <c r="W39" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X39" s="5"/>
+      <c r="Z39" s="34"/>
       <c r="AA39" s="5"/>
-      <c r="AB39" s="5" t="s">
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="AC39" s="5"/>
-      <c r="AD39" s="35"/>
-      <c r="AQ39" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="6:51" ht="16" customHeight="1">
-      <c r="V40" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W40" s="5"/>
-      <c r="Y40" s="34"/>
-      <c r="Z40" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="35"/>
+      <c r="AR39" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="6:52" ht="16" customHeight="1">
+      <c r="W40" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X40" s="5"/>
+      <c r="Z40" s="34"/>
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
-      <c r="AC40" s="5" t="s">
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="AD40" s="35"/>
-      <c r="AG40" s="91" t="s">
+      <c r="AE40" s="35"/>
+      <c r="AH40" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="AH40" s="91"/>
-      <c r="AI40" s="91"/>
-      <c r="AJ40" s="91"/>
-      <c r="AK40" s="91"/>
-      <c r="AL40" s="91"/>
-      <c r="AM40" s="91"/>
-      <c r="AN40" s="91"/>
-      <c r="AO40" s="27"/>
-      <c r="AP40" s="28"/>
-      <c r="AQ40" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="41" spans="6:51" ht="16" customHeight="1">
-      <c r="V41" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W41" s="5"/>
-      <c r="Y41" s="34"/>
-      <c r="Z41" s="5"/>
+      <c r="AI40" s="108"/>
+      <c r="AJ40" s="108"/>
+      <c r="AK40" s="108"/>
+      <c r="AL40" s="108"/>
+      <c r="AM40" s="108"/>
+      <c r="AN40" s="108"/>
+      <c r="AO40" s="108"/>
+      <c r="AP40" s="27"/>
+      <c r="AQ40" s="28"/>
+      <c r="AR40" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="6:52" ht="16" customHeight="1">
+      <c r="W41" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X41" s="5"/>
+      <c r="Z41" s="34"/>
       <c r="AA41" s="5"/>
-      <c r="AB41" s="5" t="s">
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AC41" s="5"/>
-      <c r="AD41" s="35"/>
-      <c r="AQ41" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="42" spans="6:51" ht="16" customHeight="1">
-      <c r="V42" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W42" s="5"/>
-      <c r="Y42" s="34"/>
-      <c r="Z42" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="35"/>
+      <c r="AR41" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="6:52" ht="16" customHeight="1">
+      <c r="W42" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X42" s="5"/>
+      <c r="Z42" s="34"/>
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
-      <c r="AC42" s="5" t="s">
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AD42" s="35"/>
-      <c r="AQ42" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="6:51" ht="16" customHeight="1">
-      <c r="V43" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W43" s="5"/>
-      <c r="Y43" s="34"/>
-      <c r="Z43" s="5"/>
+      <c r="AE42" s="35"/>
+      <c r="AR42" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="6:52" ht="16" customHeight="1">
+      <c r="W43" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X43" s="5"/>
+      <c r="Z43" s="34"/>
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
-      <c r="AC43" s="5" t="s">
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="AD43" s="35"/>
-      <c r="AG43" s="30" t="s">
+      <c r="AE43" s="35"/>
+      <c r="AH43" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="AQ43" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="6:51" ht="16" customHeight="1">
-      <c r="P44" s="83" t="s">
+      <c r="AR43" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="6:52" ht="16" customHeight="1">
+      <c r="Q44" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="Q44" s="84"/>
       <c r="R44" s="84"/>
       <c r="S44" s="84"/>
-      <c r="T44" s="85"/>
-      <c r="V44" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W44" s="5"/>
-      <c r="Y44" s="34"/>
-      <c r="Z44" s="5"/>
+      <c r="T44" s="84"/>
+      <c r="U44" s="85"/>
+      <c r="W44" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X44" s="5"/>
+      <c r="Z44" s="34"/>
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
-      <c r="AC44" s="5" t="s">
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AD44" s="35"/>
-      <c r="AG44" s="30"/>
-      <c r="AQ44" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="45" spans="6:51" ht="16" customHeight="1">
-      <c r="P45" s="34"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5" t="s">
+      <c r="AE44" s="35"/>
+      <c r="AH44" s="30"/>
+      <c r="AR44" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="6:52" ht="16" customHeight="1">
+      <c r="Q45" s="34"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="S45" s="5"/>
-      <c r="T45" s="35"/>
-      <c r="V45" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W45" s="5"/>
-      <c r="Y45" s="34"/>
-      <c r="Z45" s="5"/>
-      <c r="AA45" s="5" t="s">
+      <c r="T45" s="5"/>
+      <c r="U45" s="35"/>
+      <c r="W45" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X45" s="5"/>
+      <c r="Z45" s="34"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AB45" s="5"/>
       <c r="AC45" s="5"/>
-      <c r="AD45" s="35"/>
-      <c r="AQ45" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="6:51" ht="16" customHeight="1">
-      <c r="P46" s="34"/>
-      <c r="Q46" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="35"/>
+      <c r="AR45" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="6:52" ht="16" customHeight="1">
+      <c r="Q46" s="34"/>
       <c r="R46" s="5"/>
       <c r="S46" s="5"/>
-      <c r="T46" s="35"/>
-      <c r="V46" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W46" s="5"/>
-      <c r="Y46" s="34"/>
-      <c r="Z46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="35"/>
+      <c r="W46" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X46" s="5"/>
+      <c r="Z46" s="34"/>
       <c r="AA46" s="5"/>
-      <c r="AB46" s="5" t="s">
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AC46" s="5"/>
-      <c r="AD46" s="35"/>
-      <c r="AQ46" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="6:51" ht="16" customHeight="1">
-      <c r="F47" s="105" t="s">
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="35"/>
+      <c r="AR46" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="6:52" ht="16" customHeight="1">
+      <c r="F47" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="G47" s="106"/>
-      <c r="H47" s="106"/>
-      <c r="I47" s="106"/>
-      <c r="J47" s="107"/>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="37"/>
+      <c r="G47" s="119"/>
+      <c r="H47" s="119"/>
+      <c r="I47" s="119"/>
+      <c r="J47" s="120"/>
+      <c r="Q47" s="36"/>
       <c r="R47" s="37"/>
       <c r="S47" s="37"/>
-      <c r="T47" s="38"/>
-      <c r="V47" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W47" s="5"/>
-      <c r="Y47" s="34"/>
-      <c r="Z47" s="5"/>
-      <c r="AA47" s="5" t="s">
+      <c r="T47" s="37"/>
+      <c r="U47" s="38"/>
+      <c r="W47" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X47" s="5"/>
+      <c r="Z47" s="34"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AB47" s="5"/>
       <c r="AC47" s="5"/>
-      <c r="AD47" s="35"/>
-      <c r="AQ47" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="6:51" ht="16" customHeight="1">
-      <c r="F48" s="108"/>
-      <c r="G48" s="109"/>
-      <c r="H48" s="109"/>
-      <c r="I48" s="109"/>
-      <c r="J48" s="110"/>
-      <c r="V48" s="5" t="s">
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="35"/>
+      <c r="AR47" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="6:52" ht="16" customHeight="1">
+      <c r="F48" s="121"/>
+      <c r="G48" s="122"/>
+      <c r="H48" s="122"/>
+      <c r="I48" s="122"/>
+      <c r="J48" s="123"/>
+      <c r="W48" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="W48" s="5"/>
-      <c r="Y48" s="34"/>
-      <c r="Z48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Z48" s="34"/>
       <c r="AA48" s="5"/>
-      <c r="AB48" s="5" t="s">
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AC48" s="5"/>
-      <c r="AD48" s="35"/>
-      <c r="AQ48" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="49" spans="4:43" ht="16" customHeight="1">
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="35"/>
+      <c r="AR48" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="4:44" ht="16" customHeight="1">
       <c r="F49" s="34"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="35"/>
-      <c r="Q49" s="73" t="s">
+      <c r="R49" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="R49" s="74"/>
       <c r="S49" s="74"/>
-      <c r="T49" s="75"/>
-      <c r="V49" s="5" t="s">
+      <c r="T49" s="74"/>
+      <c r="U49" s="75"/>
+      <c r="W49" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="W49" s="5"/>
-      <c r="Y49" s="34"/>
-      <c r="Z49" s="5" t="s">
+      <c r="X49" s="5"/>
+      <c r="Z49" s="34"/>
+      <c r="AA49" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
       <c r="AC49" s="5"/>
-      <c r="AD49" s="35"/>
-      <c r="AQ49" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="50" spans="4:43" ht="16" customHeight="1">
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="35"/>
+      <c r="AR49" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="4:44" ht="16" customHeight="1">
       <c r="F50" s="34"/>
       <c r="G50" s="5" t="s">
         <v>217</v>
@@ -4510,31 +4555,31 @@
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="35"/>
-      <c r="Q50" s="47"/>
-      <c r="R50" s="48" t="s">
+      <c r="R50" s="47"/>
+      <c r="S50" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="S50" s="48"/>
-      <c r="T50" s="49"/>
-      <c r="V50" s="5" t="s">
+      <c r="T50" s="48"/>
+      <c r="U50" s="49"/>
+      <c r="W50" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="W50" s="5"/>
-      <c r="Y50" s="34"/>
-      <c r="Z50" s="5"/>
-      <c r="AA50" s="5" t="s">
+      <c r="X50" s="5"/>
+      <c r="Z50" s="34"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AB50" s="5"/>
       <c r="AC50" s="5"/>
-      <c r="AD50" s="35"/>
-      <c r="AO50" s="27"/>
-      <c r="AP50" s="28"/>
-      <c r="AQ50" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="51" spans="4:43" ht="16" customHeight="1">
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="35"/>
+      <c r="AP50" s="27"/>
+      <c r="AQ50" s="28"/>
+      <c r="AR50" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="4:44" ht="16" customHeight="1">
       <c r="F51" s="34"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5" t="s">
@@ -4542,25 +4587,25 @@
       </c>
       <c r="I51" s="5"/>
       <c r="J51" s="35"/>
-      <c r="V51" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W51" s="5"/>
-      <c r="Y51" s="34"/>
-      <c r="Z51" s="5"/>
+      <c r="W51" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X51" s="5"/>
+      <c r="Z51" s="34"/>
       <c r="AA51" s="5"/>
-      <c r="AB51" s="5" t="s">
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="AC51" s="5"/>
-      <c r="AD51" s="35"/>
-      <c r="AO51" s="27"/>
-      <c r="AP51" s="28"/>
-      <c r="AQ51" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" spans="4:43" ht="16" customHeight="1">
+      <c r="AD51" s="5"/>
+      <c r="AE51" s="35"/>
+      <c r="AP51" s="27"/>
+      <c r="AQ51" s="28"/>
+      <c r="AR51" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="4:44" ht="16" customHeight="1">
       <c r="F52" s="34"/>
       <c r="G52" s="5" t="s">
         <v>68</v>
@@ -4568,23 +4613,23 @@
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="35"/>
-      <c r="V52" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W52" s="5"/>
-      <c r="Y52" s="34"/>
-      <c r="Z52" s="5" t="s">
+      <c r="W52" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X52" s="5"/>
+      <c r="Z52" s="34"/>
+      <c r="AA52" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
       <c r="AC52" s="5"/>
-      <c r="AD52" s="35"/>
-      <c r="AQ52" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="4:43" ht="16" customHeight="1">
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="35"/>
+      <c r="AR52" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="4:44" ht="16" customHeight="1">
       <c r="D53" s="5" t="s">
         <v>139</v>
       </c>
@@ -4595,39 +4640,39 @@
       </c>
       <c r="I53" s="5"/>
       <c r="J53" s="35"/>
-      <c r="O53" s="54"/>
-      <c r="P53" s="55"/>
+      <c r="P53" s="54"/>
       <c r="Q53" s="55"/>
       <c r="R53" s="55"/>
       <c r="S53" s="55"/>
-      <c r="T53" s="56"/>
-      <c r="V53" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W53" s="5"/>
-      <c r="Y53" s="34"/>
-      <c r="Z53" s="5"/>
-      <c r="AA53" s="5" t="s">
+      <c r="T53" s="55"/>
+      <c r="U53" s="56"/>
+      <c r="W53" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X53" s="5"/>
+      <c r="Z53" s="34"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="AB53" s="5"/>
       <c r="AC53" s="5"/>
-      <c r="AD53" s="35"/>
-      <c r="AG53" s="91" t="s">
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="35"/>
+      <c r="AH53" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="AH53" s="91"/>
-      <c r="AI53" s="91"/>
-      <c r="AJ53" s="91"/>
-      <c r="AK53" s="91"/>
-      <c r="AL53" s="91"/>
-      <c r="AM53" s="91"/>
-      <c r="AN53" s="91"/>
-      <c r="AQ53" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="54" spans="4:43" ht="16" customHeight="1">
+      <c r="AI53" s="108"/>
+      <c r="AJ53" s="108"/>
+      <c r="AK53" s="108"/>
+      <c r="AL53" s="108"/>
+      <c r="AM53" s="108"/>
+      <c r="AN53" s="108"/>
+      <c r="AO53" s="108"/>
+      <c r="AR53" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="4:44" ht="16" customHeight="1">
       <c r="D54" s="40" t="s">
         <v>149</v>
       </c>
@@ -4640,31 +4685,31 @@
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="35"/>
-      <c r="O54" s="114" t="s">
+      <c r="P54" s="127" t="s">
         <v>118</v>
       </c>
-      <c r="P54" s="115"/>
-      <c r="Q54" s="115"/>
-      <c r="R54" s="115"/>
-      <c r="S54" s="115"/>
-      <c r="T54" s="116"/>
-      <c r="V54" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W54" s="5"/>
-      <c r="Y54" s="34"/>
-      <c r="Z54" s="5" t="s">
+      <c r="Q54" s="128"/>
+      <c r="R54" s="128"/>
+      <c r="S54" s="128"/>
+      <c r="T54" s="128"/>
+      <c r="U54" s="129"/>
+      <c r="W54" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X54" s="5"/>
+      <c r="Z54" s="34"/>
+      <c r="AA54" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
       <c r="AC54" s="5"/>
-      <c r="AD54" s="35"/>
-      <c r="AQ54" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="55" spans="4:43" ht="16" customHeight="1">
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="35"/>
+      <c r="AR54" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="4:44" ht="16" customHeight="1">
       <c r="F55" s="34"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5" t="s">
@@ -4675,43 +4720,44 @@
       <c r="M55" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="O55" s="34" t="s">
+      <c r="N55" s="5"/>
+      <c r="P55" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="P55" s="5" t="s">
+      <c r="Q55" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
-      <c r="T55" s="35"/>
-      <c r="V55" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W55" s="5"/>
-      <c r="Y55" s="36"/>
-      <c r="Z55" s="37"/>
-      <c r="AA55" s="37" t="s">
+      <c r="T55" s="5"/>
+      <c r="U55" s="35"/>
+      <c r="W55" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X55" s="5"/>
+      <c r="Z55" s="36"/>
+      <c r="AA55" s="37"/>
+      <c r="AB55" s="37" t="s">
         <v>184</v>
       </c>
-      <c r="AB55" s="37"/>
       <c r="AC55" s="37"/>
-      <c r="AD55" s="38"/>
-      <c r="AG55" s="91" t="s">
+      <c r="AD55" s="37"/>
+      <c r="AE55" s="38"/>
+      <c r="AH55" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="AH55" s="91"/>
-      <c r="AI55" s="91"/>
-      <c r="AJ55" s="91"/>
-      <c r="AK55" s="91"/>
-      <c r="AL55" s="91"/>
-      <c r="AM55" s="91"/>
-      <c r="AN55" s="91"/>
-      <c r="AQ55" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="56" spans="4:43" ht="16" customHeight="1">
+      <c r="AI55" s="108"/>
+      <c r="AJ55" s="108"/>
+      <c r="AK55" s="108"/>
+      <c r="AL55" s="108"/>
+      <c r="AM55" s="108"/>
+      <c r="AN55" s="108"/>
+      <c r="AO55" s="108"/>
+      <c r="AR55" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="4:44" ht="16" customHeight="1">
       <c r="F56" s="34"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5" t="s">
@@ -4722,21 +4768,26 @@
       <c r="M56" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O56" s="34"/>
-      <c r="P56" s="5"/>
+      <c r="N56" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="P56" s="34"/>
       <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
+      <c r="R56" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="S56" s="5"/>
-      <c r="T56" s="35"/>
-      <c r="V56" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="W56" s="5"/>
-      <c r="AQ56" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="57" spans="4:43" ht="16" customHeight="1">
+      <c r="T56" s="5"/>
+      <c r="U56" s="35"/>
+      <c r="W56" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X56" s="5"/>
+      <c r="AR56" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="4:44" ht="16" customHeight="1">
       <c r="D57" s="5" t="s">
         <v>139</v>
       </c>
@@ -4750,33 +4801,36 @@
       <c r="M57" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O57" s="34"/>
-      <c r="P57" s="5"/>
+      <c r="N57" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="P57" s="34"/>
       <c r="Q57" s="5"/>
-      <c r="R57" s="5" t="s">
+      <c r="R57" s="5"/>
+      <c r="S57" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="S57" s="5"/>
-      <c r="T57" s="35"/>
-      <c r="W57" t="s">
+      <c r="T57" s="5"/>
+      <c r="U57" s="35"/>
+      <c r="X57" t="s">
         <v>150</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>143</v>
       </c>
-      <c r="Y57" s="54" t="s">
+      <c r="Z57" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="Z57" s="55"/>
       <c r="AA57" s="55"/>
       <c r="AB57" s="55"/>
       <c r="AC57" s="55"/>
-      <c r="AD57" s="56"/>
-      <c r="AQ57" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="58" spans="4:43" ht="16" customHeight="1">
+      <c r="AD57" s="55"/>
+      <c r="AE57" s="56"/>
+      <c r="AR57" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="4:44" ht="16" customHeight="1">
       <c r="D58" s="40" t="s">
         <v>149</v>
       </c>
@@ -4790,33 +4844,36 @@
       <c r="M58" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O58" s="34"/>
-      <c r="P58" s="5"/>
+      <c r="N58" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="P58" s="34"/>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
-      <c r="S58" s="5" t="s">
+      <c r="S58" s="5"/>
+      <c r="T58" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="T58" s="35"/>
-      <c r="V58" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="U58" s="35"/>
       <c r="W58" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y58" s="34"/>
-      <c r="Z58" s="5" t="s">
+      <c r="X58" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z58" s="34"/>
+      <c r="AA58" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
       <c r="AC58" s="5"/>
-      <c r="AD58" s="35"/>
-      <c r="AQ58" s="5" t="s">
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="35"/>
+      <c r="AR58" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="4:43" ht="16" customHeight="1">
+    <row r="59" spans="4:44" ht="16" customHeight="1">
       <c r="F59" s="34"/>
       <c r="G59" s="5" t="s">
         <v>73</v>
@@ -4827,28 +4884,31 @@
       <c r="M59" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O59" s="34"/>
-      <c r="P59" s="5"/>
+      <c r="N59" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="P59" s="34"/>
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
-      <c r="S59" s="5" t="s">
+      <c r="S59" s="5"/>
+      <c r="T59" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="T59" s="35"/>
-      <c r="V59" s="5" t="s">
+      <c r="U59" s="35"/>
+      <c r="W59" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="W59" s="5"/>
-      <c r="Y59" s="34"/>
-      <c r="Z59" s="5"/>
-      <c r="AA59" s="5" t="s">
+      <c r="X59" s="5"/>
+      <c r="Z59" s="34"/>
+      <c r="AA59" s="5"/>
+      <c r="AB59" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="AB59" s="5"/>
       <c r="AC59" s="5"/>
-      <c r="AD59" s="35"/>
-    </row>
-    <row r="60" spans="4:43" ht="16" customHeight="1">
+      <c r="AD59" s="5"/>
+      <c r="AE59" s="35"/>
+    </row>
+    <row r="60" spans="4:44" ht="16" customHeight="1">
       <c r="F60" s="34"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5" t="s">
@@ -4859,28 +4919,31 @@
       <c r="M60" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O60" s="34"/>
-      <c r="P60" s="5"/>
+      <c r="N60" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="P60" s="34"/>
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
       <c r="S60" s="5"/>
-      <c r="T60" s="35"/>
-      <c r="V60" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="T60" s="5"/>
+      <c r="U60" s="35"/>
       <c r="W60" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y60" s="36"/>
-      <c r="Z60" s="37" t="s">
+      <c r="X60" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z60" s="36"/>
+      <c r="AA60" s="37" t="s">
         <v>224</v>
       </c>
-      <c r="AA60" s="37"/>
       <c r="AB60" s="37"/>
       <c r="AC60" s="37"/>
-      <c r="AD60" s="38"/>
-    </row>
-    <row r="61" spans="4:43" ht="16" customHeight="1">
+      <c r="AD60" s="37"/>
+      <c r="AE60" s="38"/>
+    </row>
+    <row r="61" spans="4:44" ht="16" customHeight="1">
       <c r="F61" s="34"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5" t="s">
@@ -4891,27 +4954,30 @@
       <c r="M61" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O61" s="34"/>
-      <c r="P61" s="5"/>
+      <c r="N61" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="P61" s="34"/>
       <c r="Q61" s="5"/>
-      <c r="V61" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="R61" s="5"/>
       <c r="W61" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AG61" s="54" t="s">
+      <c r="X61" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH61" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="AH61" s="55"/>
       <c r="AI61" s="55"/>
       <c r="AJ61" s="55"/>
       <c r="AK61" s="55"/>
       <c r="AL61" s="55"/>
       <c r="AM61" s="55"/>
-      <c r="AN61" s="56"/>
-    </row>
-    <row r="62" spans="4:43" ht="16" customHeight="1">
+      <c r="AN61" s="55"/>
+      <c r="AO61" s="56"/>
+    </row>
+    <row r="62" spans="4:44" ht="16" customHeight="1">
       <c r="D62" s="5" t="s">
         <v>139</v>
       </c>
@@ -4925,35 +4991,38 @@
       <c r="M62" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O62" s="34"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5" t="s">
+      <c r="N62" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="P62" s="34"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="R62" s="5"/>
       <c r="S62" s="5"/>
-      <c r="T62" s="35"/>
-      <c r="U62" s="53"/>
-      <c r="V62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="35"/>
+      <c r="V62" s="53"/>
       <c r="W62" s="5"/>
-      <c r="X62" s="53"/>
-      <c r="Y62" s="5" t="s">
+      <c r="X62" s="5"/>
+      <c r="Y62" s="53"/>
+      <c r="Z62" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="AG62" s="34" t="s">
+      <c r="AH62" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="AH62" s="5" t="s">
+      <c r="AI62" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="AI62" s="5"/>
       <c r="AJ62" s="5"/>
       <c r="AK62" s="5"/>
       <c r="AL62" s="5"/>
       <c r="AM62" s="5"/>
-      <c r="AN62" s="35"/>
-    </row>
-    <row r="63" spans="4:43" ht="16" customHeight="1">
+      <c r="AN62" s="5"/>
+      <c r="AO62" s="35"/>
+    </row>
+    <row r="63" spans="4:44" ht="16" customHeight="1">
       <c r="D63" s="40" t="s">
         <v>149</v>
       </c>
@@ -4969,37 +5038,40 @@
       <c r="M63" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O63" s="34"/>
-      <c r="P63" s="5"/>
-      <c r="R63" s="5"/>
+      <c r="N63" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="P63" s="34"/>
+      <c r="Q63" s="5"/>
       <c r="S63" s="5"/>
-      <c r="T63" s="35"/>
-      <c r="U63" s="53"/>
-      <c r="V63" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="T63" s="5"/>
+      <c r="U63" s="35"/>
+      <c r="V63" s="53"/>
       <c r="W63" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X63" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="X63" s="53"/>
-      <c r="Z63" t="s">
+      <c r="Y63" s="53"/>
+      <c r="AA63" t="s">
         <v>231</v>
       </c>
-      <c r="AG63" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH63" s="37"/>
+      <c r="AH63" s="36" t="s">
+        <v>140</v>
+      </c>
       <c r="AI63" s="37"/>
       <c r="AJ63" s="37"/>
       <c r="AK63" s="37"/>
       <c r="AL63" s="37"/>
       <c r="AM63" s="37"/>
-      <c r="AN63" s="38"/>
-      <c r="AO63" s="27"/>
-      <c r="AP63" s="28"/>
+      <c r="AN63" s="37"/>
+      <c r="AO63" s="38"/>
+      <c r="AP63" s="27"/>
       <c r="AQ63" s="28"/>
-    </row>
-    <row r="64" spans="4:43" ht="16" customHeight="1">
+      <c r="AR63" s="28"/>
+    </row>
+    <row r="64" spans="4:44" ht="16" customHeight="1">
       <c r="F64" s="34"/>
       <c r="G64" s="5" t="s">
         <v>78</v>
@@ -5010,25 +5082,28 @@
       <c r="M64" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O64" s="34"/>
-      <c r="P64" s="5"/>
+      <c r="N64" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="P64" s="34"/>
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
       <c r="S64" s="5"/>
-      <c r="T64" s="35"/>
-      <c r="U64" s="53"/>
-      <c r="V64" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="T64" s="5"/>
+      <c r="U64" s="35"/>
+      <c r="V64" s="53"/>
       <c r="W64" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="X64" s="53"/>
-      <c r="AG64" s="79" t="s">
+      <c r="X64" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y64" s="53"/>
+      <c r="AH64" s="79" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="4:51" ht="16" customHeight="1">
+    <row r="65" spans="4:52" ht="16" customHeight="1">
       <c r="F65" s="34"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5" t="s">
@@ -5039,45 +5114,48 @@
       <c r="M65" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O65" s="34"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5" t="s">
+      <c r="N65" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="P65" s="34"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="R65" s="5"/>
       <c r="S65" s="5"/>
-      <c r="T65" s="35"/>
-      <c r="U65" s="53"/>
-      <c r="V65" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="T65" s="5"/>
+      <c r="U65" s="35"/>
+      <c r="V65" s="53"/>
       <c r="W65" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="X65" s="53"/>
-      <c r="Y65" s="91" t="s">
+      <c r="X65" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y65" s="53"/>
+      <c r="Z65" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="Z65" s="91"/>
-      <c r="AA65" s="91"/>
-      <c r="AB65" s="91"/>
-      <c r="AC65" s="91"/>
-      <c r="AD65" s="91"/>
-      <c r="AG65" s="80" t="s">
+      <c r="AA65" s="108"/>
+      <c r="AB65" s="108"/>
+      <c r="AC65" s="108"/>
+      <c r="AD65" s="108"/>
+      <c r="AE65" s="108"/>
+      <c r="AH65" s="80" t="s">
         <v>155</v>
       </c>
-      <c r="AH65" s="55"/>
       <c r="AI65" s="55"/>
       <c r="AJ65" s="55"/>
       <c r="AK65" s="55"/>
       <c r="AL65" s="55"/>
       <c r="AM65" s="55"/>
-      <c r="AN65" s="56"/>
-      <c r="AO65" s="27"/>
-      <c r="AP65" s="28"/>
+      <c r="AN65" s="55"/>
+      <c r="AO65" s="56"/>
+      <c r="AP65" s="27"/>
       <c r="AQ65" s="28"/>
-    </row>
-    <row r="66" spans="4:51" ht="16" customHeight="1">
+      <c r="AR65" s="28"/>
+    </row>
+    <row r="66" spans="4:52" ht="16" customHeight="1">
       <c r="D66" s="5" t="s">
         <v>139</v>
       </c>
@@ -5091,34 +5169,37 @@
       <c r="M66" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O66" s="34"/>
-      <c r="P66" s="5"/>
+      <c r="N66" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="P66" s="34"/>
       <c r="Q66" s="5"/>
-      <c r="R66" s="5" t="s">
+      <c r="R66" s="5"/>
+      <c r="S66" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="S66" s="5"/>
-      <c r="T66" s="35"/>
-      <c r="U66" s="53"/>
-      <c r="V66" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="T66" s="5"/>
+      <c r="U66" s="35"/>
+      <c r="V66" s="53"/>
       <c r="W66" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="X66" s="53"/>
-      <c r="AG66" s="34"/>
-      <c r="AH66" s="5" t="s">
+      <c r="X66" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y66" s="53"/>
+      <c r="AH66" s="34"/>
+      <c r="AI66" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="AI66" s="5"/>
       <c r="AJ66" s="5"/>
       <c r="AK66" s="5"/>
       <c r="AL66" s="5"/>
       <c r="AM66" s="5"/>
-      <c r="AN66" s="35"/>
-    </row>
-    <row r="67" spans="4:51" ht="16" customHeight="1">
+      <c r="AN66" s="5"/>
+      <c r="AO66" s="35"/>
+    </row>
+    <row r="67" spans="4:52" ht="16" customHeight="1">
       <c r="D67" s="40" t="s">
         <v>149</v>
       </c>
@@ -5134,37 +5215,40 @@
       <c r="M67" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O67" s="34"/>
-      <c r="P67" s="5"/>
+      <c r="N67" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="P67" s="34"/>
       <c r="Q67" s="5"/>
-      <c r="R67" s="5" t="s">
+      <c r="R67" s="5"/>
+      <c r="S67" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="S67" s="5"/>
-      <c r="T67" s="35"/>
-      <c r="U67" s="53"/>
-      <c r="V67" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="T67" s="5"/>
+      <c r="U67" s="35"/>
+      <c r="V67" s="53"/>
       <c r="W67" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="X67" s="53"/>
-      <c r="AE67" s="5" t="s">
+      <c r="X67" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y67" s="53"/>
+      <c r="AF67" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="AG67" s="36"/>
-      <c r="AH67" s="37" t="s">
+      <c r="AH67" s="36"/>
+      <c r="AI67" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="AI67" s="37"/>
       <c r="AJ67" s="37"/>
       <c r="AK67" s="37"/>
       <c r="AL67" s="37"/>
       <c r="AM67" s="37"/>
-      <c r="AN67" s="38"/>
-    </row>
-    <row r="68" spans="4:51" ht="16" customHeight="1">
+      <c r="AN67" s="37"/>
+      <c r="AO67" s="38"/>
+    </row>
+    <row r="68" spans="4:52" ht="16" customHeight="1">
       <c r="F68" s="34"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5" t="s">
@@ -5175,34 +5259,37 @@
       <c r="M68" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O68" s="34"/>
-      <c r="P68" s="40" t="s">
+      <c r="N68" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="P68" s="34"/>
+      <c r="Q68" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="Q68" s="40"/>
       <c r="R68" s="40"/>
       <c r="S68" s="40"/>
-      <c r="T68" s="41"/>
-      <c r="U68" s="53"/>
-      <c r="V68" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="T68" s="40"/>
+      <c r="U68" s="41"/>
+      <c r="V68" s="53"/>
       <c r="W68" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="X68" s="53"/>
-      <c r="AE68" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH68" s="79" t="s">
+      <c r="X68" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y68" s="53"/>
+      <c r="AF68" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI68" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="AI68" s="79"/>
       <c r="AJ68" s="79"/>
       <c r="AK68" s="79"/>
       <c r="AL68" s="79"/>
-    </row>
-    <row r="69" spans="4:51" ht="16" customHeight="1">
+      <c r="AM68" s="79"/>
+    </row>
+    <row r="69" spans="4:52" ht="16" customHeight="1">
       <c r="F69" s="34"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5" t="s">
@@ -5213,39 +5300,42 @@
       <c r="M69" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O69" s="34"/>
-      <c r="Q69" s="40"/>
-      <c r="R69" s="40" t="s">
+      <c r="N69" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="P69" s="34"/>
+      <c r="R69" s="40"/>
+      <c r="S69" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="S69" s="40"/>
-      <c r="T69" s="41"/>
-      <c r="U69" s="53"/>
-      <c r="V69" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="T69" s="40"/>
+      <c r="U69" s="41"/>
+      <c r="V69" s="53"/>
       <c r="W69" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="X69" s="53"/>
-      <c r="Y69" t="s">
+      <c r="X69" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y69" s="53"/>
+      <c r="Z69" t="s">
         <v>227</v>
       </c>
-      <c r="AE69" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG69" s="54" t="s">
+      <c r="AF69" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH69" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="AH69" s="55"/>
       <c r="AI69" s="55"/>
       <c r="AJ69" s="55"/>
       <c r="AK69" s="55"/>
       <c r="AL69" s="55"/>
       <c r="AM69" s="55"/>
-      <c r="AN69" s="56"/>
-    </row>
-    <row r="70" spans="4:51" ht="16" customHeight="1">
+      <c r="AN69" s="55"/>
+      <c r="AO69" s="56"/>
+    </row>
+    <row r="70" spans="4:52" ht="16" customHeight="1">
       <c r="D70" s="5" t="s">
         <v>139</v>
       </c>
@@ -5259,37 +5349,40 @@
       <c r="M70" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O70" s="34"/>
-      <c r="S70" t="s">
+      <c r="N70" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="P70" s="34"/>
+      <c r="T70" t="s">
         <v>238</v>
       </c>
-      <c r="T70" s="41"/>
-      <c r="U70" s="53"/>
-      <c r="V70" s="5" t="s">
+      <c r="U70" s="41"/>
+      <c r="V70" s="53"/>
+      <c r="W70" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="W70" s="5" t="s">
+      <c r="X70" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="X70" s="53"/>
-      <c r="Z70" t="s">
+      <c r="Y70" s="53"/>
+      <c r="AA70" t="s">
         <v>231</v>
       </c>
-      <c r="AE70" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG70" s="34"/>
-      <c r="AH70" s="5" t="s">
+      <c r="AF70" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH70" s="34"/>
+      <c r="AI70" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="AI70" s="5"/>
       <c r="AJ70" s="5"/>
       <c r="AK70" s="5"/>
       <c r="AL70" s="5"/>
       <c r="AM70" s="5"/>
-      <c r="AN70" s="35"/>
-    </row>
-    <row r="71" spans="4:51" ht="16" customHeight="1">
+      <c r="AN70" s="5"/>
+      <c r="AO70" s="35"/>
+    </row>
+    <row r="71" spans="4:52" ht="16" customHeight="1">
       <c r="D71" s="40" t="s">
         <v>149</v>
       </c>
@@ -5305,31 +5398,34 @@
       <c r="M71" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O71" s="34"/>
-      <c r="T71" s="41"/>
-      <c r="U71" s="53"/>
-      <c r="V71" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="N71" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="P71" s="34"/>
+      <c r="U71" s="41"/>
+      <c r="V71" s="53"/>
       <c r="W71" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="X71" s="53"/>
-      <c r="AE71" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG71" s="34"/>
-      <c r="AH71" s="5"/>
-      <c r="AI71" s="5" t="s">
+      <c r="X71" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y71" s="53"/>
+      <c r="AF71" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH71" s="34"/>
+      <c r="AI71" s="5"/>
+      <c r="AJ71" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="AJ71" s="5"/>
       <c r="AK71" s="5"/>
       <c r="AL71" s="5"/>
       <c r="AM71" s="5"/>
-      <c r="AN71" s="35"/>
-    </row>
-    <row r="72" spans="4:51" ht="16" customHeight="1">
+      <c r="AN71" s="5"/>
+      <c r="AO71" s="35"/>
+    </row>
+    <row r="72" spans="4:52" ht="16" customHeight="1">
       <c r="D72" s="5" t="s">
         <v>139</v>
       </c>
@@ -5343,37 +5439,40 @@
       <c r="M72" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O72" s="34"/>
-      <c r="P72" s="40" t="s">
+      <c r="N72" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="P72" s="34"/>
+      <c r="Q72" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="Q72" s="40"/>
       <c r="R72" s="40"/>
       <c r="S72" s="40"/>
-      <c r="T72" s="41"/>
-      <c r="U72" s="53"/>
-      <c r="V72" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="T72" s="40"/>
+      <c r="U72" s="41"/>
+      <c r="V72" s="53"/>
       <c r="W72" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="X72" s="53"/>
-      <c r="AE72" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG72" s="34"/>
-      <c r="AH72" s="5" t="s">
+      <c r="X72" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y72" s="53"/>
+      <c r="AF72" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH72" s="34"/>
+      <c r="AI72" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="AI72" s="5"/>
       <c r="AJ72" s="5"/>
       <c r="AK72" s="5"/>
       <c r="AL72" s="5"/>
       <c r="AM72" s="5"/>
-      <c r="AN72" s="35"/>
-    </row>
-    <row r="73" spans="4:51" ht="16" customHeight="1">
+      <c r="AN72" s="5"/>
+      <c r="AO72" s="35"/>
+    </row>
+    <row r="73" spans="4:52" ht="16" customHeight="1">
       <c r="D73" s="40" t="s">
         <v>149</v>
       </c>
@@ -5387,35 +5486,38 @@
       <c r="M73" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O73" s="34"/>
-      <c r="P73" s="40"/>
+      <c r="N73" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="P73" s="34"/>
       <c r="Q73" s="40"/>
       <c r="R73" s="40"/>
       <c r="S73" s="40"/>
-      <c r="T73" s="41"/>
-      <c r="U73" s="53"/>
-      <c r="V73" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="T73" s="40"/>
+      <c r="U73" s="41"/>
+      <c r="V73" s="53"/>
       <c r="W73" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="X73" s="53"/>
-      <c r="AE73" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG73" s="34"/>
-      <c r="AH73" s="5"/>
-      <c r="AI73" s="5" t="s">
+      <c r="X73" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y73" s="53"/>
+      <c r="AF73" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH73" s="34"/>
+      <c r="AI73" s="5"/>
+      <c r="AJ73" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="AJ73" s="5"/>
       <c r="AK73" s="5"/>
       <c r="AL73" s="5"/>
       <c r="AM73" s="5"/>
-      <c r="AN73" s="35"/>
-    </row>
-    <row r="74" spans="4:51" ht="16" customHeight="1">
+      <c r="AN73" s="5"/>
+      <c r="AO73" s="35"/>
+    </row>
+    <row r="74" spans="4:52" ht="16" customHeight="1">
       <c r="F74" s="34"/>
       <c r="G74" s="5" t="s">
         <v>87</v>
@@ -5426,50 +5528,53 @@
       <c r="M74" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O74" s="34"/>
-      <c r="P74" s="40" t="s">
+      <c r="N74" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="P74" s="34"/>
+      <c r="Q74" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="Q74" s="40"/>
       <c r="R74" s="40"/>
       <c r="S74" s="40"/>
-      <c r="T74" s="41"/>
-      <c r="U74" s="53"/>
-      <c r="V74" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="T74" s="40"/>
+      <c r="U74" s="41"/>
+      <c r="V74" s="53"/>
       <c r="W74" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="X74" s="53"/>
-      <c r="Y74" s="69" t="s">
+      <c r="X74" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y74" s="53"/>
+      <c r="Z74" s="69" t="s">
         <v>228</v>
       </c>
-      <c r="AE74" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG74" s="36"/>
-      <c r="AH74" s="37" t="s">
+      <c r="AF74" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH74" s="36"/>
+      <c r="AI74" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="AI74" s="37"/>
       <c r="AJ74" s="37"/>
       <c r="AK74" s="37"/>
       <c r="AL74" s="37"/>
       <c r="AM74" s="37"/>
-      <c r="AN74" s="38"/>
-      <c r="AR74" s="54" t="s">
+      <c r="AN74" s="37"/>
+      <c r="AO74" s="38"/>
+      <c r="AS74" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="AS74" s="55"/>
       <c r="AT74" s="55"/>
       <c r="AU74" s="55"/>
       <c r="AV74" s="55"/>
       <c r="AW74" s="55"/>
       <c r="AX74" s="55"/>
-      <c r="AY74" s="56"/>
-    </row>
-    <row r="75" spans="4:51" ht="16" customHeight="1">
+      <c r="AY74" s="55"/>
+      <c r="AZ74" s="56"/>
+    </row>
+    <row r="75" spans="4:52" ht="16" customHeight="1">
       <c r="F75" s="34"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
@@ -5478,39 +5583,42 @@
       <c r="M75" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O75" s="34"/>
-      <c r="P75" s="40"/>
-      <c r="Q75" s="40" t="s">
+      <c r="N75" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="P75" s="34"/>
+      <c r="Q75" s="40"/>
+      <c r="R75" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="R75" s="40"/>
       <c r="S75" s="40"/>
-      <c r="T75" s="41"/>
-      <c r="V75" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="T75" s="40"/>
+      <c r="U75" s="41"/>
       <c r="W75" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X75" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="AA75" t="s">
         <v>231</v>
       </c>
-      <c r="AE75" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH75" s="79"/>
-      <c r="AR75" s="34"/>
-      <c r="AS75" s="79" t="s">
+      <c r="AF75" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI75" s="79"/>
+      <c r="AS75" s="34"/>
+      <c r="AT75" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="AT75" s="5"/>
       <c r="AU75" s="5"/>
       <c r="AV75" s="5"/>
       <c r="AW75" s="5"/>
       <c r="AX75" s="5"/>
-      <c r="AY75" s="35"/>
-    </row>
-    <row r="76" spans="4:51" ht="16" customHeight="1">
+      <c r="AY75" s="5"/>
+      <c r="AZ75" s="35"/>
+    </row>
+    <row r="76" spans="4:52" ht="16" customHeight="1">
       <c r="D76" s="5" t="s">
         <v>139</v>
       </c>
@@ -5524,35 +5632,38 @@
       <c r="M76" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O76" s="34"/>
-      <c r="P76" s="40"/>
+      <c r="N76" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="P76" s="34"/>
       <c r="Q76" s="40"/>
-      <c r="R76" s="40" t="s">
+      <c r="R76" s="40"/>
+      <c r="S76" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="S76" s="40"/>
-      <c r="T76" s="41"/>
-      <c r="V76" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="T76" s="40"/>
+      <c r="U76" s="41"/>
       <c r="W76" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AE76" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AR76" s="34"/>
-      <c r="AS76" s="79" t="s">
+      <c r="X76" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF76" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS76" s="34"/>
+      <c r="AT76" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="AT76" s="5"/>
       <c r="AU76" s="5"/>
       <c r="AV76" s="5"/>
       <c r="AW76" s="5"/>
       <c r="AX76" s="5"/>
-      <c r="AY76" s="35"/>
-    </row>
-    <row r="77" spans="4:51" ht="16" customHeight="1">
+      <c r="AY76" s="5"/>
+      <c r="AZ76" s="35"/>
+    </row>
+    <row r="77" spans="4:52" ht="16" customHeight="1">
       <c r="D77" s="40" t="s">
         <v>149</v>
       </c>
@@ -5568,33 +5679,36 @@
       <c r="M77" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O77" s="34"/>
-      <c r="P77" s="40"/>
+      <c r="N77" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="P77" s="34"/>
       <c r="Q77" s="40"/>
       <c r="R77" s="40"/>
       <c r="S77" s="40"/>
-      <c r="T77" s="41"/>
-      <c r="V77" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="T77" s="40"/>
+      <c r="U77" s="41"/>
       <c r="W77" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AE77" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AR77" s="34"/>
-      <c r="AS77" s="79"/>
-      <c r="AT77" s="5" t="s">
+      <c r="X77" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF77" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS77" s="34"/>
+      <c r="AT77" s="79"/>
+      <c r="AU77" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="AU77" s="5"/>
       <c r="AV77" s="5"/>
       <c r="AW77" s="5"/>
       <c r="AX77" s="5"/>
-      <c r="AY77" s="35"/>
-    </row>
-    <row r="78" spans="4:51" ht="16" customHeight="1">
+      <c r="AY77" s="5"/>
+      <c r="AZ77" s="35"/>
+    </row>
+    <row r="78" spans="4:52" ht="16" customHeight="1">
       <c r="F78" s="34"/>
       <c r="G78" s="5" t="s">
         <v>89</v>
@@ -5605,35 +5719,38 @@
       <c r="M78" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O78" s="34"/>
-      <c r="P78" s="40"/>
+      <c r="N78" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="P78" s="34"/>
       <c r="Q78" s="40"/>
-      <c r="R78" s="40" t="s">
+      <c r="R78" s="40"/>
+      <c r="S78" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="S78" s="40"/>
-      <c r="T78" s="41"/>
-      <c r="V78" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="T78" s="40"/>
+      <c r="U78" s="41"/>
       <c r="W78" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AE78" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AR78" s="34"/>
-      <c r="AS78" s="5"/>
-      <c r="AT78" s="5" t="s">
+      <c r="X78" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF78" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS78" s="34"/>
+      <c r="AT78" s="5"/>
+      <c r="AU78" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="AU78" s="5"/>
       <c r="AV78" s="5"/>
       <c r="AW78" s="5"/>
       <c r="AX78" s="5"/>
-      <c r="AY78" s="35"/>
-    </row>
-    <row r="79" spans="4:51" ht="16" customHeight="1">
+      <c r="AY78" s="5"/>
+      <c r="AZ78" s="35"/>
+    </row>
+    <row r="79" spans="4:52" ht="16" customHeight="1">
       <c r="F79" s="34"/>
       <c r="G79" s="5"/>
       <c r="H79" s="51" t="s">
@@ -5644,36 +5761,39 @@
       <c r="M79" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O79" s="34"/>
-      <c r="P79" s="40"/>
+      <c r="N79" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="P79" s="34"/>
       <c r="Q79" s="40"/>
       <c r="R79" s="40"/>
       <c r="S79" s="40"/>
-      <c r="T79" s="41"/>
-      <c r="V79" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="T79" s="40"/>
+      <c r="U79" s="41"/>
       <c r="W79" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="X79" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z79" t="s">
         <v>235</v>
       </c>
-      <c r="AE79" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AR79" s="34"/>
-      <c r="AS79" s="5"/>
-      <c r="AT79" s="5" t="s">
+      <c r="AF79" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS79" s="34"/>
+      <c r="AT79" s="5"/>
+      <c r="AU79" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="AU79" s="5"/>
       <c r="AV79" s="5"/>
       <c r="AW79" s="5"/>
       <c r="AX79" s="5"/>
-      <c r="AY79" s="35"/>
-    </row>
-    <row r="80" spans="4:51" ht="16" customHeight="1">
+      <c r="AY79" s="5"/>
+      <c r="AZ79" s="35"/>
+    </row>
+    <row r="80" spans="4:52" ht="16" customHeight="1">
       <c r="D80" s="5" t="s">
         <v>139</v>
       </c>
@@ -5687,38 +5807,41 @@
       <c r="M80" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O80" s="34"/>
-      <c r="P80" s="40"/>
+      <c r="N80" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="P80" s="34"/>
       <c r="Q80" s="40"/>
-      <c r="R80" s="40" t="s">
+      <c r="R80" s="40"/>
+      <c r="S80" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="S80" s="40"/>
-      <c r="T80" s="41"/>
-      <c r="V80" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="T80" s="40"/>
+      <c r="U80" s="41"/>
       <c r="W80" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X80" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="AA80" t="s">
         <v>231</v>
       </c>
-      <c r="AE80" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AR80" s="34"/>
-      <c r="AS80" s="5"/>
-      <c r="AT80" s="5" t="s">
+      <c r="AF80" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS80" s="34"/>
+      <c r="AT80" s="5"/>
+      <c r="AU80" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="AU80" s="5"/>
       <c r="AV80" s="5"/>
       <c r="AW80" s="5"/>
       <c r="AX80" s="5"/>
-      <c r="AY80" s="35"/>
-    </row>
-    <row r="81" spans="4:51" ht="16" customHeight="1">
+      <c r="AY80" s="5"/>
+      <c r="AZ80" s="35"/>
+    </row>
+    <row r="81" spans="4:52" ht="16" customHeight="1">
       <c r="D81" s="40" t="s">
         <v>149</v>
       </c>
@@ -5734,36 +5857,39 @@
       <c r="M81" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O81" s="36"/>
-      <c r="P81" s="57"/>
+      <c r="N81" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="P81" s="36"/>
       <c r="Q81" s="57"/>
       <c r="R81" s="57"/>
       <c r="S81" s="57"/>
-      <c r="T81" s="58"/>
-      <c r="V81" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="T81" s="57"/>
+      <c r="U81" s="58"/>
       <c r="W81" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AE81" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG81" t="s">
+      <c r="X81" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF81" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH81" t="s">
         <v>172</v>
       </c>
-      <c r="AR81" s="36"/>
-      <c r="AS81" s="81" t="s">
+      <c r="AS81" s="36"/>
+      <c r="AT81" s="81" t="s">
         <v>163</v>
       </c>
-      <c r="AT81" s="37"/>
       <c r="AU81" s="37"/>
       <c r="AV81" s="37"/>
       <c r="AW81" s="37"/>
       <c r="AX81" s="37"/>
-      <c r="AY81" s="38"/>
-    </row>
-    <row r="82" spans="4:51" ht="16" customHeight="1">
+      <c r="AY81" s="37"/>
+      <c r="AZ81" s="38"/>
+    </row>
+    <row r="82" spans="4:52" ht="16" customHeight="1">
       <c r="D82" s="5" t="s">
         <v>139</v>
       </c>
@@ -5777,20 +5903,23 @@
       <c r="M82" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="V82" s="5" t="s">
+      <c r="N82" s="5" t="s">
         <v>140</v>
       </c>
       <c r="W82" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AE82" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH82" s="79" t="s">
+      <c r="X82" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF82" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI82" s="79" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="83" spans="4:51" ht="16" customHeight="1">
+    <row r="83" spans="4:52" ht="16" customHeight="1">
       <c r="D83" s="40" t="s">
         <v>149</v>
       </c>
@@ -5806,20 +5935,23 @@
       <c r="M83" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="V83" s="5" t="s">
+      <c r="N83" s="5" t="s">
         <v>140</v>
       </c>
       <c r="W83" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AE83" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG83" t="s">
+      <c r="X83" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF83" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH83" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="4:51" ht="16" customHeight="1">
+    <row r="84" spans="4:52" ht="16" customHeight="1">
       <c r="D84" s="5" t="s">
         <v>139</v>
       </c>
@@ -5833,23 +5965,26 @@
       <c r="M84" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O84" t="s">
+      <c r="N84" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="P84" t="s">
         <v>242</v>
       </c>
-      <c r="V84" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="W84" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AE84" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH84" s="69" t="s">
+      <c r="X84" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF84" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI84" s="69" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="85" spans="4:51" ht="16" customHeight="1">
+    <row r="85" spans="4:52" ht="16" customHeight="1">
       <c r="D85" s="40" t="s">
         <v>149</v>
       </c>
@@ -5865,23 +6000,26 @@
       <c r="M85" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P85" t="s">
+      <c r="N85" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q85" t="s">
         <v>243</v>
       </c>
-      <c r="V85" s="5" t="s">
+      <c r="W85" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="W85" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE85" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI85" t="s">
+      <c r="X85" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF85" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ85" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="86" spans="4:51" ht="16" customHeight="1">
+    <row r="86" spans="4:52" ht="16" customHeight="1">
       <c r="F86" s="34"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5" t="s">
@@ -5892,17 +6030,20 @@
       <c r="M86" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="W86" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE86" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH86" s="82" t="s">
+      <c r="N86" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X86" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF86" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI86" s="82" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="4:51" ht="16" customHeight="1">
+    <row r="87" spans="4:52" ht="16" customHeight="1">
       <c r="D87" s="5" t="s">
         <v>139</v>
       </c>
@@ -5916,17 +6057,20 @@
       <c r="M87" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="W87" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE87" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI87" t="s">
+      <c r="N87" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X87" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF87" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ87" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="88" spans="4:51" ht="16" customHeight="1">
+    <row r="88" spans="4:52" ht="16" customHeight="1">
       <c r="D88" s="40" t="s">
         <v>149</v>
       </c>
@@ -5942,27 +6086,30 @@
       <c r="M88" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="W88" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE88" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ88" t="s">
+      <c r="N88" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X88" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF88" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK88" t="s">
         <v>165</v>
       </c>
-      <c r="AR88" s="54" t="s">
+      <c r="AS88" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="AS88" s="55"/>
       <c r="AT88" s="55"/>
       <c r="AU88" s="55"/>
       <c r="AV88" s="55"/>
       <c r="AW88" s="55"/>
       <c r="AX88" s="55"/>
-      <c r="AY88" s="56"/>
-    </row>
-    <row r="89" spans="4:51" ht="16" customHeight="1">
+      <c r="AY88" s="55"/>
+      <c r="AZ88" s="56"/>
+    </row>
+    <row r="89" spans="4:52" ht="16" customHeight="1">
       <c r="F89" s="34"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
@@ -5971,24 +6118,27 @@
       <c r="M89" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="W89" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE89" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AR89" s="34"/>
-      <c r="AS89" s="79" t="s">
+      <c r="N89" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X89" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF89" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS89" s="34"/>
+      <c r="AT89" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="AT89" s="5"/>
       <c r="AU89" s="5"/>
       <c r="AV89" s="5"/>
       <c r="AW89" s="5"/>
       <c r="AX89" s="5"/>
-      <c r="AY89" s="35"/>
-    </row>
-    <row r="90" spans="4:51" ht="16" customHeight="1">
+      <c r="AY89" s="5"/>
+      <c r="AZ89" s="35"/>
+    </row>
+    <row r="90" spans="4:52" ht="16" customHeight="1">
       <c r="D90" s="5" t="s">
         <v>139</v>
       </c>
@@ -6002,24 +6152,27 @@
       <c r="M90" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="W90" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE90" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AR90" s="34"/>
-      <c r="AS90" s="79" t="s">
+      <c r="N90" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X90" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF90" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS90" s="34"/>
+      <c r="AT90" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="AT90" s="5"/>
       <c r="AU90" s="5"/>
       <c r="AV90" s="5"/>
       <c r="AW90" s="5"/>
       <c r="AX90" s="5"/>
-      <c r="AY90" s="35"/>
-    </row>
-    <row r="91" spans="4:51" ht="16" customHeight="1">
+      <c r="AY90" s="5"/>
+      <c r="AZ90" s="35"/>
+    </row>
+    <row r="91" spans="4:52" ht="16" customHeight="1">
       <c r="D91" s="40" t="s">
         <v>149</v>
       </c>
@@ -6035,27 +6188,30 @@
       <c r="M91" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="W91" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE91" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG91" s="69" t="s">
+      <c r="N91" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X91" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF91" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH91" s="69" t="s">
         <v>188</v>
       </c>
-      <c r="AR91" s="34"/>
-      <c r="AS91" s="79"/>
-      <c r="AT91" s="5" t="s">
+      <c r="AS91" s="34"/>
+      <c r="AT91" s="79"/>
+      <c r="AU91" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="AU91" s="5"/>
       <c r="AV91" s="5"/>
       <c r="AW91" s="5"/>
       <c r="AX91" s="5"/>
-      <c r="AY91" s="35"/>
-    </row>
-    <row r="92" spans="4:51" ht="16" customHeight="1">
+      <c r="AY91" s="5"/>
+      <c r="AZ91" s="35"/>
+    </row>
+    <row r="92" spans="4:52" ht="16" customHeight="1">
       <c r="F92" s="34"/>
       <c r="G92" s="5" t="s">
         <v>102</v>
@@ -6066,27 +6222,30 @@
       <c r="M92" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="W92" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE92" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH92" t="s">
+      <c r="N92" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X92" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF92" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI92" t="s">
         <v>185</v>
       </c>
-      <c r="AR92" s="34"/>
-      <c r="AS92" s="5"/>
-      <c r="AT92" s="5" t="s">
+      <c r="AS92" s="34"/>
+      <c r="AT92" s="5"/>
+      <c r="AU92" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="AU92" s="5"/>
       <c r="AV92" s="5"/>
       <c r="AW92" s="5"/>
       <c r="AX92" s="5"/>
-      <c r="AY92" s="35"/>
-    </row>
-    <row r="93" spans="4:51" ht="16" customHeight="1">
+      <c r="AY92" s="5"/>
+      <c r="AZ92" s="35"/>
+    </row>
+    <row r="93" spans="4:52" ht="16" customHeight="1">
       <c r="F93" s="34"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
@@ -6095,35 +6254,38 @@
       <c r="M93" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="W93" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y93" s="54" t="s">
+      <c r="N93" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X93" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z93" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="Z93" s="55"/>
       <c r="AA93" s="55"/>
       <c r="AB93" s="55"/>
       <c r="AC93" s="55"/>
-      <c r="AD93" s="56"/>
-      <c r="AE93" s="40" t="s">
+      <c r="AD93" s="55"/>
+      <c r="AE93" s="56"/>
+      <c r="AF93" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="AI93" t="s">
+      <c r="AJ93" t="s">
         <v>186</v>
       </c>
-      <c r="AR93" s="34"/>
-      <c r="AS93" s="5"/>
-      <c r="AT93" s="5" t="s">
+      <c r="AS93" s="34"/>
+      <c r="AT93" s="5"/>
+      <c r="AU93" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="AU93" s="5"/>
       <c r="AV93" s="5"/>
       <c r="AW93" s="5"/>
       <c r="AX93" s="5"/>
-      <c r="AY93" s="35"/>
-    </row>
-    <row r="94" spans="4:51" ht="16" customHeight="1">
+      <c r="AY93" s="5"/>
+      <c r="AZ93" s="35"/>
+    </row>
+    <row r="94" spans="4:52" ht="16" customHeight="1">
       <c r="F94" s="34"/>
       <c r="G94" s="5" t="s">
         <v>103</v>
@@ -6134,32 +6296,35 @@
       <c r="M94" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="W94" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y94" s="34"/>
-      <c r="Z94" s="88" t="s">
+      <c r="N94" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X94" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z94" s="34"/>
+      <c r="AA94" s="88" t="s">
         <v>202</v>
       </c>
-      <c r="AA94" s="5"/>
       <c r="AB94" s="5"/>
       <c r="AC94" s="5"/>
-      <c r="AD94" s="35"/>
-      <c r="AH94" t="s">
+      <c r="AD94" s="5"/>
+      <c r="AE94" s="35"/>
+      <c r="AI94" t="s">
         <v>190</v>
       </c>
-      <c r="AR94" s="34"/>
-      <c r="AS94" s="5"/>
-      <c r="AT94" s="5" t="s">
+      <c r="AS94" s="34"/>
+      <c r="AT94" s="5"/>
+      <c r="AU94" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="AU94" s="5"/>
       <c r="AV94" s="5"/>
       <c r="AW94" s="5"/>
       <c r="AX94" s="5"/>
-      <c r="AY94" s="35"/>
-    </row>
-    <row r="95" spans="4:51" ht="16" customHeight="1">
+      <c r="AY94" s="5"/>
+      <c r="AZ94" s="35"/>
+    </row>
+    <row r="95" spans="4:52" ht="16" customHeight="1">
       <c r="F95" s="34"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
@@ -6168,30 +6333,33 @@
       <c r="M95" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="W95" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y95" s="34"/>
-      <c r="Z95" s="5"/>
-      <c r="AA95" s="5" t="s">
+      <c r="N95" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X95" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z95" s="34"/>
+      <c r="AA95" s="5"/>
+      <c r="AB95" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="AB95" s="5"/>
       <c r="AC95" s="5"/>
-      <c r="AD95" s="35"/>
-      <c r="AI95" t="s">
+      <c r="AD95" s="5"/>
+      <c r="AE95" s="35"/>
+      <c r="AJ95" t="s">
         <v>191</v>
       </c>
-      <c r="AR95" s="34"/>
-      <c r="AS95" s="5"/>
+      <c r="AS95" s="34"/>
       <c r="AT95" s="5"/>
       <c r="AU95" s="5"/>
       <c r="AV95" s="5"/>
       <c r="AW95" s="5"/>
       <c r="AX95" s="5"/>
-      <c r="AY95" s="35"/>
-    </row>
-    <row r="96" spans="4:51" ht="16" customHeight="1">
+      <c r="AY95" s="5"/>
+      <c r="AZ95" s="35"/>
+    </row>
+    <row r="96" spans="4:52" ht="16" customHeight="1">
       <c r="F96" s="34"/>
       <c r="G96" s="51" t="s">
         <v>105</v>
@@ -6202,30 +6370,33 @@
       <c r="M96" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="W96" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="X96" s="128" t="s">
+      <c r="N96" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X96" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y96" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="Y96" s="36"/>
-      <c r="Z96" s="37" t="s">
+      <c r="Z96" s="36"/>
+      <c r="AA96" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="AA96" s="37"/>
       <c r="AB96" s="37"/>
       <c r="AC96" s="37"/>
-      <c r="AD96" s="38"/>
-      <c r="AR96" s="34"/>
-      <c r="AS96" s="5"/>
+      <c r="AD96" s="37"/>
+      <c r="AE96" s="38"/>
+      <c r="AS96" s="34"/>
       <c r="AT96" s="5"/>
       <c r="AU96" s="5"/>
       <c r="AV96" s="5"/>
       <c r="AW96" s="5"/>
       <c r="AX96" s="5"/>
-      <c r="AY96" s="35"/>
-    </row>
-    <row r="97" spans="4:51" ht="16" customHeight="1">
+      <c r="AY96" s="5"/>
+      <c r="AZ96" s="35"/>
+    </row>
+    <row r="97" spans="4:52" ht="16" customHeight="1">
       <c r="F97" s="34"/>
       <c r="G97" s="5"/>
       <c r="H97" s="52" t="s">
@@ -6236,27 +6407,30 @@
       <c r="M97" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="W97" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="X97" s="129" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG97" t="s">
+      <c r="N97" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X97" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y97" s="92" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH97" t="s">
         <v>179</v>
       </c>
-      <c r="AR97" s="36"/>
-      <c r="AS97" s="81" t="s">
+      <c r="AS97" s="36"/>
+      <c r="AT97" s="81" t="s">
         <v>163</v>
       </c>
-      <c r="AT97" s="37"/>
       <c r="AU97" s="37"/>
       <c r="AV97" s="37"/>
       <c r="AW97" s="37"/>
       <c r="AX97" s="37"/>
-      <c r="AY97" s="38"/>
-    </row>
-    <row r="98" spans="4:51" ht="16" customHeight="1">
+      <c r="AY97" s="37"/>
+      <c r="AZ97" s="38"/>
+    </row>
+    <row r="98" spans="4:52" ht="16" customHeight="1">
       <c r="F98" s="34"/>
       <c r="G98" s="5" t="s">
         <v>106</v>
@@ -6267,17 +6441,23 @@
       <c r="M98" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="W98" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="X98" s="87" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH98" t="s">
+      <c r="N98" t="s">
+        <v>253</v>
+      </c>
+      <c r="P98" s="69" t="s">
+        <v>255</v>
+      </c>
+      <c r="X98" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y98" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI98" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="99" spans="4:51" ht="16" customHeight="1">
+    <row r="99" spans="4:52" ht="16" customHeight="1">
       <c r="F99" s="34"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5" t="s">
@@ -6288,18 +6468,22 @@
       <c r="M99" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="W99" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="X99" s="87" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y99" s="79"/>
-      <c r="AH99" t="s">
+      <c r="N99" s="5"/>
+      <c r="Q99" s="82" t="s">
+        <v>251</v>
+      </c>
+      <c r="X99" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y99" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z99" s="79"/>
+      <c r="AI99" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="100" spans="4:51" ht="16" customHeight="1">
+    <row r="100" spans="4:52" ht="16" customHeight="1">
       <c r="F100" s="34"/>
       <c r="G100" s="5" t="s">
         <v>111</v>
@@ -6310,28 +6494,30 @@
       <c r="M100" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="W100" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="X100" s="87" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y100" s="54" t="s">
+      <c r="N100" s="5"/>
+      <c r="Q100" s="82" t="s">
+        <v>254</v>
+      </c>
+      <c r="X100" s="5"/>
+      <c r="Y100" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z100" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="Z100" s="55"/>
       <c r="AA100" s="55"/>
       <c r="AB100" s="55"/>
       <c r="AC100" s="55"/>
-      <c r="AD100" s="56"/>
-      <c r="AE100" s="5" t="s">
+      <c r="AD100" s="55"/>
+      <c r="AE100" s="56"/>
+      <c r="AF100" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="AH100" s="69" t="s">
+      <c r="AI100" s="69" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="101" spans="4:51" ht="16" customHeight="1">
+    <row r="101" spans="4:52" ht="16" customHeight="1">
       <c r="F101" s="34"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
@@ -6340,26 +6526,23 @@
       <c r="M101" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O101" s="69" t="s">
-        <v>247</v>
-      </c>
-      <c r="U101" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="W101" s="5"/>
-      <c r="X101" s="87"/>
-      <c r="Y101" s="34"/>
-      <c r="Z101" s="5" t="s">
-        <v>248</v>
-      </c>
+      <c r="N101" s="5"/>
+      <c r="X101" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y101" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z101" s="34"/>
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
       <c r="AC101" s="5"/>
-      <c r="AD101" s="35"/>
-      <c r="AE101" s="5"/>
-      <c r="AH101" s="69"/>
-    </row>
-    <row r="102" spans="4:51" ht="16" customHeight="1">
+      <c r="AD101" s="5"/>
+      <c r="AE101" s="35"/>
+      <c r="AF101" s="5"/>
+      <c r="AI101" s="69"/>
+    </row>
+    <row r="102" spans="4:52" ht="16" customHeight="1">
       <c r="F102" s="34"/>
       <c r="G102" s="5" t="s">
         <v>110</v>
@@ -6370,25 +6553,30 @@
       <c r="M102" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P102" t="s">
-        <v>250</v>
-      </c>
-      <c r="W102" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="X102" s="87" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y102" s="34"/>
-      <c r="Z102" s="5"/>
-      <c r="AA102" s="5"/>
+      <c r="N102" s="5"/>
+      <c r="X102" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y102" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z102" s="34"/>
+      <c r="AA102" s="5" t="s">
+        <v>252</v>
+      </c>
       <c r="AB102" s="5"/>
       <c r="AC102" s="5"/>
-      <c r="AD102" s="35"/>
-      <c r="AE102" s="5"/>
-      <c r="AH102" s="69"/>
-    </row>
-    <row r="103" spans="4:51" ht="16" customHeight="1">
+      <c r="AD102" s="5"/>
+      <c r="AE102" s="35"/>
+      <c r="AF102" s="5"/>
+      <c r="AG102" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH102" s="69" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="103" spans="4:52" ht="16" customHeight="1">
       <c r="F103" s="34"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
@@ -6397,25 +6585,25 @@
       <c r="M103" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Q103" t="s">
-        <v>251</v>
-      </c>
-      <c r="W103" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="X103" s="87" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y103" s="34"/>
-      <c r="Z103" s="5" t="s">
-        <v>216</v>
-      </c>
+      <c r="N103" s="5"/>
+      <c r="X103" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y103" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z103" s="34"/>
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
       <c r="AC103" s="5"/>
-      <c r="AD103" s="35"/>
-    </row>
-    <row r="104" spans="4:51" ht="16" customHeight="1">
+      <c r="AD103" s="5"/>
+      <c r="AE103" s="35"/>
+      <c r="AF103" s="5"/>
+      <c r="AI103" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="104" spans="4:52" ht="16" customHeight="1">
       <c r="F104" s="34"/>
       <c r="G104" s="5" t="s">
         <v>112</v>
@@ -6426,32 +6614,26 @@
       <c r="M104" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="W104" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="X104" s="87" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y104" s="36"/>
-      <c r="Z104" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA104" s="37"/>
-      <c r="AB104" s="37"/>
-      <c r="AC104" s="37"/>
-      <c r="AD104" s="38"/>
-      <c r="AR104" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="AS104" s="55"/>
-      <c r="AT104" s="55"/>
-      <c r="AU104" s="55"/>
-      <c r="AV104" s="55"/>
-      <c r="AW104" s="55"/>
-      <c r="AX104" s="55"/>
-      <c r="AY104" s="56"/>
-    </row>
-    <row r="105" spans="4:51" ht="16" customHeight="1">
+      <c r="N104" s="5"/>
+      <c r="X104" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y104" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z104" s="34"/>
+      <c r="AA104" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB104" s="5"/>
+      <c r="AC104" s="5"/>
+      <c r="AD104" s="5"/>
+      <c r="AE104" s="35"/>
+      <c r="AJ104" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="105" spans="4:52" ht="16" customHeight="1">
       <c r="F105" s="34"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
@@ -6460,25 +6642,21 @@
       <c r="M105" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="W105" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="X105" s="87" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE105" s="87"/>
-      <c r="AR105" s="34"/>
-      <c r="AS105" s="79" t="s">
-        <v>134</v>
-      </c>
-      <c r="AT105" s="5"/>
-      <c r="AU105" s="5"/>
-      <c r="AV105" s="5"/>
-      <c r="AW105" s="5"/>
-      <c r="AX105" s="5"/>
-      <c r="AY105" s="35"/>
-    </row>
-    <row r="106" spans="4:51" ht="16" customHeight="1">
+      <c r="N105" s="5"/>
+      <c r="X105" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y105" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z105" s="34"/>
+      <c r="AA105" s="5"/>
+      <c r="AB105" s="5"/>
+      <c r="AC105" s="5"/>
+      <c r="AD105" s="5"/>
+      <c r="AE105" s="35"/>
+    </row>
+    <row r="106" spans="4:52" ht="16" customHeight="1">
       <c r="F106" s="34"/>
       <c r="G106" s="5" t="s">
         <v>111</v>
@@ -6489,33 +6667,21 @@
       <c r="M106" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="W106" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="X106" s="87" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y106" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z106" s="55"/>
-      <c r="AA106" s="55"/>
-      <c r="AB106" s="55"/>
-      <c r="AC106" s="55"/>
-      <c r="AD106" s="56"/>
-      <c r="AE106" s="87"/>
-      <c r="AR106" s="34"/>
-      <c r="AS106" s="79" t="s">
-        <v>166</v>
-      </c>
-      <c r="AT106" s="5"/>
-      <c r="AU106" s="5"/>
-      <c r="AV106" s="5"/>
-      <c r="AW106" s="5"/>
-      <c r="AX106" s="5"/>
-      <c r="AY106" s="35"/>
-    </row>
-    <row r="107" spans="4:51" ht="16" customHeight="1">
+      <c r="N106" s="5"/>
+      <c r="X106" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y106" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z106" s="34"/>
+      <c r="AA106" s="5"/>
+      <c r="AB106" s="5"/>
+      <c r="AC106" s="5"/>
+      <c r="AD106" s="5"/>
+      <c r="AE106" s="35"/>
+    </row>
+    <row r="107" spans="4:52" ht="16" customHeight="1">
       <c r="D107" s="5" t="s">
         <v>139</v>
       </c>
@@ -6529,36 +6695,33 @@
       <c r="M107" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="W107" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="X107" s="87" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y107" s="34"/>
-      <c r="Z107" s="90" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA107" s="90"/>
-      <c r="AB107" s="90"/>
-      <c r="AC107" s="90"/>
-      <c r="AD107" s="35"/>
-      <c r="AE107" s="87"/>
-      <c r="AG107" t="s">
-        <v>194</v>
-      </c>
-      <c r="AR107" s="34"/>
-      <c r="AS107" s="79"/>
-      <c r="AT107" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="AU107" s="5"/>
-      <c r="AV107" s="5"/>
-      <c r="AW107" s="5"/>
-      <c r="AX107" s="5"/>
-      <c r="AY107" s="35"/>
-    </row>
-    <row r="108" spans="4:51" ht="16" customHeight="1">
+      <c r="N107" s="5"/>
+      <c r="X107" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y107" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z107" s="36"/>
+      <c r="AA107" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB107" s="37"/>
+      <c r="AC107" s="37"/>
+      <c r="AD107" s="37"/>
+      <c r="AE107" s="38"/>
+      <c r="AS107" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT107" s="55"/>
+      <c r="AU107" s="55"/>
+      <c r="AV107" s="55"/>
+      <c r="AW107" s="55"/>
+      <c r="AX107" s="55"/>
+      <c r="AY107" s="55"/>
+      <c r="AZ107" s="56"/>
+    </row>
+    <row r="108" spans="4:52" ht="16" customHeight="1">
       <c r="D108" s="40" t="s">
         <v>149</v>
       </c>
@@ -6574,32 +6737,26 @@
       <c r="M108" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="W108" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="X108" s="128" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y108" s="34"/>
-      <c r="Z108" s="90"/>
-      <c r="AA108" s="90"/>
-      <c r="AB108" s="90"/>
-      <c r="AC108" s="90"/>
-      <c r="AD108" s="35"/>
-      <c r="AE108" s="5"/>
-      <c r="AH108" t="s">
-        <v>196</v>
-      </c>
-      <c r="AR108" s="34"/>
-      <c r="AS108" s="5"/>
-      <c r="AT108" s="5"/>
+      <c r="N108" s="5"/>
+      <c r="X108" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y108" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF108" s="87"/>
+      <c r="AS108" s="34"/>
+      <c r="AT108" s="79" t="s">
+        <v>134</v>
+      </c>
       <c r="AU108" s="5"/>
       <c r="AV108" s="5"/>
       <c r="AW108" s="5"/>
       <c r="AX108" s="5"/>
-      <c r="AY108" s="35"/>
-    </row>
-    <row r="109" spans="4:51" ht="16" customHeight="1">
+      <c r="AY108" s="5"/>
+      <c r="AZ108" s="35"/>
+    </row>
+    <row r="109" spans="4:52" ht="16" customHeight="1">
       <c r="D109" s="5" t="s">
         <v>139</v>
       </c>
@@ -6613,28 +6770,34 @@
       <c r="M109" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="W109" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y109" s="34"/>
-      <c r="Z109" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA109" s="5"/>
-      <c r="AB109" s="5"/>
-      <c r="AC109" s="5"/>
-      <c r="AD109" s="35"/>
-      <c r="AE109" s="86"/>
-      <c r="AR109" s="34"/>
-      <c r="AS109" s="5"/>
-      <c r="AT109" s="5"/>
+      <c r="N109" s="5"/>
+      <c r="X109" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y109" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z109" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA109" s="55"/>
+      <c r="AB109" s="55"/>
+      <c r="AC109" s="55"/>
+      <c r="AD109" s="55"/>
+      <c r="AE109" s="56"/>
+      <c r="AF109" s="87"/>
+      <c r="AS109" s="34"/>
+      <c r="AT109" s="79" t="s">
+        <v>166</v>
+      </c>
       <c r="AU109" s="5"/>
       <c r="AV109" s="5"/>
       <c r="AW109" s="5"/>
       <c r="AX109" s="5"/>
-      <c r="AY109" s="35"/>
-    </row>
-    <row r="110" spans="4:51" ht="16" customHeight="1">
+      <c r="AY109" s="5"/>
+      <c r="AZ109" s="35"/>
+    </row>
+    <row r="110" spans="4:52" ht="16" customHeight="1">
       <c r="D110" s="40" t="s">
         <v>149</v>
       </c>
@@ -6650,27 +6813,37 @@
       <c r="M110" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="W110" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y110" s="36"/>
-      <c r="Z110" s="89" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA110" s="37"/>
-      <c r="AB110" s="37"/>
-      <c r="AC110" s="37"/>
-      <c r="AD110" s="38"/>
-      <c r="AR110" s="34"/>
-      <c r="AS110" s="5"/>
-      <c r="AT110" s="5"/>
-      <c r="AU110" s="5"/>
+      <c r="N110" s="5"/>
+      <c r="X110" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y110" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z110" s="34"/>
+      <c r="AA110" s="107" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB110" s="107"/>
+      <c r="AC110" s="107"/>
+      <c r="AD110" s="107"/>
+      <c r="AE110" s="35"/>
+      <c r="AF110" s="87"/>
+      <c r="AH110" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS110" s="34"/>
+      <c r="AT110" s="79"/>
+      <c r="AU110" s="5" t="s">
+        <v>246</v>
+      </c>
       <c r="AV110" s="5"/>
       <c r="AW110" s="5"/>
       <c r="AX110" s="5"/>
-      <c r="AY110" s="35"/>
-    </row>
-    <row r="111" spans="4:51" ht="16" customHeight="1">
+      <c r="AY110" s="5"/>
+      <c r="AZ110" s="35"/>
+    </row>
+    <row r="111" spans="4:52" ht="16" customHeight="1">
       <c r="F111" s="34"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5" t="s">
@@ -6681,27 +6854,33 @@
       <c r="M111" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="O111" t="s">
-        <v>230</v>
-      </c>
-      <c r="W111" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG111" t="s">
-        <v>195</v>
-      </c>
-      <c r="AR111" s="36"/>
-      <c r="AS111" s="81" t="s">
-        <v>163</v>
-      </c>
-      <c r="AT111" s="37"/>
-      <c r="AU111" s="37"/>
-      <c r="AV111" s="37"/>
-      <c r="AW111" s="37"/>
-      <c r="AX111" s="37"/>
-      <c r="AY111" s="38"/>
-    </row>
-    <row r="112" spans="4:51" ht="16" customHeight="1">
+      <c r="N111" s="5"/>
+      <c r="X111" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y111" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z111" s="34"/>
+      <c r="AA111" s="107"/>
+      <c r="AB111" s="107"/>
+      <c r="AC111" s="107"/>
+      <c r="AD111" s="107"/>
+      <c r="AE111" s="35"/>
+      <c r="AF111" s="5"/>
+      <c r="AI111" t="s">
+        <v>196</v>
+      </c>
+      <c r="AS111" s="34"/>
+      <c r="AT111" s="5"/>
+      <c r="AU111" s="5"/>
+      <c r="AV111" s="5"/>
+      <c r="AW111" s="5"/>
+      <c r="AX111" s="5"/>
+      <c r="AY111" s="5"/>
+      <c r="AZ111" s="35"/>
+    </row>
+    <row r="112" spans="4:52" ht="16" customHeight="1">
       <c r="F112" s="34"/>
       <c r="G112" s="5"/>
       <c r="H112" s="5" t="s">
@@ -6712,17 +6891,29 @@
       <c r="M112" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P112" t="s">
-        <v>233</v>
-      </c>
-      <c r="W112" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="AH112" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="113" spans="6:51" ht="16" customHeight="1">
+      <c r="N112" s="5"/>
+      <c r="X112" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z112" s="34"/>
+      <c r="AA112" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB112" s="5"/>
+      <c r="AC112" s="5"/>
+      <c r="AD112" s="5"/>
+      <c r="AE112" s="35"/>
+      <c r="AF112" s="86"/>
+      <c r="AS112" s="34"/>
+      <c r="AT112" s="5"/>
+      <c r="AU112" s="5"/>
+      <c r="AV112" s="5"/>
+      <c r="AW112" s="5"/>
+      <c r="AX112" s="5"/>
+      <c r="AY112" s="5"/>
+      <c r="AZ112" s="35"/>
+    </row>
+    <row r="113" spans="6:52" ht="16" customHeight="1">
       <c r="F113" s="36"/>
       <c r="G113" s="37"/>
       <c r="H113" s="37" t="s">
@@ -6733,193 +6924,247 @@
       <c r="M113" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y113" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z113" s="55"/>
-      <c r="AA113" s="55"/>
-      <c r="AB113" s="55"/>
-      <c r="AC113" s="55"/>
-      <c r="AD113" s="56"/>
-      <c r="AE113" t="s">
-        <v>249</v>
-      </c>
-      <c r="AH113" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="114" spans="6:51" ht="16" customHeight="1">
+      <c r="N113" s="5"/>
+      <c r="X113" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z113" s="36"/>
+      <c r="AA113" s="89" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB113" s="37"/>
+      <c r="AC113" s="37"/>
+      <c r="AD113" s="37"/>
+      <c r="AE113" s="38"/>
+      <c r="AS113" s="34"/>
+      <c r="AT113" s="5"/>
+      <c r="AU113" s="5"/>
+      <c r="AV113" s="5"/>
+      <c r="AW113" s="5"/>
+      <c r="AX113" s="5"/>
+      <c r="AY113" s="5"/>
+      <c r="AZ113" s="35"/>
+    </row>
+    <row r="114" spans="6:52" ht="16" customHeight="1">
       <c r="H114" s="79" t="s">
         <v>219</v>
       </c>
       <c r="M114" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="Y114" s="34"/>
-      <c r="Z114" s="5" t="s">
+      <c r="N114" s="40"/>
+      <c r="P114" t="s">
+        <v>230</v>
+      </c>
+      <c r="X114" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH114" t="s">
+        <v>195</v>
+      </c>
+      <c r="AS114" s="36"/>
+      <c r="AT114" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU114" s="37"/>
+      <c r="AV114" s="37"/>
+      <c r="AW114" s="37"/>
+      <c r="AX114" s="37"/>
+      <c r="AY114" s="37"/>
+      <c r="AZ114" s="38"/>
+    </row>
+    <row r="115" spans="6:52" ht="16" customHeight="1">
+      <c r="Q115" t="s">
+        <v>233</v>
+      </c>
+      <c r="X115" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI115" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="116" spans="6:52" ht="16" customHeight="1">
+      <c r="Z116" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA116" s="55"/>
+      <c r="AB116" s="55"/>
+      <c r="AC116" s="55"/>
+      <c r="AD116" s="55"/>
+      <c r="AE116" s="56"/>
+      <c r="AF116" t="s">
+        <v>248</v>
+      </c>
+      <c r="AI116" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="117" spans="6:52" ht="16" customHeight="1">
+      <c r="Z117" s="34"/>
+      <c r="AA117" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="AA114" s="5"/>
-      <c r="AB114" s="5"/>
-      <c r="AC114" s="5"/>
-      <c r="AD114" s="35"/>
-    </row>
-    <row r="115" spans="6:51" ht="16" customHeight="1">
-      <c r="Y115" s="34"/>
-      <c r="Z115" s="5"/>
-      <c r="AA115" s="127" t="s">
-        <v>212</v>
-      </c>
-      <c r="AB115" s="5"/>
-      <c r="AC115" s="5"/>
-      <c r="AD115" s="35"/>
-    </row>
-    <row r="116" spans="6:51" ht="16" customHeight="1">
-      <c r="Y116" s="34"/>
-      <c r="Z116" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA116" s="5"/>
-      <c r="AB116" s="5"/>
-      <c r="AC116" s="5"/>
-      <c r="AD116" s="35"/>
-    </row>
-    <row r="117" spans="6:51" ht="16" customHeight="1">
-      <c r="Y117" s="34"/>
-      <c r="Z117" s="5"/>
-      <c r="AA117" s="5" t="s">
-        <v>208</v>
       </c>
       <c r="AB117" s="5"/>
       <c r="AC117" s="5"/>
-      <c r="AD117" s="35"/>
-    </row>
-    <row r="118" spans="6:51" ht="16" customHeight="1">
-      <c r="Y118" s="34"/>
-      <c r="Z118" s="5" t="s">
-        <v>209</v>
-      </c>
+      <c r="AD117" s="5"/>
+      <c r="AE117" s="35"/>
+    </row>
+    <row r="118" spans="6:52" ht="16" customHeight="1">
+      <c r="Z118" s="34"/>
       <c r="AA118" s="5"/>
-      <c r="AB118" s="5"/>
+      <c r="AB118" s="90" t="s">
+        <v>212</v>
+      </c>
       <c r="AC118" s="5"/>
-      <c r="AD118" s="35"/>
-    </row>
-    <row r="119" spans="6:51" ht="16" customHeight="1">
-      <c r="Y119" s="34"/>
-      <c r="Z119" s="5"/>
+      <c r="AD118" s="5"/>
+      <c r="AE118" s="35"/>
+    </row>
+    <row r="119" spans="6:52" ht="16" customHeight="1">
+      <c r="Z119" s="34"/>
       <c r="AA119" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AB119" s="5"/>
       <c r="AC119" s="5"/>
-      <c r="AD119" s="35"/>
-      <c r="AR119" s="54" t="s">
+      <c r="AD119" s="5"/>
+      <c r="AE119" s="35"/>
+    </row>
+    <row r="120" spans="6:52" ht="16" customHeight="1">
+      <c r="Z120" s="34"/>
+      <c r="AA120" s="5"/>
+      <c r="AB120" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC120" s="5"/>
+      <c r="AD120" s="5"/>
+      <c r="AE120" s="35"/>
+    </row>
+    <row r="121" spans="6:52" ht="16" customHeight="1">
+      <c r="Z121" s="34"/>
+      <c r="AA121" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB121" s="5"/>
+      <c r="AC121" s="5"/>
+      <c r="AD121" s="5"/>
+      <c r="AE121" s="35"/>
+    </row>
+    <row r="122" spans="6:52" ht="16" customHeight="1">
+      <c r="Z122" s="34"/>
+      <c r="AA122" s="5"/>
+      <c r="AB122" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC122" s="5"/>
+      <c r="AD122" s="5"/>
+      <c r="AE122" s="35"/>
+      <c r="AS122" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="AS119" s="55"/>
-      <c r="AT119" s="55"/>
-      <c r="AU119" s="55"/>
-      <c r="AV119" s="55"/>
-      <c r="AW119" s="55"/>
-      <c r="AX119" s="55"/>
-      <c r="AY119" s="56"/>
-    </row>
-    <row r="120" spans="6:51" ht="16" customHeight="1">
-      <c r="Y120" s="34"/>
-      <c r="Z120" s="5"/>
-      <c r="AA120" s="5"/>
-      <c r="AB120" s="5"/>
-      <c r="AC120" s="5"/>
-      <c r="AD120" s="35"/>
-      <c r="AR120" s="34"/>
-      <c r="AS120" s="79" t="s">
+      <c r="AT122" s="55"/>
+      <c r="AU122" s="55"/>
+      <c r="AV122" s="55"/>
+      <c r="AW122" s="55"/>
+      <c r="AX122" s="55"/>
+      <c r="AY122" s="55"/>
+      <c r="AZ122" s="56"/>
+    </row>
+    <row r="123" spans="6:52" ht="16" customHeight="1">
+      <c r="Z123" s="34"/>
+      <c r="AA123" s="5"/>
+      <c r="AB123" s="5"/>
+      <c r="AC123" s="5"/>
+      <c r="AD123" s="5"/>
+      <c r="AE123" s="35"/>
+      <c r="AS123" s="34"/>
+      <c r="AT123" s="79" t="s">
         <v>134</v>
       </c>
-      <c r="AT120" s="5"/>
-      <c r="AU120" s="5"/>
-      <c r="AV120" s="5"/>
-      <c r="AW120" s="5"/>
-      <c r="AX120" s="5"/>
-      <c r="AY120" s="35"/>
-    </row>
-    <row r="121" spans="6:51" ht="16" customHeight="1">
-      <c r="Y121" s="36"/>
-      <c r="Z121" s="89" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA121" s="37"/>
-      <c r="AB121" s="37"/>
-      <c r="AC121" s="37"/>
-      <c r="AD121" s="38"/>
-      <c r="AR121" s="34"/>
-      <c r="AS121" s="79" t="s">
-        <v>166</v>
-      </c>
-      <c r="AT121" s="5"/>
-      <c r="AU121" s="5"/>
-      <c r="AV121" s="5"/>
-      <c r="AW121" s="5"/>
-      <c r="AX121" s="5"/>
-      <c r="AY121" s="35"/>
-    </row>
-    <row r="122" spans="6:51" ht="16" customHeight="1">
-      <c r="AR122" s="34"/>
-      <c r="AS122" s="5"/>
-      <c r="AT122" s="5"/>
-      <c r="AU122" s="5"/>
-      <c r="AV122" s="5"/>
-      <c r="AW122" s="5"/>
-      <c r="AX122" s="5"/>
-      <c r="AY122" s="35"/>
-    </row>
-    <row r="123" spans="6:51" ht="16" customHeight="1">
-      <c r="AR123" s="34"/>
-      <c r="AS123" s="5"/>
-      <c r="AT123" s="5"/>
       <c r="AU123" s="5"/>
       <c r="AV123" s="5"/>
       <c r="AW123" s="5"/>
       <c r="AX123" s="5"/>
-      <c r="AY123" s="35"/>
-    </row>
-    <row r="124" spans="6:51" ht="16" customHeight="1">
-      <c r="Y124" t="s">
+      <c r="AY123" s="5"/>
+      <c r="AZ123" s="35"/>
+    </row>
+    <row r="124" spans="6:52" ht="16" customHeight="1">
+      <c r="Z124" s="36"/>
+      <c r="AA124" s="89" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB124" s="37"/>
+      <c r="AC124" s="37"/>
+      <c r="AD124" s="37"/>
+      <c r="AE124" s="38"/>
+      <c r="AS124" s="34"/>
+      <c r="AT124" s="79" t="s">
+        <v>166</v>
+      </c>
+      <c r="AU124" s="5"/>
+      <c r="AV124" s="5"/>
+      <c r="AW124" s="5"/>
+      <c r="AX124" s="5"/>
+      <c r="AY124" s="5"/>
+      <c r="AZ124" s="35"/>
+    </row>
+    <row r="125" spans="6:52" ht="16" customHeight="1">
+      <c r="AS125" s="34"/>
+      <c r="AT125" s="5"/>
+      <c r="AU125" s="5"/>
+      <c r="AV125" s="5"/>
+      <c r="AW125" s="5"/>
+      <c r="AX125" s="5"/>
+      <c r="AY125" s="5"/>
+      <c r="AZ125" s="35"/>
+    </row>
+    <row r="126" spans="6:52" ht="16" customHeight="1">
+      <c r="AS126" s="34"/>
+      <c r="AT126" s="5"/>
+      <c r="AU126" s="5"/>
+      <c r="AV126" s="5"/>
+      <c r="AW126" s="5"/>
+      <c r="AX126" s="5"/>
+      <c r="AY126" s="5"/>
+      <c r="AZ126" s="35"/>
+    </row>
+    <row r="127" spans="6:52" ht="16" customHeight="1">
+      <c r="Z127" t="s">
         <v>213</v>
       </c>
-      <c r="AR124" s="36"/>
-      <c r="AS124" s="81" t="s">
+      <c r="AS127" s="36"/>
+      <c r="AT127" s="81" t="s">
         <v>163</v>
       </c>
-      <c r="AT124" s="37"/>
-      <c r="AU124" s="37"/>
-      <c r="AV124" s="37"/>
-      <c r="AW124" s="37"/>
-      <c r="AX124" s="37"/>
-      <c r="AY124" s="38"/>
+      <c r="AU127" s="37"/>
+      <c r="AV127" s="37"/>
+      <c r="AW127" s="37"/>
+      <c r="AX127" s="37"/>
+      <c r="AY127" s="37"/>
+      <c r="AZ127" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="AS8:AY9"/>
-    <mergeCell ref="AS17:AY18"/>
-    <mergeCell ref="Y19:AD19"/>
-    <mergeCell ref="AT11:AX11"/>
-    <mergeCell ref="O2:AQ3"/>
-    <mergeCell ref="AG7:AN7"/>
-    <mergeCell ref="Q10:S11"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="Z107:AC108"/>
-    <mergeCell ref="Y65:AD65"/>
+  <mergeCells count="20">
+    <mergeCell ref="AA110:AD111"/>
+    <mergeCell ref="Z65:AE65"/>
     <mergeCell ref="F25:J26"/>
     <mergeCell ref="F20:J21"/>
-    <mergeCell ref="AT20:AX20"/>
-    <mergeCell ref="Y23:AD23"/>
-    <mergeCell ref="AG40:AN40"/>
-    <mergeCell ref="AG37:AN37"/>
+    <mergeCell ref="AU20:AY20"/>
+    <mergeCell ref="Z23:AE23"/>
+    <mergeCell ref="AH40:AO40"/>
+    <mergeCell ref="AH37:AO37"/>
     <mergeCell ref="F47:J48"/>
-    <mergeCell ref="AG53:AN53"/>
-    <mergeCell ref="AG55:AN55"/>
-    <mergeCell ref="Y35:AD35"/>
-    <mergeCell ref="O54:T54"/>
+    <mergeCell ref="AH53:AO53"/>
+    <mergeCell ref="AH55:AO55"/>
+    <mergeCell ref="Z35:AE35"/>
+    <mergeCell ref="AT8:AZ9"/>
+    <mergeCell ref="AT17:AZ18"/>
+    <mergeCell ref="Z19:AE19"/>
+    <mergeCell ref="AU11:AY11"/>
+    <mergeCell ref="P2:AR3"/>
+    <mergeCell ref="AH7:AO7"/>
+    <mergeCell ref="R10:T11"/>
+    <mergeCell ref="Q5:U5"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/maraSonSouce/marasong_memo.xlsx
+++ b/maraSonSouce/marasong_memo.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hqu666/Documents/Develop/an/workSpace/maraSong/maraSonSouce/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDCC993-EBB4-FD4C-95C4-7C8293FE1FB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23270E1-B893-924E-8827-E39117C47CBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8180" yWindow="-18080" windowWidth="26760" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="起動" sheetId="1" r:id="rId1"/>
-    <sheet name="エラーリスト" sheetId="2" r:id="rId2"/>
+    <sheet name="Alart3BT" sheetId="3" r:id="rId2"/>
+    <sheet name="エラーリスト" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="262">
   <si>
     <t>MuList</t>
   </si>
@@ -1543,6 +1544,64 @@
   </si>
   <si>
     <t>m3U2PlayList</t>
+  </si>
+  <si>
+    <t>汎用ダイアログクラス</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ハンヨウ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      , Boolean isInput ,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF000080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>InType , Boolean isLists ,Boolean multiChoiceList , CharSequence[] listItem , String[] listID ) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF808080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>//ダイアログタイトル,アラート文,PositiveButton,NeutralButton,NegativeButton,文字入力か,入力制限,リストか,複数選択リスト,リストアイテム,複数選択リストのアイテムID</t>
+    </r>
+  </si>
+  <si>
+    <t>Alart3BT(Context context ,</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>String dTitol ,</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>String dMessage ,</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -1952,7 +2011,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2136,111 +2195,112 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2871,8 +2931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:AZ127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="R99" sqref="R99"/>
+    <sheetView tabSelected="1" topLeftCell="G25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AH40" sqref="AH40:AO40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -2897,68 +2957,68 @@
   </cols>
   <sheetData>
     <row r="2" spans="16:52" ht="16" customHeight="1">
-      <c r="P2" s="93" t="s">
+      <c r="P2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="94"/>
-      <c r="Y2" s="94"/>
-      <c r="Z2" s="94"/>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="94"/>
-      <c r="AD2" s="94"/>
-      <c r="AE2" s="94"/>
-      <c r="AF2" s="94"/>
-      <c r="AG2" s="94"/>
-      <c r="AH2" s="94"/>
-      <c r="AI2" s="94"/>
-      <c r="AJ2" s="94"/>
-      <c r="AK2" s="94"/>
-      <c r="AL2" s="94"/>
-      <c r="AM2" s="94"/>
-      <c r="AN2" s="94"/>
-      <c r="AO2" s="94"/>
-      <c r="AP2" s="94"/>
-      <c r="AQ2" s="94"/>
-      <c r="AR2" s="95"/>
+      <c r="Q2" s="121"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="121"/>
+      <c r="AB2" s="121"/>
+      <c r="AC2" s="121"/>
+      <c r="AD2" s="121"/>
+      <c r="AE2" s="121"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="121"/>
+      <c r="AH2" s="121"/>
+      <c r="AI2" s="121"/>
+      <c r="AJ2" s="121"/>
+      <c r="AK2" s="121"/>
+      <c r="AL2" s="121"/>
+      <c r="AM2" s="121"/>
+      <c r="AN2" s="121"/>
+      <c r="AO2" s="121"/>
+      <c r="AP2" s="121"/>
+      <c r="AQ2" s="121"/>
+      <c r="AR2" s="122"/>
     </row>
     <row r="3" spans="16:52" ht="16" customHeight="1">
-      <c r="P3" s="96"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="97"/>
-      <c r="U3" s="97"/>
-      <c r="V3" s="97"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-      <c r="Y3" s="97"/>
-      <c r="Z3" s="97"/>
-      <c r="AA3" s="97"/>
-      <c r="AB3" s="97"/>
-      <c r="AC3" s="97"/>
-      <c r="AD3" s="97"/>
-      <c r="AE3" s="97"/>
-      <c r="AF3" s="97"/>
-      <c r="AG3" s="97"/>
-      <c r="AH3" s="97"/>
-      <c r="AI3" s="97"/>
-      <c r="AJ3" s="97"/>
-      <c r="AK3" s="97"/>
-      <c r="AL3" s="97"/>
-      <c r="AM3" s="97"/>
-      <c r="AN3" s="97"/>
-      <c r="AO3" s="97"/>
-      <c r="AP3" s="97"/>
-      <c r="AQ3" s="97"/>
-      <c r="AR3" s="98"/>
+      <c r="P3" s="123"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="102"/>
+      <c r="Y3" s="102"/>
+      <c r="Z3" s="102"/>
+      <c r="AA3" s="102"/>
+      <c r="AB3" s="102"/>
+      <c r="AC3" s="102"/>
+      <c r="AD3" s="102"/>
+      <c r="AE3" s="102"/>
+      <c r="AF3" s="102"/>
+      <c r="AG3" s="102"/>
+      <c r="AH3" s="102"/>
+      <c r="AI3" s="102"/>
+      <c r="AJ3" s="102"/>
+      <c r="AK3" s="102"/>
+      <c r="AL3" s="102"/>
+      <c r="AM3" s="102"/>
+      <c r="AN3" s="102"/>
+      <c r="AO3" s="102"/>
+      <c r="AP3" s="102"/>
+      <c r="AQ3" s="102"/>
+      <c r="AR3" s="124"/>
     </row>
     <row r="4" spans="16:52" ht="16" customHeight="1">
       <c r="P4" s="4"/>
@@ -2993,13 +3053,13 @@
     </row>
     <row r="5" spans="16:52" ht="16" customHeight="1">
       <c r="P5" s="4"/>
-      <c r="Q5" s="100" t="s">
+      <c r="Q5" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="R5" s="101"/>
-      <c r="S5" s="101"/>
-      <c r="T5" s="101"/>
-      <c r="U5" s="102"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
+      <c r="U5" s="107"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
@@ -3070,16 +3130,16 @@
       <c r="AD7" s="5"/>
       <c r="AE7" s="6"/>
       <c r="AF7" s="5"/>
-      <c r="AH7" s="103" t="s">
+      <c r="AH7" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="AI7" s="104"/>
-      <c r="AJ7" s="104"/>
-      <c r="AK7" s="104"/>
-      <c r="AL7" s="104"/>
-      <c r="AM7" s="104"/>
-      <c r="AN7" s="104"/>
-      <c r="AO7" s="105"/>
+      <c r="AI7" s="127"/>
+      <c r="AJ7" s="127"/>
+      <c r="AK7" s="127"/>
+      <c r="AL7" s="127"/>
+      <c r="AM7" s="127"/>
+      <c r="AN7" s="127"/>
+      <c r="AO7" s="128"/>
       <c r="AP7" s="22"/>
       <c r="AQ7" s="22"/>
       <c r="AR7" s="5"/>
@@ -3118,15 +3178,15 @@
       <c r="AP8" s="5"/>
       <c r="AQ8" s="5"/>
       <c r="AR8" s="5"/>
-      <c r="AT8" s="93" t="s">
+      <c r="AT8" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="AU8" s="94"/>
-      <c r="AV8" s="94"/>
-      <c r="AW8" s="94"/>
-      <c r="AX8" s="94"/>
-      <c r="AY8" s="94"/>
-      <c r="AZ8" s="95"/>
+      <c r="AU8" s="121"/>
+      <c r="AV8" s="121"/>
+      <c r="AW8" s="121"/>
+      <c r="AX8" s="121"/>
+      <c r="AY8" s="121"/>
+      <c r="AZ8" s="122"/>
     </row>
     <row r="9" spans="16:52" ht="16" customHeight="1">
       <c r="P9" s="4"/>
@@ -3161,22 +3221,22 @@
       <c r="AP9" s="5"/>
       <c r="AQ9" s="5"/>
       <c r="AR9" s="5"/>
-      <c r="AT9" s="96"/>
-      <c r="AU9" s="97"/>
-      <c r="AV9" s="97"/>
-      <c r="AW9" s="97"/>
-      <c r="AX9" s="97"/>
-      <c r="AY9" s="97"/>
-      <c r="AZ9" s="98"/>
+      <c r="AT9" s="123"/>
+      <c r="AU9" s="102"/>
+      <c r="AV9" s="102"/>
+      <c r="AW9" s="102"/>
+      <c r="AX9" s="102"/>
+      <c r="AY9" s="102"/>
+      <c r="AZ9" s="124"/>
     </row>
     <row r="10" spans="16:52" ht="16" customHeight="1">
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
-      <c r="R10" s="106" t="s">
+      <c r="R10" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="S10" s="106"/>
-      <c r="T10" s="106"/>
+      <c r="S10" s="129"/>
+      <c r="T10" s="129"/>
       <c r="U10" s="26"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
@@ -3203,9 +3263,9 @@
     <row r="11" spans="16:52" ht="16" customHeight="1">
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="106"/>
-      <c r="S11" s="106"/>
-      <c r="T11" s="106"/>
+      <c r="R11" s="129"/>
+      <c r="S11" s="129"/>
+      <c r="T11" s="129"/>
       <c r="U11" s="26"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
@@ -3233,13 +3293,13 @@
       <c r="AQ11" s="5"/>
       <c r="AR11" s="5"/>
       <c r="AT11" s="4"/>
-      <c r="AU11" s="100" t="s">
+      <c r="AU11" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="AV11" s="101"/>
-      <c r="AW11" s="101"/>
-      <c r="AX11" s="101"/>
-      <c r="AY11" s="102"/>
+      <c r="AV11" s="106"/>
+      <c r="AW11" s="106"/>
+      <c r="AX11" s="106"/>
+      <c r="AY11" s="107"/>
       <c r="AZ11" s="6"/>
     </row>
     <row r="12" spans="16:52" ht="16" customHeight="1">
@@ -3484,15 +3544,15 @@
       <c r="AP17" s="5"/>
       <c r="AQ17" s="5"/>
       <c r="AR17" s="19"/>
-      <c r="AT17" s="93" t="s">
+      <c r="AT17" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="AU17" s="94"/>
-      <c r="AV17" s="94"/>
-      <c r="AW17" s="94"/>
-      <c r="AX17" s="94"/>
-      <c r="AY17" s="94"/>
-      <c r="AZ17" s="95"/>
+      <c r="AU17" s="121"/>
+      <c r="AV17" s="121"/>
+      <c r="AW17" s="121"/>
+      <c r="AX17" s="121"/>
+      <c r="AY17" s="121"/>
+      <c r="AZ17" s="122"/>
     </row>
     <row r="18" spans="3:52" ht="16" customHeight="1">
       <c r="P18" s="4"/>
@@ -3522,13 +3582,13 @@
       <c r="AP18" s="19"/>
       <c r="AQ18" s="19"/>
       <c r="AR18" s="5"/>
-      <c r="AT18" s="96"/>
-      <c r="AU18" s="97"/>
-      <c r="AV18" s="97"/>
-      <c r="AW18" s="97"/>
-      <c r="AX18" s="97"/>
-      <c r="AY18" s="97"/>
-      <c r="AZ18" s="98"/>
+      <c r="AT18" s="123"/>
+      <c r="AU18" s="102"/>
+      <c r="AV18" s="102"/>
+      <c r="AW18" s="102"/>
+      <c r="AX18" s="102"/>
+      <c r="AY18" s="102"/>
+      <c r="AZ18" s="124"/>
     </row>
     <row r="19" spans="3:52" ht="16" customHeight="1">
       <c r="P19" s="4"/>
@@ -3542,14 +3602,14 @@
       </c>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
-      <c r="Z19" s="99" t="s">
+      <c r="Z19" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="AA19" s="99"/>
-      <c r="AB19" s="99"/>
-      <c r="AC19" s="99"/>
-      <c r="AD19" s="99"/>
-      <c r="AE19" s="99"/>
+      <c r="AA19" s="125"/>
+      <c r="AB19" s="125"/>
+      <c r="AC19" s="125"/>
+      <c r="AD19" s="125"/>
+      <c r="AE19" s="125"/>
       <c r="AF19" s="23"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="19"/>
@@ -3575,13 +3635,13 @@
       <c r="C20" s="59"/>
       <c r="D20" s="59"/>
       <c r="E20" s="59"/>
-      <c r="F20" s="114" t="s">
+      <c r="F20" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="114"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
       <c r="K20" s="59"/>
       <c r="L20" s="59"/>
       <c r="P20" s="4"/>
@@ -3624,24 +3684,24 @@
       <c r="AT20" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AU20" s="100" t="s">
+      <c r="AU20" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="AV20" s="101"/>
-      <c r="AW20" s="101"/>
-      <c r="AX20" s="101"/>
-      <c r="AY20" s="102"/>
+      <c r="AV20" s="106"/>
+      <c r="AW20" s="106"/>
+      <c r="AX20" s="106"/>
+      <c r="AY20" s="107"/>
       <c r="AZ20" s="6"/>
     </row>
     <row r="21" spans="3:52" ht="16" customHeight="1">
       <c r="C21" s="59"/>
       <c r="D21" s="59"/>
       <c r="E21" s="59"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="104"/>
       <c r="K21" s="59"/>
       <c r="L21" s="59"/>
       <c r="P21" s="4"/>
@@ -3741,14 +3801,14 @@
       <c r="U23" s="38"/>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
-      <c r="Z23" s="115" t="s">
+      <c r="Z23" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="AA23" s="116"/>
-      <c r="AB23" s="116"/>
-      <c r="AC23" s="116"/>
-      <c r="AD23" s="116"/>
-      <c r="AE23" s="117"/>
+      <c r="AA23" s="109"/>
+      <c r="AB23" s="109"/>
+      <c r="AC23" s="109"/>
+      <c r="AD23" s="109"/>
+      <c r="AE23" s="110"/>
       <c r="AF23" s="46"/>
       <c r="AG23" s="9"/>
       <c r="AH23" s="9"/>
@@ -3822,13 +3882,13 @@
       <c r="AZ24" s="6"/>
     </row>
     <row r="25" spans="3:52" ht="16" customHeight="1">
-      <c r="F25" s="109" t="s">
+      <c r="F25" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="110"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="111"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="100"/>
       <c r="L25" s="5" t="s">
         <v>140</v>
       </c>
@@ -3881,11 +3941,11 @@
       <c r="AZ25" s="6"/>
     </row>
     <row r="26" spans="3:52" ht="16" customHeight="1">
-      <c r="F26" s="112"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="97"/>
-      <c r="I26" s="97"/>
-      <c r="J26" s="113"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="103"/>
       <c r="K26" s="59"/>
       <c r="L26" s="5" t="s">
         <v>149</v>
@@ -4192,14 +4252,14 @@
       <c r="Y35" t="s">
         <v>148</v>
       </c>
-      <c r="Z35" s="124" t="s">
+      <c r="Z35" s="117" t="s">
         <v>152</v>
       </c>
-      <c r="AA35" s="125"/>
-      <c r="AB35" s="125"/>
-      <c r="AC35" s="125"/>
-      <c r="AD35" s="125"/>
-      <c r="AE35" s="126"/>
+      <c r="AA35" s="118"/>
+      <c r="AB35" s="118"/>
+      <c r="AC35" s="118"/>
+      <c r="AD35" s="118"/>
+      <c r="AE35" s="119"/>
       <c r="AF35" s="22"/>
       <c r="AG35" t="s">
         <v>45</v>
@@ -4250,16 +4310,16 @@
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
       <c r="AE37" s="35"/>
-      <c r="AH37" s="108" t="s">
+      <c r="AH37" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="AI37" s="108"/>
-      <c r="AJ37" s="108"/>
-      <c r="AK37" s="108"/>
-      <c r="AL37" s="108"/>
-      <c r="AM37" s="108"/>
-      <c r="AN37" s="108"/>
-      <c r="AO37" s="108"/>
+      <c r="AI37" s="97"/>
+      <c r="AJ37" s="97"/>
+      <c r="AK37" s="97"/>
+      <c r="AL37" s="97"/>
+      <c r="AM37" s="97"/>
+      <c r="AN37" s="97"/>
+      <c r="AO37" s="97"/>
       <c r="AP37" s="27"/>
       <c r="AQ37" s="28"/>
       <c r="AR37" s="5" t="s">
@@ -4327,16 +4387,16 @@
         <v>180</v>
       </c>
       <c r="AE40" s="35"/>
-      <c r="AH40" s="108" t="s">
+      <c r="AH40" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="AI40" s="108"/>
-      <c r="AJ40" s="108"/>
-      <c r="AK40" s="108"/>
-      <c r="AL40" s="108"/>
-      <c r="AM40" s="108"/>
-      <c r="AN40" s="108"/>
-      <c r="AO40" s="108"/>
+      <c r="AI40" s="130"/>
+      <c r="AJ40" s="130"/>
+      <c r="AK40" s="130"/>
+      <c r="AL40" s="130"/>
+      <c r="AM40" s="130"/>
+      <c r="AN40" s="130"/>
+      <c r="AO40" s="130"/>
       <c r="AP40" s="27"/>
       <c r="AQ40" s="28"/>
       <c r="AR40" s="5" t="s">
@@ -4469,13 +4529,13 @@
       </c>
     </row>
     <row r="47" spans="6:52" ht="16" customHeight="1">
-      <c r="F47" s="118" t="s">
+      <c r="F47" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="G47" s="119"/>
-      <c r="H47" s="119"/>
-      <c r="I47" s="119"/>
-      <c r="J47" s="120"/>
+      <c r="G47" s="112"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="112"/>
+      <c r="J47" s="113"/>
       <c r="Q47" s="36"/>
       <c r="R47" s="37"/>
       <c r="S47" s="37"/>
@@ -4498,11 +4558,11 @@
       </c>
     </row>
     <row r="48" spans="6:52" ht="16" customHeight="1">
-      <c r="F48" s="121"/>
-      <c r="G48" s="122"/>
-      <c r="H48" s="122"/>
-      <c r="I48" s="122"/>
-      <c r="J48" s="123"/>
+      <c r="F48" s="114"/>
+      <c r="G48" s="115"/>
+      <c r="H48" s="115"/>
+      <c r="I48" s="115"/>
+      <c r="J48" s="116"/>
       <c r="W48" s="5" t="s">
         <v>134</v>
       </c>
@@ -4658,16 +4718,16 @@
       <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
       <c r="AE53" s="35"/>
-      <c r="AH53" s="108" t="s">
+      <c r="AH53" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="AI53" s="108"/>
-      <c r="AJ53" s="108"/>
-      <c r="AK53" s="108"/>
-      <c r="AL53" s="108"/>
-      <c r="AM53" s="108"/>
-      <c r="AN53" s="108"/>
-      <c r="AO53" s="108"/>
+      <c r="AI53" s="97"/>
+      <c r="AJ53" s="97"/>
+      <c r="AK53" s="97"/>
+      <c r="AL53" s="97"/>
+      <c r="AM53" s="97"/>
+      <c r="AN53" s="97"/>
+      <c r="AO53" s="97"/>
       <c r="AR53" s="5" t="s">
         <v>140</v>
       </c>
@@ -4685,14 +4745,14 @@
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="35"/>
-      <c r="P54" s="127" t="s">
+      <c r="P54" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="Q54" s="128"/>
-      <c r="R54" s="128"/>
-      <c r="S54" s="128"/>
-      <c r="T54" s="128"/>
-      <c r="U54" s="129"/>
+      <c r="Q54" s="94"/>
+      <c r="R54" s="94"/>
+      <c r="S54" s="94"/>
+      <c r="T54" s="94"/>
+      <c r="U54" s="95"/>
       <c r="W54" s="5" t="s">
         <v>140</v>
       </c>
@@ -4743,16 +4803,16 @@
       <c r="AC55" s="37"/>
       <c r="AD55" s="37"/>
       <c r="AE55" s="38"/>
-      <c r="AH55" s="108" t="s">
+      <c r="AH55" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="AI55" s="108"/>
-      <c r="AJ55" s="108"/>
-      <c r="AK55" s="108"/>
-      <c r="AL55" s="108"/>
-      <c r="AM55" s="108"/>
-      <c r="AN55" s="108"/>
-      <c r="AO55" s="108"/>
+      <c r="AI55" s="97"/>
+      <c r="AJ55" s="97"/>
+      <c r="AK55" s="97"/>
+      <c r="AL55" s="97"/>
+      <c r="AM55" s="97"/>
+      <c r="AN55" s="97"/>
+      <c r="AO55" s="97"/>
       <c r="AR55" s="5" t="s">
         <v>140</v>
       </c>
@@ -5133,14 +5193,14 @@
         <v>140</v>
       </c>
       <c r="Y65" s="53"/>
-      <c r="Z65" s="108" t="s">
+      <c r="Z65" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="AA65" s="108"/>
-      <c r="AB65" s="108"/>
-      <c r="AC65" s="108"/>
-      <c r="AD65" s="108"/>
-      <c r="AE65" s="108"/>
+      <c r="AA65" s="97"/>
+      <c r="AB65" s="97"/>
+      <c r="AC65" s="97"/>
+      <c r="AD65" s="97"/>
+      <c r="AE65" s="97"/>
       <c r="AH65" s="80" t="s">
         <v>155</v>
       </c>
@@ -6821,12 +6881,12 @@
         <v>140</v>
       </c>
       <c r="Z110" s="34"/>
-      <c r="AA110" s="107" t="s">
+      <c r="AA110" s="96" t="s">
         <v>197</v>
       </c>
-      <c r="AB110" s="107"/>
-      <c r="AC110" s="107"/>
-      <c r="AD110" s="107"/>
+      <c r="AB110" s="96"/>
+      <c r="AC110" s="96"/>
+      <c r="AD110" s="96"/>
       <c r="AE110" s="35"/>
       <c r="AF110" s="87"/>
       <c r="AH110" t="s">
@@ -6862,10 +6922,10 @@
         <v>149</v>
       </c>
       <c r="Z111" s="34"/>
-      <c r="AA111" s="107"/>
-      <c r="AB111" s="107"/>
-      <c r="AC111" s="107"/>
-      <c r="AD111" s="107"/>
+      <c r="AA111" s="96"/>
+      <c r="AB111" s="96"/>
+      <c r="AC111" s="96"/>
+      <c r="AD111" s="96"/>
       <c r="AE111" s="35"/>
       <c r="AF111" s="5"/>
       <c r="AI111" t="s">
@@ -7144,19 +7204,7 @@
       <c r="AZ127" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="AA110:AD111"/>
-    <mergeCell ref="Z65:AE65"/>
-    <mergeCell ref="F25:J26"/>
-    <mergeCell ref="F20:J21"/>
-    <mergeCell ref="AU20:AY20"/>
-    <mergeCell ref="Z23:AE23"/>
-    <mergeCell ref="AH40:AO40"/>
-    <mergeCell ref="AH37:AO37"/>
-    <mergeCell ref="F47:J48"/>
-    <mergeCell ref="AH53:AO53"/>
-    <mergeCell ref="AH55:AO55"/>
-    <mergeCell ref="Z35:AE35"/>
+  <mergeCells count="19">
     <mergeCell ref="AT8:AZ9"/>
     <mergeCell ref="AT17:AZ18"/>
     <mergeCell ref="Z19:AE19"/>
@@ -7165,6 +7213,17 @@
     <mergeCell ref="AH7:AO7"/>
     <mergeCell ref="R10:T11"/>
     <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="AA110:AD111"/>
+    <mergeCell ref="Z65:AE65"/>
+    <mergeCell ref="F25:J26"/>
+    <mergeCell ref="F20:J21"/>
+    <mergeCell ref="AU20:AY20"/>
+    <mergeCell ref="Z23:AE23"/>
+    <mergeCell ref="AH37:AO37"/>
+    <mergeCell ref="F47:J48"/>
+    <mergeCell ref="AH53:AO53"/>
+    <mergeCell ref="AH55:AO55"/>
+    <mergeCell ref="Z35:AE35"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7174,6 +7233,52 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CFFF26F-A5D8-9649-8A61-ADF73D022DF4}">
+  <dimension ref="B2:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="D6" s="69" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="E7" s="69" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="E8" s="69" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="G9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="G10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843CCFF2-E7E0-4D58-A224-217E343662E1}">
   <dimension ref="A3:B5"/>
   <sheetViews>

--- a/maraSonSouce/marasong_memo.xlsx
+++ b/maraSonSouce/marasong_memo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hqu666/Documents/Develop/an/workSpace/maraSong/maraSonSouce/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23270E1-B893-924E-8827-E39117C47CBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB94A1D0-7A7C-194E-9EB1-E1EFD0B4D3EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8180" yWindow="-18080" windowWidth="26760" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8280" yWindow="-18080" windowWidth="26760" windowHeight="17940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="起動" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="309">
   <si>
     <t>MuList</t>
   </si>
@@ -1601,6 +1601,192 @@
   </si>
   <si>
     <t>String dMessage ,</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>E/addMusicToPlaylist: java.lang.SecurityException: com.hijiyam_koubou.marasongs has no access to content://media/external_primary/audio/media/4319</t>
+  </si>
+  <si>
+    <t>W/addMusicToPlaylist: [MusicPlaylist]cContext=com.hijiyam_koubou.marasongs.ZenkyokuList@a53a1b7,playlist_id=18140[audio_id=4319]</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>追加する曲=/storage/emulated/0/Music/back number/アンコール [Disc 2]/2-16 スーパースターになったら.m4a、</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>次は0曲目,audio_id=4319,書込みuri= content://media/external/audio/playlists/18140/members</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>失敗 add music : 18140, 4319, is null</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>W/addMusicToPlaylist: [MusicPlaylist]cContext=com.hijiyam_koubou.marasongs.ZenkyokuList@a53a1b7,playlist_id=18140[audio_id=3262]</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>追加する曲=/storage/emulated/0/Music/The Beatles/1967-1970/A DAY IN THE LIfE.mp3、</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>次は0曲目,audio_id=3262,書込みuri= content://media/external/audio/playlists/18140/members,</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>result_uri=content://media/external/audio/playlists/18140/members/164559&gt;&gt;成功list_id=18140, audio_id=3262,result_uri= content://media/external/audio/playlists/18140/members/164559</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>E/addMusicToPlaylist: java.lang.SecurityException: com.hijiyam_koubou.marasongs has no access to content://media/external_primary/audio/media/3269</t>
+  </si>
+  <si>
+    <t>W/addMusicToPlaylist: [MusicPlaylist]cContext=com.hijiyam_koubou.marasongs.ZenkyokuList@a53a1b7,playlist_id=18140[audio_id=3269]</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>追加する曲=/storage/emulated/0/Music/The Beatles/1967-1970/PENNY LANE.mp3、</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>次は7曲目,audio_id=3269,書込みuri= content://media/external/audio/playlists/18140/members</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>失敗 add music : 18140, 3269, is null</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>W/addMusicToPlaylist: [MusicPlaylist]cContext=com.hijiyam_koubou.marasongs.ZenkyokuList@a53a1b7,playlist_id=18140[audio_id=3270]</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>追加する曲=/storage/emulated/0/Music/The Beatles/1967-1970/REVOLUTlON.mp3、</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>次は7曲目,audio_id=3270,書込みuri= content://media/external/audio/playlists/18140/members,</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>result_uri=content://media/external/audio/playlists/18140/members/164566&gt;&gt;成功list_id=18140, audio_id=3270,result_uri= content://media/external/audio/playlists/18140/members/164566</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>W/addMusicToPlaylist: [MusicPlaylist]cContext=com.hijiyam_koubou.marasongs.ZenkyokuList@a53a1b7,playlist_id=18140[audio_id=3268]</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>追加する曲=/storage/emulated/0/Music/The Beatles/1967-1970/MAGlCAL MYSTERY TOUR.mp3、</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>次は6曲目,audio_id=3268,書込みuri= content://media/external/audio/playlists/18140/members,</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>result_uri=content://media/external/audio/playlists/18140/members/164565&gt;&gt;成功list_id=18140, audio_id=3268,result_uri= content://media/external/audio/playlists/18140/members/164565</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>W/addMusicToPlaylist: [MusicPlaylist]cContext=com.hijiyam_koubou.marasongs.ZenkyokuList@a53a1b7,playlist_id=18140[audio_id=3263]</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>追加する曲=/storage/emulated/0/Music/The Beatles/1967-1970/ALL YOU NEED lS LOVE.mp3、</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>次は1曲目,audio_id=3263,書込みuri= content://media/external/audio/playlists/18140/members,</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>result_uri=content://media/external/audio/playlists/18140/members/164560&gt;&gt;成功list_id=18140, audio_id=3263,result_uri= content://media/external/audio/playlists/18140/members/164560</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>W/addMusicToPlaylist: [MusicPlaylist]cContext=com.hijiyam_koubou.marasongs.ZenkyokuList@f4b020a,playlist_id=18140[audio_id=4319]</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>W/addMusicToPlaylist: [MusicPlaylist]cContext=com.hijiyam_koubou.marasongs.ZenkyokuList@f4b020a,playlist_id=18140[audio_id=3262]</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>次は0曲目,audio_id=3262,書込みuri= content://media/external_primary/audio/playlists/18140/members&gt;&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>成功list_id=18140, audio_id=3262,result_uri= content://media/external_primary/audio/playlists/18140/members/1</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>次は0曲目,audio_id=4319,書込みuri= content://media/external_primary/audio/playlists/18140/members</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>失敗 add music :list= 18140, audio_id=4319, is null</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>W/addMusicToPlaylist: [MusicPlaylist]cContext=com.hijiyam_koubou.marasongs.ZenkyokuList@f4b020a,playlist_id=18140[audio_id=3263]</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>次は1曲目,audio_id=3263,書込みuri= content://media/external_primary/audio/playlists/18140/members&gt;&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>成功list_id=18140, audio_id=3263,result_uri= content://media/external_primary/audio/playlists/18140/members/2</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>W/addMusicToPlaylist: [MusicPlaylist]cContext=com.hijiyam_koubou.marasongs.ZenkyokuList@f4b020a,playlist_id=18140[audio_id=3264]</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>追加する曲=/storage/emulated/0/Music/The Beatles/1967-1970/HELLO GOOD BYE.mp3、</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>次は2曲目,audio_id=3264,書込みuri= content://media/external_primary/audio/playlists/18140/members&gt;&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>成功list_id=18140, audio_id=3264,result_uri= content://media/external_primary/audio/playlists/18140/members/3</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>W/addMusicToPlaylist: [MusicPlaylist]cContext=com.hijiyam_koubou.marasongs.ZenkyokuList@f4b020a,playlist_id=18140[audio_id=3269]</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>次は7曲目,audio_id=3269,書込みuri= content://media/external_primary/audio/playlists/18140/members</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>失敗 add music :list= 18140, audio_id=3269, is null</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>W/addMusicToPlaylist: [MusicPlaylist]cContext=com.hijiyam_koubou.marasongs.ZenkyokuList@f4b020a,playlist_id=18140[audio_id=3270]</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>次は7曲目,audio_id=3270,書込みuri= content://media/external_primary/audio/playlists/18140/members&gt;&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>成功list_id=18140, audio_id=3270,result_uri= content://media/external_primary/audio/playlists/18140/members/8</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>E/addMusicToPlaylist: java.lang.SecurityException: com.hijiyam_koubou.marasongs has no access to content://media/external_primary/audio/media/4319</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2011,7 +2197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2035,7 +2221,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2198,6 +2383,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" textRotation="255" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2300,7 +2498,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2931,7 +3128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:AZ127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="G25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="AH40" sqref="AH40:AO40"/>
     </sheetView>
   </sheetViews>
@@ -2957,68 +3154,68 @@
   </cols>
   <sheetData>
     <row r="2" spans="16:52" ht="16" customHeight="1">
-      <c r="P2" s="120" t="s">
+      <c r="P2" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="121"/>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="121"/>
-      <c r="AD2" s="121"/>
-      <c r="AE2" s="121"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="121"/>
-      <c r="AH2" s="121"/>
-      <c r="AI2" s="121"/>
-      <c r="AJ2" s="121"/>
-      <c r="AK2" s="121"/>
-      <c r="AL2" s="121"/>
-      <c r="AM2" s="121"/>
-      <c r="AN2" s="121"/>
-      <c r="AO2" s="121"/>
-      <c r="AP2" s="121"/>
-      <c r="AQ2" s="121"/>
-      <c r="AR2" s="122"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="125"/>
+      <c r="Z2" s="125"/>
+      <c r="AA2" s="125"/>
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="125"/>
+      <c r="AD2" s="125"/>
+      <c r="AE2" s="125"/>
+      <c r="AF2" s="125"/>
+      <c r="AG2" s="125"/>
+      <c r="AH2" s="125"/>
+      <c r="AI2" s="125"/>
+      <c r="AJ2" s="125"/>
+      <c r="AK2" s="125"/>
+      <c r="AL2" s="125"/>
+      <c r="AM2" s="125"/>
+      <c r="AN2" s="125"/>
+      <c r="AO2" s="125"/>
+      <c r="AP2" s="125"/>
+      <c r="AQ2" s="125"/>
+      <c r="AR2" s="126"/>
     </row>
     <row r="3" spans="16:52" ht="16" customHeight="1">
-      <c r="P3" s="123"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="102"/>
-      <c r="U3" s="102"/>
-      <c r="V3" s="102"/>
-      <c r="W3" s="102"/>
-      <c r="X3" s="102"/>
-      <c r="Y3" s="102"/>
-      <c r="Z3" s="102"/>
-      <c r="AA3" s="102"/>
-      <c r="AB3" s="102"/>
-      <c r="AC3" s="102"/>
-      <c r="AD3" s="102"/>
-      <c r="AE3" s="102"/>
-      <c r="AF3" s="102"/>
-      <c r="AG3" s="102"/>
-      <c r="AH3" s="102"/>
-      <c r="AI3" s="102"/>
-      <c r="AJ3" s="102"/>
-      <c r="AK3" s="102"/>
-      <c r="AL3" s="102"/>
-      <c r="AM3" s="102"/>
-      <c r="AN3" s="102"/>
-      <c r="AO3" s="102"/>
-      <c r="AP3" s="102"/>
-      <c r="AQ3" s="102"/>
-      <c r="AR3" s="124"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="106"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="106"/>
+      <c r="Z3" s="106"/>
+      <c r="AA3" s="106"/>
+      <c r="AB3" s="106"/>
+      <c r="AC3" s="106"/>
+      <c r="AD3" s="106"/>
+      <c r="AE3" s="106"/>
+      <c r="AF3" s="106"/>
+      <c r="AG3" s="106"/>
+      <c r="AH3" s="106"/>
+      <c r="AI3" s="106"/>
+      <c r="AJ3" s="106"/>
+      <c r="AK3" s="106"/>
+      <c r="AL3" s="106"/>
+      <c r="AM3" s="106"/>
+      <c r="AN3" s="106"/>
+      <c r="AO3" s="106"/>
+      <c r="AP3" s="106"/>
+      <c r="AQ3" s="106"/>
+      <c r="AR3" s="128"/>
     </row>
     <row r="4" spans="16:52" ht="16" customHeight="1">
       <c r="P4" s="4"/>
@@ -3053,13 +3250,13 @@
     </row>
     <row r="5" spans="16:52" ht="16" customHeight="1">
       <c r="P5" s="4"/>
-      <c r="Q5" s="105" t="s">
+      <c r="Q5" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="R5" s="106"/>
-      <c r="S5" s="106"/>
-      <c r="T5" s="106"/>
-      <c r="U5" s="107"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="110"/>
+      <c r="T5" s="110"/>
+      <c r="U5" s="111"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
@@ -3097,15 +3294,15 @@
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="5"/>
-      <c r="Z6" s="16" t="s">
+      <c r="Z6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="22"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="21"/>
       <c r="AR6" s="5"/>
     </row>
     <row r="7" spans="16:52" ht="16" customHeight="1">
@@ -3130,18 +3327,18 @@
       <c r="AD7" s="5"/>
       <c r="AE7" s="6"/>
       <c r="AF7" s="5"/>
-      <c r="AH7" s="126" t="s">
+      <c r="AH7" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="AI7" s="127"/>
-      <c r="AJ7" s="127"/>
-      <c r="AK7" s="127"/>
-      <c r="AL7" s="127"/>
-      <c r="AM7" s="127"/>
-      <c r="AN7" s="127"/>
-      <c r="AO7" s="128"/>
-      <c r="AP7" s="22"/>
-      <c r="AQ7" s="22"/>
+      <c r="AI7" s="131"/>
+      <c r="AJ7" s="131"/>
+      <c r="AK7" s="131"/>
+      <c r="AL7" s="131"/>
+      <c r="AM7" s="131"/>
+      <c r="AN7" s="131"/>
+      <c r="AO7" s="132"/>
+      <c r="AP7" s="21"/>
+      <c r="AQ7" s="21"/>
       <c r="AR7" s="5"/>
     </row>
     <row r="8" spans="16:52" ht="16" customHeight="1">
@@ -3178,15 +3375,15 @@
       <c r="AP8" s="5"/>
       <c r="AQ8" s="5"/>
       <c r="AR8" s="5"/>
-      <c r="AT8" s="120" t="s">
+      <c r="AT8" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="AU8" s="121"/>
-      <c r="AV8" s="121"/>
-      <c r="AW8" s="121"/>
-      <c r="AX8" s="121"/>
-      <c r="AY8" s="121"/>
-      <c r="AZ8" s="122"/>
+      <c r="AU8" s="125"/>
+      <c r="AV8" s="125"/>
+      <c r="AW8" s="125"/>
+      <c r="AX8" s="125"/>
+      <c r="AY8" s="125"/>
+      <c r="AZ8" s="126"/>
     </row>
     <row r="9" spans="16:52" ht="16" customHeight="1">
       <c r="P9" s="4"/>
@@ -3221,23 +3418,23 @@
       <c r="AP9" s="5"/>
       <c r="AQ9" s="5"/>
       <c r="AR9" s="5"/>
-      <c r="AT9" s="123"/>
-      <c r="AU9" s="102"/>
-      <c r="AV9" s="102"/>
-      <c r="AW9" s="102"/>
-      <c r="AX9" s="102"/>
-      <c r="AY9" s="102"/>
-      <c r="AZ9" s="124"/>
+      <c r="AT9" s="127"/>
+      <c r="AU9" s="106"/>
+      <c r="AV9" s="106"/>
+      <c r="AW9" s="106"/>
+      <c r="AX9" s="106"/>
+      <c r="AY9" s="106"/>
+      <c r="AZ9" s="128"/>
     </row>
     <row r="10" spans="16:52" ht="16" customHeight="1">
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
-      <c r="R10" s="129" t="s">
+      <c r="R10" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="S10" s="129"/>
-      <c r="T10" s="129"/>
-      <c r="U10" s="26"/>
+      <c r="S10" s="133"/>
+      <c r="T10" s="133"/>
+      <c r="U10" s="25"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
@@ -3245,41 +3442,41 @@
       <c r="AA10" t="s">
         <v>134</v>
       </c>
-      <c r="AG10" s="22"/>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="22"/>
-      <c r="AJ10" s="66"/>
-      <c r="AK10" s="66"/>
-      <c r="AL10" s="66"/>
-      <c r="AM10" s="66"/>
-      <c r="AN10" s="22"/>
-      <c r="AO10" s="22"/>
-      <c r="AP10" s="22"/>
-      <c r="AQ10" s="22"/>
-      <c r="AR10" s="21"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="65"/>
+      <c r="AK10" s="65"/>
+      <c r="AL10" s="65"/>
+      <c r="AM10" s="65"/>
+      <c r="AN10" s="21"/>
+      <c r="AO10" s="21"/>
+      <c r="AP10" s="21"/>
+      <c r="AQ10" s="21"/>
+      <c r="AR10" s="20"/>
       <c r="AT10" s="4"/>
       <c r="AZ10" s="6"/>
     </row>
     <row r="11" spans="16:52" ht="16" customHeight="1">
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="129"/>
-      <c r="S11" s="129"/>
-      <c r="T11" s="129"/>
-      <c r="U11" s="26"/>
+      <c r="R11" s="133"/>
+      <c r="S11" s="133"/>
+      <c r="T11" s="133"/>
+      <c r="U11" s="25"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
-      <c r="Z11" s="70" t="s">
+      <c r="Z11" s="69" t="s">
         <v>241</v>
       </c>
-      <c r="AA11" s="71"/>
-      <c r="AB11" s="71"/>
-      <c r="AC11" s="71"/>
-      <c r="AD11" s="71"/>
-      <c r="AE11" s="72"/>
-      <c r="AF11" s="20"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="71"/>
+      <c r="AF11" s="19"/>
       <c r="AG11" s="5"/>
       <c r="AH11" s="5"/>
       <c r="AI11" s="5"/>
@@ -3293,35 +3490,35 @@
       <c r="AQ11" s="5"/>
       <c r="AR11" s="5"/>
       <c r="AT11" s="4"/>
-      <c r="AU11" s="105" t="s">
+      <c r="AU11" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="AV11" s="106"/>
-      <c r="AW11" s="106"/>
-      <c r="AX11" s="106"/>
-      <c r="AY11" s="107"/>
+      <c r="AV11" s="110"/>
+      <c r="AW11" s="110"/>
+      <c r="AX11" s="110"/>
+      <c r="AY11" s="111"/>
       <c r="AZ11" s="6"/>
     </row>
     <row r="12" spans="16:52" ht="16" customHeight="1">
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="26"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="25"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
-      <c r="Z12" s="61"/>
-      <c r="AA12" s="69" t="s">
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="AB12" s="62"/>
-      <c r="AC12" s="62"/>
-      <c r="AD12" s="62"/>
-      <c r="AE12" s="68"/>
-      <c r="AF12" s="62"/>
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="61"/>
+      <c r="AD12" s="61"/>
+      <c r="AE12" s="67"/>
+      <c r="AF12" s="61"/>
       <c r="AG12" s="5"/>
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
@@ -3346,25 +3543,25 @@
     <row r="13" spans="16:52" ht="16" customHeight="1">
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="26"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="25"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
-      <c r="Z13" s="61"/>
+      <c r="Z13" s="60"/>
       <c r="AA13" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AB13" s="62"/>
-      <c r="AC13" s="62"/>
-      <c r="AD13" s="62"/>
-      <c r="AE13" s="68"/>
-      <c r="AF13" s="62"/>
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="61"/>
+      <c r="AD13" s="61"/>
+      <c r="AE13" s="67"/>
+      <c r="AF13" s="61"/>
       <c r="AG13" s="5"/>
-      <c r="AH13" s="62" t="s">
+      <c r="AH13" s="61" t="s">
         <v>46</v>
       </c>
       <c r="AI13" s="5"/>
@@ -3407,7 +3604,7 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="8"/>
-      <c r="AF14" s="19"/>
+      <c r="AF14" s="18"/>
       <c r="AG14" s="5"/>
       <c r="AH14" s="5"/>
       <c r="AI14" s="5"/>
@@ -3508,7 +3705,7 @@
       <c r="AO16" s="5"/>
       <c r="AP16" s="5"/>
       <c r="AQ16" s="5"/>
-      <c r="AR16" s="19"/>
+      <c r="AR16" s="18"/>
     </row>
     <row r="17" spans="3:52" ht="16" customHeight="1">
       <c r="P17" s="4"/>
@@ -3543,16 +3740,16 @@
       <c r="AO17" s="5"/>
       <c r="AP17" s="5"/>
       <c r="AQ17" s="5"/>
-      <c r="AR17" s="19"/>
-      <c r="AT17" s="120" t="s">
+      <c r="AR17" s="18"/>
+      <c r="AT17" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="AU17" s="121"/>
-      <c r="AV17" s="121"/>
-      <c r="AW17" s="121"/>
-      <c r="AX17" s="121"/>
-      <c r="AY17" s="121"/>
-      <c r="AZ17" s="122"/>
+      <c r="AU17" s="125"/>
+      <c r="AV17" s="125"/>
+      <c r="AW17" s="125"/>
+      <c r="AX17" s="125"/>
+      <c r="AY17" s="125"/>
+      <c r="AZ17" s="126"/>
     </row>
     <row r="18" spans="3:52" ht="16" customHeight="1">
       <c r="P18" s="4"/>
@@ -3570,25 +3767,25 @@
       <c r="AB18" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="AG18" s="19"/>
-      <c r="AH18" s="19"/>
-      <c r="AI18" s="19"/>
-      <c r="AJ18" s="19"/>
-      <c r="AK18" s="19"/>
-      <c r="AL18" s="19"/>
-      <c r="AM18" s="19"/>
-      <c r="AN18" s="19"/>
-      <c r="AO18" s="19"/>
-      <c r="AP18" s="19"/>
-      <c r="AQ18" s="19"/>
+      <c r="AG18" s="18"/>
+      <c r="AH18" s="18"/>
+      <c r="AI18" s="18"/>
+      <c r="AJ18" s="18"/>
+      <c r="AK18" s="18"/>
+      <c r="AL18" s="18"/>
+      <c r="AM18" s="18"/>
+      <c r="AN18" s="18"/>
+      <c r="AO18" s="18"/>
+      <c r="AP18" s="18"/>
+      <c r="AQ18" s="18"/>
       <c r="AR18" s="5"/>
-      <c r="AT18" s="123"/>
-      <c r="AU18" s="102"/>
-      <c r="AV18" s="102"/>
-      <c r="AW18" s="102"/>
-      <c r="AX18" s="102"/>
-      <c r="AY18" s="102"/>
-      <c r="AZ18" s="124"/>
+      <c r="AT18" s="127"/>
+      <c r="AU18" s="106"/>
+      <c r="AV18" s="106"/>
+      <c r="AW18" s="106"/>
+      <c r="AX18" s="106"/>
+      <c r="AY18" s="106"/>
+      <c r="AZ18" s="128"/>
     </row>
     <row r="19" spans="3:52" ht="16" customHeight="1">
       <c r="P19" s="4"/>
@@ -3602,26 +3799,26 @@
       </c>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
-      <c r="Z19" s="125" t="s">
+      <c r="Z19" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="AA19" s="125"/>
-      <c r="AB19" s="125"/>
-      <c r="AC19" s="125"/>
-      <c r="AD19" s="125"/>
-      <c r="AE19" s="125"/>
-      <c r="AF19" s="23"/>
-      <c r="AG19" s="19"/>
-      <c r="AH19" s="19"/>
-      <c r="AI19" s="19"/>
-      <c r="AJ19" s="19"/>
-      <c r="AK19" s="19"/>
-      <c r="AL19" s="19"/>
-      <c r="AM19" s="19"/>
-      <c r="AN19" s="19"/>
-      <c r="AO19" s="19"/>
-      <c r="AP19" s="19"/>
-      <c r="AQ19" s="19"/>
+      <c r="AA19" s="129"/>
+      <c r="AB19" s="129"/>
+      <c r="AC19" s="129"/>
+      <c r="AD19" s="129"/>
+      <c r="AE19" s="129"/>
+      <c r="AF19" s="22"/>
+      <c r="AG19" s="18"/>
+      <c r="AH19" s="18"/>
+      <c r="AI19" s="18"/>
+      <c r="AJ19" s="18"/>
+      <c r="AK19" s="18"/>
+      <c r="AL19" s="18"/>
+      <c r="AM19" s="18"/>
+      <c r="AN19" s="18"/>
+      <c r="AO19" s="18"/>
+      <c r="AP19" s="18"/>
+      <c r="AQ19" s="18"/>
       <c r="AR19" s="5"/>
       <c r="AT19" s="4"/>
       <c r="AU19" s="5"/>
@@ -3632,26 +3829,26 @@
       <c r="AZ19" s="6"/>
     </row>
     <row r="20" spans="3:52" ht="16" customHeight="1">
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="104" t="s">
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="108"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
       <c r="P20" s="4"/>
-      <c r="Q20" s="31" t="s">
+      <c r="Q20" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="33"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="31"/>
+      <c r="U20" s="32"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5" t="s">
         <v>140</v>
@@ -3684,34 +3881,34 @@
       <c r="AT20" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AU20" s="105" t="s">
+      <c r="AU20" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="AV20" s="106"/>
-      <c r="AW20" s="106"/>
-      <c r="AX20" s="106"/>
-      <c r="AY20" s="107"/>
+      <c r="AV20" s="110"/>
+      <c r="AW20" s="110"/>
+      <c r="AX20" s="110"/>
+      <c r="AY20" s="111"/>
       <c r="AZ20" s="6"/>
     </row>
     <row r="21" spans="3:52" ht="16" customHeight="1">
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="104"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="34"/>
+      <c r="Q21" s="33"/>
       <c r="R21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="35"/>
+      <c r="U21" s="34"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5" t="s">
         <v>140</v>
@@ -3746,7 +3943,7 @@
         <v>147</v>
       </c>
       <c r="P22" s="4"/>
-      <c r="Q22" s="34"/>
+      <c r="Q22" s="33"/>
       <c r="R22" s="5" t="s">
         <v>139</v>
       </c>
@@ -3754,24 +3951,24 @@
         <v>21</v>
       </c>
       <c r="T22" s="5"/>
-      <c r="U22" s="35"/>
+      <c r="U22" s="34"/>
       <c r="V22" s="5"/>
       <c r="W22" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
-      <c r="AG22" s="23"/>
-      <c r="AH22" s="23"/>
-      <c r="AI22" s="23"/>
-      <c r="AJ22" s="60"/>
-      <c r="AK22" s="60"/>
-      <c r="AL22" s="60"/>
-      <c r="AM22" s="60"/>
-      <c r="AN22" s="23"/>
-      <c r="AO22" s="23"/>
-      <c r="AP22" s="23"/>
-      <c r="AQ22" s="29"/>
+      <c r="AG22" s="22"/>
+      <c r="AH22" s="22"/>
+      <c r="AI22" s="22"/>
+      <c r="AJ22" s="59"/>
+      <c r="AK22" s="59"/>
+      <c r="AL22" s="59"/>
+      <c r="AM22" s="59"/>
+      <c r="AN22" s="22"/>
+      <c r="AO22" s="22"/>
+      <c r="AP22" s="22"/>
+      <c r="AQ22" s="28"/>
       <c r="AR22" s="5" t="s">
         <v>140</v>
       </c>
@@ -3790,26 +3987,26 @@
         <v>140</v>
       </c>
       <c r="P23" s="4"/>
-      <c r="Q23" s="36"/>
+      <c r="Q23" s="35"/>
       <c r="R23" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="S23" s="37" t="s">
+      <c r="S23" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="T23" s="37"/>
-      <c r="U23" s="38"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="37"/>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
-      <c r="Z23" s="108" t="s">
+      <c r="Z23" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="AA23" s="109"/>
-      <c r="AB23" s="109"/>
-      <c r="AC23" s="109"/>
-      <c r="AD23" s="109"/>
-      <c r="AE23" s="110"/>
-      <c r="AF23" s="46"/>
+      <c r="AA23" s="113"/>
+      <c r="AB23" s="113"/>
+      <c r="AC23" s="113"/>
+      <c r="AD23" s="113"/>
+      <c r="AE23" s="114"/>
+      <c r="AF23" s="45"/>
       <c r="AG23" s="9"/>
       <c r="AH23" s="9"/>
       <c r="AI23" s="9"/>
@@ -3848,15 +4045,15 @@
       </c>
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
-      <c r="Z24" s="39"/>
-      <c r="AA24" s="40" t="s">
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="AB24" s="40"/>
-      <c r="AC24" s="40"/>
-      <c r="AD24" s="40"/>
-      <c r="AE24" s="41"/>
-      <c r="AF24" s="40"/>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="39"/>
+      <c r="AE24" s="40"/>
+      <c r="AF24" s="39"/>
       <c r="AG24" s="10"/>
       <c r="AH24" s="10"/>
       <c r="AI24" s="10"/>
@@ -3882,24 +4079,24 @@
       <c r="AZ24" s="6"/>
     </row>
     <row r="25" spans="3:52" ht="16" customHeight="1">
-      <c r="F25" s="98" t="s">
+      <c r="F25" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="100"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="104"/>
       <c r="L25" s="5" t="s">
         <v>140</v>
       </c>
       <c r="P25" s="4"/>
-      <c r="Q25" s="63" t="s">
+      <c r="Q25" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="R25" s="64"/>
-      <c r="S25" s="64"/>
-      <c r="T25" s="64"/>
-      <c r="U25" s="56"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="63"/>
+      <c r="U25" s="55"/>
       <c r="W25" s="5" t="s">
         <v>140</v>
       </c>
@@ -3907,15 +4104,15 @@
       <c r="Y25" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="Z25" s="39"/>
-      <c r="AA25" s="40"/>
-      <c r="AB25" s="40" t="s">
+      <c r="Z25" s="38"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="AC25" s="40"/>
-      <c r="AD25" s="40"/>
-      <c r="AE25" s="41"/>
-      <c r="AF25" s="40"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="40"/>
+      <c r="AF25" s="39"/>
       <c r="AG25" s="5"/>
       <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
@@ -3941,24 +4138,24 @@
       <c r="AZ25" s="6"/>
     </row>
     <row r="26" spans="3:52" ht="16" customHeight="1">
-      <c r="F26" s="101"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="102"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="59"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="58"/>
       <c r="L26" s="5" t="s">
         <v>149</v>
       </c>
       <c r="P26" s="4"/>
-      <c r="Q26" s="34"/>
+      <c r="Q26" s="33"/>
       <c r="R26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
-      <c r="U26" s="67"/>
-      <c r="V26" s="27"/>
+      <c r="U26" s="66"/>
+      <c r="V26" s="26"/>
       <c r="W26" s="5" t="s">
         <v>140</v>
       </c>
@@ -3966,15 +4163,15 @@
       <c r="Y26" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Z26" s="39"/>
-      <c r="AA26" s="42" t="s">
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="AB26" s="40"/>
-      <c r="AC26" s="40"/>
-      <c r="AD26" s="40"/>
-      <c r="AE26" s="41"/>
-      <c r="AF26" s="40"/>
+      <c r="AB26" s="39"/>
+      <c r="AC26" s="39"/>
+      <c r="AD26" s="39"/>
+      <c r="AE26" s="40"/>
+      <c r="AF26" s="39"/>
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
@@ -3989,35 +4186,35 @@
       <c r="AR26" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AT26" s="14"/>
-      <c r="AU26" s="24"/>
+      <c r="AT26" s="13"/>
+      <c r="AU26" s="23"/>
       <c r="AV26" s="7"/>
       <c r="AW26" s="7" t="s">
         <v>30</v>
       </c>
       <c r="AX26" s="7"/>
-      <c r="AY26" s="25"/>
-      <c r="AZ26" s="15"/>
+      <c r="AY26" s="24"/>
+      <c r="AZ26" s="14"/>
     </row>
     <row r="27" spans="3:52" ht="16" customHeight="1">
-      <c r="E27" s="59"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="78" t="s">
+      <c r="E27" s="58"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
       <c r="P27" s="4"/>
-      <c r="Q27" s="77"/>
-      <c r="R27" s="76" t="s">
+      <c r="Q27" s="76"/>
+      <c r="R27" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="38"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="37"/>
       <c r="W27" s="5" t="s">
         <v>140</v>
       </c>
@@ -4025,15 +4222,15 @@
       <c r="Y27" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="40"/>
-      <c r="AB27" s="40" t="s">
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="AC27" s="40"/>
-      <c r="AD27" s="40"/>
-      <c r="AE27" s="41"/>
-      <c r="AF27" s="40"/>
+      <c r="AC27" s="39"/>
+      <c r="AD27" s="39"/>
+      <c r="AE27" s="40"/>
+      <c r="AF27" s="39"/>
       <c r="AR27" s="5" t="s">
         <v>140</v>
       </c>
@@ -4054,15 +4251,15 @@
       <c r="Y28" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Z28" s="39"/>
-      <c r="AA28" s="45" t="s">
+      <c r="Z28" s="38"/>
+      <c r="AA28" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="AB28" s="40"/>
-      <c r="AC28" s="40"/>
-      <c r="AD28" s="40"/>
-      <c r="AE28" s="41"/>
-      <c r="AF28" s="40"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="39"/>
+      <c r="AD28" s="39"/>
+      <c r="AE28" s="40"/>
+      <c r="AF28" s="39"/>
       <c r="AR28" s="5" t="s">
         <v>140</v>
       </c>
@@ -4086,15 +4283,15 @@
       <c r="Y29" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Z29" s="39"/>
-      <c r="AA29" s="44" t="s">
+      <c r="Z29" s="38"/>
+      <c r="AA29" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="AB29" s="40"/>
-      <c r="AC29" s="40"/>
-      <c r="AD29" s="40"/>
-      <c r="AE29" s="41"/>
-      <c r="AF29" s="40"/>
+      <c r="AB29" s="39"/>
+      <c r="AC29" s="39"/>
+      <c r="AD29" s="39"/>
+      <c r="AE29" s="40"/>
+      <c r="AF29" s="39"/>
       <c r="AR29" s="5" t="s">
         <v>140</v>
       </c>
@@ -4121,15 +4318,15 @@
       <c r="Y30" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Z30" s="39"/>
-      <c r="AA30" s="40" t="s">
+      <c r="Z30" s="38"/>
+      <c r="AA30" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="AB30" s="40"/>
-      <c r="AC30" s="40"/>
-      <c r="AD30" s="40"/>
-      <c r="AE30" s="41"/>
-      <c r="AF30" s="40"/>
+      <c r="AB30" s="39"/>
+      <c r="AC30" s="39"/>
+      <c r="AD30" s="39"/>
+      <c r="AE30" s="40"/>
+      <c r="AF30" s="39"/>
       <c r="AR30" s="5" t="s">
         <v>140</v>
       </c>
@@ -4149,15 +4346,15 @@
       <c r="Y31" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Z31" s="39"/>
-      <c r="AA31" s="40"/>
-      <c r="AB31" s="40" t="s">
+      <c r="Z31" s="38"/>
+      <c r="AA31" s="39"/>
+      <c r="AB31" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="AC31" s="40"/>
-      <c r="AD31" s="40"/>
-      <c r="AE31" s="41"/>
-      <c r="AF31" s="40"/>
+      <c r="AC31" s="39"/>
+      <c r="AD31" s="39"/>
+      <c r="AE31" s="40"/>
+      <c r="AF31" s="39"/>
       <c r="AR31" s="5" t="s">
         <v>140</v>
       </c>
@@ -4177,15 +4374,15 @@
       <c r="Y32" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Z32" s="39"/>
-      <c r="AA32" s="43" t="s">
+      <c r="Z32" s="38"/>
+      <c r="AA32" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="AB32" s="40"/>
-      <c r="AC32" s="40"/>
-      <c r="AD32" s="40"/>
-      <c r="AE32" s="41"/>
-      <c r="AF32" s="40"/>
+      <c r="AB32" s="39"/>
+      <c r="AC32" s="39"/>
+      <c r="AD32" s="39"/>
+      <c r="AE32" s="40"/>
+      <c r="AF32" s="39"/>
       <c r="AR32" s="5" t="s">
         <v>140</v>
       </c>
@@ -4205,15 +4402,15 @@
       <c r="Y33" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Z33" s="39"/>
-      <c r="AA33" s="44" t="s">
+      <c r="Z33" s="38"/>
+      <c r="AA33" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="AB33" s="40"/>
-      <c r="AC33" s="40"/>
-      <c r="AD33" s="40"/>
-      <c r="AE33" s="41"/>
-      <c r="AF33" s="40"/>
+      <c r="AB33" s="39"/>
+      <c r="AC33" s="39"/>
+      <c r="AD33" s="39"/>
+      <c r="AE33" s="40"/>
+      <c r="AF33" s="39"/>
       <c r="AR33" s="5" t="s">
         <v>140</v>
       </c>
@@ -4252,15 +4449,15 @@
       <c r="Y35" t="s">
         <v>148</v>
       </c>
-      <c r="Z35" s="117" t="s">
+      <c r="Z35" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="AA35" s="118"/>
-      <c r="AB35" s="118"/>
-      <c r="AC35" s="118"/>
-      <c r="AD35" s="118"/>
-      <c r="AE35" s="119"/>
-      <c r="AF35" s="22"/>
+      <c r="AA35" s="122"/>
+      <c r="AB35" s="122"/>
+      <c r="AC35" s="122"/>
+      <c r="AD35" s="122"/>
+      <c r="AE35" s="123"/>
+      <c r="AF35" s="21"/>
       <c r="AG35" t="s">
         <v>45</v>
       </c>
@@ -4280,12 +4477,12 @@
         <v>140</v>
       </c>
       <c r="X36" s="5"/>
-      <c r="Z36" s="34"/>
+      <c r="Z36" s="33"/>
       <c r="AA36" s="5"/>
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
       <c r="AD36" s="5"/>
-      <c r="AE36" s="35"/>
+      <c r="AE36" s="34"/>
       <c r="AR36" s="5" t="s">
         <v>140</v>
       </c>
@@ -4302,26 +4499,26 @@
         <v>140</v>
       </c>
       <c r="X37" s="5"/>
-      <c r="Z37" s="34"/>
+      <c r="Z37" s="33"/>
       <c r="AA37" s="5" t="s">
         <v>182</v>
       </c>
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
-      <c r="AE37" s="35"/>
-      <c r="AH37" s="97" t="s">
+      <c r="AE37" s="34"/>
+      <c r="AH37" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="AI37" s="97"/>
-      <c r="AJ37" s="97"/>
-      <c r="AK37" s="97"/>
-      <c r="AL37" s="97"/>
-      <c r="AM37" s="97"/>
-      <c r="AN37" s="97"/>
-      <c r="AO37" s="97"/>
-      <c r="AP37" s="27"/>
-      <c r="AQ37" s="28"/>
+      <c r="AI37" s="101"/>
+      <c r="AJ37" s="101"/>
+      <c r="AK37" s="101"/>
+      <c r="AL37" s="101"/>
+      <c r="AM37" s="101"/>
+      <c r="AN37" s="101"/>
+      <c r="AO37" s="101"/>
+      <c r="AP37" s="26"/>
+      <c r="AQ37" s="27"/>
       <c r="AR37" s="5" t="s">
         <v>140</v>
       </c>
@@ -4338,14 +4535,14 @@
         <v>140</v>
       </c>
       <c r="X38" s="5"/>
-      <c r="Z38" s="34"/>
+      <c r="Z38" s="33"/>
       <c r="AA38" s="5"/>
       <c r="AB38" s="5" t="s">
         <v>47</v>
       </c>
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
-      <c r="AE38" s="35"/>
+      <c r="AE38" s="34"/>
       <c r="AR38" s="5" t="s">
         <v>140</v>
       </c>
@@ -4362,14 +4559,14 @@
         <v>140</v>
       </c>
       <c r="X39" s="5"/>
-      <c r="Z39" s="34"/>
+      <c r="Z39" s="33"/>
       <c r="AA39" s="5"/>
       <c r="AB39" s="5"/>
       <c r="AC39" s="5" t="s">
         <v>49</v>
       </c>
       <c r="AD39" s="5"/>
-      <c r="AE39" s="35"/>
+      <c r="AE39" s="34"/>
       <c r="AR39" s="5" t="s">
         <v>140</v>
       </c>
@@ -4379,26 +4576,26 @@
         <v>140</v>
       </c>
       <c r="X40" s="5"/>
-      <c r="Z40" s="34"/>
+      <c r="Z40" s="33"/>
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
       <c r="AC40" s="5"/>
       <c r="AD40" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="AE40" s="35"/>
-      <c r="AH40" s="130" t="s">
+      <c r="AE40" s="34"/>
+      <c r="AH40" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="AI40" s="130"/>
-      <c r="AJ40" s="130"/>
-      <c r="AK40" s="130"/>
-      <c r="AL40" s="130"/>
-      <c r="AM40" s="130"/>
-      <c r="AN40" s="130"/>
-      <c r="AO40" s="130"/>
-      <c r="AP40" s="27"/>
-      <c r="AQ40" s="28"/>
+      <c r="AI40" s="95"/>
+      <c r="AJ40" s="95"/>
+      <c r="AK40" s="95"/>
+      <c r="AL40" s="95"/>
+      <c r="AM40" s="95"/>
+      <c r="AN40" s="95"/>
+      <c r="AO40" s="95"/>
+      <c r="AP40" s="26"/>
+      <c r="AQ40" s="27"/>
       <c r="AR40" s="5" t="s">
         <v>140</v>
       </c>
@@ -4408,14 +4605,14 @@
         <v>140</v>
       </c>
       <c r="X41" s="5"/>
-      <c r="Z41" s="34"/>
+      <c r="Z41" s="33"/>
       <c r="AA41" s="5"/>
       <c r="AB41" s="5"/>
       <c r="AC41" s="5" t="s">
         <v>50</v>
       </c>
       <c r="AD41" s="5"/>
-      <c r="AE41" s="35"/>
+      <c r="AE41" s="34"/>
       <c r="AR41" s="5" t="s">
         <v>140</v>
       </c>
@@ -4425,14 +4622,14 @@
         <v>140</v>
       </c>
       <c r="X42" s="5"/>
-      <c r="Z42" s="34"/>
+      <c r="Z42" s="33"/>
       <c r="AA42" s="5"/>
       <c r="AB42" s="5"/>
       <c r="AC42" s="5"/>
       <c r="AD42" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AE42" s="35"/>
+      <c r="AE42" s="34"/>
       <c r="AR42" s="5" t="s">
         <v>140</v>
       </c>
@@ -4442,15 +4639,15 @@
         <v>140</v>
       </c>
       <c r="X43" s="5"/>
-      <c r="Z43" s="34"/>
+      <c r="Z43" s="33"/>
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
       <c r="AD43" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="AE43" s="35"/>
-      <c r="AH43" s="30" t="s">
+      <c r="AE43" s="34"/>
+      <c r="AH43" s="29" t="s">
         <v>51</v>
       </c>
       <c r="AR43" s="5" t="s">
@@ -4458,233 +4655,233 @@
       </c>
     </row>
     <row r="44" spans="6:52" ht="16" customHeight="1">
-      <c r="Q44" s="83" t="s">
+      <c r="Q44" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="R44" s="84"/>
-      <c r="S44" s="84"/>
-      <c r="T44" s="84"/>
-      <c r="U44" s="85"/>
+      <c r="R44" s="83"/>
+      <c r="S44" s="83"/>
+      <c r="T44" s="83"/>
+      <c r="U44" s="84"/>
       <c r="W44" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X44" s="5"/>
-      <c r="Z44" s="34"/>
+      <c r="Z44" s="33"/>
       <c r="AA44" s="5"/>
       <c r="AB44" s="5"/>
       <c r="AC44" s="5"/>
       <c r="AD44" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="AE44" s="35"/>
-      <c r="AH44" s="30"/>
+      <c r="AE44" s="34"/>
+      <c r="AH44" s="29"/>
       <c r="AR44" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="45" spans="6:52" ht="16" customHeight="1">
-      <c r="Q45" s="34"/>
+      <c r="Q45" s="33"/>
       <c r="R45" s="5"/>
       <c r="S45" s="5" t="s">
         <v>131</v>
       </c>
       <c r="T45" s="5"/>
-      <c r="U45" s="35"/>
+      <c r="U45" s="34"/>
       <c r="W45" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X45" s="5"/>
-      <c r="Z45" s="34"/>
+      <c r="Z45" s="33"/>
       <c r="AA45" s="5"/>
       <c r="AB45" s="5" t="s">
         <v>53</v>
       </c>
       <c r="AC45" s="5"/>
       <c r="AD45" s="5"/>
-      <c r="AE45" s="35"/>
+      <c r="AE45" s="34"/>
       <c r="AR45" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="46" spans="6:52" ht="16" customHeight="1">
-      <c r="Q46" s="34"/>
+      <c r="Q46" s="33"/>
       <c r="R46" s="5"/>
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
-      <c r="U46" s="35"/>
+      <c r="U46" s="34"/>
       <c r="W46" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X46" s="5"/>
-      <c r="Z46" s="34"/>
+      <c r="Z46" s="33"/>
       <c r="AA46" s="5"/>
       <c r="AB46" s="5"/>
       <c r="AC46" s="5" t="s">
         <v>54</v>
       </c>
       <c r="AD46" s="5"/>
-      <c r="AE46" s="35"/>
+      <c r="AE46" s="34"/>
       <c r="AR46" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="47" spans="6:52" ht="16" customHeight="1">
-      <c r="F47" s="111" t="s">
+      <c r="F47" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="G47" s="112"/>
-      <c r="H47" s="112"/>
-      <c r="I47" s="112"/>
-      <c r="J47" s="113"/>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="37"/>
-      <c r="S47" s="37"/>
-      <c r="T47" s="37"/>
-      <c r="U47" s="38"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="116"/>
+      <c r="I47" s="116"/>
+      <c r="J47" s="117"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="36"/>
+      <c r="S47" s="36"/>
+      <c r="T47" s="36"/>
+      <c r="U47" s="37"/>
       <c r="W47" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X47" s="5"/>
-      <c r="Z47" s="34"/>
+      <c r="Z47" s="33"/>
       <c r="AA47" s="5"/>
       <c r="AB47" s="5" t="s">
         <v>55</v>
       </c>
       <c r="AC47" s="5"/>
       <c r="AD47" s="5"/>
-      <c r="AE47" s="35"/>
+      <c r="AE47" s="34"/>
       <c r="AR47" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="48" spans="6:52" ht="16" customHeight="1">
-      <c r="F48" s="114"/>
-      <c r="G48" s="115"/>
-      <c r="H48" s="115"/>
-      <c r="I48" s="115"/>
-      <c r="J48" s="116"/>
+      <c r="F48" s="118"/>
+      <c r="G48" s="119"/>
+      <c r="H48" s="119"/>
+      <c r="I48" s="119"/>
+      <c r="J48" s="120"/>
       <c r="W48" s="5" t="s">
         <v>134</v>
       </c>
       <c r="X48" s="5"/>
-      <c r="Z48" s="34"/>
+      <c r="Z48" s="33"/>
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
       <c r="AC48" s="5" t="s">
         <v>56</v>
       </c>
       <c r="AD48" s="5"/>
-      <c r="AE48" s="35"/>
+      <c r="AE48" s="34"/>
       <c r="AR48" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="49" spans="4:44" ht="16" customHeight="1">
-      <c r="F49" s="34"/>
+      <c r="F49" s="33"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
-      <c r="J49" s="35"/>
-      <c r="R49" s="73" t="s">
+      <c r="J49" s="34"/>
+      <c r="R49" s="72" t="s">
         <v>141</v>
       </c>
-      <c r="S49" s="74"/>
-      <c r="T49" s="74"/>
-      <c r="U49" s="75"/>
+      <c r="S49" s="73"/>
+      <c r="T49" s="73"/>
+      <c r="U49" s="74"/>
       <c r="W49" s="5" t="s">
         <v>240</v>
       </c>
       <c r="X49" s="5"/>
-      <c r="Z49" s="34"/>
+      <c r="Z49" s="33"/>
       <c r="AA49" s="5" t="s">
         <v>57</v>
       </c>
       <c r="AB49" s="5"/>
       <c r="AC49" s="5"/>
       <c r="AD49" s="5"/>
-      <c r="AE49" s="35"/>
+      <c r="AE49" s="34"/>
       <c r="AR49" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="50" spans="4:44" ht="16" customHeight="1">
-      <c r="F50" s="34"/>
+      <c r="F50" s="33"/>
       <c r="G50" s="5" t="s">
         <v>217</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
-      <c r="J50" s="35"/>
-      <c r="R50" s="47"/>
-      <c r="S50" s="48" t="s">
+      <c r="J50" s="34"/>
+      <c r="R50" s="46"/>
+      <c r="S50" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="T50" s="48"/>
-      <c r="U50" s="49"/>
+      <c r="T50" s="47"/>
+      <c r="U50" s="48"/>
       <c r="W50" s="5" t="s">
         <v>239</v>
       </c>
       <c r="X50" s="5"/>
-      <c r="Z50" s="34"/>
+      <c r="Z50" s="33"/>
       <c r="AA50" s="5"/>
       <c r="AB50" s="5" t="s">
         <v>58</v>
       </c>
       <c r="AC50" s="5"/>
       <c r="AD50" s="5"/>
-      <c r="AE50" s="35"/>
-      <c r="AP50" s="27"/>
-      <c r="AQ50" s="28"/>
+      <c r="AE50" s="34"/>
+      <c r="AP50" s="26"/>
+      <c r="AQ50" s="27"/>
       <c r="AR50" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="51" spans="4:44" ht="16" customHeight="1">
-      <c r="F51" s="34"/>
+      <c r="F51" s="33"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5" t="s">
         <v>67</v>
       </c>
       <c r="I51" s="5"/>
-      <c r="J51" s="35"/>
+      <c r="J51" s="34"/>
       <c r="W51" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X51" s="5"/>
-      <c r="Z51" s="34"/>
+      <c r="Z51" s="33"/>
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
       <c r="AC51" s="5" t="s">
         <v>66</v>
       </c>
       <c r="AD51" s="5"/>
-      <c r="AE51" s="35"/>
-      <c r="AP51" s="27"/>
-      <c r="AQ51" s="28"/>
+      <c r="AE51" s="34"/>
+      <c r="AP51" s="26"/>
+      <c r="AQ51" s="27"/>
       <c r="AR51" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="52" spans="4:44" ht="16" customHeight="1">
-      <c r="F52" s="34"/>
+      <c r="F52" s="33"/>
       <c r="G52" s="5" t="s">
         <v>68</v>
       </c>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
-      <c r="J52" s="35"/>
+      <c r="J52" s="34"/>
       <c r="W52" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X52" s="5"/>
-      <c r="Z52" s="34"/>
+      <c r="Z52" s="33"/>
       <c r="AA52" s="5" t="s">
         <v>59</v>
       </c>
       <c r="AB52" s="5"/>
       <c r="AC52" s="5"/>
       <c r="AD52" s="5"/>
-      <c r="AE52" s="35"/>
+      <c r="AE52" s="34"/>
       <c r="AR52" s="5" t="s">
         <v>140</v>
       </c>
@@ -4693,50 +4890,50 @@
       <c r="D53" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F53" s="34"/>
+      <c r="F53" s="33"/>
       <c r="G53" s="5"/>
-      <c r="H53" s="50" t="s">
+      <c r="H53" s="49" t="s">
         <v>69</v>
       </c>
       <c r="I53" s="5"/>
-      <c r="J53" s="35"/>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="55"/>
-      <c r="R53" s="55"/>
-      <c r="S53" s="55"/>
-      <c r="T53" s="55"/>
-      <c r="U53" s="56"/>
+      <c r="J53" s="34"/>
+      <c r="P53" s="53"/>
+      <c r="Q53" s="54"/>
+      <c r="R53" s="54"/>
+      <c r="S53" s="54"/>
+      <c r="T53" s="54"/>
+      <c r="U53" s="55"/>
       <c r="W53" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X53" s="5"/>
-      <c r="Z53" s="34"/>
+      <c r="Z53" s="33"/>
       <c r="AA53" s="5"/>
       <c r="AB53" s="5" t="s">
         <v>183</v>
       </c>
       <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
-      <c r="AE53" s="35"/>
-      <c r="AH53" s="97" t="s">
+      <c r="AE53" s="34"/>
+      <c r="AH53" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="AI53" s="97"/>
-      <c r="AJ53" s="97"/>
-      <c r="AK53" s="97"/>
-      <c r="AL53" s="97"/>
-      <c r="AM53" s="97"/>
-      <c r="AN53" s="97"/>
-      <c r="AO53" s="97"/>
+      <c r="AI53" s="101"/>
+      <c r="AJ53" s="101"/>
+      <c r="AK53" s="101"/>
+      <c r="AL53" s="101"/>
+      <c r="AM53" s="101"/>
+      <c r="AN53" s="101"/>
+      <c r="AO53" s="101"/>
       <c r="AR53" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="54" spans="4:44" ht="16" customHeight="1">
-      <c r="D54" s="40" t="s">
+      <c r="D54" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="F54" s="34" t="s">
+      <c r="F54" s="33" t="s">
         <v>143</v>
       </c>
       <c r="G54" s="5" t="s">
@@ -4744,44 +4941,44 @@
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
-      <c r="J54" s="35"/>
-      <c r="P54" s="93" t="s">
+      <c r="J54" s="34"/>
+      <c r="P54" s="92" t="s">
         <v>118</v>
       </c>
-      <c r="Q54" s="94"/>
-      <c r="R54" s="94"/>
-      <c r="S54" s="94"/>
-      <c r="T54" s="94"/>
-      <c r="U54" s="95"/>
+      <c r="Q54" s="93"/>
+      <c r="R54" s="93"/>
+      <c r="S54" s="93"/>
+      <c r="T54" s="93"/>
+      <c r="U54" s="94"/>
       <c r="W54" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X54" s="5"/>
-      <c r="Z54" s="34"/>
+      <c r="Z54" s="33"/>
       <c r="AA54" s="5" t="s">
         <v>63</v>
       </c>
       <c r="AB54" s="5"/>
       <c r="AC54" s="5"/>
       <c r="AD54" s="5"/>
-      <c r="AE54" s="35"/>
+      <c r="AE54" s="34"/>
       <c r="AR54" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="55" spans="4:44" ht="16" customHeight="1">
-      <c r="F55" s="34"/>
+      <c r="F55" s="33"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5" t="s">
         <v>70</v>
       </c>
       <c r="I55" s="5"/>
-      <c r="J55" s="35"/>
+      <c r="J55" s="34"/>
       <c r="M55" s="5" t="s">
         <v>139</v>
       </c>
       <c r="N55" s="5"/>
-      <c r="P55" s="34" t="s">
+      <c r="P55" s="33" t="s">
         <v>143</v>
       </c>
       <c r="Q55" s="5" t="s">
@@ -4790,55 +4987,55 @@
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
       <c r="T55" s="5"/>
-      <c r="U55" s="35"/>
+      <c r="U55" s="34"/>
       <c r="W55" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X55" s="5"/>
-      <c r="Z55" s="36"/>
-      <c r="AA55" s="37"/>
-      <c r="AB55" s="37" t="s">
+      <c r="Z55" s="35"/>
+      <c r="AA55" s="36"/>
+      <c r="AB55" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="AC55" s="37"/>
-      <c r="AD55" s="37"/>
-      <c r="AE55" s="38"/>
-      <c r="AH55" s="97" t="s">
+      <c r="AC55" s="36"/>
+      <c r="AD55" s="36"/>
+      <c r="AE55" s="37"/>
+      <c r="AH55" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="AI55" s="97"/>
-      <c r="AJ55" s="97"/>
-      <c r="AK55" s="97"/>
-      <c r="AL55" s="97"/>
-      <c r="AM55" s="97"/>
-      <c r="AN55" s="97"/>
-      <c r="AO55" s="97"/>
+      <c r="AI55" s="101"/>
+      <c r="AJ55" s="101"/>
+      <c r="AK55" s="101"/>
+      <c r="AL55" s="101"/>
+      <c r="AM55" s="101"/>
+      <c r="AN55" s="101"/>
+      <c r="AO55" s="101"/>
       <c r="AR55" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="56" spans="4:44" ht="16" customHeight="1">
-      <c r="F56" s="34"/>
+      <c r="F56" s="33"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5" t="s">
         <v>71</v>
       </c>
       <c r="I56" s="5"/>
-      <c r="J56" s="35"/>
+      <c r="J56" s="34"/>
       <c r="M56" s="5" t="s">
         <v>140</v>
       </c>
       <c r="N56" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="P56" s="34"/>
+      <c r="P56" s="33"/>
       <c r="Q56" s="5"/>
       <c r="R56" s="5" t="s">
         <v>178</v>
       </c>
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
-      <c r="U56" s="35"/>
+      <c r="U56" s="34"/>
       <c r="W56" s="5" t="s">
         <v>140</v>
       </c>
@@ -4851,173 +5048,173 @@
       <c r="D57" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F57" s="34"/>
+      <c r="F57" s="33"/>
       <c r="G57" s="5" t="s">
         <v>72</v>
       </c>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
-      <c r="J57" s="35"/>
+      <c r="J57" s="34"/>
       <c r="M57" s="5" t="s">
         <v>140</v>
       </c>
       <c r="N57" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P57" s="34"/>
+      <c r="P57" s="33"/>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
       <c r="S57" s="5" t="s">
         <v>222</v>
       </c>
       <c r="T57" s="5"/>
-      <c r="U57" s="35"/>
+      <c r="U57" s="34"/>
       <c r="X57" t="s">
         <v>150</v>
       </c>
       <c r="Y57" t="s">
         <v>143</v>
       </c>
-      <c r="Z57" s="54" t="s">
+      <c r="Z57" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="AA57" s="55"/>
-      <c r="AB57" s="55"/>
-      <c r="AC57" s="55"/>
-      <c r="AD57" s="55"/>
-      <c r="AE57" s="56"/>
+      <c r="AA57" s="54"/>
+      <c r="AB57" s="54"/>
+      <c r="AC57" s="54"/>
+      <c r="AD57" s="54"/>
+      <c r="AE57" s="55"/>
       <c r="AR57" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="58" spans="4:44" ht="16" customHeight="1">
-      <c r="D58" s="40" t="s">
+      <c r="D58" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="F58" s="34" t="s">
+      <c r="F58" s="33" t="s">
         <v>143</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
-      <c r="J58" s="35"/>
+      <c r="J58" s="34"/>
       <c r="M58" s="5" t="s">
         <v>140</v>
       </c>
       <c r="N58" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P58" s="34"/>
+      <c r="P58" s="33"/>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
       <c r="S58" s="5"/>
       <c r="T58" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="U58" s="35"/>
+      <c r="U58" s="34"/>
       <c r="W58" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X58" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Z58" s="34"/>
+      <c r="Z58" s="33"/>
       <c r="AA58" s="5" t="s">
         <v>223</v>
       </c>
       <c r="AB58" s="5"/>
       <c r="AC58" s="5"/>
       <c r="AD58" s="5"/>
-      <c r="AE58" s="35"/>
+      <c r="AE58" s="34"/>
       <c r="AR58" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="59" spans="4:44" ht="16" customHeight="1">
-      <c r="F59" s="34"/>
+      <c r="F59" s="33"/>
       <c r="G59" s="5" t="s">
         <v>73</v>
       </c>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
-      <c r="J59" s="35"/>
+      <c r="J59" s="34"/>
       <c r="M59" s="5" t="s">
         <v>140</v>
       </c>
       <c r="N59" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P59" s="34"/>
+      <c r="P59" s="33"/>
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
       <c r="S59" s="5"/>
       <c r="T59" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="U59" s="35"/>
+      <c r="U59" s="34"/>
       <c r="W59" s="5" t="s">
         <v>229</v>
       </c>
       <c r="X59" s="5"/>
-      <c r="Z59" s="34"/>
+      <c r="Z59" s="33"/>
       <c r="AA59" s="5"/>
       <c r="AB59" s="5" t="s">
         <v>225</v>
       </c>
       <c r="AC59" s="5"/>
       <c r="AD59" s="5"/>
-      <c r="AE59" s="35"/>
+      <c r="AE59" s="34"/>
     </row>
     <row r="60" spans="4:44" ht="16" customHeight="1">
-      <c r="F60" s="34"/>
+      <c r="F60" s="33"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5" t="s">
         <v>74</v>
       </c>
       <c r="I60" s="5"/>
-      <c r="J60" s="35"/>
+      <c r="J60" s="34"/>
       <c r="M60" s="5" t="s">
         <v>140</v>
       </c>
       <c r="N60" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P60" s="34"/>
+      <c r="P60" s="33"/>
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
       <c r="S60" s="5"/>
       <c r="T60" s="5"/>
-      <c r="U60" s="35"/>
+      <c r="U60" s="34"/>
       <c r="W60" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X60" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Z60" s="36"/>
-      <c r="AA60" s="37" t="s">
+      <c r="Z60" s="35"/>
+      <c r="AA60" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="AB60" s="37"/>
-      <c r="AC60" s="37"/>
-      <c r="AD60" s="37"/>
-      <c r="AE60" s="38"/>
+      <c r="AB60" s="36"/>
+      <c r="AC60" s="36"/>
+      <c r="AD60" s="36"/>
+      <c r="AE60" s="37"/>
     </row>
     <row r="61" spans="4:44" ht="16" customHeight="1">
-      <c r="F61" s="34"/>
+      <c r="F61" s="33"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5" t="s">
         <v>75</v>
       </c>
       <c r="I61" s="5"/>
-      <c r="J61" s="35"/>
+      <c r="J61" s="34"/>
       <c r="M61" s="5" t="s">
         <v>140</v>
       </c>
       <c r="N61" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P61" s="34"/>
+      <c r="P61" s="33"/>
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
       <c r="W61" s="5" t="s">
@@ -5026,50 +5223,50 @@
       <c r="X61" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AH61" s="54" t="s">
+      <c r="AH61" s="53" t="s">
         <v>153</v>
       </c>
-      <c r="AI61" s="55"/>
-      <c r="AJ61" s="55"/>
-      <c r="AK61" s="55"/>
-      <c r="AL61" s="55"/>
-      <c r="AM61" s="55"/>
-      <c r="AN61" s="55"/>
-      <c r="AO61" s="56"/>
+      <c r="AI61" s="54"/>
+      <c r="AJ61" s="54"/>
+      <c r="AK61" s="54"/>
+      <c r="AL61" s="54"/>
+      <c r="AM61" s="54"/>
+      <c r="AN61" s="54"/>
+      <c r="AO61" s="55"/>
     </row>
     <row r="62" spans="4:44" ht="16" customHeight="1">
       <c r="D62" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F62" s="34"/>
+      <c r="F62" s="33"/>
       <c r="G62" s="5" t="s">
         <v>76</v>
       </c>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
-      <c r="J62" s="35"/>
+      <c r="J62" s="34"/>
       <c r="M62" s="5" t="s">
         <v>140</v>
       </c>
       <c r="N62" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P62" s="34"/>
+      <c r="P62" s="33"/>
       <c r="Q62" s="5"/>
       <c r="R62" s="5" t="s">
         <v>232</v>
       </c>
       <c r="S62" s="5"/>
       <c r="T62" s="5"/>
-      <c r="U62" s="35"/>
-      <c r="V62" s="53"/>
+      <c r="U62" s="34"/>
+      <c r="V62" s="52"/>
       <c r="W62" s="5"/>
       <c r="X62" s="5"/>
-      <c r="Y62" s="53"/>
+      <c r="Y62" s="52"/>
       <c r="Z62" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="AH62" s="34" t="s">
+      <c r="AH62" s="33" t="s">
         <v>139</v>
       </c>
       <c r="AI62" s="5" t="s">
@@ -5080,13 +5277,13 @@
       <c r="AL62" s="5"/>
       <c r="AM62" s="5"/>
       <c r="AN62" s="5"/>
-      <c r="AO62" s="35"/>
+      <c r="AO62" s="34"/>
     </row>
     <row r="63" spans="4:44" ht="16" customHeight="1">
-      <c r="D63" s="40" t="s">
+      <c r="D63" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="F63" s="34" t="s">
+      <c r="F63" s="33" t="s">
         <v>143</v>
       </c>
       <c r="G63" s="5"/>
@@ -5094,161 +5291,161 @@
         <v>77</v>
       </c>
       <c r="I63" s="5"/>
-      <c r="J63" s="35"/>
+      <c r="J63" s="34"/>
       <c r="M63" s="5" t="s">
         <v>140</v>
       </c>
       <c r="N63" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P63" s="34"/>
+      <c r="P63" s="33"/>
       <c r="Q63" s="5"/>
       <c r="S63" s="5"/>
       <c r="T63" s="5"/>
-      <c r="U63" s="35"/>
-      <c r="V63" s="53"/>
+      <c r="U63" s="34"/>
+      <c r="V63" s="52"/>
       <c r="W63" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X63" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="Y63" s="53"/>
+      <c r="Y63" s="52"/>
       <c r="AA63" t="s">
         <v>231</v>
       </c>
-      <c r="AH63" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI63" s="37"/>
-      <c r="AJ63" s="37"/>
-      <c r="AK63" s="37"/>
-      <c r="AL63" s="37"/>
-      <c r="AM63" s="37"/>
-      <c r="AN63" s="37"/>
-      <c r="AO63" s="38"/>
-      <c r="AP63" s="27"/>
-      <c r="AQ63" s="28"/>
-      <c r="AR63" s="28"/>
+      <c r="AH63" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI63" s="36"/>
+      <c r="AJ63" s="36"/>
+      <c r="AK63" s="36"/>
+      <c r="AL63" s="36"/>
+      <c r="AM63" s="36"/>
+      <c r="AN63" s="36"/>
+      <c r="AO63" s="37"/>
+      <c r="AP63" s="26"/>
+      <c r="AQ63" s="27"/>
+      <c r="AR63" s="27"/>
     </row>
     <row r="64" spans="4:44" ht="16" customHeight="1">
-      <c r="F64" s="34"/>
+      <c r="F64" s="33"/>
       <c r="G64" s="5" t="s">
         <v>78</v>
       </c>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
-      <c r="J64" s="35"/>
+      <c r="J64" s="34"/>
       <c r="M64" s="5" t="s">
         <v>140</v>
       </c>
       <c r="N64" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P64" s="34"/>
+      <c r="P64" s="33"/>
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
       <c r="S64" s="5"/>
       <c r="T64" s="5"/>
-      <c r="U64" s="35"/>
-      <c r="V64" s="53"/>
+      <c r="U64" s="34"/>
+      <c r="V64" s="52"/>
       <c r="W64" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X64" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y64" s="53"/>
-      <c r="AH64" s="79" t="s">
+      <c r="Y64" s="52"/>
+      <c r="AH64" s="78" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="65" spans="4:52" ht="16" customHeight="1">
-      <c r="F65" s="34"/>
+      <c r="F65" s="33"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5" t="s">
         <v>79</v>
       </c>
       <c r="I65" s="5"/>
-      <c r="J65" s="35"/>
+      <c r="J65" s="34"/>
       <c r="M65" s="5" t="s">
         <v>140</v>
       </c>
       <c r="N65" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P65" s="34"/>
+      <c r="P65" s="33"/>
       <c r="Q65" s="5"/>
       <c r="R65" s="5" t="s">
         <v>60</v>
       </c>
       <c r="S65" s="5"/>
       <c r="T65" s="5"/>
-      <c r="U65" s="35"/>
-      <c r="V65" s="53"/>
+      <c r="U65" s="34"/>
+      <c r="V65" s="52"/>
       <c r="W65" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X65" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y65" s="53"/>
-      <c r="Z65" s="97" t="s">
+      <c r="Y65" s="52"/>
+      <c r="Z65" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="AA65" s="97"/>
-      <c r="AB65" s="97"/>
-      <c r="AC65" s="97"/>
-      <c r="AD65" s="97"/>
-      <c r="AE65" s="97"/>
-      <c r="AH65" s="80" t="s">
+      <c r="AA65" s="101"/>
+      <c r="AB65" s="101"/>
+      <c r="AC65" s="101"/>
+      <c r="AD65" s="101"/>
+      <c r="AE65" s="101"/>
+      <c r="AH65" s="79" t="s">
         <v>155</v>
       </c>
-      <c r="AI65" s="55"/>
-      <c r="AJ65" s="55"/>
-      <c r="AK65" s="55"/>
-      <c r="AL65" s="55"/>
-      <c r="AM65" s="55"/>
-      <c r="AN65" s="55"/>
-      <c r="AO65" s="56"/>
-      <c r="AP65" s="27"/>
-      <c r="AQ65" s="28"/>
-      <c r="AR65" s="28"/>
+      <c r="AI65" s="54"/>
+      <c r="AJ65" s="54"/>
+      <c r="AK65" s="54"/>
+      <c r="AL65" s="54"/>
+      <c r="AM65" s="54"/>
+      <c r="AN65" s="54"/>
+      <c r="AO65" s="55"/>
+      <c r="AP65" s="26"/>
+      <c r="AQ65" s="27"/>
+      <c r="AR65" s="27"/>
     </row>
     <row r="66" spans="4:52" ht="16" customHeight="1">
       <c r="D66" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F66" s="34"/>
+      <c r="F66" s="33"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5" t="s">
         <v>80</v>
       </c>
       <c r="I66" s="5"/>
-      <c r="J66" s="35"/>
+      <c r="J66" s="34"/>
       <c r="M66" s="5" t="s">
         <v>140</v>
       </c>
       <c r="N66" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P66" s="34"/>
+      <c r="P66" s="33"/>
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
       <c r="S66" s="5" t="s">
         <v>129</v>
       </c>
       <c r="T66" s="5"/>
-      <c r="U66" s="35"/>
-      <c r="V66" s="53"/>
+      <c r="U66" s="34"/>
+      <c r="V66" s="52"/>
       <c r="W66" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X66" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y66" s="53"/>
-      <c r="AH66" s="34"/>
+      <c r="Y66" s="52"/>
+      <c r="AH66" s="33"/>
       <c r="AI66" s="5" t="s">
         <v>156</v>
       </c>
@@ -5257,13 +5454,13 @@
       <c r="AL66" s="5"/>
       <c r="AM66" s="5"/>
       <c r="AN66" s="5"/>
-      <c r="AO66" s="35"/>
+      <c r="AO66" s="34"/>
     </row>
     <row r="67" spans="4:52" ht="16" customHeight="1">
-      <c r="D67" s="40" t="s">
+      <c r="D67" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="F67" s="34" t="s">
+      <c r="F67" s="33" t="s">
         <v>143</v>
       </c>
       <c r="G67" s="5" t="s">
@@ -5271,167 +5468,167 @@
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
-      <c r="J67" s="35"/>
+      <c r="J67" s="34"/>
       <c r="M67" s="5" t="s">
         <v>140</v>
       </c>
       <c r="N67" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P67" s="34"/>
+      <c r="P67" s="33"/>
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
       <c r="S67" s="5" t="s">
         <v>128</v>
       </c>
       <c r="T67" s="5"/>
-      <c r="U67" s="35"/>
-      <c r="V67" s="53"/>
+      <c r="U67" s="34"/>
+      <c r="V67" s="52"/>
       <c r="W67" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X67" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y67" s="53"/>
+      <c r="Y67" s="52"/>
       <c r="AF67" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="AH67" s="36"/>
-      <c r="AI67" s="37" t="s">
+      <c r="AH67" s="35"/>
+      <c r="AI67" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="AJ67" s="37"/>
-      <c r="AK67" s="37"/>
-      <c r="AL67" s="37"/>
-      <c r="AM67" s="37"/>
-      <c r="AN67" s="37"/>
-      <c r="AO67" s="38"/>
+      <c r="AJ67" s="36"/>
+      <c r="AK67" s="36"/>
+      <c r="AL67" s="36"/>
+      <c r="AM67" s="36"/>
+      <c r="AN67" s="36"/>
+      <c r="AO67" s="37"/>
     </row>
     <row r="68" spans="4:52" ht="16" customHeight="1">
-      <c r="F68" s="34"/>
+      <c r="F68" s="33"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5" t="s">
         <v>82</v>
       </c>
       <c r="I68" s="5"/>
-      <c r="J68" s="35"/>
+      <c r="J68" s="34"/>
       <c r="M68" s="5" t="s">
         <v>140</v>
       </c>
       <c r="N68" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P68" s="34"/>
-      <c r="Q68" s="40" t="s">
+      <c r="P68" s="33"/>
+      <c r="Q68" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="R68" s="40"/>
-      <c r="S68" s="40"/>
-      <c r="T68" s="40"/>
-      <c r="U68" s="41"/>
-      <c r="V68" s="53"/>
+      <c r="R68" s="39"/>
+      <c r="S68" s="39"/>
+      <c r="T68" s="39"/>
+      <c r="U68" s="40"/>
+      <c r="V68" s="52"/>
       <c r="W68" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X68" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y68" s="53"/>
+      <c r="Y68" s="52"/>
       <c r="AF68" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AI68" s="79" t="s">
+      <c r="AI68" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="AJ68" s="79"/>
-      <c r="AK68" s="79"/>
-      <c r="AL68" s="79"/>
-      <c r="AM68" s="79"/>
+      <c r="AJ68" s="78"/>
+      <c r="AK68" s="78"/>
+      <c r="AL68" s="78"/>
+      <c r="AM68" s="78"/>
     </row>
     <row r="69" spans="4:52" ht="16" customHeight="1">
-      <c r="F69" s="34"/>
+      <c r="F69" s="33"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5" t="s">
         <v>83</v>
       </c>
       <c r="I69" s="5"/>
-      <c r="J69" s="35"/>
+      <c r="J69" s="34"/>
       <c r="M69" s="5" t="s">
         <v>140</v>
       </c>
       <c r="N69" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P69" s="34"/>
-      <c r="R69" s="40"/>
-      <c r="S69" s="40" t="s">
+      <c r="P69" s="33"/>
+      <c r="R69" s="39"/>
+      <c r="S69" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="T69" s="40"/>
-      <c r="U69" s="41"/>
-      <c r="V69" s="53"/>
+      <c r="T69" s="39"/>
+      <c r="U69" s="40"/>
+      <c r="V69" s="52"/>
       <c r="W69" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X69" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y69" s="53"/>
+      <c r="Y69" s="52"/>
       <c r="Z69" t="s">
         <v>227</v>
       </c>
       <c r="AF69" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AH69" s="54" t="s">
+      <c r="AH69" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="AI69" s="55"/>
-      <c r="AJ69" s="55"/>
-      <c r="AK69" s="55"/>
-      <c r="AL69" s="55"/>
-      <c r="AM69" s="55"/>
-      <c r="AN69" s="55"/>
-      <c r="AO69" s="56"/>
+      <c r="AI69" s="54"/>
+      <c r="AJ69" s="54"/>
+      <c r="AK69" s="54"/>
+      <c r="AL69" s="54"/>
+      <c r="AM69" s="54"/>
+      <c r="AN69" s="54"/>
+      <c r="AO69" s="55"/>
     </row>
     <row r="70" spans="4:52" ht="16" customHeight="1">
       <c r="D70" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F70" s="34"/>
+      <c r="F70" s="33"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I70" s="5"/>
-      <c r="J70" s="35"/>
+      <c r="J70" s="34"/>
       <c r="M70" s="5" t="s">
         <v>140</v>
       </c>
       <c r="N70" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P70" s="34"/>
+      <c r="P70" s="33"/>
       <c r="T70" t="s">
         <v>238</v>
       </c>
-      <c r="U70" s="41"/>
-      <c r="V70" s="53"/>
+      <c r="U70" s="40"/>
+      <c r="V70" s="52"/>
       <c r="W70" s="5" t="s">
         <v>244</v>
       </c>
       <c r="X70" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="Y70" s="53"/>
+      <c r="Y70" s="52"/>
       <c r="AA70" t="s">
         <v>231</v>
       </c>
       <c r="AF70" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AH70" s="34"/>
+      <c r="AH70" s="33"/>
       <c r="AI70" s="5" t="s">
         <v>158</v>
       </c>
@@ -5440,13 +5637,13 @@
       <c r="AL70" s="5"/>
       <c r="AM70" s="5"/>
       <c r="AN70" s="5"/>
-      <c r="AO70" s="35"/>
+      <c r="AO70" s="34"/>
     </row>
     <row r="71" spans="4:52" ht="16" customHeight="1">
-      <c r="D71" s="40" t="s">
+      <c r="D71" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="F71" s="34" t="s">
+      <c r="F71" s="33" t="s">
         <v>143</v>
       </c>
       <c r="G71" s="5" t="s">
@@ -5454,27 +5651,27 @@
       </c>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
-      <c r="J71" s="35"/>
+      <c r="J71" s="34"/>
       <c r="M71" s="5" t="s">
         <v>140</v>
       </c>
       <c r="N71" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P71" s="34"/>
-      <c r="U71" s="41"/>
-      <c r="V71" s="53"/>
+      <c r="P71" s="33"/>
+      <c r="U71" s="40"/>
+      <c r="V71" s="52"/>
       <c r="W71" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X71" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y71" s="53"/>
+      <c r="Y71" s="52"/>
       <c r="AF71" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AH71" s="34"/>
+      <c r="AH71" s="33"/>
       <c r="AI71" s="5"/>
       <c r="AJ71" s="5" t="s">
         <v>159</v>
@@ -5483,45 +5680,45 @@
       <c r="AL71" s="5"/>
       <c r="AM71" s="5"/>
       <c r="AN71" s="5"/>
-      <c r="AO71" s="35"/>
+      <c r="AO71" s="34"/>
     </row>
     <row r="72" spans="4:52" ht="16" customHeight="1">
       <c r="D72" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F72" s="34"/>
+      <c r="F72" s="33"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5" t="s">
         <v>86</v>
       </c>
       <c r="I72" s="5"/>
-      <c r="J72" s="35"/>
+      <c r="J72" s="34"/>
       <c r="M72" s="5" t="s">
         <v>140</v>
       </c>
       <c r="N72" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P72" s="34"/>
-      <c r="Q72" s="40" t="s">
+      <c r="P72" s="33"/>
+      <c r="Q72" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="R72" s="40"/>
-      <c r="S72" s="40"/>
-      <c r="T72" s="40"/>
-      <c r="U72" s="41"/>
-      <c r="V72" s="53"/>
+      <c r="R72" s="39"/>
+      <c r="S72" s="39"/>
+      <c r="T72" s="39"/>
+      <c r="U72" s="40"/>
+      <c r="V72" s="52"/>
       <c r="W72" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X72" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y72" s="53"/>
+      <c r="Y72" s="52"/>
       <c r="AF72" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AH72" s="34"/>
+      <c r="AH72" s="33"/>
       <c r="AI72" s="5" t="s">
         <v>160</v>
       </c>
@@ -5530,43 +5727,43 @@
       <c r="AL72" s="5"/>
       <c r="AM72" s="5"/>
       <c r="AN72" s="5"/>
-      <c r="AO72" s="35"/>
+      <c r="AO72" s="34"/>
     </row>
     <row r="73" spans="4:52" ht="16" customHeight="1">
-      <c r="D73" s="40" t="s">
+      <c r="D73" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="F73" s="34" t="s">
+      <c r="F73" s="33" t="s">
         <v>143</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
-      <c r="J73" s="35"/>
+      <c r="J73" s="34"/>
       <c r="M73" s="5" t="s">
         <v>140</v>
       </c>
       <c r="N73" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P73" s="34"/>
-      <c r="Q73" s="40"/>
-      <c r="R73" s="40"/>
-      <c r="S73" s="40"/>
-      <c r="T73" s="40"/>
-      <c r="U73" s="41"/>
-      <c r="V73" s="53"/>
+      <c r="P73" s="33"/>
+      <c r="Q73" s="39"/>
+      <c r="R73" s="39"/>
+      <c r="S73" s="39"/>
+      <c r="T73" s="39"/>
+      <c r="U73" s="40"/>
+      <c r="V73" s="52"/>
       <c r="W73" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X73" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y73" s="53"/>
+      <c r="Y73" s="52"/>
       <c r="AF73" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AH73" s="34"/>
+      <c r="AH73" s="33"/>
       <c r="AI73" s="5"/>
       <c r="AJ73" s="5" t="s">
         <v>161</v>
@@ -5575,85 +5772,85 @@
       <c r="AL73" s="5"/>
       <c r="AM73" s="5"/>
       <c r="AN73" s="5"/>
-      <c r="AO73" s="35"/>
+      <c r="AO73" s="34"/>
     </row>
     <row r="74" spans="4:52" ht="16" customHeight="1">
-      <c r="F74" s="34"/>
+      <c r="F74" s="33"/>
       <c r="G74" s="5" t="s">
         <v>87</v>
       </c>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
-      <c r="J74" s="35"/>
+      <c r="J74" s="34"/>
       <c r="M74" s="5" t="s">
         <v>140</v>
       </c>
       <c r="N74" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P74" s="34"/>
-      <c r="Q74" s="40" t="s">
+      <c r="P74" s="33"/>
+      <c r="Q74" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="R74" s="40"/>
-      <c r="S74" s="40"/>
-      <c r="T74" s="40"/>
-      <c r="U74" s="41"/>
-      <c r="V74" s="53"/>
+      <c r="R74" s="39"/>
+      <c r="S74" s="39"/>
+      <c r="T74" s="39"/>
+      <c r="U74" s="40"/>
+      <c r="V74" s="52"/>
       <c r="W74" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X74" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y74" s="53"/>
-      <c r="Z74" s="69" t="s">
+      <c r="Y74" s="52"/>
+      <c r="Z74" s="68" t="s">
         <v>228</v>
       </c>
       <c r="AF74" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AH74" s="36"/>
-      <c r="AI74" s="37" t="s">
+      <c r="AH74" s="35"/>
+      <c r="AI74" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="AJ74" s="37"/>
-      <c r="AK74" s="37"/>
-      <c r="AL74" s="37"/>
-      <c r="AM74" s="37"/>
-      <c r="AN74" s="37"/>
-      <c r="AO74" s="38"/>
-      <c r="AS74" s="54" t="s">
+      <c r="AJ74" s="36"/>
+      <c r="AK74" s="36"/>
+      <c r="AL74" s="36"/>
+      <c r="AM74" s="36"/>
+      <c r="AN74" s="36"/>
+      <c r="AO74" s="37"/>
+      <c r="AS74" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="AT74" s="55"/>
-      <c r="AU74" s="55"/>
-      <c r="AV74" s="55"/>
-      <c r="AW74" s="55"/>
-      <c r="AX74" s="55"/>
-      <c r="AY74" s="55"/>
-      <c r="AZ74" s="56"/>
+      <c r="AT74" s="54"/>
+      <c r="AU74" s="54"/>
+      <c r="AV74" s="54"/>
+      <c r="AW74" s="54"/>
+      <c r="AX74" s="54"/>
+      <c r="AY74" s="54"/>
+      <c r="AZ74" s="55"/>
     </row>
     <row r="75" spans="4:52" ht="16" customHeight="1">
-      <c r="F75" s="34"/>
+      <c r="F75" s="33"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
-      <c r="J75" s="35"/>
+      <c r="J75" s="34"/>
       <c r="M75" s="5" t="s">
         <v>140</v>
       </c>
       <c r="N75" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P75" s="34"/>
-      <c r="Q75" s="40"/>
-      <c r="R75" s="40" t="s">
+      <c r="P75" s="33"/>
+      <c r="Q75" s="39"/>
+      <c r="R75" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="S75" s="40"/>
-      <c r="T75" s="40"/>
-      <c r="U75" s="41"/>
+      <c r="S75" s="39"/>
+      <c r="T75" s="39"/>
+      <c r="U75" s="40"/>
       <c r="W75" s="5" t="s">
         <v>140</v>
       </c>
@@ -5666,9 +5863,9 @@
       <c r="AF75" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AI75" s="79"/>
-      <c r="AS75" s="34"/>
-      <c r="AT75" s="79" t="s">
+      <c r="AI75" s="78"/>
+      <c r="AS75" s="33"/>
+      <c r="AT75" s="78" t="s">
         <v>134</v>
       </c>
       <c r="AU75" s="5"/>
@@ -5676,33 +5873,33 @@
       <c r="AW75" s="5"/>
       <c r="AX75" s="5"/>
       <c r="AY75" s="5"/>
-      <c r="AZ75" s="35"/>
+      <c r="AZ75" s="34"/>
     </row>
     <row r="76" spans="4:52" ht="16" customHeight="1">
       <c r="D76" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F76" s="34"/>
-      <c r="G76" s="51" t="s">
+      <c r="F76" s="33"/>
+      <c r="G76" s="50" t="s">
         <v>88</v>
       </c>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
-      <c r="J76" s="35"/>
+      <c r="J76" s="34"/>
       <c r="M76" s="5" t="s">
         <v>140</v>
       </c>
       <c r="N76" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P76" s="34"/>
-      <c r="Q76" s="40"/>
-      <c r="R76" s="40"/>
-      <c r="S76" s="40" t="s">
+      <c r="P76" s="33"/>
+      <c r="Q76" s="39"/>
+      <c r="R76" s="39"/>
+      <c r="S76" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="T76" s="40"/>
-      <c r="U76" s="41"/>
+      <c r="T76" s="39"/>
+      <c r="U76" s="40"/>
       <c r="W76" s="5" t="s">
         <v>140</v>
       </c>
@@ -5712,8 +5909,8 @@
       <c r="AF76" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AS76" s="34"/>
-      <c r="AT76" s="79" t="s">
+      <c r="AS76" s="33"/>
+      <c r="AT76" s="78" t="s">
         <v>166</v>
       </c>
       <c r="AU76" s="5"/>
@@ -5721,13 +5918,13 @@
       <c r="AW76" s="5"/>
       <c r="AX76" s="5"/>
       <c r="AY76" s="5"/>
-      <c r="AZ76" s="35"/>
+      <c r="AZ76" s="34"/>
     </row>
     <row r="77" spans="4:52" ht="16" customHeight="1">
-      <c r="D77" s="40" t="s">
+      <c r="D77" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="F77" s="34" t="s">
+      <c r="F77" s="33" t="s">
         <v>143</v>
       </c>
       <c r="G77" s="5"/>
@@ -5735,19 +5932,19 @@
         <v>90</v>
       </c>
       <c r="I77" s="5"/>
-      <c r="J77" s="35"/>
+      <c r="J77" s="34"/>
       <c r="M77" s="5" t="s">
         <v>140</v>
       </c>
       <c r="N77" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P77" s="34"/>
-      <c r="Q77" s="40"/>
-      <c r="R77" s="40"/>
-      <c r="S77" s="40"/>
-      <c r="T77" s="40"/>
-      <c r="U77" s="41"/>
+      <c r="P77" s="33"/>
+      <c r="Q77" s="39"/>
+      <c r="R77" s="39"/>
+      <c r="S77" s="39"/>
+      <c r="T77" s="39"/>
+      <c r="U77" s="40"/>
       <c r="W77" s="5" t="s">
         <v>140</v>
       </c>
@@ -5757,8 +5954,8 @@
       <c r="AF77" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AS77" s="34"/>
-      <c r="AT77" s="79"/>
+      <c r="AS77" s="33"/>
+      <c r="AT77" s="78"/>
       <c r="AU77" s="5" t="s">
         <v>167</v>
       </c>
@@ -5766,30 +5963,30 @@
       <c r="AW77" s="5"/>
       <c r="AX77" s="5"/>
       <c r="AY77" s="5"/>
-      <c r="AZ77" s="35"/>
+      <c r="AZ77" s="34"/>
     </row>
     <row r="78" spans="4:52" ht="16" customHeight="1">
-      <c r="F78" s="34"/>
+      <c r="F78" s="33"/>
       <c r="G78" s="5" t="s">
         <v>89</v>
       </c>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
-      <c r="J78" s="35"/>
+      <c r="J78" s="34"/>
       <c r="M78" s="5" t="s">
         <v>140</v>
       </c>
       <c r="N78" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P78" s="34"/>
-      <c r="Q78" s="40"/>
-      <c r="R78" s="40"/>
-      <c r="S78" s="40" t="s">
+      <c r="P78" s="33"/>
+      <c r="Q78" s="39"/>
+      <c r="R78" s="39"/>
+      <c r="S78" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="T78" s="40"/>
-      <c r="U78" s="41"/>
+      <c r="T78" s="39"/>
+      <c r="U78" s="40"/>
       <c r="W78" s="5" t="s">
         <v>140</v>
       </c>
@@ -5799,7 +5996,7 @@
       <c r="AF78" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AS78" s="34"/>
+      <c r="AS78" s="33"/>
       <c r="AT78" s="5"/>
       <c r="AU78" s="5" t="s">
         <v>168</v>
@@ -5808,28 +6005,28 @@
       <c r="AW78" s="5"/>
       <c r="AX78" s="5"/>
       <c r="AY78" s="5"/>
-      <c r="AZ78" s="35"/>
+      <c r="AZ78" s="34"/>
     </row>
     <row r="79" spans="4:52" ht="16" customHeight="1">
-      <c r="F79" s="34"/>
+      <c r="F79" s="33"/>
       <c r="G79" s="5"/>
-      <c r="H79" s="51" t="s">
+      <c r="H79" s="50" t="s">
         <v>91</v>
       </c>
       <c r="I79" s="5"/>
-      <c r="J79" s="35"/>
+      <c r="J79" s="34"/>
       <c r="M79" s="5" t="s">
         <v>140</v>
       </c>
       <c r="N79" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P79" s="34"/>
-      <c r="Q79" s="40"/>
-      <c r="R79" s="40"/>
-      <c r="S79" s="40"/>
-      <c r="T79" s="40"/>
-      <c r="U79" s="41"/>
+      <c r="P79" s="33"/>
+      <c r="Q79" s="39"/>
+      <c r="R79" s="39"/>
+      <c r="S79" s="39"/>
+      <c r="T79" s="39"/>
+      <c r="U79" s="40"/>
       <c r="W79" s="5" t="s">
         <v>140</v>
       </c>
@@ -5842,7 +6039,7 @@
       <c r="AF79" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AS79" s="34"/>
+      <c r="AS79" s="33"/>
       <c r="AT79" s="5"/>
       <c r="AU79" s="5" t="s">
         <v>170</v>
@@ -5851,33 +6048,33 @@
       <c r="AW79" s="5"/>
       <c r="AX79" s="5"/>
       <c r="AY79" s="5"/>
-      <c r="AZ79" s="35"/>
+      <c r="AZ79" s="34"/>
     </row>
     <row r="80" spans="4:52" ht="16" customHeight="1">
       <c r="D80" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F80" s="34"/>
+      <c r="F80" s="33"/>
       <c r="G80" s="5"/>
-      <c r="H80" s="51" t="s">
+      <c r="H80" s="50" t="s">
         <v>92</v>
       </c>
       <c r="I80" s="5"/>
-      <c r="J80" s="35"/>
+      <c r="J80" s="34"/>
       <c r="M80" s="5" t="s">
         <v>140</v>
       </c>
       <c r="N80" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P80" s="34"/>
-      <c r="Q80" s="40"/>
-      <c r="R80" s="40"/>
-      <c r="S80" s="40" t="s">
+      <c r="P80" s="33"/>
+      <c r="Q80" s="39"/>
+      <c r="R80" s="39"/>
+      <c r="S80" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="T80" s="40"/>
-      <c r="U80" s="41"/>
+      <c r="T80" s="39"/>
+      <c r="U80" s="40"/>
       <c r="W80" s="5" t="s">
         <v>140</v>
       </c>
@@ -5890,7 +6087,7 @@
       <c r="AF80" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AS80" s="34"/>
+      <c r="AS80" s="33"/>
       <c r="AT80" s="5"/>
       <c r="AU80" s="5" t="s">
         <v>171</v>
@@ -5899,33 +6096,33 @@
       <c r="AW80" s="5"/>
       <c r="AX80" s="5"/>
       <c r="AY80" s="5"/>
-      <c r="AZ80" s="35"/>
+      <c r="AZ80" s="34"/>
     </row>
     <row r="81" spans="4:52" ht="16" customHeight="1">
-      <c r="D81" s="40" t="s">
+      <c r="D81" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="F81" s="34" t="s">
+      <c r="F81" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="G81" s="51" t="s">
+      <c r="G81" s="50" t="s">
         <v>93</v>
       </c>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
-      <c r="J81" s="35"/>
+      <c r="J81" s="34"/>
       <c r="M81" s="5" t="s">
         <v>140</v>
       </c>
       <c r="N81" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P81" s="36"/>
-      <c r="Q81" s="57"/>
-      <c r="R81" s="57"/>
-      <c r="S81" s="57"/>
-      <c r="T81" s="57"/>
-      <c r="U81" s="58"/>
+      <c r="P81" s="35"/>
+      <c r="Q81" s="56"/>
+      <c r="R81" s="56"/>
+      <c r="S81" s="56"/>
+      <c r="T81" s="56"/>
+      <c r="U81" s="57"/>
       <c r="W81" s="5" t="s">
         <v>140</v>
       </c>
@@ -5938,28 +6135,28 @@
       <c r="AH81" t="s">
         <v>172</v>
       </c>
-      <c r="AS81" s="36"/>
-      <c r="AT81" s="81" t="s">
+      <c r="AS81" s="35"/>
+      <c r="AT81" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="AU81" s="37"/>
-      <c r="AV81" s="37"/>
-      <c r="AW81" s="37"/>
-      <c r="AX81" s="37"/>
-      <c r="AY81" s="37"/>
-      <c r="AZ81" s="38"/>
+      <c r="AU81" s="36"/>
+      <c r="AV81" s="36"/>
+      <c r="AW81" s="36"/>
+      <c r="AX81" s="36"/>
+      <c r="AY81" s="36"/>
+      <c r="AZ81" s="37"/>
     </row>
     <row r="82" spans="4:52" ht="16" customHeight="1">
       <c r="D82" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F82" s="34"/>
+      <c r="F82" s="33"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5" t="s">
         <v>94</v>
       </c>
       <c r="I82" s="5"/>
-      <c r="J82" s="35"/>
+      <c r="J82" s="34"/>
       <c r="M82" s="5" t="s">
         <v>140</v>
       </c>
@@ -5975,23 +6172,23 @@
       <c r="AF82" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AI82" s="79" t="s">
+      <c r="AI82" s="78" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="83" spans="4:52" ht="16" customHeight="1">
-      <c r="D83" s="40" t="s">
+      <c r="D83" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="F83" s="34" t="s">
+      <c r="F83" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="G83" s="51" t="s">
+      <c r="G83" s="50" t="s">
         <v>95</v>
       </c>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
-      <c r="J83" s="35"/>
+      <c r="J83" s="34"/>
       <c r="M83" s="5" t="s">
         <v>140</v>
       </c>
@@ -6015,13 +6212,13 @@
       <c r="D84" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F84" s="34"/>
+      <c r="F84" s="33"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5" t="s">
         <v>97</v>
       </c>
       <c r="I84" s="5"/>
-      <c r="J84" s="35"/>
+      <c r="J84" s="34"/>
       <c r="M84" s="5" t="s">
         <v>140</v>
       </c>
@@ -6040,15 +6237,15 @@
       <c r="AF84" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AI84" s="69" t="s">
+      <c r="AI84" s="68" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="85" spans="4:52" ht="16" customHeight="1">
-      <c r="D85" s="40" t="s">
+      <c r="D85" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="F85" s="34" t="s">
+      <c r="F85" s="33" t="s">
         <v>143</v>
       </c>
       <c r="G85" s="5" t="s">
@@ -6056,7 +6253,7 @@
       </c>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
-      <c r="J85" s="35"/>
+      <c r="J85" s="34"/>
       <c r="M85" s="5" t="s">
         <v>140</v>
       </c>
@@ -6080,13 +6277,13 @@
       </c>
     </row>
     <row r="86" spans="4:52" ht="16" customHeight="1">
-      <c r="F86" s="34"/>
+      <c r="F86" s="33"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5" t="s">
         <v>98</v>
       </c>
       <c r="I86" s="5"/>
-      <c r="J86" s="35"/>
+      <c r="J86" s="34"/>
       <c r="M86" s="5" t="s">
         <v>140</v>
       </c>
@@ -6099,7 +6296,7 @@
       <c r="AF86" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AI86" s="82" t="s">
+      <c r="AI86" s="81" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6107,13 +6304,13 @@
       <c r="D87" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F87" s="34"/>
+      <c r="F87" s="33"/>
       <c r="G87" s="5"/>
       <c r="H87" s="5" t="s">
         <v>99</v>
       </c>
       <c r="I87" s="5"/>
-      <c r="J87" s="35"/>
+      <c r="J87" s="34"/>
       <c r="M87" s="5" t="s">
         <v>140</v>
       </c>
@@ -6131,18 +6328,18 @@
       </c>
     </row>
     <row r="88" spans="4:52" ht="16" customHeight="1">
-      <c r="D88" s="40" t="s">
+      <c r="D88" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="F88" s="34" t="s">
+      <c r="F88" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="G88" s="51" t="s">
+      <c r="G88" s="50" t="s">
         <v>100</v>
       </c>
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
-      <c r="J88" s="35"/>
+      <c r="J88" s="34"/>
       <c r="M88" s="5" t="s">
         <v>140</v>
       </c>
@@ -6158,23 +6355,23 @@
       <c r="AK88" t="s">
         <v>165</v>
       </c>
-      <c r="AS88" s="54" t="s">
+      <c r="AS88" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="AT88" s="55"/>
-      <c r="AU88" s="55"/>
-      <c r="AV88" s="55"/>
-      <c r="AW88" s="55"/>
-      <c r="AX88" s="55"/>
-      <c r="AY88" s="55"/>
-      <c r="AZ88" s="56"/>
+      <c r="AT88" s="54"/>
+      <c r="AU88" s="54"/>
+      <c r="AV88" s="54"/>
+      <c r="AW88" s="54"/>
+      <c r="AX88" s="54"/>
+      <c r="AY88" s="54"/>
+      <c r="AZ88" s="55"/>
     </row>
     <row r="89" spans="4:52" ht="16" customHeight="1">
-      <c r="F89" s="34"/>
+      <c r="F89" s="33"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
-      <c r="J89" s="35"/>
+      <c r="J89" s="34"/>
       <c r="M89" s="5" t="s">
         <v>140</v>
       </c>
@@ -6187,8 +6384,8 @@
       <c r="AF89" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AS89" s="34"/>
-      <c r="AT89" s="79" t="s">
+      <c r="AS89" s="33"/>
+      <c r="AT89" s="78" t="s">
         <v>134</v>
       </c>
       <c r="AU89" s="5"/>
@@ -6196,19 +6393,19 @@
       <c r="AW89" s="5"/>
       <c r="AX89" s="5"/>
       <c r="AY89" s="5"/>
-      <c r="AZ89" s="35"/>
+      <c r="AZ89" s="34"/>
     </row>
     <row r="90" spans="4:52" ht="16" customHeight="1">
       <c r="D90" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F90" s="34"/>
-      <c r="G90" s="51" t="s">
+      <c r="F90" s="33"/>
+      <c r="G90" s="50" t="s">
         <v>101</v>
       </c>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
-      <c r="J90" s="35"/>
+      <c r="J90" s="34"/>
       <c r="M90" s="5" t="s">
         <v>140</v>
       </c>
@@ -6221,8 +6418,8 @@
       <c r="AF90" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AS90" s="34"/>
-      <c r="AT90" s="79" t="s">
+      <c r="AS90" s="33"/>
+      <c r="AT90" s="78" t="s">
         <v>166</v>
       </c>
       <c r="AU90" s="5"/>
@@ -6230,13 +6427,13 @@
       <c r="AW90" s="5"/>
       <c r="AX90" s="5"/>
       <c r="AY90" s="5"/>
-      <c r="AZ90" s="35"/>
+      <c r="AZ90" s="34"/>
     </row>
     <row r="91" spans="4:52" ht="16" customHeight="1">
-      <c r="D91" s="40" t="s">
+      <c r="D91" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="F91" s="34" t="s">
+      <c r="F91" s="33" t="s">
         <v>143</v>
       </c>
       <c r="G91" s="5"/>
@@ -6244,7 +6441,7 @@
         <v>104</v>
       </c>
       <c r="I91" s="5"/>
-      <c r="J91" s="35"/>
+      <c r="J91" s="34"/>
       <c r="M91" s="5" t="s">
         <v>140</v>
       </c>
@@ -6257,11 +6454,11 @@
       <c r="AF91" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AH91" s="69" t="s">
+      <c r="AH91" s="68" t="s">
         <v>188</v>
       </c>
-      <c r="AS91" s="34"/>
-      <c r="AT91" s="79"/>
+      <c r="AS91" s="33"/>
+      <c r="AT91" s="78"/>
       <c r="AU91" s="5" t="s">
         <v>178</v>
       </c>
@@ -6269,16 +6466,16 @@
       <c r="AW91" s="5"/>
       <c r="AX91" s="5"/>
       <c r="AY91" s="5"/>
-      <c r="AZ91" s="35"/>
+      <c r="AZ91" s="34"/>
     </row>
     <row r="92" spans="4:52" ht="16" customHeight="1">
-      <c r="F92" s="34"/>
+      <c r="F92" s="33"/>
       <c r="G92" s="5" t="s">
         <v>102</v>
       </c>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
-      <c r="J92" s="35"/>
+      <c r="J92" s="34"/>
       <c r="M92" s="5" t="s">
         <v>140</v>
       </c>
@@ -6294,7 +6491,7 @@
       <c r="AI92" t="s">
         <v>185</v>
       </c>
-      <c r="AS92" s="34"/>
+      <c r="AS92" s="33"/>
       <c r="AT92" s="5"/>
       <c r="AU92" s="5" t="s">
         <v>168</v>
@@ -6303,14 +6500,14 @@
       <c r="AW92" s="5"/>
       <c r="AX92" s="5"/>
       <c r="AY92" s="5"/>
-      <c r="AZ92" s="35"/>
+      <c r="AZ92" s="34"/>
     </row>
     <row r="93" spans="4:52" ht="16" customHeight="1">
-      <c r="F93" s="34"/>
+      <c r="F93" s="33"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
-      <c r="J93" s="35"/>
+      <c r="J93" s="34"/>
       <c r="M93" s="5" t="s">
         <v>140</v>
       </c>
@@ -6320,21 +6517,21 @@
       <c r="X93" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Z93" s="54" t="s">
+      <c r="Z93" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="AA93" s="55"/>
-      <c r="AB93" s="55"/>
-      <c r="AC93" s="55"/>
-      <c r="AD93" s="55"/>
-      <c r="AE93" s="56"/>
-      <c r="AF93" s="40" t="s">
+      <c r="AA93" s="54"/>
+      <c r="AB93" s="54"/>
+      <c r="AC93" s="54"/>
+      <c r="AD93" s="54"/>
+      <c r="AE93" s="55"/>
+      <c r="AF93" s="39" t="s">
         <v>151</v>
       </c>
       <c r="AJ93" t="s">
         <v>186</v>
       </c>
-      <c r="AS93" s="34"/>
+      <c r="AS93" s="33"/>
       <c r="AT93" s="5"/>
       <c r="AU93" s="5" t="s">
         <v>170</v>
@@ -6343,16 +6540,16 @@
       <c r="AW93" s="5"/>
       <c r="AX93" s="5"/>
       <c r="AY93" s="5"/>
-      <c r="AZ93" s="35"/>
+      <c r="AZ93" s="34"/>
     </row>
     <row r="94" spans="4:52" ht="16" customHeight="1">
-      <c r="F94" s="34"/>
+      <c r="F94" s="33"/>
       <c r="G94" s="5" t="s">
         <v>103</v>
       </c>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
-      <c r="J94" s="35"/>
+      <c r="J94" s="34"/>
       <c r="M94" s="5" t="s">
         <v>140</v>
       </c>
@@ -6362,18 +6559,18 @@
       <c r="X94" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Z94" s="34"/>
-      <c r="AA94" s="88" t="s">
+      <c r="Z94" s="33"/>
+      <c r="AA94" s="87" t="s">
         <v>202</v>
       </c>
       <c r="AB94" s="5"/>
       <c r="AC94" s="5"/>
       <c r="AD94" s="5"/>
-      <c r="AE94" s="35"/>
+      <c r="AE94" s="34"/>
       <c r="AI94" t="s">
         <v>190</v>
       </c>
-      <c r="AS94" s="34"/>
+      <c r="AS94" s="33"/>
       <c r="AT94" s="5"/>
       <c r="AU94" s="5" t="s">
         <v>171</v>
@@ -6382,14 +6579,14 @@
       <c r="AW94" s="5"/>
       <c r="AX94" s="5"/>
       <c r="AY94" s="5"/>
-      <c r="AZ94" s="35"/>
+      <c r="AZ94" s="34"/>
     </row>
     <row r="95" spans="4:52" ht="16" customHeight="1">
-      <c r="F95" s="34"/>
+      <c r="F95" s="33"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
-      <c r="J95" s="35"/>
+      <c r="J95" s="34"/>
       <c r="M95" s="5" t="s">
         <v>140</v>
       </c>
@@ -6399,34 +6596,34 @@
       <c r="X95" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Z95" s="34"/>
+      <c r="Z95" s="33"/>
       <c r="AA95" s="5"/>
       <c r="AB95" s="5" t="s">
         <v>203</v>
       </c>
       <c r="AC95" s="5"/>
       <c r="AD95" s="5"/>
-      <c r="AE95" s="35"/>
+      <c r="AE95" s="34"/>
       <c r="AJ95" t="s">
         <v>191</v>
       </c>
-      <c r="AS95" s="34"/>
+      <c r="AS95" s="33"/>
       <c r="AT95" s="5"/>
       <c r="AU95" s="5"/>
       <c r="AV95" s="5"/>
       <c r="AW95" s="5"/>
       <c r="AX95" s="5"/>
       <c r="AY95" s="5"/>
-      <c r="AZ95" s="35"/>
+      <c r="AZ95" s="34"/>
     </row>
     <row r="96" spans="4:52" ht="16" customHeight="1">
-      <c r="F96" s="34"/>
-      <c r="G96" s="51" t="s">
+      <c r="F96" s="33"/>
+      <c r="G96" s="50" t="s">
         <v>105</v>
       </c>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
-      <c r="J96" s="35"/>
+      <c r="J96" s="34"/>
       <c r="M96" s="5" t="s">
         <v>140</v>
       </c>
@@ -6436,34 +6633,34 @@
       <c r="X96" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y96" s="91" t="s">
+      <c r="Y96" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="Z96" s="36"/>
-      <c r="AA96" s="37" t="s">
+      <c r="Z96" s="35"/>
+      <c r="AA96" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="AB96" s="37"/>
-      <c r="AC96" s="37"/>
-      <c r="AD96" s="37"/>
-      <c r="AE96" s="38"/>
-      <c r="AS96" s="34"/>
+      <c r="AB96" s="36"/>
+      <c r="AC96" s="36"/>
+      <c r="AD96" s="36"/>
+      <c r="AE96" s="37"/>
+      <c r="AS96" s="33"/>
       <c r="AT96" s="5"/>
       <c r="AU96" s="5"/>
       <c r="AV96" s="5"/>
       <c r="AW96" s="5"/>
       <c r="AX96" s="5"/>
       <c r="AY96" s="5"/>
-      <c r="AZ96" s="35"/>
+      <c r="AZ96" s="34"/>
     </row>
     <row r="97" spans="4:52" ht="16" customHeight="1">
-      <c r="F97" s="34"/>
+      <c r="F97" s="33"/>
       <c r="G97" s="5"/>
-      <c r="H97" s="52" t="s">
+      <c r="H97" s="51" t="s">
         <v>107</v>
       </c>
       <c r="I97" s="5"/>
-      <c r="J97" s="35"/>
+      <c r="J97" s="34"/>
       <c r="M97" s="5" t="s">
         <v>140</v>
       </c>
@@ -6473,44 +6670,44 @@
       <c r="X97" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y97" s="92" t="s">
+      <c r="Y97" s="91" t="s">
         <v>140</v>
       </c>
       <c r="AH97" t="s">
         <v>179</v>
       </c>
-      <c r="AS97" s="36"/>
-      <c r="AT97" s="81" t="s">
+      <c r="AS97" s="35"/>
+      <c r="AT97" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="AU97" s="37"/>
-      <c r="AV97" s="37"/>
-      <c r="AW97" s="37"/>
-      <c r="AX97" s="37"/>
-      <c r="AY97" s="37"/>
-      <c r="AZ97" s="38"/>
+      <c r="AU97" s="36"/>
+      <c r="AV97" s="36"/>
+      <c r="AW97" s="36"/>
+      <c r="AX97" s="36"/>
+      <c r="AY97" s="36"/>
+      <c r="AZ97" s="37"/>
     </row>
     <row r="98" spans="4:52" ht="16" customHeight="1">
-      <c r="F98" s="34"/>
+      <c r="F98" s="33"/>
       <c r="G98" s="5" t="s">
         <v>106</v>
       </c>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
-      <c r="J98" s="35"/>
+      <c r="J98" s="34"/>
       <c r="M98" s="5" t="s">
         <v>140</v>
       </c>
       <c r="N98" t="s">
         <v>253</v>
       </c>
-      <c r="P98" s="69" t="s">
+      <c r="P98" s="68" t="s">
         <v>255</v>
       </c>
       <c r="X98" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y98" s="87" t="s">
+      <c r="Y98" s="86" t="s">
         <v>140</v>
       </c>
       <c r="AI98" t="s">
@@ -6518,71 +6715,71 @@
       </c>
     </row>
     <row r="99" spans="4:52" ht="16" customHeight="1">
-      <c r="F99" s="34"/>
+      <c r="F99" s="33"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5" t="s">
         <v>108</v>
       </c>
       <c r="I99" s="5"/>
-      <c r="J99" s="35"/>
+      <c r="J99" s="34"/>
       <c r="M99" s="5" t="s">
         <v>140</v>
       </c>
       <c r="N99" s="5"/>
-      <c r="Q99" s="82" t="s">
+      <c r="Q99" s="81" t="s">
         <v>251</v>
       </c>
       <c r="X99" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y99" s="87" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z99" s="79"/>
+      <c r="Y99" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z99" s="78"/>
       <c r="AI99" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="100" spans="4:52" ht="16" customHeight="1">
-      <c r="F100" s="34"/>
+      <c r="F100" s="33"/>
       <c r="G100" s="5" t="s">
         <v>111</v>
       </c>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
-      <c r="J100" s="35"/>
+      <c r="J100" s="34"/>
       <c r="M100" s="5" t="s">
         <v>140</v>
       </c>
       <c r="N100" s="5"/>
-      <c r="Q100" s="82" t="s">
+      <c r="Q100" s="81" t="s">
         <v>254</v>
       </c>
       <c r="X100" s="5"/>
-      <c r="Y100" s="62" t="s">
+      <c r="Y100" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="Z100" s="54" t="s">
+      <c r="Z100" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="AA100" s="55"/>
-      <c r="AB100" s="55"/>
-      <c r="AC100" s="55"/>
-      <c r="AD100" s="55"/>
-      <c r="AE100" s="56"/>
+      <c r="AA100" s="54"/>
+      <c r="AB100" s="54"/>
+      <c r="AC100" s="54"/>
+      <c r="AD100" s="54"/>
+      <c r="AE100" s="55"/>
       <c r="AF100" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="AI100" s="69" t="s">
+      <c r="AI100" s="68" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="101" spans="4:52" ht="16" customHeight="1">
-      <c r="F101" s="34"/>
+      <c r="F101" s="33"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
-      <c r="J101" s="35"/>
+      <c r="J101" s="34"/>
       <c r="M101" s="5" t="s">
         <v>140</v>
       </c>
@@ -6590,26 +6787,26 @@
       <c r="X101" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y101" s="87" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z101" s="34"/>
+      <c r="Y101" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z101" s="33"/>
       <c r="AA101" s="5"/>
       <c r="AB101" s="5"/>
       <c r="AC101" s="5"/>
       <c r="AD101" s="5"/>
-      <c r="AE101" s="35"/>
+      <c r="AE101" s="34"/>
       <c r="AF101" s="5"/>
-      <c r="AI101" s="69"/>
+      <c r="AI101" s="68"/>
     </row>
     <row r="102" spans="4:52" ht="16" customHeight="1">
-      <c r="F102" s="34"/>
+      <c r="F102" s="33"/>
       <c r="G102" s="5" t="s">
         <v>110</v>
       </c>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
-      <c r="J102" s="35"/>
+      <c r="J102" s="34"/>
       <c r="M102" s="5" t="s">
         <v>140</v>
       </c>
@@ -6617,31 +6814,31 @@
       <c r="X102" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y102" s="87" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z102" s="34"/>
+      <c r="Y102" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z102" s="33"/>
       <c r="AA102" s="5" t="s">
         <v>252</v>
       </c>
       <c r="AB102" s="5"/>
       <c r="AC102" s="5"/>
       <c r="AD102" s="5"/>
-      <c r="AE102" s="35"/>
+      <c r="AE102" s="34"/>
       <c r="AF102" s="5"/>
       <c r="AG102" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="AH102" s="69" t="s">
+      <c r="AH102" s="68" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="103" spans="4:52" ht="16" customHeight="1">
-      <c r="F103" s="34"/>
+      <c r="F103" s="33"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
-      <c r="J103" s="35"/>
+      <c r="J103" s="34"/>
       <c r="M103" s="5" t="s">
         <v>140</v>
       </c>
@@ -6649,28 +6846,28 @@
       <c r="X103" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y103" s="87" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z103" s="34"/>
+      <c r="Y103" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z103" s="33"/>
       <c r="AA103" s="5"/>
       <c r="AB103" s="5"/>
       <c r="AC103" s="5"/>
       <c r="AD103" s="5"/>
-      <c r="AE103" s="35"/>
+      <c r="AE103" s="34"/>
       <c r="AF103" s="5"/>
       <c r="AI103" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="104" spans="4:52" ht="16" customHeight="1">
-      <c r="F104" s="34"/>
+      <c r="F104" s="33"/>
       <c r="G104" s="5" t="s">
         <v>112</v>
       </c>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
-      <c r="J104" s="35"/>
+      <c r="J104" s="34"/>
       <c r="M104" s="5" t="s">
         <v>140</v>
       </c>
@@ -6678,27 +6875,27 @@
       <c r="X104" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y104" s="87" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z104" s="34"/>
+      <c r="Y104" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z104" s="33"/>
       <c r="AA104" s="5" t="s">
         <v>216</v>
       </c>
       <c r="AB104" s="5"/>
       <c r="AC104" s="5"/>
       <c r="AD104" s="5"/>
-      <c r="AE104" s="35"/>
+      <c r="AE104" s="34"/>
       <c r="AJ104" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="105" spans="4:52" ht="16" customHeight="1">
-      <c r="F105" s="34"/>
+      <c r="F105" s="33"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
-      <c r="J105" s="35"/>
+      <c r="J105" s="34"/>
       <c r="M105" s="5" t="s">
         <v>140</v>
       </c>
@@ -6706,24 +6903,24 @@
       <c r="X105" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y105" s="87" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z105" s="34"/>
+      <c r="Y105" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z105" s="33"/>
       <c r="AA105" s="5"/>
       <c r="AB105" s="5"/>
       <c r="AC105" s="5"/>
       <c r="AD105" s="5"/>
-      <c r="AE105" s="35"/>
+      <c r="AE105" s="34"/>
     </row>
     <row r="106" spans="4:52" ht="16" customHeight="1">
-      <c r="F106" s="34"/>
+      <c r="F106" s="33"/>
       <c r="G106" s="5" t="s">
         <v>111</v>
       </c>
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
-      <c r="J106" s="35"/>
+      <c r="J106" s="34"/>
       <c r="M106" s="5" t="s">
         <v>140</v>
       </c>
@@ -6731,27 +6928,27 @@
       <c r="X106" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y106" s="87" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z106" s="34"/>
+      <c r="Y106" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z106" s="33"/>
       <c r="AA106" s="5"/>
       <c r="AB106" s="5"/>
       <c r="AC106" s="5"/>
       <c r="AD106" s="5"/>
-      <c r="AE106" s="35"/>
+      <c r="AE106" s="34"/>
     </row>
     <row r="107" spans="4:52" ht="16" customHeight="1">
       <c r="D107" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F107" s="34"/>
+      <c r="F107" s="33"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5" t="s">
         <v>178</v>
       </c>
       <c r="I107" s="5"/>
-      <c r="J107" s="35"/>
+      <c r="J107" s="34"/>
       <c r="M107" s="5" t="s">
         <v>140</v>
       </c>
@@ -6759,41 +6956,41 @@
       <c r="X107" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y107" s="87" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z107" s="36"/>
-      <c r="AA107" s="37" t="s">
+      <c r="Y107" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z107" s="35"/>
+      <c r="AA107" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="AB107" s="37"/>
-      <c r="AC107" s="37"/>
-      <c r="AD107" s="37"/>
-      <c r="AE107" s="38"/>
-      <c r="AS107" s="54" t="s">
+      <c r="AB107" s="36"/>
+      <c r="AC107" s="36"/>
+      <c r="AD107" s="36"/>
+      <c r="AE107" s="37"/>
+      <c r="AS107" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="AT107" s="55"/>
-      <c r="AU107" s="55"/>
-      <c r="AV107" s="55"/>
-      <c r="AW107" s="55"/>
-      <c r="AX107" s="55"/>
-      <c r="AY107" s="55"/>
-      <c r="AZ107" s="56"/>
+      <c r="AT107" s="54"/>
+      <c r="AU107" s="54"/>
+      <c r="AV107" s="54"/>
+      <c r="AW107" s="54"/>
+      <c r="AX107" s="54"/>
+      <c r="AY107" s="54"/>
+      <c r="AZ107" s="55"/>
     </row>
     <row r="108" spans="4:52" ht="16" customHeight="1">
-      <c r="D108" s="40" t="s">
+      <c r="D108" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="F108" s="34" t="s">
+      <c r="F108" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="G108" s="51" t="s">
+      <c r="G108" s="50" t="s">
         <v>109</v>
       </c>
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
-      <c r="J108" s="35"/>
+      <c r="J108" s="34"/>
       <c r="M108" s="5" t="s">
         <v>140</v>
       </c>
@@ -6801,12 +6998,12 @@
       <c r="X108" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y108" s="87" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF108" s="87"/>
-      <c r="AS108" s="34"/>
-      <c r="AT108" s="79" t="s">
+      <c r="Y108" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF108" s="86"/>
+      <c r="AS108" s="33"/>
+      <c r="AT108" s="78" t="s">
         <v>134</v>
       </c>
       <c r="AU108" s="5"/>
@@ -6814,19 +7011,19 @@
       <c r="AW108" s="5"/>
       <c r="AX108" s="5"/>
       <c r="AY108" s="5"/>
-      <c r="AZ108" s="35"/>
+      <c r="AZ108" s="34"/>
     </row>
     <row r="109" spans="4:52" ht="16" customHeight="1">
       <c r="D109" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F109" s="34"/>
+      <c r="F109" s="33"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5" t="s">
         <v>114</v>
       </c>
       <c r="I109" s="5"/>
-      <c r="J109" s="35"/>
+      <c r="J109" s="34"/>
       <c r="M109" s="5" t="s">
         <v>140</v>
       </c>
@@ -6834,20 +7031,20 @@
       <c r="X109" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y109" s="87" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z109" s="54" t="s">
+      <c r="Y109" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z109" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="AA109" s="55"/>
-      <c r="AB109" s="55"/>
-      <c r="AC109" s="55"/>
-      <c r="AD109" s="55"/>
-      <c r="AE109" s="56"/>
-      <c r="AF109" s="87"/>
-      <c r="AS109" s="34"/>
-      <c r="AT109" s="79" t="s">
+      <c r="AA109" s="54"/>
+      <c r="AB109" s="54"/>
+      <c r="AC109" s="54"/>
+      <c r="AD109" s="54"/>
+      <c r="AE109" s="55"/>
+      <c r="AF109" s="86"/>
+      <c r="AS109" s="33"/>
+      <c r="AT109" s="78" t="s">
         <v>166</v>
       </c>
       <c r="AU109" s="5"/>
@@ -6855,13 +7052,13 @@
       <c r="AW109" s="5"/>
       <c r="AX109" s="5"/>
       <c r="AY109" s="5"/>
-      <c r="AZ109" s="35"/>
+      <c r="AZ109" s="34"/>
     </row>
     <row r="110" spans="4:52" ht="16" customHeight="1">
-      <c r="D110" s="40" t="s">
+      <c r="D110" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="F110" s="34" t="s">
+      <c r="F110" s="33" t="s">
         <v>143</v>
       </c>
       <c r="G110" s="5" t="s">
@@ -6869,7 +7066,7 @@
       </c>
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
-      <c r="J110" s="35"/>
+      <c r="J110" s="34"/>
       <c r="M110" s="5" t="s">
         <v>140</v>
       </c>
@@ -6877,23 +7074,23 @@
       <c r="X110" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y110" s="87" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z110" s="34"/>
-      <c r="AA110" s="96" t="s">
+      <c r="Y110" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z110" s="33"/>
+      <c r="AA110" s="100" t="s">
         <v>197</v>
       </c>
-      <c r="AB110" s="96"/>
-      <c r="AC110" s="96"/>
-      <c r="AD110" s="96"/>
-      <c r="AE110" s="35"/>
-      <c r="AF110" s="87"/>
+      <c r="AB110" s="100"/>
+      <c r="AC110" s="100"/>
+      <c r="AD110" s="100"/>
+      <c r="AE110" s="34"/>
+      <c r="AF110" s="86"/>
       <c r="AH110" t="s">
         <v>194</v>
       </c>
-      <c r="AS110" s="34"/>
-      <c r="AT110" s="79"/>
+      <c r="AS110" s="33"/>
+      <c r="AT110" s="78"/>
       <c r="AU110" s="5" t="s">
         <v>246</v>
       </c>
@@ -6901,16 +7098,16 @@
       <c r="AW110" s="5"/>
       <c r="AX110" s="5"/>
       <c r="AY110" s="5"/>
-      <c r="AZ110" s="35"/>
+      <c r="AZ110" s="34"/>
     </row>
     <row r="111" spans="4:52" ht="16" customHeight="1">
-      <c r="F111" s="34"/>
+      <c r="F111" s="33"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5" t="s">
         <v>115</v>
       </c>
       <c r="I111" s="5"/>
-      <c r="J111" s="35"/>
+      <c r="J111" s="34"/>
       <c r="M111" s="5" t="s">
         <v>140</v>
       </c>
@@ -6918,36 +7115,36 @@
       <c r="X111" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y111" s="91" t="s">
+      <c r="Y111" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="Z111" s="34"/>
-      <c r="AA111" s="96"/>
-      <c r="AB111" s="96"/>
-      <c r="AC111" s="96"/>
-      <c r="AD111" s="96"/>
-      <c r="AE111" s="35"/>
+      <c r="Z111" s="33"/>
+      <c r="AA111" s="100"/>
+      <c r="AB111" s="100"/>
+      <c r="AC111" s="100"/>
+      <c r="AD111" s="100"/>
+      <c r="AE111" s="34"/>
       <c r="AF111" s="5"/>
       <c r="AI111" t="s">
         <v>196</v>
       </c>
-      <c r="AS111" s="34"/>
+      <c r="AS111" s="33"/>
       <c r="AT111" s="5"/>
       <c r="AU111" s="5"/>
       <c r="AV111" s="5"/>
       <c r="AW111" s="5"/>
       <c r="AX111" s="5"/>
       <c r="AY111" s="5"/>
-      <c r="AZ111" s="35"/>
+      <c r="AZ111" s="34"/>
     </row>
     <row r="112" spans="4:52" ht="16" customHeight="1">
-      <c r="F112" s="34"/>
+      <c r="F112" s="33"/>
       <c r="G112" s="5"/>
       <c r="H112" s="5" t="s">
         <v>116</v>
       </c>
       <c r="I112" s="5"/>
-      <c r="J112" s="35"/>
+      <c r="J112" s="34"/>
       <c r="M112" s="5" t="s">
         <v>140</v>
       </c>
@@ -6955,32 +7152,32 @@
       <c r="X112" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Z112" s="34"/>
+      <c r="Z112" s="33"/>
       <c r="AA112" s="5" t="s">
         <v>198</v>
       </c>
       <c r="AB112" s="5"/>
       <c r="AC112" s="5"/>
       <c r="AD112" s="5"/>
-      <c r="AE112" s="35"/>
-      <c r="AF112" s="86"/>
-      <c r="AS112" s="34"/>
+      <c r="AE112" s="34"/>
+      <c r="AF112" s="85"/>
+      <c r="AS112" s="33"/>
       <c r="AT112" s="5"/>
       <c r="AU112" s="5"/>
       <c r="AV112" s="5"/>
       <c r="AW112" s="5"/>
       <c r="AX112" s="5"/>
       <c r="AY112" s="5"/>
-      <c r="AZ112" s="35"/>
+      <c r="AZ112" s="34"/>
     </row>
     <row r="113" spans="6:52" ht="16" customHeight="1">
-      <c r="F113" s="36"/>
-      <c r="G113" s="37"/>
-      <c r="H113" s="37" t="s">
+      <c r="F113" s="35"/>
+      <c r="G113" s="36"/>
+      <c r="H113" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="I113" s="37"/>
-      <c r="J113" s="38"/>
+      <c r="I113" s="36"/>
+      <c r="J113" s="37"/>
       <c r="M113" s="5" t="s">
         <v>140</v>
       </c>
@@ -6988,31 +7185,31 @@
       <c r="X113" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Z113" s="36"/>
-      <c r="AA113" s="89" t="s">
+      <c r="Z113" s="35"/>
+      <c r="AA113" s="88" t="s">
         <v>215</v>
       </c>
-      <c r="AB113" s="37"/>
-      <c r="AC113" s="37"/>
-      <c r="AD113" s="37"/>
-      <c r="AE113" s="38"/>
-      <c r="AS113" s="34"/>
+      <c r="AB113" s="36"/>
+      <c r="AC113" s="36"/>
+      <c r="AD113" s="36"/>
+      <c r="AE113" s="37"/>
+      <c r="AS113" s="33"/>
       <c r="AT113" s="5"/>
       <c r="AU113" s="5"/>
       <c r="AV113" s="5"/>
       <c r="AW113" s="5"/>
       <c r="AX113" s="5"/>
       <c r="AY113" s="5"/>
-      <c r="AZ113" s="35"/>
+      <c r="AZ113" s="34"/>
     </row>
     <row r="114" spans="6:52" ht="16" customHeight="1">
-      <c r="H114" s="79" t="s">
+      <c r="H114" s="78" t="s">
         <v>219</v>
       </c>
-      <c r="M114" s="40" t="s">
+      <c r="M114" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="N114" s="40"/>
+      <c r="N114" s="39"/>
       <c r="P114" t="s">
         <v>230</v>
       </c>
@@ -7022,16 +7219,16 @@
       <c r="AH114" t="s">
         <v>195</v>
       </c>
-      <c r="AS114" s="36"/>
-      <c r="AT114" s="81" t="s">
+      <c r="AS114" s="35"/>
+      <c r="AT114" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="AU114" s="37"/>
-      <c r="AV114" s="37"/>
-      <c r="AW114" s="37"/>
-      <c r="AX114" s="37"/>
-      <c r="AY114" s="37"/>
-      <c r="AZ114" s="38"/>
+      <c r="AU114" s="36"/>
+      <c r="AV114" s="36"/>
+      <c r="AW114" s="36"/>
+      <c r="AX114" s="36"/>
+      <c r="AY114" s="36"/>
+      <c r="AZ114" s="37"/>
     </row>
     <row r="115" spans="6:52" ht="16" customHeight="1">
       <c r="Q115" t="s">
@@ -7045,14 +7242,14 @@
       </c>
     </row>
     <row r="116" spans="6:52" ht="16" customHeight="1">
-      <c r="Z116" s="54" t="s">
+      <c r="Z116" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="AA116" s="55"/>
-      <c r="AB116" s="55"/>
-      <c r="AC116" s="55"/>
-      <c r="AD116" s="55"/>
-      <c r="AE116" s="56"/>
+      <c r="AA116" s="54"/>
+      <c r="AB116" s="54"/>
+      <c r="AC116" s="54"/>
+      <c r="AD116" s="54"/>
+      <c r="AE116" s="55"/>
       <c r="AF116" t="s">
         <v>248</v>
       </c>
@@ -7061,84 +7258,84 @@
       </c>
     </row>
     <row r="117" spans="6:52" ht="16" customHeight="1">
-      <c r="Z117" s="34"/>
+      <c r="Z117" s="33"/>
       <c r="AA117" s="5" t="s">
         <v>206</v>
       </c>
       <c r="AB117" s="5"/>
       <c r="AC117" s="5"/>
       <c r="AD117" s="5"/>
-      <c r="AE117" s="35"/>
+      <c r="AE117" s="34"/>
     </row>
     <row r="118" spans="6:52" ht="16" customHeight="1">
-      <c r="Z118" s="34"/>
+      <c r="Z118" s="33"/>
       <c r="AA118" s="5"/>
-      <c r="AB118" s="90" t="s">
+      <c r="AB118" s="89" t="s">
         <v>212</v>
       </c>
       <c r="AC118" s="5"/>
       <c r="AD118" s="5"/>
-      <c r="AE118" s="35"/>
+      <c r="AE118" s="34"/>
     </row>
     <row r="119" spans="6:52" ht="16" customHeight="1">
-      <c r="Z119" s="34"/>
+      <c r="Z119" s="33"/>
       <c r="AA119" s="5" t="s">
         <v>207</v>
       </c>
       <c r="AB119" s="5"/>
       <c r="AC119" s="5"/>
       <c r="AD119" s="5"/>
-      <c r="AE119" s="35"/>
+      <c r="AE119" s="34"/>
     </row>
     <row r="120" spans="6:52" ht="16" customHeight="1">
-      <c r="Z120" s="34"/>
+      <c r="Z120" s="33"/>
       <c r="AA120" s="5"/>
       <c r="AB120" s="5" t="s">
         <v>208</v>
       </c>
       <c r="AC120" s="5"/>
       <c r="AD120" s="5"/>
-      <c r="AE120" s="35"/>
+      <c r="AE120" s="34"/>
     </row>
     <row r="121" spans="6:52" ht="16" customHeight="1">
-      <c r="Z121" s="34"/>
+      <c r="Z121" s="33"/>
       <c r="AA121" s="5" t="s">
         <v>209</v>
       </c>
       <c r="AB121" s="5"/>
       <c r="AC121" s="5"/>
       <c r="AD121" s="5"/>
-      <c r="AE121" s="35"/>
+      <c r="AE121" s="34"/>
     </row>
     <row r="122" spans="6:52" ht="16" customHeight="1">
-      <c r="Z122" s="34"/>
+      <c r="Z122" s="33"/>
       <c r="AA122" s="5"/>
       <c r="AB122" s="5" t="s">
         <v>210</v>
       </c>
       <c r="AC122" s="5"/>
       <c r="AD122" s="5"/>
-      <c r="AE122" s="35"/>
-      <c r="AS122" s="54" t="s">
+      <c r="AE122" s="34"/>
+      <c r="AS122" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="AT122" s="55"/>
-      <c r="AU122" s="55"/>
-      <c r="AV122" s="55"/>
-      <c r="AW122" s="55"/>
-      <c r="AX122" s="55"/>
-      <c r="AY122" s="55"/>
-      <c r="AZ122" s="56"/>
+      <c r="AT122" s="54"/>
+      <c r="AU122" s="54"/>
+      <c r="AV122" s="54"/>
+      <c r="AW122" s="54"/>
+      <c r="AX122" s="54"/>
+      <c r="AY122" s="54"/>
+      <c r="AZ122" s="55"/>
     </row>
     <row r="123" spans="6:52" ht="16" customHeight="1">
-      <c r="Z123" s="34"/>
+      <c r="Z123" s="33"/>
       <c r="AA123" s="5"/>
       <c r="AB123" s="5"/>
       <c r="AC123" s="5"/>
       <c r="AD123" s="5"/>
-      <c r="AE123" s="35"/>
-      <c r="AS123" s="34"/>
-      <c r="AT123" s="79" t="s">
+      <c r="AE123" s="34"/>
+      <c r="AS123" s="33"/>
+      <c r="AT123" s="78" t="s">
         <v>134</v>
       </c>
       <c r="AU123" s="5"/>
@@ -7146,19 +7343,19 @@
       <c r="AW123" s="5"/>
       <c r="AX123" s="5"/>
       <c r="AY123" s="5"/>
-      <c r="AZ123" s="35"/>
+      <c r="AZ123" s="34"/>
     </row>
     <row r="124" spans="6:52" ht="16" customHeight="1">
-      <c r="Z124" s="36"/>
-      <c r="AA124" s="89" t="s">
+      <c r="Z124" s="35"/>
+      <c r="AA124" s="88" t="s">
         <v>211</v>
       </c>
-      <c r="AB124" s="37"/>
-      <c r="AC124" s="37"/>
-      <c r="AD124" s="37"/>
-      <c r="AE124" s="38"/>
-      <c r="AS124" s="34"/>
-      <c r="AT124" s="79" t="s">
+      <c r="AB124" s="36"/>
+      <c r="AC124" s="36"/>
+      <c r="AD124" s="36"/>
+      <c r="AE124" s="37"/>
+      <c r="AS124" s="33"/>
+      <c r="AT124" s="78" t="s">
         <v>166</v>
       </c>
       <c r="AU124" s="5"/>
@@ -7166,42 +7363,42 @@
       <c r="AW124" s="5"/>
       <c r="AX124" s="5"/>
       <c r="AY124" s="5"/>
-      <c r="AZ124" s="35"/>
+      <c r="AZ124" s="34"/>
     </row>
     <row r="125" spans="6:52" ht="16" customHeight="1">
-      <c r="AS125" s="34"/>
+      <c r="AS125" s="33"/>
       <c r="AT125" s="5"/>
       <c r="AU125" s="5"/>
       <c r="AV125" s="5"/>
       <c r="AW125" s="5"/>
       <c r="AX125" s="5"/>
       <c r="AY125" s="5"/>
-      <c r="AZ125" s="35"/>
+      <c r="AZ125" s="34"/>
     </row>
     <row r="126" spans="6:52" ht="16" customHeight="1">
-      <c r="AS126" s="34"/>
+      <c r="AS126" s="33"/>
       <c r="AT126" s="5"/>
       <c r="AU126" s="5"/>
       <c r="AV126" s="5"/>
       <c r="AW126" s="5"/>
       <c r="AX126" s="5"/>
       <c r="AY126" s="5"/>
-      <c r="AZ126" s="35"/>
+      <c r="AZ126" s="34"/>
     </row>
     <row r="127" spans="6:52" ht="16" customHeight="1">
       <c r="Z127" t="s">
         <v>213</v>
       </c>
-      <c r="AS127" s="36"/>
-      <c r="AT127" s="81" t="s">
+      <c r="AS127" s="35"/>
+      <c r="AT127" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="AU127" s="37"/>
-      <c r="AV127" s="37"/>
-      <c r="AW127" s="37"/>
-      <c r="AX127" s="37"/>
-      <c r="AY127" s="37"/>
-      <c r="AZ127" s="38"/>
+      <c r="AU127" s="36"/>
+      <c r="AV127" s="36"/>
+      <c r="AW127" s="36"/>
+      <c r="AX127" s="36"/>
+      <c r="AY127" s="36"/>
+      <c r="AZ127" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -7248,17 +7445,17 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="68" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="68" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="E8" s="69" t="s">
+      <c r="E8" s="68" t="s">
         <v>258</v>
       </c>
     </row>
@@ -7280,28 +7477,253 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843CCFF2-E7E0-4D58-A224-217E343662E1}">
-  <dimension ref="A3:B5"/>
+  <dimension ref="A3:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="73.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="96"/>
+    <col min="2" max="5" width="52.33203125" style="96" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" style="96" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="96"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2">
-      <c r="A3" s="13">
+    <row r="3" spans="1:5" ht="38">
+      <c r="A3" s="97">
         <v>43883</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="96" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="B5" t="s">
+    <row r="5" spans="1:5" ht="38">
+      <c r="B5" s="96" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="97">
+        <v>43912</v>
+      </c>
+      <c r="B7" s="98" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="57">
+      <c r="B8" s="96" t="s">
+        <v>289</v>
+      </c>
+      <c r="C8" s="96" t="s">
+        <v>264</v>
+      </c>
+      <c r="D8" s="96" t="s">
+        <v>293</v>
+      </c>
+      <c r="E8" s="96" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="57">
+      <c r="B9" s="96" t="s">
+        <v>290</v>
+      </c>
+      <c r="C9" s="96" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="96" t="s">
+        <v>291</v>
+      </c>
+      <c r="E9" s="96" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="57">
+      <c r="B10" s="96" t="s">
+        <v>295</v>
+      </c>
+      <c r="C10" s="96" t="s">
+        <v>286</v>
+      </c>
+      <c r="D10" s="96" t="s">
+        <v>296</v>
+      </c>
+      <c r="E10" s="96" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="57">
+      <c r="B11" s="96" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11" s="96" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11" s="96" t="s">
+        <v>300</v>
+      </c>
+      <c r="E11" s="96" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21">
+      <c r="B12" s="99" t="s">
+        <v>284</v>
+      </c>
+      <c r="C12" s="99" t="s">
+        <v>284</v>
+      </c>
+      <c r="D12" s="99" t="s">
+        <v>284</v>
+      </c>
+      <c r="E12" s="99" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="98" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="57">
+      <c r="B14" s="96" t="s">
+        <v>302</v>
+      </c>
+      <c r="C14" s="96" t="s">
+        <v>273</v>
+      </c>
+      <c r="D14" s="96" t="s">
+        <v>303</v>
+      </c>
+      <c r="E14" s="96" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="57">
+      <c r="B15" s="96" t="s">
+        <v>305</v>
+      </c>
+      <c r="C15" s="96" t="s">
+        <v>277</v>
+      </c>
+      <c r="D15" s="96" t="s">
+        <v>306</v>
+      </c>
+      <c r="E15" s="96" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="97">
+        <v>43911</v>
+      </c>
+      <c r="B19" s="98" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="57">
+      <c r="B20" s="96" t="s">
+        <v>263</v>
+      </c>
+      <c r="C20" s="96" t="s">
+        <v>264</v>
+      </c>
+      <c r="D20" s="96" t="s">
+        <v>265</v>
+      </c>
+      <c r="E20" s="96" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="95">
+      <c r="B21" s="96" t="s">
+        <v>267</v>
+      </c>
+      <c r="C21" s="96" t="s">
+        <v>268</v>
+      </c>
+      <c r="D21" s="96" t="s">
+        <v>269</v>
+      </c>
+      <c r="E21" s="96" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="95">
+      <c r="B22" s="96" t="s">
+        <v>285</v>
+      </c>
+      <c r="C22" s="96" t="s">
+        <v>286</v>
+      </c>
+      <c r="D22" s="96" t="s">
+        <v>287</v>
+      </c>
+      <c r="E22" s="96" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21">
+      <c r="B23" s="99" t="s">
+        <v>284</v>
+      </c>
+      <c r="C23" s="99" t="s">
+        <v>284</v>
+      </c>
+      <c r="D23" s="99" t="s">
+        <v>284</v>
+      </c>
+      <c r="E23" s="99" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="95">
+      <c r="B24" s="96" t="s">
+        <v>280</v>
+      </c>
+      <c r="C24" s="96" t="s">
+        <v>281</v>
+      </c>
+      <c r="D24" s="96" t="s">
+        <v>282</v>
+      </c>
+      <c r="E24" s="96" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" s="98" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="57">
+      <c r="B26" s="96" t="s">
+        <v>272</v>
+      </c>
+      <c r="C26" s="96" t="s">
+        <v>273</v>
+      </c>
+      <c r="D26" s="96" t="s">
+        <v>274</v>
+      </c>
+      <c r="E26" s="96" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="95">
+      <c r="B27" s="96" t="s">
+        <v>276</v>
+      </c>
+      <c r="C27" s="96" t="s">
+        <v>277</v>
+      </c>
+      <c r="D27" s="96" t="s">
+        <v>278</v>
+      </c>
+      <c r="E27" s="96" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/maraSonSouce/marasong_memo.xlsx
+++ b/maraSonSouce/marasong_memo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hqu666/Documents/Develop/an/workSpace/maraSong/maraSonSouce/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB94A1D0-7A7C-194E-9EB1-E1EFD0B4D3EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1137D313-AA00-8F4C-9DF1-0F62D8C09E8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8280" yWindow="-18080" windowWidth="26760" windowHeight="17940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="336">
   <si>
     <t>MuList</t>
   </si>
@@ -1789,12 +1789,313 @@
     <t>E/addMusicToPlaylist: java.lang.SecurityException: com.hijiyam_koubou.marasongs has no access to content://media/external_primary/audio/media/4319</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>cContext=com.hijiyam_koubou.marasongs.MuList@1ec2efbならOK</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>cContext=com.hijiyam_koubou.marasongs.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック (本文)"/>
+      </rPr>
+      <t>ZenkyokuList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@6013445,  cContext=android.app.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック (本文)"/>
+      </rPr>
+      <t>Application</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@e7caee2  cContext=android.app.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック (本文)"/>
+      </rPr>
+      <t>ContextImpl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@244134,だと</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>result_uri=content://media/external_primary/audio/playlists/18140/members/505&gt;remark&gt;2分割&gt;&gt;,commentStr=The Beatles,Magical Mystery Tour [2009 Stereo Remaster]2分割&gt;&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>E/addMusicToPlaylist: [MusicPlaylist]cContext=com.hijiyam_koubou.marasongs.ZenkyokuList@5249d1d,playlist_id=18140[audio_id=1256]</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>追加する曲=/storage/emulated/0/Music/Guns N' Roses/Appetite For Destruction/08 Think About You.m4a、</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>次は293曲目,SDK_INT= 29=Pai,uri= content://media/external_primary/audio/playlists/18140/members,contentvalues( _id=294 audio_id=1256 play_order=294 )で</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>java.lang.SecurityException: com.hijiyam_koubou.marasongs has no access to content://media/external_primary/audio/media/1256</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>W/CreateZenkyokuBody: [ZenkyokuList]807: 1644/4194曲目14項目,0)_id = 1256,1)AUDIO_ID = 15668,2)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SORT_NAME = GUNS N% ROSES,3)ARTIST = Guns N' Roses,4)ALBUM_ARTIST = Guns N' Roses,5)ALBUM = Appetite For Destruction,6)TRACK = 1008,7)TITLE = Think About You,8)DURATION = 231689,9)YEAR = 1987,10)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>DATA = /storage/emulated/0/Music/Guns N' Roses/Appetite For Destruction/08 Think About You.m4a,11)MODIFIED = 1569151325,12)COMPOSER = ,13)LAST_YEAR = 1987&gt;&gt;result_uri=null</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>W/addMusicToPlaylist: [MusicPlaylist]cContext=com.hijiyam_koubou.marasongs.MuList@1ec2efb,playlist_id=18140[audio_id=15668]</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>result_uri=content://media/external_primary/audio/playlists/18140/members/1645&gt;&gt;成功list_id=18140, audio_id=15668,result_uri= content://media/external_primary/audio/playlists/18140/members/1645</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>W/m3U2PlayList_body: [MuList]18140に(1645曲目),</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>result_uri=content://media/external_primary/audio/playlists/18140/members/1645&gt;remark&gt;2分割&gt;&gt;,commentStr=Guns N' Roses,Appetite For Destruction2分割&gt;&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>rURL=Think About You,/storage/emulated/0/Music/Guns N' Roses/Appetite For Destruction/08 Think About You.m4a#Guns N' Roses,Appetite For Destruction,extntionStr=.m4a2 で分割&gt;&gt;:</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">次は293曲目,SDK_INT= 29=Pai,uri= content://media/external_primary/audio/playlists/18140/members,contentvalues( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック (本文)"/>
+      </rPr>
+      <t>_id=294</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="游ゴシック (本文)"/>
+      </rPr>
+      <t>audio_id=1256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> play_order=294 )で</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>E/addMusicToPlaylist: [MusicPlaylist]cContext=com.hijiyam_koubou.marasongs.ZenkyokuList@62f024d,playlist_id=18140[audio_id=1256]</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>W/CreateZenkyokuBody: [ZenkyokuList]807: 1644/4194曲目14項目,0)_id = 1256,audio_id=1256,1)AUDIO_ID = 15668,2)S</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ORT_NAME = GUNS N% ROSES,3)ARTIST = Guns N' Roses,4)ALBUM_ARTIST = Guns N' Roses,5)ALBUM = Appetite For Destruction,6)TRACK = 1008,7)TITLE = Think About You,8)DURATION = 231689,9)YEAR = 1987,10)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>DATA = /storage/emulated/0/Music/Guns N' Roses/Appetite For Destruction/08 Think About You.m4a,</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>11)MODIFIED = 1569151325,12)COMPOSER = ,13)LAST_YEAR = 1987&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="游ゴシック (本文)"/>
+      </rPr>
+      <t>audio_id&gt;1256</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;&gt;result_uri=null</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">次は1644曲目,SDK_INT= 29=Pai,uri= content://media/external_primary/audio/playlists/18140/members,contentvalues( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック (本文)"/>
+      </rPr>
+      <t>_id=1645</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="游ゴシック (本文)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="游ゴシック (本文)"/>
+      </rPr>
+      <t>audio_id=15668</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> play_order=1645 ),</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>::rURL= /storage/emulated/0/Music/Guns N' Roses/Appetite For Destruction/08 Think About You.m4a,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="游ゴシック (本文)"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="游ゴシック (本文)"/>
+      </rPr>
+      <t>udio_id=15668</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;&gt;</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>W/kaliListBody: 1256/4540/storage/emulated/0/Music/Guns N' Roses/Appetite For Destruction/08 Think About You.m4a</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>album_artist=Guns N' Roses、credit_artist=Guns N' Roses、Appetite For Destruction , albumMei =Appetite For Destruction ,[MediaStoreのTRACK=1008]&gt;&gt;1008]</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Think About You,YEAR=1987 , 追加日=1569219656 , 更新日=1569151325、最新更新日付=1581403320&gt;&gt;inDir=/storage/emulated/0/Music/</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>[_ID:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="游ゴシック (本文)"/>
+      </rPr>
+      <t>15668</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>],(MediaStore.Audio.Media)クレジットアーティスト=Guns N' Roses,composer=null、sIndex(121)sort_name=GUNS N% ROSES、</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2010,6 +2311,38 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック (本文)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="游ゴシック (本文)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック (本文)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="游ゴシック (本文)"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2197,7 +2530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2396,6 +2729,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2497,6 +2831,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3154,68 +3497,68 @@
   </cols>
   <sheetData>
     <row r="2" spans="16:52" ht="16" customHeight="1">
-      <c r="P2" s="124" t="s">
+      <c r="P2" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
-      <c r="Z2" s="125"/>
-      <c r="AA2" s="125"/>
-      <c r="AB2" s="125"/>
-      <c r="AC2" s="125"/>
-      <c r="AD2" s="125"/>
-      <c r="AE2" s="125"/>
-      <c r="AF2" s="125"/>
-      <c r="AG2" s="125"/>
-      <c r="AH2" s="125"/>
-      <c r="AI2" s="125"/>
-      <c r="AJ2" s="125"/>
-      <c r="AK2" s="125"/>
-      <c r="AL2" s="125"/>
-      <c r="AM2" s="125"/>
-      <c r="AN2" s="125"/>
-      <c r="AO2" s="125"/>
-      <c r="AP2" s="125"/>
-      <c r="AQ2" s="125"/>
-      <c r="AR2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="126"/>
+      <c r="U2" s="126"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="126"/>
+      <c r="X2" s="126"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="126"/>
+      <c r="AA2" s="126"/>
+      <c r="AB2" s="126"/>
+      <c r="AC2" s="126"/>
+      <c r="AD2" s="126"/>
+      <c r="AE2" s="126"/>
+      <c r="AF2" s="126"/>
+      <c r="AG2" s="126"/>
+      <c r="AH2" s="126"/>
+      <c r="AI2" s="126"/>
+      <c r="AJ2" s="126"/>
+      <c r="AK2" s="126"/>
+      <c r="AL2" s="126"/>
+      <c r="AM2" s="126"/>
+      <c r="AN2" s="126"/>
+      <c r="AO2" s="126"/>
+      <c r="AP2" s="126"/>
+      <c r="AQ2" s="126"/>
+      <c r="AR2" s="127"/>
     </row>
     <row r="3" spans="16:52" ht="16" customHeight="1">
-      <c r="P3" s="127"/>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="106"/>
-      <c r="S3" s="106"/>
-      <c r="T3" s="106"/>
-      <c r="U3" s="106"/>
-      <c r="V3" s="106"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="106"/>
-      <c r="Z3" s="106"/>
-      <c r="AA3" s="106"/>
-      <c r="AB3" s="106"/>
-      <c r="AC3" s="106"/>
-      <c r="AD3" s="106"/>
-      <c r="AE3" s="106"/>
-      <c r="AF3" s="106"/>
-      <c r="AG3" s="106"/>
-      <c r="AH3" s="106"/>
-      <c r="AI3" s="106"/>
-      <c r="AJ3" s="106"/>
-      <c r="AK3" s="106"/>
-      <c r="AL3" s="106"/>
-      <c r="AM3" s="106"/>
-      <c r="AN3" s="106"/>
-      <c r="AO3" s="106"/>
-      <c r="AP3" s="106"/>
-      <c r="AQ3" s="106"/>
-      <c r="AR3" s="128"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="107"/>
+      <c r="Y3" s="107"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="107"/>
+      <c r="AB3" s="107"/>
+      <c r="AC3" s="107"/>
+      <c r="AD3" s="107"/>
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="107"/>
+      <c r="AG3" s="107"/>
+      <c r="AH3" s="107"/>
+      <c r="AI3" s="107"/>
+      <c r="AJ3" s="107"/>
+      <c r="AK3" s="107"/>
+      <c r="AL3" s="107"/>
+      <c r="AM3" s="107"/>
+      <c r="AN3" s="107"/>
+      <c r="AO3" s="107"/>
+      <c r="AP3" s="107"/>
+      <c r="AQ3" s="107"/>
+      <c r="AR3" s="129"/>
     </row>
     <row r="4" spans="16:52" ht="16" customHeight="1">
       <c r="P4" s="4"/>
@@ -3250,13 +3593,13 @@
     </row>
     <row r="5" spans="16:52" ht="16" customHeight="1">
       <c r="P5" s="4"/>
-      <c r="Q5" s="109" t="s">
+      <c r="Q5" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="R5" s="110"/>
-      <c r="S5" s="110"/>
-      <c r="T5" s="110"/>
-      <c r="U5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="111"/>
+      <c r="T5" s="111"/>
+      <c r="U5" s="112"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
@@ -3327,16 +3670,16 @@
       <c r="AD7" s="5"/>
       <c r="AE7" s="6"/>
       <c r="AF7" s="5"/>
-      <c r="AH7" s="130" t="s">
+      <c r="AH7" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="AI7" s="131"/>
-      <c r="AJ7" s="131"/>
-      <c r="AK7" s="131"/>
-      <c r="AL7" s="131"/>
-      <c r="AM7" s="131"/>
-      <c r="AN7" s="131"/>
-      <c r="AO7" s="132"/>
+      <c r="AI7" s="132"/>
+      <c r="AJ7" s="132"/>
+      <c r="AK7" s="132"/>
+      <c r="AL7" s="132"/>
+      <c r="AM7" s="132"/>
+      <c r="AN7" s="132"/>
+      <c r="AO7" s="133"/>
       <c r="AP7" s="21"/>
       <c r="AQ7" s="21"/>
       <c r="AR7" s="5"/>
@@ -3375,15 +3718,15 @@
       <c r="AP8" s="5"/>
       <c r="AQ8" s="5"/>
       <c r="AR8" s="5"/>
-      <c r="AT8" s="124" t="s">
+      <c r="AT8" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="AU8" s="125"/>
-      <c r="AV8" s="125"/>
-      <c r="AW8" s="125"/>
-      <c r="AX8" s="125"/>
-      <c r="AY8" s="125"/>
-      <c r="AZ8" s="126"/>
+      <c r="AU8" s="126"/>
+      <c r="AV8" s="126"/>
+      <c r="AW8" s="126"/>
+      <c r="AX8" s="126"/>
+      <c r="AY8" s="126"/>
+      <c r="AZ8" s="127"/>
     </row>
     <row r="9" spans="16:52" ht="16" customHeight="1">
       <c r="P9" s="4"/>
@@ -3418,22 +3761,22 @@
       <c r="AP9" s="5"/>
       <c r="AQ9" s="5"/>
       <c r="AR9" s="5"/>
-      <c r="AT9" s="127"/>
-      <c r="AU9" s="106"/>
-      <c r="AV9" s="106"/>
-      <c r="AW9" s="106"/>
-      <c r="AX9" s="106"/>
-      <c r="AY9" s="106"/>
-      <c r="AZ9" s="128"/>
+      <c r="AT9" s="128"/>
+      <c r="AU9" s="107"/>
+      <c r="AV9" s="107"/>
+      <c r="AW9" s="107"/>
+      <c r="AX9" s="107"/>
+      <c r="AY9" s="107"/>
+      <c r="AZ9" s="129"/>
     </row>
     <row r="10" spans="16:52" ht="16" customHeight="1">
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
-      <c r="R10" s="133" t="s">
+      <c r="R10" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="S10" s="133"/>
-      <c r="T10" s="133"/>
+      <c r="S10" s="134"/>
+      <c r="T10" s="134"/>
       <c r="U10" s="25"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
@@ -3460,9 +3803,9 @@
     <row r="11" spans="16:52" ht="16" customHeight="1">
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="133"/>
-      <c r="S11" s="133"/>
-      <c r="T11" s="133"/>
+      <c r="R11" s="134"/>
+      <c r="S11" s="134"/>
+      <c r="T11" s="134"/>
       <c r="U11" s="25"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
@@ -3490,13 +3833,13 @@
       <c r="AQ11" s="5"/>
       <c r="AR11" s="5"/>
       <c r="AT11" s="4"/>
-      <c r="AU11" s="109" t="s">
+      <c r="AU11" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="AV11" s="110"/>
-      <c r="AW11" s="110"/>
-      <c r="AX11" s="110"/>
-      <c r="AY11" s="111"/>
+      <c r="AV11" s="111"/>
+      <c r="AW11" s="111"/>
+      <c r="AX11" s="111"/>
+      <c r="AY11" s="112"/>
       <c r="AZ11" s="6"/>
     </row>
     <row r="12" spans="16:52" ht="16" customHeight="1">
@@ -3741,15 +4084,15 @@
       <c r="AP17" s="5"/>
       <c r="AQ17" s="5"/>
       <c r="AR17" s="18"/>
-      <c r="AT17" s="124" t="s">
+      <c r="AT17" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="AU17" s="125"/>
-      <c r="AV17" s="125"/>
-      <c r="AW17" s="125"/>
-      <c r="AX17" s="125"/>
-      <c r="AY17" s="125"/>
-      <c r="AZ17" s="126"/>
+      <c r="AU17" s="126"/>
+      <c r="AV17" s="126"/>
+      <c r="AW17" s="126"/>
+      <c r="AX17" s="126"/>
+      <c r="AY17" s="126"/>
+      <c r="AZ17" s="127"/>
     </row>
     <row r="18" spans="3:52" ht="16" customHeight="1">
       <c r="P18" s="4"/>
@@ -3779,13 +4122,13 @@
       <c r="AP18" s="18"/>
       <c r="AQ18" s="18"/>
       <c r="AR18" s="5"/>
-      <c r="AT18" s="127"/>
-      <c r="AU18" s="106"/>
-      <c r="AV18" s="106"/>
-      <c r="AW18" s="106"/>
-      <c r="AX18" s="106"/>
-      <c r="AY18" s="106"/>
-      <c r="AZ18" s="128"/>
+      <c r="AT18" s="128"/>
+      <c r="AU18" s="107"/>
+      <c r="AV18" s="107"/>
+      <c r="AW18" s="107"/>
+      <c r="AX18" s="107"/>
+      <c r="AY18" s="107"/>
+      <c r="AZ18" s="129"/>
     </row>
     <row r="19" spans="3:52" ht="16" customHeight="1">
       <c r="P19" s="4"/>
@@ -3799,14 +4142,14 @@
       </c>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
-      <c r="Z19" s="129" t="s">
+      <c r="Z19" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="AA19" s="129"/>
-      <c r="AB19" s="129"/>
-      <c r="AC19" s="129"/>
-      <c r="AD19" s="129"/>
-      <c r="AE19" s="129"/>
+      <c r="AA19" s="130"/>
+      <c r="AB19" s="130"/>
+      <c r="AC19" s="130"/>
+      <c r="AD19" s="130"/>
+      <c r="AE19" s="130"/>
       <c r="AF19" s="22"/>
       <c r="AG19" s="18"/>
       <c r="AH19" s="18"/>
@@ -3832,13 +4175,13 @@
       <c r="C20" s="58"/>
       <c r="D20" s="58"/>
       <c r="E20" s="58"/>
-      <c r="F20" s="108" t="s">
+      <c r="F20" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="108"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="109"/>
       <c r="K20" s="58"/>
       <c r="L20" s="58"/>
       <c r="P20" s="4"/>
@@ -3881,24 +4224,24 @@
       <c r="AT20" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AU20" s="109" t="s">
+      <c r="AU20" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="AV20" s="110"/>
-      <c r="AW20" s="110"/>
-      <c r="AX20" s="110"/>
-      <c r="AY20" s="111"/>
+      <c r="AV20" s="111"/>
+      <c r="AW20" s="111"/>
+      <c r="AX20" s="111"/>
+      <c r="AY20" s="112"/>
       <c r="AZ20" s="6"/>
     </row>
     <row r="21" spans="3:52" ht="16" customHeight="1">
       <c r="C21" s="58"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="108"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="109"/>
       <c r="K21" s="58"/>
       <c r="L21" s="58"/>
       <c r="P21" s="4"/>
@@ -3998,14 +4341,14 @@
       <c r="U23" s="37"/>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
-      <c r="Z23" s="112" t="s">
+      <c r="Z23" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="AA23" s="113"/>
-      <c r="AB23" s="113"/>
-      <c r="AC23" s="113"/>
-      <c r="AD23" s="113"/>
-      <c r="AE23" s="114"/>
+      <c r="AA23" s="114"/>
+      <c r="AB23" s="114"/>
+      <c r="AC23" s="114"/>
+      <c r="AD23" s="114"/>
+      <c r="AE23" s="115"/>
       <c r="AF23" s="45"/>
       <c r="AG23" s="9"/>
       <c r="AH23" s="9"/>
@@ -4079,13 +4422,13 @@
       <c r="AZ24" s="6"/>
     </row>
     <row r="25" spans="3:52" ht="16" customHeight="1">
-      <c r="F25" s="102" t="s">
+      <c r="F25" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="105"/>
       <c r="L25" s="5" t="s">
         <v>140</v>
       </c>
@@ -4138,11 +4481,11 @@
       <c r="AZ25" s="6"/>
     </row>
     <row r="26" spans="3:52" ht="16" customHeight="1">
-      <c r="F26" s="105"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="107"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="108"/>
       <c r="K26" s="58"/>
       <c r="L26" s="5" t="s">
         <v>149</v>
@@ -4449,14 +4792,14 @@
       <c r="Y35" t="s">
         <v>148</v>
       </c>
-      <c r="Z35" s="121" t="s">
+      <c r="Z35" s="122" t="s">
         <v>152</v>
       </c>
-      <c r="AA35" s="122"/>
-      <c r="AB35" s="122"/>
-      <c r="AC35" s="122"/>
-      <c r="AD35" s="122"/>
-      <c r="AE35" s="123"/>
+      <c r="AA35" s="123"/>
+      <c r="AB35" s="123"/>
+      <c r="AC35" s="123"/>
+      <c r="AD35" s="123"/>
+      <c r="AE35" s="124"/>
       <c r="AF35" s="21"/>
       <c r="AG35" t="s">
         <v>45</v>
@@ -4507,16 +4850,16 @@
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
       <c r="AE37" s="34"/>
-      <c r="AH37" s="101" t="s">
+      <c r="AH37" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="AI37" s="101"/>
-      <c r="AJ37" s="101"/>
-      <c r="AK37" s="101"/>
-      <c r="AL37" s="101"/>
-      <c r="AM37" s="101"/>
-      <c r="AN37" s="101"/>
-      <c r="AO37" s="101"/>
+      <c r="AI37" s="102"/>
+      <c r="AJ37" s="102"/>
+      <c r="AK37" s="102"/>
+      <c r="AL37" s="102"/>
+      <c r="AM37" s="102"/>
+      <c r="AN37" s="102"/>
+      <c r="AO37" s="102"/>
       <c r="AP37" s="26"/>
       <c r="AQ37" s="27"/>
       <c r="AR37" s="5" t="s">
@@ -4726,13 +5069,13 @@
       </c>
     </row>
     <row r="47" spans="6:52" ht="16" customHeight="1">
-      <c r="F47" s="115" t="s">
+      <c r="F47" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="G47" s="116"/>
-      <c r="H47" s="116"/>
-      <c r="I47" s="116"/>
-      <c r="J47" s="117"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="117"/>
+      <c r="I47" s="117"/>
+      <c r="J47" s="118"/>
       <c r="Q47" s="35"/>
       <c r="R47" s="36"/>
       <c r="S47" s="36"/>
@@ -4755,11 +5098,11 @@
       </c>
     </row>
     <row r="48" spans="6:52" ht="16" customHeight="1">
-      <c r="F48" s="118"/>
-      <c r="G48" s="119"/>
-      <c r="H48" s="119"/>
-      <c r="I48" s="119"/>
-      <c r="J48" s="120"/>
+      <c r="F48" s="119"/>
+      <c r="G48" s="120"/>
+      <c r="H48" s="120"/>
+      <c r="I48" s="120"/>
+      <c r="J48" s="121"/>
       <c r="W48" s="5" t="s">
         <v>134</v>
       </c>
@@ -4915,16 +5258,16 @@
       <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
       <c r="AE53" s="34"/>
-      <c r="AH53" s="101" t="s">
+      <c r="AH53" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="AI53" s="101"/>
-      <c r="AJ53" s="101"/>
-      <c r="AK53" s="101"/>
-      <c r="AL53" s="101"/>
-      <c r="AM53" s="101"/>
-      <c r="AN53" s="101"/>
-      <c r="AO53" s="101"/>
+      <c r="AI53" s="102"/>
+      <c r="AJ53" s="102"/>
+      <c r="AK53" s="102"/>
+      <c r="AL53" s="102"/>
+      <c r="AM53" s="102"/>
+      <c r="AN53" s="102"/>
+      <c r="AO53" s="102"/>
       <c r="AR53" s="5" t="s">
         <v>140</v>
       </c>
@@ -5000,16 +5343,16 @@
       <c r="AC55" s="36"/>
       <c r="AD55" s="36"/>
       <c r="AE55" s="37"/>
-      <c r="AH55" s="101" t="s">
+      <c r="AH55" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="AI55" s="101"/>
-      <c r="AJ55" s="101"/>
-      <c r="AK55" s="101"/>
-      <c r="AL55" s="101"/>
-      <c r="AM55" s="101"/>
-      <c r="AN55" s="101"/>
-      <c r="AO55" s="101"/>
+      <c r="AI55" s="102"/>
+      <c r="AJ55" s="102"/>
+      <c r="AK55" s="102"/>
+      <c r="AL55" s="102"/>
+      <c r="AM55" s="102"/>
+      <c r="AN55" s="102"/>
+      <c r="AO55" s="102"/>
       <c r="AR55" s="5" t="s">
         <v>140</v>
       </c>
@@ -5390,14 +5733,14 @@
         <v>140</v>
       </c>
       <c r="Y65" s="52"/>
-      <c r="Z65" s="101" t="s">
+      <c r="Z65" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="AA65" s="101"/>
-      <c r="AB65" s="101"/>
-      <c r="AC65" s="101"/>
-      <c r="AD65" s="101"/>
-      <c r="AE65" s="101"/>
+      <c r="AA65" s="102"/>
+      <c r="AB65" s="102"/>
+      <c r="AC65" s="102"/>
+      <c r="AD65" s="102"/>
+      <c r="AE65" s="102"/>
       <c r="AH65" s="79" t="s">
         <v>155</v>
       </c>
@@ -7078,12 +7421,12 @@
         <v>140</v>
       </c>
       <c r="Z110" s="33"/>
-      <c r="AA110" s="100" t="s">
+      <c r="AA110" s="101" t="s">
         <v>197</v>
       </c>
-      <c r="AB110" s="100"/>
-      <c r="AC110" s="100"/>
-      <c r="AD110" s="100"/>
+      <c r="AB110" s="101"/>
+      <c r="AC110" s="101"/>
+      <c r="AD110" s="101"/>
       <c r="AE110" s="34"/>
       <c r="AF110" s="86"/>
       <c r="AH110" t="s">
@@ -7119,10 +7462,10 @@
         <v>149</v>
       </c>
       <c r="Z111" s="33"/>
-      <c r="AA111" s="100"/>
-      <c r="AB111" s="100"/>
-      <c r="AC111" s="100"/>
-      <c r="AD111" s="100"/>
+      <c r="AA111" s="101"/>
+      <c r="AB111" s="101"/>
+      <c r="AC111" s="101"/>
+      <c r="AD111" s="101"/>
       <c r="AE111" s="34"/>
       <c r="AF111" s="5"/>
       <c r="AI111" t="s">
@@ -7477,10 +7820,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843CCFF2-E7E0-4D58-A224-217E343662E1}">
-  <dimension ref="A3:E27"/>
+  <dimension ref="A3:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B30" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -7505,225 +7848,336 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="97">
+      <c r="B7" s="100" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="100" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="97">
         <v>43912</v>
       </c>
-      <c r="B7" s="98" t="s">
+      <c r="B9" s="98" t="s">
         <v>308</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="57">
-      <c r="B8" s="96" t="s">
-        <v>289</v>
-      </c>
-      <c r="C8" s="96" t="s">
-        <v>264</v>
-      </c>
-      <c r="D8" s="96" t="s">
-        <v>293</v>
-      </c>
-      <c r="E8" s="96" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="57">
-      <c r="B9" s="96" t="s">
-        <v>290</v>
-      </c>
-      <c r="C9" s="96" t="s">
-        <v>268</v>
-      </c>
-      <c r="D9" s="96" t="s">
-        <v>291</v>
-      </c>
-      <c r="E9" s="96" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="57">
       <c r="B10" s="96" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C10" s="96" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D10" s="96" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E10" s="96" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="57">
       <c r="B11" s="96" t="s">
+        <v>290</v>
+      </c>
+      <c r="C11" s="96" t="s">
+        <v>268</v>
+      </c>
+      <c r="D11" s="96" t="s">
+        <v>291</v>
+      </c>
+      <c r="E11" s="96" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="57">
+      <c r="B12" s="96" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="96" t="s">
+        <v>286</v>
+      </c>
+      <c r="D12" s="96" t="s">
+        <v>296</v>
+      </c>
+      <c r="E12" s="96" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="57">
+      <c r="B13" s="96" t="s">
         <v>298</v>
       </c>
-      <c r="C11" s="96" t="s">
+      <c r="C13" s="96" t="s">
         <v>299</v>
       </c>
-      <c r="D11" s="96" t="s">
+      <c r="D13" s="96" t="s">
         <v>300</v>
       </c>
-      <c r="E11" s="96" t="s">
+      <c r="E13" s="96" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="21">
-      <c r="B12" s="99" t="s">
+    <row r="14" spans="1:5" ht="21">
+      <c r="B14" s="99" t="s">
         <v>284</v>
       </c>
-      <c r="C12" s="99" t="s">
+      <c r="C14" s="99" t="s">
         <v>284</v>
       </c>
-      <c r="D12" s="99" t="s">
+      <c r="D14" s="99" t="s">
         <v>284</v>
       </c>
-      <c r="E12" s="99" t="s">
+      <c r="E14" s="99" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="B13" s="98" t="s">
+    <row r="15" spans="1:5">
+      <c r="B15" s="98" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="57">
-      <c r="B14" s="96" t="s">
+    <row r="16" spans="1:5" ht="57">
+      <c r="B16" s="96" t="s">
         <v>302</v>
       </c>
-      <c r="C14" s="96" t="s">
+      <c r="C16" s="96" t="s">
         <v>273</v>
       </c>
-      <c r="D14" s="96" t="s">
+      <c r="D16" s="96" t="s">
         <v>303</v>
       </c>
-      <c r="E14" s="96" t="s">
+      <c r="E16" s="96" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="57">
-      <c r="B15" s="96" t="s">
+    <row r="17" spans="1:5" ht="57">
+      <c r="B17" s="96" t="s">
         <v>305</v>
       </c>
-      <c r="C15" s="96" t="s">
+      <c r="C17" s="96" t="s">
         <v>277</v>
       </c>
-      <c r="D15" s="96" t="s">
+      <c r="D17" s="96" t="s">
         <v>306</v>
       </c>
-      <c r="E15" s="96" t="s">
+      <c r="E17" s="96" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="97">
+    <row r="21" spans="1:5">
+      <c r="A21" s="97">
         <v>43911</v>
       </c>
-      <c r="B19" s="98" t="s">
+      <c r="B21" s="98" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="57">
-      <c r="B20" s="96" t="s">
+    <row r="22" spans="1:5" ht="57">
+      <c r="B22" s="96" t="s">
         <v>263</v>
       </c>
-      <c r="C20" s="96" t="s">
+      <c r="C22" s="96" t="s">
         <v>264</v>
       </c>
-      <c r="D20" s="96" t="s">
+      <c r="D22" s="96" t="s">
         <v>265</v>
       </c>
-      <c r="E20" s="96" t="s">
+      <c r="E22" s="96" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="95">
-      <c r="B21" s="96" t="s">
+    <row r="23" spans="1:5" ht="95">
+      <c r="B23" s="96" t="s">
         <v>267</v>
       </c>
-      <c r="C21" s="96" t="s">
+      <c r="C23" s="96" t="s">
         <v>268</v>
       </c>
-      <c r="D21" s="96" t="s">
+      <c r="D23" s="96" t="s">
         <v>269</v>
       </c>
-      <c r="E21" s="96" t="s">
+      <c r="E23" s="96" t="s">
         <v>270</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="95">
-      <c r="B22" s="96" t="s">
-        <v>285</v>
-      </c>
-      <c r="C22" s="96" t="s">
-        <v>286</v>
-      </c>
-      <c r="D22" s="96" t="s">
-        <v>287</v>
-      </c>
-      <c r="E22" s="96" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="21">
-      <c r="B23" s="99" t="s">
-        <v>284</v>
-      </c>
-      <c r="C23" s="99" t="s">
-        <v>284</v>
-      </c>
-      <c r="D23" s="99" t="s">
-        <v>284</v>
-      </c>
-      <c r="E23" s="99" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="95">
       <c r="B24" s="96" t="s">
+        <v>285</v>
+      </c>
+      <c r="C24" s="96" t="s">
+        <v>286</v>
+      </c>
+      <c r="D24" s="96" t="s">
+        <v>287</v>
+      </c>
+      <c r="E24" s="96" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21">
+      <c r="B25" s="99" t="s">
+        <v>284</v>
+      </c>
+      <c r="C25" s="99" t="s">
+        <v>284</v>
+      </c>
+      <c r="D25" s="99" t="s">
+        <v>284</v>
+      </c>
+      <c r="E25" s="99" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="95">
+      <c r="B26" s="96" t="s">
         <v>280</v>
       </c>
-      <c r="C24" s="96" t="s">
+      <c r="C26" s="96" t="s">
         <v>281</v>
       </c>
-      <c r="D24" s="96" t="s">
+      <c r="D26" s="96" t="s">
         <v>282</v>
       </c>
-      <c r="E24" s="96" t="s">
+      <c r="E26" s="96" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="B25" s="98" t="s">
+    <row r="27" spans="1:5">
+      <c r="B27" s="98" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="57">
-      <c r="B26" s="96" t="s">
+    <row r="28" spans="1:5" ht="57">
+      <c r="B28" s="96" t="s">
         <v>272</v>
       </c>
-      <c r="C26" s="96" t="s">
+      <c r="C28" s="96" t="s">
         <v>273</v>
       </c>
-      <c r="D26" s="96" t="s">
+      <c r="D28" s="96" t="s">
         <v>274</v>
       </c>
-      <c r="E26" s="96" t="s">
+      <c r="E28" s="96" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="95">
-      <c r="B27" s="96" t="s">
+    <row r="29" spans="1:5" ht="95">
+      <c r="B29" s="96" t="s">
         <v>276</v>
       </c>
-      <c r="C27" s="96" t="s">
+      <c r="C29" s="96" t="s">
         <v>277</v>
       </c>
-      <c r="D27" s="96" t="s">
+      <c r="D29" s="96" t="s">
         <v>278</v>
       </c>
-      <c r="E27" s="96" t="s">
+      <c r="E29" s="96" t="s">
         <v>279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="76">
+      <c r="A32" s="97">
+        <v>43917</v>
+      </c>
+      <c r="B32" s="96" t="s">
+        <v>312</v>
+      </c>
+      <c r="C32" s="96" t="s">
+        <v>313</v>
+      </c>
+      <c r="D32" s="136" t="s">
+        <v>324</v>
+      </c>
+      <c r="E32" s="135" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="76">
+      <c r="B33" s="96" t="s">
+        <v>316</v>
+      </c>
+      <c r="C33" s="96" t="s">
+        <v>317</v>
+      </c>
+      <c r="D33" s="96" t="s">
+        <v>318</v>
+      </c>
+      <c r="E33" s="96" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="76">
+      <c r="B35" s="96" t="s">
+        <v>325</v>
+      </c>
+      <c r="C35" s="96" t="s">
+        <v>313</v>
+      </c>
+      <c r="D35" s="96" t="s">
+        <v>314</v>
+      </c>
+      <c r="E35" s="137" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="76">
+      <c r="B36" s="136" t="s">
+        <v>326</v>
+      </c>
+      <c r="C36" s="96" t="s">
+        <v>327</v>
+      </c>
+      <c r="D36" s="96" t="s">
+        <v>328</v>
+      </c>
+      <c r="E36" s="96" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="57">
+      <c r="B37" s="96" t="s">
+        <v>332</v>
+      </c>
+      <c r="C37" s="96" t="s">
+        <v>335</v>
+      </c>
+      <c r="D37" s="96" t="s">
+        <v>333</v>
+      </c>
+      <c r="E37" s="96" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="95">
+      <c r="B39" s="96" t="s">
+        <v>319</v>
+      </c>
+      <c r="C39" s="96" t="s">
+        <v>313</v>
+      </c>
+      <c r="D39" s="136" t="s">
+        <v>330</v>
+      </c>
+      <c r="E39" s="96" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="76">
+      <c r="B40" s="96" t="s">
+        <v>321</v>
+      </c>
+      <c r="C40" s="96" t="s">
+        <v>323</v>
+      </c>
+      <c r="D40" s="96" t="s">
+        <v>331</v>
+      </c>
+      <c r="E40" s="96" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/maraSonSouce/marasong_memo.xlsx
+++ b/maraSonSouce/marasong_memo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hqu666/Documents/Develop/an/workSpace/maraSong/maraSonSouce/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1137D313-AA00-8F4C-9DF1-0F62D8C09E8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108DA098-6232-3B4D-A594-C21877555B5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="-18080" windowWidth="26760" windowHeight="17940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8280" yWindow="-18080" windowWidth="26760" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="起動" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="352">
   <si>
     <t>MuList</t>
   </si>
@@ -851,27 +851,6 @@
   </si>
   <si>
     <t>shigot_bangoの振分け　──────────────────────────────────────────</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>registerReceiver</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>　←──────────────────────────────────────────</t>
-    </r>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -2090,12 +2069,94 @@
     </r>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>getPList</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>makePlaylistBody</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>deletPlayListEnd</t>
+  </si>
+  <si>
+    <t>updatePlaylist</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>allSongEnd</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>sigotoFuriwake</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>プレイリスト一覧と</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>リスナーをスピナーに登録</t>
+  </si>
+  <si>
+    <t>指定された名称のリストを作成する;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>既に有ればlistIDを返し、</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">無ければ作成してIdを返す </t>
+  </si>
+  <si>
+    <t>makePlayListSPN　←──────────────────────────────────────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>reqC</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>MaraSonActivity.v_artist　──────────────────────────────────────────────</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t xml:space="preserve">content providers に登録してある </t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>playlist をリストアップする</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>registerReceiver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>　←──────────────────────────────────────────</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="36">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2232,12 +2293,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Menlo"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000080"/>
@@ -2342,6 +2397,37 @@
       <sz val="11"/>
       <color theme="9"/>
       <name val="游ゴシック (本文)"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2530,7 +2616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2692,11 +2778,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2706,13 +2791,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -2723,13 +2808,22 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2793,15 +2887,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2832,15 +2917,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3085,13 +3164,13 @@
     <xdr:from>
       <xdr:col>69</xdr:col>
       <xdr:colOff>57725</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>23091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>69</xdr:col>
       <xdr:colOff>146625</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>124691</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3129,13 +3208,13 @@
     <xdr:from>
       <xdr:col>70</xdr:col>
       <xdr:colOff>80819</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>57727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>70</xdr:col>
       <xdr:colOff>169719</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>159327</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3469,10 +3548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:AZ127"/>
+  <dimension ref="C2:AZ136"/>
   <sheetViews>
-    <sheetView topLeftCell="G25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AH40" sqref="AH40:AO40"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1"/>
@@ -3497,68 +3576,68 @@
   </cols>
   <sheetData>
     <row r="2" spans="16:52" ht="16" customHeight="1">
-      <c r="P2" s="125" t="s">
+      <c r="P2" s="124" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-      <c r="W2" s="126"/>
-      <c r="X2" s="126"/>
-      <c r="Y2" s="126"/>
-      <c r="Z2" s="126"/>
-      <c r="AA2" s="126"/>
-      <c r="AB2" s="126"/>
-      <c r="AC2" s="126"/>
-      <c r="AD2" s="126"/>
-      <c r="AE2" s="126"/>
-      <c r="AF2" s="126"/>
-      <c r="AG2" s="126"/>
-      <c r="AH2" s="126"/>
-      <c r="AI2" s="126"/>
-      <c r="AJ2" s="126"/>
-      <c r="AK2" s="126"/>
-      <c r="AL2" s="126"/>
-      <c r="AM2" s="126"/>
-      <c r="AN2" s="126"/>
-      <c r="AO2" s="126"/>
-      <c r="AP2" s="126"/>
-      <c r="AQ2" s="126"/>
-      <c r="AR2" s="127"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="125"/>
+      <c r="Z2" s="125"/>
+      <c r="AA2" s="125"/>
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="125"/>
+      <c r="AD2" s="125"/>
+      <c r="AE2" s="125"/>
+      <c r="AF2" s="125"/>
+      <c r="AG2" s="125"/>
+      <c r="AH2" s="125"/>
+      <c r="AI2" s="125"/>
+      <c r="AJ2" s="125"/>
+      <c r="AK2" s="125"/>
+      <c r="AL2" s="125"/>
+      <c r="AM2" s="125"/>
+      <c r="AN2" s="125"/>
+      <c r="AO2" s="125"/>
+      <c r="AP2" s="125"/>
+      <c r="AQ2" s="125"/>
+      <c r="AR2" s="126"/>
     </row>
     <row r="3" spans="16:52" ht="16" customHeight="1">
-      <c r="P3" s="128"/>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="107"/>
-      <c r="U3" s="107"/>
-      <c r="V3" s="107"/>
-      <c r="W3" s="107"/>
-      <c r="X3" s="107"/>
-      <c r="Y3" s="107"/>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="107"/>
-      <c r="AB3" s="107"/>
-      <c r="AC3" s="107"/>
-      <c r="AD3" s="107"/>
-      <c r="AE3" s="107"/>
-      <c r="AF3" s="107"/>
-      <c r="AG3" s="107"/>
-      <c r="AH3" s="107"/>
-      <c r="AI3" s="107"/>
-      <c r="AJ3" s="107"/>
-      <c r="AK3" s="107"/>
-      <c r="AL3" s="107"/>
-      <c r="AM3" s="107"/>
-      <c r="AN3" s="107"/>
-      <c r="AO3" s="107"/>
-      <c r="AP3" s="107"/>
-      <c r="AQ3" s="107"/>
-      <c r="AR3" s="129"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="109"/>
+      <c r="AH3" s="109"/>
+      <c r="AI3" s="109"/>
+      <c r="AJ3" s="109"/>
+      <c r="AK3" s="109"/>
+      <c r="AL3" s="109"/>
+      <c r="AM3" s="109"/>
+      <c r="AN3" s="109"/>
+      <c r="AO3" s="109"/>
+      <c r="AP3" s="109"/>
+      <c r="AQ3" s="109"/>
+      <c r="AR3" s="128"/>
     </row>
     <row r="4" spans="16:52" ht="16" customHeight="1">
       <c r="P4" s="4"/>
@@ -3593,13 +3672,13 @@
     </row>
     <row r="5" spans="16:52" ht="16" customHeight="1">
       <c r="P5" s="4"/>
-      <c r="Q5" s="110" t="s">
+      <c r="Q5" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="R5" s="111"/>
-      <c r="S5" s="111"/>
-      <c r="T5" s="111"/>
-      <c r="U5" s="112"/>
+      <c r="R5" s="113"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="114"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
@@ -3670,16 +3749,16 @@
       <c r="AD7" s="5"/>
       <c r="AE7" s="6"/>
       <c r="AF7" s="5"/>
-      <c r="AH7" s="131" t="s">
+      <c r="AH7" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="AI7" s="132"/>
-      <c r="AJ7" s="132"/>
-      <c r="AK7" s="132"/>
-      <c r="AL7" s="132"/>
-      <c r="AM7" s="132"/>
-      <c r="AN7" s="132"/>
-      <c r="AO7" s="133"/>
+      <c r="AI7" s="131"/>
+      <c r="AJ7" s="131"/>
+      <c r="AK7" s="131"/>
+      <c r="AL7" s="131"/>
+      <c r="AM7" s="131"/>
+      <c r="AN7" s="131"/>
+      <c r="AO7" s="132"/>
       <c r="AP7" s="21"/>
       <c r="AQ7" s="21"/>
       <c r="AR7" s="5"/>
@@ -3718,15 +3797,15 @@
       <c r="AP8" s="5"/>
       <c r="AQ8" s="5"/>
       <c r="AR8" s="5"/>
-      <c r="AT8" s="125" t="s">
+      <c r="AT8" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="AU8" s="126"/>
-      <c r="AV8" s="126"/>
-      <c r="AW8" s="126"/>
-      <c r="AX8" s="126"/>
-      <c r="AY8" s="126"/>
-      <c r="AZ8" s="127"/>
+      <c r="AU8" s="125"/>
+      <c r="AV8" s="125"/>
+      <c r="AW8" s="125"/>
+      <c r="AX8" s="125"/>
+      <c r="AY8" s="125"/>
+      <c r="AZ8" s="126"/>
     </row>
     <row r="9" spans="16:52" ht="16" customHeight="1">
       <c r="P9" s="4"/>
@@ -3761,22 +3840,22 @@
       <c r="AP9" s="5"/>
       <c r="AQ9" s="5"/>
       <c r="AR9" s="5"/>
-      <c r="AT9" s="128"/>
-      <c r="AU9" s="107"/>
-      <c r="AV9" s="107"/>
-      <c r="AW9" s="107"/>
-      <c r="AX9" s="107"/>
-      <c r="AY9" s="107"/>
-      <c r="AZ9" s="129"/>
+      <c r="AT9" s="127"/>
+      <c r="AU9" s="109"/>
+      <c r="AV9" s="109"/>
+      <c r="AW9" s="109"/>
+      <c r="AX9" s="109"/>
+      <c r="AY9" s="109"/>
+      <c r="AZ9" s="128"/>
     </row>
     <row r="10" spans="16:52" ht="16" customHeight="1">
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
-      <c r="R10" s="134" t="s">
+      <c r="R10" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="S10" s="134"/>
-      <c r="T10" s="134"/>
+      <c r="S10" s="133"/>
+      <c r="T10" s="133"/>
       <c r="U10" s="25"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
@@ -3803,16 +3882,16 @@
     <row r="11" spans="16:52" ht="16" customHeight="1">
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="134"/>
-      <c r="S11" s="134"/>
-      <c r="T11" s="134"/>
+      <c r="R11" s="133"/>
+      <c r="S11" s="133"/>
+      <c r="T11" s="133"/>
       <c r="U11" s="25"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="69" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AA11" s="70"/>
       <c r="AB11" s="70"/>
@@ -3833,13 +3912,13 @@
       <c r="AQ11" s="5"/>
       <c r="AR11" s="5"/>
       <c r="AT11" s="4"/>
-      <c r="AU11" s="110" t="s">
+      <c r="AU11" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="AV11" s="111"/>
-      <c r="AW11" s="111"/>
-      <c r="AX11" s="111"/>
-      <c r="AY11" s="112"/>
+      <c r="AV11" s="113"/>
+      <c r="AW11" s="113"/>
+      <c r="AX11" s="113"/>
+      <c r="AY11" s="114"/>
       <c r="AZ11" s="6"/>
     </row>
     <row r="12" spans="16:52" ht="16" customHeight="1">
@@ -4084,15 +4163,15 @@
       <c r="AP17" s="5"/>
       <c r="AQ17" s="5"/>
       <c r="AR17" s="18"/>
-      <c r="AT17" s="125" t="s">
+      <c r="AT17" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="AU17" s="126"/>
-      <c r="AV17" s="126"/>
-      <c r="AW17" s="126"/>
-      <c r="AX17" s="126"/>
-      <c r="AY17" s="126"/>
-      <c r="AZ17" s="127"/>
+      <c r="AU17" s="125"/>
+      <c r="AV17" s="125"/>
+      <c r="AW17" s="125"/>
+      <c r="AX17" s="125"/>
+      <c r="AY17" s="125"/>
+      <c r="AZ17" s="126"/>
     </row>
     <row r="18" spans="3:52" ht="16" customHeight="1">
       <c r="P18" s="4"/>
@@ -4122,13 +4201,13 @@
       <c r="AP18" s="18"/>
       <c r="AQ18" s="18"/>
       <c r="AR18" s="5"/>
-      <c r="AT18" s="128"/>
-      <c r="AU18" s="107"/>
-      <c r="AV18" s="107"/>
-      <c r="AW18" s="107"/>
-      <c r="AX18" s="107"/>
-      <c r="AY18" s="107"/>
-      <c r="AZ18" s="129"/>
+      <c r="AT18" s="127"/>
+      <c r="AU18" s="109"/>
+      <c r="AV18" s="109"/>
+      <c r="AW18" s="109"/>
+      <c r="AX18" s="109"/>
+      <c r="AY18" s="109"/>
+      <c r="AZ18" s="128"/>
     </row>
     <row r="19" spans="3:52" ht="16" customHeight="1">
       <c r="P19" s="4"/>
@@ -4142,14 +4221,14 @@
       </c>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
-      <c r="Z19" s="130" t="s">
+      <c r="Z19" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="AA19" s="130"/>
-      <c r="AB19" s="130"/>
-      <c r="AC19" s="130"/>
-      <c r="AD19" s="130"/>
-      <c r="AE19" s="130"/>
+      <c r="AA19" s="129"/>
+      <c r="AB19" s="129"/>
+      <c r="AC19" s="129"/>
+      <c r="AD19" s="129"/>
+      <c r="AE19" s="129"/>
       <c r="AF19" s="22"/>
       <c r="AG19" s="18"/>
       <c r="AH19" s="18"/>
@@ -4175,13 +4254,13 @@
       <c r="C20" s="58"/>
       <c r="D20" s="58"/>
       <c r="E20" s="58"/>
-      <c r="F20" s="109" t="s">
+      <c r="F20" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="109"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
       <c r="K20" s="58"/>
       <c r="L20" s="58"/>
       <c r="P20" s="4"/>
@@ -4200,7 +4279,7 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
@@ -4219,29 +4298,29 @@
       <c r="AP20" s="5"/>
       <c r="AQ20" s="5"/>
       <c r="AR20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AT20" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AU20" s="110" t="s">
+      <c r="AU20" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="AV20" s="111"/>
-      <c r="AW20" s="111"/>
-      <c r="AX20" s="111"/>
-      <c r="AY20" s="112"/>
+      <c r="AV20" s="113"/>
+      <c r="AW20" s="113"/>
+      <c r="AX20" s="113"/>
+      <c r="AY20" s="114"/>
       <c r="AZ20" s="6"/>
     </row>
     <row r="21" spans="3:52" ht="16" customHeight="1">
       <c r="C21" s="58"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="109"/>
-      <c r="J21" s="109"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
       <c r="K21" s="58"/>
       <c r="L21" s="58"/>
       <c r="P21" s="4"/>
@@ -4280,10 +4359,10 @@
     </row>
     <row r="22" spans="3:52" ht="16" customHeight="1">
       <c r="H22" t="s">
+        <v>145</v>
+      </c>
+      <c r="L22" t="s">
         <v>146</v>
-      </c>
-      <c r="L22" t="s">
-        <v>147</v>
       </c>
       <c r="P22" s="4"/>
       <c r="Q22" s="33"/>
@@ -4341,14 +4420,14 @@
       <c r="U23" s="37"/>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
-      <c r="Z23" s="113" t="s">
+      <c r="Z23" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="AA23" s="114"/>
-      <c r="AB23" s="114"/>
-      <c r="AC23" s="114"/>
-      <c r="AD23" s="114"/>
-      <c r="AE23" s="115"/>
+      <c r="AA23" s="116"/>
+      <c r="AB23" s="116"/>
+      <c r="AC23" s="116"/>
+      <c r="AD23" s="116"/>
+      <c r="AE23" s="117"/>
       <c r="AF23" s="45"/>
       <c r="AG23" s="9"/>
       <c r="AH23" s="9"/>
@@ -4422,13 +4501,13 @@
       <c r="AZ24" s="6"/>
     </row>
     <row r="25" spans="3:52" ht="16" customHeight="1">
-      <c r="F25" s="103" t="s">
+      <c r="F25" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="105"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="107"/>
       <c r="L25" s="5" t="s">
         <v>140</v>
       </c>
@@ -4481,14 +4560,14 @@
       <c r="AZ25" s="6"/>
     </row>
     <row r="26" spans="3:52" ht="16" customHeight="1">
-      <c r="F26" s="106"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="109"/>
+      <c r="J26" s="110"/>
       <c r="K26" s="58"/>
       <c r="L26" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P26" s="4"/>
       <c r="Q26" s="33"/>
@@ -4542,8 +4621,8 @@
     <row r="27" spans="3:52" ht="16" customHeight="1">
       <c r="E27" s="58"/>
       <c r="F27" s="35"/>
-      <c r="G27" s="77" t="s">
-        <v>145</v>
+      <c r="G27" s="136" t="s">
+        <v>351</v>
       </c>
       <c r="H27" s="75"/>
       <c r="I27" s="75"/>
@@ -4616,9 +4695,6 @@
     </row>
     <row r="29" spans="3:52" ht="16" customHeight="1">
       <c r="P29" s="4"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
       <c r="W29" s="5" t="s">
         <v>140</v>
       </c>
@@ -4648,10 +4724,6 @@
     </row>
     <row r="30" spans="3:52" ht="16" customHeight="1">
       <c r="P30" s="4"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
       <c r="W30" s="5" t="s">
@@ -4682,6 +4754,7 @@
       <c r="AZ30" s="5"/>
     </row>
     <row r="31" spans="3:52" ht="16" customHeight="1">
+      <c r="P31" s="4"/>
       <c r="W31" s="5" t="s">
         <v>140</v>
       </c>
@@ -4710,6 +4783,7 @@
       <c r="AZ31" s="5"/>
     </row>
     <row r="32" spans="3:52" ht="16" customHeight="1">
+      <c r="P32" s="4"/>
       <c r="W32" s="5" t="s">
         <v>140</v>
       </c>
@@ -4737,7 +4811,11 @@
       <c r="AY32" s="5"/>
       <c r="AZ32" s="5"/>
     </row>
-    <row r="33" spans="6:52" ht="16" customHeight="1">
+    <row r="33" spans="16:52" ht="16" customHeight="1">
+      <c r="P33" s="4"/>
+      <c r="Q33" t="s">
+        <v>339</v>
+      </c>
       <c r="W33" s="5" t="s">
         <v>140</v>
       </c>
@@ -4765,7 +4843,11 @@
       <c r="AY33" s="5"/>
       <c r="AZ33" s="5"/>
     </row>
-    <row r="34" spans="6:52" ht="16" customHeight="1">
+    <row r="34" spans="16:52" ht="16" customHeight="1">
+      <c r="P34" s="4"/>
+      <c r="Q34" t="s">
+        <v>338</v>
+      </c>
       <c r="W34" s="5" t="s">
         <v>140</v>
       </c>
@@ -4773,6 +4855,12 @@
       <c r="Y34" s="5" t="s">
         <v>140</v>
       </c>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="36"/>
+      <c r="AB34" s="36"/>
+      <c r="AC34" s="36"/>
+      <c r="AD34" s="36"/>
+      <c r="AE34" s="37"/>
       <c r="AR34" s="5" t="s">
         <v>140</v>
       </c>
@@ -4784,25 +4872,19 @@
       <c r="AY34" s="5"/>
       <c r="AZ34" s="5"/>
     </row>
-    <row r="35" spans="6:52" ht="16" customHeight="1">
+    <row r="35" spans="16:52" ht="16" customHeight="1">
+      <c r="P35" s="4"/>
+      <c r="Q35" s="68" t="s">
+        <v>337</v>
+      </c>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
       <c r="W35" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X35" s="5"/>
-      <c r="Y35" t="s">
-        <v>148</v>
-      </c>
-      <c r="Z35" s="122" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA35" s="123"/>
-      <c r="AB35" s="123"/>
-      <c r="AC35" s="123"/>
-      <c r="AD35" s="123"/>
-      <c r="AE35" s="124"/>
-      <c r="AF35" s="21"/>
-      <c r="AG35" t="s">
-        <v>45</v>
+      <c r="Y35" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="AR35" s="5" t="s">
         <v>140</v>
@@ -4815,17 +4897,26 @@
       <c r="AY35" s="5"/>
       <c r="AZ35" s="5"/>
     </row>
-    <row r="36" spans="6:52" ht="16" customHeight="1">
+    <row r="36" spans="16:52" ht="16" customHeight="1">
+      <c r="P36" s="4"/>
+      <c r="Q36" t="s">
+        <v>336</v>
+      </c>
       <c r="W36" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X36" s="5"/>
-      <c r="Z36" s="33"/>
-      <c r="AA36" s="5"/>
-      <c r="AB36" s="5"/>
-      <c r="AC36" s="5"/>
-      <c r="AD36" s="5"/>
-      <c r="AE36" s="34"/>
+      <c r="Y36" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z36" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="AA36" s="54"/>
+      <c r="AB36" s="54"/>
+      <c r="AC36" s="54"/>
+      <c r="AD36" s="54"/>
+      <c r="AE36" s="55"/>
       <c r="AR36" s="5" t="s">
         <v>140</v>
       </c>
@@ -4837,31 +4928,25 @@
       <c r="AY36" s="5"/>
       <c r="AZ36" s="5"/>
     </row>
-    <row r="37" spans="6:52" ht="16" customHeight="1">
+    <row r="37" spans="16:52" ht="16" customHeight="1">
+      <c r="P37" s="4"/>
+      <c r="T37" t="s">
+        <v>134</v>
+      </c>
       <c r="W37" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X37" s="5"/>
+      <c r="Y37" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="Z37" s="33"/>
       <c r="AA37" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB37" s="5"/>
+        <v>347</v>
+      </c>
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
       <c r="AE37" s="34"/>
-      <c r="AH37" s="102" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI37" s="102"/>
-      <c r="AJ37" s="102"/>
-      <c r="AK37" s="102"/>
-      <c r="AL37" s="102"/>
-      <c r="AM37" s="102"/>
-      <c r="AN37" s="102"/>
-      <c r="AO37" s="102"/>
-      <c r="AP37" s="26"/>
-      <c r="AQ37" s="27"/>
       <c r="AR37" s="5" t="s">
         <v>140</v>
       </c>
@@ -4873,19 +4958,29 @@
       <c r="AY37" s="5"/>
       <c r="AZ37" s="5"/>
     </row>
-    <row r="38" spans="6:52" ht="16" customHeight="1">
-      <c r="W38" s="5" t="s">
-        <v>140</v>
-      </c>
+    <row r="38" spans="16:52" ht="16" customHeight="1">
+      <c r="P38" s="4"/>
+      <c r="Q38" s="53" t="s">
+        <v>346</v>
+      </c>
+      <c r="R38" s="54"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="54"/>
+      <c r="U38" s="55"/>
+      <c r="W38" s="5"/>
       <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
       <c r="Z38" s="33"/>
       <c r="AA38" s="5"/>
       <c r="AB38" s="5" t="s">
-        <v>47</v>
+        <v>348</v>
       </c>
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
       <c r="AE38" s="34"/>
+      <c r="AG38" t="s">
+        <v>60</v>
+      </c>
       <c r="AR38" s="5" t="s">
         <v>140</v>
       </c>
@@ -4897,190 +4992,264 @@
       <c r="AY38" s="5"/>
       <c r="AZ38" s="5"/>
     </row>
-    <row r="39" spans="6:52" ht="16" customHeight="1">
+    <row r="39" spans="16:52" ht="16" customHeight="1">
+      <c r="P39" s="4"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="34"/>
       <c r="W39" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X39" s="5"/>
+      <c r="Y39" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="Z39" s="33"/>
       <c r="AA39" s="5"/>
       <c r="AB39" s="5"/>
-      <c r="AC39" s="5" t="s">
-        <v>49</v>
-      </c>
+      <c r="AC39" s="5"/>
       <c r="AD39" s="5"/>
       <c r="AE39" s="34"/>
       <c r="AR39" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="40" spans="6:52" ht="16" customHeight="1">
+      <c r="AT39" s="5"/>
+      <c r="AU39" s="5"/>
+      <c r="AV39" s="5"/>
+      <c r="AW39" s="5"/>
+      <c r="AX39" s="5"/>
+      <c r="AY39" s="5"/>
+      <c r="AZ39" s="5"/>
+    </row>
+    <row r="40" spans="16:52" ht="16" customHeight="1">
+      <c r="P40" s="4"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="T40" s="36"/>
+      <c r="U40" s="37"/>
       <c r="W40" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X40" s="5"/>
+      <c r="Y40" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="Z40" s="33"/>
       <c r="AA40" s="5"/>
       <c r="AB40" s="5"/>
       <c r="AC40" s="5"/>
-      <c r="AD40" s="5" t="s">
-        <v>180</v>
-      </c>
+      <c r="AD40" s="5"/>
       <c r="AE40" s="34"/>
-      <c r="AH40" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI40" s="95"/>
-      <c r="AJ40" s="95"/>
-      <c r="AK40" s="95"/>
-      <c r="AL40" s="95"/>
-      <c r="AM40" s="95"/>
-      <c r="AN40" s="95"/>
-      <c r="AO40" s="95"/>
-      <c r="AP40" s="26"/>
-      <c r="AQ40" s="27"/>
       <c r="AR40" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="41" spans="6:52" ht="16" customHeight="1">
+      <c r="AT40" s="5"/>
+      <c r="AU40" s="5"/>
+      <c r="AV40" s="5"/>
+      <c r="AW40" s="5"/>
+      <c r="AX40" s="5"/>
+      <c r="AY40" s="5"/>
+      <c r="AZ40" s="5"/>
+    </row>
+    <row r="41" spans="16:52" ht="16" customHeight="1">
+      <c r="P41" s="4"/>
+      <c r="R41" s="134"/>
+      <c r="T41" t="s">
+        <v>134</v>
+      </c>
       <c r="W41" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X41" s="5"/>
-      <c r="Z41" s="33"/>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="5"/>
-      <c r="AC41" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD41" s="5"/>
-      <c r="AE41" s="34"/>
+      <c r="Y41" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z41" s="35"/>
+      <c r="AA41" s="36"/>
+      <c r="AB41" s="36"/>
+      <c r="AC41" s="36"/>
+      <c r="AD41" s="36"/>
+      <c r="AE41" s="37"/>
       <c r="AR41" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="42" spans="6:52" ht="16" customHeight="1">
+      <c r="AT41" s="5"/>
+      <c r="AU41" s="5"/>
+      <c r="AV41" s="5"/>
+      <c r="AW41" s="5"/>
+      <c r="AX41" s="5"/>
+      <c r="AY41" s="5"/>
+      <c r="AZ41" s="5"/>
+    </row>
+    <row r="42" spans="16:52" ht="16" customHeight="1">
+      <c r="P42" s="4"/>
+      <c r="Q42" s="53" t="s">
+        <v>335</v>
+      </c>
+      <c r="R42" s="54"/>
+      <c r="S42" s="54"/>
+      <c r="T42" s="54"/>
+      <c r="U42" s="55"/>
       <c r="W42" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X42" s="5"/>
-      <c r="Z42" s="33"/>
-      <c r="AA42" s="5"/>
-      <c r="AB42" s="5"/>
-      <c r="AC42" s="5"/>
-      <c r="AD42" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE42" s="34"/>
+      <c r="Y42" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AR42" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="43" spans="6:52" ht="16" customHeight="1">
+      <c r="AT42" s="5"/>
+      <c r="AU42" s="5"/>
+      <c r="AV42" s="5"/>
+      <c r="AW42" s="5"/>
+      <c r="AX42" s="5"/>
+      <c r="AY42" s="5"/>
+      <c r="AZ42" s="5"/>
+    </row>
+    <row r="43" spans="16:52" ht="16" customHeight="1">
+      <c r="P43" s="4"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="34"/>
       <c r="W43" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X43" s="5"/>
-      <c r="Z43" s="33"/>
-      <c r="AA43" s="5"/>
-      <c r="AB43" s="5"/>
-      <c r="AC43" s="5"/>
-      <c r="AD43" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE43" s="34"/>
-      <c r="AH43" s="29" t="s">
-        <v>51</v>
+      <c r="Y43" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="AR43" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="44" spans="6:52" ht="16" customHeight="1">
-      <c r="Q44" s="82" t="s">
-        <v>130</v>
-      </c>
-      <c r="R44" s="83"/>
-      <c r="S44" s="83"/>
-      <c r="T44" s="83"/>
-      <c r="U44" s="84"/>
+      <c r="AT43" s="5"/>
+      <c r="AU43" s="5"/>
+      <c r="AV43" s="5"/>
+      <c r="AW43" s="5"/>
+      <c r="AX43" s="5"/>
+      <c r="AY43" s="5"/>
+      <c r="AZ43" s="5"/>
+    </row>
+    <row r="44" spans="16:52" ht="16" customHeight="1">
+      <c r="P44" s="4"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="S44" s="36"/>
+      <c r="T44" s="36"/>
+      <c r="U44" s="37"/>
       <c r="W44" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X44" s="5"/>
-      <c r="Z44" s="33"/>
-      <c r="AA44" s="5"/>
-      <c r="AB44" s="5"/>
-      <c r="AC44" s="5"/>
-      <c r="AD44" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE44" s="34"/>
-      <c r="AH44" s="29"/>
+      <c r="Y44" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z44" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA44" s="73"/>
+      <c r="AC44" s="73"/>
+      <c r="AD44" s="73"/>
+      <c r="AE44" s="74"/>
+      <c r="AF44" s="21"/>
+      <c r="AG44" t="s">
+        <v>45</v>
+      </c>
       <c r="AR44" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="45" spans="6:52" ht="16" customHeight="1">
-      <c r="Q45" s="33"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="T45" s="5"/>
-      <c r="U45" s="34"/>
+      <c r="AT44" s="5"/>
+      <c r="AU44" s="5"/>
+      <c r="AV44" s="5"/>
+      <c r="AW44" s="5"/>
+      <c r="AX44" s="5"/>
+      <c r="AY44" s="5"/>
+      <c r="AZ44" s="5"/>
+    </row>
+    <row r="45" spans="16:52" ht="16" customHeight="1">
+      <c r="P45" s="4"/>
       <c r="W45" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X45" s="5"/>
       <c r="Z45" s="33"/>
       <c r="AA45" s="5"/>
-      <c r="AB45" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="AB45" s="5"/>
       <c r="AC45" s="5"/>
       <c r="AD45" s="5"/>
       <c r="AE45" s="34"/>
       <c r="AR45" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="46" spans="6:52" ht="16" customHeight="1">
-      <c r="Q46" s="33"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="34"/>
+      <c r="AT45" s="5"/>
+      <c r="AU45" s="5"/>
+      <c r="AV45" s="5"/>
+      <c r="AW45" s="5"/>
+      <c r="AX45" s="5"/>
+      <c r="AY45" s="5"/>
+      <c r="AZ45" s="5"/>
+    </row>
+    <row r="46" spans="16:52" ht="16" customHeight="1">
+      <c r="P46" s="4"/>
+      <c r="Q46" t="s">
+        <v>248</v>
+      </c>
       <c r="W46" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X46" s="5"/>
       <c r="Z46" s="33"/>
-      <c r="AA46" s="5"/>
+      <c r="AA46" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="AB46" s="5"/>
-      <c r="AC46" s="5" t="s">
-        <v>54</v>
-      </c>
+      <c r="AC46" s="5"/>
       <c r="AD46" s="5"/>
       <c r="AE46" s="34"/>
+      <c r="AH46" s="104" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI46" s="104"/>
+      <c r="AJ46" s="104"/>
+      <c r="AK46" s="104"/>
+      <c r="AL46" s="104"/>
+      <c r="AM46" s="104"/>
+      <c r="AN46" s="104"/>
+      <c r="AO46" s="104"/>
+      <c r="AP46" s="26"/>
+      <c r="AQ46" s="27"/>
       <c r="AR46" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="47" spans="6:52" ht="16" customHeight="1">
-      <c r="F47" s="116" t="s">
-        <v>65</v>
-      </c>
-      <c r="G47" s="117"/>
-      <c r="H47" s="117"/>
-      <c r="I47" s="117"/>
-      <c r="J47" s="118"/>
-      <c r="Q47" s="35"/>
-      <c r="R47" s="36"/>
-      <c r="S47" s="36"/>
-      <c r="T47" s="36"/>
-      <c r="U47" s="37"/>
+      <c r="AT46" s="5"/>
+      <c r="AU46" s="5"/>
+      <c r="AV46" s="5"/>
+      <c r="AW46" s="5"/>
+      <c r="AX46" s="5"/>
+      <c r="AY46" s="5"/>
+      <c r="AZ46" s="5"/>
+    </row>
+    <row r="47" spans="16:52" ht="16" customHeight="1">
+      <c r="P47" s="4"/>
+      <c r="R47" s="135" t="s">
+        <v>343</v>
+      </c>
+      <c r="S47" s="135"/>
+      <c r="T47" s="135"/>
       <c r="W47" s="5" t="s">
         <v>140</v>
       </c>
@@ -5088,7 +5257,7 @@
       <c r="Z47" s="33"/>
       <c r="AA47" s="5"/>
       <c r="AB47" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="AC47" s="5"/>
       <c r="AD47" s="5"/>
@@ -5096,22 +5265,28 @@
       <c r="AR47" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="48" spans="6:52" ht="16" customHeight="1">
-      <c r="F48" s="119"/>
-      <c r="G48" s="120"/>
-      <c r="H48" s="120"/>
-      <c r="I48" s="120"/>
-      <c r="J48" s="121"/>
+      <c r="AT47" s="5"/>
+      <c r="AU47" s="5"/>
+      <c r="AV47" s="5"/>
+      <c r="AW47" s="5"/>
+      <c r="AX47" s="5"/>
+      <c r="AY47" s="5"/>
+      <c r="AZ47" s="5"/>
+    </row>
+    <row r="48" spans="16:52" ht="16" customHeight="1">
+      <c r="P48" s="4"/>
+      <c r="R48" t="s">
+        <v>344</v>
+      </c>
       <c r="W48" s="5" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="X48" s="5"/>
       <c r="Z48" s="33"/>
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
       <c r="AC48" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="AD48" s="5"/>
       <c r="AE48" s="34"/>
@@ -5120,73 +5295,58 @@
       </c>
     </row>
     <row r="49" spans="4:44" ht="16" customHeight="1">
-      <c r="F49" s="33"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="34"/>
-      <c r="R49" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="S49" s="73"/>
-      <c r="T49" s="73"/>
-      <c r="U49" s="74"/>
+      <c r="P49" s="4"/>
+      <c r="R49" t="s">
+        <v>345</v>
+      </c>
       <c r="W49" s="5" t="s">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c r="X49" s="5"/>
       <c r="Z49" s="33"/>
-      <c r="AA49" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
       <c r="AC49" s="5"/>
-      <c r="AD49" s="5"/>
+      <c r="AD49" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="AE49" s="34"/>
+      <c r="AH49" s="94" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI49" s="94"/>
+      <c r="AJ49" s="94"/>
+      <c r="AK49" s="94"/>
+      <c r="AL49" s="94"/>
+      <c r="AM49" s="94"/>
+      <c r="AN49" s="94"/>
+      <c r="AO49" s="94"/>
+      <c r="AP49" s="26"/>
+      <c r="AQ49" s="27"/>
       <c r="AR49" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="50" spans="4:44" ht="16" customHeight="1">
-      <c r="F50" s="33"/>
-      <c r="G50" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="34"/>
-      <c r="R50" s="46"/>
-      <c r="S50" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="T50" s="47"/>
-      <c r="U50" s="48"/>
+      <c r="P50" s="4"/>
       <c r="W50" s="5" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
       <c r="X50" s="5"/>
       <c r="Z50" s="33"/>
       <c r="AA50" s="5"/>
-      <c r="AB50" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC50" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="AD50" s="5"/>
       <c r="AE50" s="34"/>
-      <c r="AP50" s="26"/>
-      <c r="AQ50" s="27"/>
       <c r="AR50" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="51" spans="4:44" ht="16" customHeight="1">
-      <c r="F51" s="33"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I51" s="5"/>
-      <c r="J51" s="34"/>
+      <c r="P51" s="4"/>
       <c r="W51" s="5" t="s">
         <v>140</v>
       </c>
@@ -5194,114 +5354,80 @@
       <c r="Z51" s="33"/>
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
-      <c r="AC51" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD51" s="5"/>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="AE51" s="34"/>
-      <c r="AP51" s="26"/>
-      <c r="AQ51" s="27"/>
       <c r="AR51" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="52" spans="4:44" ht="16" customHeight="1">
-      <c r="F52" s="33"/>
-      <c r="G52" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="34"/>
+      <c r="P52" s="4"/>
       <c r="W52" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X52" s="5"/>
       <c r="Z52" s="33"/>
-      <c r="AA52" s="5" t="s">
-        <v>59</v>
-      </c>
+      <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
       <c r="AC52" s="5"/>
-      <c r="AD52" s="5"/>
+      <c r="AD52" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="AE52" s="34"/>
+      <c r="AH52" s="29" t="s">
+        <v>51</v>
+      </c>
       <c r="AR52" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="53" spans="4:44" ht="16" customHeight="1">
-      <c r="D53" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F53" s="33"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="I53" s="5"/>
-      <c r="J53" s="34"/>
-      <c r="P53" s="53"/>
-      <c r="Q53" s="54"/>
-      <c r="R53" s="54"/>
-      <c r="S53" s="54"/>
-      <c r="T53" s="54"/>
-      <c r="U53" s="55"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="R53" s="82"/>
+      <c r="S53" s="82"/>
+      <c r="T53" s="82"/>
+      <c r="U53" s="83"/>
       <c r="W53" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X53" s="5"/>
       <c r="Z53" s="33"/>
       <c r="AA53" s="5"/>
-      <c r="AB53" s="5" t="s">
-        <v>183</v>
-      </c>
+      <c r="AB53" s="5"/>
       <c r="AC53" s="5"/>
-      <c r="AD53" s="5"/>
+      <c r="AD53" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="AE53" s="34"/>
-      <c r="AH53" s="102" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI53" s="102"/>
-      <c r="AJ53" s="102"/>
-      <c r="AK53" s="102"/>
-      <c r="AL53" s="102"/>
-      <c r="AM53" s="102"/>
-      <c r="AN53" s="102"/>
-      <c r="AO53" s="102"/>
+      <c r="AH53" s="29"/>
       <c r="AR53" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="54" spans="4:44" ht="16" customHeight="1">
-      <c r="D54" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="F54" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="34"/>
-      <c r="P54" s="92" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q54" s="93"/>
-      <c r="R54" s="93"/>
-      <c r="S54" s="93"/>
-      <c r="T54" s="93"/>
-      <c r="U54" s="94"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="T54" s="5"/>
+      <c r="U54" s="34"/>
       <c r="W54" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X54" s="5"/>
       <c r="Z54" s="33"/>
-      <c r="AA54" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="AC54" s="5"/>
       <c r="AD54" s="5"/>
       <c r="AE54" s="34"/>
@@ -5310,23 +5436,8 @@
       </c>
     </row>
     <row r="55" spans="4:44" ht="16" customHeight="1">
-      <c r="F55" s="33"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I55" s="5"/>
-      <c r="J55" s="34"/>
-      <c r="M55" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="N55" s="5"/>
-      <c r="P55" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q55" s="5" t="s">
-        <v>226</v>
-      </c>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="33"/>
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
       <c r="T55" s="5"/>
@@ -5335,766 +5446,633 @@
         <v>140</v>
       </c>
       <c r="X55" s="5"/>
-      <c r="Z55" s="35"/>
-      <c r="AA55" s="36"/>
-      <c r="AB55" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC55" s="36"/>
-      <c r="AD55" s="36"/>
-      <c r="AE55" s="37"/>
-      <c r="AH55" s="102" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI55" s="102"/>
-      <c r="AJ55" s="102"/>
-      <c r="AK55" s="102"/>
-      <c r="AL55" s="102"/>
-      <c r="AM55" s="102"/>
-      <c r="AN55" s="102"/>
-      <c r="AO55" s="102"/>
+      <c r="Z55" s="33"/>
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="5"/>
+      <c r="AC55" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD55" s="5"/>
+      <c r="AE55" s="34"/>
       <c r="AR55" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="56" spans="4:44" ht="16" customHeight="1">
-      <c r="F56" s="33"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I56" s="5"/>
-      <c r="J56" s="34"/>
-      <c r="M56" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="N56" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="P56" s="33"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="34"/>
+      <c r="F56" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="G56" s="119"/>
+      <c r="H56" s="119"/>
+      <c r="I56" s="119"/>
+      <c r="J56" s="120"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="35"/>
+      <c r="R56" s="36"/>
+      <c r="S56" s="36"/>
+      <c r="T56" s="36"/>
+      <c r="U56" s="37"/>
       <c r="W56" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X56" s="5"/>
+      <c r="Z56" s="33"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="34"/>
       <c r="AR56" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="57" spans="4:44" ht="16" customHeight="1">
-      <c r="D57" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F57" s="33"/>
-      <c r="G57" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="34"/>
-      <c r="M57" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="N57" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="T57" s="5"/>
-      <c r="U57" s="34"/>
-      <c r="X57" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z57" s="53" t="s">
-        <v>221</v>
-      </c>
-      <c r="AA57" s="54"/>
-      <c r="AB57" s="54"/>
-      <c r="AC57" s="54"/>
-      <c r="AD57" s="54"/>
-      <c r="AE57" s="55"/>
+      <c r="F57" s="121"/>
+      <c r="G57" s="122"/>
+      <c r="H57" s="122"/>
+      <c r="I57" s="122"/>
+      <c r="J57" s="123"/>
+      <c r="P57" s="4"/>
+      <c r="W57" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="X57" s="5"/>
+      <c r="Z57" s="33"/>
+      <c r="AA57" s="5"/>
+      <c r="AB57" s="5"/>
+      <c r="AC57" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD57" s="5"/>
+      <c r="AE57" s="34"/>
       <c r="AR57" s="5" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="58" spans="4:44" ht="16" customHeight="1">
-      <c r="D58" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="F58" s="33" t="s">
-        <v>143</v>
-      </c>
+      <c r="F58" s="33"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="34"/>
-      <c r="M58" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="N58" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="U58" s="34"/>
+      <c r="P58" s="4"/>
+      <c r="R58" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="S58" s="73"/>
+      <c r="T58" s="73"/>
+      <c r="U58" s="74"/>
       <c r="W58" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="X58" s="5" t="s">
-        <v>140</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="X58" s="5"/>
       <c r="Z58" s="33"/>
       <c r="AA58" s="5" t="s">
-        <v>223</v>
+        <v>57</v>
       </c>
       <c r="AB58" s="5"/>
       <c r="AC58" s="5"/>
       <c r="AD58" s="5"/>
       <c r="AE58" s="34"/>
       <c r="AR58" s="5" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="4:44" ht="16" customHeight="1">
       <c r="F59" s="33"/>
       <c r="G59" s="5" t="s">
-        <v>73</v>
+        <v>216</v>
       </c>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
       <c r="J59" s="34"/>
-      <c r="M59" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="N59" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="U59" s="34"/>
+      <c r="R59" s="46"/>
+      <c r="S59" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="T59" s="47"/>
+      <c r="U59" s="48"/>
       <c r="W59" s="5" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="X59" s="5"/>
       <c r="Z59" s="33"/>
       <c r="AA59" s="5"/>
       <c r="AB59" s="5" t="s">
-        <v>225</v>
+        <v>58</v>
       </c>
       <c r="AC59" s="5"/>
       <c r="AD59" s="5"/>
       <c r="AE59" s="34"/>
+      <c r="AP59" s="26"/>
+      <c r="AQ59" s="27"/>
+      <c r="AR59" s="5" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="60" spans="4:44" ht="16" customHeight="1">
       <c r="F60" s="33"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I60" s="5"/>
       <c r="J60" s="34"/>
-      <c r="M60" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="N60" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="P60" s="33"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="34"/>
       <c r="W60" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="X60" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z60" s="35"/>
-      <c r="AA60" s="36" t="s">
-        <v>224</v>
-      </c>
-      <c r="AB60" s="36"/>
-      <c r="AC60" s="36"/>
-      <c r="AD60" s="36"/>
-      <c r="AE60" s="37"/>
+      <c r="X60" s="5"/>
+      <c r="Z60" s="33"/>
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="5"/>
+      <c r="AC60" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD60" s="5"/>
+      <c r="AE60" s="34"/>
+      <c r="AP60" s="26"/>
+      <c r="AQ60" s="27"/>
+      <c r="AR60" s="5" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="61" spans="4:44" ht="16" customHeight="1">
       <c r="F61" s="33"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5" t="s">
-        <v>75</v>
-      </c>
+      <c r="G61" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="34"/>
-      <c r="M61" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="N61" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="P61" s="33"/>
-      <c r="Q61" s="5"/>
-      <c r="R61" s="5"/>
       <c r="W61" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="X61" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH61" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="AI61" s="54"/>
-      <c r="AJ61" s="54"/>
-      <c r="AK61" s="54"/>
-      <c r="AL61" s="54"/>
-      <c r="AM61" s="54"/>
-      <c r="AN61" s="54"/>
-      <c r="AO61" s="55"/>
+      <c r="X61" s="5"/>
+      <c r="Z61" s="33"/>
+      <c r="AA61" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB61" s="5"/>
+      <c r="AC61" s="5"/>
+      <c r="AD61" s="5"/>
+      <c r="AE61" s="34"/>
+      <c r="AR61" s="5" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="62" spans="4:44" ht="16" customHeight="1">
       <c r="D62" s="5" t="s">
         <v>139</v>
       </c>
       <c r="F62" s="33"/>
-      <c r="G62" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="49" t="s">
+        <v>69</v>
+      </c>
       <c r="I62" s="5"/>
       <c r="J62" s="34"/>
-      <c r="M62" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="N62" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="P62" s="33"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
-      <c r="U62" s="34"/>
-      <c r="V62" s="52"/>
-      <c r="W62" s="5"/>
+      <c r="Q62" s="53"/>
+      <c r="R62" s="54"/>
+      <c r="S62" s="54"/>
+      <c r="T62" s="54"/>
+      <c r="U62" s="55"/>
+      <c r="W62" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="X62" s="5"/>
-      <c r="Y62" s="52"/>
-      <c r="Z62" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH62" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI62" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="AJ62" s="5"/>
-      <c r="AK62" s="5"/>
-      <c r="AL62" s="5"/>
-      <c r="AM62" s="5"/>
-      <c r="AN62" s="5"/>
-      <c r="AO62" s="34"/>
+      <c r="Z62" s="33"/>
+      <c r="AA62" s="5"/>
+      <c r="AB62" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC62" s="5"/>
+      <c r="AD62" s="5"/>
+      <c r="AE62" s="34"/>
+      <c r="AH62" s="104" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI62" s="104"/>
+      <c r="AJ62" s="104"/>
+      <c r="AK62" s="104"/>
+      <c r="AL62" s="104"/>
+      <c r="AM62" s="104"/>
+      <c r="AN62" s="104"/>
+      <c r="AO62" s="104"/>
+      <c r="AR62" s="5" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="63" spans="4:44" ht="16" customHeight="1">
       <c r="D63" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F63" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5" t="s">
-        <v>77</v>
-      </c>
+      <c r="G63" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="34"/>
-      <c r="M63" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="N63" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="P63" s="33"/>
-      <c r="Q63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
-      <c r="U63" s="34"/>
-      <c r="V63" s="52"/>
+      <c r="Q63" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="R63" s="92"/>
+      <c r="S63" s="92"/>
+      <c r="T63" s="92"/>
+      <c r="U63" s="93"/>
       <c r="W63" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="X63" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y63" s="52"/>
-      <c r="AA63" t="s">
-        <v>231</v>
-      </c>
-      <c r="AH63" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI63" s="36"/>
-      <c r="AJ63" s="36"/>
-      <c r="AK63" s="36"/>
-      <c r="AL63" s="36"/>
-      <c r="AM63" s="36"/>
-      <c r="AN63" s="36"/>
-      <c r="AO63" s="37"/>
-      <c r="AP63" s="26"/>
-      <c r="AQ63" s="27"/>
-      <c r="AR63" s="27"/>
+      <c r="X63" s="5"/>
+      <c r="Z63" s="33"/>
+      <c r="AA63" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB63" s="5"/>
+      <c r="AC63" s="5"/>
+      <c r="AD63" s="5"/>
+      <c r="AE63" s="34"/>
+      <c r="AR63" s="5" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="64" spans="4:44" ht="16" customHeight="1">
       <c r="F64" s="33"/>
-      <c r="G64" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="I64" s="5"/>
       <c r="J64" s="34"/>
-      <c r="M64" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="N64" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="P64" s="33"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
+        <v>139</v>
+      </c>
+      <c r="O64" s="5"/>
+      <c r="Q64" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="R64" s="5" t="s">
+        <v>225</v>
+      </c>
       <c r="S64" s="5"/>
       <c r="T64" s="5"/>
       <c r="U64" s="34"/>
-      <c r="V64" s="52"/>
       <c r="W64" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="X64" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y64" s="52"/>
-      <c r="AH64" s="78" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="65" spans="4:52" ht="16" customHeight="1">
+      <c r="X64" s="5"/>
+      <c r="Z64" s="35"/>
+      <c r="AA64" s="36"/>
+      <c r="AB64" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC64" s="36"/>
+      <c r="AD64" s="36"/>
+      <c r="AE64" s="37"/>
+      <c r="AH64" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI64" s="104"/>
+      <c r="AJ64" s="104"/>
+      <c r="AK64" s="104"/>
+      <c r="AL64" s="104"/>
+      <c r="AM64" s="104"/>
+      <c r="AN64" s="104"/>
+      <c r="AO64" s="104"/>
+      <c r="AR64" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="4:44" ht="16" customHeight="1">
       <c r="F65" s="33"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I65" s="5"/>
       <c r="J65" s="34"/>
-      <c r="M65" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="N65" s="5" t="s">
         <v>140</v>
+      </c>
+      <c r="O65" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="P65" s="33"/>
       <c r="Q65" s="5"/>
       <c r="R65" s="5" t="s">
-        <v>60</v>
+        <v>177</v>
       </c>
       <c r="S65" s="5"/>
       <c r="T65" s="5"/>
       <c r="U65" s="34"/>
-      <c r="V65" s="52"/>
       <c r="W65" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="X65" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y65" s="52"/>
-      <c r="Z65" s="102" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA65" s="102"/>
-      <c r="AB65" s="102"/>
-      <c r="AC65" s="102"/>
-      <c r="AD65" s="102"/>
-      <c r="AE65" s="102"/>
-      <c r="AH65" s="79" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI65" s="54"/>
-      <c r="AJ65" s="54"/>
-      <c r="AK65" s="54"/>
-      <c r="AL65" s="54"/>
-      <c r="AM65" s="54"/>
-      <c r="AN65" s="54"/>
-      <c r="AO65" s="55"/>
-      <c r="AP65" s="26"/>
-      <c r="AQ65" s="27"/>
-      <c r="AR65" s="27"/>
-    </row>
-    <row r="66" spans="4:52" ht="16" customHeight="1">
+      <c r="X65" s="5"/>
+      <c r="AR65" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="4:44" ht="16" customHeight="1">
       <c r="D66" s="5" t="s">
         <v>139</v>
       </c>
       <c r="F66" s="33"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5" t="s">
-        <v>80</v>
-      </c>
+      <c r="G66" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="34"/>
-      <c r="M66" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="N66" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P66" s="33"/>
-      <c r="Q66" s="5"/>
+      <c r="O66" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q66" s="33"/>
       <c r="R66" s="5"/>
       <c r="S66" s="5" t="s">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="T66" s="5"/>
       <c r="U66" s="34"/>
-      <c r="V66" s="52"/>
-      <c r="W66" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="X66" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y66" s="52"/>
-      <c r="AH66" s="33"/>
-      <c r="AI66" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ66" s="5"/>
-      <c r="AK66" s="5"/>
-      <c r="AL66" s="5"/>
-      <c r="AM66" s="5"/>
-      <c r="AN66" s="5"/>
-      <c r="AO66" s="34"/>
-    </row>
-    <row r="67" spans="4:52" ht="16" customHeight="1">
+      <c r="X66" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z66" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA66" s="54"/>
+      <c r="AB66" s="54"/>
+      <c r="AC66" s="54"/>
+      <c r="AD66" s="54"/>
+      <c r="AE66" s="55"/>
+      <c r="AR66" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="4:44" ht="16" customHeight="1">
       <c r="D67" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F67" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="G67" s="5" t="s">
-        <v>81</v>
-      </c>
+      <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
       <c r="J67" s="34"/>
-      <c r="M67" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="N67" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P67" s="33"/>
-      <c r="Q67" s="5"/>
+      <c r="O67" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q67" s="33"/>
       <c r="R67" s="5"/>
-      <c r="S67" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="T67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5" t="s">
+        <v>235</v>
+      </c>
       <c r="U67" s="34"/>
-      <c r="V67" s="52"/>
       <c r="W67" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X67" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y67" s="52"/>
-      <c r="AF67" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH67" s="35"/>
-      <c r="AI67" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="AJ67" s="36"/>
-      <c r="AK67" s="36"/>
-      <c r="AL67" s="36"/>
-      <c r="AM67" s="36"/>
-      <c r="AN67" s="36"/>
-      <c r="AO67" s="37"/>
-    </row>
-    <row r="68" spans="4:52" ht="16" customHeight="1">
+      <c r="Z67" s="33"/>
+      <c r="AA67" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB67" s="5"/>
+      <c r="AC67" s="5"/>
+      <c r="AD67" s="5"/>
+      <c r="AE67" s="34"/>
+      <c r="AR67" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="4:44" ht="16" customHeight="1">
       <c r="F68" s="33"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5" t="s">
-        <v>82</v>
-      </c>
+      <c r="G68" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H68" s="5"/>
       <c r="I68" s="5"/>
       <c r="J68" s="34"/>
-      <c r="M68" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="N68" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P68" s="33"/>
-      <c r="Q68" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="R68" s="39"/>
-      <c r="S68" s="39"/>
-      <c r="T68" s="39"/>
-      <c r="U68" s="40"/>
-      <c r="V68" s="52"/>
+      <c r="O68" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q68" s="33"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="U68" s="34"/>
       <c r="W68" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="X68" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y68" s="52"/>
-      <c r="AF68" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI68" s="78" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ68" s="78"/>
-      <c r="AK68" s="78"/>
-      <c r="AL68" s="78"/>
-      <c r="AM68" s="78"/>
-    </row>
-    <row r="69" spans="4:52" ht="16" customHeight="1">
+        <v>228</v>
+      </c>
+      <c r="X68" s="5"/>
+      <c r="Z68" s="33"/>
+      <c r="AA68" s="5"/>
+      <c r="AB68" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC68" s="5"/>
+      <c r="AD68" s="5"/>
+      <c r="AE68" s="34"/>
+    </row>
+    <row r="69" spans="4:44" ht="16" customHeight="1">
       <c r="F69" s="33"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I69" s="5"/>
       <c r="J69" s="34"/>
-      <c r="M69" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="N69" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P69" s="33"/>
-      <c r="R69" s="39"/>
-      <c r="S69" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="T69" s="39"/>
-      <c r="U69" s="40"/>
-      <c r="V69" s="52"/>
+      <c r="O69" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q69" s="33"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="34"/>
       <c r="W69" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X69" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y69" s="52"/>
-      <c r="Z69" t="s">
-        <v>227</v>
-      </c>
-      <c r="AF69" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH69" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="AI69" s="54"/>
-      <c r="AJ69" s="54"/>
-      <c r="AK69" s="54"/>
-      <c r="AL69" s="54"/>
-      <c r="AM69" s="54"/>
-      <c r="AN69" s="54"/>
-      <c r="AO69" s="55"/>
-    </row>
-    <row r="70" spans="4:52" ht="16" customHeight="1">
-      <c r="D70" s="5" t="s">
-        <v>139</v>
-      </c>
+      <c r="Z69" s="35"/>
+      <c r="AA69" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB69" s="36"/>
+      <c r="AC69" s="36"/>
+      <c r="AD69" s="36"/>
+      <c r="AE69" s="37"/>
+    </row>
+    <row r="70" spans="4:44" ht="16" customHeight="1">
       <c r="F70" s="33"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I70" s="5"/>
       <c r="J70" s="34"/>
-      <c r="M70" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="N70" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P70" s="33"/>
-      <c r="T70" t="s">
-        <v>238</v>
-      </c>
-      <c r="U70" s="40"/>
-      <c r="V70" s="52"/>
+      <c r="O70" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q70" s="33"/>
+      <c r="R70" s="5"/>
       <c r="W70" s="5" t="s">
-        <v>244</v>
+        <v>140</v>
       </c>
       <c r="X70" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="Y70" s="52"/>
-      <c r="AA70" t="s">
-        <v>231</v>
-      </c>
-      <c r="AF70" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH70" s="33"/>
-      <c r="AI70" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ70" s="5"/>
-      <c r="AK70" s="5"/>
-      <c r="AL70" s="5"/>
-      <c r="AM70" s="5"/>
-      <c r="AN70" s="5"/>
-      <c r="AO70" s="34"/>
-    </row>
-    <row r="71" spans="4:52" ht="16" customHeight="1">
-      <c r="D71" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="F71" s="33" t="s">
-        <v>143</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="AH70" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="AI70" s="54"/>
+      <c r="AJ70" s="54"/>
+      <c r="AK70" s="54"/>
+      <c r="AL70" s="54"/>
+      <c r="AM70" s="54"/>
+      <c r="AN70" s="54"/>
+      <c r="AO70" s="55"/>
+    </row>
+    <row r="71" spans="4:44" ht="16" customHeight="1">
+      <c r="D71" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F71" s="33"/>
       <c r="G71" s="5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="34"/>
-      <c r="M71" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="N71" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P71" s="33"/>
-      <c r="U71" s="40"/>
+      <c r="O71" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q71" s="33"/>
+      <c r="R71" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="34"/>
       <c r="V71" s="52"/>
-      <c r="W71" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="X71" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="W71" s="5"/>
+      <c r="X71" s="5"/>
       <c r="Y71" s="52"/>
-      <c r="AF71" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH71" s="33"/>
-      <c r="AI71" s="5"/>
-      <c r="AJ71" s="5" t="s">
-        <v>159</v>
-      </c>
+      <c r="Z71" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH71" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI71" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ71" s="5"/>
       <c r="AK71" s="5"/>
       <c r="AL71" s="5"/>
       <c r="AM71" s="5"/>
       <c r="AN71" s="5"/>
       <c r="AO71" s="34"/>
     </row>
-    <row r="72" spans="4:52" ht="16" customHeight="1">
-      <c r="D72" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F72" s="33"/>
+    <row r="72" spans="4:44" ht="16" customHeight="1">
+      <c r="D72" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="F72" s="33" t="s">
+        <v>143</v>
+      </c>
       <c r="G72" s="5"/>
       <c r="H72" s="5" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I72" s="5"/>
       <c r="J72" s="34"/>
-      <c r="M72" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="N72" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P72" s="33"/>
-      <c r="Q72" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="R72" s="39"/>
-      <c r="S72" s="39"/>
-      <c r="T72" s="39"/>
-      <c r="U72" s="40"/>
+      <c r="O72" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q72" s="33"/>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="34"/>
       <c r="V72" s="52"/>
       <c r="W72" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X72" s="5" t="s">
-        <v>140</v>
+        <v>228</v>
       </c>
       <c r="Y72" s="52"/>
-      <c r="AF72" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH72" s="33"/>
-      <c r="AI72" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="AJ72" s="5"/>
-      <c r="AK72" s="5"/>
-      <c r="AL72" s="5"/>
-      <c r="AM72" s="5"/>
-      <c r="AN72" s="5"/>
-      <c r="AO72" s="34"/>
-    </row>
-    <row r="73" spans="4:52" ht="16" customHeight="1">
-      <c r="D73" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="F73" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="G73" s="5"/>
+      <c r="AA72" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH72" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI72" s="36"/>
+      <c r="AJ72" s="36"/>
+      <c r="AK72" s="36"/>
+      <c r="AL72" s="36"/>
+      <c r="AM72" s="36"/>
+      <c r="AN72" s="36"/>
+      <c r="AO72" s="37"/>
+      <c r="AP72" s="26"/>
+      <c r="AQ72" s="27"/>
+      <c r="AR72" s="27"/>
+    </row>
+    <row r="73" spans="4:44" ht="16" customHeight="1">
+      <c r="F73" s="33"/>
+      <c r="G73" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
       <c r="J73" s="34"/>
-      <c r="M73" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="N73" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P73" s="33"/>
-      <c r="Q73" s="39"/>
-      <c r="R73" s="39"/>
-      <c r="S73" s="39"/>
-      <c r="T73" s="39"/>
-      <c r="U73" s="40"/>
+      <c r="O73" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q73" s="33"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="34"/>
       <c r="V73" s="52"/>
       <c r="W73" s="5" t="s">
         <v>140</v>
@@ -6103,42 +6081,31 @@
         <v>140</v>
       </c>
       <c r="Y73" s="52"/>
-      <c r="AF73" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH73" s="33"/>
-      <c r="AI73" s="5"/>
-      <c r="AJ73" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="AK73" s="5"/>
-      <c r="AL73" s="5"/>
-      <c r="AM73" s="5"/>
-      <c r="AN73" s="5"/>
-      <c r="AO73" s="34"/>
-    </row>
-    <row r="74" spans="4:52" ht="16" customHeight="1">
+      <c r="AH73" s="77" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="74" spans="4:44" ht="16" customHeight="1">
       <c r="F74" s="33"/>
-      <c r="G74" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="I74" s="5"/>
       <c r="J74" s="34"/>
-      <c r="M74" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="N74" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P74" s="33"/>
-      <c r="Q74" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="R74" s="39"/>
-      <c r="S74" s="39"/>
-      <c r="T74" s="39"/>
-      <c r="U74" s="40"/>
+      <c r="O74" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q74" s="33"/>
+      <c r="R74" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="34"/>
       <c r="V74" s="52"/>
       <c r="W74" s="5" t="s">
         <v>140</v>
@@ -6147,467 +6114,509 @@
         <v>140</v>
       </c>
       <c r="Y74" s="52"/>
-      <c r="Z74" s="68" t="s">
-        <v>228</v>
-      </c>
-      <c r="AF74" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH74" s="35"/>
-      <c r="AI74" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="AJ74" s="36"/>
-      <c r="AK74" s="36"/>
-      <c r="AL74" s="36"/>
-      <c r="AM74" s="36"/>
-      <c r="AN74" s="36"/>
-      <c r="AO74" s="37"/>
-      <c r="AS74" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="AT74" s="54"/>
-      <c r="AU74" s="54"/>
-      <c r="AV74" s="54"/>
-      <c r="AW74" s="54"/>
-      <c r="AX74" s="54"/>
-      <c r="AY74" s="54"/>
-      <c r="AZ74" s="55"/>
-    </row>
-    <row r="75" spans="4:52" ht="16" customHeight="1">
+      <c r="Z74" s="104" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA74" s="104"/>
+      <c r="AB74" s="104"/>
+      <c r="AC74" s="104"/>
+      <c r="AD74" s="104"/>
+      <c r="AE74" s="104"/>
+      <c r="AH74" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="AI74" s="54"/>
+      <c r="AJ74" s="54"/>
+      <c r="AK74" s="54"/>
+      <c r="AL74" s="54"/>
+      <c r="AM74" s="54"/>
+      <c r="AN74" s="54"/>
+      <c r="AO74" s="55"/>
+      <c r="AP74" s="26"/>
+      <c r="AQ74" s="27"/>
+      <c r="AR74" s="27"/>
+    </row>
+    <row r="75" spans="4:44" ht="16" customHeight="1">
+      <c r="D75" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="F75" s="33"/>
       <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
+      <c r="H75" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="I75" s="5"/>
       <c r="J75" s="34"/>
-      <c r="M75" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="N75" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P75" s="33"/>
-      <c r="Q75" s="39"/>
-      <c r="R75" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="S75" s="39"/>
-      <c r="T75" s="39"/>
-      <c r="U75" s="40"/>
+      <c r="O75" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q75" s="33"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="T75" s="5"/>
+      <c r="U75" s="34"/>
+      <c r="V75" s="52"/>
       <c r="W75" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X75" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA75" t="s">
-        <v>231</v>
-      </c>
-      <c r="AF75" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI75" s="78"/>
-      <c r="AS75" s="33"/>
-      <c r="AT75" s="78" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU75" s="5"/>
-      <c r="AV75" s="5"/>
-      <c r="AW75" s="5"/>
-      <c r="AX75" s="5"/>
-      <c r="AY75" s="5"/>
-      <c r="AZ75" s="34"/>
-    </row>
-    <row r="76" spans="4:52" ht="16" customHeight="1">
-      <c r="D76" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F76" s="33"/>
-      <c r="G76" s="50" t="s">
-        <v>88</v>
+        <v>140</v>
+      </c>
+      <c r="Y75" s="52"/>
+      <c r="AH75" s="33"/>
+      <c r="AI75" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ75" s="5"/>
+      <c r="AK75" s="5"/>
+      <c r="AL75" s="5"/>
+      <c r="AM75" s="5"/>
+      <c r="AN75" s="5"/>
+      <c r="AO75" s="34"/>
+    </row>
+    <row r="76" spans="4:44" ht="16" customHeight="1">
+      <c r="D76" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
       <c r="J76" s="34"/>
-      <c r="M76" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="N76" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P76" s="33"/>
-      <c r="Q76" s="39"/>
-      <c r="R76" s="39"/>
-      <c r="S76" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="T76" s="39"/>
-      <c r="U76" s="40"/>
+      <c r="O76" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q76" s="33"/>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="T76" s="5"/>
+      <c r="U76" s="34"/>
+      <c r="V76" s="52"/>
       <c r="W76" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X76" s="5" t="s">
         <v>140</v>
       </c>
+      <c r="Y76" s="52"/>
       <c r="AF76" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS76" s="33"/>
-      <c r="AT76" s="78" t="s">
-        <v>166</v>
-      </c>
-      <c r="AU76" s="5"/>
-      <c r="AV76" s="5"/>
-      <c r="AW76" s="5"/>
-      <c r="AX76" s="5"/>
-      <c r="AY76" s="5"/>
-      <c r="AZ76" s="34"/>
-    </row>
-    <row r="77" spans="4:52" ht="16" customHeight="1">
-      <c r="D77" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="F77" s="33" t="s">
-        <v>143</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AH76" s="35"/>
+      <c r="AI76" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="AJ76" s="36"/>
+      <c r="AK76" s="36"/>
+      <c r="AL76" s="36"/>
+      <c r="AM76" s="36"/>
+      <c r="AN76" s="36"/>
+      <c r="AO76" s="37"/>
+    </row>
+    <row r="77" spans="4:44" ht="16" customHeight="1">
+      <c r="F77" s="33"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I77" s="5"/>
       <c r="J77" s="34"/>
-      <c r="M77" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="N77" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P77" s="33"/>
-      <c r="Q77" s="39"/>
-      <c r="R77" s="39"/>
+      <c r="O77" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q77" s="33"/>
+      <c r="R77" s="39" t="s">
+        <v>125</v>
+      </c>
       <c r="S77" s="39"/>
       <c r="T77" s="39"/>
       <c r="U77" s="40"/>
+      <c r="V77" s="52"/>
       <c r="W77" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X77" s="5" t="s">
         <v>140</v>
       </c>
+      <c r="Y77" s="52"/>
       <c r="AF77" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AS77" s="33"/>
-      <c r="AT77" s="78"/>
-      <c r="AU77" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="AV77" s="5"/>
-      <c r="AW77" s="5"/>
-      <c r="AX77" s="5"/>
-      <c r="AY77" s="5"/>
-      <c r="AZ77" s="34"/>
-    </row>
-    <row r="78" spans="4:52" ht="16" customHeight="1">
+      <c r="AI77" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ77" s="77"/>
+      <c r="AK77" s="77"/>
+      <c r="AL77" s="77"/>
+      <c r="AM77" s="77"/>
+    </row>
+    <row r="78" spans="4:44" ht="16" customHeight="1">
       <c r="F78" s="33"/>
-      <c r="G78" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="I78" s="5"/>
       <c r="J78" s="34"/>
-      <c r="M78" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="N78" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P78" s="33"/>
-      <c r="Q78" s="39"/>
-      <c r="R78" s="39"/>
+      <c r="O78" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q78" s="33"/>
       <c r="S78" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="T78" s="39"/>
       <c r="U78" s="40"/>
+      <c r="V78" s="52"/>
       <c r="W78" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X78" s="5" t="s">
         <v>140</v>
       </c>
+      <c r="Y78" s="52"/>
+      <c r="Z78" t="s">
+        <v>226</v>
+      </c>
       <c r="AF78" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AS78" s="33"/>
-      <c r="AT78" s="5"/>
-      <c r="AU78" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AV78" s="5"/>
-      <c r="AW78" s="5"/>
-      <c r="AX78" s="5"/>
-      <c r="AY78" s="5"/>
-      <c r="AZ78" s="34"/>
-    </row>
-    <row r="79" spans="4:52" ht="16" customHeight="1">
+      <c r="AH78" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI78" s="54"/>
+      <c r="AJ78" s="54"/>
+      <c r="AK78" s="54"/>
+      <c r="AL78" s="54"/>
+      <c r="AM78" s="54"/>
+      <c r="AN78" s="54"/>
+      <c r="AO78" s="55"/>
+    </row>
+    <row r="79" spans="4:44" ht="16" customHeight="1">
+      <c r="D79" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="F79" s="33"/>
       <c r="G79" s="5"/>
-      <c r="H79" s="50" t="s">
-        <v>91</v>
+      <c r="H79" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="I79" s="5"/>
       <c r="J79" s="34"/>
-      <c r="M79" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="N79" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P79" s="33"/>
-      <c r="Q79" s="39"/>
-      <c r="R79" s="39"/>
-      <c r="S79" s="39"/>
-      <c r="T79" s="39"/>
+      <c r="O79" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q79" s="33"/>
+      <c r="T79" t="s">
+        <v>237</v>
+      </c>
       <c r="U79" s="40"/>
+      <c r="V79" s="52"/>
       <c r="W79" s="5" t="s">
-        <v>140</v>
+        <v>243</v>
       </c>
       <c r="X79" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z79" t="s">
-        <v>235</v>
+        <v>228</v>
+      </c>
+      <c r="Y79" s="52"/>
+      <c r="AA79" t="s">
+        <v>230</v>
       </c>
       <c r="AF79" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AS79" s="33"/>
-      <c r="AT79" s="5"/>
-      <c r="AU79" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="AV79" s="5"/>
-      <c r="AW79" s="5"/>
-      <c r="AX79" s="5"/>
-      <c r="AY79" s="5"/>
-      <c r="AZ79" s="34"/>
-    </row>
-    <row r="80" spans="4:52" ht="16" customHeight="1">
-      <c r="D80" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F80" s="33"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="50" t="s">
-        <v>92</v>
-      </c>
+      <c r="AH79" s="33"/>
+      <c r="AI79" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ79" s="5"/>
+      <c r="AK79" s="5"/>
+      <c r="AL79" s="5"/>
+      <c r="AM79" s="5"/>
+      <c r="AN79" s="5"/>
+      <c r="AO79" s="34"/>
+    </row>
+    <row r="80" spans="4:44" ht="16" customHeight="1">
+      <c r="D80" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="F80" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="34"/>
-      <c r="M80" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="N80" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P80" s="33"/>
-      <c r="Q80" s="39"/>
-      <c r="R80" s="39"/>
-      <c r="S80" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="T80" s="39"/>
+      <c r="O80" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q80" s="33"/>
       <c r="U80" s="40"/>
+      <c r="V80" s="52"/>
       <c r="W80" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X80" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA80" t="s">
-        <v>231</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="Y80" s="52"/>
       <c r="AF80" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AS80" s="33"/>
-      <c r="AT80" s="5"/>
-      <c r="AU80" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="AV80" s="5"/>
-      <c r="AW80" s="5"/>
-      <c r="AX80" s="5"/>
-      <c r="AY80" s="5"/>
-      <c r="AZ80" s="34"/>
+      <c r="AH80" s="33"/>
+      <c r="AI80" s="5"/>
+      <c r="AJ80" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK80" s="5"/>
+      <c r="AL80" s="5"/>
+      <c r="AM80" s="5"/>
+      <c r="AN80" s="5"/>
+      <c r="AO80" s="34"/>
     </row>
     <row r="81" spans="4:52" ht="16" customHeight="1">
-      <c r="D81" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="F81" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="G81" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="H81" s="5"/>
+      <c r="D81" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F81" s="33"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="I81" s="5"/>
       <c r="J81" s="34"/>
-      <c r="M81" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="N81" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P81" s="35"/>
-      <c r="Q81" s="56"/>
-      <c r="R81" s="56"/>
-      <c r="S81" s="56"/>
-      <c r="T81" s="56"/>
-      <c r="U81" s="57"/>
+      <c r="O81" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q81" s="33"/>
+      <c r="R81" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="S81" s="39"/>
+      <c r="T81" s="39"/>
+      <c r="U81" s="40"/>
+      <c r="V81" s="52"/>
       <c r="W81" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X81" s="5" t="s">
         <v>140</v>
       </c>
+      <c r="Y81" s="52"/>
       <c r="AF81" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AH81" t="s">
-        <v>172</v>
-      </c>
-      <c r="AS81" s="35"/>
-      <c r="AT81" s="80" t="s">
-        <v>163</v>
-      </c>
-      <c r="AU81" s="36"/>
-      <c r="AV81" s="36"/>
-      <c r="AW81" s="36"/>
-      <c r="AX81" s="36"/>
-      <c r="AY81" s="36"/>
-      <c r="AZ81" s="37"/>
+      <c r="AH81" s="33"/>
+      <c r="AI81" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ81" s="5"/>
+      <c r="AK81" s="5"/>
+      <c r="AL81" s="5"/>
+      <c r="AM81" s="5"/>
+      <c r="AN81" s="5"/>
+      <c r="AO81" s="34"/>
     </row>
     <row r="82" spans="4:52" ht="16" customHeight="1">
-      <c r="D82" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F82" s="33"/>
+      <c r="D82" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="F82" s="33" t="s">
+        <v>143</v>
+      </c>
       <c r="G82" s="5"/>
-      <c r="H82" s="5" t="s">
-        <v>94</v>
-      </c>
+      <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="34"/>
-      <c r="M82" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="N82" s="5" t="s">
         <v>140</v>
       </c>
+      <c r="O82" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q82" s="33"/>
+      <c r="R82" s="39"/>
+      <c r="S82" s="39"/>
+      <c r="T82" s="39"/>
+      <c r="U82" s="40"/>
+      <c r="V82" s="52"/>
       <c r="W82" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X82" s="5" t="s">
         <v>140</v>
       </c>
+      <c r="Y82" s="52"/>
       <c r="AF82" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AI82" s="78" t="s">
-        <v>134</v>
-      </c>
+      <c r="AH82" s="33"/>
+      <c r="AI82" s="5"/>
+      <c r="AJ82" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK82" s="5"/>
+      <c r="AL82" s="5"/>
+      <c r="AM82" s="5"/>
+      <c r="AN82" s="5"/>
+      <c r="AO82" s="34"/>
     </row>
     <row r="83" spans="4:52" ht="16" customHeight="1">
-      <c r="D83" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="F83" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="G83" s="50" t="s">
-        <v>95</v>
+      <c r="F83" s="33"/>
+      <c r="G83" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
       <c r="J83" s="34"/>
-      <c r="M83" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="N83" s="5" t="s">
         <v>140</v>
       </c>
+      <c r="O83" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q83" s="33"/>
+      <c r="R83" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="S83" s="39"/>
+      <c r="T83" s="39"/>
+      <c r="U83" s="40"/>
+      <c r="V83" s="52"/>
       <c r="W83" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X83" s="5" t="s">
         <v>140</v>
       </c>
+      <c r="Y83" s="52"/>
+      <c r="Z83" s="68" t="s">
+        <v>227</v>
+      </c>
       <c r="AF83" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AH83" t="s">
-        <v>173</v>
-      </c>
+      <c r="AH83" s="35"/>
+      <c r="AI83" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ83" s="36"/>
+      <c r="AK83" s="36"/>
+      <c r="AL83" s="36"/>
+      <c r="AM83" s="36"/>
+      <c r="AN83" s="36"/>
+      <c r="AO83" s="37"/>
+      <c r="AS83" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT83" s="54"/>
+      <c r="AU83" s="54"/>
+      <c r="AV83" s="54"/>
+      <c r="AW83" s="54"/>
+      <c r="AX83" s="54"/>
+      <c r="AY83" s="54"/>
+      <c r="AZ83" s="55"/>
     </row>
     <row r="84" spans="4:52" ht="16" customHeight="1">
-      <c r="D84" s="5" t="s">
-        <v>139</v>
-      </c>
       <c r="F84" s="33"/>
       <c r="G84" s="5"/>
-      <c r="H84" s="5" t="s">
-        <v>97</v>
-      </c>
+      <c r="H84" s="5"/>
       <c r="I84" s="5"/>
       <c r="J84" s="34"/>
-      <c r="M84" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="N84" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="P84" t="s">
-        <v>242</v>
-      </c>
+      <c r="O84" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q84" s="33"/>
+      <c r="R84" s="39"/>
+      <c r="S84" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="T84" s="39"/>
+      <c r="U84" s="40"/>
       <c r="W84" s="5" t="s">
         <v>140</v>
       </c>
       <c r="X84" s="5" t="s">
-        <v>140</v>
+        <v>228</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>230</v>
       </c>
       <c r="AF84" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AI84" s="68" t="s">
-        <v>174</v>
-      </c>
+      <c r="AI84" s="77"/>
+      <c r="AS84" s="33"/>
+      <c r="AT84" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU84" s="5"/>
+      <c r="AV84" s="5"/>
+      <c r="AW84" s="5"/>
+      <c r="AX84" s="5"/>
+      <c r="AY84" s="5"/>
+      <c r="AZ84" s="34"/>
     </row>
     <row r="85" spans="4:52" ht="16" customHeight="1">
-      <c r="D85" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="F85" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>96</v>
+      <c r="D85" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F85" s="33"/>
+      <c r="G85" s="50" t="s">
+        <v>88</v>
       </c>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="34"/>
-      <c r="M85" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="N85" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Q85" t="s">
-        <v>243</v>
-      </c>
+      <c r="O85" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q85" s="33"/>
+      <c r="R85" s="39"/>
+      <c r="S85" s="39"/>
+      <c r="T85" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="U85" s="40"/>
       <c r="W85" s="5" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="X85" s="5" t="s">
         <v>140</v>
@@ -6615,123 +6624,185 @@
       <c r="AF85" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AJ85" t="s">
-        <v>175</v>
-      </c>
+      <c r="AS85" s="33"/>
+      <c r="AT85" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU85" s="5"/>
+      <c r="AV85" s="5"/>
+      <c r="AW85" s="5"/>
+      <c r="AX85" s="5"/>
+      <c r="AY85" s="5"/>
+      <c r="AZ85" s="34"/>
     </row>
     <row r="86" spans="4:52" ht="16" customHeight="1">
-      <c r="F86" s="33"/>
+      <c r="D86" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="F86" s="33" t="s">
+        <v>143</v>
+      </c>
       <c r="G86" s="5"/>
       <c r="H86" s="5" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I86" s="5"/>
       <c r="J86" s="34"/>
-      <c r="M86" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="N86" s="5" t="s">
         <v>140</v>
       </c>
+      <c r="O86" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q86" s="33"/>
+      <c r="R86" s="39"/>
+      <c r="S86" s="39"/>
+      <c r="T86" s="39"/>
+      <c r="U86" s="40"/>
+      <c r="W86" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="X86" s="5" t="s">
         <v>140</v>
       </c>
       <c r="AF86" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AI86" s="81" t="s">
-        <v>176</v>
-      </c>
+      <c r="AS86" s="33"/>
+      <c r="AT86" s="77"/>
+      <c r="AU86" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="AV86" s="5"/>
+      <c r="AW86" s="5"/>
+      <c r="AX86" s="5"/>
+      <c r="AY86" s="5"/>
+      <c r="AZ86" s="34"/>
     </row>
     <row r="87" spans="4:52" ht="16" customHeight="1">
-      <c r="D87" s="5" t="s">
-        <v>139</v>
-      </c>
       <c r="F87" s="33"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5" t="s">
-        <v>99</v>
-      </c>
+      <c r="G87" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H87" s="5"/>
       <c r="I87" s="5"/>
       <c r="J87" s="34"/>
-      <c r="M87" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="N87" s="5" t="s">
         <v>140</v>
       </c>
+      <c r="O87" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q87" s="33"/>
+      <c r="R87" s="39"/>
+      <c r="S87" s="39"/>
+      <c r="T87" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="U87" s="40"/>
+      <c r="W87" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="X87" s="5" t="s">
         <v>140</v>
       </c>
       <c r="AF87" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AJ87" t="s">
-        <v>177</v>
-      </c>
+      <c r="AS87" s="33"/>
+      <c r="AT87" s="5"/>
+      <c r="AU87" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="AV87" s="5"/>
+      <c r="AW87" s="5"/>
+      <c r="AX87" s="5"/>
+      <c r="AY87" s="5"/>
+      <c r="AZ87" s="34"/>
     </row>
     <row r="88" spans="4:52" ht="16" customHeight="1">
-      <c r="D88" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="F88" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="G88" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="H88" s="5"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="50" t="s">
+        <v>91</v>
+      </c>
       <c r="I88" s="5"/>
       <c r="J88" s="34"/>
-      <c r="M88" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="N88" s="5" t="s">
         <v>140</v>
       </c>
+      <c r="O88" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q88" s="33"/>
+      <c r="R88" s="39"/>
+      <c r="S88" s="39"/>
+      <c r="T88" s="39"/>
+      <c r="U88" s="40"/>
+      <c r="W88" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="X88" s="5" t="s">
         <v>140</v>
       </c>
+      <c r="Z88" t="s">
+        <v>234</v>
+      </c>
       <c r="AF88" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AK88" t="s">
-        <v>165</v>
-      </c>
-      <c r="AS88" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="AT88" s="54"/>
-      <c r="AU88" s="54"/>
-      <c r="AV88" s="54"/>
-      <c r="AW88" s="54"/>
-      <c r="AX88" s="54"/>
-      <c r="AY88" s="54"/>
-      <c r="AZ88" s="55"/>
+      <c r="AS88" s="33"/>
+      <c r="AT88" s="5"/>
+      <c r="AU88" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="AV88" s="5"/>
+      <c r="AW88" s="5"/>
+      <c r="AX88" s="5"/>
+      <c r="AY88" s="5"/>
+      <c r="AZ88" s="34"/>
     </row>
     <row r="89" spans="4:52" ht="16" customHeight="1">
+      <c r="D89" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="F89" s="33"/>
       <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
+      <c r="H89" s="50" t="s">
+        <v>92</v>
+      </c>
       <c r="I89" s="5"/>
       <c r="J89" s="34"/>
-      <c r="M89" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="N89" s="5" t="s">
         <v>140</v>
       </c>
+      <c r="O89" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q89" s="33"/>
+      <c r="R89" s="39"/>
+      <c r="S89" s="39"/>
+      <c r="T89" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="U89" s="40"/>
+      <c r="W89" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="X89" s="5" t="s">
-        <v>140</v>
+        <v>228</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>230</v>
       </c>
       <c r="AF89" s="5" t="s">
         <v>140</v>
       </c>
       <c r="AS89" s="33"/>
-      <c r="AT89" s="78" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU89" s="5"/>
+      <c r="AT89" s="5"/>
+      <c r="AU89" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="AV89" s="5"/>
       <c r="AW89" s="5"/>
       <c r="AX89" s="5"/>
@@ -6739,1012 +6810,1292 @@
       <c r="AZ89" s="34"/>
     </row>
     <row r="90" spans="4:52" ht="16" customHeight="1">
-      <c r="D90" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F90" s="33"/>
+      <c r="D90" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="F90" s="33" t="s">
+        <v>143</v>
+      </c>
       <c r="G90" s="50" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="J90" s="34"/>
-      <c r="M90" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="N90" s="5" t="s">
         <v>140</v>
       </c>
+      <c r="O90" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q90" s="35"/>
+      <c r="R90" s="56"/>
+      <c r="S90" s="56"/>
+      <c r="T90" s="56"/>
+      <c r="U90" s="57"/>
+      <c r="W90" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="X90" s="5" t="s">
         <v>140</v>
       </c>
       <c r="AF90" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AS90" s="33"/>
-      <c r="AT90" s="78" t="s">
-        <v>166</v>
-      </c>
-      <c r="AU90" s="5"/>
-      <c r="AV90" s="5"/>
-      <c r="AW90" s="5"/>
-      <c r="AX90" s="5"/>
-      <c r="AY90" s="5"/>
-      <c r="AZ90" s="34"/>
+      <c r="AH90" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS90" s="35"/>
+      <c r="AT90" s="79" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU90" s="36"/>
+      <c r="AV90" s="36"/>
+      <c r="AW90" s="36"/>
+      <c r="AX90" s="36"/>
+      <c r="AY90" s="36"/>
+      <c r="AZ90" s="37"/>
     </row>
     <row r="91" spans="4:52" ht="16" customHeight="1">
-      <c r="D91" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="F91" s="33" t="s">
-        <v>143</v>
-      </c>
+      <c r="D91" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F91" s="33"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="I91" s="5"/>
       <c r="J91" s="34"/>
-      <c r="M91" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="N91" s="5" t="s">
         <v>140</v>
       </c>
+      <c r="O91" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W91" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="X91" s="5" t="s">
         <v>140</v>
       </c>
       <c r="AF91" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AH91" s="68" t="s">
-        <v>188</v>
-      </c>
-      <c r="AS91" s="33"/>
-      <c r="AT91" s="78"/>
-      <c r="AU91" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="AV91" s="5"/>
-      <c r="AW91" s="5"/>
-      <c r="AX91" s="5"/>
-      <c r="AY91" s="5"/>
-      <c r="AZ91" s="34"/>
+      <c r="AI91" s="77" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="92" spans="4:52" ht="16" customHeight="1">
-      <c r="F92" s="33"/>
-      <c r="G92" s="5" t="s">
-        <v>102</v>
+      <c r="D92" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="F92" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="G92" s="50" t="s">
+        <v>95</v>
       </c>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="34"/>
-      <c r="M92" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="N92" s="5" t="s">
         <v>140</v>
       </c>
+      <c r="O92" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="W92" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="X92" s="5" t="s">
         <v>140</v>
       </c>
       <c r="AF92" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AI92" t="s">
-        <v>185</v>
-      </c>
-      <c r="AS92" s="33"/>
-      <c r="AT92" s="5"/>
-      <c r="AU92" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="AV92" s="5"/>
-      <c r="AW92" s="5"/>
-      <c r="AX92" s="5"/>
-      <c r="AY92" s="5"/>
-      <c r="AZ92" s="34"/>
+      <c r="AH92" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="93" spans="4:52" ht="16" customHeight="1">
+      <c r="D93" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="F93" s="33"/>
       <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
+      <c r="H93" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="I93" s="5"/>
       <c r="J93" s="34"/>
-      <c r="M93" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="N93" s="5" t="s">
         <v>140</v>
       </c>
+      <c r="O93" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>241</v>
+      </c>
+      <c r="W93" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="X93" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Z93" s="53" t="s">
-        <v>201</v>
-      </c>
-      <c r="AA93" s="54"/>
-      <c r="AB93" s="54"/>
-      <c r="AC93" s="54"/>
-      <c r="AD93" s="54"/>
-      <c r="AE93" s="55"/>
-      <c r="AF93" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ93" t="s">
-        <v>186</v>
-      </c>
-      <c r="AS93" s="33"/>
-      <c r="AT93" s="5"/>
-      <c r="AU93" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="AV93" s="5"/>
-      <c r="AW93" s="5"/>
-      <c r="AX93" s="5"/>
-      <c r="AY93" s="5"/>
-      <c r="AZ93" s="34"/>
+      <c r="AF93" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI93" s="68" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="94" spans="4:52" ht="16" customHeight="1">
-      <c r="F94" s="33"/>
+      <c r="D94" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="F94" s="33" t="s">
+        <v>143</v>
+      </c>
       <c r="G94" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="34"/>
-      <c r="M94" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="N94" s="5" t="s">
         <v>140</v>
       </c>
+      <c r="O94" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="R94" t="s">
+        <v>242</v>
+      </c>
+      <c r="W94" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="X94" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Z94" s="33"/>
-      <c r="AA94" s="87" t="s">
-        <v>202</v>
-      </c>
-      <c r="AB94" s="5"/>
-      <c r="AC94" s="5"/>
-      <c r="AD94" s="5"/>
-      <c r="AE94" s="34"/>
-      <c r="AI94" t="s">
-        <v>190</v>
-      </c>
-      <c r="AS94" s="33"/>
-      <c r="AT94" s="5"/>
-      <c r="AU94" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="AV94" s="5"/>
-      <c r="AW94" s="5"/>
-      <c r="AX94" s="5"/>
-      <c r="AY94" s="5"/>
-      <c r="AZ94" s="34"/>
+      <c r="AF94" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ94" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="95" spans="4:52" ht="16" customHeight="1">
       <c r="F95" s="33"/>
       <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
+      <c r="H95" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="I95" s="5"/>
       <c r="J95" s="34"/>
-      <c r="M95" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="N95" s="5" t="s">
         <v>140</v>
       </c>
+      <c r="O95" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="X95" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Z95" s="33"/>
-      <c r="AA95" s="5"/>
-      <c r="AB95" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC95" s="5"/>
-      <c r="AD95" s="5"/>
-      <c r="AE95" s="34"/>
-      <c r="AJ95" t="s">
-        <v>191</v>
-      </c>
-      <c r="AS95" s="33"/>
-      <c r="AT95" s="5"/>
-      <c r="AU95" s="5"/>
-      <c r="AV95" s="5"/>
-      <c r="AW95" s="5"/>
-      <c r="AX95" s="5"/>
-      <c r="AY95" s="5"/>
-      <c r="AZ95" s="34"/>
+      <c r="AF95" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI95" s="80" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="96" spans="4:52" ht="16" customHeight="1">
+      <c r="D96" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="F96" s="33"/>
-      <c r="G96" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="H96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="I96" s="5"/>
       <c r="J96" s="34"/>
-      <c r="M96" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="N96" s="5" t="s">
         <v>140</v>
       </c>
+      <c r="O96" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="X96" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y96" s="90" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z96" s="35"/>
-      <c r="AA96" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="AB96" s="36"/>
-      <c r="AC96" s="36"/>
-      <c r="AD96" s="36"/>
-      <c r="AE96" s="37"/>
-      <c r="AS96" s="33"/>
-      <c r="AT96" s="5"/>
-      <c r="AU96" s="5"/>
-      <c r="AV96" s="5"/>
-      <c r="AW96" s="5"/>
-      <c r="AX96" s="5"/>
-      <c r="AY96" s="5"/>
-      <c r="AZ96" s="34"/>
+      <c r="AF96" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ96" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="97" spans="4:52" ht="16" customHeight="1">
-      <c r="F97" s="33"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="51" t="s">
-        <v>107</v>
-      </c>
+      <c r="D97" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="F97" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="G97" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="H97" s="5"/>
       <c r="I97" s="5"/>
       <c r="J97" s="34"/>
-      <c r="M97" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="N97" s="5" t="s">
         <v>140</v>
       </c>
+      <c r="O97" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="X97" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y97" s="91" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH97" t="s">
-        <v>179</v>
-      </c>
-      <c r="AS97" s="35"/>
-      <c r="AT97" s="80" t="s">
-        <v>163</v>
-      </c>
-      <c r="AU97" s="36"/>
-      <c r="AV97" s="36"/>
-      <c r="AW97" s="36"/>
-      <c r="AX97" s="36"/>
-      <c r="AY97" s="36"/>
-      <c r="AZ97" s="37"/>
+      <c r="AF97" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK97" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS97" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT97" s="54"/>
+      <c r="AU97" s="54"/>
+      <c r="AV97" s="54"/>
+      <c r="AW97" s="54"/>
+      <c r="AX97" s="54"/>
+      <c r="AY97" s="54"/>
+      <c r="AZ97" s="55"/>
     </row>
     <row r="98" spans="4:52" ht="16" customHeight="1">
       <c r="F98" s="33"/>
-      <c r="G98" s="5" t="s">
-        <v>106</v>
-      </c>
+      <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
       <c r="J98" s="34"/>
-      <c r="M98" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="N98" t="s">
-        <v>253</v>
-      </c>
-      <c r="P98" s="68" t="s">
-        <v>255</v>
+      <c r="N98" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="O98" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="X98" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y98" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="AI98" t="s">
-        <v>189</v>
-      </c>
+      <c r="AF98" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS98" s="33"/>
+      <c r="AT98" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU98" s="5"/>
+      <c r="AV98" s="5"/>
+      <c r="AW98" s="5"/>
+      <c r="AX98" s="5"/>
+      <c r="AY98" s="5"/>
+      <c r="AZ98" s="34"/>
     </row>
     <row r="99" spans="4:52" ht="16" customHeight="1">
+      <c r="D99" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="F99" s="33"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5" t="s">
-        <v>108</v>
-      </c>
+      <c r="G99" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="H99" s="5"/>
       <c r="I99" s="5"/>
       <c r="J99" s="34"/>
-      <c r="M99" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="N99" s="5"/>
-      <c r="Q99" s="81" t="s">
-        <v>251</v>
+      <c r="N99" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="O99" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="X99" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y99" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z99" s="78"/>
-      <c r="AI99" t="s">
-        <v>187</v>
-      </c>
+      <c r="AF99" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS99" s="33"/>
+      <c r="AT99" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU99" s="5"/>
+      <c r="AV99" s="5"/>
+      <c r="AW99" s="5"/>
+      <c r="AX99" s="5"/>
+      <c r="AY99" s="5"/>
+      <c r="AZ99" s="34"/>
     </row>
     <row r="100" spans="4:52" ht="16" customHeight="1">
-      <c r="F100" s="33"/>
-      <c r="G100" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H100" s="5"/>
+      <c r="D100" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="F100" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="I100" s="5"/>
       <c r="J100" s="34"/>
-      <c r="M100" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="N100" s="5"/>
-      <c r="Q100" s="81" t="s">
-        <v>254</v>
-      </c>
-      <c r="X100" s="5"/>
-      <c r="Y100" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z100" s="53" t="s">
-        <v>193</v>
-      </c>
-      <c r="AA100" s="54"/>
-      <c r="AB100" s="54"/>
-      <c r="AC100" s="54"/>
-      <c r="AD100" s="54"/>
-      <c r="AE100" s="55"/>
+      <c r="N100" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="O100" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X100" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="AF100" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="AI100" s="68" t="s">
-        <v>192</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="AH100" s="68" t="s">
+        <v>187</v>
+      </c>
+      <c r="AS100" s="33"/>
+      <c r="AT100" s="77"/>
+      <c r="AU100" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="AV100" s="5"/>
+      <c r="AW100" s="5"/>
+      <c r="AX100" s="5"/>
+      <c r="AY100" s="5"/>
+      <c r="AZ100" s="34"/>
     </row>
     <row r="101" spans="4:52" ht="16" customHeight="1">
       <c r="F101" s="33"/>
-      <c r="G101" s="5"/>
+      <c r="G101" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
       <c r="J101" s="34"/>
-      <c r="M101" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="N101" s="5"/>
+      <c r="N101" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="O101" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="X101" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y101" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z101" s="33"/>
-      <c r="AA101" s="5"/>
-      <c r="AB101" s="5"/>
-      <c r="AC101" s="5"/>
-      <c r="AD101" s="5"/>
-      <c r="AE101" s="34"/>
-      <c r="AF101" s="5"/>
-      <c r="AI101" s="68"/>
+      <c r="AF101" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI101" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS101" s="33"/>
+      <c r="AT101" s="5"/>
+      <c r="AU101" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="AV101" s="5"/>
+      <c r="AW101" s="5"/>
+      <c r="AX101" s="5"/>
+      <c r="AY101" s="5"/>
+      <c r="AZ101" s="34"/>
     </row>
     <row r="102" spans="4:52" ht="16" customHeight="1">
       <c r="F102" s="33"/>
-      <c r="G102" s="5" t="s">
-        <v>110</v>
-      </c>
+      <c r="G102" s="5"/>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
       <c r="J102" s="34"/>
-      <c r="M102" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="N102" s="5"/>
+      <c r="N102" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="O102" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="X102" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y102" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z102" s="33"/>
-      <c r="AA102" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="AB102" s="5"/>
-      <c r="AC102" s="5"/>
-      <c r="AD102" s="5"/>
-      <c r="AE102" s="34"/>
-      <c r="AF102" s="5"/>
-      <c r="AG102" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH102" s="68" t="s">
-        <v>247</v>
-      </c>
+      <c r="Z102" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA102" s="54"/>
+      <c r="AB102" s="54"/>
+      <c r="AC102" s="54"/>
+      <c r="AD102" s="54"/>
+      <c r="AE102" s="55"/>
+      <c r="AF102" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ102" t="s">
+        <v>185</v>
+      </c>
+      <c r="AS102" s="33"/>
+      <c r="AT102" s="5"/>
+      <c r="AU102" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="AV102" s="5"/>
+      <c r="AW102" s="5"/>
+      <c r="AX102" s="5"/>
+      <c r="AY102" s="5"/>
+      <c r="AZ102" s="34"/>
     </row>
     <row r="103" spans="4:52" ht="16" customHeight="1">
       <c r="F103" s="33"/>
-      <c r="G103" s="5"/>
+      <c r="G103" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
       <c r="J103" s="34"/>
-      <c r="M103" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="N103" s="5"/>
+      <c r="N103" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="O103" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="X103" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y103" s="86" t="s">
-        <v>140</v>
-      </c>
       <c r="Z103" s="33"/>
-      <c r="AA103" s="5"/>
+      <c r="AA103" s="86" t="s">
+        <v>201</v>
+      </c>
       <c r="AB103" s="5"/>
       <c r="AC103" s="5"/>
       <c r="AD103" s="5"/>
       <c r="AE103" s="34"/>
-      <c r="AF103" s="5"/>
       <c r="AI103" t="s">
-        <v>249</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="AS103" s="33"/>
+      <c r="AT103" s="5"/>
+      <c r="AU103" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="AV103" s="5"/>
+      <c r="AW103" s="5"/>
+      <c r="AX103" s="5"/>
+      <c r="AY103" s="5"/>
+      <c r="AZ103" s="34"/>
     </row>
     <row r="104" spans="4:52" ht="16" customHeight="1">
       <c r="F104" s="33"/>
-      <c r="G104" s="5" t="s">
-        <v>112</v>
-      </c>
+      <c r="G104" s="5"/>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
       <c r="J104" s="34"/>
-      <c r="M104" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="N104" s="5"/>
+      <c r="N104" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="O104" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="X104" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y104" s="86" t="s">
-        <v>140</v>
-      </c>
       <c r="Z104" s="33"/>
-      <c r="AA104" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="AB104" s="5"/>
+      <c r="AA104" s="5"/>
+      <c r="AB104" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="AC104" s="5"/>
       <c r="AD104" s="5"/>
       <c r="AE104" s="34"/>
       <c r="AJ104" t="s">
-        <v>250</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="AS104" s="33"/>
+      <c r="AT104" s="5"/>
+      <c r="AU104" s="5"/>
+      <c r="AV104" s="5"/>
+      <c r="AW104" s="5"/>
+      <c r="AX104" s="5"/>
+      <c r="AY104" s="5"/>
+      <c r="AZ104" s="34"/>
     </row>
     <row r="105" spans="4:52" ht="16" customHeight="1">
       <c r="F105" s="33"/>
-      <c r="G105" s="5"/>
+      <c r="G105" s="50" t="s">
+        <v>105</v>
+      </c>
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
       <c r="J105" s="34"/>
-      <c r="M105" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="N105" s="5"/>
+      <c r="N105" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="O105" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="X105" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y105" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z105" s="33"/>
-      <c r="AA105" s="5"/>
-      <c r="AB105" s="5"/>
-      <c r="AC105" s="5"/>
-      <c r="AD105" s="5"/>
-      <c r="AE105" s="34"/>
+      <c r="Y105" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z105" s="35"/>
+      <c r="AA105" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB105" s="36"/>
+      <c r="AC105" s="36"/>
+      <c r="AD105" s="36"/>
+      <c r="AE105" s="37"/>
+      <c r="AS105" s="33"/>
+      <c r="AT105" s="5"/>
+      <c r="AU105" s="5"/>
+      <c r="AV105" s="5"/>
+      <c r="AW105" s="5"/>
+      <c r="AX105" s="5"/>
+      <c r="AY105" s="5"/>
+      <c r="AZ105" s="34"/>
     </row>
     <row r="106" spans="4:52" ht="16" customHeight="1">
       <c r="F106" s="33"/>
-      <c r="G106" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="51" t="s">
+        <v>107</v>
+      </c>
       <c r="I106" s="5"/>
       <c r="J106" s="34"/>
-      <c r="M106" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="N106" s="5"/>
+      <c r="N106" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="O106" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="X106" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y106" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z106" s="33"/>
-      <c r="AA106" s="5"/>
-      <c r="AB106" s="5"/>
-      <c r="AC106" s="5"/>
-      <c r="AD106" s="5"/>
-      <c r="AE106" s="34"/>
+      <c r="Y106" s="90" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH106" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS106" s="35"/>
+      <c r="AT106" s="79" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU106" s="36"/>
+      <c r="AV106" s="36"/>
+      <c r="AW106" s="36"/>
+      <c r="AX106" s="36"/>
+      <c r="AY106" s="36"/>
+      <c r="AZ106" s="37"/>
     </row>
     <row r="107" spans="4:52" ht="16" customHeight="1">
-      <c r="D107" s="5" t="s">
-        <v>139</v>
-      </c>
       <c r="F107" s="33"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5" t="s">
-        <v>178</v>
-      </c>
+      <c r="G107" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H107" s="5"/>
       <c r="I107" s="5"/>
       <c r="J107" s="34"/>
-      <c r="M107" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="N107" s="5"/>
+      <c r="N107" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="O107" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q107" s="68" t="s">
+        <v>254</v>
+      </c>
       <c r="X107" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y107" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z107" s="35"/>
-      <c r="AA107" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="AB107" s="36"/>
-      <c r="AC107" s="36"/>
-      <c r="AD107" s="36"/>
-      <c r="AE107" s="37"/>
-      <c r="AS107" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="AT107" s="54"/>
-      <c r="AU107" s="54"/>
-      <c r="AV107" s="54"/>
-      <c r="AW107" s="54"/>
-      <c r="AX107" s="54"/>
-      <c r="AY107" s="54"/>
-      <c r="AZ107" s="55"/>
+      <c r="Y107" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI107" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="108" spans="4:52" ht="16" customHeight="1">
-      <c r="D108" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="F108" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="G108" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="H108" s="5"/>
+      <c r="F108" s="33"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="I108" s="5"/>
       <c r="J108" s="34"/>
-      <c r="M108" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="N108" s="5"/>
+      <c r="N108" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="R108" s="80" t="s">
+        <v>250</v>
+      </c>
       <c r="X108" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y108" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF108" s="86"/>
-      <c r="AS108" s="33"/>
-      <c r="AT108" s="78" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU108" s="5"/>
-      <c r="AV108" s="5"/>
-      <c r="AW108" s="5"/>
-      <c r="AX108" s="5"/>
-      <c r="AY108" s="5"/>
-      <c r="AZ108" s="34"/>
+      <c r="Y108" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z108" s="77"/>
+      <c r="AI108" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="109" spans="4:52" ht="16" customHeight="1">
-      <c r="D109" s="5" t="s">
-        <v>139</v>
-      </c>
       <c r="F109" s="33"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5" t="s">
-        <v>114</v>
-      </c>
+      <c r="G109" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H109" s="5"/>
       <c r="I109" s="5"/>
       <c r="J109" s="34"/>
-      <c r="M109" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="N109" s="5"/>
-      <c r="X109" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y109" s="86" t="s">
-        <v>140</v>
+      <c r="N109" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="R109" s="80" t="s">
+        <v>253</v>
+      </c>
+      <c r="X109" s="5"/>
+      <c r="Y109" s="61" t="s">
+        <v>143</v>
       </c>
       <c r="Z109" s="53" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="AA109" s="54"/>
       <c r="AB109" s="54"/>
       <c r="AC109" s="54"/>
       <c r="AD109" s="54"/>
       <c r="AE109" s="55"/>
-      <c r="AF109" s="86"/>
-      <c r="AS109" s="33"/>
-      <c r="AT109" s="78" t="s">
-        <v>166</v>
-      </c>
-      <c r="AU109" s="5"/>
-      <c r="AV109" s="5"/>
-      <c r="AW109" s="5"/>
-      <c r="AX109" s="5"/>
-      <c r="AY109" s="5"/>
-      <c r="AZ109" s="34"/>
+      <c r="AF109" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI109" s="68" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="110" spans="4:52" ht="16" customHeight="1">
-      <c r="D110" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="F110" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>113</v>
-      </c>
+      <c r="F110" s="33"/>
+      <c r="G110" s="5"/>
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
       <c r="J110" s="34"/>
-      <c r="M110" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="N110" s="5"/>
+      <c r="N110" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="X110" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y110" s="86" t="s">
+      <c r="Y110" s="85" t="s">
         <v>140</v>
       </c>
       <c r="Z110" s="33"/>
-      <c r="AA110" s="101" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB110" s="101"/>
-      <c r="AC110" s="101"/>
-      <c r="AD110" s="101"/>
+      <c r="AA110" s="5"/>
+      <c r="AB110" s="5"/>
+      <c r="AC110" s="5"/>
+      <c r="AD110" s="5"/>
       <c r="AE110" s="34"/>
-      <c r="AF110" s="86"/>
-      <c r="AH110" t="s">
-        <v>194</v>
-      </c>
-      <c r="AS110" s="33"/>
-      <c r="AT110" s="78"/>
-      <c r="AU110" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="AV110" s="5"/>
-      <c r="AW110" s="5"/>
-      <c r="AX110" s="5"/>
-      <c r="AY110" s="5"/>
-      <c r="AZ110" s="34"/>
+      <c r="AF110" s="5"/>
+      <c r="AI110" s="68"/>
     </row>
     <row r="111" spans="4:52" ht="16" customHeight="1">
       <c r="F111" s="33"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5" t="s">
-        <v>115</v>
-      </c>
+      <c r="G111" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H111" s="5"/>
       <c r="I111" s="5"/>
       <c r="J111" s="34"/>
-      <c r="M111" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="N111" s="5"/>
+      <c r="N111" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="X111" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Y111" s="90" t="s">
-        <v>149</v>
+      <c r="Y111" s="85" t="s">
+        <v>140</v>
       </c>
       <c r="Z111" s="33"/>
-      <c r="AA111" s="101"/>
-      <c r="AB111" s="101"/>
-      <c r="AC111" s="101"/>
-      <c r="AD111" s="101"/>
+      <c r="AA111" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="AB111" s="5"/>
+      <c r="AC111" s="5"/>
+      <c r="AD111" s="5"/>
       <c r="AE111" s="34"/>
       <c r="AF111" s="5"/>
-      <c r="AI111" t="s">
-        <v>196</v>
-      </c>
-      <c r="AS111" s="33"/>
-      <c r="AT111" s="5"/>
-      <c r="AU111" s="5"/>
-      <c r="AV111" s="5"/>
-      <c r="AW111" s="5"/>
-      <c r="AX111" s="5"/>
-      <c r="AY111" s="5"/>
-      <c r="AZ111" s="34"/>
+      <c r="AG111" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH111" s="68" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="112" spans="4:52" ht="16" customHeight="1">
       <c r="F112" s="33"/>
       <c r="G112" s="5"/>
-      <c r="H112" s="5" t="s">
-        <v>116</v>
-      </c>
+      <c r="H112" s="5"/>
       <c r="I112" s="5"/>
       <c r="J112" s="34"/>
-      <c r="M112" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="N112" s="5"/>
+      <c r="N112" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="X112" s="5" t="s">
         <v>140</v>
       </c>
+      <c r="Y112" s="85" t="s">
+        <v>140</v>
+      </c>
       <c r="Z112" s="33"/>
-      <c r="AA112" s="5" t="s">
-        <v>198</v>
-      </c>
+      <c r="AA112" s="5"/>
       <c r="AB112" s="5"/>
       <c r="AC112" s="5"/>
       <c r="AD112" s="5"/>
       <c r="AE112" s="34"/>
-      <c r="AF112" s="85"/>
-      <c r="AS112" s="33"/>
-      <c r="AT112" s="5"/>
-      <c r="AU112" s="5"/>
-      <c r="AV112" s="5"/>
-      <c r="AW112" s="5"/>
-      <c r="AX112" s="5"/>
-      <c r="AY112" s="5"/>
-      <c r="AZ112" s="34"/>
-    </row>
-    <row r="113" spans="6:52" ht="16" customHeight="1">
-      <c r="F113" s="35"/>
-      <c r="G113" s="36"/>
-      <c r="H113" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="I113" s="36"/>
-      <c r="J113" s="37"/>
-      <c r="M113" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="N113" s="5"/>
+      <c r="AF112" s="5"/>
+      <c r="AI112" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="113" spans="4:52" ht="16" customHeight="1">
+      <c r="F113" s="33"/>
+      <c r="G113" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="34"/>
+      <c r="N113" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="X113" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="Z113" s="35"/>
-      <c r="AA113" s="88" t="s">
+      <c r="Y113" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z113" s="33"/>
+      <c r="AA113" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="AB113" s="36"/>
-      <c r="AC113" s="36"/>
-      <c r="AD113" s="36"/>
-      <c r="AE113" s="37"/>
-      <c r="AS113" s="33"/>
-      <c r="AT113" s="5"/>
-      <c r="AU113" s="5"/>
-      <c r="AV113" s="5"/>
-      <c r="AW113" s="5"/>
-      <c r="AX113" s="5"/>
-      <c r="AY113" s="5"/>
-      <c r="AZ113" s="34"/>
-    </row>
-    <row r="114" spans="6:52" ht="16" customHeight="1">
-      <c r="H114" s="78" t="s">
-        <v>219</v>
-      </c>
-      <c r="M114" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="N114" s="39"/>
-      <c r="P114" t="s">
-        <v>230</v>
+      <c r="AB113" s="5"/>
+      <c r="AC113" s="5"/>
+      <c r="AD113" s="5"/>
+      <c r="AE113" s="34"/>
+      <c r="AJ113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="114" spans="4:52" ht="16" customHeight="1">
+      <c r="F114" s="33"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="34"/>
+      <c r="N114" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="X114" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="AH114" t="s">
+      <c r="Y114" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z114" s="33"/>
+      <c r="AA114" s="5"/>
+      <c r="AB114" s="5"/>
+      <c r="AC114" s="5"/>
+      <c r="AD114" s="5"/>
+      <c r="AE114" s="34"/>
+    </row>
+    <row r="115" spans="4:52" ht="16" customHeight="1">
+      <c r="F115" s="33"/>
+      <c r="G115" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="34"/>
+      <c r="N115" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X115" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y115" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z115" s="33"/>
+      <c r="AA115" s="5"/>
+      <c r="AB115" s="5"/>
+      <c r="AC115" s="5"/>
+      <c r="AD115" s="5"/>
+      <c r="AE115" s="34"/>
+    </row>
+    <row r="116" spans="4:52" ht="16" customHeight="1">
+      <c r="D116" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F116" s="33"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I116" s="5"/>
+      <c r="J116" s="34"/>
+      <c r="N116" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X116" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y116" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z116" s="35"/>
+      <c r="AA116" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB116" s="36"/>
+      <c r="AC116" s="36"/>
+      <c r="AD116" s="36"/>
+      <c r="AE116" s="37"/>
+      <c r="AS116" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT116" s="54"/>
+      <c r="AU116" s="54"/>
+      <c r="AV116" s="54"/>
+      <c r="AW116" s="54"/>
+      <c r="AX116" s="54"/>
+      <c r="AY116" s="54"/>
+      <c r="AZ116" s="55"/>
+    </row>
+    <row r="117" spans="4:52" ht="16" customHeight="1">
+      <c r="D117" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="F117" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="G117" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="34"/>
+      <c r="N117" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X117" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y117" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF117" s="85"/>
+      <c r="AS117" s="33"/>
+      <c r="AT117" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU117" s="5"/>
+      <c r="AV117" s="5"/>
+      <c r="AW117" s="5"/>
+      <c r="AX117" s="5"/>
+      <c r="AY117" s="5"/>
+      <c r="AZ117" s="34"/>
+    </row>
+    <row r="118" spans="4:52" ht="16" customHeight="1">
+      <c r="D118" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F118" s="33"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I118" s="5"/>
+      <c r="J118" s="34"/>
+      <c r="N118" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X118" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y118" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z118" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA118" s="54"/>
+      <c r="AB118" s="54"/>
+      <c r="AC118" s="54"/>
+      <c r="AD118" s="54"/>
+      <c r="AE118" s="55"/>
+      <c r="AF118" s="85"/>
+      <c r="AS118" s="33"/>
+      <c r="AT118" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU118" s="5"/>
+      <c r="AV118" s="5"/>
+      <c r="AW118" s="5"/>
+      <c r="AX118" s="5"/>
+      <c r="AY118" s="5"/>
+      <c r="AZ118" s="34"/>
+    </row>
+    <row r="119" spans="4:52" ht="16" customHeight="1">
+      <c r="D119" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="F119" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="34"/>
+      <c r="N119" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X119" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y119" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z119" s="33"/>
+      <c r="AA119" s="103" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB119" s="103"/>
+      <c r="AC119" s="103"/>
+      <c r="AD119" s="103"/>
+      <c r="AE119" s="34"/>
+      <c r="AF119" s="85"/>
+      <c r="AH119" t="s">
+        <v>193</v>
+      </c>
+      <c r="AS119" s="33"/>
+      <c r="AT119" s="77"/>
+      <c r="AU119" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="AV119" s="5"/>
+      <c r="AW119" s="5"/>
+      <c r="AX119" s="5"/>
+      <c r="AY119" s="5"/>
+      <c r="AZ119" s="34"/>
+    </row>
+    <row r="120" spans="4:52" ht="16" customHeight="1">
+      <c r="F120" s="33"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I120" s="5"/>
+      <c r="J120" s="34"/>
+      <c r="N120" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X120" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y120" s="89" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z120" s="33"/>
+      <c r="AA120" s="103"/>
+      <c r="AB120" s="103"/>
+      <c r="AC120" s="103"/>
+      <c r="AD120" s="103"/>
+      <c r="AE120" s="34"/>
+      <c r="AF120" s="5"/>
+      <c r="AI120" t="s">
         <v>195</v>
       </c>
-      <c r="AS114" s="35"/>
-      <c r="AT114" s="80" t="s">
-        <v>163</v>
-      </c>
-      <c r="AU114" s="36"/>
-      <c r="AV114" s="36"/>
-      <c r="AW114" s="36"/>
-      <c r="AX114" s="36"/>
-      <c r="AY114" s="36"/>
-      <c r="AZ114" s="37"/>
-    </row>
-    <row r="115" spans="6:52" ht="16" customHeight="1">
-      <c r="Q115" t="s">
-        <v>233</v>
-      </c>
-      <c r="X115" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="AI115" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="116" spans="6:52" ht="16" customHeight="1">
-      <c r="Z116" s="53" t="s">
-        <v>205</v>
-      </c>
-      <c r="AA116" s="54"/>
-      <c r="AB116" s="54"/>
-      <c r="AC116" s="54"/>
-      <c r="AD116" s="54"/>
-      <c r="AE116" s="55"/>
-      <c r="AF116" t="s">
-        <v>248</v>
-      </c>
-      <c r="AI116" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="117" spans="6:52" ht="16" customHeight="1">
-      <c r="Z117" s="33"/>
-      <c r="AA117" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB117" s="5"/>
-      <c r="AC117" s="5"/>
-      <c r="AD117" s="5"/>
-      <c r="AE117" s="34"/>
-    </row>
-    <row r="118" spans="6:52" ht="16" customHeight="1">
-      <c r="Z118" s="33"/>
-      <c r="AA118" s="5"/>
-      <c r="AB118" s="89" t="s">
-        <v>212</v>
-      </c>
-      <c r="AC118" s="5"/>
-      <c r="AD118" s="5"/>
-      <c r="AE118" s="34"/>
-    </row>
-    <row r="119" spans="6:52" ht="16" customHeight="1">
-      <c r="Z119" s="33"/>
-      <c r="AA119" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="AB119" s="5"/>
-      <c r="AC119" s="5"/>
-      <c r="AD119" s="5"/>
-      <c r="AE119" s="34"/>
-    </row>
-    <row r="120" spans="6:52" ht="16" customHeight="1">
-      <c r="Z120" s="33"/>
-      <c r="AA120" s="5"/>
-      <c r="AB120" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="AC120" s="5"/>
-      <c r="AD120" s="5"/>
-      <c r="AE120" s="34"/>
-    </row>
-    <row r="121" spans="6:52" ht="16" customHeight="1">
+      <c r="AS120" s="33"/>
+      <c r="AT120" s="5"/>
+      <c r="AU120" s="5"/>
+      <c r="AV120" s="5"/>
+      <c r="AW120" s="5"/>
+      <c r="AX120" s="5"/>
+      <c r="AY120" s="5"/>
+      <c r="AZ120" s="34"/>
+    </row>
+    <row r="121" spans="4:52" ht="16" customHeight="1">
+      <c r="F121" s="33"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I121" s="5"/>
+      <c r="J121" s="34"/>
+      <c r="N121" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X121" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="Z121" s="33"/>
       <c r="AA121" s="5" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="AB121" s="5"/>
       <c r="AC121" s="5"/>
       <c r="AD121" s="5"/>
       <c r="AE121" s="34"/>
-    </row>
-    <row r="122" spans="6:52" ht="16" customHeight="1">
-      <c r="Z122" s="33"/>
-      <c r="AA122" s="5"/>
-      <c r="AB122" s="5" t="s">
+      <c r="AF121" s="84"/>
+      <c r="AS121" s="33"/>
+      <c r="AT121" s="5"/>
+      <c r="AU121" s="5"/>
+      <c r="AV121" s="5"/>
+      <c r="AW121" s="5"/>
+      <c r="AX121" s="5"/>
+      <c r="AY121" s="5"/>
+      <c r="AZ121" s="34"/>
+    </row>
+    <row r="122" spans="4:52" ht="16" customHeight="1">
+      <c r="F122" s="35"/>
+      <c r="G122" s="36"/>
+      <c r="H122" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="I122" s="36"/>
+      <c r="J122" s="37"/>
+      <c r="N122" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="X122" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z122" s="35"/>
+      <c r="AA122" s="87" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB122" s="36"/>
+      <c r="AC122" s="36"/>
+      <c r="AD122" s="36"/>
+      <c r="AE122" s="37"/>
+      <c r="AS122" s="33"/>
+      <c r="AT122" s="5"/>
+      <c r="AU122" s="5"/>
+      <c r="AV122" s="5"/>
+      <c r="AW122" s="5"/>
+      <c r="AX122" s="5"/>
+      <c r="AY122" s="5"/>
+      <c r="AZ122" s="34"/>
+    </row>
+    <row r="123" spans="4:52" ht="16" customHeight="1">
+      <c r="H123" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="N123" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>229</v>
+      </c>
+      <c r="X123" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH123" t="s">
+        <v>194</v>
+      </c>
+      <c r="AS123" s="35"/>
+      <c r="AT123" s="79" t="s">
+        <v>162</v>
+      </c>
+      <c r="AU123" s="36"/>
+      <c r="AV123" s="36"/>
+      <c r="AW123" s="36"/>
+      <c r="AX123" s="36"/>
+      <c r="AY123" s="36"/>
+      <c r="AZ123" s="37"/>
+    </row>
+    <row r="124" spans="4:52" ht="16" customHeight="1">
+      <c r="R124" t="s">
+        <v>232</v>
+      </c>
+      <c r="X124" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="AI124" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="125" spans="4:52" ht="16" customHeight="1">
+      <c r="Z125" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA125" s="54"/>
+      <c r="AB125" s="54"/>
+      <c r="AC125" s="54"/>
+      <c r="AD125" s="54"/>
+      <c r="AE125" s="55"/>
+      <c r="AF125" t="s">
+        <v>247</v>
+      </c>
+      <c r="AI125" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="126" spans="4:52" ht="16" customHeight="1">
+      <c r="Z126" s="33"/>
+      <c r="AA126" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB126" s="5"/>
+      <c r="AC126" s="5"/>
+      <c r="AD126" s="5"/>
+      <c r="AE126" s="34"/>
+    </row>
+    <row r="127" spans="4:52" ht="16" customHeight="1">
+      <c r="Z127" s="33"/>
+      <c r="AA127" s="5"/>
+      <c r="AB127" s="88" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC127" s="5"/>
+      <c r="AD127" s="5"/>
+      <c r="AE127" s="34"/>
+    </row>
+    <row r="128" spans="4:52" ht="16" customHeight="1">
+      <c r="Z128" s="33"/>
+      <c r="AA128" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB128" s="5"/>
+      <c r="AC128" s="5"/>
+      <c r="AD128" s="5"/>
+      <c r="AE128" s="34"/>
+    </row>
+    <row r="129" spans="26:52" ht="16" customHeight="1">
+      <c r="Z129" s="33"/>
+      <c r="AA129" s="5"/>
+      <c r="AB129" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC129" s="5"/>
+      <c r="AD129" s="5"/>
+      <c r="AE129" s="34"/>
+    </row>
+    <row r="130" spans="26:52" ht="16" customHeight="1">
+      <c r="Z130" s="33"/>
+      <c r="AA130" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB130" s="5"/>
+      <c r="AC130" s="5"/>
+      <c r="AD130" s="5"/>
+      <c r="AE130" s="34"/>
+    </row>
+    <row r="131" spans="26:52" ht="16" customHeight="1">
+      <c r="Z131" s="33"/>
+      <c r="AA131" s="5"/>
+      <c r="AB131" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC131" s="5"/>
+      <c r="AD131" s="5"/>
+      <c r="AE131" s="34"/>
+      <c r="AS131" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="AT131" s="54"/>
+      <c r="AU131" s="54"/>
+      <c r="AV131" s="54"/>
+      <c r="AW131" s="54"/>
+      <c r="AX131" s="54"/>
+      <c r="AY131" s="54"/>
+      <c r="AZ131" s="55"/>
+    </row>
+    <row r="132" spans="26:52" ht="16" customHeight="1">
+      <c r="Z132" s="33"/>
+      <c r="AA132" s="5"/>
+      <c r="AB132" s="5"/>
+      <c r="AC132" s="5"/>
+      <c r="AD132" s="5"/>
+      <c r="AE132" s="34"/>
+      <c r="AS132" s="33"/>
+      <c r="AT132" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU132" s="5"/>
+      <c r="AV132" s="5"/>
+      <c r="AW132" s="5"/>
+      <c r="AX132" s="5"/>
+      <c r="AY132" s="5"/>
+      <c r="AZ132" s="34"/>
+    </row>
+    <row r="133" spans="26:52" ht="16" customHeight="1">
+      <c r="Z133" s="35"/>
+      <c r="AA133" s="87" t="s">
         <v>210</v>
       </c>
-      <c r="AC122" s="5"/>
-      <c r="AD122" s="5"/>
-      <c r="AE122" s="34"/>
-      <c r="AS122" s="53" t="s">
+      <c r="AB133" s="36"/>
+      <c r="AC133" s="36"/>
+      <c r="AD133" s="36"/>
+      <c r="AE133" s="37"/>
+      <c r="AS133" s="33"/>
+      <c r="AT133" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU133" s="5"/>
+      <c r="AV133" s="5"/>
+      <c r="AW133" s="5"/>
+      <c r="AX133" s="5"/>
+      <c r="AY133" s="5"/>
+      <c r="AZ133" s="34"/>
+    </row>
+    <row r="134" spans="26:52" ht="16" customHeight="1">
+      <c r="AS134" s="33"/>
+      <c r="AT134" s="5"/>
+      <c r="AU134" s="5"/>
+      <c r="AV134" s="5"/>
+      <c r="AW134" s="5"/>
+      <c r="AX134" s="5"/>
+      <c r="AY134" s="5"/>
+      <c r="AZ134" s="34"/>
+    </row>
+    <row r="135" spans="26:52" ht="16" customHeight="1">
+      <c r="AS135" s="33"/>
+      <c r="AT135" s="5"/>
+      <c r="AU135" s="5"/>
+      <c r="AV135" s="5"/>
+      <c r="AW135" s="5"/>
+      <c r="AX135" s="5"/>
+      <c r="AY135" s="5"/>
+      <c r="AZ135" s="34"/>
+    </row>
+    <row r="136" spans="26:52" ht="16" customHeight="1">
+      <c r="Z136" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS136" s="35"/>
+      <c r="AT136" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="AT122" s="54"/>
-      <c r="AU122" s="54"/>
-      <c r="AV122" s="54"/>
-      <c r="AW122" s="54"/>
-      <c r="AX122" s="54"/>
-      <c r="AY122" s="54"/>
-      <c r="AZ122" s="55"/>
-    </row>
-    <row r="123" spans="6:52" ht="16" customHeight="1">
-      <c r="Z123" s="33"/>
-      <c r="AA123" s="5"/>
-      <c r="AB123" s="5"/>
-      <c r="AC123" s="5"/>
-      <c r="AD123" s="5"/>
-      <c r="AE123" s="34"/>
-      <c r="AS123" s="33"/>
-      <c r="AT123" s="78" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU123" s="5"/>
-      <c r="AV123" s="5"/>
-      <c r="AW123" s="5"/>
-      <c r="AX123" s="5"/>
-      <c r="AY123" s="5"/>
-      <c r="AZ123" s="34"/>
-    </row>
-    <row r="124" spans="6:52" ht="16" customHeight="1">
-      <c r="Z124" s="35"/>
-      <c r="AA124" s="88" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB124" s="36"/>
-      <c r="AC124" s="36"/>
-      <c r="AD124" s="36"/>
-      <c r="AE124" s="37"/>
-      <c r="AS124" s="33"/>
-      <c r="AT124" s="78" t="s">
-        <v>166</v>
-      </c>
-      <c r="AU124" s="5"/>
-      <c r="AV124" s="5"/>
-      <c r="AW124" s="5"/>
-      <c r="AX124" s="5"/>
-      <c r="AY124" s="5"/>
-      <c r="AZ124" s="34"/>
-    </row>
-    <row r="125" spans="6:52" ht="16" customHeight="1">
-      <c r="AS125" s="33"/>
-      <c r="AT125" s="5"/>
-      <c r="AU125" s="5"/>
-      <c r="AV125" s="5"/>
-      <c r="AW125" s="5"/>
-      <c r="AX125" s="5"/>
-      <c r="AY125" s="5"/>
-      <c r="AZ125" s="34"/>
-    </row>
-    <row r="126" spans="6:52" ht="16" customHeight="1">
-      <c r="AS126" s="33"/>
-      <c r="AT126" s="5"/>
-      <c r="AU126" s="5"/>
-      <c r="AV126" s="5"/>
-      <c r="AW126" s="5"/>
-      <c r="AX126" s="5"/>
-      <c r="AY126" s="5"/>
-      <c r="AZ126" s="34"/>
-    </row>
-    <row r="127" spans="6:52" ht="16" customHeight="1">
-      <c r="Z127" t="s">
-        <v>213</v>
-      </c>
-      <c r="AS127" s="35"/>
-      <c r="AT127" s="80" t="s">
-        <v>163</v>
-      </c>
-      <c r="AU127" s="36"/>
-      <c r="AV127" s="36"/>
-      <c r="AW127" s="36"/>
-      <c r="AX127" s="36"/>
-      <c r="AY127" s="36"/>
-      <c r="AZ127" s="37"/>
+      <c r="AU136" s="36"/>
+      <c r="AV136" s="36"/>
+      <c r="AW136" s="36"/>
+      <c r="AX136" s="36"/>
+      <c r="AY136" s="36"/>
+      <c r="AZ136" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="18">
     <mergeCell ref="AT8:AZ9"/>
     <mergeCell ref="AT17:AZ18"/>
     <mergeCell ref="Z19:AE19"/>
@@ -7753,17 +8104,16 @@
     <mergeCell ref="AH7:AO7"/>
     <mergeCell ref="R10:T11"/>
     <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="AA110:AD111"/>
-    <mergeCell ref="Z65:AE65"/>
+    <mergeCell ref="AA119:AD120"/>
+    <mergeCell ref="Z74:AE74"/>
     <mergeCell ref="F25:J26"/>
     <mergeCell ref="F20:J21"/>
     <mergeCell ref="AU20:AY20"/>
     <mergeCell ref="Z23:AE23"/>
-    <mergeCell ref="AH37:AO37"/>
-    <mergeCell ref="F47:J48"/>
-    <mergeCell ref="AH53:AO53"/>
-    <mergeCell ref="AH55:AO55"/>
-    <mergeCell ref="Z35:AE35"/>
+    <mergeCell ref="AH46:AO46"/>
+    <mergeCell ref="F56:J57"/>
+    <mergeCell ref="AH62:AO62"/>
+    <mergeCell ref="AH64:AO64"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7784,32 +8134,32 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="D6" s="68" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="E7" s="68" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="E8" s="68" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="G9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="G10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -7822,362 +8172,362 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{843CCFF2-E7E0-4D58-A224-217E343662E1}">
   <dimension ref="A3:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" workbookViewId="0">
+    <sheetView topLeftCell="B30" workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="96"/>
-    <col min="2" max="5" width="52.33203125" style="96" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" style="96" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="96"/>
+    <col min="1" max="1" width="8.83203125" style="95"/>
+    <col min="2" max="5" width="52.33203125" style="95" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" style="95" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="95"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="38">
-      <c r="A3" s="97">
+      <c r="A3" s="96">
         <v>43883</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="95" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="38">
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="95" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="99" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" s="99" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="B8" s="100" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="96">
+        <v>43912</v>
+      </c>
+      <c r="B9" s="97" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="57">
+      <c r="B10" s="95" t="s">
+        <v>288</v>
+      </c>
+      <c r="C10" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="D10" s="95" t="s">
+        <v>292</v>
+      </c>
+      <c r="E10" s="95" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="57">
+      <c r="B11" s="95" t="s">
+        <v>289</v>
+      </c>
+      <c r="C11" s="95" t="s">
+        <v>267</v>
+      </c>
+      <c r="D11" s="95" t="s">
+        <v>290</v>
+      </c>
+      <c r="E11" s="95" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="57">
+      <c r="B12" s="95" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" s="95" t="s">
+        <v>285</v>
+      </c>
+      <c r="D12" s="95" t="s">
+        <v>295</v>
+      </c>
+      <c r="E12" s="95" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="57">
+      <c r="B13" s="95" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" s="95" t="s">
+        <v>298</v>
+      </c>
+      <c r="D13" s="95" t="s">
+        <v>299</v>
+      </c>
+      <c r="E13" s="95" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21">
+      <c r="B14" s="98" t="s">
+        <v>283</v>
+      </c>
+      <c r="C14" s="98" t="s">
+        <v>283</v>
+      </c>
+      <c r="D14" s="98" t="s">
+        <v>283</v>
+      </c>
+      <c r="E14" s="98" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" s="97" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="57">
+      <c r="B16" s="95" t="s">
+        <v>301</v>
+      </c>
+      <c r="C16" s="95" t="s">
+        <v>272</v>
+      </c>
+      <c r="D16" s="95" t="s">
+        <v>302</v>
+      </c>
+      <c r="E16" s="95" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="57">
+      <c r="B17" s="95" t="s">
+        <v>304</v>
+      </c>
+      <c r="C17" s="95" t="s">
+        <v>276</v>
+      </c>
+      <c r="D17" s="95" t="s">
+        <v>305</v>
+      </c>
+      <c r="E17" s="95" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="96">
+        <v>43911</v>
+      </c>
+      <c r="B21" s="97" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="57">
+      <c r="B22" s="95" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="D22" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="E22" s="95" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="95">
+      <c r="B23" s="95" t="s">
+        <v>266</v>
+      </c>
+      <c r="C23" s="95" t="s">
+        <v>267</v>
+      </c>
+      <c r="D23" s="95" t="s">
+        <v>268</v>
+      </c>
+      <c r="E23" s="95" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="95">
+      <c r="B24" s="95" t="s">
+        <v>284</v>
+      </c>
+      <c r="C24" s="95" t="s">
+        <v>285</v>
+      </c>
+      <c r="D24" s="95" t="s">
+        <v>286</v>
+      </c>
+      <c r="E24" s="95" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21">
+      <c r="B25" s="98" t="s">
+        <v>283</v>
+      </c>
+      <c r="C25" s="98" t="s">
+        <v>283</v>
+      </c>
+      <c r="D25" s="98" t="s">
+        <v>283</v>
+      </c>
+      <c r="E25" s="98" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="95">
+      <c r="B26" s="95" t="s">
+        <v>279</v>
+      </c>
+      <c r="C26" s="95" t="s">
+        <v>280</v>
+      </c>
+      <c r="D26" s="95" t="s">
+        <v>281</v>
+      </c>
+      <c r="E26" s="95" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="97" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="57">
+      <c r="B28" s="95" t="s">
+        <v>271</v>
+      </c>
+      <c r="C28" s="95" t="s">
+        <v>272</v>
+      </c>
+      <c r="D28" s="95" t="s">
+        <v>273</v>
+      </c>
+      <c r="E28" s="95" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="95">
+      <c r="B29" s="95" t="s">
+        <v>275</v>
+      </c>
+      <c r="C29" s="95" t="s">
+        <v>276</v>
+      </c>
+      <c r="D29" s="95" t="s">
+        <v>277</v>
+      </c>
+      <c r="E29" s="95" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="76">
+      <c r="A32" s="96">
+        <v>43917</v>
+      </c>
+      <c r="B32" s="95" t="s">
+        <v>311</v>
+      </c>
+      <c r="C32" s="95" t="s">
+        <v>312</v>
+      </c>
+      <c r="D32" s="101" t="s">
+        <v>323</v>
+      </c>
+      <c r="E32" s="100" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="76">
+      <c r="B33" s="95" t="s">
+        <v>315</v>
+      </c>
+      <c r="C33" s="95" t="s">
+        <v>316</v>
+      </c>
+      <c r="D33" s="95" t="s">
+        <v>317</v>
+      </c>
+      <c r="E33" s="95" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="97">
-        <v>43912</v>
-      </c>
-      <c r="B9" s="98" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="57">
-      <c r="B10" s="96" t="s">
-        <v>289</v>
-      </c>
-      <c r="C10" s="96" t="s">
-        <v>264</v>
-      </c>
-      <c r="D10" s="96" t="s">
-        <v>293</v>
-      </c>
-      <c r="E10" s="96" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="57">
-      <c r="B11" s="96" t="s">
-        <v>290</v>
-      </c>
-      <c r="C11" s="96" t="s">
-        <v>268</v>
-      </c>
-      <c r="D11" s="96" t="s">
-        <v>291</v>
-      </c>
-      <c r="E11" s="96" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="57">
-      <c r="B12" s="96" t="s">
-        <v>295</v>
-      </c>
-      <c r="C12" s="96" t="s">
-        <v>286</v>
-      </c>
-      <c r="D12" s="96" t="s">
-        <v>296</v>
-      </c>
-      <c r="E12" s="96" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="57">
-      <c r="B13" s="96" t="s">
-        <v>298</v>
-      </c>
-      <c r="C13" s="96" t="s">
-        <v>299</v>
-      </c>
-      <c r="D13" s="96" t="s">
-        <v>300</v>
-      </c>
-      <c r="E13" s="96" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="21">
-      <c r="B14" s="99" t="s">
-        <v>284</v>
-      </c>
-      <c r="C14" s="99" t="s">
-        <v>284</v>
-      </c>
-      <c r="D14" s="99" t="s">
-        <v>284</v>
-      </c>
-      <c r="E14" s="99" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="B15" s="98" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="57">
-      <c r="B16" s="96" t="s">
-        <v>302</v>
-      </c>
-      <c r="C16" s="96" t="s">
-        <v>273</v>
-      </c>
-      <c r="D16" s="96" t="s">
-        <v>303</v>
-      </c>
-      <c r="E16" s="96" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="57">
-      <c r="B17" s="96" t="s">
-        <v>305</v>
-      </c>
-      <c r="C17" s="96" t="s">
-        <v>277</v>
-      </c>
-      <c r="D17" s="96" t="s">
-        <v>306</v>
-      </c>
-      <c r="E17" s="96" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="97">
-        <v>43911</v>
-      </c>
-      <c r="B21" s="98" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="57">
-      <c r="B22" s="96" t="s">
-        <v>263</v>
-      </c>
-      <c r="C22" s="96" t="s">
-        <v>264</v>
-      </c>
-      <c r="D22" s="96" t="s">
-        <v>265</v>
-      </c>
-      <c r="E22" s="96" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="95">
-      <c r="B23" s="96" t="s">
-        <v>267</v>
-      </c>
-      <c r="C23" s="96" t="s">
-        <v>268</v>
-      </c>
-      <c r="D23" s="96" t="s">
-        <v>269</v>
-      </c>
-      <c r="E23" s="96" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="95">
-      <c r="B24" s="96" t="s">
-        <v>285</v>
-      </c>
-      <c r="C24" s="96" t="s">
-        <v>286</v>
-      </c>
-      <c r="D24" s="96" t="s">
-        <v>287</v>
-      </c>
-      <c r="E24" s="96" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="21">
-      <c r="B25" s="99" t="s">
-        <v>284</v>
-      </c>
-      <c r="C25" s="99" t="s">
-        <v>284</v>
-      </c>
-      <c r="D25" s="99" t="s">
-        <v>284</v>
-      </c>
-      <c r="E25" s="99" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="95">
-      <c r="B26" s="96" t="s">
-        <v>280</v>
-      </c>
-      <c r="C26" s="96" t="s">
-        <v>281</v>
-      </c>
-      <c r="D26" s="96" t="s">
-        <v>282</v>
-      </c>
-      <c r="E26" s="96" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="B27" s="98" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="57">
-      <c r="B28" s="96" t="s">
-        <v>272</v>
-      </c>
-      <c r="C28" s="96" t="s">
-        <v>273</v>
-      </c>
-      <c r="D28" s="96" t="s">
-        <v>274</v>
-      </c>
-      <c r="E28" s="96" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="95">
-      <c r="B29" s="96" t="s">
-        <v>276</v>
-      </c>
-      <c r="C29" s="96" t="s">
-        <v>277</v>
-      </c>
-      <c r="D29" s="96" t="s">
-        <v>278</v>
-      </c>
-      <c r="E29" s="96" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="76">
-      <c r="A32" s="97">
-        <v>43917</v>
-      </c>
-      <c r="B32" s="96" t="s">
+    <row r="35" spans="2:5" ht="76">
+      <c r="B35" s="95" t="s">
+        <v>324</v>
+      </c>
+      <c r="C35" s="95" t="s">
         <v>312</v>
       </c>
-      <c r="C32" s="96" t="s">
+      <c r="D35" s="95" t="s">
         <v>313</v>
       </c>
-      <c r="D32" s="136" t="s">
-        <v>324</v>
-      </c>
-      <c r="E32" s="135" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="76">
-      <c r="B33" s="96" t="s">
-        <v>316</v>
-      </c>
-      <c r="C33" s="96" t="s">
-        <v>317</v>
-      </c>
-      <c r="D33" s="96" t="s">
+      <c r="E35" s="102" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="76">
+      <c r="B36" s="101" t="s">
+        <v>325</v>
+      </c>
+      <c r="C36" s="95" t="s">
+        <v>326</v>
+      </c>
+      <c r="D36" s="95" t="s">
+        <v>327</v>
+      </c>
+      <c r="E36" s="95" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="57">
+      <c r="B37" s="95" t="s">
+        <v>331</v>
+      </c>
+      <c r="C37" s="95" t="s">
+        <v>334</v>
+      </c>
+      <c r="D37" s="95" t="s">
+        <v>332</v>
+      </c>
+      <c r="E37" s="95" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="95">
+      <c r="B39" s="95" t="s">
         <v>318</v>
       </c>
-      <c r="E33" s="96" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" ht="76">
-      <c r="B35" s="96" t="s">
-        <v>325</v>
-      </c>
-      <c r="C35" s="96" t="s">
-        <v>313</v>
-      </c>
-      <c r="D35" s="96" t="s">
-        <v>314</v>
-      </c>
-      <c r="E35" s="137" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" ht="76">
-      <c r="B36" s="136" t="s">
-        <v>326</v>
-      </c>
-      <c r="C36" s="96" t="s">
-        <v>327</v>
-      </c>
-      <c r="D36" s="96" t="s">
-        <v>328</v>
-      </c>
-      <c r="E36" s="96" t="s">
+      <c r="C39" s="95" t="s">
+        <v>312</v>
+      </c>
+      <c r="D39" s="101" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" ht="57">
-      <c r="B37" s="96" t="s">
-        <v>332</v>
-      </c>
-      <c r="C37" s="96" t="s">
-        <v>335</v>
-      </c>
-      <c r="D37" s="96" t="s">
-        <v>333</v>
-      </c>
-      <c r="E37" s="96" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" ht="95">
-      <c r="B39" s="96" t="s">
+      <c r="E39" s="95" t="s">
         <v>319</v>
       </c>
-      <c r="C39" s="96" t="s">
-        <v>313</v>
-      </c>
-      <c r="D39" s="136" t="s">
+    </row>
+    <row r="40" spans="2:5" ht="76">
+      <c r="B40" s="95" t="s">
+        <v>320</v>
+      </c>
+      <c r="C40" s="95" t="s">
+        <v>322</v>
+      </c>
+      <c r="D40" s="95" t="s">
         <v>330</v>
       </c>
-      <c r="E39" s="96" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" ht="76">
-      <c r="B40" s="96" t="s">
+      <c r="E40" s="95" t="s">
         <v>321</v>
-      </c>
-      <c r="C40" s="96" t="s">
-        <v>323</v>
-      </c>
-      <c r="D40" s="96" t="s">
-        <v>331</v>
-      </c>
-      <c r="E40" s="96" t="s">
-        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/maraSonSouce/marasong_memo.xlsx
+++ b/maraSonSouce/marasong_memo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hqu666/Documents/Develop/an/workSpace/maraSong/maraSonSouce/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108DA098-6232-3B4D-A594-C21877555B5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80EEF10-A459-524E-86DA-89FC99080810}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8280" yWindow="-18080" windowWidth="26760" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7920" yWindow="-18360" windowWidth="26760" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="起動" sheetId="1" r:id="rId1"/>
@@ -3551,7 +3551,7 @@
   <dimension ref="C2:AZ136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
+      <selection activeCell="T50" sqref="T50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1"/>

--- a/maraSonSouce/marasong_memo.xlsx
+++ b/maraSonSouce/marasong_memo.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hqu666/Documents/Develop/an/workSpace/maraSong/maraSonSouce/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80EEF10-A459-524E-86DA-89FC99080810}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1F808F-6BEA-1E4C-B1AB-FF0B941A890E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="-18360" windowWidth="26760" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7920" yWindow="-18360" windowWidth="26760" windowHeight="17940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="起動" sheetId="1" r:id="rId1"/>
     <sheet name="Alart3BT" sheetId="3" r:id="rId2"/>
     <sheet name="エラーリスト" sheetId="2" r:id="rId3"/>
+    <sheet name="getItems" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="379">
   <si>
     <t>MuList</t>
   </si>
@@ -2151,12 +2152,401 @@
     </r>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>getAllSongItems</t>
+  </si>
+  <si>
+    <t>delOneLine</t>
+  </si>
+  <si>
+    <t>makedListBack</t>
+  </si>
+  <si>
+    <t>MaraSonActivity</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>url2FSet</t>
+  </si>
+  <si>
+    <t>if( mItems == null)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>if(mIndex &lt; 0 ){</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>repeatePlaykijyo</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>onActivityResult</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">case </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>MuList.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>MENU_MUSCK_PLIST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:         </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF808080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>//プレイリスト選択中</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">case </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>CONTEXT_runum_sisei</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:           </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF808080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>//184 ランダム再生</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">case </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>v_artist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:                   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF808080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>//アーティストリスト表示</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">case </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>v_alubum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:                   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF808080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>//アルバムリスト表示</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">case </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>v_titol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:                       </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF808080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>//タイトルリスト表示</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">case </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>rp_artist</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:                      </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF808080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>//アーティストリピート指定ボタン</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">case </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>rp_album</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:                   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF808080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>//アルバムリピート指定ボタン</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">case </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>rp_titol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:                   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF808080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>//タイトルリピート指定ボタン</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">case </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>rp_point</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:                   </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF808080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>//二点間リピート</t>
+    </r>
+  </si>
+  <si>
+    <t>onCreate</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>MusicPlayerService</t>
+  </si>
+  <si>
+    <t>playNextSong</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>dataReflesh</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>if(mItems.size() == 0){</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>sendPlayerState</t>
+  </si>
+  <si>
+    <t>dataUketori</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>if(rInt != index){</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>createBody</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2429,6 +2819,12 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2616,7 +3012,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2824,6 +3220,51 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2842,22 +3283,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2887,39 +3316,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3550,7 +3949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:AZ136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="T50" sqref="T50"/>
     </sheetView>
   </sheetViews>
@@ -3576,68 +3975,68 @@
   </cols>
   <sheetData>
     <row r="2" spans="16:52" ht="16" customHeight="1">
-      <c r="P2" s="124" t="s">
+      <c r="P2" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
-      <c r="Z2" s="125"/>
-      <c r="AA2" s="125"/>
-      <c r="AB2" s="125"/>
-      <c r="AC2" s="125"/>
-      <c r="AD2" s="125"/>
-      <c r="AE2" s="125"/>
-      <c r="AF2" s="125"/>
-      <c r="AG2" s="125"/>
-      <c r="AH2" s="125"/>
-      <c r="AI2" s="125"/>
-      <c r="AJ2" s="125"/>
-      <c r="AK2" s="125"/>
-      <c r="AL2" s="125"/>
-      <c r="AM2" s="125"/>
-      <c r="AN2" s="125"/>
-      <c r="AO2" s="125"/>
-      <c r="AP2" s="125"/>
-      <c r="AQ2" s="125"/>
-      <c r="AR2" s="126"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="107"/>
+      <c r="AB2" s="107"/>
+      <c r="AC2" s="107"/>
+      <c r="AD2" s="107"/>
+      <c r="AE2" s="107"/>
+      <c r="AF2" s="107"/>
+      <c r="AG2" s="107"/>
+      <c r="AH2" s="107"/>
+      <c r="AI2" s="107"/>
+      <c r="AJ2" s="107"/>
+      <c r="AK2" s="107"/>
+      <c r="AL2" s="107"/>
+      <c r="AM2" s="107"/>
+      <c r="AN2" s="107"/>
+      <c r="AO2" s="107"/>
+      <c r="AP2" s="107"/>
+      <c r="AQ2" s="107"/>
+      <c r="AR2" s="108"/>
     </row>
     <row r="3" spans="16:52" ht="16" customHeight="1">
-      <c r="P3" s="127"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109"/>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109"/>
-      <c r="X3" s="109"/>
-      <c r="Y3" s="109"/>
-      <c r="Z3" s="109"/>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="109"/>
-      <c r="AC3" s="109"/>
-      <c r="AD3" s="109"/>
-      <c r="AE3" s="109"/>
-      <c r="AF3" s="109"/>
-      <c r="AG3" s="109"/>
-      <c r="AH3" s="109"/>
-      <c r="AI3" s="109"/>
-      <c r="AJ3" s="109"/>
-      <c r="AK3" s="109"/>
-      <c r="AL3" s="109"/>
-      <c r="AM3" s="109"/>
-      <c r="AN3" s="109"/>
-      <c r="AO3" s="109"/>
-      <c r="AP3" s="109"/>
-      <c r="AQ3" s="109"/>
-      <c r="AR3" s="128"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="110"/>
+      <c r="AD3" s="110"/>
+      <c r="AE3" s="110"/>
+      <c r="AF3" s="110"/>
+      <c r="AG3" s="110"/>
+      <c r="AH3" s="110"/>
+      <c r="AI3" s="110"/>
+      <c r="AJ3" s="110"/>
+      <c r="AK3" s="110"/>
+      <c r="AL3" s="110"/>
+      <c r="AM3" s="110"/>
+      <c r="AN3" s="110"/>
+      <c r="AO3" s="110"/>
+      <c r="AP3" s="110"/>
+      <c r="AQ3" s="110"/>
+      <c r="AR3" s="111"/>
     </row>
     <row r="4" spans="16:52" ht="16" customHeight="1">
       <c r="P4" s="4"/>
@@ -3672,13 +4071,13 @@
     </row>
     <row r="5" spans="16:52" ht="16" customHeight="1">
       <c r="P5" s="4"/>
-      <c r="Q5" s="112" t="s">
+      <c r="Q5" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="R5" s="113"/>
-      <c r="S5" s="113"/>
-      <c r="T5" s="113"/>
-      <c r="U5" s="114"/>
+      <c r="R5" s="114"/>
+      <c r="S5" s="114"/>
+      <c r="T5" s="114"/>
+      <c r="U5" s="115"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
@@ -3749,16 +4148,16 @@
       <c r="AD7" s="5"/>
       <c r="AE7" s="6"/>
       <c r="AF7" s="5"/>
-      <c r="AH7" s="130" t="s">
+      <c r="AH7" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="AI7" s="131"/>
-      <c r="AJ7" s="131"/>
-      <c r="AK7" s="131"/>
-      <c r="AL7" s="131"/>
-      <c r="AM7" s="131"/>
-      <c r="AN7" s="131"/>
-      <c r="AO7" s="132"/>
+      <c r="AI7" s="117"/>
+      <c r="AJ7" s="117"/>
+      <c r="AK7" s="117"/>
+      <c r="AL7" s="117"/>
+      <c r="AM7" s="117"/>
+      <c r="AN7" s="117"/>
+      <c r="AO7" s="118"/>
       <c r="AP7" s="21"/>
       <c r="AQ7" s="21"/>
       <c r="AR7" s="5"/>
@@ -3797,15 +4196,15 @@
       <c r="AP8" s="5"/>
       <c r="AQ8" s="5"/>
       <c r="AR8" s="5"/>
-      <c r="AT8" s="124" t="s">
+      <c r="AT8" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="AU8" s="125"/>
-      <c r="AV8" s="125"/>
-      <c r="AW8" s="125"/>
-      <c r="AX8" s="125"/>
-      <c r="AY8" s="125"/>
-      <c r="AZ8" s="126"/>
+      <c r="AU8" s="107"/>
+      <c r="AV8" s="107"/>
+      <c r="AW8" s="107"/>
+      <c r="AX8" s="107"/>
+      <c r="AY8" s="107"/>
+      <c r="AZ8" s="108"/>
     </row>
     <row r="9" spans="16:52" ht="16" customHeight="1">
       <c r="P9" s="4"/>
@@ -3840,22 +4239,22 @@
       <c r="AP9" s="5"/>
       <c r="AQ9" s="5"/>
       <c r="AR9" s="5"/>
-      <c r="AT9" s="127"/>
-      <c r="AU9" s="109"/>
-      <c r="AV9" s="109"/>
-      <c r="AW9" s="109"/>
-      <c r="AX9" s="109"/>
-      <c r="AY9" s="109"/>
-      <c r="AZ9" s="128"/>
+      <c r="AT9" s="109"/>
+      <c r="AU9" s="110"/>
+      <c r="AV9" s="110"/>
+      <c r="AW9" s="110"/>
+      <c r="AX9" s="110"/>
+      <c r="AY9" s="110"/>
+      <c r="AZ9" s="111"/>
     </row>
     <row r="10" spans="16:52" ht="16" customHeight="1">
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
-      <c r="R10" s="133" t="s">
+      <c r="R10" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="S10" s="133"/>
-      <c r="T10" s="133"/>
+      <c r="S10" s="119"/>
+      <c r="T10" s="119"/>
       <c r="U10" s="25"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
@@ -3882,9 +4281,9 @@
     <row r="11" spans="16:52" ht="16" customHeight="1">
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
-      <c r="R11" s="133"/>
-      <c r="S11" s="133"/>
-      <c r="T11" s="133"/>
+      <c r="R11" s="119"/>
+      <c r="S11" s="119"/>
+      <c r="T11" s="119"/>
       <c r="U11" s="25"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
@@ -3912,13 +4311,13 @@
       <c r="AQ11" s="5"/>
       <c r="AR11" s="5"/>
       <c r="AT11" s="4"/>
-      <c r="AU11" s="112" t="s">
+      <c r="AU11" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="AV11" s="113"/>
-      <c r="AW11" s="113"/>
-      <c r="AX11" s="113"/>
-      <c r="AY11" s="114"/>
+      <c r="AV11" s="114"/>
+      <c r="AW11" s="114"/>
+      <c r="AX11" s="114"/>
+      <c r="AY11" s="115"/>
       <c r="AZ11" s="6"/>
     </row>
     <row r="12" spans="16:52" ht="16" customHeight="1">
@@ -4163,15 +4562,15 @@
       <c r="AP17" s="5"/>
       <c r="AQ17" s="5"/>
       <c r="AR17" s="18"/>
-      <c r="AT17" s="124" t="s">
+      <c r="AT17" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="AU17" s="125"/>
-      <c r="AV17" s="125"/>
-      <c r="AW17" s="125"/>
-      <c r="AX17" s="125"/>
-      <c r="AY17" s="125"/>
-      <c r="AZ17" s="126"/>
+      <c r="AU17" s="107"/>
+      <c r="AV17" s="107"/>
+      <c r="AW17" s="107"/>
+      <c r="AX17" s="107"/>
+      <c r="AY17" s="107"/>
+      <c r="AZ17" s="108"/>
     </row>
     <row r="18" spans="3:52" ht="16" customHeight="1">
       <c r="P18" s="4"/>
@@ -4201,13 +4600,13 @@
       <c r="AP18" s="18"/>
       <c r="AQ18" s="18"/>
       <c r="AR18" s="5"/>
-      <c r="AT18" s="127"/>
-      <c r="AU18" s="109"/>
-      <c r="AV18" s="109"/>
-      <c r="AW18" s="109"/>
-      <c r="AX18" s="109"/>
-      <c r="AY18" s="109"/>
-      <c r="AZ18" s="128"/>
+      <c r="AT18" s="109"/>
+      <c r="AU18" s="110"/>
+      <c r="AV18" s="110"/>
+      <c r="AW18" s="110"/>
+      <c r="AX18" s="110"/>
+      <c r="AY18" s="110"/>
+      <c r="AZ18" s="111"/>
     </row>
     <row r="19" spans="3:52" ht="16" customHeight="1">
       <c r="P19" s="4"/>
@@ -4221,14 +4620,14 @@
       </c>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
-      <c r="Z19" s="129" t="s">
+      <c r="Z19" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="AA19" s="129"/>
-      <c r="AB19" s="129"/>
-      <c r="AC19" s="129"/>
-      <c r="AD19" s="129"/>
-      <c r="AE19" s="129"/>
+      <c r="AA19" s="112"/>
+      <c r="AB19" s="112"/>
+      <c r="AC19" s="112"/>
+      <c r="AD19" s="112"/>
+      <c r="AE19" s="112"/>
       <c r="AF19" s="22"/>
       <c r="AG19" s="18"/>
       <c r="AH19" s="18"/>
@@ -4254,13 +4653,13 @@
       <c r="C20" s="58"/>
       <c r="D20" s="58"/>
       <c r="E20" s="58"/>
-      <c r="F20" s="111" t="s">
+      <c r="F20" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="111"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="111"/>
-      <c r="J20" s="111"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="127"/>
       <c r="K20" s="58"/>
       <c r="L20" s="58"/>
       <c r="P20" s="4"/>
@@ -4303,24 +4702,24 @@
       <c r="AT20" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AU20" s="112" t="s">
+      <c r="AU20" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="AV20" s="113"/>
-      <c r="AW20" s="113"/>
-      <c r="AX20" s="113"/>
-      <c r="AY20" s="114"/>
+      <c r="AV20" s="114"/>
+      <c r="AW20" s="114"/>
+      <c r="AX20" s="114"/>
+      <c r="AY20" s="115"/>
       <c r="AZ20" s="6"/>
     </row>
     <row r="21" spans="3:52" ht="16" customHeight="1">
       <c r="C21" s="58"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="111"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="111"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="127"/>
       <c r="K21" s="58"/>
       <c r="L21" s="58"/>
       <c r="P21" s="4"/>
@@ -4420,14 +4819,14 @@
       <c r="U23" s="37"/>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
-      <c r="Z23" s="115" t="s">
+      <c r="Z23" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="AA23" s="116"/>
-      <c r="AB23" s="116"/>
-      <c r="AC23" s="116"/>
-      <c r="AD23" s="116"/>
-      <c r="AE23" s="117"/>
+      <c r="AA23" s="129"/>
+      <c r="AB23" s="129"/>
+      <c r="AC23" s="129"/>
+      <c r="AD23" s="129"/>
+      <c r="AE23" s="130"/>
       <c r="AF23" s="45"/>
       <c r="AG23" s="9"/>
       <c r="AH23" s="9"/>
@@ -4501,13 +4900,13 @@
       <c r="AZ24" s="6"/>
     </row>
     <row r="25" spans="3:52" ht="16" customHeight="1">
-      <c r="F25" s="105" t="s">
+      <c r="F25" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="107"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="124"/>
       <c r="L25" s="5" t="s">
         <v>140</v>
       </c>
@@ -4560,11 +4959,11 @@
       <c r="AZ25" s="6"/>
     </row>
     <row r="26" spans="3:52" ht="16" customHeight="1">
-      <c r="F26" s="108"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="110"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="126"/>
       <c r="K26" s="58"/>
       <c r="L26" s="5" t="s">
         <v>148</v>
@@ -4621,7 +5020,7 @@
     <row r="27" spans="3:52" ht="16" customHeight="1">
       <c r="E27" s="58"/>
       <c r="F27" s="35"/>
-      <c r="G27" s="136" t="s">
+      <c r="G27" s="105" t="s">
         <v>351</v>
       </c>
       <c r="H27" s="75"/>
@@ -5060,7 +5459,7 @@
     </row>
     <row r="41" spans="16:52" ht="16" customHeight="1">
       <c r="P41" s="4"/>
-      <c r="R41" s="134"/>
+      <c r="R41" s="103"/>
       <c r="T41" t="s">
         <v>134</v>
       </c>
@@ -5220,16 +5619,16 @@
       <c r="AC46" s="5"/>
       <c r="AD46" s="5"/>
       <c r="AE46" s="34"/>
-      <c r="AH46" s="104" t="s">
+      <c r="AH46" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="AI46" s="104"/>
-      <c r="AJ46" s="104"/>
-      <c r="AK46" s="104"/>
-      <c r="AL46" s="104"/>
-      <c r="AM46" s="104"/>
-      <c r="AN46" s="104"/>
-      <c r="AO46" s="104"/>
+      <c r="AI46" s="121"/>
+      <c r="AJ46" s="121"/>
+      <c r="AK46" s="121"/>
+      <c r="AL46" s="121"/>
+      <c r="AM46" s="121"/>
+      <c r="AN46" s="121"/>
+      <c r="AO46" s="121"/>
       <c r="AP46" s="26"/>
       <c r="AQ46" s="27"/>
       <c r="AR46" s="5" t="s">
@@ -5245,11 +5644,11 @@
     </row>
     <row r="47" spans="16:52" ht="16" customHeight="1">
       <c r="P47" s="4"/>
-      <c r="R47" s="135" t="s">
+      <c r="R47" s="104" t="s">
         <v>343</v>
       </c>
-      <c r="S47" s="135"/>
-      <c r="T47" s="135"/>
+      <c r="S47" s="104"/>
+      <c r="T47" s="104"/>
       <c r="W47" s="5" t="s">
         <v>140</v>
       </c>
@@ -5459,13 +5858,13 @@
       </c>
     </row>
     <row r="56" spans="4:44" ht="16" customHeight="1">
-      <c r="F56" s="118" t="s">
+      <c r="F56" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="G56" s="119"/>
-      <c r="H56" s="119"/>
-      <c r="I56" s="119"/>
-      <c r="J56" s="120"/>
+      <c r="G56" s="132"/>
+      <c r="H56" s="132"/>
+      <c r="I56" s="132"/>
+      <c r="J56" s="133"/>
       <c r="P56" s="4"/>
       <c r="Q56" s="35"/>
       <c r="R56" s="36"/>
@@ -5489,11 +5888,11 @@
       </c>
     </row>
     <row r="57" spans="4:44" ht="16" customHeight="1">
-      <c r="F57" s="121"/>
-      <c r="G57" s="122"/>
-      <c r="H57" s="122"/>
-      <c r="I57" s="122"/>
-      <c r="J57" s="123"/>
+      <c r="F57" s="134"/>
+      <c r="G57" s="135"/>
+      <c r="H57" s="135"/>
+      <c r="I57" s="135"/>
+      <c r="J57" s="136"/>
       <c r="P57" s="4"/>
       <c r="W57" s="5" t="s">
         <v>134</v>
@@ -5650,16 +6049,16 @@
       <c r="AC62" s="5"/>
       <c r="AD62" s="5"/>
       <c r="AE62" s="34"/>
-      <c r="AH62" s="104" t="s">
+      <c r="AH62" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="AI62" s="104"/>
-      <c r="AJ62" s="104"/>
-      <c r="AK62" s="104"/>
-      <c r="AL62" s="104"/>
-      <c r="AM62" s="104"/>
-      <c r="AN62" s="104"/>
-      <c r="AO62" s="104"/>
+      <c r="AI62" s="121"/>
+      <c r="AJ62" s="121"/>
+      <c r="AK62" s="121"/>
+      <c r="AL62" s="121"/>
+      <c r="AM62" s="121"/>
+      <c r="AN62" s="121"/>
+      <c r="AO62" s="121"/>
       <c r="AR62" s="5" t="s">
         <v>140</v>
       </c>
@@ -5733,16 +6132,16 @@
       <c r="AC64" s="36"/>
       <c r="AD64" s="36"/>
       <c r="AE64" s="37"/>
-      <c r="AH64" s="104" t="s">
+      <c r="AH64" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="AI64" s="104"/>
-      <c r="AJ64" s="104"/>
-      <c r="AK64" s="104"/>
-      <c r="AL64" s="104"/>
-      <c r="AM64" s="104"/>
-      <c r="AN64" s="104"/>
-      <c r="AO64" s="104"/>
+      <c r="AI64" s="121"/>
+      <c r="AJ64" s="121"/>
+      <c r="AK64" s="121"/>
+      <c r="AL64" s="121"/>
+      <c r="AM64" s="121"/>
+      <c r="AN64" s="121"/>
+      <c r="AO64" s="121"/>
       <c r="AR64" s="5" t="s">
         <v>140</v>
       </c>
@@ -6114,14 +6513,14 @@
         <v>140</v>
       </c>
       <c r="Y74" s="52"/>
-      <c r="Z74" s="104" t="s">
+      <c r="Z74" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="AA74" s="104"/>
-      <c r="AB74" s="104"/>
-      <c r="AC74" s="104"/>
-      <c r="AD74" s="104"/>
-      <c r="AE74" s="104"/>
+      <c r="AA74" s="121"/>
+      <c r="AB74" s="121"/>
+      <c r="AC74" s="121"/>
+      <c r="AD74" s="121"/>
+      <c r="AE74" s="121"/>
       <c r="AH74" s="78" t="s">
         <v>154</v>
       </c>
@@ -7776,12 +8175,12 @@
         <v>140</v>
       </c>
       <c r="Z119" s="33"/>
-      <c r="AA119" s="103" t="s">
+      <c r="AA119" s="120" t="s">
         <v>196</v>
       </c>
-      <c r="AB119" s="103"/>
-      <c r="AC119" s="103"/>
-      <c r="AD119" s="103"/>
+      <c r="AB119" s="120"/>
+      <c r="AC119" s="120"/>
+      <c r="AD119" s="120"/>
       <c r="AE119" s="34"/>
       <c r="AF119" s="85"/>
       <c r="AH119" t="s">
@@ -7816,10 +8215,10 @@
         <v>148</v>
       </c>
       <c r="Z120" s="33"/>
-      <c r="AA120" s="103"/>
-      <c r="AB120" s="103"/>
-      <c r="AC120" s="103"/>
-      <c r="AD120" s="103"/>
+      <c r="AA120" s="120"/>
+      <c r="AB120" s="120"/>
+      <c r="AC120" s="120"/>
+      <c r="AD120" s="120"/>
       <c r="AE120" s="34"/>
       <c r="AF120" s="5"/>
       <c r="AI120" t="s">
@@ -8096,14 +8495,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="AT8:AZ9"/>
-    <mergeCell ref="AT17:AZ18"/>
-    <mergeCell ref="Z19:AE19"/>
-    <mergeCell ref="AU11:AY11"/>
-    <mergeCell ref="P2:AR3"/>
-    <mergeCell ref="AH7:AO7"/>
-    <mergeCell ref="R10:T11"/>
-    <mergeCell ref="Q5:U5"/>
     <mergeCell ref="AA119:AD120"/>
     <mergeCell ref="Z74:AE74"/>
     <mergeCell ref="F25:J26"/>
@@ -8114,6 +8505,14 @@
     <mergeCell ref="F56:J57"/>
     <mergeCell ref="AH62:AO62"/>
     <mergeCell ref="AH64:AO64"/>
+    <mergeCell ref="AT8:AZ9"/>
+    <mergeCell ref="AT17:AZ18"/>
+    <mergeCell ref="Z19:AE19"/>
+    <mergeCell ref="AU11:AY11"/>
+    <mergeCell ref="P2:AR3"/>
+    <mergeCell ref="AH7:AO7"/>
+    <mergeCell ref="R10:T11"/>
+    <mergeCell ref="Q5:U5"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8534,4 +8933,149 @@
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A518251-C0D0-F444-A86F-7DC684A25CCC}">
+  <dimension ref="C3:AC25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD25" sqref="AD25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="18"/>
+  <cols>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="18" max="18" width="20.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:29" s="138" customFormat="1" ht="31">
+      <c r="C3" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="138" t="s">
+        <v>355</v>
+      </c>
+      <c r="Z3" s="137" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="3:29">
+      <c r="D5" s="68" t="s">
+        <v>352</v>
+      </c>
+      <c r="M5" s="68" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="3:29">
+      <c r="N6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="3:29">
+      <c r="D7" s="68" t="s">
+        <v>353</v>
+      </c>
+      <c r="N7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="3:29">
+      <c r="AB8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="3:29">
+      <c r="D9" s="68" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="10" spans="3:29">
+      <c r="M10" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="3:29">
+      <c r="AB11" s="68" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="3:29">
+      <c r="M12" s="68" t="s">
+        <v>360</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="13" spans="3:29">
+      <c r="N13" s="139" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="14" spans="3:29">
+      <c r="N14" s="139" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="15" spans="3:29">
+      <c r="N15" s="139" t="s">
+        <v>363</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="16" spans="3:29">
+      <c r="N16" s="139" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="17" spans="13:29">
+      <c r="N17" s="139" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="18" spans="13:29">
+      <c r="N18" s="139" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="19" spans="13:29">
+      <c r="N19" s="139" t="s">
+        <v>367</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="20" spans="13:29">
+      <c r="N20" s="139" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="13:29">
+      <c r="N21" s="139" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="25" spans="13:29">
+      <c r="M25" t="s">
+        <v>370</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>